--- a/literature_research/FS_scopus/FS_MAIN_filter.xlsx
+++ b/literature_research/FS_scopus/FS_MAIN_filter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H188"/>
+  <dimension ref="A1:H268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rebalance power and strengthen farmers’ position in the EU food system? A CDA of the Farm to Fork Strategy</t>
+          <t>“We grow earth”: performing eco-agrarian citizenship at the semi-periphery of Europe</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -516,14 +516,16 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The Farm to Fork (F2F) Strategy at the heart of the European Union’s Green Deal set out to create a “just transition” towards a sustainable food system, with benefits for all actors. We conducted a critical discourse analysis (CDA) to explore discourses around power in the food system and farmers’ position in the communication and implementation of the Farm to Fork Strategy. Discourse analysis encapsulates various scientific methodologies for deciphering the meaning behind the creation and communication of different forms of language and identify power dynamics, amongst other aspects. We identified two prior discourses in one of the objectives of the European Union’s new Common Agricultural Policy (2023-27). Our analysis found that the discourses, namely “rebalance power in food system” and “strengthening farmers’ position in value chains,” are marginalized in favour of an innovation-investment discourse, indicative of greater financialization and technologization based on techno-finances fixes in transforming the European Union agri-food system. We argue that entities representing agri-business interests have been influential in the policymaking process and voices representing smallholder and medium-sized farmers’ transformational discourses have been excluded. © The Author(s) 2023.</t>
+          <t>Peasant studies have long demonstrated the historical contribution of peasants to the stewardship of earth’s commons. We enter the debate on ecological citizenship through a concern for environmental and food justice/sovereignty, two scholarly fields that have rarely been connected despite their theoretical complementarity. We argue that peasants have historically acted as eco-citizens, even if they still have to reclaim their political status as citizens with rights. We focus on the labor practices and advocacy efforts of peasants in Romania and Portugal and analyze their testimonies to identify rural civic engagements as acts of planetary eco-citizenship based on interdependence and care. Building on Wittman´s concept of agrarian citizenship, we look at three dimensions of collective action–peasant agroecology, seed sovereignty and re-localization of food–as political acts which expand prevailing visions of eco-citizenship by de-centering urban and national spaces as the locus of civic engagement and the promotion of transnational political action. © 2023 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="n">
-        <v>1</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -540,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Traditional food security and food sovereignty in the coastal region of South-Central Alaska</t>
+          <t>Pioneering Communities in Dissemination of Local Wheat Varieties and Products in Turkey; [Türkiye'de Yerel Buğday Çeşitlerinin ve Ürünlerinin Yaygınlaştırılmasında Öncü Topluluklar]</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -548,14 +550,16 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A food assessment questionnaire was completed by Alutiiq and Eyak peoples of the Chugach Region of Alaska in 2016–2017. This questionnaire, conducted by the Chugach Regional Resource Commission, gathered 87 responses from adults residing in seven communities. The questions related to traditional food systems, food security, and food sovereignty and were organised into six sections: Community Food Resources, Diet and Health, Culture, Organisation and Governance, Food Resources, and Natural Resources and Environment. Nine questions directly addressed food sovereignty. Results revealed the importance of traditional food sources in the communities, foods that are not readily available or are difficult to access, resources that are useful to improve traditional food security, health problems that are perceived to be caused or exacerbated by the lack of traditional foods in the area, traditional foods commonly consumed, and barriers from accessing traditional foods. Additionally, recommendations for improving food systems and addressing barriers are provided. © 2024 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Modern wheat varieties developed since the 1960s have increased yields but have also brought with them serious ecological, social and health problems. Local wheat varieties must be produced, developed, conserved and disseminated by farmers. In this research the pioneering farmer/consumer communities in Çanakkale, Balıkesir and Kars provinces and some community supported agriculture groups in Izmir province active in dissemination of local wheat varieties and breads and other products are examined. Participatory action research methodology was used among producer groups and food communities. The research question was developed through common problems and solutions by involving producers and consumers during the field research in line with participatory action research. The local wheat production of producer groups and the processes of supplying their products to the market were carefully analyzed and this information was shared with food groups. In the food groups, ways to increase the consumption of local wheat products were sought with the information shared. As a result, it is seen that pioneer groups that ensure direct marketing of products from farmers to consumers, organize farmers, work holistically and increase women's participation are more successful in the geographical dissemination of local wheat varieties and ensuring seed sovereignty. In consumer groups, it was observed that understanding the production process and identifying problems related to consumption through focus group studies initially increased the consumption of local wheat products. However, the high cost of bread made from local wheat varieties constitutes one of the biggest obstacles. Collaboration between consumers and food groups with local producers can increase the spread of the production and consumption of local wheat. Local governments can also play an important role in promoting local wheat and its products. One of these supports could be participatory plant breeding. © 2024 Namik Kemal University - Agricultural Faculty. All rights reserved.</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="F4" t="n">
-        <v>1</v>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -572,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The organizational challenge of international agricultural research: The fifty-year odyssey of the CGIAR</t>
+          <t>Rebalance power and strengthen farmers’ position in the EU food system? A CDA of the Farm to Fork Strategy</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -580,7 +584,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Over its 50-year history, CGIAR has with increasing frequency revisited the question of how best to organize its research to address growing complexity of agricultural, food, and ecological systems, a multiplying set of development goals, changes in global science, increasing diversity of funding, and evolving capacities of partner organizations. We review this evolution over four periods noting inevitable trade-offs and tensions in a system of autonomous centers and sovereign donors, in developing common research strategies, appropriate lines of management, and aligning resources around agreed priorities. As a result, organizational changes have not met expectations and funding has continued to fragment around short-term payoffs at the expense of producing global public goods over the long term. The paper concludes with suggestions for building on the lessons of organizational reform to improve the collective action performance of funders and centers to drive and sustain needed changes. © 2024 Elsevier Ltd</t>
+          <t>The Farm to Fork (F2F) Strategy at the heart of the European Union’s Green Deal set out to create a “just transition” towards a sustainable food system, with benefits for all actors. We conducted a critical discourse analysis (CDA) to explore discourses around power in the food system and farmers’ position in the communication and implementation of the Farm to Fork Strategy. Discourse analysis encapsulates various scientific methodologies for deciphering the meaning behind the creation and communication of different forms of language and identify power dynamics, amongst other aspects. We identified two prior discourses in one of the objectives of the European Union’s new Common Agricultural Policy (2023-27). Our analysis found that the discourses, namely “rebalance power in food system” and “strengthening farmers’ position in value chains,” are marginalized in favour of an innovation-investment discourse, indicative of greater financialization and technologization based on techno-finances fixes in transforming the European Union agri-food system. We argue that entities representing agri-business interests have been influential in the policymaking process and voices representing smallholder and medium-sized farmers’ transformational discourses have been excluded. © The Author(s) 2023.</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -604,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>How trust is lost: the Food Systems Summit 2021 and the delegitimation of UN food governance</t>
+          <t>Traditional food security and food sovereignty in the coastal region of South-Central Alaska</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -612,7 +616,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Social movements see participation formats of international organizations (IOs) with suspicion. They increasingly retreat from cooperation to contest IOs from the outside, because they fear co-optation without real policy impact. However, the Food and Agricultural Organization (FAO) was an exception to this trend because its opening up was seen as long-term dialogue facilitating discussions about the nature of food production, and because it created credible institutional mechanisms that were trusted by activists to give influence to farmers and peasant movements. Therefore, the food sovereignty movement participated within the FAO framework in a remarkably institutionalized way throughout the 2010s. But in 2019, when the United Nations (UN) announced to hold a food systems summit (United Nations Food Systems Summit (UNFSS)), this changed dramatically. The food sovereignty movement, many non-governmental organizations (NGOs), and eventually scientists, decided to boycott the summit, instead organizing an alternative Peoples’ Summit, and withdrawing from long-held institutional roles in the FAO. How can this be explained? This article traces the process from the announcement of the UNFSS to its implementation, stressing how institutional trust was damaged by several decisions in the process that undermined the good faith of activists. As we show in detail, the circumvention of established institutional mechanisms, and the feeling of betrayal on the side of the movement, was decisive for losing institutional trust. Importantly, a mixture of substantive and institutional changes in the context of UNFSS not only undermined the movement’s trust into the integrity and ability of the summit organizers, but thereby also provoked movement efforts to delegitimize UN food governance at large. © The Author(s) 2023.</t>
+          <t>A food assessment questionnaire was completed by Alutiiq and Eyak peoples of the Chugach Region of Alaska in 2016–2017. This questionnaire, conducted by the Chugach Regional Resource Commission, gathered 87 responses from adults residing in seven communities. The questions related to traditional food systems, food security, and food sovereignty and were organised into six sections: Community Food Resources, Diet and Health, Culture, Organisation and Governance, Food Resources, and Natural Resources and Environment. Nine questions directly addressed food sovereignty. Results revealed the importance of traditional food sources in the communities, foods that are not readily available or are difficult to access, resources that are useful to improve traditional food security, health problems that are perceived to be caused or exacerbated by the lack of traditional foods in the area, traditional foods commonly consumed, and barriers from accessing traditional foods. Additionally, recommendations for improving food systems and addressing barriers are provided. © 2024 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -636,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Biocultural Elements and Multifunctionality of Cassava Flour Production in Agrarian Reform Settlements in the Extreme South of Bahia, Brazil</t>
+          <t>TOWARDS FOOD SOVEREIGNTY: THE ROLE OF SMALLHOLDER FARMERS’ SEED SECURITY IN IMPROVING CLIMATE CHANGE RESILIENCE IN NORTHERN MALAWI</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -644,14 +648,16 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Artisanal manufacture of cassava flour in Brazil has a cultural and biological framework developed over generations of traditional rural workers. We conducted a broad study of flour production in the Extreme South of Bahia in 2019 across 30 rural settlements in 11 municipalities, where we evaluated 107 flour producers. Our results present the socioeconomic profiles of local farmers, cassava varieties, types of flour, particularities of production, and characteristics of commercialization. We highlight the multiple functions of artisanal production of cassava flour, especially as related to social and economic maintenance of households, the promotion of food security, and sovereignty within and around the communities, and the conservation of agrobiodiversity in the rural landscape. © The Author(s), under exclusive licence to Springer Science+Business Media, LLC, part of Springer Nature 2024.</t>
+          <t>With climate extreme events increasing in frequency and intensity in Malawi, the future of local food production faces serious threats, necessitating renewed efforts to build the adaptive capabilities of the majority poor smallholder farmers. In this context, seed security is critical to improving rural livelihoods and agrobiodiversity; however, knowledge of its role in climate change resilience is sparse. Drawing insights from vulnerability and resilience literature, this paper examines the role of seed security in enhancing climate change resilience in northern Malawi. Using a cross-sectional survey of 1,090 smallholder farmers and applying logistic regression analysis, the study found that households that are seed-secure were significantly more likely to report stronger resilience to climate change than those that were not seed-secure, even after controlling for theoretically relevant variables (OR = 1.89; p &lt;.01). Other noteworthy predictors of climate change resilience included level of education, wealth, agroecological practice, and seed sources. Based on the findings, we advocate for promoting seed security as part of broader localized and place-specific action plans to foster resilience to climate change in agricultural regions. © Copyright © 2024 by the American Geographical Society of New York.</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
-      <c r="F7" t="n">
-        <v>1</v>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -668,15 +674,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Examining the Criminal Aspects of the Indonesian Plant Varieties Regime and Farmer Protection for Food Sovereignty</t>
+          <t>The organizational challenge of international agricultural research: The fifty-year odyssey of the CGIAR</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>This research investigates the Plant Varieties Regime's role in safeguarding farmers’ rights in plant development and cultivation in Indonesia. Specifically, it scrutinizes criminal provisions concerning farmers accused of producing seeds without the right holder's consent, as evident in multiple court decisions. These verdicts have ignited legal debates that conflict with the principles of food sovereignty. Given that nearly 90% of corn plants are cultivated through traditional farmer knowledge, the increasing dependence on the seed industry disrupts agricultural practices passed down through generations. The Plant Variety Protection Act (PVP Act) inadvertently encourages seed industry monopolization. This paper advocates a coherent approach in compliance with Article 27(2) of the 1945 Constitution to address these legal issues and establish a just legal framework. The primary legal discourse centers on equitable protection, necessitating a re-evaluation of the PVP Law, which is perceived as restricting plant development opportunities and discriminating against farmers. Farmers, as stewards of seed development and livelihood, should not face criminal charges encroaching upon their rights. Employing a normative methodology involving statutory, conceptual, and case analyses, this study examines the criminal aspects and legal protection of farmers' rights in corn seed cultivation. Ultimately, the paper recommends revising the PVP Law, emphasizing the importance of coherent legal thinking when shaping criminal policies. On a practical level, it calls for collaborative efforts among stakeholders to bolster agricultural sovereignty, particularly in the corn sector, by prioritizing farmers’ rights. In summary, this research aims to provide recommendations for enhancing farmers' protection against the criminal provisions outlined in the PVP Act, which holds a pivotal role in shielding farmers engaged in corn seed cultivation. © 2023 by Author(s).</t>
+          <t>Over its 50-year history, CGIAR has with increasing frequency revisited the question of how best to organize its research to address growing complexity of agricultural, food, and ecological systems, a multiplying set of development goals, changes in global science, increasing diversity of funding, and evolving capacities of partner organizations. We review this evolution over four periods noting inevitable trade-offs and tensions in a system of autonomous centers and sovereign donors, in developing common research strategies, appropriate lines of management, and aligning resources around agreed priorities. As a result, organizational changes have not met expectations and funding has continued to fragment around short-term payoffs at the expense of producing global public goods over the long term. The paper concludes with suggestions for building on the lessons of organizational reform to improve the collective action performance of funders and centers to drive and sustain needed changes. © 2024 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -700,7 +706,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Building the intrinsic infrastructure of agroecology: collectivising to deal with the problem of the state</t>
+          <t>How trust is lost: the Food Systems Summit 2021 and the delegitimation of UN food governance</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -708,7 +714,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Corporate actors in capitalist food systems continue to consolidate ownership of the means of production in ever fewer hands, posing a critical barrier to food sovereignty and to an agroecological transition. Further, corporate influence on the state is often direct and blatant, but there are also more insidious governance barriers– hegemonic structures of power and ‘common sense’ theories of value that exclude smallholders and local communities from participation in decision-making processes. This is especially pertinent in land use planning and in building processing facilities, usually referred to as ‘value chain infrastructure’, or what I call the ‘intrinsic infrastructure of agroecology’. Using a case study approach, I evaluate the successes and failures of two campaigns for agrarian reform in the Australian state of Victoria, concluding that civil society must act collectively to gain the thick legitimacy needed to work with the state to enact enabling policies for an agroecological transition. © The Author(s) 2024.</t>
+          <t>Social movements see participation formats of international organizations (IOs) with suspicion. They increasingly retreat from cooperation to contest IOs from the outside, because they fear co-optation without real policy impact. However, the Food and Agricultural Organization (FAO) was an exception to this trend because its opening up was seen as long-term dialogue facilitating discussions about the nature of food production, and because it created credible institutional mechanisms that were trusted by activists to give influence to farmers and peasant movements. Therefore, the food sovereignty movement participated within the FAO framework in a remarkably institutionalized way throughout the 2010s. But in 2019, when the United Nations (UN) announced to hold a food systems summit (United Nations Food Systems Summit (UNFSS)), this changed dramatically. The food sovereignty movement, many non-governmental organizations (NGOs), and eventually scientists, decided to boycott the summit, instead organizing an alternative Peoples’ Summit, and withdrawing from long-held institutional roles in the FAO. How can this be explained? This article traces the process from the announcement of the UNFSS to its implementation, stressing how institutional trust was damaged by several decisions in the process that undermined the good faith of activists. As we show in detail, the circumvention of established institutional mechanisms, and the feeling of betrayal on the side of the movement, was decisive for losing institutional trust. Importantly, a mixture of substantive and institutional changes in the context of UNFSS not only undermined the movement’s trust into the integrity and ability of the summit organizers, but thereby also provoked movement efforts to delegitimize UN food governance at large. © The Author(s) 2023.</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -732,22 +738,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>“Listen to us”: small-scale farmers’ understandings of social-ecological changes and their drivers in Important Agricultural Heritage Systems</t>
+          <t>Food Security, Food Sovereignty, and Urban Agriculture in Cuba</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Current social-ecological changes affect territories and people’s livelihoods worldwide. Many of these changes have detrimental effects on small-scale agricultural systems, with concomitant negative consequences on global and local food security and sovereignty. The objectives of this study were to explore (i) local knowledge on social-ecological changes and (ii) the perceived drivers of those changes occurring in a mountainscape and an islandscape in two Important Agricultural Heritage Systems of southern South America, both located within a Global Biodiversity Hotspot. This was done by conducting in-depth semi-structured interviews with local campesinos, whose livelihoods are based on the use and management of agrosilvopastoral systems. We found that local communities experience a wide range of globally and locally induced social-ecological changes acting in their territories. Campesinos mentioned 79 different observations of social-ecological changes and identified drivers for 77% of them. Changes in the atmospheric system, specifically regarding changes in precipitation, drought, and temperatures, were commonly observed by campesinos in both sites. Participants also observed complex interrelations between these changes and the drivers influencing them, climatic drivers being the most important. Even though general changes in climatic patterns were identified as drivers of changes by campesinos, other situated changes derived from the site’s biophysical, social, and economic conditions were also important. Our results highlight the importance of considering local knowledge to understand social-ecological changes and to support the development and implementation of public policies that promote contextualized adaptation measures to global changes that affect local livelihoods. © 2023, The Author(s).</t>
+          <t>In the last thirty years, Cuba and its capital Havana have become homes to one of the most vibrant urban agricultural movements in the world. This article argues that urban agriculture (UA) became the epitome of a broader movement of “agricultural revolution” that followed the collapse of the previous, capital intensive, monocultural agro-export model. It contends that this transformation revolved around three pillars – land redistribution, agricultural diversification, and agroecology – that account for a transition from food security to food sovereignty. It also presents the results of interviews conducted in Havana with urban farmers to assess the impact that UA has on their family’s diet and food security. The research demonstrates that UA guarantees a heightened feeling of independence to urban farmers and has a tremendous impact on their food security and diversity, most notably through autoconsumption. It also shows that community needs, use value, and the decommodification of food and land are the driving principles of UA in Cuba, which is in line with the food sovereignty model. © 2024 Latin American Perspectives.</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
-      <c r="F10" t="n">
-        <v>1</v>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -764,7 +772,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Social enterprise, food justice, and food sovereignty: Strange bedfellows or systemic supports?</t>
+          <t>Biocultural Elements and Multifunctionality of Cassava Flour Production in Agrarian Reform Settlements in the Extreme South of Bahia, Brazil</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -772,7 +780,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>There is a debate in the literature about whether one can address food system problems with mar-ket-based approaches while seeking food justice or food sovereignty. However, as part of a team of researchers and community leaders, we have found that this debate is less relevant in practice. The concepts are interrelated within real-world food systems. As such, we were motivated to ask, how do social enterprises (SEs) interact with food jus- tice and food sovereignty movements and their visions in order to realize more democratic and equitable local food systems in communities? To answer this question, we conducted a systematic review at the intersection of SE, food sovereignty, and food justice literature. Analyzing nine articles, which included 17 food-related SEs, we found evidence of potential interactions between food SEs, food justice, and food sovereignty that are compat-ible (e.g., create employment) and incompatible (e.g., limited ability to address issues like community employability and green gentrification). The literature includes at least three important character-istics that inform how food-related SEs may interact with food justice and sovereignty, includ-ing employee and ownership demographics, the enterprise business model, and aspects of the food system targeted by the enterprise via market activi-ties. If we consider a systems perspective, we can envision the ways in which the aspects are embed-ded and interdependent in a neoliberal society. SEs, as market-based agents for social change, exist in the same system as justice and sovereignty. © 2024 by the Authors. Published by the Lyson Center for Civic Agriculture and Food Systems.</t>
+          <t>Artisanal manufacture of cassava flour in Brazil has a cultural and biological framework developed over generations of traditional rural workers. We conducted a broad study of flour production in the Extreme South of Bahia in 2019 across 30 rural settlements in 11 municipalities, where we evaluated 107 flour producers. Our results present the socioeconomic profiles of local farmers, cassava varieties, types of flour, particularities of production, and characteristics of commercialization. We highlight the multiple functions of artisanal production of cassava flour, especially as related to social and economic maintenance of households, the promotion of food security, and sovereignty within and around the communities, and the conservation of agrobiodiversity in the rural landscape. © The Author(s), under exclusive licence to Springer Science+Business Media, LLC, part of Springer Nature 2024.</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -796,15 +804,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>The Losing Battle Against Neoliberal Trade Agreements in Latin America: Social Resistance Against the MTA Between Ecuador, Peru, and the European Union</t>
+          <t>Examining the Criminal Aspects of the Indonesian Plant Varieties Regime and Farmer Protection for Food Sovereignty</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>This article studies the influence of the antineoliberal social movements in Peru and Ecuador in the face of the Multiparty Trade Agreement (MTA) between both countries and the European Union (EU). To identify and analyze this influence, a transdisciplinary theoretical framework was created, integrating debates and concepts from social movement theory and critical international political economy. In Peru, the movement used European allies to establish their demands on the EU’s agenda, which resulted in increased pressure on the government to enforce labor rights and environmental standards. In Ecuador, the movement was able to establish food sovereignty and the rejection of free trade in the national constitution. As a result, the negotiations with the EU were delayed and Ecuador achieved certain exceptions in its adhesion protocol. Nevertheless, both movements were unable to maintain their influence, due to political and socioeconomic dynamics on the domestic and global levels. © The Author(s), 2023.</t>
+          <t>This research investigates the Plant Varieties Regime's role in safeguarding farmers’ rights in plant development and cultivation in Indonesia. Specifically, it scrutinizes criminal provisions concerning farmers accused of producing seeds without the right holder's consent, as evident in multiple court decisions. These verdicts have ignited legal debates that conflict with the principles of food sovereignty. Given that nearly 90% of corn plants are cultivated through traditional farmer knowledge, the increasing dependence on the seed industry disrupts agricultural practices passed down through generations. The Plant Variety Protection Act (PVP Act) inadvertently encourages seed industry monopolization. This paper advocates a coherent approach in compliance with Article 27(2) of the 1945 Constitution to address these legal issues and establish a just legal framework. The primary legal discourse centers on equitable protection, necessitating a re-evaluation of the PVP Law, which is perceived as restricting plant development opportunities and discriminating against farmers. Farmers, as stewards of seed development and livelihood, should not face criminal charges encroaching upon their rights. Employing a normative methodology involving statutory, conceptual, and case analyses, this study examines the criminal aspects and legal protection of farmers' rights in corn seed cultivation. Ultimately, the paper recommends revising the PVP Law, emphasizing the importance of coherent legal thinking when shaping criminal policies. On a practical level, it calls for collaborative efforts among stakeholders to bolster agricultural sovereignty, particularly in the corn sector, by prioritizing farmers’ rights. In summary, this research aims to provide recommendations for enhancing farmers' protection against the criminal provisions outlined in the PVP Act, which holds a pivotal role in shielding farmers engaged in corn seed cultivation. © 2023 by Author(s).</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -828,7 +836,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Representing justice in global land-use scenarios can align biodiversity benefits with protection from land grabbing</t>
+          <t>Fields of contestation and contamination: Maize seeds, agroecology and the (de)coloniality of agriculture in Malawi and South Africa</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -836,14 +844,16 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Protecting biodiversity while meeting food demands is a critical challenge due to rising competition over land. The predominant focus on spatial efficiency in land-use modeling frameworks can dichotomize these objectives and ignore local realities by disregarding biodiversity outside priority areas and the land-use needs of communities who depend on local land systems for their nutrition. We develop a spatially explicit exploratory scenario for 2050 that promotes whole-region biodiversity intactness using a land-system-specific intactness index and incorporates differentiated food futures by protecting important land systems for land-dependent communities from conversion for larger-scale objectives. These are pursued alongside SSP2 “business-as-usual” agricultural demands, uncovering potential tradeoffs. Our results highlight the importance of forest mosaics in agricultural landscapes alongside targeted intensification for meeting food and biodiversity goals and that protecting land-dependent communities does not compromise larger-scale objectives. This demonstrates that land-use models can integrate diverse values, including certain conceptualizations of justice, into sustainability scenarios. © 2024 Elsevier Inc.</t>
+          <t>Farmer-managed seed systems and the conservation of agrobiodiversity are increasingly recognized as important components of food and seed sovereignty. In contrast, hybrid, genetically modified (GM), and, increasingly, gene-edited crops continue to be promoted by Green Revolution proponents as a “climate smart” package that includes fertilizers, pesticides, purchased seeds, and links to global markets. Influencing seed laws and policies to support the uptake of modern crop varieties has been a key entry point in many countries, facilitated by networks of foreign donors, philanthropists, governments, and multinational companies. Using the case of South Africa, where GM crops have been grown for several decades, we provide insights on implications for Malawi, which passed a Seed Act in 2022, implicitly supporting GM crops. Both countries have histories of colonial agriculture with strong policy support for modern, hybrid varieties of maize, and the replacement (and displacement) of local, open-pollinated maize varieties. In South Africa, several studies have revealed the contamination of smallholder fields and seed systems. Through a political ecology lens, we explore how maize and its cotechnologies were commodified in South Africa and Malawi, and what South African experiences of GM crop adoption in smallholder farming systems can tell us about the challenges to be faced by smallholder Malawian farmers. We reveal how colonial histories and ongoing colonialities of power, knowledge, being, and nature continue to shape the character and form of agriculture in both countries, running counter to the needs of agroecological smallholder farmers and their ways of knowing and being. We conclude by envisioning what reimagined, transformed and decolonial approaches for food and agriculture might look like on the African continent, and how they might contribute toward the attainment of food and seed sovereignty and an agroecological future. Copyright: © 2024 The Author(s).</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
-      <c r="F13" t="n">
-        <v>1</v>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -860,7 +870,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sustainable farm work in agroecology: how do systemic factors matter?</t>
+          <t>The seeds are coming home: a rising movement for Indigenous seed rematriation in the United States</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -868,14 +878,16 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Agroecological farming is widely considered to reconcile improved working and living conditions of farmers while promoting social, economic, and ecological sustainability. However, most existing research primarily focuses on relatively narrow trade-offs between workload, economic and ecological outcomes at farm level and overlooks the critical role of contextual factors. This article conducts a critical literature review on the complex nature of agroecological farm work and proposes the holistic concept of sustainable farm work (SFW) in agroecology together with a heuristic evaluation framework. The latter was applied to ten case studies to test its relevance, affirming positive outcomes of agroecology on SFW, such as improved food sovereignty, biodiversity conservation, and social inclusiveness, but also showing trade-offs, including increased workload and potential yield reductions. Further, results show that contextual factors, such as policy support, market regulation, and access to resources, heavily influence the impact of agroecological practices on SFW. This article strongly argues for the importance of a holistic understanding of SFW and its contextualization within multiple socio-ecological system levels. The proposed framework establishes clear relationships between agroecology and SFW. An explicit recognition of these multidimensional relationships is essential for maximizing positive outcomes of agroecology in different contexts and fostering SFW. On a theoretical level, this research concludes that, from a holistic perspective, work is an entry point to studying the potential of agroecology to drive a sustainable agroecological transition in economic, social, and ecological terms. © The Author(s) 2024.</t>
+          <t>Seed rematriation is a rising movement within greater efforts to improve seed and food sovereignty for Native American communities in the United States. As a feminized reframing of repatriation, rematriation seeks to heal Indigenous relationships with food, seeds, and landscapes. Since first contact, Native agricultural practices have been systematically targeted by colonization, resulting in the diminished biodiversity of cultural gardening systems. Of this vast wealth, many varieties exist today solely under the stewardship of non-Native institutions. Seed rematriation is therefore the process and movement by which Native nations reclaim their cultural seed heritages. Once seeds are returned to the hands and soils of their home communities, Indigenous Nations can reestablish healthy, diverse, and sustainable seed and foodways for generations to come. This article explores the history of the term rematriation within Indigenous sovereignty scholarship as well as its evolving interpretations and applications. Considering how the seed rematriation movement has been shaped by several seed keepers in the Midwest reveals the cultural understandings and significances that underpin this work across many aspects of Indigenous lifeways. The resulting discussion from ethnographic material demonstrates why seed reclamation and seed sovereignty movements in the Midwest uphold Native nationhood through both resurgence and refusal. The Indigenous processes of recognizing and reclaiming seeds work beyond recovering agricultural knowledge to also mend severed kin relationships, rejuvenate cultural knowledge, and reestablish authority over Indigenous food systems. © The Author(s), under exclusive licence to Springer Nature B.V. 2024. Springer Nature or its licensor (e.g. a society or other partner) holds exclusive rights to this article under a publishing agreement with the author(s) or other rightsholder(s); author self-archiving of the accepted manuscript version of this article is solely governed by the terms of such publishing agreement and applicable law.</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
-      <c r="F14" t="n">
-        <v>1</v>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -892,15 +904,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>The doctors of agrifood studies</t>
+          <t>Building the intrinsic infrastructure of agroecology: collectivising to deal with the problem of the state</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>The Agriculture, Food and Human Values Society and the journal Agriculture and Human Values provided a crucial intellectual space for the early transdisciplinary critique of the industrial agrifood system. This paper describes that process and presents the concept of “The Doctors of Agrifood Studies” as a metaphor for the key role critical agrifood social scientists played in documenting the unsustainability of conventional agriculture and working to create an alternative, ethical, sustainable agrifood system. After the introduction, the paper details the “Critical Turn” in agrifood studies, followed by a reconsideration of my “Four Questions” framework, focusing on the current tension between the food security and food sovereignty discourses and movements. © 2022, The Author(s), under exclusive licence to Springer Nature B.V.</t>
+          <t>Corporate actors in capitalist food systems continue to consolidate ownership of the means of production in ever fewer hands, posing a critical barrier to food sovereignty and to an agroecological transition. Further, corporate influence on the state is often direct and blatant, but there are also more insidious governance barriers– hegemonic structures of power and ‘common sense’ theories of value that exclude smallholders and local communities from participation in decision-making processes. This is especially pertinent in land use planning and in building processing facilities, usually referred to as ‘value chain infrastructure’, or what I call the ‘intrinsic infrastructure of agroecology’. Using a case study approach, I evaluate the successes and failures of two campaigns for agrarian reform in the Australian state of Victoria, concluding that civil society must act collectively to gain the thick legitimacy needed to work with the state to enact enabling policies for an agroecological transition. © The Author(s) 2024.</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -924,7 +936,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Food systems in depressed and contested agro-territories: Participatory Rural Appraisal in Odemira, Portugal</t>
+          <t>Agroecology for Structural One Health</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -932,14 +944,16 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Farming regions in Europe, particularly in the South, are increasingly feeling the effects of climate change due to factors such as drought, extreme weather events, and desertification, with severe consequences for food security and food sovereignty. Additionally, decades of rural mismanagement have left countless of these farming territories severely depressed as well as at the mercy of competition for their natural resources. This paper presents and discusses the results of a Participatory Rural Appraisal conducted in the region of Odemira, Southwest Portugal. Rooted in the frameworks of agroecology and food democracy, this mixed methodology aims to support people in multiply stressed agro-territories to diagnose the state of their food systems and agroecosystems from a democratic and ecological point of view and engage local actors in imagining fairer and healthier food futures for their regions. Local food actors were invited to identify and qualify the main problems in the region's food systems, complemented by an agroecological assessment of farm production systems. The results of the study confirm the status of Odemira as a depressed and contested agro-territory, whose social, economic, and ecological vulnerability is being compounded by the clash between the model of traditional smallholder farming and that of large-scale intensive agriculture. The study also shows the potential of sustainable farming practices as well as collaboration between the different food actors to support an agroecological transition in the region. However, to jointly realise food democracy and food system sustainability, the tensions resulting from the current political support for hyper-industrialisation and the lack of democratic, institutional, and legal mechanisms available to local actors will need to be addressed head-on. Copyright © 2023 Horstink, Schwemmlein and Encarnação.</t>
+          <t>Based on colonial capitalist logics, global biosecurity strategies have long relied upon downstream measures of surveillance and control to reduce disease burden and address the rising risk of antimicrobial resistance (AMR). One Health aims to address this through what it describes as a systems approach, yet in failing to grapple with capitalist hegemony, the framework reproduces the microbial and logical diseases it intends to prevent. Calls for a Structural One Health approach embed the principles of agroecology as a pathway toward food sovereignty, joining the calls of peasants, smallholders, Indigenous Peoples, fishers and forest dwellers globally. This paradigm of food production takes a truly ecosystems approach in embedding place-based production systems within political economies centred on human and more-than-human relations rather than on extraction and division. Working outside the standardized monoculture of industrial agriculture, agroecological food producers the world over embrace biodiversity as an effective safeguard against harmful pathology, creating and living the alternative paradigms necessary for unwinding our interconnected planetary crises. One Health without structural integrity is only as strong a framework as status quo production systems and biosecurity measures, serving to reinforce rather than transform the current dominant global system. © 2023, Society for International Development.</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
-      <c r="F16" t="n">
-        <v>1</v>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -956,7 +970,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Accessing biological control genetic resources and sharing benefits resulting from their utilization</t>
+          <t>“Listen to us”: small-scale farmers’ understandings of social-ecological changes and their drivers in Important Agricultural Heritage Systems</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -964,7 +978,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>With the adoption of the Convention on Biological Diversity (CBD) in 1992, the sovereign rights of states over their natural resources were explicitly recognized and the authority of national governments to determine access to genetic resources confirmed. The CBD had a major impact on the global exchange of genetic resources, including genetic resources for food and agriculture. At national level, the CBD triggered the development of access and benefit-sharing (ABS) measures through which governments aim to enforce national sovereignty over genetic resources with the aim to partake in the benefits derived from the use of these resources. At global level, the CBD triggered multiple normative initiatives, including the adoption of an international instrument on plant genetic resources and the development of a Protocol to the CBD. The history of the Commission on Genetic Resources for Food and Agriculture, established in 1983 by the Food and Agriculture Organization of the United Nations (FAO), is paradigmatic for the historical transition from “common heritage” to “national sovereignty” over biological diversity, including genetic resources. This article briefly recapitulates key milestones in the development of ABS policies and measures. The article identifies some of the difficulties ABS measures may create for relevant stakeholders, in particular the biological control sector and explores options for this sector to cope with the new reality of the Nagoya Protocol and the diversity of national ABS measures. It is of pivotal importance that national governments when developing and implementing ABS measures take into account the distinctive needs and features of the food and agriculture sector, including those of the biological control sector. © 2023, Food and Agriculture Organization of the United Nations, under exclusive licence to International Organization for Biological Control.</t>
+          <t>Current social-ecological changes affect territories and people’s livelihoods worldwide. Many of these changes have detrimental effects on small-scale agricultural systems, with concomitant negative consequences on global and local food security and sovereignty. The objectives of this study were to explore (i) local knowledge on social-ecological changes and (ii) the perceived drivers of those changes occurring in a mountainscape and an islandscape in two Important Agricultural Heritage Systems of southern South America, both located within a Global Biodiversity Hotspot. This was done by conducting in-depth semi-structured interviews with local campesinos, whose livelihoods are based on the use and management of agrosilvopastoral systems. We found that local communities experience a wide range of globally and locally induced social-ecological changes acting in their territories. Campesinos mentioned 79 different observations of social-ecological changes and identified drivers for 77% of them. Changes in the atmospheric system, specifically regarding changes in precipitation, drought, and temperatures, were commonly observed by campesinos in both sites. Participants also observed complex interrelations between these changes and the drivers influencing them, climatic drivers being the most important. Even though general changes in climatic patterns were identified as drivers of changes by campesinos, other situated changes derived from the site’s biophysical, social, and economic conditions were also important. Our results highlight the importance of considering local knowledge to understand social-ecological changes and to support the development and implementation of public policies that promote contextualized adaptation measures to global changes that affect local livelihoods. © 2023, The Author(s).</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -988,15 +1002,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Learning from the past to deal with the future: Using different knowledges to ensure food security in the Tsá Tué biosphere reserve (Northwest Territories, Canada)</t>
+          <t>Social enterprise, food justice, and food sovereignty: Strange bedfellows or systemic supports?</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>The community of Délı̨nę, located in the UNESCO Tsá Tué Biosphere Reserve, is experiencing the impacts of climate change on the lands surrounding Great Bear Lake, in Northwest Territories, Canada. These impacts are limiting the community's ability to access the land to support their food system, which depends on harvesting traditional foods. This article details a participatory action research approach, driven by the community, that used on-the-land activities, workshops, community meetings and interviews to develop a community food security action plan to deal with the uncertainties of a changing climate on the food system. Data was analyzed using the Community Capitals Framework (CCF) to describe the complex nature of the community's food system in terms of available or depleting capitals, as well as how the impacts of climate change affect these capitals, and the needs identified by the community to aid in adaptation. For Délı̨nę, the theme of self-sufficiency emerged out of concerns that climate change is negatively impacting supplies from the south and that building and maintaining both social and cultural capital are key to achieving food security in an uncertain future. Learning from the past and sharing Traditional Knowledge1was a key element of food security planning. However, other types of knowledge, such as research and monitoring of the health of the land, and building capacity of the community through training, were important aspects of adaptation planning in the community. This knowledge, in its many forms, may assist the community in determining its own direction for achieving food security, and offers a glimpse into food sovereignty in Northern regions. Copyright © 2023 Spring, Neyelle, Bezha, Simmons and Blay-Palmer.</t>
+          <t>There is a debate in the literature about whether one can address food system problems with mar-ket-based approaches while seeking food justice or food sovereignty. However, as part of a team of researchers and community leaders, we have found that this debate is less relevant in practice. The concepts are interrelated within real-world food systems. As such, we were motivated to ask, how do social enterprises (SEs) interact with food jus- tice and food sovereignty movements and their visions in order to realize more democratic and equitable local food systems in communities? To answer this question, we conducted a systematic review at the intersection of SE, food sovereignty, and food justice literature. Analyzing nine articles, which included 17 food-related SEs, we found evidence of potential interactions between food SEs, food justice, and food sovereignty that are compat-ible (e.g., create employment) and incompatible (e.g., limited ability to address issues like community employability and green gentrification). The literature includes at least three important character-istics that inform how food-related SEs may interact with food justice and sovereignty, includ-ing employee and ownership demographics, the enterprise business model, and aspects of the food system targeted by the enterprise via market activi-ties. If we consider a systems perspective, we can envision the ways in which the aspects are embed-ded and interdependent in a neoliberal society. SEs, as market-based agents for social change, exist in the same system as justice and sovereignty. © 2024 by the Authors. Published by the Lyson Center for Civic Agriculture and Food Systems.</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1020,22 +1034,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Resilience processes and positioning of agroecological farmers in an urban horticultural fair in northwest Patagonia</t>
+          <t>Evaluation of family agriculture production systems through thresholds for the construction of sustainable proposals, Penipe Canton</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Background: Horticultural fairs are spaces that promote regional agrobiodiversity, transmitting and recreating multiple knowledge and emotions between horticulturists and customers. The adaptive processes by which fairs are sustained over time in the face of socio-economic, climatic, and sanitary changes are still little known. Considering the principles of socio-environmental resilience, the aims of this research were: 1) to analyze the positionings of horticulturists that favor the process of resilience in the Free Fair of Family Farmers from Nahuel Huapi, San Carlos de Bariloche (Patagonia, Argentina) and 2) to reflect on the vulnerabilities and challenges faced by this fair for its sustainability over time. Methods: A qualitative study was carried out that included interviews, participant observation, and virtual ethnography. Results: One hundred and eighty-six ethnospecies, mostly of exotic origin (99%) are part of the agrobiodiversity of the fair. The main principles that foster the resilience of the fair are: high agrobiodiversity and functional redundancy that reflect and promote local food customs; learning and connectivity for innovation and information exchange; and cooperation and adaptive systemic thinking based on experiences, attachment to the land, and reciprocity. The affective dimension crosses each of these principles, strengthening the cultural fabric of horticulturists and customers. However, the economic and cultural viability of the fair is uncertain, mainly due to the drastic socio-environmental changes that the region is experiencing. Conclusions: To reduce the vulnerabilities of the fair, it will be necessary to strengthen the principles mentioned above and to increase the participation of the broader levels of governance (technical and governmental sectors). © 2023, Ilia State University, Institute of Botany, Department of Ethnobotany. All rights reserved.</t>
+          <t>Peasant family farming is one of the main suppliers and is responsible for guaranteeing food sovereignty. A particular interest is given to the functioning of the productive system, which seeks to determine, through the analysis of critical points and thresholds, to define sustainable alternatives, translating the general principles of sustainability into definitions and operational practices. The objective of this study was to valuate family farming production systems through productive thresholds with the purpose of proposing sustainable alternatives for the improvement of the agricultural system in the Penipe canton. The methodology of this study included the establishment and generation of attributes, diagnostic criteria, and critical points to make a comparison with the productive thresholds, applied to nine farms representative of the three productive typologies. In this study, the three production systems of the Penipe canton were evaluated. We proposed alternatives for each of them, such as the implementation of new agroecological management strategies, the generation of organic fertilizers, the production of bio inputs, the strengthening of interdisciplinary approaches through the adoption of technological innovations and research, the increased participation of different owners throughout the production process, and the promotion of associativity, which provides the design of new alternative production systems. In conclusion, specialized family farming poses alternatives for improvement in terms of the provision of quality seeds, technical management, greater management, and government support. Diversified family agriculture will be ontained by government management and execution, training, adoption of innovations, dependence on external resources, crop risk, yields, access to credit. In the productive aspect, deficiencies were found in root development, pending involvement, irrigation water, organic matter, soil cover, and subsistence family agriculture, followed by land tenure and occupation, social connection, government management and execution, training, adoption of innovations, dependence on external resources, crop risk, yields, access to credit, as well as productive aspect deficiencies in root development, affectation of the slope, irrigation water, drainage, organic matter, soil cover, management, and plant development. © The Author(s).</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
-      <c r="F19" t="n">
-        <v>1</v>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1052,22 +1068,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Biodiversity of Soil Mesofauna Associated with the Design of Home Gardens in Mapuche Agroecosystems—Case Study in the Araucanía Region</t>
+          <t>Land competition and welfare effects from Mexico's proposal to ban genetically engineered corn</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Home gardens play a transcendental role in food sovereignty, for which the management of habitats above ground and underground are complementary strategies. This study aims to compare the biodiversity of soil mesofauna groups between agroecosystems with a conventional and an agroecological design. Through the combination of quantitative (plant inventories) and qualitative (mobile interviewing and talking maps) techniques, the units of this study was described. Soil samples were mounted in a Berlesse–Tullgren system, and the abundance, richness, diversity, and equality of soil organisms were determined. The relationships between functional groups were compared taxonomically and biocenotically. The results indicated higher equality in the conventional home garden, while the communities studied present a medium taxocenotic similarity, without great biocenotic differences. The diversity and richness of taxa, as well as the abundance in each group identified, were higher in the agroecological garden, which had more medicinal and aromatic plants. © 2023 by the authors.</t>
+          <t>Since joining the North American Free Trade Agreement, Mexico has increased its meat production and exports and become more dependent on imported feedstuffs such as genetically engineered (GE) corn. Mexico recently banned the use of GE corn in corn-based foods and called for a gradual substitution away from the use of GE corn for other uses (e.g., feed). This paper considers how a complete ban on GE corn might affect Mexican households using a computable general equilibrium (CGE) model to simulate the impact over the medium run (5 years). Results indicate that Mexico decreases corn imports by 76.9% and increases corn production by 65.6%—an increase that would require 3.3 million hectares more land for corn. The policy leads to a 24.8% increase in Mexico's corn price and up to a 6% increase in the prices of other agricultural products. But Mexico might have difficulty shifting land to corn; as such, we consider an alternative scenario that restricts land movements. We find that impacts are further exacerbated in this scenario—for example, corn prices triple. Our final contribution is to pair these results with a compensating variation calculation based on the almost ideal demand system. We find that Mexican households would need to spend, on average, between 6.7 and 13.9% more on food, depending on the scenario, to compensate for the resulting price escalations. Ultimately, our results show that a move toward greater food sovereignty in Mexico is ultimately borne by consumers via higher food prices. Published 2024. This article is a U.S. Government work and is in the public domain in the USA.</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>1</v>
       </c>
-      <c r="F20" t="n">
-        <v>1</v>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1084,15 +1102,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Unraveling On-Farm Wheat Loss in Fars Province, Iran: A Qualitative Analysis and Exploration of Potential Solutions with Emphasis on Agricultural Cooperatives</t>
+          <t>The Losing Battle Against Neoliberal Trade Agreements in Latin America: Social Resistance Against the MTA Between Ecuador, Peru, and the European Union</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Given wheat’s global significance as a primary food crop, and its importance in providing essential nutrition to millions of people worldwide, reducing on-farm losses is crucial to promoting food security, sustainable agriculture, and economic stability. Wheat plays a critical role in food security in Iran, as it is a staple food consumed daily by a large proportion of the population, and is also a vital component of the country’s food self-sufficiency policy. The present study aims to identify the causes and extent of on-farm wheat loss in Fars province, a major wheat-producing area in Iran. Nine experts were interviewed, using open-ended questions, in October 2018. The study revealed that a considerable amount of wheat is lost due to seed overuse, pest infestation, and improper harvesting. The paper discusses the underlying factors associated with these over-arching causes, and highlights their adverse environmental, economic, and societal impacts. The paper also explores potential approaches to take in addressing the issue, and suggests empowering agricultural cooperatives through changes in the government’s engagement with wheat production. This study provides valuable insights for policymakers and stakeholders which are useful for developing effective strategies to reduce on-farm loss, particularly in countries where intensified farming is promoted. These strategies may include limiting the government’s central control and, instead, empowering agricultural cooperatives, as well as adopting supportive approaches, such as improving farmers’ access to proper machinery, and enhancing their sovereignty and freedom. © 2023 by the authors.</t>
+          <t>This article studies the influence of the antineoliberal social movements in Peru and Ecuador in the face of the Multiparty Trade Agreement (MTA) between both countries and the European Union (EU). To identify and analyze this influence, a transdisciplinary theoretical framework was created, integrating debates and concepts from social movement theory and critical international political economy. In Peru, the movement used European allies to establish their demands on the EU’s agenda, which resulted in increased pressure on the government to enforce labor rights and environmental standards. In Ecuador, the movement was able to establish food sovereignty and the rejection of free trade in the national constitution. As a result, the negotiations with the EU were delayed and Ecuador achieved certain exceptions in its adhesion protocol. Nevertheless, both movements were unable to maintain their influence, due to political and socioeconomic dynamics on the domestic and global levels. © The Author(s), 2023.</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1116,15 +1134,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>The role of land as the central piece to sustainable food systems: Lessons learned from Portugal national food-related policies</t>
+          <t>Representing justice in global land-use scenarios can align biodiversity benefits with protection from land grabbing</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>This paper discusses to what extent land is considered in food-related policies from a systemic perspective. Based on existing literature and international agendas priorities, we argue that access to and preservation of land for food along the food chain play a major role in sustainable food systems. To further explore this argument, we address the following question: Where does land stand in sectorial and national food-related policies? The multiple dimensions and implications of food systems and the international agenda's priorities namely the “Right to adequate Food”, “Food Sovereignty” and the “Right to Land”, were used as our conceptual framework. To work out how land is being considered in food sectorial policies, both quantitative and qualitative methods were applied to examine ten Portuguese national food-related policies. Results are showing a lack of consideration for land access and land preservation, needed all along the food chain to build a national sustainable food system. On the other hand, there is a gap between current grassroots priorities international agendas and food-related national policies. Such a situation strongly suggests that building a sustainable food system needs a clear food territorial perspective, still neglected, and shifting from sectorial policies towards a more integrated food system approach, that will include land as a central piece. © 2023</t>
+          <t>Protecting biodiversity while meeting food demands is a critical challenge due to rising competition over land. The predominant focus on spatial efficiency in land-use modeling frameworks can dichotomize these objectives and ignore local realities by disregarding biodiversity outside priority areas and the land-use needs of communities who depend on local land systems for their nutrition. We develop a spatially explicit exploratory scenario for 2050 that promotes whole-region biodiversity intactness using a land-system-specific intactness index and incorporates differentiated food futures by protecting important land systems for land-dependent communities from conversion for larger-scale objectives. These are pursued alongside SSP2 “business-as-usual” agricultural demands, uncovering potential tradeoffs. Our results highlight the importance of forest mosaics in agricultural landscapes alongside targeted intensification for meeting food and biodiversity goals and that protecting land-dependent communities does not compromise larger-scale objectives. This demonstrates that land-use models can integrate diverse values, including certain conceptualizations of justice, into sustainability scenarios. © 2024 Elsevier Inc.</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1148,15 +1166,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Reuniting the Three Sisters: collaborative science with Native growers to improve soil and community health</t>
+          <t>Sustainable farm work in agroecology: how do systemic factors matter?</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Before Euro-American settlement, many Native American nations intercropped maize (Zea mays), beans (Phaseolus vulgaris), and squash (Cucurbita pepo) in what is colloquially called the “Three Sisters.” Here we review the historic importance and consequences of rejuvenation of Three Sisters intercropping (3SI), outline a framework to engage Native growers in community science with positive feedbacks to university research, and present preliminary findings from ethnography and a randomized, replicated 3SI experiment. We developed mutually beneficial collaborative research agendas with four Midwestern US Native American nations. Ethnographic data highlighted a culturally based respect for 3SI as living beings, the importance it holds for all cultural facets of these Native nations, and the critical impact the practice has on environmental sustainability. One concern expressed by Native growers during ethnographic research was improving soil health—part of the rationale for establishing the 3SI agronomic experiment. To address this, we collaboratively designed a 3SI experiment. After 1 year, 3SI increased short-term soil respiration by 24%, decreased salt-extractable nitrate by 54%, had no effect on soil microbial biomass (but increased its carbon-to-nitrogen ratio by 32%) compared to the average of monoculture crops. The overarching purpose of this collaborative project is to develop a deeper understanding of 3SI, its cultural importance to Native communities, and how reinvigorating the practice—and intercropping in general—can make agroecosystems more sustainable for people and the environment. © 2022, The Author(s).</t>
+          <t>Agroecological farming is widely considered to reconcile improved working and living conditions of farmers while promoting social, economic, and ecological sustainability. However, most existing research primarily focuses on relatively narrow trade-offs between workload, economic and ecological outcomes at farm level and overlooks the critical role of contextual factors. This article conducts a critical literature review on the complex nature of agroecological farm work and proposes the holistic concept of sustainable farm work (SFW) in agroecology together with a heuristic evaluation framework. The latter was applied to ten case studies to test its relevance, affirming positive outcomes of agroecology on SFW, such as improved food sovereignty, biodiversity conservation, and social inclusiveness, but also showing trade-offs, including increased workload and potential yield reductions. Further, results show that contextual factors, such as policy support, market regulation, and access to resources, heavily influence the impact of agroecological practices on SFW. This article strongly argues for the importance of a holistic understanding of SFW and its contextualization within multiple socio-ecological system levels. The proposed framework establishes clear relationships between agroecology and SFW. An explicit recognition of these multidimensional relationships is essential for maximizing positive outcomes of agroecology in different contexts and fostering SFW. On a theoretical level, this research concludes that, from a holistic perspective, work is an entry point to studying the potential of agroecology to drive a sustainable agroecological transition in economic, social, and ecological terms. © The Author(s) 2024.</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1180,7 +1198,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CLIMATE CHANGE AND FOOD SECURITY: FROM THE ONE HEALTH APPROACH TO THE HOLISTIC MODELS OF THE GLOBAL SOUTH; [Cambiamento climatico e sicurezza alimentare: dall’approccio One Health ai modelli olistici del Global South]</t>
+          <t>The doctors of agrifood studies</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1188,7 +1206,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>The article analyzes the impact of climate change on food security and the right to food, exploring different regulatory models deemed to address the challenges produced by climate change in food systems, within the framework of recommendations from international institutions. The essay identifies certain integrated regulatory approaches applicable to agrifood regulation on which a widespread consensus in the scientific community and among international institutions may be appreciated. Among these are the One Health approach, the ecosystem approach, the models inspired by agroecology, and the so-called human rights-based approach (HRB). The paper discusses their effectiveness in promoting food security and climate resilience, attempting to verify the presence of regulatory provisions inspired by such approaches in existing food legislation. In such respect, the article examines the recent European “From farm to fork” strategy and certain approaches in the context of the Global South. © 2023, BioLaw Journal. All Rights Reserved.</t>
+          <t>The Agriculture, Food and Human Values Society and the journal Agriculture and Human Values provided a crucial intellectual space for the early transdisciplinary critique of the industrial agrifood system. This paper describes that process and presents the concept of “The Doctors of Agrifood Studies” as a metaphor for the key role critical agrifood social scientists played in documenting the unsustainability of conventional agriculture and working to create an alternative, ethical, sustainable agrifood system. After the introduction, the paper details the “Critical Turn” in agrifood studies, followed by a reconsideration of my “Four Questions” framework, focusing on the current tension between the food security and food sovereignty discourses and movements. © 2022, The Author(s), under exclusive licence to Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1212,7 +1230,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Localization of the corporate food regime and the food sovereignty movement: taiwan’s food sovereignty movement under “third regionalism”</t>
+          <t>Food systems in depressed and contested agro-territories: Participatory Rural Appraisal in Odemira, Portugal</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1220,7 +1238,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Third regionalism explains the liberalization of trade centered around the Asia-Pacific region in the 21st century. Under regionalism, domestic agricultural markets that formerly enjoyed national food-security policies have loosened. This caused traditional domestic farmers’ organizations to become more regionally interconnected, forming a food sovereignty movement under the auspices of La Via Campesina. Localized food-production chains are promoted to mitigate the impact of regionalism on the Asia-Pacific agricultural sector. The Taiwan Rural Front (TRF) joined La Via Campesina and the food sovereignty movement in the 2010s. During the process of adopting regionalism, Taiwanese agricultural trade and technologies were protected by public agencies and state-owned enterprises. This context differs from that of Southeast Asia, where the food sovereignty movement has thrived. Therefore, the following question is raised: Why was it possible for the food sovereignty movement to originate in Taiwan? This paper describes the developmental characteristics of Taiwan’s food-security governance mechanism as a state-guided corporate food regime amid third regionalism. Further, the TRF does not advocate for localized food-production chains. Due to the formation of a state-guided corporate food regime, the food sovereignty movement has become connected with farmland protection movements that set the Taiwanese sovereignty movement apart. © 2022 Association for the Study of Food and Society.</t>
+          <t>Farming regions in Europe, particularly in the South, are increasingly feeling the effects of climate change due to factors such as drought, extreme weather events, and desertification, with severe consequences for food security and food sovereignty. Additionally, decades of rural mismanagement have left countless of these farming territories severely depressed as well as at the mercy of competition for their natural resources. This paper presents and discusses the results of a Participatory Rural Appraisal conducted in the region of Odemira, Southwest Portugal. Rooted in the frameworks of agroecology and food democracy, this mixed methodology aims to support people in multiply stressed agro-territories to diagnose the state of their food systems and agroecosystems from a democratic and ecological point of view and engage local actors in imagining fairer and healthier food futures for their regions. Local food actors were invited to identify and qualify the main problems in the region's food systems, complemented by an agroecological assessment of farm production systems. The results of the study confirm the status of Odemira as a depressed and contested agro-territory, whose social, economic, and ecological vulnerability is being compounded by the clash between the model of traditional smallholder farming and that of large-scale intensive agriculture. The study also shows the potential of sustainable farming practices as well as collaboration between the different food actors to support an agroecological transition in the region. However, to jointly realise food democracy and food system sustainability, the tensions resulting from the current political support for hyper-industrialisation and the lack of democratic, institutional, and legal mechanisms available to local actors will need to be addressed head-on. Copyright © 2023 Horstink, Schwemmlein and Encarnação.</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1244,7 +1262,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>‘Our struggle is for humanity’: a conversation with Morgan Ody, general coordinator of La Via Campesina International, on land, politics, peasant life and a vision for hope in our changing world</t>
+          <t>Accessing biological control genetic resources and sharing benefits resulting from their utilization</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1252,7 +1270,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>A new generation of activists and peasant leaders have taken up the banner of food sovereignty amid an even more challenging and violent situation for rural people around the world. In this interview Morgan Ody, the new General Coordinator of La Via Campesina International, discusses her vision for rural movements. Originally from a small dairy farm, Ody is a second-generation militant in Confédéracion Paysanne. Ody speaks about land reform, climate politics, the perils and potential of state policies, rising populism, and the power of the peasantry: in short, about where the movement has been and where we are headed. © 2023 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>With the adoption of the Convention on Biological Diversity (CBD) in 1992, the sovereign rights of states over their natural resources were explicitly recognized and the authority of national governments to determine access to genetic resources confirmed. The CBD had a major impact on the global exchange of genetic resources, including genetic resources for food and agriculture. At national level, the CBD triggered the development of access and benefit-sharing (ABS) measures through which governments aim to enforce national sovereignty over genetic resources with the aim to partake in the benefits derived from the use of these resources. At global level, the CBD triggered multiple normative initiatives, including the adoption of an international instrument on plant genetic resources and the development of a Protocol to the CBD. The history of the Commission on Genetic Resources for Food and Agriculture, established in 1983 by the Food and Agriculture Organization of the United Nations (FAO), is paradigmatic for the historical transition from “common heritage” to “national sovereignty” over biological diversity, including genetic resources. This article briefly recapitulates key milestones in the development of ABS policies and measures. The article identifies some of the difficulties ABS measures may create for relevant stakeholders, in particular the biological control sector and explores options for this sector to cope with the new reality of the Nagoya Protocol and the diversity of national ABS measures. It is of pivotal importance that national governments when developing and implementing ABS measures take into account the distinctive needs and features of the food and agriculture sector, including those of the biological control sector. © 2023, Food and Agriculture Organization of the United Nations, under exclusive licence to International Organization for Biological Control.</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1276,7 +1294,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>The making of peasant subalternity in Portugal: histories of marginalisation and resistance to agrarian modernisation</t>
+          <t>Learning from the past to deal with the future: Using different knowledges to ensure food security in the Tsá Tué biosphere reserve (Northwest Territories, Canada)</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1284,7 +1302,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>This paper examines how marginalised, small-scale family farmers have been facing the difficulties of agrarian modernisation in Portugal. Central to the history of contemporary peasants in this country is their continuous subordination to the power of agrarian capital and landed elites. But subaltern peasants have mobilised, particularly through CNA, a Vía Campesina member organisation, to build an oppositional project, not without tensions. The article argues that a Gramscian notion of subalternity offers a powerful lens to analyse the links between agrarian change, conflict and resistance for its focus on uneven power relations and by emphasising the centrality of social struggle. © 2021 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>The community of Délı̨nę, located in the UNESCO Tsá Tué Biosphere Reserve, is experiencing the impacts of climate change on the lands surrounding Great Bear Lake, in Northwest Territories, Canada. These impacts are limiting the community's ability to access the land to support their food system, which depends on harvesting traditional foods. This article details a participatory action research approach, driven by the community, that used on-the-land activities, workshops, community meetings and interviews to develop a community food security action plan to deal with the uncertainties of a changing climate on the food system. Data was analyzed using the Community Capitals Framework (CCF) to describe the complex nature of the community's food system in terms of available or depleting capitals, as well as how the impacts of climate change affect these capitals, and the needs identified by the community to aid in adaptation. For Délı̨nę, the theme of self-sufficiency emerged out of concerns that climate change is negatively impacting supplies from the south and that building and maintaining both social and cultural capital are key to achieving food security in an uncertain future. Learning from the past and sharing Traditional Knowledge1was a key element of food security planning. However, other types of knowledge, such as research and monitoring of the health of the land, and building capacity of the community through training, were important aspects of adaptation planning in the community. This knowledge, in its many forms, may assist the community in determining its own direction for achieving food security, and offers a glimpse into food sovereignty in Northern regions. Copyright © 2023 Spring, Neyelle, Bezha, Simmons and Blay-Palmer.</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1308,7 +1326,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Between eating enough and the desire to eat: the state of the art on sovereignty and food and nutritional security in Brazil; [Entre comer à vontade e a vontade de comer: o estado da arte sobre soberania e segurança alimentar e nutricional no Brasil]</t>
+          <t>Resilience processes and positioning of agroecological farmers in an urban horticultural fair in northwest Patagonia</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1316,7 +1334,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>The article aims to identify the main debates on Food and Nutritional Sovereignty and Security considering a broad approach and legal publications in order to comprehend the theme in a multidisciplinary way and to locate possible research gaps. It proceeds a bibliographical and systematical review (state of the art) that was carried out in the 5-year time frame (2016-2020), and restricted to journals available at SciElo and theses and dissertations from Master's and Doctoral programs at Capes. With qualitative data analysis approach and the deductive method, a critical analysis of the data was done. The results were divided into three categories: environment; human rights and political-economical. It concludes that the use of pesticides, the counter-hegemonic discourse and the analysis of public policies, especially those directed to family farmers, are approaches with the highest incidence. The scarcity of research on food systems and seeds stood out, mainly regarding the regulatory framework, and water security, closely associated with food production can be mentioned as research gaps. © 2023 Universidade Federal do Parana. All rights reserved.</t>
+          <t>Background: Horticultural fairs are spaces that promote regional agrobiodiversity, transmitting and recreating multiple knowledge and emotions between horticulturists and customers. The adaptive processes by which fairs are sustained over time in the face of socio-economic, climatic, and sanitary changes are still little known. Considering the principles of socio-environmental resilience, the aims of this research were: 1) to analyze the positionings of horticulturists that favor the process of resilience in the Free Fair of Family Farmers from Nahuel Huapi, San Carlos de Bariloche (Patagonia, Argentina) and 2) to reflect on the vulnerabilities and challenges faced by this fair for its sustainability over time. Methods: A qualitative study was carried out that included interviews, participant observation, and virtual ethnography. Results: One hundred and eighty-six ethnospecies, mostly of exotic origin (99%) are part of the agrobiodiversity of the fair. The main principles that foster the resilience of the fair are: high agrobiodiversity and functional redundancy that reflect and promote local food customs; learning and connectivity for innovation and information exchange; and cooperation and adaptive systemic thinking based on experiences, attachment to the land, and reciprocity. The affective dimension crosses each of these principles, strengthening the cultural fabric of horticulturists and customers. However, the economic and cultural viability of the fair is uncertain, mainly due to the drastic socio-environmental changes that the region is experiencing. Conclusions: To reduce the vulnerabilities of the fair, it will be necessary to strengthen the principles mentioned above and to increase the participation of the broader levels of governance (technical and governmental sectors). © 2023, Ilia State University, Institute of Botany, Department of Ethnobotany. All rights reserved.</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1340,7 +1358,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Community Perspectives on Inuit Country Food Insecurity in Gjoa Haven, Nunavut</t>
+          <t>Biodiversity of Soil Mesofauna Associated with the Design of Home Gardens in Mapuche Agroecosystems—Case Study in the Araucanía Region</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1348,7 +1366,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>This paper explores how policies and programs can better support country food security and food sovereignty in Gjoa Haven, Nunavut. Through a series of six focus groups with a total of 74 participants, we explore the challenges that Elders, youth, hunters, food preparers, and program providers face in the access, availability, quality, and use of country food. Despite the diverse representation among focus groups, participants revealed similar challenges across demographics and highlighted how tailored policies and programs can provide complementary solutions that serve more than one purpose. We argue that policies and programs targeting financial and economic challenges; resources and infrastructure; and skills and knowledge will improve country food security and will promote food sovereignty. Ultimately, policies and programs must be community informed and tailored to their current context and community dynamics. However, the recommendations we provide could be adapted to other Arctic communities experiencing similar challenges. © The Arctic Institute of North America.</t>
+          <t>Home gardens play a transcendental role in food sovereignty, for which the management of habitats above ground and underground are complementary strategies. This study aims to compare the biodiversity of soil mesofauna groups between agroecosystems with a conventional and an agroecological design. Through the combination of quantitative (plant inventories) and qualitative (mobile interviewing and talking maps) techniques, the units of this study was described. Soil samples were mounted in a Berlesse–Tullgren system, and the abundance, richness, diversity, and equality of soil organisms were determined. The relationships between functional groups were compared taxonomically and biocenotically. The results indicated higher equality in the conventional home garden, while the communities studied present a medium taxocenotic similarity, without great biocenotic differences. The diversity and richness of taxa, as well as the abundance in each group identified, were higher in the agroecological garden, which had more medicinal and aromatic plants. © 2023 by the authors.</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1372,7 +1390,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Reimagining the Food System: Kropotkin, Food Sovereignty and OrganicLea</t>
+          <t>Signs of agricultural sustainability: A global assessment of sustainability governance initiatives and their indicators in crop farming</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1380,14 +1398,16 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>This paper explores the similarities between Kropotkin’s vision of a just food system and the food sovereignty movement, with the concrete example of the work of OrganicLea. It will begin with an analysis of the deepening problems of our food system through food insecurity and its negative impact upon the environment. The second part will introduce the idea of food sovereignty and show how it intersects with Kropotkin’s work, with it being argued that a just food system is one that recognises central aspects of both; alongside local and collective ownership, the well-being of all, regenerative agriculture and a commitment to wider social and environmental justice. I will then show how such principles are being put into practice through the work and direct action of OrganicLea. This will reveal how Kropotkin’s thought is still relevant today and how it can be used to address contemporary concerns such as food insecurity and climate change. The paper will also consider the limitations of Kropotkin, including his time-restricted ideas, and the need for new perspectives such as those found in OrganicLea and the food sovereignty movement. © 2023, Lawrence and Wishart. All rights reserved.</t>
+          <t>CONTEXT: To address sustainability challenges in agriculture, private and multi-stakeholder initiatives increasingly use sustainability indicators to monitor the sustainability impact of farms. These indicators can be part of standards for certification or assessment tools to measure farm performance. While these initiatives play an important role in navigating the sustainability transition, insight in how these governance initiatives operationalize sustainability in crop farming is lacking. OBJECTIVE: This paper examines how private and multi-stakeholder governance initiatives, which increasingly regulate the sustainability of a sizeable portion of agriculture globally, operationalize the concept of sustainability. It provides understanding into which sustainability themes are commonly included in sustainability initiatives, and those that are not, which can give insight into the direction these initiatives are steering crop production worldwide. METHODS: We developed an overview of governance initiatives using databases and existing research on sustainable agriculture initiatives. Documentation about these initiatives was gathered and used to systematically review descriptive and institutional characteristics of the 29 sustainability assessment and standard initiatives. Moreover, we analyzed the kinds of indicators (i.e., performance, practice, and target) and the themes that are prioritized in the environmental, social, and economic dimensions of sustainability. RESULTS AND CONCLUSIONS: The analysis shows that the 29 initiatives are very diverse in their characteristics. While some specifically focus on one crop or country, others operate across production chains and at a global scale. Within specific sectors or countries, certain standards are quite influential, for instance, the Better Cotton Initiative covers 22% of global cotton production, while in Ireland, 70% of horticulture farmers are Origin Green certified. Globally, 2% of the crop land is certified under one of the 14 standards that reported land use. Our analysis of sustainability themes show an imbalance across environmental, social, an economic sustainability, with environmental sustainability being prioritized. In particular, social themes such as quality of life, food sovereignty and fair trading practices were less often included (38, 24 and 21% respectively). SIGNIFICANCE: Sustainability standard and assessment initiatives govern a substantial and growing portion of global cropland. They play a central role in determining what is considered sustainable and thereby influence which farming practices are applied worldwide. The impact of these initiatives is likely to continue to grow as sustainability assessments and standards become more widely adopted. In examining a large sample of standard and assessment initiatives, this study presents a comprehensive overview of the current state of sustainability indicators for crop farming globally. © 2023</t>
         </is>
       </c>
       <c r="E30" t="n">
         <v>1</v>
       </c>
-      <c r="F30" t="n">
-        <v>1</v>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1404,7 +1424,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Flavour, culture and food security: The spicy entanglements of chile pepper conservation in 21st century Mexico</t>
+          <t>Lake Superior Manoomin cultural and ecosystem characterization study</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1412,14 +1432,16 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Political interests and power structures shape state-led crop conservation and food policy. As a crop that relates to culture and belonging, the chile crop is ideal for exploring how food security policy and crop conservation schemes integrate aspects beyond staple crops, calories and/or electoral incentives. What do these schemes mean for the food and ingredients we love? Reflecting from this perspective can be useful to grasp, re-frame and create more effective and inclusive food policies—ones that embody and valorise flavour, identities and territories beyond statements on paper. Summary: In line with the Food and Agriculture Organisation's (FAO) international action plan for crop genetic resources, the Mexican state inaugurated the National System of Genetic Resources for Food and Agriculture (SINAREFI) in 2002. In this paper, I explore SINAREFI's interest in landraces and in situ conservation through the case of chile pepper, set under the Ministry of Agriculture's interests of promoting industrial agriculture and paternalistic food security welfare programmes. Through the analyses of existing literature on food security in Mexico state programmes, archival work and interviews, this article analyses how discourses on food security shape research trajectories, some of which are inevitably constrained by current market-based agricultural systems. By exploring the state's chile research and conservation programme, this work demonstrates the complexity of international food security discourse and its application domestically. Particularly, this analysis highlights the limitations of state crop research and conservation efforts imposed by contradictory agricultural policies. In the case of chile, its link to Mexican culture and diet uncovers an important, but often overlooked, aspect of food security: flavour. In the case of chile, a non-staple but culturally symbolic crop, welfare programmes remained paternalistic and focused on caloric intake despite the transformation of national discourse on food security towards the integration of landraces and local cultures through the inauguration of SINAREFI. This case study reflects on the limits of current framings and strategies regarding food security and the need to direct policies towards local food sovereignty to achieve the necessary stability for food security to endure. © 2023 The Authors. Plants, People, Planet published by John Wiley &amp; Sons Ltd on behalf of New Phytologist Foundation.</t>
+          <t>Manoomin, wild rice, is integral to the culture, livelihood, and identity of the Anishinaabeg, the indigenous peoples of Canada and the United States that include the Odawa, Ojibwe, Potawatomi, and Algonquin peoples. In addition to the vital role Manoomin has in the lives of the Anishinaabeg, Manoomin is recognized as being ecologically important, feeding migrating and resident wildlife species, providing a nursery for fish and nesting and breeding habitats for many waterfowl and muskrat, and stabilizing shorelines. This study was initiated by a team of Lake Superior basin Anishinaabe communities and federal and state agencies to document and characterize (1) the importance of Manoomin habitat to Anishinaabe cultural perspectives and identity, community connections, spiritual practices, food sovereignty, and food security; and (2) the ecological importance of Manoomin habitat as an indicator of a high-quality, high-functioning, and biodiverse ecosystem. The team applied a set of cultural and ecological metrics to characterize seven case study sites around Lake Superior and used a habitat equivalency analysis to determine the amount of restoration needed to counterbalance the lost Manoomin habitat functionality. Results from this study highlight the difficulty in restoring the cultural and ecological functionality of degraded Manoomin habitat and the importance of preserving and protecting existing Manoomin habitat. © 2023 by the author(s).</t>
         </is>
       </c>
       <c r="E31" t="n">
         <v>1</v>
       </c>
-      <c r="F31" t="n">
-        <v>1</v>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1436,7 +1458,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Rethinking scientists’ ongoing participation in “feeding the world”</t>
+          <t>Unraveling On-Farm Wheat Loss in Fars Province, Iran: A Qualitative Analysis and Exploration of Potential Solutions with Emphasis on Agricultural Cooperatives</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1444,7 +1466,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Agricultural science necessarily involves a commitment to some form of humanitarian and environmental ethics. For the past century, agricultural science has been based on a productivist ethic of maximizing agricultural production in pursuit or support of food security. Recognition of the ethical and political disposition of contemporary agricultural science can help scientists reorient their work to better address the urgent problems of the upcoming century: environmental degradation, climate change, and social inequality. A commitment to solving these problems is well within the scope of modern agricultural science. Supporting and furthering multidimensional food systems should replace productivism as an explicit goal of agricultural development and scientific innovation. Copyright © 2023 Haring, Pesci Schmulevich, Manser and Cooper.</t>
+          <t>Given wheat’s global significance as a primary food crop, and its importance in providing essential nutrition to millions of people worldwide, reducing on-farm losses is crucial to promoting food security, sustainable agriculture, and economic stability. Wheat plays a critical role in food security in Iran, as it is a staple food consumed daily by a large proportion of the population, and is also a vital component of the country’s food self-sufficiency policy. The present study aims to identify the causes and extent of on-farm wheat loss in Fars province, a major wheat-producing area in Iran. Nine experts were interviewed, using open-ended questions, in October 2018. The study revealed that a considerable amount of wheat is lost due to seed overuse, pest infestation, and improper harvesting. The paper discusses the underlying factors associated with these over-arching causes, and highlights their adverse environmental, economic, and societal impacts. The paper also explores potential approaches to take in addressing the issue, and suggests empowering agricultural cooperatives through changes in the government’s engagement with wheat production. This study provides valuable insights for policymakers and stakeholders which are useful for developing effective strategies to reduce on-farm loss, particularly in countries where intensified farming is promoted. These strategies may include limiting the government’s central control and, instead, empowering agricultural cooperatives, as well as adopting supportive approaches, such as improving farmers’ access to proper machinery, and enhancing their sovereignty and freedom. © 2023 by the authors.</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1468,7 +1490,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Parity as radical pragmatism: Centering farm justice and agrarian expertise in agricultural policy</t>
+          <t>The Choctaw Nation’s Growing Hope Program</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1476,14 +1498,16 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Rather than treating symptoms of a destructive agri-food system, agricultural policy, research, and advocacy need both to address the root causes of dysfunction and to learn from longstanding interventions to counter it. Specifically, this paper focuses on agricultural parity policies – farmer-led, government-enacted programs to secure a price floor and manage supply to prevent the economic and ecological devastation of unfettered corporate agro-capitalism. Though these programs remain off the radar in dominant policy, scholarship, and civil society activism, but in the past few years, vast swaths of humanity have mobilized in India to call for agri-food systems transformation through farmgate pricing and market protections. This paper asks what constitutes true farm justice and how it could be updated and expanded as an avenue for radically reimagining agriculture and thus food systems at large. Parity refers to both a pricing ratio to ensure livelihood, but also a broader farm justice movement built on principles of fair farmgate prices and cooperatively coordinated supply management. The programs and principles are now mostly considered “radical,” deemed inefficient, irrelevant, obsolete, and grievous government overeach—but from the vantage, we argue, of a system that profits from commodity crop overproduction and agroindustry consolidation. However, by examining parity through a producer-centric lens cognizant of farmers‘ ability, desire, and need to care for the land, ideas of price protection and supply coordination become foundational, so that farmers can make a dignified livelihood stewarding land and water while producing nourishing food. This paradox—that an agricultural governance principle can seem both radical and common sense, far-fetched and pragmatic—deserves attention and analysis. As overall numbers of farmers decline in Global North contexts, their voices dwindle from these conversations, leaving space for worldviews favoring de-agrarianization altogether. In Global South contexts maintaining robust farming populations, such policies for deliberate de-agrarianization bely an aggression toward rural and peasant ways of life and land tenure. Alongside the history of parity programs, principles, and movements in U.S., the paper will examine a vast version of a parity program in India – the Minimum Support Price (MSP) system, which Indian farmers defended and now struggle to expand into a legal right. From East India to the plains of the United States and beyond, parity principles and programs have the potential to offer a pragmatic direction for countering global agro-industrial corporate capture, along with its de-agrarianization, and environmental destruction. The paper explores what and why of parity programs and movements, even as it addresses the complexity of how international parity agreements would unfold. It ends with the need for global supply coordination grounded in food sovereignty and solidarity, and thus the methodological urgency of centering farm justice and agrarian expertise. Copyright © 2023 Graddy-Lovelace, Krikorian, Jewett, Vivekanandan, Stahl, Singh, Wilson, Naylor, Naylor and Pennick.</t>
+          <t>The Choctaw Nation of Oklahoma’s Historic Preservation Department (HPD) and the Center for Indigenous Health Equity (CIIHE) are partnering to implement and evaluate food sovereignty interventions to better understand the potential impact of such programs on individual and community health. The HPD’s Growing Hope Program is a food sovereignty initiative that aims to restore traditional Choctaw gardens, which were once a physical, social, and cultural center of Choctaw life. The program combines heirloom seeds and the stories of their origins, gardening education and technical assistance, cooking classes, and a Choctaw youth internship program to support intergenerational knowledge and the restoration of culture and food security. Since its inception the program has provided Choctaw families with ancestral Choctaw cultivar seeds and provided the technical assistance to support the growing of sustainable, healthy, traditional Choctaw foods. © 2023 Society for Public Health Education.</t>
         </is>
       </c>
       <c r="E33" t="n">
         <v>1</v>
       </c>
-      <c r="F33" t="n">
-        <v>1</v>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1500,7 +1524,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Food anarchy and the State monopoly on hunger</t>
+          <t>The role of land as the central piece to sustainable food systems: Lessons learned from Portugal national food-related policies</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1508,7 +1532,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>This article applies an anarchist lens to the food sovereignty movement. It analyzes food regimes as capitalist agriculture regimes which rely on the State’s monopoly on hunger, wherein the State relies on the dispossession of people from their land and food systems, the protection of property, and the primacy of capital. The interdependence of this State-capital-property trinity is violently enforced, and manufactures compliance through counterinsurgent strategies of social war. The State monopoly on hunger justifies a new offshoot of the larger food sovereignty movement, a prefigurative praxis which dismantles all food regimes to build new counter-worlds: food anarchy. © 2022 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>This paper discusses to what extent land is considered in food-related policies from a systemic perspective. Based on existing literature and international agendas priorities, we argue that access to and preservation of land for food along the food chain play a major role in sustainable food systems. To further explore this argument, we address the following question: Where does land stand in sectorial and national food-related policies? The multiple dimensions and implications of food systems and the international agenda's priorities namely the “Right to adequate Food”, “Food Sovereignty” and the “Right to Land”, were used as our conceptual framework. To work out how land is being considered in food sectorial policies, both quantitative and qualitative methods were applied to examine ten Portuguese national food-related policies. Results are showing a lack of consideration for land access and land preservation, needed all along the food chain to build a national sustainable food system. On the other hand, there is a gap between current grassroots priorities international agendas and food-related national policies. Such a situation strongly suggests that building a sustainable food system needs a clear food territorial perspective, still neglected, and shifting from sectorial policies towards a more integrated food system approach, that will include land as a central piece. © 2023</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1532,22 +1556,24 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Perspectives on strengthening local food systems in Small Island Developing States</t>
+          <t>Global modeling of the socioeconomic, political, and environmental relations of farmer seed systems (FSS): Spatial analysis and insights for sustainable Development</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Small Island Developing States (SIDS) share high burdens of nutrition-related conditions, including non-communicable diseases, associated with an increasing reliance on imported, processed foods. Improving health through increasing the production and consumption of local, nutritious foods is a policy objective of many SIDS governments. This study aimed to understand contemporary challenges and opportunities to strengthening local food systems in two case study settings, Fiji and St. Vincent and the Grenadines. Fifty-two in-depth, semi-structured interviews were conducted with key stakeholders involved in local food production. Interviews were analysed by both country teams using thematic analysis. Local food production networks in both settings included formal governance bodies as well as more informal connections through civil society and communities. Their main function was the sharing of resources and knowledge, but levels of trust and cooperation between the stakeholders varied in a market open to intense competition from imports. Local food production was hindered by few and slow investments by local governments, dated technology, and lack of knowledge. Stakeholders believed this marginalisation was occurring against a background of rising preferences for imported foods in the population, and increasing disinterest in employment in the sector. Despite the challenges, strong narratives of resilience and opportunity were highlighted such as national pride in local produce for commercialisation and local diets. Efforts to support local food production in SIDS should focus on strengthening governance structures to prioritise local produce over corporate and import markets, assist collaboration and co-learning, and support alternative agro-food practices. © 2022, The Author(s).</t>
+          <t>Accessible, high-quality seed is vital to the agricultural,food, and nutrition sovereignty needed for justice-based sustainable development. Multiregion, interdisciplinary research on farmers' seed systems (FSS) can complement case-based andthematicapproaches.This study'sgoals are to(1) provide a synthetic overview ofcurrentmajor FSS concepts; (2) design andevaluate a novel social- and political-ecologicalmodel of FSS using globally representative data from mountain agricultural areas of Africa, Asia, and Latin America; (3) model and evaluate FSS relations to socioeconomic, political, and environmental factors including main food crops (rice, wheat, maize, potato, and common bean); (4) generate new spatial, geographic, and demographic estimates; and (5) strengthen FSS for justice-based sustainable development of agriculture, land use, and food systems.The conceptual framework of FSS-related factors guided the global modeling of data from 11 countries in Africa, Asia, and Latin America. A multiple regression model explained FSS utilization (R2 ¼ 0.53, P &lt; 0.0001), specifying the significant inverse relations to mean farm area (strong), per-capita Gross Domestic Product at the district level (strong), and urban distance (moderate). FSS showed strong positive relations to aridity and topographic ruggedness. FSS were positively related to elevation in a 5-country Andean subsample. Results estimated FSS utilization by 136 million farmers within the 11 countries. Novel insights to strengthen FSS policies and programs are the importance of FSS to extremely small farm-area subgroups and other distinct FSS stakeholders, global-region geopolitical distinctness of FSS-farm area relations, multidistrict FSS concentrations that enable extralocal FSS spatial connectivity, FSS capacities in climate-change hot spots, and high FSS encompassing periurban areas. Policy-relevant results on global geographic and demographic extensiveness of FSS and key spatial, socioeconomic, political, and environment relations demonstrate that globally FSS are key to supporting agrobiodiversity, agroecology, nutrition, and the sustainability of food systems. These advise strengthening FSS through pro-poor and linked urban-rural policies at regional scales in addition to expanding local initiatives. © 2023 University of California Press. All rights reserved.</t>
         </is>
       </c>
       <c r="E35" t="n">
         <v>1</v>
       </c>
-      <c r="F35" t="n">
-        <v>1</v>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1564,22 +1590,24 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>“Food Village”: An Innovative Alternative Food Network Based on Human Scale Development Economic Model</t>
+          <t>Assessment of the potential impact of the African Continental Free Trade Area on the right to food security of small-scale farmers and vulnerable groups; [Évaluation de l’impact potentiel de la zone de libre-échange continentale africaine sur le droit à la sécurité alimentaire des petits exploitants agricoles et des groupes vulnérables]</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Although the different alternative food networks (AFNs) have experienced increases worldwide for the last thirty years, they are still unable to provide an alternative capable of spreading on a large scale. They in fact remain niche experiments due to some limitations on their structure and governance. Thus, this study proposes and applies a design method to build a new sustainable food supply chain model capable of realizing a “jumping scale”. Based on the theoretical and value framework of the Civil Economy (CE), the Economy for the Common Good (ECG), and the Development on a Human Scale (H-SD), the proposed design model aims to satisfy the needs of all stakeholders in the supply chain. Max-Neef’s Needs Matrix and Design Thinking (DT) tools were used to develop the design model. Applying the design method to the food chain has allowed us to develop the concept of the “Food Village”, an innovative food supply network far from the current economic mechanisms and based on the community and eco-sustainability. © 2022 by the authors. Licensee MDPI, Basel, Switzerland.</t>
+          <t>The African Continental Free Trade Area (AfCFTA) presents opportunities but also risks for food security of vulnerable groups and small-scale farmers. Increased intra-African trade could improve efficiency, lower costs, and boost food availability. However, more imports may displace local production by smallholders who struggle to compete, worsening hunger and eroding food sovereignty. Policies prioritising exports or imports over domestic farming can reduce control of food systems and increase reliance on foreign sources for food. The right to food security is recognised under international and African human rights instruments. The AU’s Malabo Declaration aims to spur agricultural development and food security access across Africa. This article analyses AfCFTA’s potential impact on smallholders’ and vulnerable groups’ right to food security. It identifies possible benefits and risks of greater agricultural trade and examines how policies could undermine food sovereignty and security. The article outlines policy recommendations to mitigate potential adverse effects of AfCFTA on food security. It argues that targeted policies and investments are needed to safeguard vulnerable groups. The doctrinal analysis reviews applicable rules and literature to elucidate AfCFTA’s nuanced impacts on food security and inform policy making. Recommended collaborative efforts involve subsidies, microloans, extension services, infrastructure, and public-private finance partnerships to support smallholders. Additional policies include strengthening land rights and gender equality, upholding seed protections, leveraging AfCFTA safeguards, pursuing deeper integration, and combining trade reforms with transport upgrades. Holistic, tailored approaches suiting countries’ diverse contexts are required, not one-size-fits-all solutions. Strategic policies and investments empowering farmers, building resilience, and enabling inclusive agricultural development can help vulnerable populations seize AfCFTA opportunities. © 2023, Pretoria University Law Press. All rights reserved.</t>
         </is>
       </c>
       <c r="E36" t="n">
         <v>1</v>
       </c>
-      <c r="F36" t="n">
-        <v>1</v>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1596,15 +1624,15 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Trends in climate, socioeconomic indices and food security in Nigeria: Current realities and challenges ahead</t>
+          <t>Reuniting the Three Sisters: collaborative science with Native growers to improve soil and community health</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Food security in Nigeria is presently in dire strait owing to several factors, such as skyrocketing energy prices, climate change, and terrorism. This study is aimed at revealing the role of the aforementioned factors in shaping food affordability and availability in the country. The study used descriptive statistics and coefficients of variation and determination to ascertain the change in the trend in these factors and their correlates to food security over time. From the results of our research team, we inferred that temperature increases, political instability, rising food prices and erratic energy supply have had distressing consequences in the areas of affordability, availability and stability of food supplies. We conclude that a rapidly growing population such as Nigeria's would need crucial interventions in increasing food production, mitigating the impacts of climate change, and buffering energy supplies. Ultimately, Nigeria needs to overhaul the important components of her food systems and the respective linkages between these components in order to ensure food security for the entire population. Copyright © 2022 Oderinde, Akano, Adesina and Omotayo.</t>
+          <t>Before Euro-American settlement, many Native American nations intercropped maize (Zea mays), beans (Phaseolus vulgaris), and squash (Cucurbita pepo) in what is colloquially called the “Three Sisters.” Here we review the historic importance and consequences of rejuvenation of Three Sisters intercropping (3SI), outline a framework to engage Native growers in community science with positive feedbacks to university research, and present preliminary findings from ethnography and a randomized, replicated 3SI experiment. We developed mutually beneficial collaborative research agendas with four Midwestern US Native American nations. Ethnographic data highlighted a culturally based respect for 3SI as living beings, the importance it holds for all cultural facets of these Native nations, and the critical impact the practice has on environmental sustainability. One concern expressed by Native growers during ethnographic research was improving soil health—part of the rationale for establishing the 3SI agronomic experiment. To address this, we collaboratively designed a 3SI experiment. After 1 year, 3SI increased short-term soil respiration by 24%, decreased salt-extractable nitrate by 54%, had no effect on soil microbial biomass (but increased its carbon-to-nitrogen ratio by 32%) compared to the average of monoculture crops. The overarching purpose of this collaborative project is to develop a deeper understanding of 3SI, its cultural importance to Native communities, and how reinvigorating the practice—and intercropping in general—can make agroecosystems more sustainable for people and the environment. © 2022, The Author(s).</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1628,15 +1656,15 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Characterization of the Territory and Estimation of a Synthetic Index of Social Welfare</t>
+          <t>CLIMATE CHANGE AND FOOD SECURITY: FROM THE ONE HEALTH APPROACH TO THE HOLISTIC MODELS OF THE GLOBAL SOUTH; [Cambiamento climatico e sicurezza alimentare: dall’approccio One Health ai modelli olistici del Global South]</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>The rural approach to territorial development has challenged globalization; the countries have opened their agricultural borders through trade agreements that benefit the rural sector. Europe has become an agricultural power, leading the design of foreign trade policies for products of agricultural origin, expanding its areas of influence to underdeveloped countries, proposing changes in the world economy. This approach proposes to build and strengthen cultural identity in rural territories and improving the quality of life. This research proposes the development of a synthetic well-being index for fifteen rural municipalities in the province of Malaga, in the south of the Autonomous Community of Andalusia. The results show that the results of the studied territories are homogeneous, with small differences in the capital of the Antequera Region. © 2022 María‐Salomé Ochoa‐Rico et al.</t>
+          <t>The article analyzes the impact of climate change on food security and the right to food, exploring different regulatory models deemed to address the challenges produced by climate change in food systems, within the framework of recommendations from international institutions. The essay identifies certain integrated regulatory approaches applicable to agrifood regulation on which a widespread consensus in the scientific community and among international institutions may be appreciated. Among these are the One Health approach, the ecosystem approach, the models inspired by agroecology, and the so-called human rights-based approach (HRB). The paper discusses their effectiveness in promoting food security and climate resilience, attempting to verify the presence of regulatory provisions inspired by such approaches in existing food legislation. In such respect, the article examines the recent European “From farm to fork” strategy and certain approaches in the context of the Global South. © 2023, BioLaw Journal. All Rights Reserved.</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1660,22 +1688,24 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Revisiting global food production and consumption patterns by developing resilient food systems for local communities</t>
+          <t>Food-Centric Perceptions of Nature in Hong Kong: Urban Anthropology in Conversation with Tim Ingold; [香港以糧為本「自然」識覺： 與Tim Ingold對話都市人類學]</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>The achievement of resilient food systems requires an integrated approach between optimal localization of productions and changes in food consumption and between local evaluations of the food system and global visions. In this regard, we developed a Food Self-Sufficiency Index. The index evaluates food self-sufficiency achievable in a study area where its community chooses between alternative suggested diets, and the food productions are relocalized using crop suitability maps. The index can be used at different geographical scales, from a single rural settlement to regional and country-level, up to worldwide. It revisits the food components of the ecological footprint and biocapacity to build a tool for supporting local institutions' decisions in food planning at different levels. In this paper, we discuss how the FSSI could help in increasing the resilience of food production and consumption systems. The paper outlines these essential points for the improvement of the food resilience of an area that aims to improve its self-sufficiency (i) Improving technical solutions, (ii) Improving the communities' involvement, (iii) Improving agro-biodiversity, and (iv) Using complex system approaches in food planning. The Food Self-Sufficiency Index is a powerful supporting decision tool to achieve all the previous goals. © 2022 Elsevier Ltd</t>
+          <t>Nature has multiple meanings in different languages. In the context of this research, even among people who share relatively similar linguistic, ethnic, and historical backgrounds, there are discrepancies regarding the interpretation of this concept. Despite diverse arguments about humannature relations and the improbability of finding a universally accepted definition, this term underlies one of today’s most mentioned topics, sustainable development. People’s understanding of nature significantly influences their opinions, decisions, and actions. Therefore, this paper aims to re-examine the implications and connotations of nature in daily conversations, specifically in the context of food and agricultural activism. This paper sits within the nexus of several seemingly divergent but related theoretical frameworks, including environmental anthropology, urban anthropology, space, place, landscape, agriculture, food politics, food culture, etc. Since ecosystems and landscapes are relocated from the backdrop of an ethnography to the foreground, the rural versus urban dualistic framework is also subject to challenge. One recent development aptly aligns with this paradigm. Farming activities have entered daily life in cities and have become a globally recognised sustainable development element. In Hong Kong, the concepts of edible landscape and horticultural healing are increasingly known to people and becoming popular. Applying Tim Ingold’s phenomenological analysis to my field data, this paper explores how an urban setting shapes Hong Kong residents’ experiences of nature and how such perceptions result in changes in individual behaviours and reflections on agri-food systems and the planning of urban space. In particular, this research speaks to Ingold’s critique of sustainability. He indicates that this terminology is pervaded with nostalgia for pure and romanticised nature. In this sense, nature has a primordial configuration free of human intervention; to achieve sustainable development is to restore the planet to its original state. At first glance, the agricultural activism in Hong Kong and its ‘agriculturalism’, as this paper conceptualises it, seem to fall into Ingold’s depiction. However, this study finds that this ‘agriculturalism’ is not really about holding onto a primitive nature and opposing modern and urban ways of life. Instead, farming practitioners seek to establish a new form of living within a city rather than escaping it. They seek to carve out living space in an expensive city for the non-elite and the grass-roots. They initiated an experiment characterised by sustaining everyday necessities with one’s own hands, growing food, cooking, and making or recycling furniture. They attempt to reconsider their relationship with the more-than-human world by creating a setting where they can stay close to the land. In this way, they believe they can gain knowledge, skill, and sensory and bodily experiences so as not to depend on the consumption system, which, they believe, detaches consumers from producers and raw materials. In the process, the relationship between humans and nature is further reshaped to adjust to local circumstances. According to Hong Kong farming practitioners, this form of life benefits human beings’ physical and mental health and the continuation of the ecological cycle. Despite their having no geographical boundary or community membership, their farms or living spaces become a heterotopia. People in this area talk a lot about environmental ethics, which shows generational differences. However, at the global scale, these ethics resonate with the globally circulating agenda of sustainable development. In present-day Hong Kong, where the post-1997 sovereignty and subjectivity struggles constantly monopolise stories about the place, the localisation of the food system may easily be simplified as making a distinction between ‘us’ and ‘others’ and as a resistance to dependence on imports. However, this paper argues that, while the cross-border relationship is one of the concerns, the intimacy and entanglement of human society and our living environment—a state of ‘non-duality of body and earth’—is the fundamental idea. This case of Hong Kong agriculturalism demonstrates an alternative representation of sustainability different from Ingold’s critique. This vision for future urban life is not based on regarding nature as a moral and aesthetic rhetoric but on making it a pragmatic strategy for survival and putting it into practice. © 2023, Taiwan Journal of Anthropology. All Rights Reserved.</t>
         </is>
       </c>
       <c r="E39" t="n">
         <v>1</v>
       </c>
-      <c r="F39" t="n">
-        <v>1</v>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1692,15 +1722,15 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Why do some Participatory Guarantee Systems emerge, become effective, and are sustained over time, while others fail? An application of the Ostrom social-ecological system framework</t>
+          <t>Localization of the corporate food regime and the food sovereignty movement: taiwan’s food sovereignty movement under “third regionalism”</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Participatory Guarantee Systems (PGS) can play an important role in territorial re-embedding of agri-food systems into their Social-Ecological Systems (SES), thereby stimulating multifunctionality of agriculture and the diversification of the production system. This represents an opportunity to promote endogenous rural development, employment and the viability of rural communities, as well as to support family agriculture, food sovereignty, and food security. However, the underlying biophysical, social, and economic conditions of the SES that affect the likelihood of building these institutions through collective action have hardly been studied. In order to explore this, we used the conceptual framework of SES designed by Elinor Ostrom to identify the conditions under which PGS, and the collective action that created them, emerge, become effective, and are sustained over time. This information may help land managers, policy makers, and planners to design policies that facilitate the building of effective and sustainable PGS over time. © 2022 Elsevier Ltd</t>
+          <t>Third regionalism explains the liberalization of trade centered around the Asia-Pacific region in the 21st century. Under regionalism, domestic agricultural markets that formerly enjoyed national food-security policies have loosened. This caused traditional domestic farmers’ organizations to become more regionally interconnected, forming a food sovereignty movement under the auspices of La Via Campesina. Localized food-production chains are promoted to mitigate the impact of regionalism on the Asia-Pacific agricultural sector. The Taiwan Rural Front (TRF) joined La Via Campesina and the food sovereignty movement in the 2010s. During the process of adopting regionalism, Taiwanese agricultural trade and technologies were protected by public agencies and state-owned enterprises. This context differs from that of Southeast Asia, where the food sovereignty movement has thrived. Therefore, the following question is raised: Why was it possible for the food sovereignty movement to originate in Taiwan? This paper describes the developmental characteristics of Taiwan’s food-security governance mechanism as a state-guided corporate food regime amid third regionalism. Further, the TRF does not advocate for localized food-production chains. Due to the formation of a state-guided corporate food regime, the food sovereignty movement has become connected with farmland protection movements that set the Taiwanese sovereignty movement apart. © 2022 Association for the Study of Food and Society.</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1724,15 +1754,15 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NATURE AND FOOD COMMODIFICATION. FOOD SOVEREIGNTY: RETHINKING THE RELATION BETWEEN HUMAN AND NATURE1; [Priroda i komodifikacija hrane. Prehrambeni suverenitet: promišljanje odnosa između čoveka i prirode]</t>
+          <t>‘Our struggle is for humanity’: a conversation with Morgan Ody, general coordinator of La Via Campesina International, on land, politics, peasant life and a vision for hope in our changing world</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>The article aims to explore the link between commodification of nature and commodification of food. The latter is in fact one of the most negative and controversial aspects of nature commodification. The examination of food commodification represents fertile ground for investigating the relationship between humans and nature. In this context, food sovereignty provides a useful paradigm that not only serves as an alternative to the current food regime, but also allows for the experiencing a different kind of relationship between humans and nature. Food sovereignty represents a unique social movement in which community, political, and cultural rights are intertwined with the issue of food. Through its multidisciplinary approach and its strongly ethical component, food sovereignty constitutes an opportunity in order to contrast the progressive commodification of nature and of the environment. © 2022, University of Belgrade - Institute for Philosophy and Social Theory. All rights reserved.</t>
+          <t>A new generation of activists and peasant leaders have taken up the banner of food sovereignty amid an even more challenging and violent situation for rural people around the world. In this interview Morgan Ody, the new General Coordinator of La Via Campesina International, discusses her vision for rural movements. Originally from a small dairy farm, Ody is a second-generation militant in Confédéracion Paysanne. Ody speaks about land reform, climate politics, the perils and potential of state policies, rising populism, and the power of the peasantry: in short, about where the movement has been and where we are headed. © 2023 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1756,22 +1786,24 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>The genetically modified organism shall not be refused? Talking back to the technosciences</t>
+          <t>“First we eat and then we sell”: participatory guarantee systems for alternative sustainability certification of Bolivian agri-food products</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Starting from Marcel Mauss’ observation that “one has no right to refuse a gift”, this paper explores the politics of refusal in the context of field trials with genetically modified organisms in Flanders (Belgium). Based on a decade of activist research, and focusing on the genetically modified organism field trials of the Flemish Institute for Biotechnology, we show that the business model of this strategic research center – with its triple mission of carrying biotechnology research, technology transfer, and the promotion of biotechnology through communication and lobby activities – fosters a climate in which innovations in the technosciences have to “be accepted”. The future is laid out without including the possibility of refusal. Consternation is great when this is exactly what happens. Irrational fears and lack of understanding or lack of familiarity are invoked to explain refusal. Language of precision, innovation, safety, and control are deployed to re-assure the public. Refusal is not considered a legitimate option. Yet, if farmers and grassroots initiatives would accept the gift of genetically modified organisms, it would mean the acceptance of their dispossession and the impossibility of diverse food sovereignties. Starting from theoretical work on “the gift” and “the politics of refusal”, we argue that recognizing innovation as the intrinsically plural and divergent process it is, entails including options to refuse particular pathways as a first step to open up others. As we will argue, saying no to genetically modified organisms is part of saying yes to peasant autonomy, agrobiodiversity, and peoples’ food sovereignties. © The Author(s) 2021.</t>
+          <t>Expectations and interest are high in participatory guarantee systems (PGS) as a context-specific alternative to third-party sustainability certification. Self-defined criteria, transparency, trust, and accessibility have made PGS an attractive alternative to exogenous certification in local markets in over 70 countries. There is also increasing interest in the possibilities for participatory certification in international trade for family farm-based products such as cocoa or coffee. Bolivia’s PGS was established in 2012. By 2017, the country ranked second (after India) in number of PGS farmers. Since 2019, however, its numbers are declining. Visiting six PGS initiatives, we interviewed 38 persons from production, processing, distribution, support networks, and policymaking on the current situation of PGS in Bolivia; its challenges; its prospects in local, national, and international trade; and the role of Bolivia’s governmental PGS support. While PGS certification in Bolivia faces challenges–including high fees, weak consumer demand, and insufficient links to broader value chains–it displays strong potential to make locally managed sustainability certification more accessible. We recommend that decision-makers ensure accessibility and help promote PGS with consumers. Importing countries could support PGS, in particular by incentivizing access of PGS-certified products to their national markets by recognizing them as organic via peer-to-peer certification. © 2022 The Author(s). Published with license by Taylor &amp; Francis Group, LLC.</t>
         </is>
       </c>
       <c r="E42" t="n">
         <v>1</v>
       </c>
-      <c r="F42" t="n">
-        <v>1</v>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1788,15 +1820,15 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Autonomy and repeasantization: Conceptual, analytical, and methodological problems</t>
+          <t>The making of peasant subalternity in Portugal: histories of marginalisation and resistance to agrarian modernisation</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>“Autonomy,” as a desirable state, is a notion often used by food sovereignty-oriented farmer movements and scholars studying repeasantization. The term is predominantly used rather casually, relying on presumed meanings, but van der Ploeg's book The New Peasantries seeks to elaborate a particular meaning of autonomy as a characteristic feature of the peasantry. The desire of farmers/peasants for autonomy is formulated in tandem with agroecological agriculture, farmers' agency, locally “nested” markets, co-production with nature, non-commoditized production, and multiple kinds of peasant resistance. This article identifies the distinctive nature of this take on autonomy and analyses its analytical, normative, and political aspects. It develops several critiques regarding the analytical shortcomings of the notion of peasant autonomy: the methodological problem of a peasant bias; the analytical limitations and incompatibility of intrinsic and “relative” autonomy; and the neglect of accumulation from below and subtle class contradictions. Rather than centring autonomy or relative autonomy, the authors argue for shifting the focus to the nature of different types of dependency relationships, ranging from very exploitative to those vital for human flourishing. © 2021 The Authors. Journal of Agrarian Change published by John Wiley &amp; Sons Ltd.</t>
+          <t>This paper examines how marginalised, small-scale family farmers have been facing the difficulties of agrarian modernisation in Portugal. Central to the history of contemporary peasants in this country is their continuous subordination to the power of agrarian capital and landed elites. But subaltern peasants have mobilised, particularly through CNA, a Vía Campesina member organisation, to build an oppositional project, not without tensions. The article argues that a Gramscian notion of subalternity offers a powerful lens to analyse the links between agrarian change, conflict and resistance for its focus on uneven power relations and by emphasising the centrality of social struggle. © 2021 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1820,15 +1852,15 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Policies and practices of central and sub-national governments for seed commons formation in Japan: will the seeds of the varieties collected and developed be shared?</t>
+          <t>Between eating enough and the desire to eat: the state of the art on sovereignty and food and nutritional security in Brazil; [Entre comer à vontade e a vontade de comer: o estado da arte sobre soberania e segurança alimentar e nutricional no Brasil]</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Proponents of agroecology and food sovereignty are trying to form seed commons as a framework against the formal seed systems established by governments. However, we argue that the formation of seed commons should not be considered as a dichotomy that distinguishes between the government and stakeholders, including farmers, but rather as a dichotomy that divides the scope of activities into those regulated by law and those that can be determined by farmers at their own discretion. Japan, like many other countries, is a signatory to the International Treaty on Plant Genetic Resources for Food and Agriculture and the International Union for the Protection of New Varieties of Plants, both of which contain important elements for the conservation of agricultural biodiversity and agroecology at the national and local level. Based on the proposed dichotomy, this study aims to explore the possibility of creating seed commons for seed sharing in Japan. We clarify the policies and actual conditions surrounding the access and use of seeds and explore the possibility of creating seed commons. © 2021 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>The article aims to identify the main debates on Food and Nutritional Sovereignty and Security considering a broad approach and legal publications in order to comprehend the theme in a multidisciplinary way and to locate possible research gaps. It proceeds a bibliographical and systematical review (state of the art) that was carried out in the 5-year time frame (2016-2020), and restricted to journals available at SciElo and theses and dissertations from Master's and Doctoral programs at Capes. With qualitative data analysis approach and the deductive method, a critical analysis of the data was done. The results were divided into three categories: environment; human rights and political-economical. It concludes that the use of pesticides, the counter-hegemonic discourse and the analysis of public policies, especially those directed to family farmers, are approaches with the highest incidence. The scarcity of research on food systems and seeds stood out, mainly regarding the regulatory framework, and water security, closely associated with food production can be mentioned as research gaps. © 2023 Universidade Federal do Parana. All rights reserved.</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1852,22 +1884,24 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Does ‘food sovereignty’ engender paradigm shift or co-optation? Insights from Nepal</t>
+          <t>The transformative potential of Seed Commons: Applying the social-ecological transformation framework to agri-food systems</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Food sovereignty proponents find the terms ‘security’ and ‘right’ associated with ‘food’ as not covering the entire gamut of food and agricultural issues, especially in addressing small farmers’ and peasants’ concerns and ensuring sustainable agriculture development. Hence, they have conceptualized an alternative food paradigm and called it ‘food sovereignty’. However, food sovereignty has been interpreted and operationalized in various forms. Perhaps the choice of the term sovereignty has rendered the idea of food sovereignty ideal for co-optation because sovereignty is a historically and politically contested concept with multiple meanings attached to it. Some scholars argue that there are multiple sovereignties in food sovereignty that can be reconciled. This article analyses the case of Nepal that has adopted the idea of food sovereignty, and finds that the argument of multiple sovereignties exercised through relational and interactive measures can only be aspirational and normative at best. © 2022 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>In this paper, we argue that small initiatives can contribute to larger transformations if they challenge and unmake incumbent unsustainable paradigms, and we demonstrate how the application of the social-ecological transformation framework helps to operationalize the analysis of paradigm shifts across different levels of transformation. Empirically, we assess the contribution of Seed Commons initiatives to agri-food systems transformations, taking the case of the organic breeding association Kultursaat e.V. At the macro level, the analysis reveals that the paradigms of ‘materialistic culture and growth’, ‘control and autonomy of humans over nature’ and ‘expert knowledge and specialization’ are deeply embedded in the dominant agri-food system. Kultursaat challenges them by promoting alternative narratives such as agroecology, food sovereignty, farmers' rights and resilience. At the micro and meso level, we apply a set of evaluation principles that reveal the transformative character and partial transformative impact of Seed Commons. Applying the framework to agri-food systems can bring an enhanced theoretical understanding of dynamics of change into the agri-food transformation discourse, link small-scale initiatives to wider processes of transformation, and provide a systematic research approach to enhance comparability across case studies. The framework is well suited to bring together even evolving transformation literatures. © 2022 The Authors</t>
         </is>
       </c>
       <c r="E45" t="n">
         <v>1</v>
       </c>
-      <c r="F45" t="n">
-        <v>1</v>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -1884,22 +1918,24 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Let’s Reclaim Our Food Sovereignty and Reject the Industrial Food System!</t>
+          <t>The contribution of green public food procurement to sustainability: evidence from two case studies in Spain</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>African food systems are a rich and varied tapestry of production systems, crops, seed, territorial markets, cultures, biodiversity and ecologies. As the UN Food Systems Summit worked to retrench the many pathologies that have systematically eroded African food systems, African civil society organizations mobilized to push back. In the African regional people’s countermobilization, participatory dialogues opened space for continent-wide articulations of a future built on peoples’ choices and control of natural resources, territorially-embedded solutions, the human rights of all, family farming, and peasant agroecology. © 2021, Society for International Development.</t>
+          <t>Green Public Food Procurement (GPFP) has revealed itself to be an ally for achieving ecological transition objectives, however there is little work attempting to assess its contribution. This work proposes a set of sustainability and health indicators that comprise a tool able to evaluate the performance of GPFP. A Delphi analysis and a participatory process is used to determine Key Performance Indicators that have been tested through two case studies in Spain. The results obtained show that the presence of short marketing circuits and food sovereignty and institutions rooted in the territory contribute to improved economic sustainability and good performance in terms of health. However, for environmental issues the performance is somewhat lacking, as instruments such as renewable energies and the circular economy are not implemented on a local scale. Elements linked to territorial cohesion and social capital are key for the principles of social and labor justice, as well as governance, to prevail. The Mediterranean diet integral to the case studies presented results in adequate health indicators. These types of indicators would be a useful tool for introducing sustainable food certification as a driving force for changing the food model. © 2023 The Author(s). Published with license by Taylor &amp; Francis Group, LLC.</t>
         </is>
       </c>
       <c r="E46" t="n">
         <v>1</v>
       </c>
-      <c r="F46" t="n">
-        <v>1</v>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -1916,22 +1952,24 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Re-imagining the UN Committee on World Food Security</t>
+          <t>The United Nations Declaration on the rights of peasants and other people working in rural areas: possibilities for the formation of a rural Latin-American historic bloc</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>This article argues that the United Nations Committee on World Food Security can and must serve as a space for catalyzing and strengthening public interest-oriented food systems governance grounded in the human rights framework. This would necessarily entail confronting the fragmentation of governance and erasure of accountability promoted by corporate designed multi-stakeholderism, and democratizing multilateralism through genuine participation of rights holders, public scrutiny and participatory science. Pivotal to this endeavor is arresting the growing corporate influence in governance mechanisms and reorienting them towards reinvigorating relationships among people, communities and governments. © 2021, Society for International Development.</t>
+          <t>Worsening conditions due to the COVID-19 crisis hit rural and agricultural communities in Latin America hard. Paradoxically, this happened when the specific rights of those communities were recognised in a newly adopted international instrument, the UN Declaration on the Rights of Peasants or UNDROP. UNDROP departs from most universal human rights instruments negotiated in the UN by speaking for a group defined by social class and not gender, age, ethnicity, or other categories. In this sense, UNDROP appears to be inspired by a return to class, like instruments negotiated within different international organisations, more precisely the International Labor Organization. The reconsideration of class as a social category is not an endpoint for transnational peasant and agricultural workers’ legal activism; it may create broader spaces for legal mobilisation. Such legal mobilisation may come in the form of class solidarity on issues such as gender in rural spaces, access to seeds and land, or the broader concept of food sovereignty. Nevertheless, historic bloc formation is contentious, and these same issues may be contingent, as exemplified in the Lhaka Honhat Association Case. © 2023 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E47" t="n">
         <v>1</v>
       </c>
-      <c r="F47" t="n">
-        <v>1</v>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -1948,15 +1986,15 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>AFHVS 2021 Presidential Address: critical praxis and the social imaginary for food systems transformation</t>
+          <t>Community Perspectives on Inuit Country Food Insecurity in Gjoa Haven, Nunavut</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>In this 2021 AFHVS Presidential Address, Kim Niewolny provides a brief foray into the onto-epistemic framing of critical praxis for sustainable food systems transformation. Niewolny proposes we engage in the creative entanglement of critical praxis and the social imaginary to “unthink” the orthodoxies that govern our ideas of the possible. She offers several possibilities as pathways toward a food system that embodies health equity, ecological justice, land sovereignty, and human rights, including: (1) agroecological research and movement building; (2) food, farm, and health policy; (3) food and farm system worker protections as public health and human rights concerns; (4) intersectional food justice scholarship and curriculum; (5) narrative-led, community-based, and action-oriented methodologies as multi-dimensional inquiry; (6) and multi-sector and multi-racial coalitions as dynamic networks that challenge linear, neoliberal, and technical-rational practices. Niewolny concludes with a call for radical hope as a principle for critical food systems praxis. © 2021, The Author(s), under exclusive licence to Springer Nature B.V.</t>
+          <t>This paper explores how policies and programs can better support country food security and food sovereignty in Gjoa Haven, Nunavut. Through a series of six focus groups with a total of 74 participants, we explore the challenges that Elders, youth, hunters, food preparers, and program providers face in the access, availability, quality, and use of country food. Despite the diverse representation among focus groups, participants revealed similar challenges across demographics and highlighted how tailored policies and programs can provide complementary solutions that serve more than one purpose. We argue that policies and programs targeting financial and economic challenges; resources and infrastructure; and skills and knowledge will improve country food security and will promote food sovereignty. Ultimately, policies and programs must be community informed and tailored to their current context and community dynamics. However, the recommendations we provide could be adapted to other Arctic communities experiencing similar challenges. © The Arctic Institute of North America.</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -1980,22 +2018,24 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Farm-level pathways to food security: beyond missing markets and irrational peasants</t>
+          <t>Breeding sovereignty: the production of race, nature, and capital in Venezuela</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Development projects in Sub-Saharan Africa propose to alleviate hunger in rural areas by introducing new agricultural practices and technologies, yet there is limited empirical evidence of how an agricultural intervention can lead farming households to transition to food security. Research on food security pathways considers agricultural interventions that increase farmers’ income to be particularly effective for reducing food insecurity. Consistent with this stance, Malawian agricultural policy aims to address hunger by encouraging smallholder farmers to intensify and commercialize maize production. This paper explores if smallholders’ market and livelihood orientations do indeed lead them to favor an income pathway to food security. Qualitative analysis of 60 smallholder farmer interviews in Malawi found that, upon achieving improvements in production yields and diversity, rather than commercialize, many farmers re-organized their production and consumption to reduce market dependency. Farmers deployed this strategy to increase their food security, explaining that the choice to self-provision food and farming inputs was both an expression of farming identity and a lived understanding of their marginal position in commodity markets. The author finds that, in failing to consider how production relations affect food access, scholarship inadequately theorizes farm-level food security transitions and reproduces discursive framings of hunger. Food sovereignty narratives more accurately captured what mattered for Malawian smallholders’ food security, suggesting that engagement with this concept could improve scientific understandings of food security transitions. © 2021, The Author(s), under exclusive licence to Springer Nature B.V.</t>
+          <t>This article explores the efforts of the Venezuelan government to improve food security and rural livelihoods with an experimental cattle-breeding project. It investigates the activities of a state enterprise in the western plains and how the selective-breeding practices of veterinary experts intersect with the logic of capital and biopolitics. Contributing to debates on the interaction between society and environment, the analysis suggests that ‘endogenous development’, or the reduction of poverty through internal markets, draws on systems of knowledge that treat the biology of animals as a field of intervention for the resolution of social contradictions. To reduce reliance on petroleum rent and food imports, Venezuelan experts have sought to create a new breed of cattle suited to the nation's diverse ecologies. But the knowledge systems which guide this project are embedded with a host of cultural and economic assumptions that subvert the successful application of this biotechnology. Ultimately, this article seeks to increase knowledge of the techno-politics of resource states at the start of the twenty-first century and the ways in which cultures of expertise impact food sovereignty. © Royal Anthropological Institute 2023.</t>
         </is>
       </c>
       <c r="E49" t="n">
         <v>1</v>
       </c>
-      <c r="F49" t="n">
-        <v>1</v>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2012,15 +2052,15 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>China and the UN Food System Summit: Silenced Disputes and Ambivalence on Food Safety, Sovereignty, Justice, and Resilience</t>
+          <t>Reimagining the Food System: Kropotkin, Food Sovereignty and OrganicLea</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>China is a major agricultural power. It dramatically reduced hunger and increased its role in many forums for international governance. However, the Chinese government and society neither played a prominent role in the UNFSS nor in its critique. This article exposes how tensions and ambivalence about agroecology and food sovereignty in China create silences in these discussions, and addressing them within China can also resolve the global tensions that marked the UNFSS as a whole. © 2021, Society for International Development.</t>
+          <t>This paper explores the similarities between Kropotkin’s vision of a just food system and the food sovereignty movement, with the concrete example of the work of OrganicLea. It will begin with an analysis of the deepening problems of our food system through food insecurity and its negative impact upon the environment. The second part will introduce the idea of food sovereignty and show how it intersects with Kropotkin’s work, with it being argued that a just food system is one that recognises central aspects of both; alongside local and collective ownership, the well-being of all, regenerative agriculture and a commitment to wider social and environmental justice. I will then show how such principles are being put into practice through the work and direct action of OrganicLea. This will reveal how Kropotkin’s thought is still relevant today and how it can be used to address contemporary concerns such as food insecurity and climate change. The paper will also consider the limitations of Kropotkin, including his time-restricted ideas, and the need for new perspectives such as those found in OrganicLea and the food sovereignty movement. © 2023, Lawrence and Wishart. All rights reserved.</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -2044,22 +2084,24 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>VILLAGE PROJECTS OBSERVED IN ERITREA: POST-CONFLICT PATHWAYS TOWARDS DEMOCRATIC RURAL DEVELOPMENT</t>
+          <t>Agro-extractivism</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Eritrea's rural development trajectory has fallen short of fully meeting the basic needs of its peasants and pastoralists, let alone national food security objectives. This article builds on earlier research on rural development projects in a select number of villages. These projects were primarily characterised by a state-centric technocratic logic that did, to some degree, embed “hard” infrastructure in the villages, but which paid less attention to building village-level capacity or organisational autonomy. Looking beyond these impasses, the present article suggests an inward-oriented national development model centred on the home market, rural co-operatives, and food sovereignty. As yet - at the time of writing - another major war afflicts Eritrea and Ethiopia, the presence of the political will for such a transition is by no means guaranteed. © 2022 University of Hradec Kralove, Philosophical Faculty. All rights reserved.</t>
+          <t>The term agro-extractivism has become synonymous with large-scale, corporate-controlled, monoculture plantation agriculture. The aim of this concept note is to clarify the extractivist dynamics in the current context of the capitalist development process. The paper surveys the development of agro-extractivism as a conceptual framework and as a feature of the contemporary political economy of agrarian change in Latin America. It briefly reflects on the potential contributions of land-based struggles to post-extractivist alternatives based on food sovereignty politics. The paper concludes by assessing the broader implications of agro-extractivism for our understanding of the agrarian question in the twenty-first century. © 2023 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E51" t="n">
         <v>1</v>
       </c>
-      <c r="F51" t="n">
-        <v>1</v>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2076,15 +2118,15 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Toward food sovereignty and self-sufficiency in Latin America and the Caribbean: opportunities for agricultural complementarity; [Hacia una soberanía y autosuficiencia alimentaria en América Latina y el Caribe: oportunidades de complementariedad agrícola]</t>
+          <t>Flavour, culture and food security: The spicy entanglements of chile pepper conservation in 21st century Mexico</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Food self-sufficiency is a relevant political issue in many countries, developed and developing, particularly to satisfy the internal nutritional needs of the population and face situations in which the prices of basic products are unstable or when a country faces an external shock. Improving resilience involves strengthening local rural communities to meet demand with domestic production. The member countries of Latin America and the Caribbean (LCN) produce enough food to sustain their population and to be one of the world’s largest food exporters. From the theoretical discussion and using data from FAO, the research shows that there is a potential to improve food sovereignty and to define food and agricultural policies through agricultural complementarity among the LCN countries. Diverting part of the current trade with third parties to intraregional trade, for products in which the region has a comparative advantage, would mean that LCN countries could save up to 2.7 billion dollars per year, that is, 6.8% of total imports of food in 2018, avoiding the outflow of foreign currency and promoting greater economic integration between countries. © 2023,Revista de Economia e Sociologia Rural. All rights reserved</t>
+          <t>Political interests and power structures shape state-led crop conservation and food policy. As a crop that relates to culture and belonging, the chile crop is ideal for exploring how food security policy and crop conservation schemes integrate aspects beyond staple crops, calories and/or electoral incentives. What do these schemes mean for the food and ingredients we love? Reflecting from this perspective can be useful to grasp, re-frame and create more effective and inclusive food policies—ones that embody and valorise flavour, identities and territories beyond statements on paper. Summary: In line with the Food and Agriculture Organisation's (FAO) international action plan for crop genetic resources, the Mexican state inaugurated the National System of Genetic Resources for Food and Agriculture (SINAREFI) in 2002. In this paper, I explore SINAREFI's interest in landraces and in situ conservation through the case of chile pepper, set under the Ministry of Agriculture's interests of promoting industrial agriculture and paternalistic food security welfare programmes. Through the analyses of existing literature on food security in Mexico state programmes, archival work and interviews, this article analyses how discourses on food security shape research trajectories, some of which are inevitably constrained by current market-based agricultural systems. By exploring the state's chile research and conservation programme, this work demonstrates the complexity of international food security discourse and its application domestically. Particularly, this analysis highlights the limitations of state crop research and conservation efforts imposed by contradictory agricultural policies. In the case of chile, its link to Mexican culture and diet uncovers an important, but often overlooked, aspect of food security: flavour. In the case of chile, a non-staple but culturally symbolic crop, welfare programmes remained paternalistic and focused on caloric intake despite the transformation of national discourse on food security towards the integration of landraces and local cultures through the inauguration of SINAREFI. This case study reflects on the limits of current framings and strategies regarding food security and the need to direct policies towards local food sovereignty to achieve the necessary stability for food security to endure. © 2023 The Authors. Plants, People, Planet published by John Wiley &amp; Sons Ltd on behalf of New Phytologist Foundation.</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2108,22 +2150,24 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>GLOBAL FOOD SECURITY AND SOVEREIGNTY IMPACTED BY SARS-CoV-2 PANDEMIC</t>
+          <t>Colonization by kale: marginalization, sovereignty, and experiential learning in critical food systems education</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>The current health crisis due to the severe acute respiratory syndrome -coronavirus-2 (SARS-CoV-2) is challenging several of the assumptions of a globalized world. There are severe consequences over food security and sovereignty, especially among the poorest and most vulnerable populations. Particularly, since any infectious disease outbreak is directly correlated to an increase in hunger and malnutrition. This assay is set to analyze the impacts of the sanitary crisis on food security and sovereignty in the international context, and highlight how governments are acting to reduce consequences, through the use of an exploratory and analytical methodology. Although the United States (U.S.) has successfully overcome this health crisis, the food crisis has overtaken, as a result of the growing unemployment. In Latin America, the pandemic is exacerbating food access and economic situation. The sanitary crisis has aggravated food shortages in Africa already going on, especially in rural areas. Asia suffered the most significant impact in food security. The new food security policy in the European Union aims to hold food security. Food insecurity and malnutrition are not just about agriculture production; they are also about food access limitations. In consequence, this health crisis cannot be allowed to become also a food crisis. © 2022. All Rights Reserved.</t>
+          <t>In increasingly cross-cultural global settings, the performance and promotion of healthy food, “good” food (comida saludable) have become conflated with a narrowing range of iconic vegetable and “superfood” trends that often reflect the health and dietary preferences of an affluent and/or aspirational consumer culture. These colonizing cultivars, and the haute cuisine trends they embody, often displace indigenous food knowledge, techniques, and products already compromised by the penetration of processed foods. Through experiential pedagogical examples from Guatemala and Vermont, this paper explores the ways in which participatory, indigenous food and seed sovereignty curricula can help decolonize these newest kinds of hegemonic impositions and reaffirm traditional food systems. © 2022 Association for the Study of Food and Society (ASFS).</t>
         </is>
       </c>
       <c r="E53" t="n">
         <v>1</v>
       </c>
-      <c r="F53" t="n">
-        <v>1</v>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2140,15 +2184,15 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Relevance of the Obstacles to the Achievement of Food Sovereignty in Ecuador, Analysis through the Neutrosophic Soft Set</t>
+          <t>The Rise of Asia-Pacific Agribusiness in the Global South—The Corporate Food Regime Under the Third Regionalism</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>One of the elements addressed in the Sustainable Development Goals until 2030, is the achievement of food sovereignty. This important issue takes relevance in the debates at the level of states, among which is Ecuador, which recognizes it as a right to its citizens from its Magna Carta. Despite being a widely addressed topic and to which substantial resources are destined, obstacles persist in its implementation. Therefore, it is proposed as the objective of this investigation: the analysis of the relevance of obstacles to the achievement of food sovereignty in Ecuador through Neutrosophic Soft Sets. To meet the proposed objective, empirical methods such as the interview and a neutrosophic soft set model were used. As a result, it was obtained that from the four initial statements, only three were true and that their relevance in the subject addressed was given by the following hierarchy: first of all the need to guarantee vulnerable groups the right to healthy eating, second, the fact that the allocations of resources to peasant producers are scarce in order to increase food production in the area and finally, the insufficient legal framework to guarantee the right to food sovereignty of Ecuadorians, in correspondence with the international pronouncements and The Constitution. © 2022, Neutrosophic Sets and Systems. All Rights Reserved.</t>
+          <t>Food regime theory asserts that the Global North has controlled food production chains since the 1800s, establishing a corporate food regime in the late 1980s. Through liberalization, Northern food corporations became powerful, leading the contemporary food regime and even replacing states. However, Global South corporations in the Asia-Pacific have grown to become important players in corporate food regimes. Through a literature review, content analysis, and interviews, this study leverages Third Regionalism as the theoretical approach to supplement the food regime theory, and explains how Third Regionalism featured free trade agreements established by Asia-Pacific countries, and how it supported the rapid rise of Southern food corporations. Regionalism helped Asia-Pacific Southern corporations become important figures in the contemporary corporate food regime, reinforcing the Global South’s food security and the livelihood sovereignty aspect of food sovereignty. The stances of Global South food sovereignty groups toward genetically modified crops are shifting and worthy of continued consideration. © The Author(s) 2023.</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2172,22 +2216,24 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Food sovereignty and the integral state: Institutionalizing ecological farming</t>
+          <t>Ethnolinguistic and genetic diversity of fonio (Digitaria exilis) in Senegal</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>This article takes up the question of how food sovereignty, and accompanying agricultural models that will help combat climate change, may be institutionalized through policy processes. I draw on the theories of Antonio Gramsci and his successors to discuss how the interwoven nature of the state and civil society, conceptualized as the ‘integral state’, can help inform an analytical approach to food policy change. Based on research that analyzes the work of Canada's two member organizations of La Vía Campesina, Union Paysanne and the National Farmers Union (NFU), I highlight the differences and parallels between food sovereignty struggles taking place in Quebec and those underway elsewhere in the country. I argue that although agricultural policy has the potential to be an important tool in transitioning toward a climate-friendly food system, proponents of food sovereignty would benefit from disengaging from traditional food policy advocacy efforts as these will only lead to incremental reforms. Instead, I suggest that a ‘prefigurative institutionalization’ has the potential to be transformative within and beyond the food system. The concept offers both a political strategy as well as an analytical framework for assessing movements’ efforts related to policy formation and governance. © 2021 Elsevier Ltd</t>
+          <t>Societal Impact Statement: Fonio (Digitaria exilis—Kippist—Stapf) is a neglected cereal crop that plays a crucial role in the food and nutritional security of sub-Saharan populations. Currently threatened with extinction in many countries, fonio, like other minor species, could help give insights into the history of African agriculture and provide clues to past social interactions. Highlighting and preserving genetic diversity that can be used to develop improved varieties improves food security. By recognizing the role of indigenous people and local communities (IPLCs) in agrobiodiversity creation and management, this study provides support for strengthening the rights of rural communities and promoting their food and seed sovereignty as outlined in the United Nations UNDROP Declaration. Summary: Fonio (Digitaria exilis) is a neglected cereal crop that plays a crucial role in the food and nutritional security of sub-Saharan populations. It is an excellent candidate to diversify agricultural and food systems beyond Africa because of its adaptability and hardiness. However, fonio is threatened with extinction and the factors that organize its genetic diversity remain unknown, despite the fact that this knowledge is necessary to define conservation strategies and uses to achieve sustainable agriculture. Here, we combined social anthropology and population genetics analysis of 158 fonio landraces, thereby generating insight into the genetic diversity, population structure and evolutionary history of fonio cultivation in Senegal. We noted a spatial structure of genetic diversity at two embedded levels, with the first corresponding to the genetic differentiation between ethnic groups and the second to the demographic history of the Mande and Atlantic Congo linguistic families. Selection and seed exchange practices have contributed to shaping fonio genetic diversity at the ethnic level, while the migration of Fulani people over the last 500 years has fragmented the Mandinka kingdom, hence leaving a fonio diversity imprint. Our study highlighted that social factors are pivotal in structuring diversity and should be taken into greater consideration in research and conservation projects to dovetail local and regional scales. It also showed that neglected species such as fonio—which are seldom used in breeding and dissemination programmes—are key markers of the history of African agriculture. © 2023 The Authors. Plants, People, Planet published by John Wiley &amp; Sons Ltd on behalf of New Phytologist Foundation.</t>
         </is>
       </c>
       <c r="E55" t="n">
         <v>1</v>
       </c>
-      <c r="F55" t="n">
-        <v>1</v>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2204,15 +2250,15 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Peasants' Rights as New Human Rights: Promises and Concerns for Agrobiodiversity Conservation</t>
+          <t>Rethinking scientists’ ongoing participation in “feeding the world”</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Agrobiodiversity conservation is vital for food security, maintaining ecological balance, and preserving socio-cultural norms. There is substantial evidence to support that agrobiodiversity hotspots coincide with localized, small-scale peasant food systems. Preserving such food systems is necessary for protecting agrobiodiversity. The current legal framework over agrobiodiversity is fragmented and inadequate. A major portion of this framework is situated within intellectual property law and farmers' rights law, neither of which are designed to foster sustainable management of agrobiodiversity. In this context, the 2018 Peasants' Rights Declaration has the potential to fill the gaps in the existing framework. The paper critically analyses the Declaration by exploring some of its legal innovations in improving agrobiodiversity conservation. While some of these innovations are commendable, they are unlikely to be adopted by states owing to their radical nature. Their adoption would require a massive overhaul of the existing agricultural model and power structures embedded within it.  Copyright © 2022 The Author(s).</t>
+          <t>Agricultural science necessarily involves a commitment to some form of humanitarian and environmental ethics. For the past century, agricultural science has been based on a productivist ethic of maximizing agricultural production in pursuit or support of food security. Recognition of the ethical and political disposition of contemporary agricultural science can help scientists reorient their work to better address the urgent problems of the upcoming century: environmental degradation, climate change, and social inequality. A commitment to solving these problems is well within the scope of modern agricultural science. Supporting and furthering multidimensional food systems should replace productivism as an explicit goal of agricultural development and scientific innovation. Copyright © 2023 Haring, Pesci Schmulevich, Manser and Cooper.</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -2236,15 +2282,15 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>THE PROSPECTS OF FOOD SOVEREIGNTY IN THE FORMER YUGOSLAV REPUBLICS</t>
+          <t>Parity as radical pragmatism: Centering farm justice and agrarian expertise in agricultural policy</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>The neoliberal approach taken to the transition from socialism to capitalism in the six former Yugoslav republics has revealed its weaknesses in all spheres of economic activities, including food produc-tion. These countries have lost sovereignty with respect to regulating important national policy areas like food trade and production. Liberalisation of the food trade has adversely affected national economies by destroy-ing many small-scale farmers and food producers. Corporate supermarkets have been taking over an ever bigger slice of the retail pie. Social movements are call-ing for direct democratic control over resources and food production to be regained. The article examines the prospects of these countries to overcome the increas-ing food insecurity by introducing food sovereignty. © 2021, Ljubljana University, Faculty of Social Sciences. All rights reserved.</t>
+          <t>Rather than treating symptoms of a destructive agri-food system, agricultural policy, research, and advocacy need both to address the root causes of dysfunction and to learn from longstanding interventions to counter it. Specifically, this paper focuses on agricultural parity policies – farmer-led, government-enacted programs to secure a price floor and manage supply to prevent the economic and ecological devastation of unfettered corporate agro-capitalism. Though these programs remain off the radar in dominant policy, scholarship, and civil society activism, but in the past few years, vast swaths of humanity have mobilized in India to call for agri-food systems transformation through farmgate pricing and market protections. This paper asks what constitutes true farm justice and how it could be updated and expanded as an avenue for radically reimagining agriculture and thus food systems at large. Parity refers to both a pricing ratio to ensure livelihood, but also a broader farm justice movement built on principles of fair farmgate prices and cooperatively coordinated supply management. The programs and principles are now mostly considered “radical,” deemed inefficient, irrelevant, obsolete, and grievous government overeach—but from the vantage, we argue, of a system that profits from commodity crop overproduction and agroindustry consolidation. However, by examining parity through a producer-centric lens cognizant of farmers‘ ability, desire, and need to care for the land, ideas of price protection and supply coordination become foundational, so that farmers can make a dignified livelihood stewarding land and water while producing nourishing food. This paradox—that an agricultural governance principle can seem both radical and common sense, far-fetched and pragmatic—deserves attention and analysis. As overall numbers of farmers decline in Global North contexts, their voices dwindle from these conversations, leaving space for worldviews favoring de-agrarianization altogether. In Global South contexts maintaining robust farming populations, such policies for deliberate de-agrarianization bely an aggression toward rural and peasant ways of life and land tenure. Alongside the history of parity programs, principles, and movements in U.S., the paper will examine a vast version of a parity program in India – the Minimum Support Price (MSP) system, which Indian farmers defended and now struggle to expand into a legal right. From East India to the plains of the United States and beyond, parity principles and programs have the potential to offer a pragmatic direction for countering global agro-industrial corporate capture, along with its de-agrarianization, and environmental destruction. The paper explores what and why of parity programs and movements, even as it addresses the complexity of how international parity agreements would unfold. It ends with the need for global supply coordination grounded in food sovereignty and solidarity, and thus the methodological urgency of centering farm justice and agrarian expertise. Copyright © 2023 Graddy-Lovelace, Krikorian, Jewett, Vivekanandan, Stahl, Singh, Wilson, Naylor, Naylor and Pennick.</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -2268,15 +2314,15 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Food sovereignty and property in Cuba and the United States</t>
+          <t>Food anarchy and the State monopoly on hunger</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Food sovereignty promotes agroecological farming methods and the reduction of food insecurity through changing political relations between people, land and food policy. Market orientations to land and private property in liberal democracies restrict access to food, and thus for food sovereigntists, reframing the social relationship to land through property is key to making food more available. This paper examines the case of usufruct land rights in Cuba as a framework for reworking land rights. We identify key limitations that impair producer autonomy, suggesting how different orientations toward property present unique problems and potential solutions towards the goal of food sovereignty. © 2021 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>This article applies an anarchist lens to the food sovereignty movement. It analyzes food regimes as capitalist agriculture regimes which rely on the State’s monopoly on hunger, wherein the State relies on the dispossession of people from their land and food systems, the protection of property, and the primacy of capital. The interdependence of this State-capital-property trinity is violently enforced, and manufactures compliance through counterinsurgent strategies of social war. The State monopoly on hunger justifies a new offshoot of the larger food sovereignty movement, a prefigurative praxis which dismantles all food regimes to build new counter-worlds: food anarchy. © 2022 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -2300,15 +2346,15 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Subversive Future Seeks Like-Minded Model: On the Mismatch between Visions of Food Sovereignty Futures and Quantified Scenarios of Global Food Futures</t>
+          <t>Perspectives on strengthening local food systems in Small Island Developing States</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Will we, by 2050, be able to feed a rapidly growing population with healthy and sustainably grown food in a world threatened by systemic environmental crises? There are too many uncertainties for us to predict the long-Term evolution of the global agri-food system, but we can explore a wide range of futures to inform policymaking and public debate on the future of food. This is typically done by creating scenarios (story lines that vividly describe what different futures could look like) and quantifying them with computer simulation models to get numerical estimates of how different aspects of the global agri-food system might evolve under different hypotheses. Among the many scenarios produced over the last twenty years, one would expect to see the future advocated by the food sovereignty movement, which claims to represent roughly two hundred million self-described peasants (small farmers) worldwide. This movement defends a vision of the future based on relocalized, sustainable, and just agri-food systems, self-governed through direct and participatory democratic processes. Yet, food sovereignty is conspicuously absent from quantified scenarios of global food futures. As part of the roundtable, Ethics and the Future of the Global Food System, this essay identifies seven obstacles that undermine the creation of food sovereignty scenarios by examining two attempts at crafting such scenarios.  Copyright © The Author(s), 2021. Published by Cambridge University Press on behalf of the Carnegie Council for Ethics in International Affairs.</t>
+          <t>Small Island Developing States (SIDS) share high burdens of nutrition-related conditions, including non-communicable diseases, associated with an increasing reliance on imported, processed foods. Improving health through increasing the production and consumption of local, nutritious foods is a policy objective of many SIDS governments. This study aimed to understand contemporary challenges and opportunities to strengthening local food systems in two case study settings, Fiji and St. Vincent and the Grenadines. Fifty-two in-depth, semi-structured interviews were conducted with key stakeholders involved in local food production. Interviews were analysed by both country teams using thematic analysis. Local food production networks in both settings included formal governance bodies as well as more informal connections through civil society and communities. Their main function was the sharing of resources and knowledge, but levels of trust and cooperation between the stakeholders varied in a market open to intense competition from imports. Local food production was hindered by few and slow investments by local governments, dated technology, and lack of knowledge. Stakeholders believed this marginalisation was occurring against a background of rising preferences for imported foods in the population, and increasing disinterest in employment in the sector. Despite the challenges, strong narratives of resilience and opportunity were highlighted such as national pride in local produce for commercialisation and local diets. Efforts to support local food production in SIDS should focus on strengthening governance structures to prioritise local produce over corporate and import markets, assist collaboration and co-learning, and support alternative agro-food practices. © 2022, The Author(s).</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2332,15 +2378,15 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Food sovereignty and farmland protection in the Municipal County of Antigonish, Nova Scotia</t>
+          <t>“Food Village”: An Innovative Alternative Food Network Based on Human Scale Development Economic Model</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>This case study of the Municipal County of Antigonish (MCA) in the Canadian province of Nova Scotia assessed the extent to which agricultural land use planning accommodates those societal interests seeking to embed food sovereignty at the municipal level. Data were collected through content analysis of legislative documents, key informant interviews, and a review of the grey literature. Results suggest that the relatively weak municipal planning system in place prioritizes private interests over the public interest in farmland protection. The resultant gaps in the legislative setup in the MCA further reveal that food sovereignty actors and/or ideas have little influence over municipal governance of farmland protection. Broader historical and contemporary trends in Nova Scotia and Canada at large suggest that farmland will continue to lose ground to forces intrinsic to the dominant policy paradigm of market liberalism. Concluding thoughts call for “bringing back the (Canadian) state” itself as central to constituting a new agricultural policy paradigm. © 2021 by the Authors.</t>
+          <t>Although the different alternative food networks (AFNs) have experienced increases worldwide for the last thirty years, they are still unable to provide an alternative capable of spreading on a large scale. They in fact remain niche experiments due to some limitations on their structure and governance. Thus, this study proposes and applies a design method to build a new sustainable food supply chain model capable of realizing a “jumping scale”. Based on the theoretical and value framework of the Civil Economy (CE), the Economy for the Common Good (ECG), and the Development on a Human Scale (H-SD), the proposed design model aims to satisfy the needs of all stakeholders in the supply chain. Max-Neef’s Needs Matrix and Design Thinking (DT) tools were used to develop the design model. Applying the design method to the food chain has allowed us to develop the concept of the “Food Village”, an innovative food supply network far from the current economic mechanisms and based on the community and eco-sustainability. © 2022 by the authors. Licensee MDPI, Basel, Switzerland.</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -2364,15 +2410,15 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>New rurality and agritourism in Empordà, Catalonia</t>
+          <t>Trends in climate, socioeconomic indices and food security in Nigeria: Current realities and challenges ahead</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Agritourism in the Empordà region has become increasingly popular in recent years. It provides a variety of services, ranging from food catering, the tasting of local products, garden, orchard, and vineyard visits, and lodging. It creates opportunities for a relationship between visitors, places, ideas, and experiences, between the territory, landscape, and terroir, between local products and food sovereignty. It encourages re-peasantisation, the promotion of local know-how, and environmental conservation. This paper examines how this form of agritourism draws a part of its inspiration from a social imaginary of a peasant past that existed prior to the 1960s' advent of mass tourism. Using the tools of the new rurality approach, this paper analyses the landscape and evolution of agritourism in the region. It presents some of the producers' main principles and activities in the light of a regional context that comprises, among other constraints, environmental deterioration, socio-economic inequalities, and a considerable pressure for access to basic resources. Copyright © 2021 Inderscience Enterprises Ltd.</t>
+          <t>Food security in Nigeria is presently in dire strait owing to several factors, such as skyrocketing energy prices, climate change, and terrorism. This study is aimed at revealing the role of the aforementioned factors in shaping food affordability and availability in the country. The study used descriptive statistics and coefficients of variation and determination to ascertain the change in the trend in these factors and their correlates to food security over time. From the results of our research team, we inferred that temperature increases, political instability, rising food prices and erratic energy supply have had distressing consequences in the areas of affordability, availability and stability of food supplies. We conclude that a rapidly growing population such as Nigeria's would need crucial interventions in increasing food production, mitigating the impacts of climate change, and buffering energy supplies. Ultimately, Nigeria needs to overhaul the important components of her food systems and the respective linkages between these components in order to ensure food security for the entire population. Copyright © 2022 Oderinde, Akano, Adesina and Omotayo.</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -2396,15 +2442,15 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Market dependency as prohibitive of agroecology and food sovereignty—a case study of the agrarian transition in the Scottish highlands</t>
+          <t>Characterization of the Territory and Estimation of a Synthetic Index of Social Welfare</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>While there have been calls amongst the more ‘political’ or ‘radical’ agroecology and food sovereignty advocates for a break from capitalist food systems, conceptualisations of capitalism, and thus counter-capitalism, vary widely. The movements have largely presented small-scale producers and peasants as alternatives to industrial food systems, and have focused on reducing input dependency as a path towards autonomy of producers and the realisation of agroecological food systems. An alternative to this approach is presented here through applying Ellen M. Wood’s conceptualisation of capitalism as characterised by ‘market dependency’ to the case of the agrarian transition in the Scottish Highlands. This article demonstrates the specific ways in which market dependency, including for agricultural outputs, not just inputs, leads to a divergence from agroecological food systems. It argues that identifying ‘market dependency’ as a defining characteristic of capitalism could strengthen and refine the focus of agroecology and food sovereignty movements. © 2021 by the author. Licensee MDPI, Basel, Switzerland.</t>
+          <t>The rural approach to territorial development has challenged globalization; the countries have opened their agricultural borders through trade agreements that benefit the rural sector. Europe has become an agricultural power, leading the design of foreign trade policies for products of agricultural origin, expanding its areas of influence to underdeveloped countries, proposing changes in the world economy. This approach proposes to build and strengthen cultural identity in rural territories and improving the quality of life. This research proposes the development of a synthetic well-being index for fifteen rural municipalities in the province of Malaga, in the south of the Autonomous Community of Andalusia. The results show that the results of the studied territories are homogeneous, with small differences in the capital of the Antequera Region. © 2022 María‐Salomé Ochoa‐Rico et al.</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -2428,15 +2474,15 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Wild food plants traditionally gathered in central Armenia: archaic ingredients or future sustainable foods?</t>
+          <t>Revisiting global food production and consumption patterns by developing resilient food systems for local communities</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Current debate highlights that sustainable food systems can be fostered by the cautious and germane use of natural resources. Gathering, cooking, and consuming wild food plants that are widely available in a given environment are traditional practices that in many parts of the world have historically been crucial for effecting the food security and food sovereignty of local communities. In the current study, we analyzed the traditional foraging patterns of Armenians, Pontic Greeks, Molokans, and Yazidis living in a mountainous area of central Armenia; via 64 semi-structured interviews, 66 wild food folk taxa were recorded and identified. While Armenians and Greeks gather a remarkable number of wild food plants (36 and 31, respectively) and share approximately half of them, Molokans and, more remarkable, Yazidis gather less wild food plants (24 and 17, respectively) and share only a few plants with Armenians. This may be due not only to the fact that the latter ethno-religious groups have followed endogamic marriage patterns for centuries, which may have limited the exchange of plant knowledge and practices with their Armenian neighbors, but also to the difficult adaptation to a new environment that Yazidis experienced after moving from Eastern Anatolia and the Nineveh Plains to the study area around a century ago. The traditional practice of gathering wild plants for food is, however, still vividly alive among locals in central Armenia and at least a part of this bio-cultural heritage could represent one of the future pillars of local sustainable food systems and platforms. © 2020, Springer Nature B.V.</t>
+          <t>The achievement of resilient food systems requires an integrated approach between optimal localization of productions and changes in food consumption and between local evaluations of the food system and global visions. In this regard, we developed a Food Self-Sufficiency Index. The index evaluates food self-sufficiency achievable in a study area where its community chooses between alternative suggested diets, and the food productions are relocalized using crop suitability maps. The index can be used at different geographical scales, from a single rural settlement to regional and country-level, up to worldwide. It revisits the food components of the ecological footprint and biocapacity to build a tool for supporting local institutions' decisions in food planning at different levels. In this paper, we discuss how the FSSI could help in increasing the resilience of food production and consumption systems. The paper outlines these essential points for the improvement of the food resilience of an area that aims to improve its self-sufficiency (i) Improving technical solutions, (ii) Improving the communities' involvement, (iii) Improving agro-biodiversity, and (iv) Using complex system approaches in food planning. The Food Self-Sufficiency Index is a powerful supporting decision tool to achieve all the previous goals. © 2022 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -2460,22 +2506,24 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Achieving Food System Resilience Requires Challenging Dominant Land Property Regimes</t>
+          <t>Toward Food Sovereignty: Transformative Agroecology and Participatory Action Research With Coffee Smallholder Cooperatives in Mexico and Nicaragua</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Although evidence continues to indicate an urgent need to transition food systems away from industrialized monocultures and toward agroecological production, there is little sign of significant policy commitment toward food system transformation in global North geographies. The authors, a consortium of researchers studying the land-food nexus in global North geographies, argue that a key lock-in explaining the lack of reform arises from how most food system interventions work through dominant logics of property to achieve their goals of agroecological production. Doing so fails to recognize how land tenure systems, codified by law and performed by society, construct agricultural land use outcomes. In this perspective, the authors argue that achieving food system “resilience” requires urgent attention to the underlying property norms that drive land access regimes, especially where norms of property appear hegemonic. This paper first reviews research from political ecology, critical property law, and human geography to show how entrenched property relations in the global North frustrate the advancement of alternative models like food sovereignty and agroecology, and work to mediate acceptable forms of “sustainable agriculture.” Drawing on emerging cases of land tenure reform from the authors' collective experience working in Scotland, France, Australia, Canada, and Japan, we next observe how contesting dominant logics of property creates space to forge deep and equitable food system transformation. Equally, these cases demonstrate how powerful actors in the food system attempt to leverage legal and cultural norms of property to legitimize their control over the resources that drive agricultural production. Our formulation suggests that visions for food system “resilience” must embrace the reform of property relations as much as it does diversified farming practices. This work calls for a joint cultural and legal reimagination of our relation to land in places where property functions as an epistemic and apex entitlement. © Copyright © 2021 Calo, McKee, Perrin, Gasselin, McGreevy, Sippel, Desmarais, Shields, Baysse-Lainé, Magnan, Beingessner and Kobayashi.</t>
+          <t>The challenges that coffee smallholder livelihoods face suggest the need to move beyond incremental changes in production. Transformative agroecology offers a potential approach to guide systemic change to achieve food sovereignty among coffee smallholders and cooperatives. This work aims to understand the extent to which diversification practices among coffee smallholders can contribute to a transformative agroecology, and to what extent, participatory action research (PAR) projects may support related transformative processes. The PAR projects described in this paper took place over 3 years with participants associated with two smallholder cooperatives in Mexico, and Nicaragua. After establishing long-term partnerships among cooperatives and universities, we used a PAR approach to guide a mixed methods study that included 338 household surveys, 96 interviews, 44 focus group discussions, and participant observation during farmer-to-farmers exchanges. We found that, although coffee-producing households in both study sites report several diversification activities, more than 50% still face some period of food scarcity each year. In our reflections with farmers and staff from the participating cooperatives, that are also included as co-authors in this study, we conclude that coffee smallholders and cooperatives in both locations are in the early stages of developing a transformative agroecology, as a path toward food sovereignty. Several leverage points to achieve this include land access, native seed conservation, cultural attachment to certain diversification practices, and traditional diets. Some of the more significant challenges to advancing a more transformative agroecology are the prioritization of coffee as a crop (i.e., coffee specialization), and dependency on coffee income. Our PAR project also aimed to contribute to achieving change in the prevailing system through 1) capacity building with community facilitators/promoters, 2) co-creation of questions and knowledge relevant to the strategic planning by coffee cooperatives, 3) sharing farmer-to-farmer pedagogies across territories, and 4) the co-production of popular education material. We conclude that diversification remains an important agroecological strategy for smallholder commodity producers, as a way of achieving food sovereignty. Most of all, we find that achieving diversification is not a linear process, as there are many trade-offs, feedback loops, obstacles and opportunities that should be considered through long-term and collective approaches. Copyright © 2022 Guzmán Luna, Bacon, Méndez, Flores Gómez, Anderzén, Mier y Terán Giménez Cacho, Hernández Jonapá, Rivas, Duarte Canales and Benavides González.</t>
         </is>
       </c>
       <c r="E64" t="n">
         <v>1</v>
       </c>
-      <c r="F64" t="n">
-        <v>1</v>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2492,22 +2540,24 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Reconfiguring Food Systems Governance: The UNFSS and the Battle Over Authority and Legitimacy</t>
+          <t>A Food Sovereignty Approach to Localization in International Solidarity</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>The UN Food Systems Summit was an ambitious and hotly contested event that brought competing approaches to global food governance into relief. In this article, we unpack the rival visions that circulate around how food systems should be governed, focusing on two issues that we feel are at the heart of these divergences: authority and legitimacy. We illustrate how both corporate-philanthropic and food sovereignty networks are struggling to establish epistemic authority of food systems as well as produce legitimacy through very different approaches to participation and accountability. © 2021, Society for International Development.</t>
+          <t>Renewed calls for localization and the “decolonization of aid” are raising questions about whose knowledge and control are privileged. This article argues that in order to support local decision-making on food systems and agricultural aid, international solidarity work should look towards food sovereignty and agroecology approaches. Food sovereignty and agroecology, informed by feminist approaches, can provide important lessons for localization as they prioritize local knowledge and decision-making, and are based on social justice principles. They also provide alternatives to the problematic concept of “development”, particularly the agro-industrial development model which contributes to environmental and health crises, corporate concentration, colonialism and inequality. An example of the trajectory of the NGO SeedChange is provided to help illustrate how food sovereignty can: (1) provide an alternative to problematic development concepts, and (2) encourage localization and greater priority to global South perspectives. While acknowledging that there exist contradictions and challenges to shared decision-making, learning from partners in the global South working for seed and food sovereignty has been crucial to shaping the organization’s programs and policy advocacy. © 2022 by the authors.</t>
         </is>
       </c>
       <c r="E65" t="n">
         <v>1</v>
       </c>
-      <c r="F65" t="n">
-        <v>1</v>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2524,22 +2574,24 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Impact evaluation based on benefit indicators (IEBBI): methodological proposal for agroecological farmers’ markets; [Evaluación del impacto basada en indicadores de beneficios (IEBBI): propuesta metodológica para mercados de productores agroecológicos]</t>
+          <t>Cultivating Agroecological Networks during the Pandemic in Argentina: A Sociomaterial Analysis</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Farmers’ markets represent a growing strategy for the generation of food sovereignty and sustainability; however, little is known about their impacts in economic, social and environmental terms. The objective of this research was to develop a framework that would allow determining that impact. The resulting methodological framework includes 20 indicators divided into seven groups: proximity, profitability, perceived benefits, areas of opportunity, economic impact, social impact, and environmental impact. This methodology was applied in one agroecological farmers’ market in Mexico City. Among the results, the main benefits are linked to socioeconomic interaction, while environmental impact indicators are the least considered. This methodology can guide the design, implementation, comparison, and monitoring of this type of initiative in the medium and long term. © 2021 Universidade de Brasilia. All rights reserved.</t>
+          <t>The COVID-19 pandemic has motivated a turn towards more agroecological food production and food sovereignty. This article aims to analyze how the agroecological actor network has emerged in and around the capital of Buenos Aires and the province of Santa Fe, in Argentina, during the pandemic. The research questions are: How has the agroecological actor network emerged during the pandemic in Argentina? In what ways are agroecological networks enacted through coupling and decoupling practices? The study is based on interviews with practitioners, and observations of online events. In our results, we show how the production of compost, exchange of seeds and experiences, governmental programs, and food fairs are coupled and assembled in the agroecological network. The agroecological network is decoupling from the conventional agroindustrial model with pesticides and chemical input, supermarkets, and the global food system. The conclusion is that the pandemic has worked as a crisis where the agroecological network has been expanded. © 2022 by the authors.</t>
         </is>
       </c>
       <c r="E66" t="n">
         <v>1</v>
       </c>
-      <c r="F66" t="n">
-        <v>1</v>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2556,15 +2608,15 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Potential for food self-sufficiency improvements through indoor and vertical farming in the gulf cooperation council: Challenges and opportunities from the case of Kuwait</t>
+          <t>Why do some Participatory Guarantee Systems emerge, become effective, and are sustained over time, while others fail? An application of the Ostrom social-ecological system framework</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>The countries of the Gulf Cooperation Council (GCC) are considered food secure due to their ability to import sufficient food to meet their populations’ demand, despite considerable environmental limitations to conventional agriculture. However, over-reliance on externally produced food leaves these countries vulnerable to food shortages during crises that disrupt international production and shipping. Advanced Controlled Environment Agriculture technology has the potential to improve food self-sufficiency by multiplying vegetable crop yields while optimizing efficiency of agricultural inputs and minimizing land requirements. This paper demonstrates how approximately 15 km2 of indoor farms or less than 0.1 km2 of vertical farms could reduce or eliminate the need to import six important vegetable crops in the State of Kuwait. If properly contextualized and supported by clear legislation and well-managed regulatory bodies, indoor agriculture initiatives may provide a pathway for GCC countries to reduce their dependence on imported foods and increase resilience to food supply disruption during disasters or conflict. This case study contextualizes the need for improved food self-sufficiency in light of vulnerabilities from regional and global threats, illuminates unique challenges faced by GCC countries considering adoption of the proposed technologies, and summarizes opportunities inherent in the current legal and policy framework. © 2021 by the authors. Licensee MDPI, Basel, Switzerland.</t>
+          <t>Participatory Guarantee Systems (PGS) can play an important role in territorial re-embedding of agri-food systems into their Social-Ecological Systems (SES), thereby stimulating multifunctionality of agriculture and the diversification of the production system. This represents an opportunity to promote endogenous rural development, employment and the viability of rural communities, as well as to support family agriculture, food sovereignty, and food security. However, the underlying biophysical, social, and economic conditions of the SES that affect the likelihood of building these institutions through collective action have hardly been studied. In order to explore this, we used the conceptual framework of SES designed by Elinor Ostrom to identify the conditions under which PGS, and the collective action that created them, emerge, become effective, and are sustained over time. This information may help land managers, policy makers, and planners to design policies that facilitate the building of effective and sustainable PGS over time. © 2022 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -2588,15 +2640,15 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>The power to convene: making sense of the power of food movement organizations in governance processes in the Global North</t>
+          <t>NATURE AND FOOD COMMODIFICATION. FOOD SOVEREIGNTY: RETHINKING THE RELATION BETWEEN HUMAN AND NATURE1; [Priroda i komodifikacija hrane. Prehrambeni suverenitet: promišljanje odnosa između čoveka i prirode]</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Dominant food systems, based on industrial methods and corporate control, are in a state of flux. To enable the transition towards more sustainable and just food systems, food movements are claiming new roles in governance. These movements, and the initiatives they spearhead, are associated with a range of labels (e.g., food sovereignty, food justice, and community food security) and use a variety of strategies to enact change. In this paper, we use the concept of relational fields to conduct a post-hoc analysis of nine cases, examining how social movement organizations and other actors actively create new deliberative governance spaces. We argue that successes are related to the “power to convene,” a process-oriented approach that increases movements’ capacity to mobilize; leverage different types of power; and integrate, coordinate, and build a systems-oriented vision. The power to convene and create deliberative spaces is demonstrated in a variety of contexts and often results in outcomes that further movement aims, including policy change and repositioning food movement actors vis-à-vis others in the field. Our findings suggest that success is not only measured as policy outcomes, but as an advantageous repositioning of social movement actors that enables them to be part of governance processes beyond simple policy advocacy. © 2020, Springer Nature B.V.</t>
+          <t>The article aims to explore the link between commodification of nature and commodification of food. The latter is in fact one of the most negative and controversial aspects of nature commodification. The examination of food commodification represents fertile ground for investigating the relationship between humans and nature. In this context, food sovereignty provides a useful paradigm that not only serves as an alternative to the current food regime, but also allows for the experiencing a different kind of relationship between humans and nature. Food sovereignty represents a unique social movement in which community, political, and cultural rights are intertwined with the issue of food. Through its multidisciplinary approach and its strongly ethical component, food sovereignty constitutes an opportunity in order to contrast the progressive commodification of nature and of the environment. © 2022, University of Belgrade - Institute for Philosophy and Social Theory. All rights reserved.</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -2620,15 +2672,15 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Food Sovereignty for Whom? Food Poverty, Innovative Public Work Projects and the Authoritarian State</t>
+          <t>The genetically modified organism shall not be refused? Talking back to the technosciences</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>In Hungary, public work-based municipal projects played a major role in handling welfare challenges, such that the rise of a precarious rural underclass posited following the postsocialist disembedding of marginalised rural societies from the economy. Given the conditions of an authoritative populist state, this paper explores, using examples of case studies located in disadvantaged rural municipalities, innovative agrarian public work projects, as expressions of the relative freedom of action of local welfare states. Following the critical thinking inspired by Polányi's theory (1944), it sheds light on these efforts, from countermovements to the neo-liberal disembedding of the economy from society including theories on food sovereignty movements. Thus, it reflects upon the degree to which these agricultural activities could be seen as part of a broader countermovement to the social disintegration of nural areas that emerged in the context of the transition to capitalism. © 2021 StudienVerlag. All rights reserved.</t>
+          <t>Starting from Marcel Mauss’ observation that “one has no right to refuse a gift”, this paper explores the politics of refusal in the context of field trials with genetically modified organisms in Flanders (Belgium). Based on a decade of activist research, and focusing on the genetically modified organism field trials of the Flemish Institute for Biotechnology, we show that the business model of this strategic research center – with its triple mission of carrying biotechnology research, technology transfer, and the promotion of biotechnology through communication and lobby activities – fosters a climate in which innovations in the technosciences have to “be accepted”. The future is laid out without including the possibility of refusal. Consternation is great when this is exactly what happens. Irrational fears and lack of understanding or lack of familiarity are invoked to explain refusal. Language of precision, innovation, safety, and control are deployed to re-assure the public. Refusal is not considered a legitimate option. Yet, if farmers and grassroots initiatives would accept the gift of genetically modified organisms, it would mean the acceptance of their dispossession and the impossibility of diverse food sovereignties. Starting from theoretical work on “the gift” and “the politics of refusal”, we argue that recognizing innovation as the intrinsically plural and divergent process it is, entails including options to refuse particular pathways as a first step to open up others. As we will argue, saying no to genetically modified organisms is part of saying yes to peasant autonomy, agrobiodiversity, and peoples’ food sovereignties. © The Author(s) 2021.</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -2652,22 +2704,24 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>The unwanted heritage of prefabricated wartime air raid shelters—underground space regeneration feasibility for urban agriculture to enhance neighbourhood community engagement</t>
+          <t>Food sovereignty in sub-Saharan Africa: Reality, relevance, and practicality</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>The article deals with the problematic heritage associated with the system of Nazi German underground air raid shelters currently located within the Polish state, in the Baltic port city of Szczecin. The unwanted heritage has been inventoried, archival materials collected, and comparative analyses made of ways in which the underground space can be revitalised. An attempt was made to develop a typology of existing shelters and their locations. In order to overcome the negative associations with the warlike military space, positive system solutions were sought for the productive use of existing concrete structures located underground in central, easily accessible areas of the city districts. A process of upcycling the space was used to make ecologically efficient use of the material resources contained in the shelters. In order to activate the local community, a modular, hydroponic plant-growing system, adapted to the prefabricated spaces of the historical air raid shelters, was proposed. In this way, the central location of the underground structures within the boundaries of residential neighbourhoods was exploited. Such action strengthens the food sovereignty of the inhabitants, initiates bottom-up activity within the boundaries of the neighbourhood unit, and builds social ties in the spirit of a regenerative economy and positive sustainability. © 2021 by the authors. Licensee MDPI, Basel, Switzerland.</t>
+          <t>The recent discourse on food sovereignty places much emphasis on democracy in determining localized food systems, and whether the food is culturally appropriate while leaning heavily on sustainable agricultural practices such as organic agriculture, ecological intensification, agroecology, nature-based solutions, and regenerative agriculture. Sustainable agricultural practices are intended to ensure that the land is managed without the use of synthetic fertilizers and pesticides, while going further by focusing on improvements on soil and land health. However, what are the practicalities of food activism and relying entirely on nature while yields are still very low in much of sub-Saharan Africa (SSA)? We attempt to answer this question in four main sections: (a) we start by defining the concept of food sovereignty and the associated practices, (b) we highlight some of the main socio-ecological conditions that are common in SSA, and (c) we present evidence of some of the limitations of food sovereignty due to the diversity in ecological, political, cultural, and socio-economic contexts that characterize SSA; finally, (d) we focus on food preferences, marketing and certification aspects. We conclude that agroecology alone cannot solve the multiple objectives of increasing crop productivity and replenishing soil nutrients especially on small farms and relying on natural rainfall. There is an urgent need to combine superior crop varieties and judicious use of external inputs in tandem with the manipulation of the agroecological processes to increase the efficiency of input use and achieve higher food productivity, resilience to climate change, and preservation of the natural resource base in specific locations. Copyright © 2022 Mudombi-Rusinamhodzi and Rusinamhodzi.</t>
         </is>
       </c>
       <c r="E70" t="n">
         <v>1</v>
       </c>
-      <c r="F70" t="n">
-        <v>1</v>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2684,22 +2738,24 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>The methodological strategies of agroecological research and the values with which they are linked</t>
+          <t>High-yield dairy cattle breeds improve farmer incomes, curtail greenhouse gas emissions and reduce dairy import dependency in Tanzania</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>The characteristic features of some of the methodological strategies adopted in scientific research in agroecology are discussed. They reflect that agroecology, as an approach to scientific research, is inextricably entangled with the other strands of agroecology (farming practice, social movement, political project); and that adopting agroecological strategies, and upholding the values of environmental sustainability, food sovereignty, social justice and democratic participation, mutually reinforce each other. After outlining the kinds of questions that agroecological research addresses so that it can produce knowledge that informs agroecological farming practices and the long term aspiration of agroecological movements to create an alternative agricultural/food system, and then making summary remarks about methodological strategies in general, three characteristic features of some agroecological strategies are introduced and discussed. The paper concludes with comments on the value of agroecological research. © 2021 Elsevier Ltd</t>
+          <t>Tanzania’s dairy sector is poorly developed, creating reliance on imports for processed, value-added dairy products and threatening food security, particularly when supply chains are disrupted due to market volatility or armed conflicts. The Tanzanian Dairy Development Roadmap is a domestic development initiative that aims to achieve dairy self-sufficiency by 2030. Here, we model different outcomes of the roadmap, finding that adoption of high-yield cattle breeds is essential for reducing dairy import dependency. Avoided land use change resulting from fewer, higher yielding dairy cattle would lead to lower greenhouse gas emissions. Dairy producers’ average incomes could increase despite capital expenditure and land allocation required for the adoption of high-yield breeds. Our findings demonstrate the importance of bottom-up development policies for sustainable food system transformations, which also support food sovereignty, increase incomes for smallholder farmers and contribute towards Tanzania’s commitments to reduce greenhouse gas emissions. © 2022, The Author(s), under exclusive licence to Springer Nature Limited.</t>
         </is>
       </c>
       <c r="E71" t="n">
         <v>1</v>
       </c>
-      <c r="F71" t="n">
-        <v>1</v>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2716,15 +2772,15 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Placing the state in the contemporary food regime: uneven regulatory development in the Dominican Republic</t>
+          <t>Autonomy and repeasantization: Conceptual, analytical, and methodological problems</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>This paper interrogates the role of the state in the contemporary food regime and argues that it is best understood as the outcome of uneven regulatory development. This concept centers the ways that legacy institutions and practices of previous food regimes persist and combine with neoliberal regulation. It is developed through an in-depth case study of agro-food regulation in the Dominican Republic, focusing on domestic rice production. The analysis speaks to the possibilities and limits of progressive food sovereignty politics in contexts where states simultaneously undermine socially transformative demands and mitigate some pernicious effects of hyper-marketization to secure state legitimacy. © 2019 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>“Autonomy,” as a desirable state, is a notion often used by food sovereignty-oriented farmer movements and scholars studying repeasantization. The term is predominantly used rather casually, relying on presumed meanings, but van der Ploeg's book The New Peasantries seeks to elaborate a particular meaning of autonomy as a characteristic feature of the peasantry. The desire of farmers/peasants for autonomy is formulated in tandem with agroecological agriculture, farmers' agency, locally “nested” markets, co-production with nature, non-commoditized production, and multiple kinds of peasant resistance. This article identifies the distinctive nature of this take on autonomy and analyses its analytical, normative, and political aspects. It develops several critiques regarding the analytical shortcomings of the notion of peasant autonomy: the methodological problem of a peasant bias; the analytical limitations and incompatibility of intrinsic and “relative” autonomy; and the neglect of accumulation from below and subtle class contradictions. Rather than centring autonomy or relative autonomy, the authors argue for shifting the focus to the nature of different types of dependency relationships, ranging from very exploitative to those vital for human flourishing. © 2021 The Authors. Journal of Agrarian Change published by John Wiley &amp; Sons Ltd.</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -2748,22 +2804,24 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Beyond sustainability in food systems: Perspectives from agroecology and social innovation</t>
+          <t>South and/or north: an indigenous seed movement in South Korea and the multiple bases of food sovereignty</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Food security faces many multifaceted challenges, with effects ranging far beyond the sectors of agriculture and food science and involving all the multiscale components of sustainability. This paper puts forward our point of view about more sustainable and responsible approaches to food production research underlying the importance of knowledge and social innovation in agroecological practices. Increased demand for food worldwide and the diversification of food choices would suggest the adoption of highly productive, but low-resilient and unsustainable food production models. However, new perspectives are possible. These include the revitalization and valorization of family-based traditional agriculture and the promotion of diversified farming systems as a social and economic basis to foster social-ecological conversion. Additionally, they encompass the forecasting of the Participatory Guarantee Systems (PGS) and the drafting of a new agenda for food sovereignty. Thanks to a desk analysis, the study describes and discusses these perspectives, their trajectories and action research implications. The results suggest the need to adopt a more inclusive and systemic approach to the described problems, as the solutions require the promotion of responsibility within decision makers, professionals and consumers. This appears essential for reading, analyzing and understanding the complex ecological-functional, social and economic relations that characterize farming systems, as well as mobilizing local communities. © 2020 by the authors.</t>
+          <t>South Korean cultivators share features with counterparts in both the global south and north. This combination of traits has produced a diversity of sources that underpin a food sovereignty movement. A case study of t’ojong, or native, seed activism illustrates how local systems of meaning and particular constellations of interests make food sovereignty appealing to a broad coalition of farmers, consumers, part-time cultivators, agricultural scientists, and activists for farmers and for women. The country’s experience demonstrates that responses to market encroachment on food production provide only part of the force driving food sovereignty movements. © 2021, The Author(s), under exclusive licence to Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E73" t="n">
         <v>1</v>
       </c>
-      <c r="F73" t="n">
-        <v>1</v>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -2780,15 +2838,15 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Does the Arab region have an agrarian question?</t>
+          <t>Policies and practices of central and sub-national governments for seed commons formation in Japan: will the seeds of the varieties collected and developed be shared?</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Discussion on food sovereignty and agro-ecology, and Anglophone rural sociology have blind spots when it comes to the Middle East/North African (Arab) region. This article explores them; outlines some initial concepts, discusses avenues for research, and notes some socio-political features of the region which make it distinct from others. It focuses on the necessity to include war and the national question to understand the regional agrarian question and advances and retreats in regional knowledge production. It proceeds by (1) establishing the relative absence of the region from the leading peasant studies journals; (2) synthesizing the region’s political economy and waves of knowledge production; (3) highlighting local traditions which speak to the questions of food sovereignty and agro-ecology; and (4) listing a series of theoretical, historical, and analytical avenues which remain to be addressed. © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Proponents of agroecology and food sovereignty are trying to form seed commons as a framework against the formal seed systems established by governments. However, we argue that the formation of seed commons should not be considered as a dichotomy that distinguishes between the government and stakeholders, including farmers, but rather as a dichotomy that divides the scope of activities into those regulated by law and those that can be determined by farmers at their own discretion. Japan, like many other countries, is a signatory to the International Treaty on Plant Genetic Resources for Food and Agriculture and the International Union for the Protection of New Varieties of Plants, both of which contain important elements for the conservation of agricultural biodiversity and agroecology at the national and local level. Based on the proposed dichotomy, this study aims to explore the possibility of creating seed commons for seed sharing in Japan. We clarify the policies and actual conditions surrounding the access and use of seeds and explore the possibility of creating seed commons. © 2021 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -2812,22 +2870,24 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Mainstreaming agricultural biodiversity in traditional production landscapes for sustainable development: The Indian scenario</t>
+          <t>EARTH JURISPRUDENCE IN AFRICA</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Mainstreaming biodiversity in production landscapes ensures conservation and sustainable use of agricultural biodiversity, the key objectives of the Convention on Biological Diversity (CBD) and the projects supported by the United Nations Environment Program (UNEP) Global Environment Facility (GEF). Mainstreaming integrates biodiversity in existing or new programs and policies, both cross‐sectoral and sector‐specific. The conventional model of agricultural production with limited diversity in production systems and use of high chemical input has taught us a valuable lesson as it is adversely impacting the environment, the essential ecosystem services, the soil health and the long term sustainability of our food systems. Using a qualitative participant observation approach, our study investigated four distinct traditional Indian production landscapes to gage (i) the farming communities’ response to institutional policies, programs and agricultural biodiversity‐related activities in traditional Indian production landscapes and (ii) opportunities and challenges for sustainable development in smallholder traditional Indian farming systems. Results indicate that the top‐down decision‐making regime is the least effective towards achieving sustainable development in traditional Indian farming landscapes and that farmers’ experiential knowledge on participatory biodiversity management, maintenance and use for sustainable development are of critical importance to India’s agriculture and economy. Reclaiming agriculture’s spiritual roots through organic farming and locally grown food emerged as key, including the need for designing and implementing a more sovereign food system. Revisiting traditional smallholder farming under the COVID‐19 pandemic and lessons learned for repurposing India’s agricultural policy are also highlighted. © 2020 by the authors. Licensee MDPI, Basel, Switzerland.</t>
+          <t>If we are to find our way into the future, Earth-centred approaches to governance are the only way forward for Africa and for the world. In the midst of the multiple ecological and social crises of our time, a strong, pan-African Earth Jurisprudence Collective is advocating for decolonised, African, Earth-centred pathways into a flourishing, life-sustaining future for all species. The African Earth Jurisprudence Collective is accompanying traditional and indigenous communities in East, West and Southern Africa as they revive their ancestral knowledge and practices, restore sacred natural sites and associated rituals, re-establish indigenous seed diversity and food sovereignty, and strengthen their customary governance systems, which are aligned with the laws of the Earth. These civil-society-led initiatives are founded on Africa's rich indigenous legal traditions and cultural heritage and inspired by Earth Jurisprudence. © 2022 Universitat Rovira i Virgili. All right reserved.</t>
         </is>
       </c>
       <c r="E75" t="n">
         <v>1</v>
       </c>
-      <c r="F75" t="n">
-        <v>1</v>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -2844,15 +2904,15 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Competing food sovereignties: GMO-free activism, democracy and state preemptive laws in Southern Oregon</t>
+          <t>Does ‘food sovereignty’ engender paradigm shift or co-optation? Insights from Nepal</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Indicators of food sovereignty and food democracy center on people having the right and ability to define their food polices and strategies with respect to food culture, food security, sustainability and use of natural resources. Yet food sovereignty, like democracy, exists on multiple and competing scales, and policymakers and citizens often have different agendas and priorities. In passing a ban on the use of genetically-modified (GMO) seeds in agriculture, Jackson County, Oregon has obtained some measure of food sovereignty. Between 2016 and 2017 ethnographic research was undertaken in rural Southern Oregon where local community and State of Oregon priorities regarding the use of GMO crops are in conflict. This article presents ethnographic research findings about the expression and negotiation of multiple food sovereignties by civil society in rural southern Oregon and the State of Oregon via democratic processes. In particular, these findings illustrate the effects of socio-political power dynamics on local and state acts of food sovereignty, democracy and agrifood policy by analyzing what the different expressions of food sovereignty reveal for its implementation at the local level. © 2020, Springer Nature B.V.</t>
+          <t>Food sovereignty proponents find the terms ‘security’ and ‘right’ associated with ‘food’ as not covering the entire gamut of food and agricultural issues, especially in addressing small farmers’ and peasants’ concerns and ensuring sustainable agriculture development. Hence, they have conceptualized an alternative food paradigm and called it ‘food sovereignty’. However, food sovereignty has been interpreted and operationalized in various forms. Perhaps the choice of the term sovereignty has rendered the idea of food sovereignty ideal for co-optation because sovereignty is a historically and politically contested concept with multiple meanings attached to it. Some scholars argue that there are multiple sovereignties in food sovereignty that can be reconciled. This article analyses the case of Nepal that has adopted the idea of food sovereignty, and finds that the argument of multiple sovereignties exercised through relational and interactive measures can only be aspirational and normative at best. © 2022 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -2876,15 +2936,15 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Food sovereignty and neo-extractivism: limits and possibilities of an alternative development model</t>
+          <t>Let’s Reclaim Our Food Sovereignty and Reject the Industrial Food System!</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Food sovereignty and neo-extractivism are two highly contentious concepts that have emerged in the development studies literature and as development alternatives pursued predominantly by governments in Latin America. This paper engages with both Critical Development Studies (CDS) and Critical Globalization Studies (CGS) to analyze the dynamics of this post-neoliberal model in Bolivia, providing insights into the convergences and contradictions of neo-extractivism and food sovereignty. Rather than challenging or transforming the neoliberal model of development, it is argued that the post-neoliberal model has been used strategically by states to gain and maintain legitimacy while facilitating and even exacerbating exploitative forms of extractivism for the accumulation of wealth and power. This has been possible, in part, due to the contradictory class positions that have materialized as the rural poor are increasingly dependent upon, and adversely incorporated into, new ‘modes of extraction’. © 2019 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>African food systems are a rich and varied tapestry of production systems, crops, seed, territorial markets, cultures, biodiversity and ecologies. As the UN Food Systems Summit worked to retrench the many pathologies that have systematically eroded African food systems, African civil society organizations mobilized to push back. In the African regional people’s countermobilization, participatory dialogues opened space for continent-wide articulations of a future built on peoples’ choices and control of natural resources, territorially-embedded solutions, the human rights of all, family farming, and peasant agroecology. © 2021, Society for International Development.</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -2908,22 +2968,24 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>The Revolutionary Potential of Food Sovereignty: Applying Lenin’s Insights on Dialectics, the State, and Political Action</t>
+          <t>Seeds of change? Social practices of urban community seed sharing initiatives for just transitions to sustainability</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>This essay elaborates a conception of sovereignty that highlights its revolutionary potential. Its argument addresses the nature of different movement strategies in the ongoing struggle for food sovereignty and how movements ought to confront the state while simultaneously using it to create a transformative, potentially anticapitalist form of governance. This claim is built from critiques of the state and sovereignty in studies of radical democracy. The essay then presents how Lenin connects sovereignty to proletarian governance. A revolutionary conception of sovereignty, developed by placing discussions of Lenin’s work in dialogue with practices of food sovereignty, is found in collective political action that suspends state power and challenges private property to create alternative economic and noneconomic forms of organization. This dialectical rendering of sovereignty entails constructing a new order by simultaneously conflicting with and acting through the existing one. © 2021 Association for Economic and Social Analysis.</t>
+          <t>The sharing of seeds is a practice with ancient roots. However, the structures of global agri-food trade in late modernity have drastically reconfigured practices of exchange and reshaped matters of legal ownership, resulting in constrained access to seeds for many. Scholars and activists are increasingly concerned about the negative impacts these changes are having from a justice and sustainability perspective. To date, seed sharing research has predominantly occurred as one element of wider seed sovereignty debates, and particularly in relation to farmers in low- and middle-income countries. Seed sharing beyond these contexts has received limited attention. To broaden understanding of seed sharing and its diverse practices, this paper provides a foundational landscape level analysis of urban community seed sharing initiatives from 100 urban locations globally. It outlines the rules, tools, skills and understandings that shape seed sharing practices and teases out commonalities with, and differences between, these urban activities and those that currently dominate the landscape of seed sharing research. In conclusion, further research is proposed to build on these foundations and establish the contributions, actual and potential, that urban seed sharing provides for just transitions to more sustainable urban food systems. © 2022 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E78" t="n">
         <v>1</v>
       </c>
-      <c r="F78" t="n">
-        <v>1</v>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -2940,22 +3002,24 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Who is resilient in Africa's Green Revolution? Sustainable intensification and Climate Smart Agriculture in Rwanda</t>
+          <t>“Without Food there is No Resistance”: The impact of the Zapatista conflict on agrobiodiversity and seed sovereignty in Chiapas, Mexico</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Under the banner of a “New Green Revolution for Africa,” agricultural intensification programs aim to make smallholder agriculture more productive as well as "climate smart". As with Green Revolutions in Asia and Mexico, agricultural innovations (hybrid seeds, agronomic engineering, market linkages,and increased use of fertilizer and pesticides) are promoted as essential catalysts of agriculture-led economic growth. Intensification programs are now frequently linked to Climate Smart Agriculture (CSA), which attempts to build resilience and reduce greenhouse gas emissions while increasing crop yields. This article considers who and what is resilient in Africa's Green Revolution. We report on a multi-season study of smallholder food producers' experiences with Rwanda's Crop Intensification Program (CIP) and related policies that aim to commercialize subsistence agriculture while implementing CSA. We suggest that there are fundamental limits to the climate resilience afforded by CSA and development efforts rooted in Green Revolution thinking. Our findings illustrate that such efforts foreground technology and management adjustments in ways that have reduced smallholder resilience by inhibiting sovereignty over land use, decreasing livelihood flexibility, and constricting resource access. We put forth that rural development policies could better promote climate-resilient livelihoods through: 1) adaptive governance that enables smallholder land use decision-making; 2) support for smallholder food producers’ existing agro-ecological strategies of intensification; 3) participatory approaches to visualize and correct for inequalities in local processes of social-ecological resilence Such considerations are paramount for meeting the United Nations Sustainable Development Goals and building climate-resilient food systems. © 2020 The Authors</t>
+          <t>Violent conflicts are frequently associated with detrimental or neutral effects on economic, social, and environmental development; by extension, one might expect similar effects on agrobiodiversity. However, as this study suggests, the impacts of conflicts are not necessarily all negative or neutral. Indeed, conflicts may also create favorable political conditions for the implementation of community-driven agrobiodiversity management. Drawing on ethnographic research in the indigenous central region of Chiapas, Mexico, where the insurgent Zapatista movement (EZLN) has a strong influence, we examine the impact of the agrarian conflict between this indigenous movement and the Mexican government on the development of agrobiodiversity conservation initiatives. Two research questions guide this paper: (1) What has been the impact of the conflict on communities’ subsistence agriculture and seed sovereignty? and (2) To what extent has the local seed sovereignty movement—an outgrowth of the Zapatista conflict—influenced agrobiodiversity conservation? Our findings suggest that the conflict has led to the implementation of grassroots agroecology and food and seed sovereignty projects that could ultimately strengthen agrobiodiversity in the communities under the influence of the Zapatista movement. We suggest that these projects highlight two elements essential for long-term agrobiodiversity conservation: first, the strategic relationship between agrobiodiversity conservation and these communities’ food security and seed sovereignty, particularly in the context of conflict; and second, the central role that peasant communities play in the preservation, reproduction, and evolution of agrobiodiversity. We conclude that the overall long-term impact of the Zapatista conflict on local agrobiodiversity has in fact been positive. © 2020 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E79" t="n">
         <v>1</v>
       </c>
-      <c r="F79" t="n">
-        <v>1</v>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -2972,22 +3036,24 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Pampean agroecologies. Instituting eco-logics of local food production; [Agroecologías pampeanas. Eco-lógicas instituyentes de producción local de alimentos]</t>
+          <t>POLITICAL ETHNOGRAPHY OF SEED SAVING PRACTICES AND AGROECOLOGICAL FARMING: EXPLORING THE AGENCY OF WOMEN FARMERS</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>In this paper we explore the anthropological question about “how” agroecology is produced, which will enable us to move from the inquiry into agroecology, in the singular and as a normative framework, towards agroecological practices, in the plural and anchored in the daily activities of people. We will put in the foreground the experiences of our interlocutors to characterize the ways of create and reproduce rural life and work in four establishments in the Pampas region of the province of Córdoba, Argentina, trying to mark the variability between them, as well as to extract some premises that constitute the logic that organizes and structures its production practices. It was identified that they operate an agro-eco-logic that puts the relations between species and entities in the primary activity at the center and allows to show a co-production of food. That network of relationships is a condition of possibility so that they can resist and exist, to create ways of living and working on the margins of agribusiness hegemony. Finally, we will reflect on the relationships that are established between agroecology and agribusiness. © 2021</t>
+          <t>This article aims to capture the political ethnography of seed-saving practices in indigenous agriculture based on the field research carried out between 2017 and 2019 in some regions of India. The study depicts the indispensable value of native seed for marginal women farmers engaged in subsistence and agroecological farming. The role of saving and curating seed provides women a voice, the much-needed role, in otherwise highly patriarchal rural societal settings. Ownership and control of seeds give them agency and autonomy in farming. However, a new agricultural regime, marked by trade liberalisation and intellectual property infringements, restricted seed saving by farmers. These transformations have not only eroded women’s agency but have unprecedentedly altered the matrix of agriculture. Yet, marginal farmers are resilient in bypassing the adversities created by the politics and political economy of the contemporary global-agribusiness regime. This paper captures some of the initiatives that enable the reclamation of seed sovereignty and enhance food security, leading to the empowerment of farmers in the studied region. © 2022 National Institute of Rural Development. All rights reserved.</t>
         </is>
       </c>
       <c r="E80" t="n">
         <v>1</v>
       </c>
-      <c r="F80" t="n">
-        <v>1</v>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3004,7 +3070,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Opportunities and barriers in diversified farming and the use of agroecological principles in the Global North–The experiences of Danish biodynamic farmers</t>
+          <t>Re-imagining the UN Committee on World Food Security</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -3012,7 +3078,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Diversification through agroecological principles may maintain and stabilize yields in an increasingly more unpredictable climate, including market price fluctuations, as well as preserve and enhance the threatened natural resource base and the environment. Based on a participatory interview process this article identifies the barriers encountered by a group of Danish biodynamic farmers striving for self-sufficient farm systems with no or very little dependency on imported materials by developing biologically, economically and socially diverse farms. Through an iterative interview process the study found that barriers outside farm management are hindering the transition toward diverse farming and that a further exploration of the need for and implications of food sovereignty in the Global North might generate the discussions needed to support implementation of more agroecological farming system practises. © 2020 The Author(s). Published with license by Taylor &amp; Francis Group, LLC.</t>
+          <t>This article argues that the United Nations Committee on World Food Security can and must serve as a space for catalyzing and strengthening public interest-oriented food systems governance grounded in the human rights framework. This would necessarily entail confronting the fragmentation of governance and erasure of accountability promoted by corporate designed multi-stakeholderism, and democratizing multilateralism through genuine participation of rights holders, public scrutiny and participatory science. Pivotal to this endeavor is arresting the growing corporate influence in governance mechanisms and reorienting them towards reinvigorating relationships among people, communities and governments. © 2021, Society for International Development.</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -3036,15 +3102,15 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Rural revitalization, scholars, and the dynamics of the collective future in China</t>
+          <t>AFHVS 2021 Presidential Address: critical praxis and the social imaginary for food systems transformation</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Rural development in the Chinese state's strategy has been a changing political-economic problematic. The state has practiced a strategic essentialism with regard to ‘peasantry.' It has actively taken ‘peasantry' as a temporary unifying master-category while at the same time working with the differences within the category for the long-term goal of transformation. The post-Mao contradiction, emphasizing the protection of the ‘peasantry’ while encouraging differentiation, offers contemporary struggles both opportunity and frustration. This essay examines how the rural has been conceptualized in reform-era policies and discusses two cases of scholar activism, the rural reconstruction movement and the food sovereignty network in China. © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>In this 2021 AFHVS Presidential Address, Kim Niewolny provides a brief foray into the onto-epistemic framing of critical praxis for sustainable food systems transformation. Niewolny proposes we engage in the creative entanglement of critical praxis and the social imaginary to “unthink” the orthodoxies that govern our ideas of the possible. She offers several possibilities as pathways toward a food system that embodies health equity, ecological justice, land sovereignty, and human rights, including: (1) agroecological research and movement building; (2) food, farm, and health policy; (3) food and farm system worker protections as public health and human rights concerns; (4) intersectional food justice scholarship and curriculum; (5) narrative-led, community-based, and action-oriented methodologies as multi-dimensional inquiry; (6) and multi-sector and multi-racial coalitions as dynamic networks that challenge linear, neoliberal, and technical-rational practices. Niewolny concludes with a call for radical hope as a principle for critical food systems praxis. © 2021, The Author(s), under exclusive licence to Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -3068,15 +3134,15 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transition to agroecology for improved food security and better living conditions: case study from a family farm in Pinar del Río, Cuba</t>
+          <t>Farm-level pathways to food security: beyond missing markets and irrational peasants</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>The process of transition to agroecology of family farms is a topic of great importance in Cuba and the need to support family farming is gaining worldwide attention, while agroecology has been recognized as the most promising approach for the sustainable development of smallholder farmers. This work analyzes the process of agroecological conversion implemented by a family farm in western Cuba, highlighting the causes that enabled the process of transition and examining its effects on the family’s food security and livelihoods. The study shows how all the four aspects of food security–availability, access, stability, and utilization–have improved after the transition to agroecology, while positive impacts are also registered in soil quality, environmental sustainability, and resilience. From the point of view of economic sustainability, the transition has had high costs at the beginning but, after three years, agroecological production is resulting in increased income and better living conditions. The work also suggests actions to be implemented in order to advance in the process of transition to agroecology and hence achieve full food sovereignty. © 2020 Taylor &amp; Francis.</t>
+          <t>Development projects in Sub-Saharan Africa propose to alleviate hunger in rural areas by introducing new agricultural practices and technologies, yet there is limited empirical evidence of how an agricultural intervention can lead farming households to transition to food security. Research on food security pathways considers agricultural interventions that increase farmers’ income to be particularly effective for reducing food insecurity. Consistent with this stance, Malawian agricultural policy aims to address hunger by encouraging smallholder farmers to intensify and commercialize maize production. This paper explores if smallholders’ market and livelihood orientations do indeed lead them to favor an income pathway to food security. Qualitative analysis of 60 smallholder farmer interviews in Malawi found that, upon achieving improvements in production yields and diversity, rather than commercialize, many farmers re-organized their production and consumption to reduce market dependency. Farmers deployed this strategy to increase their food security, explaining that the choice to self-provision food and farming inputs was both an expression of farming identity and a lived understanding of their marginal position in commodity markets. The author finds that, in failing to consider how production relations affect food access, scholarship inadequately theorizes farm-level food security transitions and reproduces discursive framings of hunger. Food sovereignty narratives more accurately captured what mattered for Malawian smallholders’ food security, suggesting that engagement with this concept could improve scientific understandings of food security transitions. © 2021, The Author(s), under exclusive licence to Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -3100,7 +3166,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Agroholdings, Technology, And The PoliTicAl economy of russiAn AgriculTure</t>
+          <t>China and the UN Food System Summit: Silenced Disputes and Ambivalence on Food Safety, Sovereignty, Justice, and Resilience</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -3108,7 +3174,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Research for this article was conducted with the support of the Swiss National Science Foundation, the Swedish Collegium for Advanced Studies, and the University of Notre Dame. This article details the rise of Russian agricultural corporations, known as the agroholdings. These companies have accumulated control of Russia’s most fertile land over the last 20 years and have become the main producers of agricultural commodities and processed food. They are also the driving force of a profound technological transformation of agriculture and food production during this time. A core claim of this article is that the technopolitics of twenty-first-century Russian agriculture made the meteoric rise of agroholdings possible. Technology was central to both the economic and political roles of these large, vertically integrated agricultural conglomerates. Agroholdings grew rapidly because they adopted cutting-edge agricultural technologies that maximized yields and economic efficiency. Agroholdings’ control of technologies earned them, in turn, the political support they needed to thrive in the state capitalist system of the Putin era. They were privileged allies of President Vladimir Putin’s government, which sought to enlist them for the political goals of strengthening domestic farming and food production and reducing Russia’s dependence on food imports. More broadly, the article suggests that a technopolitical lens recasts and improves our understanding of the political economy of post-Soviet Russia. Technopolitics reveals the role of both the state and corporate actors, of power and capital, in the construction of a new economic order and draws attention to how these processes shape post-Soviet byt. © Laboratorium: Russian Review of Social Research</t>
+          <t>China is a major agricultural power. It dramatically reduced hunger and increased its role in many forums for international governance. However, the Chinese government and society neither played a prominent role in the UNFSS nor in its critique. This article exposes how tensions and ambivalence about agroecology and food sovereignty in China create silences in these discussions, and addressing them within China can also resolve the global tensions that marked the UNFSS as a whole. © 2021, Society for International Development.</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -3132,22 +3198,24 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Achieving Food Security Through Localisation, Not Aid: “De-development” and Food Sovereignty in the Palestinian Territories</t>
+          <t>Certification Regimes in the Global Agro-Food System and the Transformation of the Nature-Society Relationship Ecological Modernization or Modernization of Ecology?</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Food aid is a common response to the food insecurity brought by conflict and inadequate development. Yet the very well-intentioned actions that are meant to stave off immediate humanitarian crises may, in the long-term, serve as tools that promote dependence, decrease the likelihood of sustainable development, and make peace less possible. In this article, I examine food insecurity and food aid in the conflict-affected Palestinian territories. I will describe ways in which Palestinian efforts to localise food production and increase food security are actively hindered, as well as how the system of humanitarian food assistance meant to fill these gaps may in fact perpetuate them. Finally, I discuss policy recommendations for stakeholders in the conflict that can encourage Palestinian food sovereignty in a manner that increases prospects for long-term peace and development, while providing immediate benefits for Palestinian quality of life and well-being. © The Author(s) 2020.</t>
+          <t>Recent years have witnessed a proliferation of environmental certification regimes in the global agro-food system—a trend characterized as an example of the ecological modernization approach—which emerged largely because of the rise of consumer sovereignty and the neoliberal push for environmental and social “quality” in food production and processing. Based on a robust analysis of global aquaculture, the article argues that the environmental certification regimes privilege some actors, species, and cultures while marginalizing others. While the fundamental tenet of the ecological modernization approach is to shape capitalism by ecological principles, I argue instead that through environmental certification, ecology or nature itself is largely shaped, transformed and restructured to fit into and thereby serve neoliberal global governance and accumulation in a normalized manner. The example of certification regimes is therefore more like a “modernization of ecology” rather than ecological modernization. © 2022</t>
         </is>
       </c>
       <c r="E85" t="n">
         <v>1</v>
       </c>
-      <c r="F85" t="n">
-        <v>1</v>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3164,15 +3232,15 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Policy pitfalls and the attempt to institutionalize agroecology in El Salvador 2008-2018</t>
+          <t>VILLAGE PROJECTS OBSERVED IN ERITREA: POST-CONFLICT PATHWAYS TOWARDS DEMOCRATIC RURAL DEVELOPMENT</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>This paper analyzes the experience of the Salvadoran cooperative movement in pursuing a political project for the institutionalization of agroecology in the years 2008–2018, under two consecutive FMLN governments in 2009 and 2014. Following El Salvador’s “turn to the left”, Salvadoran agrarian reform cooperatives and civil society allies began to allocate organizational resources toward writing public policy measures to incorporate agroecology under the FMLN government’s agricultural social program, the Family Agriculture Plan (PAF). While the cooperative sector took part in active negotiations with the FMLN party for the institutionalization of favorable policies, the former guerrilla party formulized strategies for gaining a multiclass electorate in order to remain in power. With the intention to better understand the attitude and distinct Salvadoran actors, we utilize an anthropology of public policy framework to indicate how expectations of political party legitimacy failed to shape the institutionalization of agroecology in El Salvador. We suggest that the pursuit of agroecological policies is a balancing act of making use of the State to strengthen on the ground efforts without forging organizational disarticulation following changes in government administrations. © 2020, © 2020 Taylor &amp; Francis.</t>
+          <t>Eritrea's rural development trajectory has fallen short of fully meeting the basic needs of its peasants and pastoralists, let alone national food security objectives. This article builds on earlier research on rural development projects in a select number of villages. These projects were primarily characterised by a state-centric technocratic logic that did, to some degree, embed “hard” infrastructure in the villages, but which paid less attention to building village-level capacity or organisational autonomy. Looking beyond these impasses, the present article suggests an inward-oriented national development model centred on the home market, rural co-operatives, and food sovereignty. As yet - at the time of writing - another major war afflicts Eritrea and Ethiopia, the presence of the political will for such a transition is by no means guaranteed. © 2022 University of Hradec Kralove, Philosophical Faculty. All rights reserved.</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -3196,15 +3264,15 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Land grabs, farmworkers, and rural livelihoods in West Africa: some silences in the food sovereignty discourse</t>
+          <t>Toward food sovereignty and self-sufficiency in Latin America and the Caribbean: opportunities for agricultural complementarity; [Hacia una soberanía y autosuficiencia alimentaria en América Latina y el Caribe: oportunidades de complementariedad agrícola]</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>The global land rush has spurred small, modest, and big anti-land grab mobilizations, notably the food sovereignty movement. The movement has been instrumental in representing the interests of small-scale family farmers whose livelihoods are threatened by capitalist control over land in the countryside. However, this dominant narrative tends to overlook or de-emphasize some important diversity within the peasantry. In West Africa, anti-land grab discourses emphasize family farming as a major collective action frame, focusing less on issues related to agricultural wage labour–farmworkers’ access to land, food, and decent working conditions. If food sovereignty is to fully realize its potential power as a counter-narrative to neoliberalism, and as a possible democratic alternative for working people with differentiated and at times competing socio-economic interests, then demands that adequately reflect the agrarian struggles of the rural working people have to be put onto the agenda and engaged better than it is now. © 2020 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Food self-sufficiency is a relevant political issue in many countries, developed and developing, particularly to satisfy the internal nutritional needs of the population and face situations in which the prices of basic products are unstable or when a country faces an external shock. Improving resilience involves strengthening local rural communities to meet demand with domestic production. The member countries of Latin America and the Caribbean (LCN) produce enough food to sustain their population and to be one of the world’s largest food exporters. From the theoretical discussion and using data from FAO, the research shows that there is a potential to improve food sovereignty and to define food and agricultural policies through agricultural complementarity among the LCN countries. Diverting part of the current trade with third parties to intraregional trade, for products in which the region has a comparative advantage, would mean that LCN countries could save up to 2.7 billion dollars per year, that is, 6.8% of total imports of food in 2018, avoiding the outflow of foreign currency and promoting greater economic integration between countries. © 2023,Revista de Economia e Sociologia Rural. All rights reserved</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -3228,15 +3296,15 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Agro-ecological transition of agricultural production systems at imbabura province of Ecuador; [Transição agroecológica de sistemas de produção agrícola na província de imbabura Equador]; [Transición agroecológica de los sistemas de producción agrícola de la provincia de imbabura Ecuador]</t>
+          <t>GLOBAL FOOD SECURITY AND SOVEREIGNTY IMPACTED BY SARS-CoV-2 PANDEMIC</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Transitional processes from conventional agricultural systems to agro ecological production systems has been promoted at Imbabura province in Ecuador, but development difficulties have been observed, due to farmer’s decisions for embracing transition, depends not only on the technology and local resources available, but also on several aspects of the surrounding social, economic and institutional system. A research was conducted, in order to characterize the transitional agro ecological degree of production systems at Imbabura province, regarding the social cooperation activity, the natural resources management and the public policies dynamics, A stratified random sample of 50 producers was taken, to whom a questionnaire was applied. Data was analyzed by descriptive statistics. Cramer test was used to determine the relationships of each item to municipalities. Results showed that, in social dynamics, there is a high degree of trust, participation and reciprocity but it is necessary to strengthen exchange networks, also, it was observed a high degree of agro ecological and conservationist practices. Agro ecological transition is limited by public policy dynamics because there are no incentive programs and also there are few institutional incentives to support agro ecological work, even though it is established by the current Food sovereignty law. Participation and used of self-harvest seeds were related to municipality. Otavalo is the municipality that displays greater dynamism and progress in the process of agro-ecological transition. © 2020, Universidad del Zulia. All rights reserved.</t>
+          <t>The current health crisis due to the severe acute respiratory syndrome -coronavirus-2 (SARS-CoV-2) is challenging several of the assumptions of a globalized world. There are severe consequences over food security and sovereignty, especially among the poorest and most vulnerable populations. Particularly, since any infectious disease outbreak is directly correlated to an increase in hunger and malnutrition. This assay is set to analyze the impacts of the sanitary crisis on food security and sovereignty in the international context, and highlight how governments are acting to reduce consequences, through the use of an exploratory and analytical methodology. Although the United States (U.S.) has successfully overcome this health crisis, the food crisis has overtaken, as a result of the growing unemployment. In Latin America, the pandemic is exacerbating food access and economic situation. The sanitary crisis has aggravated food shortages in Africa already going on, especially in rural areas. Asia suffered the most significant impact in food security. The new food security policy in the European Union aims to hold food security. Food insecurity and malnutrition are not just about agriculture production; they are also about food access limitations. In consequence, this health crisis cannot be allowed to become also a food crisis. © 2022. All Rights Reserved.</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -3260,15 +3328,15 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Practices of Food Sovereignty in Italy and England: Short Food Supply Chains and the Promise of De-Commodification</t>
+          <t>Relevance of the Obstacles to the Achievement of Food Sovereignty in Ecuador, Analysis through the Neutrosophic Soft Set</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Alternative food networks are organisations of consumers and food producers that oversee and promote the functioning of short food supply chains, with the aim of fostering a direct and local exchange between producers and consumers. New short-chain economic infrastructures provide food producers – especially small-scale farmers – with a whole new set of commercial opportunities, directed towards the construction of an alternative food economy. But how does value circulate within these innovative economic platforms? And what values are debated, negotiated and exchanged through these circuits? Employing the analytical lenses of de-commodification and embeddedness, this article discusses the modalities and outcomes of the processes of value-creation and value-appropriation that spring out of the direct exchange occurring between consumers and food producers in the alternative food economy. Based on empirical data collected through extensive qualitative field research in Italy and England, the article exposes the dynamics and limits of the on-going processes of de-commodification, proposing an analysis centred on the concept of ‘partial’ de-commodification. This conceptual tool is used to assess the differences that emerged between the Italian and English fields, and to provide conclusive remarks about the potential of place- and culture-specific configurations of practices to advance a transformation of the food system. © 2019 The Authors. Sociologia Ruralis © 2019 European Society for Rural Sociology.</t>
+          <t>One of the elements addressed in the Sustainable Development Goals until 2030, is the achievement of food sovereignty. This important issue takes relevance in the debates at the level of states, among which is Ecuador, which recognizes it as a right to its citizens from its Magna Carta. Despite being a widely addressed topic and to which substantial resources are destined, obstacles persist in its implementation. Therefore, it is proposed as the objective of this investigation: the analysis of the relevance of obstacles to the achievement of food sovereignty in Ecuador through Neutrosophic Soft Sets. To meet the proposed objective, empirical methods such as the interview and a neutrosophic soft set model were used. As a result, it was obtained that from the four initial statements, only three were true and that their relevance in the subject addressed was given by the following hierarchy: first of all the need to guarantee vulnerable groups the right to healthy eating, second, the fact that the allocations of resources to peasant producers are scarce in order to increase food production in the area and finally, the insufficient legal framework to guarantee the right to food sovereignty of Ecuadorians, in correspondence with the international pronouncements and The Constitution. © 2022, Neutrosophic Sets and Systems. All Rights Reserved.</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -3292,15 +3360,15 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>The importance of vision in food system transformation</t>
+          <t>Food sovereignty and the integral state: Institutionalizing ecological farming</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Despite growing calls for food system transformation, the need to develop a vision to guide that transformation is sometimes overlooked. Vision is essential to inspire, mobilize, and keep a collective of people on track toward their goals. Individual visions can be exhilarating, but the visions that create change are taken up by large groups or movements of movements. A vision is a beginning for transformation, but it requires policy that enables it to be enacted, ideally through democratic processes. The vision, buttressed by policy and democratic governance, is what determines where people are able to buy food, how much they pay, whether farmers earn decent incomes, and whether the food is healthy. Without vision, policies are likely to be incoherent or to work at cross-purposes, as has happened in the farm bill and the European Union’s Common Agricultural Policy. A range of visions generated at different scales, from autonomous community to state to region, can serve as examples for people committed to food system transformation. © 2019 by the Author.</t>
+          <t>This article takes up the question of how food sovereignty, and accompanying agricultural models that will help combat climate change, may be institutionalized through policy processes. I draw on the theories of Antonio Gramsci and his successors to discuss how the interwoven nature of the state and civil society, conceptualized as the ‘integral state’, can help inform an analytical approach to food policy change. Based on research that analyzes the work of Canada's two member organizations of La Vía Campesina, Union Paysanne and the National Farmers Union (NFU), I highlight the differences and parallels between food sovereignty struggles taking place in Quebec and those underway elsewhere in the country. I argue that although agricultural policy has the potential to be an important tool in transitioning toward a climate-friendly food system, proponents of food sovereignty would benefit from disengaging from traditional food policy advocacy efforts as these will only lead to incremental reforms. Instead, I suggest that a ‘prefigurative institutionalization’ has the potential to be transformative within and beyond the food system. The concept offers both a political strategy as well as an analytical framework for assessing movements’ efforts related to policy formation and governance. © 2021 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -3324,15 +3392,15 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>‘Keeping seeds in our hands’: the rise of seed activism</t>
+          <t>Peasants' Rights as New Human Rights: Promises and Concerns for Agrobiodiversity Conservation</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Semantic innovations like seed commons, peasant seeds and seed sovereignty are a powerful expression of what may be termed as seed activism. In this opening paper of the JPS Special Forum on Seed Activism, we explore the surge of mobilizations the world over in response to processes of seed enclosures and loss of agrobiodiversity. A historical overview of the evolution of seed activism over the past three decades traces a paradigm shift from farmers’ rights to seed sovereignty. Some of the main threats to peasant seed systems–from seed and intellectual property laws to biopiracy, corporate concentration and new genome editing technologies–are analyzed along with strategies by peasants and other activists to counter these developments. We take stock of what has been achieved so far and of the challenges ahead, and suggest some avenues for future research. © 2020, © 2020 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Agrobiodiversity conservation is vital for food security, maintaining ecological balance, and preserving socio-cultural norms. There is substantial evidence to support that agrobiodiversity hotspots coincide with localized, small-scale peasant food systems. Preserving such food systems is necessary for protecting agrobiodiversity. The current legal framework over agrobiodiversity is fragmented and inadequate. A major portion of this framework is situated within intellectual property law and farmers' rights law, neither of which are designed to foster sustainable management of agrobiodiversity. In this context, the 2018 Peasants' Rights Declaration has the potential to fill the gaps in the existing framework. The paper critically analyses the Declaration by exploring some of its legal innovations in improving agrobiodiversity conservation. While some of these innovations are commendable, they are unlikely to be adopted by states owing to their radical nature. Their adoption would require a massive overhaul of the existing agricultural model and power structures embedded within it.  Copyright © 2022 The Author(s).</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -3356,15 +3424,15 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Diverse seeds – shared practices: Conceptualizing seed commons</t>
+          <t>THE PROSPECTS OF FOOD SOVEREIGNTY IN THE FORMER YUGOSLAV REPUBLICS</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Commons approaches in the seed sector are multi-faceted: They span from traditional seed systems, i.e. seed sharing networks, to recent anti-enclosure movements that resist intellectual property rights on varieties, like organic breeding initiatives. This paper derives a conceptualization of ‘Seed Commons’ at the local and regional level, based on a comprehensive transdisciplinary research process that integrates diverse types of knowledge, both from practitioners (German and Philippine seed initiatives, companies and NGOs), and the scientific community. As a result, we identify four core criteria that characterize diverse Seed Commons arrangements at local and regional scales: (1) collective responsibility, (2) protection from private enclosure, (3) collective, polycentric management, and (4) sharing of formal and practical knowledge. Discussing these Seed Commons criteria in the context of different Commons approaches, we find that Seed Commons transcend the distinction between traditional (natural resource) Commons and New Commons approaches, by integrating biophysical, informational and cultural elements in their collective governance. Reaching beyond resource characteristics, the Seed Commons criteria reflect practices of Commoning, which aim to fulfill social functions such as farmer empowerment and food sovereignty. © 2020 The Author(s).</t>
+          <t>The neoliberal approach taken to the transition from socialism to capitalism in the six former Yugoslav republics has revealed its weaknesses in all spheres of economic activities, including food produc-tion. These countries have lost sovereignty with respect to regulating important national policy areas like food trade and production. Liberalisation of the food trade has adversely affected national economies by destroy-ing many small-scale farmers and food producers. Corporate supermarkets have been taking over an ever bigger slice of the retail pie. Social movements are call-ing for direct democratic control over resources and food production to be regained. The article examines the prospects of these countries to overcome the increas-ing food insecurity by introducing food sovereignty. © 2021, Ljubljana University, Faculty of Social Sciences. All rights reserved.</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -3388,15 +3456,15 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Human Development and Food Sovereignty: A Step Closer to Achieving Food Security in South Africa’s Rural Households</t>
+          <t>Food sovereignty and property in Cuba and the United States</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Food security strategies are determined by the prevailing realities within households and communities. Therefore, it is not surprising that in South Africa agricultural transformation is an important food security strategy. This article examines the role of human development and food sovereignty in fostering conditions that enable rural households to enhance their food security capabilities. Using an in-depth analysis of literature, national, regional and international instruments, this article takes its departure from the fact that subsistence agriculture is an effective strategy for improving household food needs when implemented within the broader human rights framework of human development. The results reveal that agriculture has the potential to increase household food security if appropriate agricultural technologies and productive resources such as land are made accessible to households. Further, for agriculture to attain optimal efficiency as a food security strategy, policies on agrarian transformation should be implemented within broader social development programmes. © The Author(s) 2019.</t>
+          <t>Food sovereignty promotes agroecological farming methods and the reduction of food insecurity through changing political relations between people, land and food policy. Market orientations to land and private property in liberal democracies restrict access to food, and thus for food sovereigntists, reframing the social relationship to land through property is key to making food more available. This paper examines the case of usufruct land rights in Cuba as a framework for reworking land rights. We identify key limitations that impair producer autonomy, suggesting how different orientations toward property present unique problems and potential solutions towards the goal of food sovereignty. © 2021 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -3420,15 +3488,15 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Local Food as Social Change: Food Sovereignty as a Radical New Ontology</t>
+          <t>Subversive Future Seeks Like-Minded Model: On the Mismatch between Visions of Food Sovereignty Futures and Quantified Scenarios of Global Food Futures</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Local food projects are steadily becoming a part of contemporary food systems and take on many forms. They are typically analyzed using an ethical, or sociopolitical, lens. Food focused initiatives can be understood as strategies to achieve ethical change in food systems and, as such, ethics play a guiding role. But local food is also a social movement and, thus social and political theories provide unique insights during analysis. This paper begins with the position that ontology should play a more prominent part in the analysis of local food movements, as this lens could provide unique insights into basic commitments guiding such initiatives. The paper presents the argument that ontological analyses are imperative for fully understanding local food movements. It then provides an overview of the justice frameworks and ontological orientations that guide two dominant types of initiatives: Those committed to increasing food security and those committed to food sovereignty. The paper ends with the argument that food sovereignty projects are revolutionary, not only because they challenge us to change industrial food practices, but also because they are built on a radical new political ontology, and co-constitutive food-focused orientation, that forms the foundation for alternative social and political structures. © 2020 University of Sassari.</t>
+          <t>Will we, by 2050, be able to feed a rapidly growing population with healthy and sustainably grown food in a world threatened by systemic environmental crises? There are too many uncertainties for us to predict the long-Term evolution of the global agri-food system, but we can explore a wide range of futures to inform policymaking and public debate on the future of food. This is typically done by creating scenarios (story lines that vividly describe what different futures could look like) and quantifying them with computer simulation models to get numerical estimates of how different aspects of the global agri-food system might evolve under different hypotheses. Among the many scenarios produced over the last twenty years, one would expect to see the future advocated by the food sovereignty movement, which claims to represent roughly two hundred million self-described peasants (small farmers) worldwide. This movement defends a vision of the future based on relocalized, sustainable, and just agri-food systems, self-governed through direct and participatory democratic processes. Yet, food sovereignty is conspicuously absent from quantified scenarios of global food futures. As part of the roundtable, Ethics and the Future of the Global Food System, this essay identifies seven obstacles that undermine the creation of food sovereignty scenarios by examining two attempts at crafting such scenarios.  Copyright © The Author(s), 2021. Published by Cambridge University Press on behalf of the Carnegie Council for Ethics in International Affairs.</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -3452,15 +3520,15 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>PREFIGURATIVE POLITICS IN PRACTICE: CONCRETE UTOPIAS IN ITALY'S FOOD SOVEREIGNTY ACTIVISM</t>
+          <t>Food sovereignty and farmland protection in the Municipal County of Antigonish, Nova Scotia</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>What and how we eat have once again become prominent in debates on the fight for global justice. Proponents of alterglobalism consider experiments with food sovereignty a prefigurative practice that anticipates broader ecocultural change. Critics, however, remain skeptical about its capacity to enhance social change. In social movement research, the practical implications of these prefigurative politics have rarely been investigated empirically. Based on an ethnographic analysis, this article illustrates the multifaceted dynamics of a continuously evolving experiment with Participatory Guarantee Systems (PGS) in a neorural microeconomic network, a cornerstone of food sovereignty activism. An ethnographic perspective can grasp the shifting terrain of the political mobilization, frictions and unintended consequences of these types of politics. The article demonstrates the importance of understanding the complexities of prefiguration as not a simple linear, coherent process. Also, the case study allows a critique of re-emerging neorural populism.  © 2020 Mobilization: An International Quarterly.</t>
+          <t>This case study of the Municipal County of Antigonish (MCA) in the Canadian province of Nova Scotia assessed the extent to which agricultural land use planning accommodates those societal interests seeking to embed food sovereignty at the municipal level. Data were collected through content analysis of legislative documents, key informant interviews, and a review of the grey literature. Results suggest that the relatively weak municipal planning system in place prioritizes private interests over the public interest in farmland protection. The resultant gaps in the legislative setup in the MCA further reveal that food sovereignty actors and/or ideas have little influence over municipal governance of farmland protection. Broader historical and contemporary trends in Nova Scotia and Canada at large suggest that farmland will continue to lose ground to forces intrinsic to the dominant policy paradigm of market liberalism. Concluding thoughts call for “bringing back the (Canadian) state” itself as central to constituting a new agricultural policy paradigm. © 2021 by the Authors.</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -3484,22 +3552,24 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>“Going local”: farmers’ perspectives on local food systems in rural Canada</t>
+          <t>Norm conflicts as governance challenges for Seed Commons: Comparing cases from Germany and the Philippines</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Amid the highly industrialized, export-focused food system of the Canadian prairies, some farmers and consumers are turning to localized agriculture as an alternative—they are “going local”. Despite farmers’ obvious importance to the food system, surprisingly little research has examined their motivations and reasons for localization. To date, most local food scholarship in North America has focused on either consumers’ motivations to buy local or the systemic aspects of local food, such as regulations, infrastructure, and marketing arrangements. Existing research suggests that local food systems are supported by consumers’ rejection of the industrial paradigm and desire to (re)connect with their food and its source. But what drives farmers to localize, particularly when export-focused production is firmly entrenched as the status quo? Based on interviews and focus groups with 60 farmers, processors, policy experts, and retailers in the Canadian prairie province of Saskatchewan, this paper examines local food systems from the producer perspective in a rural context of high industrialization and geographical dispersion. We examine what motivates farmers to produce for local markets, and what forces they must resist to do so. The findings indicate that farmers’ main motivations for localization are political and social in nature, and stem from a critique of the dominant neoliberal agri-food system. We map farmers’ agential responses to this dominant system on a spectrum that ranges from acceptance of a neoliberal “feed the world” ideology to promotion of food sovereignty. Drawing on farmers’ perspectives, our findings question the straightforward equation of local food with environmental sustainability and also challenge neoliberal economic assumptions of “scaling up”. © 2019, Springer Nature B.V.</t>
+          <t>A Seed Commons approach can help to highlight the common struggle of diverse seed initiatives in the Global North and South in light of the dominant pathway of enclosure and commodification of seeds that threatens food sovereignty and cultivated plant-genetic diversity. In this paper, the Seed Commons framework is applied to show how the conflicting norms and rules of the international regime complex surrounding seeds shape the scope of action for Seed Commons in Germany and the Philippines. The analysis shows that the patent and variety protection regimes have strongly influenced the design of national seed marketing and threaten to outlaw practices of Seed Commons. Despite limited practical impact for Seed Commons initiatives (so far), the norms of the Nagoya Protocol and the Seed Treaty have contributed to exceptions in national seed marketing law that provide essential scope of action for Seed Commons initiatives in Europe and the Philippines. © 2021 The Author</t>
         </is>
       </c>
       <c r="E96" t="n">
         <v>1</v>
       </c>
-      <c r="F96" t="n">
-        <v>1</v>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3516,22 +3586,24 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>From hoes to story-telling as "weapons of the weak": Farmers' resistance to neoliberal 2007 multi-product management stabilization plan in Japan</t>
+          <t>Food sovereignty and food security: Livelihood strategies pursued by farmers during the maize monoculture boom in Northern Thailand</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>While neoliberalism has promoted free trade, market rule, and productivist agriculture in the food production system, farmers and their unions in developed countries partially managed to shun the forces of neoliberalism. What are the underpinning strength and factors of such resilience? Discussions have concentrated at national policy and organizational level and tacit resistance at community and farm levels remain unexplored, inter alia from their historical embeddedness perspective. This study explores the way Japanese farmers frame their contemporary political situation with neoliberalism of the late 2000s with a grounded approach of face-to-face interview at a community level. The farmers resist it mobilizing Scott's anthropological notion of "Weapons of the Weak"through story-telling instead of hoes in ancient time (Scott JC, Weapons of the weak: everyday forms of peasant resistance, 1985). In concrete, the farmers resisted a neoliberal policy of Hinmoku Odanteki Keiei Antei Taisaku, or the Multi- Product Management Stabilization Plan (MPP), in the early 2000s, which promoted larger scale farming to pursue the efficiency of scale merits. The policy was first introduced in 2005 as a concept and dominated the agricultural policy scenes from 2007 to 2009, and then its influence disappeared toward 2010. The rise and fall of the concept and policy provide us with rare opportunity to examine the historical embeddedness of the farmers and their resistance to such neoliberal globalization. We conducted interviews with the leaders of cooperative farms and stakeholders in Daisen City, Akita Prefecture, Japan; the study found that farmers' framing of neoliberalism was ambivalent causing partial adoption and resistance. The leaders of the cooperative farms could form the cooperative farms but thought further development difficult because members intended to keep their farming independent. Close frame and discourse analysis revealed that farmers in Japan could express their frustration on neoliberal discourse and policy through multiple tactics of "Weapons of the Weak"by complaining to the leaders, miscalculating the figures, or claiming family-based food sovereignty that "we produce what goes into our family mouths."Such tactics procrastinated the process and eventually stopped the policy. The incident demonstrates how farmers in the network can slow the progress of neoliberal discourse and policy implementation. From the analysis, the notion of "Weapons of the Weak"can be applied as a part of the combination with farmers' historical embeddedness, symbolism of foods, framing, and electoral resistance.  © 2020 The Author(s).</t>
+          <t>Northern Thailand is the center of a number of controversies surrounding changing cropping patterns, in particular related to deforestation driven by the expansion of maize monocropping by peasant farmers. Growing demand for maize by the global livestock industry has driven the conversion of land from forest and/or shifting cultivation to chemical-intensive maize, with associated environmental (i.e., forest encroachment and annual burning of fields) and social (i.e., farmer indebtedness) problems. Over the years, some of the same farmers have been exposed to ‘alternative development’ programs and projects, initially motivated by pressure to substitute for illegal crops and more recently by concerns over deforestation and particulate matter air pollution from the burning of crop residues. This scenario is made more heterogeneous by a variety of land tenure situations and greater or lesser degrees of community control over land and forest. Faced with varied situations, peasant families can pursue different livelihood strategies, particularly in reference to the degree to which their production is market oriented. Based on surveys and interviews with farmers in Nan and Chiang Mai provinces, over a range of the aforementioned circumstances, we contrast families who pursue what we define as food security (cash cropping to earn money to buy food), food sovereignty (primarily production for self-provisioning) or mixed (a combination of both) strategies. In terms of indicators such as indebtedness, we find greater benefits from the food sovereignty and mixed strategies, though we also find that these are limited by security of land tenure issues, as well as by the degree to which community management of resources is or is not present. © 2021 by the authors. Licensee MDPI, Basel, Switzerland.</t>
         </is>
       </c>
       <c r="E97" t="n">
         <v>1</v>
       </c>
-      <c r="F97" t="n">
-        <v>1</v>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3548,15 +3620,15 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Alternative discourses around the governance of food security: A case study from Ethiopia</t>
+          <t>New rurality and agritourism in Empordà, Catalonia</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Global discourses on the governance of food security span competing approaches. For example, a neoliberal approach advocates commercialized, industrial agriculture, while food sovereignty and resilience are part of an alternative discourse to food security that prioritizes locally-based agroecological food production. Understanding how global discourses play out locally and how they impact the environment and biodiversity is important to identify appropriate pathways towards sustainability. In addition to their effects on food security, different approaches could reinforce or impede the success of biodiversity conservation because of the strong interdependence of food security and ecosystems. We applied the Q-methodology to examine alternative approaches to food security and biodiversity conservation pursued by 50 stakeholders from local to national levels in southwestern Ethiopia. We identified four distinct approaches, focusing on (1) smallholder commercialization, (2) agroecology and resilience, (3) local economy and equity, and (4) market liberalization. All approaches prioritized smallholders, but perspectives on how to achieve food security varied. Agricultural intensification, commercialization, and profit were widely considered important, while support for agroecology and resilience was largely restricted to non-government organizations. With the exception of supporters of the agroecology and resilience approach, biodiversity conservation was considered as a secondary goal. We conclude it is important to acknowledge plurality of food security approaches because local conditions are characterized by a multiplicity of stakeholder interests, and because food security is a complex problem that requires a multidimensional approach. However, major contradictions among existing approaches need to be reconciled, and the agroecology and resilience approach should be strengthened to ensure the sustainable achievement of food security and biodiversity conservation. © 2019 Elsevier B.V.</t>
+          <t>Agritourism in the Empordà region has become increasingly popular in recent years. It provides a variety of services, ranging from food catering, the tasting of local products, garden, orchard, and vineyard visits, and lodging. It creates opportunities for a relationship between visitors, places, ideas, and experiences, between the territory, landscape, and terroir, between local products and food sovereignty. It encourages re-peasantisation, the promotion of local know-how, and environmental conservation. This paper examines how this form of agritourism draws a part of its inspiration from a social imaginary of a peasant past that existed prior to the 1960s' advent of mass tourism. Using the tools of the new rurality approach, this paper analyses the landscape and evolution of agritourism in the region. It presents some of the producers' main principles and activities in the light of a regional context that comprises, among other constraints, environmental deterioration, socio-economic inequalities, and a considerable pressure for access to basic resources. Copyright © 2021 Inderscience Enterprises Ltd.</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -3580,15 +3652,15 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Interview with João Pedro Stédile, national leader of the MST–Brazil</t>
+          <t>Market dependency as prohibitive of agroecology and food sovereignty—a case study of the agrarian transition in the Scottish highlands</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>The pandemic has underlined the need to continue fighting for paradigmatic change, including toward food sovereignty for our people and agroecology to produce while preserving nature. © 2020, © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>While there have been calls amongst the more ‘political’ or ‘radical’ agroecology and food sovereignty advocates for a break from capitalist food systems, conceptualisations of capitalism, and thus counter-capitalism, vary widely. The movements have largely presented small-scale producers and peasants as alternatives to industrial food systems, and have focused on reducing input dependency as a path towards autonomy of producers and the realisation of agroecological food systems. An alternative to this approach is presented here through applying Ellen M. Wood’s conceptualisation of capitalism as characterised by ‘market dependency’ to the case of the agrarian transition in the Scottish Highlands. This article demonstrates the specific ways in which market dependency, including for agricultural outputs, not just inputs, leads to a divergence from agroecological food systems. It argues that identifying ‘market dependency’ as a defining characteristic of capitalism could strengthen and refine the focus of agroecology and food sovereignty movements. © 2021 by the author. Licensee MDPI, Basel, Switzerland.</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -3612,15 +3684,15 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>NGO perspectives on the social and ethical dimensions of plant genome-editing</t>
+          <t>Wild food plants traditionally gathered in central Armenia: archaic ingredients or future sustainable foods?</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Plant genome editing has the potential to become another chapter in the intractable debate that has dogged agricultural biotechnology. In 2016, 107 Nobel Laureates accused Greenpeace of emotional and dogmatic campaigning against agricultural biotechnology and called for governments to defy such campaigning. The Laureates invoke the authority of science to argue that Greenpeace is putting lives at risk by opposing agricultural biotechnology and Golden Rice and is notable in framing Greenpeace as unethical and its views as marginal. This paper examines environmental, food and farming NGOs’ social and ethical concerns about genome editing, situating these concerns in comparison to alternative ethical assessments provided by the Nuffield Council on Bioethics, a key actor in this policy debate. In doing so, we show that participant NGOs and the Nuffield Council on Bioethics share considerable concerns about the social and ethical implications of genome editing. These concerns include choices over problem/solution framing and broader terminology, implications of regulatory and research choices on consumer choice and relations of power. However, GM-engaged NGOs and the Nuffield Council on Bioethics diverge on one important area: the NGOs seek to challenge the existing order and broaden the scope of debate to include deeply political questions regarding agricultural and technological choices. This distinction between the ethical positions means that NGOs provide valuable ethical insight and a useful lens to open up debate and discussion on the role of emerging technologies, such as genome editing, and the future of agriculture and food sovereignty. © 2019, Springer Nature B.V.</t>
+          <t>Current debate highlights that sustainable food systems can be fostered by the cautious and germane use of natural resources. Gathering, cooking, and consuming wild food plants that are widely available in a given environment are traditional practices that in many parts of the world have historically been crucial for effecting the food security and food sovereignty of local communities. In the current study, we analyzed the traditional foraging patterns of Armenians, Pontic Greeks, Molokans, and Yazidis living in a mountainous area of central Armenia; via 64 semi-structured interviews, 66 wild food folk taxa were recorded and identified. While Armenians and Greeks gather a remarkable number of wild food plants (36 and 31, respectively) and share approximately half of them, Molokans and, more remarkable, Yazidis gather less wild food plants (24 and 17, respectively) and share only a few plants with Armenians. This may be due not only to the fact that the latter ethno-religious groups have followed endogamic marriage patterns for centuries, which may have limited the exchange of plant knowledge and practices with their Armenian neighbors, but also to the difficult adaptation to a new environment that Yazidis experienced after moving from Eastern Anatolia and the Nineveh Plains to the study area around a century ago. The traditional practice of gathering wild plants for food is, however, still vividly alive among locals in central Armenia and at least a part of this bio-cultural heritage could represent one of the future pillars of local sustainable food systems and platforms. © 2020, Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -3644,15 +3716,15 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>The spatial planning to implement sustainable agricultural land</t>
+          <t>Achieving Food System Resilience Requires Challenging Dominant Land Property Regimes</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Indonesia is an agricultural producing country; the agricultural sector becomes its main economic base. Empirically, most of Indonesians work in this sector as their livelihood. Article No. 33 Chapter (3) of Undang-undang Dasar 1945 (The 1945 Constitution of The Republic of Indonesia) states a role of the state in managing and regulating land. It is clearly declared that land, water and natural resources contained therein are owned by the state and used as much as possible for the prosperity of the people of Indonesia. Land conversion is usually related to the process of regional development, even it can be said that the land conversion is a consequence of the development. In fact, most of the land conversion shows an imbalance dominated by business owners who are alleged to be modern capitalists having Building Construction Permits (IMB) issued by the government. Based on Regulation of Government No. 1 of 2011 concerning Determination and Land Conversion of Sustainable Agricultural Land, it is a field of agricultural land determined to be consistently protected and developed to produce staple food for the autonomy, resilience and sovereignty of foods for the nation. © 2020 SERSC.</t>
+          <t>Although evidence continues to indicate an urgent need to transition food systems away from industrialized monocultures and toward agroecological production, there is little sign of significant policy commitment toward food system transformation in global North geographies. The authors, a consortium of researchers studying the land-food nexus in global North geographies, argue that a key lock-in explaining the lack of reform arises from how most food system interventions work through dominant logics of property to achieve their goals of agroecological production. Doing so fails to recognize how land tenure systems, codified by law and performed by society, construct agricultural land use outcomes. In this perspective, the authors argue that achieving food system “resilience” requires urgent attention to the underlying property norms that drive land access regimes, especially where norms of property appear hegemonic. This paper first reviews research from political ecology, critical property law, and human geography to show how entrenched property relations in the global North frustrate the advancement of alternative models like food sovereignty and agroecology, and work to mediate acceptable forms of “sustainable agriculture.” Drawing on emerging cases of land tenure reform from the authors' collective experience working in Scotland, France, Australia, Canada, and Japan, we next observe how contesting dominant logics of property creates space to forge deep and equitable food system transformation. Equally, these cases demonstrate how powerful actors in the food system attempt to leverage legal and cultural norms of property to legitimize their control over the resources that drive agricultural production. Our formulation suggests that visions for food system “resilience” must embrace the reform of property relations as much as it does diversified farming practices. This work calls for a joint cultural and legal reimagination of our relation to land in places where property functions as an epistemic and apex entitlement. © Copyright © 2021 Calo, McKee, Perrin, Gasselin, McGreevy, Sippel, Desmarais, Shields, Baysse-Lainé, Magnan, Beingessner and Kobayashi.</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -3676,15 +3748,15 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Enforceability of decisions of the Agricultural Paying Agency in matters of direct payments</t>
+          <t>Reconfiguring Food Systems Governance: The UNFSS and the Battle Over Authority and Legitimacy</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Since its inception, the Common Agricultural Policy has been the largest among all common European policies. The main objective of the Common agricultural policy is food sovereignty in the European Union, stabilization of farmers' incomes and, at present, support for non-production functions of agriculture and environmental protection. Given the rising input prices and the time mismatch between supply and demand for agricultural products, the first pillar of the CAP has become a key tool for sustaining the desired competitiveness of agricultural products in the EU Member States. Direct payments have become an important tool for Slovak farmers, and therefore their effective implementation is essential for their continued existence or development. The aim of the paper was to point out the weak enforceability of direct payments to eligible users of agricultural land if there is a conflicting legal entitlement to provide a direct payment in accordance with §28 and §29 of Act no. 280/2017 Coll. and the resulting problems for eligible applicants. © 2020 by the author(s).</t>
+          <t>The UN Food Systems Summit was an ambitious and hotly contested event that brought competing approaches to global food governance into relief. In this article, we unpack the rival visions that circulate around how food systems should be governed, focusing on two issues that we feel are at the heart of these divergences: authority and legitimacy. We illustrate how both corporate-philanthropic and food sovereignty networks are struggling to establish epistemic authority of food systems as well as produce legitimacy through very different approaches to participation and accountability. © 2021, Society for International Development.</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -3708,15 +3780,15 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Towards a National Food Sovereignty Plan: Application of a new Decision Support System for food planning and governance</t>
+          <t>Impact evaluation based on benefit indicators (IEBBI): methodological proposal for agroecological farmers’ markets; [Evaluación del impacto basada en indicadores de beneficios (IEBBI): propuesta metodológica para mercados de productores agroecológicos]</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>This paper develops a Decision Support System (DSS), for achieving Food Sovereignty Plans at different territorial levels. The DSS calculates the land requirement for producing the food needs of a local community, the land suitability for the involved crops, and the percentage of the food self-sufficiency achievable. The paper reports two case studies at different scales (Italy and Umbria region) for highlighting the strengths and the weaknesses of the DSS. Finally, the paper outlines the use of the developed DSS for enhancing participatory processes to achieve a National Food Sovereignty Plan. © 2019 Elsevier Ltd</t>
+          <t>Farmers’ markets represent a growing strategy for the generation of food sovereignty and sustainability; however, little is known about their impacts in economic, social and environmental terms. The objective of this research was to develop a framework that would allow determining that impact. The resulting methodological framework includes 20 indicators divided into seven groups: proximity, profitability, perceived benefits, areas of opportunity, economic impact, social impact, and environmental impact. This methodology was applied in one agroecological farmers’ market in Mexico City. Among the results, the main benefits are linked to socioeconomic interaction, while environmental impact indicators are the least considered. This methodology can guide the design, implementation, comparison, and monitoring of this type of initiative in the medium and long term. © 2021 Universidade de Brasilia. All rights reserved.</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -3740,22 +3812,24 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Politics of law of the protection of plant variety (Pvt) and its implications for food security in indonesia: A maqashid al-shari'ah perspective</t>
+          <t>Rethinking conventionalisation: A view from organic agriculture in the Global South</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>The birth of the Law on Plant Variety Protection (PVP) is a consequence of Indonesia in its participation as a signatory country for the GATT/WTO agreement, which one of the series of agreements contains Trade-Related Aspects of Intellectual Property Rights (TRIPs). This agreement implies that after ratification, Indonesia must harmonize legislation in the field of intellectual property rights with the approval of TRIPs, including in the field of Plant Variety Protection. Philosophically there are several provisions in the PVP Law that need to be observed. One of them is the focus of this law that prioritizes economic interests and breeder rights rather than farmer rights. By using qualitative research and philosophical approach, this study concludes: First, in the perspective of politics of law, the protection of plant varieties in Indonesia has not been based on an ideal basis of Indonesian politics of law. Ideally, the stipulation of law in Indonesia must prioritize an ideological and normative basis that originates from Pancasila and the UUD 1945 as central values and are essential to Indonesian politics of law. Second, Plant Variety Protection in Indonesia is still oriented to food security, not to the limit of food sovereignty. The orientation of the Law on PVP should lead to efforts to liberate this country from the element of dependence on other countries by leading to food sovereignty. Third, in the perspective of Maqashid Sharia, the protection of Plant Varieties in Indonesia has not yet described efforts to create benefit for the Indonesian nation as a whole. The nature of Maqashid sharia is a benefit that rests on the interests of society in general. © IJSTR 2020.</t>
+          <t>The so-called conventionalisation of organic farming debate revolves around tensions between organic agriculture as an alternative to the dominant agri-food system and the rise of organic agribusiness. A contested issue is the conceptualisation and assessment of the impact of capitalist expansion in the organic sector on the transformative power of alternative agriculture. This article engages with critiques on Guthman's analysis of conventionalisation and the concept of bifurcation. It brings a new perspective to the debate by introducing a case from the Global South, which reveals four different trajectories of organic agriculture development and certification in the Philippines. The expansion of organic farming differs considerably from the general representation in the conventionalisation debate. What becomes central in the debate is not agribusiness dominance but what kind of small farmers are considered the subject and object of organic agriculture development. Rather than rejecting Guthman's political economy approach for creating binary oppositions, the article expands on its analytical potential to understand the empirical heterogeneity of organic forms of production and the conditions for politics that aim to create alternative economic spaces. © 2021 The Authors</t>
         </is>
       </c>
       <c r="E104" t="n">
         <v>1</v>
       </c>
-      <c r="F104" t="n">
-        <v>1</v>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -3772,15 +3846,15 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>How do grassroot NGOs in rural Myanmar express their visions for the food system? Food security and food sovereignty as entangled narratives within NGO struggles and strategies</t>
+          <t>Potential for food self-sufficiency improvements through indoor and vertical farming in the gulf cooperation council: Challenges and opportunities from the case of Kuwait</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Recent research has promoted the idea that political struggles over food systems can be understood through the concepts of food security (the right to access food) and food sovereignty (the right to exercise control over food systems). These concepts emphasise different political priorities in the social relations of food: for the former, the promotion of decent work and the strengthening of the social safety net to enhance people's abilities to put food on their plates; for the latter, the defence of land, water and resource rights, to underpin capabilities for food own-provisioning. The question we pose in this paper is how these priorities are articulated by grassroots non-government organisations working at the frontline of global food poverty? Interviews with 22 representatives of food-related non-government organisations in Myanmar were used to elicit narratives about how they understood their challenges. The paper finds that narratives did not cohere exclusively to either the food security or food sovereignty concept, but blended ideas associated with the political priorities of both in complex and contradictory ways. These insights lend important firsthand evidence to the argument that supports a multi-dimensional framing of the politics of food that is inclusive of the diverse struggles highlighted by food security and food sovereignty concepts. © 2019 Victoria University of Wellington and John Wiley &amp; Sons Australia, Ltd</t>
+          <t>The countries of the Gulf Cooperation Council (GCC) are considered food secure due to their ability to import sufficient food to meet their populations’ demand, despite considerable environmental limitations to conventional agriculture. However, over-reliance on externally produced food leaves these countries vulnerable to food shortages during crises that disrupt international production and shipping. Advanced Controlled Environment Agriculture technology has the potential to improve food self-sufficiency by multiplying vegetable crop yields while optimizing efficiency of agricultural inputs and minimizing land requirements. This paper demonstrates how approximately 15 km2 of indoor farms or less than 0.1 km2 of vertical farms could reduce or eliminate the need to import six important vegetable crops in the State of Kuwait. If properly contextualized and supported by clear legislation and well-managed regulatory bodies, indoor agriculture initiatives may provide a pathway for GCC countries to reduce their dependence on imported foods and increase resilience to food supply disruption during disasters or conflict. This case study contextualizes the need for improved food self-sufficiency in light of vulnerabilities from regional and global threats, illuminates unique challenges faced by GCC countries considering adoption of the proposed technologies, and summarizes opportunities inherent in the current legal and policy framework. © 2021 by the authors. Licensee MDPI, Basel, Switzerland.</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -3804,15 +3878,15 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>National general truck drivers' strike and food security in a Brazilian metropolis</t>
+          <t>The power to convene: making sense of the power of food movement organizations in governance processes in the Global North</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Objective: We analysed the impact of the national general truck drivers' strike on the availability, variety and price of foods sold by a food supply centre.Design: Descriptive study using secondary data to examine the percentage change in the mean price of fruits, vegetables and eggs before, during and after the strike. The strike in Brazil lasted 10 d from 21 to 30 May 2018. The drivers were on strike in order to make diesel oil tax-free and to obtain better working conditions.Setting: The food supply centre, named CEASA-Minas Grande BH, was located in the metropolitan area of a Brazilian city.Participants: We examined twenty types of foods.Results: After 10 d, there was a ~30 % reduction in the availability of all types of foods and prices increased. Foods with the highest price increases included cabbage (233·3 %), potatoes (220·0 %), papaya (160·0 %) and oranges (78·6 %). At the end of the strike, we observed reductions in the price of eggs, fruits, vegetables, roots and tubers; however, some foods remained more expensive than before the strike, including chayote (203·2 % higher), cucumber (66·7 % higher) and potatoes (60·0 % higher).Conclusions: The general truck drivers' strike was correlated with a reduction in the availability of food and, consequently, increases in price and possibly restrictions on access. The strike demonstrated the dependence of metropolises on road transportation and the conventional market. We speculate that initiatives aiming to shorten the food supply chain and promote food sovereignty and resilience of the supply circuits could be important. © The Authors 2019.</t>
+          <t>Dominant food systems, based on industrial methods and corporate control, are in a state of flux. To enable the transition towards more sustainable and just food systems, food movements are claiming new roles in governance. These movements, and the initiatives they spearhead, are associated with a range of labels (e.g., food sovereignty, food justice, and community food security) and use a variety of strategies to enact change. In this paper, we use the concept of relational fields to conduct a post-hoc analysis of nine cases, examining how social movement organizations and other actors actively create new deliberative governance spaces. We argue that successes are related to the “power to convene,” a process-oriented approach that increases movements’ capacity to mobilize; leverage different types of power; and integrate, coordinate, and build a systems-oriented vision. The power to convene and create deliberative spaces is demonstrated in a variety of contexts and often results in outcomes that further movement aims, including policy change and repositioning food movement actors vis-à-vis others in the field. Our findings suggest that success is not only measured as policy outcomes, but as an advantageous repositioning of social movement actors that enables them to be part of governance processes beyond simple policy advocacy. © 2020, Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -3836,22 +3910,24 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Flux, unrelenting–the struggle for local seed sovereignty in Nicaragua</t>
+          <t>Convivial Agriculture: Evolving Food and Farming Activism in South China</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Most farmers are not activists. They make, however, their own sense of the world and act–sometimes quite stubbornly–according to that sense given, grasping what they perceive as opportunities, and protecting what they feel as essential for their livelihood. Political projects for Nicaraguan society, international policy-making, corporate strategies and imperial ambitions engage with and affect the varieties grown locally. The article analyses the creativity and political potential, as well as the contradictions and inconsistencies of the quotidian practice of seed saving under extreme constraint in light of the major struggles about Nicaraguan seed legislation. © 2020, © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>The Chinese community-supported agriculture (CSA) movement is notable for advocating a revival of peasant farming and food sovereignty. For the emerging food politics in China, the main focus is the promotion of “ethical” food in the context of food scares. Currently this promotion often relies overwhelmingly on an emphasis of ethics of trust through certification of food by intermediaries. Yet, there is controversy among CSA activists, who question whether a certifying practice can improve the relationship between consumer and producer. This paper will present an emerging alternative approach within Chinese CSA circles that focuses on strengthening participatory culture within the consumer-producer nexus. To do so, I will shed new light on the experience of food and farming activism in South China since the late 1990s. The main focus is an empirical study of Chengxianghui (CXH), an organisation that operates various consumer-led action groups in Guangzhou. In order to conceptualise the approach by the activists, this paper outlines a normative framework referred to as “convivial agriculture” that is based on the Guangdongbased practice of the Participatory Guarantee System (PGS). The framework aims to recognise and negotiate responsibilities among different actors caring for the “agricultural commons.” © 2021. China Perspectives. All Rights Reserved.</t>
         </is>
       </c>
       <c r="E107" t="n">
         <v>1</v>
       </c>
-      <c r="F107" t="n">
-        <v>1</v>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -3868,22 +3944,24 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>State food security and people’s food sovereignty: competing visions of agriculture in China</t>
+          <t>Caliata: An Indigenous Community in Ecuador Offers Lessons on Food Sovereignty and Sustainable Diets</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>This article examines reactions to global agribusiness concentration in the People’s Republic of China (PRC). In many countries, there is a trend of agribusiness concentration among relatively few multinational corporations (MNCs), which is often challenged by various forms of resistance from local food movements. The article identifies distinct overlap in discourses within the PRC. Arguments made by Chinese state/corporate actors and those by actors from alternative food movements focus on contesting global agricultural capital. These commonalities reveal a discursive battleground in China that creates unique constraints (and opportunities) for food activists, given state food security priorities. © 2018, © 2018 Canadian Association for the Study of International Development (CASID).</t>
+          <t>Background: To achieve a healthy sustainable food system globally, it is imperative to understand how local food systems can provide healthy and sustainable conditions. Objective: To explore, through the indigenous community of Caliata in the Ecuadorian highlands, the factors that support or hinder sustainable Andean food systems. Methods: We designed a participatory mixed-methods study in Caliata (Chimborazo, Ecuador) and an inclusive and transdisciplinary research process with constant member checking. The study combined culturally validated qualitative methods (n = 49), agroecology-based site analysis, and household surveys (n = 57), including a modified 48-h recall. We used the NOVA food classification system to categorize the diet according to levels of processing and analyzed categorical and numeric data to understand the interplay of parcel size, agrodiversity, and diet diversity. Results: First, the agroecological space is defined by the stewardship of Pachamama (Mother Nature), a central role in Andean cosmovision, leading to trophic interactions and cycles characterized by a diversity of heterarchical social organizations and agroecologically useful species. Second, consistency was found in dietary patterns; all respondents consume their produce, fruits being the most popular snack (in a 24-h period, 70% reported an average of 2.2 servings), and two-thirds of households' consumption represent unprocessed or minimally processed foods. Third, gendered agriculture and population aging represent demographic challenges, while chronic health problems remain relatively infrequent compared with the general population. Fourth, food sovereignty is an ecocentric concept based on production, exchanges of seeds and produce, consumption of produce, and knowledge of how agroecological space is treated. This system represents a nutrient loop tied to a system of knowledge about how to care for soil, land, and the ecological community. Conclusions: Caliata provides important perspectives on linkages between diet, biodiversity, use of agroecological space, and rural-urban dynamics. This small indigenous community offers lessons for achieving both healthy ecosystems and food security. © 2021 The Author(s) 2021. Published by Oxford University Press on behalf of the American Society for Nutrition.</t>
         </is>
       </c>
       <c r="E108" t="n">
         <v>1</v>
       </c>
-      <c r="F108" t="n">
-        <v>1</v>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -3900,22 +3978,24 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Mobilising for food sovereignty: The pitfalls of international human rights strategies and an exploration of alternatives</t>
+          <t>Can public universities play a role in fostering seed sovereignty?</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>This article considers the role played by the language of human rights in a global campaign for food sovereignty. Led initially by the international peasants’ movement, Vía Campesina, the campaign opposes the globalisation of agricultural markets and neoliberal interventions in food production. Alongside other strategies, the campaign makes creative use of human rights and also seeks their institutionalisation in a UN Declaration on the rights of peasants. An examination of how the campaign employs human rights reveals a more complicated process than that suggested by the theoretical polarisation of ‘top down’ and ‘bottom up’ accounts of rights development in the sociology of human rights. It demonstrates both wariness of state power and attempts to harness the power of the state against international forces. It also shows that a desire for legal reform co-exists with the struggle for more radical social and political transformations. © 2017 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Across Canada and the United States, public universities were founded with a mission to contribute to broad societal well-being. Yet, the capacity of public research institutions to develop and disseminate flexible and accessible tools for resilient agriculture has been challenged in recent decades. The role of universities in advancing extractive, rather than regenerative, economies has been amplified by the privatization of public agricultural research and extension of knowledge to farmers, particularly in plant breeding and plant genetics. In this article, we examine the history of public research for seed systems in North America through a “seed regimes” framework, arguing that a narrow focus on commercialization of public research has exacerbated inequalities inherent in the founding structure of public agricultural research, including the displacement of Indigenous land and seed relations. We then discuss how community organizations are challenging the enclosure of seed through seed sovereignty organizing and freelance plant breeding, in some cases through the development of community–university partnerships based on the principles of the cocreation of knowledge. We conclude by offering a reimagined public seed research agenda that focuses on strengthening links between public research and grassroots seed movements, as an opportunity to build more resilient seed and food systems. Copyright: © 2021 The Author(s).</t>
         </is>
       </c>
       <c r="E109" t="n">
         <v>1</v>
       </c>
-      <c r="F109" t="n">
-        <v>1</v>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -3932,15 +4012,15 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Extrafamilial farm succession: an adaptive strategy contributing to the renewal of peasantries in Austria</t>
+          <t>Food Sovereignty for Whom? Food Poverty, Innovative Public Work Projects and the Authoritarian State</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>This article examines extrafamilial farm transmission, a process that brings together elderly farmers without successors and young people who aspire to farm but face various economic, social and cultural barriers to enter into the sector. First-hand accounts of the process from Austrian smallholders are systematically analysed to produce a stage-by-stage model. The multigenerational non-familial agrarian partnership this represents offers an alternative mechanism for maintaining small-scale food production and improving food security and food sovereignty. It is recommended as an adaptive strategy for the survival and re-generation of peasantry in the twenty-first century. © 2018, © 2018 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>In Hungary, public work-based municipal projects played a major role in handling welfare challenges, such that the rise of a precarious rural underclass posited following the postsocialist disembedding of marginalised rural societies from the economy. Given the conditions of an authoritative populist state, this paper explores, using examples of case studies located in disadvantaged rural municipalities, innovative agrarian public work projects, as expressions of the relative freedom of action of local welfare states. Following the critical thinking inspired by Polányi's theory (1944), it sheds light on these efforts, from countermovements to the neo-liberal disembedding of the economy from society including theories on food sovereignty movements. Thus, it reflects upon the degree to which these agricultural activities could be seen as part of a broader countermovement to the social disintegration of nural areas that emerged in the context of the transition to capitalism. © 2021 StudienVerlag. All rights reserved.</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -3964,15 +4044,15 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Do we need to categorize it? Reflections on constituencies and quotas as tools for negotiating difference in the global food sovereignty convergence space</t>
+          <t>The unwanted heritage of prefabricated wartime air raid shelters—underground space regeneration feasibility for urban agriculture to enhance neighbourhood community engagement</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Convergence–as an objective and as a process–designates the coming together of different social actors across strategic, political, ideological, sectoral and geographic divides. In this paper, we analyze the global food sovereignty movement (GFSM) as a convergence space, with a focus on constituencies and quotas as tools to maintain diversity while facilitating convergence. We show how the use of constituencies and quotas has supported two objectives of the GFSM: alliances building and effective direct representation in global policy-making spaces. We conclude by pointing to some convergence challenges the GFSM faces as it expands beyond its agrarian origins. © 2018, © 2018 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>The article deals with the problematic heritage associated with the system of Nazi German underground air raid shelters currently located within the Polish state, in the Baltic port city of Szczecin. The unwanted heritage has been inventoried, archival materials collected, and comparative analyses made of ways in which the underground space can be revitalised. An attempt was made to develop a typology of existing shelters and their locations. In order to overcome the negative associations with the warlike military space, positive system solutions were sought for the productive use of existing concrete structures located underground in central, easily accessible areas of the city districts. A process of upcycling the space was used to make ecologically efficient use of the material resources contained in the shelters. In order to activate the local community, a modular, hydroponic plant-growing system, adapted to the prefabricated spaces of the historical air raid shelters, was proposed. In this way, the central location of the underground structures within the boundaries of residential neighbourhoods was exploited. Such action strengthens the food sovereignty of the inhabitants, initiates bottom-up activity within the boundaries of the neighbourhood unit, and builds social ties in the spirit of a regenerative economy and positive sustainability. © 2021 by the authors. Licensee MDPI, Basel, Switzerland.</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -3996,15 +4076,15 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Land of plenty, land of misery: Synergetic resource grabbing in Mozambique</t>
+          <t>The methodological strategies of agroecological research and the values with which they are linked</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Global climate change policy enforcement has become the new driving force of resource grabbing in the context of the "scramble of resources" in Africa. Nevertheless, the environmental crisis should not be seen as an isolated phenomenon amid contemporary capitalism. On the contrary, a very distinct feature of the current wave of land grabs is the convergence of multiple crises, including food, energy/fuel, environmental, and financial. The Southern Mozambique District, Massingir, is an area with high potential regarding water sources and biodiversity. It recently became a host of a biofuel project, and also a huge block of land is being transformed into a conservation/tourism area; answering to many issues within capitalism's crisis, this area is an evidence of how synergetic resource grabbing can arise as a response to the convergence of multiple crises. Therefore, by analyzing the emerging politics of natural resources in Massingir District and the dynamics regarding the land-use change, changes in property relations, it is possible to understand how rural livelihoods are shaped. Risks related to food security and sovereignty, loss of control and access to resources, consistent narrowing down of the set of livelihood strategies, and inter-community conflicts over scarce resources are the main implications of such emerging climate-smart land politics. © 2019 by the authors.</t>
+          <t>The characteristic features of some of the methodological strategies adopted in scientific research in agroecology are discussed. They reflect that agroecology, as an approach to scientific research, is inextricably entangled with the other strands of agroecology (farming practice, social movement, political project); and that adopting agroecological strategies, and upholding the values of environmental sustainability, food sovereignty, social justice and democratic participation, mutually reinforce each other. After outlining the kinds of questions that agroecological research addresses so that it can produce knowledge that informs agroecological farming practices and the long term aspiration of agroecological movements to create an alternative agricultural/food system, and then making summary remarks about methodological strategies in general, three characteristic features of some agroecological strategies are introduced and discussed. The paper concludes with comments on the value of agroecological research. © 2021 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -4028,15 +4108,15 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Agroecologies of displacement: a study of land access, dislocation, and migration in relation to sustainable food production in the Beach Flats Community Garden</t>
+          <t>Placing the state in the contemporary food regime: uneven regulatory development in the Dominican Republic</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>In this article, the Beach Flats Community Garden is used as a case study to theorize an “agroecologies of displacement.” We argue that farmers are increasingly less singularly place-based through involuntary displacement and that displacement and dispossession can shape agricultural practices in farming communities. We follow Cohen (2010), Kerssen and Brent (2017), and others in calling for the necessity to bring a historical and focused analysis of displacement, dispossession, and the dynamics of land under capitalist systems to our understanding of the articulations of food movements, in particular transformative agroecologies. © 2018, © 2018 Taylor &amp; Francis.</t>
+          <t>This paper interrogates the role of the state in the contemporary food regime and argues that it is best understood as the outcome of uneven regulatory development. This concept centers the ways that legacy institutions and practices of previous food regimes persist and combine with neoliberal regulation. It is developed through an in-depth case study of agro-food regulation in the Dominican Republic, focusing on domestic rice production. The analysis speaks to the possibilities and limits of progressive food sovereignty politics in contexts where states simultaneously undermine socially transformative demands and mitigate some pernicious effects of hyper-marketization to secure state legitimacy. © 2019 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -4060,15 +4140,15 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Maritime Food Development Strategy as National Economic Pillar using SWOT Analysis Interpretative Structural Modelling (ISM)</t>
+          <t>Beyond sustainability in food systems: Perspectives from agroecology and social innovation</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>The rapid growth of population result in demand for food exceeds its supply capacity. The gap between the needs and availability of food is inseparable from the existing policies. The ability of a nation in fulfilling the needs of food affects the state sovereignty. The aim of research is to formulate strategies in promoting food sovereignty in maritime sector. Maritime potential can be viewed from to what extend a nation realizes and exploits the sea. This research used McKinsey 7S method, PEST analysis (Political, Economic, Socio-cultural, Technology), SWOT analysis and Interpretative Structural Modeling (ISM). This research is expected to encourage the government in national maritime food development. Based on the results of SWOT matrix analysis, the SO strategy consists of five strategies. The ST strategy consists of five strategies. The WO strategy consists of five steps while the WT strategy consists of two steps. In the hierarchical structure model, it can be seen that WT-2 Strategy is at the first level. WO-5 strategy is at the level of strategy 2. Level of strategy 3 consists of six sub-strategies. Level of strategy 4 has three sub-strategies. Level of strategy 5 consists of six sub-strategies. © Medwell Journals, 2019</t>
+          <t>Food security faces many multifaceted challenges, with effects ranging far beyond the sectors of agriculture and food science and involving all the multiscale components of sustainability. This paper puts forward our point of view about more sustainable and responsible approaches to food production research underlying the importance of knowledge and social innovation in agroecological practices. Increased demand for food worldwide and the diversification of food choices would suggest the adoption of highly productive, but low-resilient and unsustainable food production models. However, new perspectives are possible. These include the revitalization and valorization of family-based traditional agriculture and the promotion of diversified farming systems as a social and economic basis to foster social-ecological conversion. Additionally, they encompass the forecasting of the Participatory Guarantee Systems (PGS) and the drafting of a new agenda for food sovereignty. Thanks to a desk analysis, the study describes and discusses these perspectives, their trajectories and action research implications. The results suggest the need to adopt a more inclusive and systemic approach to the described problems, as the solutions require the promotion of responsibility within decision makers, professionals and consumers. This appears essential for reading, analyzing and understanding the complex ecological-functional, social and economic relations that characterize farming systems, as well as mobilizing local communities. © 2020 by the authors.</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -4092,15 +4172,15 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Heritage and patrimony of the peasantry: An analytical framework to address rural development; [Herencia y patrimonios de campesinado: Un marco analítico para abordar el desarrollo rural]</t>
+          <t>Does the Arab region have an agrarian question?</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>The term “rural development” is exceptionally multifaceted, which makes it difficult to define. This and other features make it a ‘wicked problem’, which means the consequences of rural developmental problems can create other complications. To date, the important discussion of rural development has dealt with productivity and economic concerns. This discussion has many crucial aspects such as the environment, infrastructure, and respect for fundamental rights. This paper describes the ‘Heritage and Patrimony of the Peasantry’ as an alternative analytical framework for addressing rural development. This analytical framework takes important topics from other rural development perspectives (primarily focused on food sovereignty principles). The heritage and patrimony of the peasantry framework moves away from the market point of view, which converts everything into an asset that can be marketed, and utilizes other sources of heritage. The peasantry has seven kinds of ‘ heritages’ or ‘patrimonies’: natural, cultural, economic, physical, social, institutional, and human. These heritages or patrimonies are the bases of construction for a decent standard of living which will accomplish full rights for all rural inhabit-ants, i.e. rural development. © 2019, Universidad Nacional de Colombia. All rights reserved.</t>
+          <t>Discussion on food sovereignty and agro-ecology, and Anglophone rural sociology have blind spots when it comes to the Middle East/North African (Arab) region. This article explores them; outlines some initial concepts, discusses avenues for research, and notes some socio-political features of the region which make it distinct from others. It focuses on the necessity to include war and the national question to understand the regional agrarian question and advances and retreats in regional knowledge production. It proceeds by (1) establishing the relative absence of the region from the leading peasant studies journals; (2) synthesizing the region’s political economy and waves of knowledge production; (3) highlighting local traditions which speak to the questions of food sovereignty and agro-ecology; and (4) listing a series of theoretical, historical, and analytical avenues which remain to be addressed. © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -4124,15 +4204,15 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Integration model of food security system and food sovereignty system in Indonesia</t>
+          <t>Mainstreaming agricultural biodiversity in traditional production landscapes for sustainable development: The Indian scenario</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>This research is important to integrate Food Security system with Food Sovereignty system. Starting from the current condition that the Food Security has not been integrated with Food Sovereignty system yet. It is known that Food Security system is developed by free market economy system, while Food Sovereignty system is determined based on national interest of a country in choosing food system considered suitable to be applied in its country. For the current condition in Indonesia, the food system still refers to the Food Security system. The Government does not have capacity to intervene the market directly and consequently, the number of food imports becomes high and the welfare of farmers slumps. Through this research, it is necessary to arrange and adapt the application of Integrated Model construction of Food Security System Integration and Food Sovereignty to Achieve Sustainable Food Self-Sufficiency in Indonesia. This research was conducted by using juridical-empirical approach which is oriented to holistic study and in its process, legal discipline gets the assistance of related discipline, such as economics, politics, technique, environment, human rights, social, and culture. The analysis of the research object was conducted through legal analysis. in addition to library research, data collection techniques used is field surveys and the analytical technique used is Cost-Benefit-Analysis (CBA).The result of this research is the arrangement of Integration Model Construction of Food Security System and Food Sovereignty to Achieve Sustainable Food Self-Sufficiency in Indonesia. © 2019, Institute of Advanced Scientific Research, Inc.. All rights reserved.</t>
+          <t>Mainstreaming biodiversity in production landscapes ensures conservation and sustainable use of agricultural biodiversity, the key objectives of the Convention on Biological Diversity (CBD) and the projects supported by the United Nations Environment Program (UNEP) Global Environment Facility (GEF). Mainstreaming integrates biodiversity in existing or new programs and policies, both cross‐sectoral and sector‐specific. The conventional model of agricultural production with limited diversity in production systems and use of high chemical input has taught us a valuable lesson as it is adversely impacting the environment, the essential ecosystem services, the soil health and the long term sustainability of our food systems. Using a qualitative participant observation approach, our study investigated four distinct traditional Indian production landscapes to gage (i) the farming communities’ response to institutional policies, programs and agricultural biodiversity‐related activities in traditional Indian production landscapes and (ii) opportunities and challenges for sustainable development in smallholder traditional Indian farming systems. Results indicate that the top‐down decision‐making regime is the least effective towards achieving sustainable development in traditional Indian farming landscapes and that farmers’ experiential knowledge on participatory biodiversity management, maintenance and use for sustainable development are of critical importance to India’s agriculture and economy. Reclaiming agriculture’s spiritual roots through organic farming and locally grown food emerged as key, including the need for designing and implementing a more sovereign food system. Revisiting traditional smallholder farming under the COVID‐19 pandemic and lessons learned for repurposing India’s agricultural policy are also highlighted. © 2020 by the authors. Licensee MDPI, Basel, Switzerland.</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -4156,15 +4236,15 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>The territorial policy of rural development in brazil: Questions and reflections about the reconnection between production and consumption of food; [A política territorial do desenvolvimento rural no Brasil: Perguntas e reflexões sobre a reconexão entre produção e consumo de alimentos]; [La política territorial del desarrollo rural en Brasil: Preguntas y reflexiones sobre la reconexión entre producción y consumo de alimentos]</t>
+          <t>Competing food sovereignties: GMO-free activism, democracy and state preemptive laws in Southern Oregon</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Short marketing circuits and territorial rural development policies emphasize the importance of the reconnection between food production and consumption, with repercussions on the food security and sovereignty of local populations. For this, we analyzed official documents of the Program for the Sustainable Development of Rural Territories, the Citizenship Territories Program, the Territorial Development Plans, as well as field research on projects carried out in three rural territories and citizenship in the South of Brazil. From this analysis, it is possible to think of the strengthening of short circuits as the mechanism to promote rural territorial development. © 2019, Pontificia Universidad Javeriana. All rights reserved.</t>
+          <t>Indicators of food sovereignty and food democracy center on people having the right and ability to define their food polices and strategies with respect to food culture, food security, sustainability and use of natural resources. Yet food sovereignty, like democracy, exists on multiple and competing scales, and policymakers and citizens often have different agendas and priorities. In passing a ban on the use of genetically-modified (GMO) seeds in agriculture, Jackson County, Oregon has obtained some measure of food sovereignty. Between 2016 and 2017 ethnographic research was undertaken in rural Southern Oregon where local community and State of Oregon priorities regarding the use of GMO crops are in conflict. This article presents ethnographic research findings about the expression and negotiation of multiple food sovereignties by civil society in rural southern Oregon and the State of Oregon via democratic processes. In particular, these findings illustrate the effects of socio-political power dynamics on local and state acts of food sovereignty, democracy and agrifood policy by analyzing what the different expressions of food sovereignty reveal for its implementation at the local level. © 2020, Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E117" t="n">
@@ -4188,15 +4268,15 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Food democracy as ‘Radical’ food sovereignty: Agrarian democracy and counter-hegemonic resistance to the neo-imperial food regime</t>
+          <t>Food sovereignty and neo-extractivism: limits and possibilities of an alternative development model</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>This article argues that a thoroughgoing and meaningful food democracy should entail something closely akin to ‘radical’ food sovereignty, a political programme which confronts the key social relational bases of capitalism. The latter comprise, in essence, ‘primitive accumulation,' the alienability or commodification of land and other fundamental use values, and market dependence. A thoroughgoing food democracy of this kind thus challenges the structural separation of the ‘economic’ and ‘political’ spheres within capitalism and the modern state (the state-capital nexus), a separation which enables purely political rights and obligations (‘political’ freedom or formal democracy) whilst simultaneously leaving unconstrained the economic powers of capital and their operation through market dependence (‘economic’ unfreedom or the lack of substantive democracy). We argue that much ‘food democracy’ discourse remains confined to this level of ‘political’ freedom and that, if food sovereignty is to be realized, this movement needs to address ‘economic’ unfreedom, in other words, to subvert capitalist social-property relations. We argue further that the political economy of food constitutes but a subset of these wider social relations, such that substantive food democracy is seen here to entail, like ‘radical’ food sovereignty, an abrogation of the three pillars upholding capitalism (primitive accumulation, absolute property rights, market dependence) as an intrinsic part of a wider and more integrated movement towards livelihood sovereignty. We argue here that the abrogation of these conditions upholding the state-capital nexus constitutes an essential part of the transformation of capitalist social-property relations towards common ‘ownership’?or, better, stewardship?of the means of livelihood, of which substantive food democracy is a key component. © 2019 by the author; licensee Cogitatio (Lisbon, Portugal).</t>
+          <t>Food sovereignty and neo-extractivism are two highly contentious concepts that have emerged in the development studies literature and as development alternatives pursued predominantly by governments in Latin America. This paper engages with both Critical Development Studies (CDS) and Critical Globalization Studies (CGS) to analyze the dynamics of this post-neoliberal model in Bolivia, providing insights into the convergences and contradictions of neo-extractivism and food sovereignty. Rather than challenging or transforming the neoliberal model of development, it is argued that the post-neoliberal model has been used strategically by states to gain and maintain legitimacy while facilitating and even exacerbating exploitative forms of extractivism for the accumulation of wealth and power. This has been possible, in part, due to the contradictory class positions that have materialized as the rural poor are increasingly dependent upon, and adversely incorporated into, new ‘modes of extraction’. © 2019 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -4220,15 +4300,15 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Could social farming be a strategy to support food sovereignty in Europe?</t>
+          <t>The Revolutionary Potential of Food Sovereignty: Applying Lenin’s Insights on Dialectics, the State, and Political Action</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Food sovereignty (FS) aims to obtain value-added products in proximity agriculture (PA) in order to achieve food security in a country. Social farming (SF) can help to develop this PA as well as favoring integration of people at risk of social exclusion (RSE). The methodology includes a review of the literature, a survey of 161 SF projects in Catalonia, and ten selected in-depth interviews. “Social Return on Investment” (SROI) methodology is also applied to assess the efficiency of the projects analyzed. The results show the economic, social, and environmental viability of the majority of the SF projects which, also favored by FS and PA, allows the development of innovative experiences and sustainable forms of governance. SF has been carried out in different ways in European countries, although with the common aims of benefitting people at RSE, and using the natural environment and PA through projects basically promoted by Third Sector entities. Management of these projects is in the hands of foundations and non-profit companies making top-down decisions, and in cooperatives and associations, where decision-making is bottom-up. It can be concluded that the promotion of SF can favor PA, and therefore, FS in Europe. © 2019 by the authors. Licensee MDPI, Basel, Switzerland.</t>
+          <t>This essay elaborates a conception of sovereignty that highlights its revolutionary potential. Its argument addresses the nature of different movement strategies in the ongoing struggle for food sovereignty and how movements ought to confront the state while simultaneously using it to create a transformative, potentially anticapitalist form of governance. This claim is built from critiques of the state and sovereignty in studies of radical democracy. The essay then presents how Lenin connects sovereignty to proletarian governance. A revolutionary conception of sovereignty, developed by placing discussions of Lenin’s work in dialogue with practices of food sovereignty, is found in collective political action that suspends state power and challenges private property to create alternative economic and noneconomic forms of organization. This dialectical rendering of sovereignty entails constructing a new order by simultaneously conflicting with and acting through the existing one. © 2021 Association for Economic and Social Analysis.</t>
         </is>
       </c>
       <c r="E119" t="n">
@@ -4252,22 +4332,24 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>My land is my food: Exploring social function of large land deals using food security–land deals relation in five Eastern European countries</t>
+          <t>The Right to Seeds and Legal Mobilization for the Protection of Peasant Seed Systems in Mali</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Food security provides a major topic for this study and the recurring point is food security–agricultural land relation. The analysis is grounded on the assumption that control over agricultural land means control over food. Effective control over land is one of the riskiest issues of large land deals. Permanent supply and sustainable access to quality food is influenced by structural socio-economic and political arrangements targeting agricultural land which often prevent individuals and entire communities from acquiring basic competencies and rights for their autonomy. The objective of the study is two folded: to investigate five Eastern European countries characteristics which are valued as determinants of food security–large land deals relation and to highlight the social utility of agricultural land property. Thus, the substantive theme of this study grows out of several observed streams of large land deals. In the first part, historical and economic influential factors connected to large land deals in Eastern Europe are approached, within the context of transition from centrally planned state economy to free market economy. The second part takes up the challenge to analyze the correlation between country characteristics that can impact on food security–land transaction relationship. Then, the paper goes on to introduce and explain, following Léon Duguit's theory of social utility, aspects about the social function of agricultural land ownership. Based on non-parametric tests, which included a set of 14 socio-economic variables, the results show, for example, a strong positive correlation between the size of closed land deals and both the size of country land area and of land under cereal production. The paper concludes with several proposals targeting fair land arrangements and practices that have the potential to transform themselves in building blocks for future policies dedicated to sustainable land management and food security. © 2019 Elsevier Ltd</t>
+          <t>This article discusses the right to seeds and legal mobilization for the protection of peasant seed systems in Mali. It centres on the ongoing 'Seed, Norms and Peasants' process ('Semences, Normes et Paysans', SNP), the goal of which is to achieve the recognition of peasant seed systems in the law. Through the lens of human rights practice, the article explores how peasant organizations and allied NGOs have: A) converged around a shared political agenda despite initial disagreement on the role of certified seeds; b) framed the right to seeds as a collective right, grounded in customary regimes for the governance of land and natural resources; and c) engaged in dialogue with the state to push for legal reform. It further discusses processes of legal transfers and seed aid that have ushered the development of a commercial seed sector in Mali and locates peasant seed systems within the political economy of seeds in the country. © 2021 The Author(s). Published by Oxford University Press. All rights reserved.</t>
         </is>
       </c>
       <c r="E120" t="n">
         <v>1</v>
       </c>
-      <c r="F120" t="n">
-        <v>1</v>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4284,15 +4366,15 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Beyond the “special period”: land reform, supermarkets and the prospects for peasant-driven food sovereignty in post-socialist Cuba (2008–2017)</t>
+          <t>Who is resilient in Africa's Green Revolution? Sustainable intensification and Climate Smart Agriculture in Rwanda</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>When Cuba’s trade-based food security strategy was threatened by the collapse of the socialist trading block in 1989–1991, the popular response of small and irregular farmers proved vital in providing a minimum food basket during the ensuing crisis. In 2008, a large-scale land reform sought to expand this development towards food sovereignty. We evaluate the reform impacts, finding that after an initial surge in 2009–2010, food production and land use have rebounded and stagnated at pre-reform levels. Peasant-led agricultural development is forestalled by inaccessibility of appropriate technologies, perceived land tenure insecurity, missing/deficient markets and competition from import-based supermarket chains. © 2019, © 2019 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Under the banner of a “New Green Revolution for Africa,” agricultural intensification programs aim to make smallholder agriculture more productive as well as "climate smart". As with Green Revolutions in Asia and Mexico, agricultural innovations (hybrid seeds, agronomic engineering, market linkages,and increased use of fertilizer and pesticides) are promoted as essential catalysts of agriculture-led economic growth. Intensification programs are now frequently linked to Climate Smart Agriculture (CSA), which attempts to build resilience and reduce greenhouse gas emissions while increasing crop yields. This article considers who and what is resilient in Africa's Green Revolution. We report on a multi-season study of smallholder food producers' experiences with Rwanda's Crop Intensification Program (CIP) and related policies that aim to commercialize subsistence agriculture while implementing CSA. We suggest that there are fundamental limits to the climate resilience afforded by CSA and development efforts rooted in Green Revolution thinking. Our findings illustrate that such efforts foreground technology and management adjustments in ways that have reduced smallholder resilience by inhibiting sovereignty over land use, decreasing livelihood flexibility, and constricting resource access. We put forth that rural development policies could better promote climate-resilient livelihoods through: 1) adaptive governance that enables smallholder land use decision-making; 2) support for smallholder food producers’ existing agro-ecological strategies of intensification; 3) participatory approaches to visualize and correct for inequalities in local processes of social-ecological resilence Such considerations are paramount for meeting the United Nations Sustainable Development Goals and building climate-resilient food systems. © 2020 The Authors</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -4316,15 +4398,15 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Can the state take agroecology to scale? Public policy experiences in agroecological territorialization from Latin America</t>
+          <t>Pampean agroecologies. Instituting eco-logics of local food production; [Agroecologías pampeanas. Eco-lógicas instituyentes de producción local de alimentos]</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>In this article we use a food sovereignty frame to analyze the role of the State in favoring agroecological scaling, particularly in Cuba and in the Latin American countries that elected leftist governments in the first years of the 21st century and currently face an upsurge of right-wing political forces. As with social movement participation in international governance structures, at the national level social movements face risks when they allow themselves to become absorbed in collaborations with the State in order to build public policy for taking agroecology to scale. By participating in the institutionalization of agroecology, movements become part of the established rules of the game, having to move within limits defined by a system that exists to preserve the interests of the dominant class. On the other hand, by boycotting the arena of governance, agroecological movements allow resurgent political and economic elites to grab land, territories and resources needed for agroecological food systems to ever become a global substitute for industrial agriculture. At the heart of the matter is the political character of agroecology: shall we continue betting on reform, in times of (counter) revolution?. © 2019, © 2019 Taylor &amp; Francis Group, LLC.</t>
+          <t>In this paper we explore the anthropological question about “how” agroecology is produced, which will enable us to move from the inquiry into agroecology, in the singular and as a normative framework, towards agroecological practices, in the plural and anchored in the daily activities of people. We will put in the foreground the experiences of our interlocutors to characterize the ways of create and reproduce rural life and work in four establishments in the Pampas region of the province of Córdoba, Argentina, trying to mark the variability between them, as well as to extract some premises that constitute the logic that organizes and structures its production practices. It was identified that they operate an agro-eco-logic that puts the relations between species and entities in the primary activity at the center and allows to show a co-production of food. That network of relationships is a condition of possibility so that they can resist and exist, to create ways of living and working on the margins of agribusiness hegemony. Finally, we will reflect on the relationships that are established between agroecology and agribusiness. © 2021</t>
         </is>
       </c>
       <c r="E122" t="n">
@@ -4348,22 +4430,24 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Enhancing smallholder resilience through place-based knowledge and resource generation</t>
+          <t>COVID-19 impacts on agriculture and food systems in Nepal: Implications for SDGs</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Rice systems are of particular significance to building climate resilience in the Philippines. This research brief summarizes a case study that comparatively measures differences in climate resilience between organic and conventional rice systems in four neighboring villages in Negros Occidental Province, as well as explores features of smallholder rice systems that are significant to building resilience. Data were collected through surveys, interviews, focus groups, and participant observation. A participatory approach was applied to account for socioecological context and to identify targeted interventions for enhancing climate resilience based on local conditions and farmer experiences. The results indicate that (a) of the participating rice systems, organic systems exhibit greater resilience than their conventional counterparts; (b) the current institutional arrangement prevents smallholders from transitioning to organic; and (c) a polycentric food sovereignty development approach helps Philippine smallholders overcome these institutional barriers, as well as builds smallholder capacities for resilience by supporting place-based knowledge and resource generation. More effort is needed to explore, analyze, and strengthen such polycentric food sovereignty interventions for climate change. © 2019 by the Author.</t>
+          <t>The objective of this study was to understand the impacts of COVID-19 crisis in agriculture and food systems in Nepal and assess the effectiveness of measures to deal with this crisis. The study draws policy implications, especially for farming systems resilience and the achievement of SDGs 1 and 2. The findings are based on (i) three panel discussions over six months with policy makers and experts working at grassroots to understand and manage the crisis, (ii) key informants' interviews, and (iii) an extensive literature review. Results revealed that the lockdown and transport restrictions have had severe consequences, raising questions on the achievement of SDGs 1 and 2, especially in the already vulnerable regions dependent on food-aid. This crisis has also exposed the strengths and limitations of both subsistence and commercial farming systems in terms of resiliency, offering important lessons for policy makers. Traditional subsistence farming appears to be somewhat resilient, with a potential to contribute to key pillars of food security, especially access and stability, though with limited contributions to food availability because of low productivity. On the other hand, commercial farming - limited to the periphery of market centres, cities, and emerging towns and in the accessible areas - was more impacted due to the lack of resilient supply networks to reach even the local market. Lower resiliency of commercial farming was also evident because of its growing dependence on inputs (mainly seeds and fertilizer) on distant markets located in foreign countries. The observation of crisis over eight months unleashed by the pandemic clearly revealed that wage labourers, indigenous people, and women from marginalized groups and regions already vulnerable in food security and malnutrition suffered more due to COVID-19 as they lost both external support and the coping mechanisms. The findings have implications for policies to improve both subsistence and commercial farming systems – in particular the former by improving the productivity through quality inputs and by diversifying, promoting and protecting the indigenous food system, while the latter through sustainable intensification by building reliant supply network linking farming with markets and guarantying the supply of inputs. © 2020</t>
         </is>
       </c>
       <c r="E123" t="n">
         <v>1</v>
       </c>
-      <c r="F123" t="n">
-        <v>1</v>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4380,15 +4464,15 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Globalisation and food sovereignty: Impact of foreign direct investments and government expenditure in Ghana in 2001–2010</t>
+          <t>Opportunities and barriers in diversified farming and the use of agroecological principles in the Global North–The experiences of Danish biodynamic farmers</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>The article looks at the globalisation effects on food availability in Ghana. The aim of the article is to analyse which of the selected macroeconomic indicators have a statistically significant impact on the increase of food availability in the country. Impacts of foreign direct investments on agriculture and government expenditures in agriculture have been tested. Correlation analyses and multiple regression analyses have been used to analyse the test results. Findings suggest that change in both foreign direct investments in agriculture and government expenditures in agriculture cause significant change in food availability in Ghana. At the same time, the impact of government expenditures on the amount of available food is in the case of Ghana more than two‑times higher than the impact of agricultural foreign direct investments, while the increase in government expenditures in agriculture does not cause a decrease in foreign direct investments in agriculture. © 2019 Mendel University of Agriculture and Forestry Brno. All Rights Reserved.</t>
+          <t>Diversification through agroecological principles may maintain and stabilize yields in an increasingly more unpredictable climate, including market price fluctuations, as well as preserve and enhance the threatened natural resource base and the environment. Based on a participatory interview process this article identifies the barriers encountered by a group of Danish biodynamic farmers striving for self-sufficient farm systems with no or very little dependency on imported materials by developing biologically, economically and socially diverse farms. Through an iterative interview process the study found that barriers outside farm management are hindering the transition toward diverse farming and that a further exploration of the need for and implications of food sovereignty in the Global North might generate the discussions needed to support implementation of more agroecological farming system practises. © 2020 The Author(s). Published with license by Taylor &amp; Francis Group, LLC.</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -4412,22 +4496,24 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Dealing with rejection: An application of the exit-voice framework to genome-edited food</t>
+          <t>No land for food: prevalence of food insecurity in ethnic communities enclosed by sugarcane monocrop in Colombia</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Genome editing has been hailed as both a revolutionary technology and potential solution to many agriculture-related and sustainability problems. However, owing to the past challenges and controversy generated by widespread rejection of genetic engineering, especially once applied to agriculture and food production, such innovations have also prompted their fair share of concern. Generally speaking, much of the discussion centers on the inadequacy or uncertainty of current regulatory regimes, partly owing to the vastly different approaches in the European Union and United States. Insofar as this focus on regulatory regimes is stimulated by the desire to bridge the divide between proponents and critics of genome editing, it risks losing sight of an essential aim of regulatory action: effectively responding to and fostering trust in consumers and the public. In this article, we thus assign priority to understanding the contours of individual dissatisfaction and its related responses. Toward this end, we apply and extend Hirschman's exit-voice framework to bring together, synthesize, and give much-needed substance to the diverse expressions of dissatisfaction and discontent with novel genome-editing technologies. Through the resulting synthetic framework, we then identify and evaluate which governance approaches can prevent actions seen to be problematic and, moreover, open up the space for a more active public. In this context, we devote specific attention to (i) use of labeling as a means to enable "exit" of consumers from markets and (ii) public deliberation as a possible expression of "voice." Indeed, both options are proposed and utilized in the context of genome editing, e.g., as a way for skeptical consumers to express their viewpoints, seek change in prevailing food systems, and navigate the conflicts and tensions from applying unique sets of values to assess the balance of risks and benefits. So far missing, though, is an evaluation of how well such efforts offer effective means for public expression, which is why we also link this framework to the wider issue of consumer sovereignty. Having done so, we conclude with a brief commentary on the potential and limitations of both options in the existing institutional framework of the EU. © 2019 Bartkowski and Baum.</t>
+          <t>Objectives: To evaluate how the food systems in areas close to sugarcane monocrops influence the prevalence of food insecurity (FI) among three ethnic communities in the upper Cauca River basin of Colombia. Methods: We developed a mixed methodology study at three rural zones located in the departments of Cauca and Valle del Cauca, Colombia, using a household survey to establish the level of FI, and semi-structured interviews with key community actors. Results: These three ethnic communities have a high prevalence of FI (' 70%) that was found to be associated with economic income, social security, gender, the presence of minors in the home, refrigerator in operation and ownership of the land. Loss of food sovereignty was associated with the sale and rental of land. Conclusions: The sugarcane monocrop has contributed to environmental crises, spatial confinement and sociocultural disruption in ethnic territories; by renting, selling or leasing their land to the industrial production of sugarcane, traditional practices of food production and self-consumption have been profoundly transformed. Ethnic cultures are endangered, while food security and sovereignty of indigenous and black communities have been negatively affected. © 2020, Swiss School of Public Health (SSPH+).</t>
         </is>
       </c>
       <c r="E125" t="n">
         <v>1</v>
       </c>
-      <c r="F125" t="n">
-        <v>1</v>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4444,15 +4530,15 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>History and challenges of Brazilian social movements for the achievement of the right to adequate food</t>
+          <t>Rural revitalization, scholars, and the dynamics of the collective future in China</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>The historical struggles that Brazil faced to overcome malnutrition coincided with the empowerment of civil society and social movements which played a crucial role in the affirmation of health and food as social rights. After two decades under military dictatorship, Brazil went through a redemocratization process in the 1980s when activism emerged to demand spaces to participate in policy-making regarding the social agenda, including food and nutrition security (FNS). From 1988 onward institutional structures were established: the National Council of FNS (CONSEA) convenes government and civil society sectors to develop and monitor the implementation of policies, systems and actions. Social participation has been at the heart of structural changes achieved since then. Nevertheless, the country faces multiple challenges regarding FNS such as the double burden of disease, increasing use of pesticides and genetically modified seeds, weak regulation of ultra-processed products, and marketing practices that affect the environment, population health, and food sovereignty. This article aims at examining the development of the participatory political system and the role played by Brazilian social movements in the country’s policies on FNS, in addition to outlining challenges faced by those policies. © 2018, © 2018 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Rural development in the Chinese state's strategy has been a changing political-economic problematic. The state has practiced a strategic essentialism with regard to ‘peasantry.' It has actively taken ‘peasantry' as a temporary unifying master-category while at the same time working with the differences within the category for the long-term goal of transformation. The post-Mao contradiction, emphasizing the protection of the ‘peasantry’ while encouraging differentiation, offers contemporary struggles both opportunity and frustration. This essay examines how the rural has been conceptualized in reform-era policies and discusses two cases of scholar activism, the rural reconstruction movement and the food sovereignty network in China. © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -4476,22 +4562,24 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Agroecology and food sovereignty</t>
+          <t>The many meanings of organic farming: framing food security and food sovereignty in Indonesia</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>We propose that agroecology provides a framework for understanding ‘levels’ for the transition to sustainable food systems. If we agree that agroecology includes social and political dimensions of governing territorial food systems, then it must be linked to movements for food sovereignty. However, the concentration of power in food and farming systems locks in industrial logic, posing immense barriers to agroecological and social transition. This creates a tension between efforts at convergence of food system innovations from below, versus co-optation of grass-roots language and practices by private and public actors who are committed not to changing the logic of industrial agriculture, but instead to reducing its harm. We suggest agroecological and food sovereignty movements consciously embrace this tension as a dance of creativity and appropriation. If this dance can be made generative rather than deadly, it can open pathways for transition to new ways of seeing, experiencing, and getting food. © 2019 The Authors. IDS Bulletin and Institute of Development Studies.</t>
+          <t>This paper contributes to the discourse on food policy, particularly in relation to organic farming in Indonesia. Organic farming was first adopted by non-state actors in Indonesia, by faith-based organisations and then by small farmer associations, while the state support for organic agriculture followed at a later date. The three groups, represented in this study by three case studies, adopt different positions with regard to the definition of organic agriculture and its relevance to food self-sufficiency, food security and food sovereignty. For Bina Sarana Bhakti Foundation (BSB), organic farming is both a spiritual worldview and a practical philosophy. For the Indonesian Peasant Union (SPI), organic agriculture foremost is a political tool to resist global capitalist agriculture. Despite their very different outlooks, both these two civil society organisations see organic agriculture as a post-materialist enterprise directed towards explicitly social-political goals. By contrast, the government’s engagement in organic agriculture, although laced with evocative phrases such as “back to nature”, is driven primarily by visions of developing a new niche market for Indonesian exports. The Indonesian State adopts a one-dimensional productivist definition that excludes different meanings and traditions of organic farming. The reduction of the meaning of ‘organic’ to ‘organically certified products’ excludes farmers who consider that they are practicing organic agriculture. We conclude that there is a strong case to be made that the State should relax its regulatory grip on the organic sector, to create room for sorely needed innovation and cooperation among the different actors involved. © 2019, The Author(s).</t>
         </is>
       </c>
       <c r="E127" t="n">
         <v>1</v>
       </c>
-      <c r="F127" t="n">
-        <v>1</v>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4508,15 +4596,15 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Social change for sustainable localised food sovereignty: Convergence between prosumers and ethical entrepreneurs*</t>
+          <t>Transition to agroecology for improved food security and better living conditions: case study from a family farm in Pinar del Río, Cuba</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Some resourceful community-driven initiatives for local food production and retail have recently appeared in Luxembourg, where low organic agricultural rates are paradoxically paired with high consumer demands. This niche of social innovators combines agro-ecology with circular economy practices. Four cases of alternative food networks are presented here – studied with qualitative interviews and participant observation. One was established in the 1980s and has about 200 employees, partly linked to social assistance. The more recent and smaller initiatives are characterised by cooperative governance, a community-supported agricultural outlook, hands-on workshops and time banks, all enabled by social media. These initiatives are more radical in their agro-ecological or permaculture practices, focusing on regenerative land use without relying on imports and fostering the integration of consumers with varying degrees of prosumer involvement. This politicised step goes further than mere (and possibly industrialised) organic production. It represents a cultural shift in the food system by attracting media and policy interest, diverting attention away from individuals and focusing instead on the collective efforts that are necessary to build a more resilient food system. Copyright © FrancoAngeli</t>
+          <t>The process of transition to agroecology of family farms is a topic of great importance in Cuba and the need to support family farming is gaining worldwide attention, while agroecology has been recognized as the most promising approach for the sustainable development of smallholder farmers. This work analyzes the process of agroecological conversion implemented by a family farm in western Cuba, highlighting the causes that enabled the process of transition and examining its effects on the family’s food security and livelihoods. The study shows how all the four aspects of food security–availability, access, stability, and utilization–have improved after the transition to agroecology, while positive impacts are also registered in soil quality, environmental sustainability, and resilience. From the point of view of economic sustainability, the transition has had high costs at the beginning but, after three years, agroecological production is resulting in increased income and better living conditions. The work also suggests actions to be implemented in order to advance in the process of transition to agroecology and hence achieve full food sovereignty. © 2020 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -4540,15 +4628,15 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Drafting a Law, Dissolving a Proposal: Food Sovereignty and the State in Ecuador</t>
+          <t>Agroholdings, Technology, And The PoliTicAl economy of russiAn AgriculTure</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Upon being sworn in as the 56th Ecuadorian President on 15 January 2007, Rafael Correa immediately convened, through a referendum, a National Constituent Assembly to draw up a new constitution. One of the concerns of the assembly was to translate into law a food-sovereignty proposal put forward by social movements. In the process of becoming law, the food-sovereignty proposal was much changed. How is it possible that the final version, the law, so far fell short of the food-sovereignty movement’s original proposal? Addressing this question implies a reflection on the role of the state. We argue that (a) instead of strengthening the role of peasants, their participation was reduced to a bureaucratic structure (a ‘council’) that lacked the capacity to define or implement policies, and (b) the issue of the social function of land and land-reform was removed. I therefore conclude that the social movements’ proposal for food sovereignty was stripped of its essentials. © 2018 SAGE Publications.</t>
+          <t>Research for this article was conducted with the support of the Swiss National Science Foundation, the Swedish Collegium for Advanced Studies, and the University of Notre Dame. This article details the rise of Russian agricultural corporations, known as the agroholdings. These companies have accumulated control of Russia’s most fertile land over the last 20 years and have become the main producers of agricultural commodities and processed food. They are also the driving force of a profound technological transformation of agriculture and food production during this time. A core claim of this article is that the technopolitics of twenty-first-century Russian agriculture made the meteoric rise of agroholdings possible. Technology was central to both the economic and political roles of these large, vertically integrated agricultural conglomerates. Agroholdings grew rapidly because they adopted cutting-edge agricultural technologies that maximized yields and economic efficiency. Agroholdings’ control of technologies earned them, in turn, the political support they needed to thrive in the state capitalist system of the Putin era. They were privileged allies of President Vladimir Putin’s government, which sought to enlist them for the political goals of strengthening domestic farming and food production and reducing Russia’s dependence on food imports. More broadly, the article suggests that a technopolitical lens recasts and improves our understanding of the political economy of post-Soviet Russia. Technopolitics reveals the role of both the state and corporate actors, of power and capital, in the construction of a new economic order and draws attention to how these processes shape post-Soviet byt. © Laboratorium: Russian Review of Social Research</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -4572,15 +4660,15 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Human ecology and food systems: Insights from the Philippines</t>
+          <t>Achieving Food Security Through Localisation, Not Aid: “De-development” and Food Sovereignty in the Palestinian Territories</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Feeding the world sustainably requires balancing social, economic, and environmental concerns. The food systems concept guides the study of social and environmental processes that influence food and nutrition security. Human ecology conceptually offers insights into the social components of a system and its interaction with environmental change. This paper demonstrates how human ecology helps identify the dominant discourses that influence dominant social drivers in food systems. This is done through documenting the historical legacies of agricultural commodity production systems in the Philippines since Spanish colonization, and the human and ecological implications of this history. The analysis shows the presence of a maladaptive system influenced by market-oriented food security as a dominant discourse. Alternative discourses focused on sovereignty and participation exist in the Philippines, however these are often marginalised from dominant policy and research programs. The paper discusses how weak feedback processes provide possible intervention points in policy or farmer-led activities to explore alternative pathways to food and nutrition security. The paper concludes with highlighting how human ecology offers useful framework for advancing food systems analysis into social, political, and policy dimensions of food activities. Such analysis can help develop new research and policies that require managing the competing discourses of how to achieve sustainable food and nutrition security. © 2018, Society for Human Ecology. All rights reserved.</t>
+          <t>Food aid is a common response to the food insecurity brought by conflict and inadequate development. Yet the very well-intentioned actions that are meant to stave off immediate humanitarian crises may, in the long-term, serve as tools that promote dependence, decrease the likelihood of sustainable development, and make peace less possible. In this article, I examine food insecurity and food aid in the conflict-affected Palestinian territories. I will describe ways in which Palestinian efforts to localise food production and increase food security are actively hindered, as well as how the system of humanitarian food assistance meant to fill these gaps may in fact perpetuate them. Finally, I discuss policy recommendations for stakeholders in the conflict that can encourage Palestinian food sovereignty in a manner that increases prospects for long-term peace and development, while providing immediate benefits for Palestinian quality of life and well-being. © The Author(s) 2020.</t>
         </is>
       </c>
       <c r="E130" t="n">
@@ -4604,15 +4692,15 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Food security and food sovereignty in West Africa</t>
+          <t>Policy pitfalls and the attempt to institutionalize agroecology in El Salvador 2008-2018</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>The paper analyzes the evolution of food security in West Africa during the last 25 years. The Millennium Development Goal One aims at halving the proportion of people who suffer from hunger by 2015. Although Sub-Saharan Africa remains far from reaching the hunger target, West Africa presents a better situation, with eight countries that will meet the target. The paper focuses on international food trade, analyzing the recent growth of food imports in West Africa and the impact of this growth on food security. The last part of the paper is focused on the case of Benin: the country achieved an important reduction in undernourishment since 1990. The analysis aims to highlight the role of short food supply chains in rural development and therefore in food security strategies. The department of Atacora, in northern Benin, is used as a case study to show the recent evolution of local food networks in a region traditionally characterized by an export-oriented agriculture. In conclusion the paper highlights the link between food security, international trade, and local food networks, showing the potential of the ‘food sovereignty’ paradigm in understanding the geographies of food in West Africa. © 2016 The African Specialty Group of the American Association of Geographers.</t>
+          <t>This paper analyzes the experience of the Salvadoran cooperative movement in pursuing a political project for the institutionalization of agroecology in the years 2008–2018, under two consecutive FMLN governments in 2009 and 2014. Following El Salvador’s “turn to the left”, Salvadoran agrarian reform cooperatives and civil society allies began to allocate organizational resources toward writing public policy measures to incorporate agroecology under the FMLN government’s agricultural social program, the Family Agriculture Plan (PAF). While the cooperative sector took part in active negotiations with the FMLN party for the institutionalization of favorable policies, the former guerrilla party formulized strategies for gaining a multiclass electorate in order to remain in power. With the intention to better understand the attitude and distinct Salvadoran actors, we utilize an anthropology of public policy framework to indicate how expectations of political party legitimacy failed to shape the institutionalization of agroecology in El Salvador. We suggest that the pursuit of agroecological policies is a balancing act of making use of the State to strengthen on the ground efforts without forging organizational disarticulation following changes in government administrations. © 2020, © 2020 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E131" t="n">
@@ -4636,22 +4724,24 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Food sovereignty and consumer sovereignty: Two antagonistic goals?</t>
+          <t>Losing practices, relationships and agency: ecological deskilling as a consequence of the uptake of modern seed varieties among South African Smallholders</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>The concept of food sovereignty is becoming an element of everyday parlance in development politics and food justice advocacy. Yet to successfully achieve food sovereignty, the demands within this movement have to be compatible with the way people are pursuing consumer sovereignty and vice versa. The aim of this article is to examine the different sets of demands that the two ideals of sovereignty bring about, analyze in how far these different demands can stand in constructive relations with each other, and explain why consumers have to adjust their food choices to seasonal production variability to promote food sovereignty and so secure future autonomy. © 2017 Taylor &amp; Francis.</t>
+          <t>Technological changes embedded in the processes of agrarian modernization have profoundly reshaped agricultural environments, practices, discourses and institutions worldwide. This article explores how social–ecological relations shift in agricultural practices following the introduction of modern seed varieties, including hybrid and genetically modified (GM) seeds and their co-technologies. Drawing on interviews and ethnographic work in smallholder maize farms in South Africa, we introduce the concept of ecological deskilling in agriculture and describe three dimensions related to it: loss of ecologically based practices, loss of relational knowledge, and loss of socio-ecological agency. Our findings suggest that the introduction of modern seed varieties may contribute to the process of ecological deskilling due to the disruption of the co-evolution of knowledge between smallholder farmers and agroecological environments. We argue that this form of deskilling can undermine food sovereignty and farmers’ agency. It can also narrow future possibilities and pathways for sustainable agricultural development. © 2021 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E132" t="n">
         <v>1</v>
       </c>
-      <c r="F132" t="n">
-        <v>1</v>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -4668,22 +4758,24 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Contested fields: an analysis of anti-GMO politics on Hawai’i Island</t>
+          <t>Farmer-plant-breeders and the law on Java, Indonesia</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>This paper details the evolution of activism against genetically modified organisms on the Big Island of Hawai’i. It offers an explanation for the ability of rural residents on the Big Island to pass anti-GMO legislation while other states and communities have tried and failed. I argue that the Big Island’s recent anti-GMO legislative success is due to the articulation of interests and actions between settlers to Hawai’i and Native Hawaiian community members seeking to protect Native Hawaiian rights. Tracing the history of the anti-GMO movement on Big Island highlights the unique circumstances that facilitated the passage of this bill, and is also significant for making sense of the potential future trajectories of anti-GMO-related food sovereignty movements elsewhere. © 2017, Springer Science+Business Media B.V.</t>
+          <t>In the last two decades, some Javanese rice farmers have learned to be plant breeders with the help of Farmer Field Schools for Participatory Plant Breeding. However, they have experienced problems with seed and intellectual property laws primarily focused on the strengthening of the seed industry and compliance with development plans. A number of farmers have been prosecuted for experimenting with seeds, prompting a partly successful challenge to relevant provisions in Indonesia’s Constitutional Court. Subsequent legislative changes have restored some farmers’ rights, but also brought new reporting requirements and limitations. Using James Scott’s concept of “transformative state simplifications,” this article shows that legal challenges to regulations are just one strategy of self-help. The political reform process and possibility for constitutional challenges have opened up space for debates about how farmers can benefit from laws that seek to regulate their cultivars. The United Nations Declaration on the Rights of Peasants and other developments are likely to intensify discussions about what precisely various laws mean by their encouragement of “small farmer varieties,” “food sovereignty,” and a “sustainable agricultural cultivation system.”. © 2020 BCAS, Inc.</t>
         </is>
       </c>
       <c r="E133" t="n">
         <v>1</v>
       </c>
-      <c r="F133" t="n">
-        <v>1</v>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -4700,15 +4792,15 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>African Green Revolution, food sovereignty and constrained livelihood choice in Mozambique</t>
+          <t>Land grabs, farmworkers, and rural livelihoods in West Africa: some silences in the food sovereignty discourse</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>This article examines the complicated food security agendas of the African Green Revolution and the food sovereignty models in Mozambique. Drawing on fieldwork conducted by the author in Mozambique in 2014 and 2015, the paper analyses how smallholder farmers engage with these two agrarian models. Whereas the literature frequently presents the African Green Revolution and the food sovereignty in oppositional frames, this paper finds that farmers in Mozambique utilize some of the tools that these models offer in complementary rather than competing ways. One such area is the use of commercial hybrid seeds and herbicides by some farmers associated with food sovereignty, an approach that runs counter to food sovereignty’s principles of agroecology. In Mozambique, farmers’ “lived experience” of food sovereignty is more a strategic response to their limited livelihood options, using whatever tools are available to them, rather than a resistance to power. © 2018, © 2018 Canadian Association of African Studies.</t>
+          <t>The global land rush has spurred small, modest, and big anti-land grab mobilizations, notably the food sovereignty movement. The movement has been instrumental in representing the interests of small-scale family farmers whose livelihoods are threatened by capitalist control over land in the countryside. However, this dominant narrative tends to overlook or de-emphasize some important diversity within the peasantry. In West Africa, anti-land grab discourses emphasize family farming as a major collective action frame, focusing less on issues related to agricultural wage labour–farmworkers’ access to land, food, and decent working conditions. If food sovereignty is to fully realize its potential power as a counter-narrative to neoliberalism, and as a possible democratic alternative for working people with differentiated and at times competing socio-economic interests, then demands that adequately reflect the agrarian struggles of the rural working people have to be put onto the agenda and engaged better than it is now. © 2020 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -4732,15 +4824,15 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>An initiative for the study and use of genetic diversity of domesticated plants and their wild relatives</t>
+          <t>Agro-ecological transition of agricultural production systems at imbabura province of Ecuador; [Transição agroecológica de sistemas de produção agrícola na província de imbabura Equador]; [Transición agroecológica de los sistemas de producción agrícola de la provincia de imbabura Ecuador]</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Domestication has been influenced by formal plant breeding since the onset of intensive agriculture and the Green Revolution. Despite providing food security for some regions, intensive agriculture has had substantial detrimental consequences for the environment and does not fulfill smallholder’s needs under most developing countries conditions. Therefore, it is necessary to look for alternative plant production techniques, effective for each environmental, socio-cultural, and economic conditions. This is particularly relevant for countries that are megadiverse and major centers of plant domestication and diversification. In this white paper, a Mexico-centered initiative is proposed, with two main objectives: (1) to study, understand, conserve, and sustainably use the genetic diversity of domesticated plants and their wild relatives, as well as the ongoing evolutionary processes that generate and maintain it; and (2) to strengthen food and forestry production in a socially fair and environmentally friendly way. To fulfill these objectives, the initiative focuses on the source of variability available for domestication (genetic diversity and functional genomics), the context in which domestication acts (breeding and production) and one of its main challenges (environmental change). Research on these components can be framed to target and connect both the theoretical understanding of the evolutionary processes, the practical aspects of conservation, and food and forestry production. The target, main challenges, problems to be faced and key research questions are presented for each component, followed by a roadmap for the consolidation of this proposal as a national initiative. © 2018 Mastretta-Yanes, Acevedo Gasman, Burgeff, Cano Ramírez, Piñero and Sarukhán.</t>
+          <t>Transitional processes from conventional agricultural systems to agro ecological production systems has been promoted at Imbabura province in Ecuador, but development difficulties have been observed, due to farmer’s decisions for embracing transition, depends not only on the technology and local resources available, but also on several aspects of the surrounding social, economic and institutional system. A research was conducted, in order to characterize the transitional agro ecological degree of production systems at Imbabura province, regarding the social cooperation activity, the natural resources management and the public policies dynamics, A stratified random sample of 50 producers was taken, to whom a questionnaire was applied. Data was analyzed by descriptive statistics. Cramer test was used to determine the relationships of each item to municipalities. Results showed that, in social dynamics, there is a high degree of trust, participation and reciprocity but it is necessary to strengthen exchange networks, also, it was observed a high degree of agro ecological and conservationist practices. Agro ecological transition is limited by public policy dynamics because there are no incentive programs and also there are few institutional incentives to support agro ecological work, even though it is established by the current Food sovereignty law. Participation and used of self-harvest seeds were related to municipality. Otavalo is the municipality that displays greater dynamism and progress in the process of agro-ecological transition. © 2020, Universidad del Zulia. All rights reserved.</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -4764,15 +4856,15 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Communication as Resistance in Food Politics</t>
+          <t>Practices of Food Sovereignty in Italy and England: Short Food Supply Chains and the Promise of De-Commodification</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>The global food system is a site of domination and resistance for those opposed to the conventional model of industrial agriculture. This article applies a political economy of communication lens to the relations of power that operate in the field of food politics where tensions involving food security, peak oil, and anthropogenic climate change present major challenges. At the heart of this trilemma social movements of small-scale farmers contest the dominant narratives that biotechnology, development, and free trade will feed the world. This article describes how farmers’ movements in Brazil, Chile, and Cuba apply resistive epistemologies in to complement for agroecological production methods. The purpose is to develop political consciousness among rural food producers and workers who are subjugated under neo-liberalism. The article also presents the challenges that members of the international farmers’ movement, La Vìa Campesina, face in advancing their political influence through participation in invited spaces such as the UN Food and Agriculture Organisation’s World Committee for Food Security. © The Author 2018</t>
+          <t>Alternative food networks are organisations of consumers and food producers that oversee and promote the functioning of short food supply chains, with the aim of fostering a direct and local exchange between producers and consumers. New short-chain economic infrastructures provide food producers – especially small-scale farmers – with a whole new set of commercial opportunities, directed towards the construction of an alternative food economy. But how does value circulate within these innovative economic platforms? And what values are debated, negotiated and exchanged through these circuits? Employing the analytical lenses of de-commodification and embeddedness, this article discusses the modalities and outcomes of the processes of value-creation and value-appropriation that spring out of the direct exchange occurring between consumers and food producers in the alternative food economy. Based on empirical data collected through extensive qualitative field research in Italy and England, the article exposes the dynamics and limits of the on-going processes of de-commodification, proposing an analysis centred on the concept of ‘partial’ de-commodification. This conceptual tool is used to assess the differences that emerged between the Italian and English fields, and to provide conclusive remarks about the potential of place- and culture-specific configurations of practices to advance a transformation of the food system. © 2019 The Authors. Sociologia Ruralis © 2019 European Society for Rural Sociology.</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -4796,15 +4888,15 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>What role for trade in food sovereignty? Insights from a small island archipelago</t>
+          <t>The importance of vision in food system transformation</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>The food sovereignty movement has been gathering momentum in advocating the rights of individuals and nations to control their own food systems. Alongside this is a mounting critical engagement regarding its privileging of local food production as the means through which to achieve this goal. Adopting a place-based approach, we explore the foodways of diverse communities across a small island archipelago–the Turks and Caicos Islands in the West Indies. Based on interviews and focus groups, we unpack narratives relating to islanders’ changing food practices and aspirations. These are understood as two competing but inter-related themes of disruption and reification of current practices shaped by wider food regimes in interaction with ecological challenges. Given that conditions of historic dependency implicate the islands in a myriad of dependent trade relationships, we argue that small island economies offer, and require, unique cases for understanding how sovereign conditions for trade might be developed in line with a food sovereignty framework. We underline the importance of an inter-disciplinary focus for bringing forth a nuanced understanding of what might be required to shape more sustainable, sovereign and secure food futures. Doing so is necessarily rooted in an appreciation of islanders’ accounts of social, economic, political and ecological change over time. © 2017 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Despite growing calls for food system transformation, the need to develop a vision to guide that transformation is sometimes overlooked. Vision is essential to inspire, mobilize, and keep a collective of people on track toward their goals. Individual visions can be exhilarating, but the visions that create change are taken up by large groups or movements of movements. A vision is a beginning for transformation, but it requires policy that enables it to be enacted, ideally through democratic processes. The vision, buttressed by policy and democratic governance, is what determines where people are able to buy food, how much they pay, whether farmers earn decent incomes, and whether the food is healthy. Without vision, policies are likely to be incoherent or to work at cross-purposes, as has happened in the farm bill and the European Union’s Common Agricultural Policy. A range of visions generated at different scales, from autonomous community to state to region, can serve as examples for people committed to food system transformation. © 2019 by the Author.</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -4828,15 +4920,15 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Complex systems, agroecological matrices, and management of forest resources: An example of an application in Los Tuxtlas, Veracruz, Mexico</t>
+          <t>‘Keeping seeds in our hands’: the rise of seed activism</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Today humanity faces several complex problems, two of which are global warming and the loss of biological diversity. An agroecological matrix approach, conceives the territory as patches of natural and cultivated vegetation, interconnected to maintain watershed integrity. Many ethnic groups maintain a high biological heterogeneity as in the case of the agrological matrix. This study analyzed features and trends in a specific agroecological matrix, integrating local and scientific knowledge with environmental and social information, as a complex system. For the last 15 years we studied agroecological spaces used by the Ntaj'uy (Zoque-Popoluca) people in Los Tuxtlas, Veracruz, Mexico. Participatory methods were used to understand social interactions and land management decisions. Ecology field methods allowed us to assess soil loss, litter production, water quality, and vegetation structure. Soil erosion, vegetation fragmentation and social marginalization are the most important problems in the region; the tropical sub-evergreen forest has decreased by about 60%, the deciduous forest is down by 80%, and cultivated pastures have increased over 400%. Coffee and milpa agroecosystems could be improved, through product diversification, along with interconnectivity among vegetation patches, to prevent environmental degradation, and improve conditions to reach food sovereignty and income diversification, in a context of Ntaj'uy self-determination in their territories. © 2018 by the authors.</t>
+          <t>Semantic innovations like seed commons, peasant seeds and seed sovereignty are a powerful expression of what may be termed as seed activism. In this opening paper of the JPS Special Forum on Seed Activism, we explore the surge of mobilizations the world over in response to processes of seed enclosures and loss of agrobiodiversity. A historical overview of the evolution of seed activism over the past three decades traces a paradigm shift from farmers’ rights to seed sovereignty. Some of the main threats to peasant seed systems–from seed and intellectual property laws to biopiracy, corporate concentration and new genome editing technologies–are analyzed along with strategies by peasants and other activists to counter these developments. We take stock of what has been achieved so far and of the challenges ahead, and suggest some avenues for future research. © 2020, © 2020 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -4860,15 +4952,15 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>The insecurity of food security in Russia’s Far North</t>
+          <t>Diverse seeds – shared practices: Conceptualizing seed commons</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>The food security model envisions food supply from industrial agriculture, food production from smallholders, and food imports. The food sovereignty model emphasizes locally-sourced food from sustainable agriculture and implies self-sufficiency while being silent on the role of imports. This article argues that neither model fits Russia’s Far North well. Residents of the Far North are generally food secure based on consumption, but their food security is insecure because of questions surrounding the reliability of food supply. The article suggests four additional factors to the food security model to sensitize it to the Russian Far North. © 2018, © 2018 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Commons approaches in the seed sector are multi-faceted: They span from traditional seed systems, i.e. seed sharing networks, to recent anti-enclosure movements that resist intellectual property rights on varieties, like organic breeding initiatives. This paper derives a conceptualization of ‘Seed Commons’ at the local and regional level, based on a comprehensive transdisciplinary research process that integrates diverse types of knowledge, both from practitioners (German and Philippine seed initiatives, companies and NGOs), and the scientific community. As a result, we identify four core criteria that characterize diverse Seed Commons arrangements at local and regional scales: (1) collective responsibility, (2) protection from private enclosure, (3) collective, polycentric management, and (4) sharing of formal and practical knowledge. Discussing these Seed Commons criteria in the context of different Commons approaches, we find that Seed Commons transcend the distinction between traditional (natural resource) Commons and New Commons approaches, by integrating biophysical, informational and cultural elements in their collective governance. Reaching beyond resource characteristics, the Seed Commons criteria reflect practices of Commoning, which aim to fulfill social functions such as farmer empowerment and food sovereignty. © 2020 The Author(s).</t>
         </is>
       </c>
       <c r="E139" t="n">
@@ -4892,15 +4984,15 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Greenhouse Agriculture in the Icelandic Food System</t>
+          <t>Human Development and Food Sovereignty: A Step Closer to Achieving Food Security in South Africa’s Rural Households</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Greenhouses are a frequent feature on the Icelandic rural landscape and an integral part of Iceland's food system. Iceland's reserves of geothermal energy present an opportunity to extend an otherwise short growing season. This promotes sustainability, increases food security, and benefits consumers. This article examines the relative strengths of Iceland's greenhouse sector - using a combination of statistics, observations, and interviews to understand the resource demands of greenhouse agriculture, how well greenhouses can allay some food insecurity and provide local foods. It ends with an examination of how the reduction of subsidies used to keep greenhouse agriculture going, has had an effect and forces the question of whether losing much of Iceland's agricultural sector and locally sourced food is worth the social and political costs. © 2019 Gina M. Butrico, David H. Kaplan, published by Sciendo 2019.</t>
+          <t>Food security strategies are determined by the prevailing realities within households and communities. Therefore, it is not surprising that in South Africa agricultural transformation is an important food security strategy. This article examines the role of human development and food sovereignty in fostering conditions that enable rural households to enhance their food security capabilities. Using an in-depth analysis of literature, national, regional and international instruments, this article takes its departure from the fact that subsistence agriculture is an effective strategy for improving household food needs when implemented within the broader human rights framework of human development. The results reveal that agriculture has the potential to increase household food security if appropriate agricultural technologies and productive resources such as land are made accessible to households. Further, for agriculture to attain optimal efficiency as a food security strategy, policies on agrarian transformation should be implemented within broader social development programmes. © The Author(s) 2019.</t>
         </is>
       </c>
       <c r="E140" t="n">
@@ -4924,22 +5016,24 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>From Food Production to Commodity Production in Argentina’s Agricultural Sector</t>
+          <t>From protecting peasant livelihoods to essentializing peasant agriculture: problematic trends in food sovereignty discourse</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>An analysis of the semiotic and productive transformation of food crops under Argentina’s agribusiness model through a study of the diffusion of the term “commodity” in the discourse produced/reproduced by the rural sections of the hegemonic media, combined with statistical data that allow a dialogue between discourse and measurable quantities, concludes that defining the Argentine countryside as a place for commodity production is linked with increasing crop production for export that leads to the erosion of food sovereignty and food security. Un análisis de las transformaciones semióticas y productivas de los frutos de la tierra bajo el modelo argentino de los agronegocios que examina la extensión del término commodity en los discursos producidos/reproducidos por las secciones rurales de los medios gráficos de comunicación hegemónicos, entrecruzado con datos estadísticos para poner en diálogo el nivel del discurso con el de las cantidades medibles, concluye que la consigna que define al campo argentino como un lugar de producción de commodities se imbrica con una tendencia a la intensificación de los cultivos orientados exclusivamente a la exportación y la erosión de la soberanía y seguridad alimentaria. © 2018 Latin American Perspectives.</t>
+          <t>In response to neoliberal food and agriculture policy, peasant movements fought for increased state support of the small-farm sector. Vía Campesina now proposes agroecology and localized trade as environmental solutions to the current climate crisis by advocating for the ‘peasant way.’ This discourse is problematic because peasant farmers are not inherently supportive of local, sustainable food. Drawing on ethnographic field research with indigenous peasant communities in the rural highlands of Ecuador, this article illustrates how existing peasants practice chemical-intensive, monocrop, and export-oriented production. In using peasant as an ideal type rather than an historical ethno-class, post-development scholars essentialize peasant agriculture. © 2019, © 2019 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E141" t="n">
         <v>1</v>
       </c>
-      <c r="F141" t="n">
-        <v>1</v>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -4956,22 +5050,24 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Food security problems and imperatives of the North Caucasus macro-region subjects</t>
+          <t>Genetically modified crops and seed/food sovereignty in Argentina: scales and states in the contemporary food regime</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>This article concerns the analysis of food security in the North Caucasian macro-region. Any State is faced the challenge to provide safe food of domestic production to its population. This task is particularly relevant due to the emergence of a series of challenges and threats for country food sovereignty and its solution is impossible without active state support. The subjects of the North Caucasus Federal District have been selected as objects for this research. To identify the problems in country food security, the authors analyzed the global rating «The Global Food Security Index" of the world's states. The authors also studied the internal and the external, economic and political objective and subjective factors and the potential for food security of macro-region. The authors analyzed the dynamics of development of the main types of agricultural production, the self-reliance level and production of basic foods, norms and actual food consumption. The authors show that with current sanctions and Russian anti-sanctions, there is a possibility of significant increase in agricultural production. The article draws conclusions on the significant differentiation of population per capita incomes by regions of the country and consumption of staple food. This study made it possible to identify the main problems and their impact on current Agro-Food market of the Russian Federation. The study recommends measures to strengthen food security by operational regional monitoring and by defining the evaluation indicators system of the level of food security comparable to systems at the international level. © 2018 International Strategic Management Association. All rights reserved.</t>
+          <t>With more than half of its arable land planted with genetically modified soybeans, Argentina presents a strategic research site to investigate contestations of intellectual property rights on seeds and the enclosure of seeds as common resources. In this contribution, we tackle Argentina as a case study to address three issues. First, we discuss the sweeping expansion of genetically modified crops to illustrate its associated role in (a) the conflicts, negotiations and accommodations of seed control and (b) the obstacles to food/seed sovereignty. Second, we inspect the spatial and class dynamics of these processes with the goal of making a contribution to the literature on food regimes. By looking at the regional dynamics within a nation, we seek to question the ‘methodological nationalism’ of the food regime perspective that, by and large, understands countries as units. Third, and linking the two previous points, we inspect the role of the state in struggles and negotiations over seed and food sovereignty at both the national and subnational scales. We argue that a multi-scalar approach on food/seed sovereignty struggles can provide further visibility to subordinated actors. © 2020, © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E142" t="n">
         <v>1</v>
       </c>
-      <c r="F142" t="n">
-        <v>1</v>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -4988,15 +5084,15 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Government policies for food sovereignty: Disjunction between ideality and reality</t>
+          <t>Local Food as Social Change: Food Sovereignty as a Radical New Ontology</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>The conceptualizes food security and food sovereignty as fluid and changing discourses that define the problem of hunger. The discursive geohistories of food security and food sovereignty in order to identify oppositions and relationalities between them. I argue that the interpretations of, and relations between, food security and food sovereignty vary by geography and scale, as well as by the conceptual and theoretical differences within the discourses themselves. When and where these discourses develop and emerge is central to understanding their oppositions and convergences. How scale is constructed within particular discourses is also important to understanding how they co-exist relationally or in opposition. Food security and food sovereignty discourses are tied to distinctive political and economic histories, ecologies, and identities at the national and local levels. They are differentially deployed depending upon geographic context and the political economy of development and underdevelopment. Both discourses are dynamic and changing in relation to the wider political and cultural economies of food system dynamics across scale. Uniform definitions of each term should be resisted. The point is to understand the geographies of their relational overlap and their continual difference. © 2018 HALREV. All rights reserved.</t>
+          <t>Local food projects are steadily becoming a part of contemporary food systems and take on many forms. They are typically analyzed using an ethical, or sociopolitical, lens. Food focused initiatives can be understood as strategies to achieve ethical change in food systems and, as such, ethics play a guiding role. But local food is also a social movement and, thus social and political theories provide unique insights during analysis. This paper begins with the position that ontology should play a more prominent part in the analysis of local food movements, as this lens could provide unique insights into basic commitments guiding such initiatives. The paper presents the argument that ontological analyses are imperative for fully understanding local food movements. It then provides an overview of the justice frameworks and ontological orientations that guide two dominant types of initiatives: Those committed to increasing food security and those committed to food sovereignty. The paper ends with the argument that food sovereignty projects are revolutionary, not only because they challenge us to change industrial food practices, but also because they are built on a radical new political ontology, and co-constitutive food-focused orientation, that forms the foundation for alternative social and political structures. © 2020 University of Sassari.</t>
         </is>
       </c>
       <c r="E143" t="n">
@@ -5020,15 +5116,15 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Analysing agricultural investment from the realities of small-scale food providers: grounding the debates</t>
+          <t>PREFIGURATIVE POLITICS IN PRACTICE: CONCRETE UTOPIAS IN ITALY'S FOOD SOVEREIGNTY ACTIVISM</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Over the past decade, agricultural investment has been presented as a catchall solution to a converging set of global crises, often with poor rural communities as the proclaimed beneficiaries. Yet the promises of such investment, such as poverty alleviation and improved food access, are routinely at odds with realities on the ground. This article offers frameworks for analysis of agricultural investment that are grounded in the realities of small-scale food providers, drawing from two studies. The first study employs a right to food framework to identify the main channels through which food for consumption is procured by small-scale food providers and the factors impacting these channels. It draws on empirical data from within the Southern Agricultural Growth Corridor of Tanzania (SAGCOT), an investment model promised to lift rural communities out of poverty, which reflects a regional trend. Based on the shortcomings of the large-scale investments examined, the second study employs a food sovereignty framework to explore alternative forms of investment envisioned and/or already being put into practice by small-scale food providers in the SAGCOT area and elsewhere in Tanzania. While two different frameworks formed the basis of two different studies, both the studies and their frameworks are interrelated. The final section of this article makes the case for why both the right to food and food sovereignty are essential lenses for understanding agricultural investment vis-à-vis small-scale food providers and the ways in which they can serve as complementary tools for effective analysis. © 2018, © 2018 Southseries Inc., www.thirdworldquarterly.com.</t>
+          <t>What and how we eat have once again become prominent in debates on the fight for global justice. Proponents of alterglobalism consider experiments with food sovereignty a prefigurative practice that anticipates broader ecocultural change. Critics, however, remain skeptical about its capacity to enhance social change. In social movement research, the practical implications of these prefigurative politics have rarely been investigated empirically. Based on an ethnographic analysis, this article illustrates the multifaceted dynamics of a continuously evolving experiment with Participatory Guarantee Systems (PGS) in a neorural microeconomic network, a cornerstone of food sovereignty activism. An ethnographic perspective can grasp the shifting terrain of the political mobilization, frictions and unintended consequences of these types of politics. The article demonstrates the importance of understanding the complexities of prefiguration as not a simple linear, coherent process. Also, the case study allows a critique of re-emerging neorural populism.  © 2020 Mobilization: An International Quarterly.</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -5052,15 +5148,15 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Food security or food sovereignty?: Questioning the paradigm of Indonesian military involvement in agriculture</t>
+          <t>“Going local”: farmers’ perspectives on local food systems in rural Canada</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Indonesian military (TNI) involvement in the agricultural sector had begun since the 1960s when they had a significant role in a global modernization of agriculture project led by the US government and world donor agencies, namely the Green Revolution. In 2015, TNI signed a MoU with the Ministry of Agriculture in a "Special Efforts Program for Accelerating Food Production" which again delivers an important role to the military in the agricultural sector by implementing a Green Revolution oriented farming. This paper, in contrasts to some of the previous writings, does not examine the right or wrong of this involvement. This study provides a paradigmatic response to a question, why TNI insists on implementing a program that after 50 years has not proven successful in reaching the target of food self-sufficiency? Based on literature studies and analysis of empirical data, this study suggests that there is a paradigmatic misperception among the policy makers, both civil and military, about food security concept. The authors also offer a new implementation framework based on the concept of food sovereignty that can be performed by policy makers in Indonesia and other developing countries. © 2018 CEJISS.</t>
+          <t>Amid the highly industrialized, export-focused food system of the Canadian prairies, some farmers and consumers are turning to localized agriculture as an alternative—they are “going local”. Despite farmers’ obvious importance to the food system, surprisingly little research has examined their motivations and reasons for localization. To date, most local food scholarship in North America has focused on either consumers’ motivations to buy local or the systemic aspects of local food, such as regulations, infrastructure, and marketing arrangements. Existing research suggests that local food systems are supported by consumers’ rejection of the industrial paradigm and desire to (re)connect with their food and its source. But what drives farmers to localize, particularly when export-focused production is firmly entrenched as the status quo? Based on interviews and focus groups with 60 farmers, processors, policy experts, and retailers in the Canadian prairie province of Saskatchewan, this paper examines local food systems from the producer perspective in a rural context of high industrialization and geographical dispersion. We examine what motivates farmers to produce for local markets, and what forces they must resist to do so. The findings indicate that farmers’ main motivations for localization are political and social in nature, and stem from a critique of the dominant neoliberal agri-food system. We map farmers’ agential responses to this dominant system on a spectrum that ranges from acceptance of a neoliberal “feed the world” ideology to promotion of food sovereignty. Drawing on farmers’ perspectives, our findings question the straightforward equation of local food with environmental sustainability and also challenge neoliberal economic assumptions of “scaling up”. © 2019, Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E145" t="n">
@@ -5084,15 +5180,15 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Brazil's landless movement and rights ‘from below’</t>
+          <t>From hoes to story-telling as "weapons of the weak": Farmers' resistance to neoliberal 2007 multi-product management stabilization plan in Japan</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Recent literature has recognised the value of food sovereignty and human rights frameworks in agrarian struggles. Relatively little attention has gone toward how agrarian movements develop and apply their own rights discourses to further demands for social justice. This study considers Brazil's landless movement (MST) between 1984 and 1995, revealing three distinct rights discourses that recruited and mobilised protest by linking local issues to the movement's broader political project. The findings illustrate the value of rights, frames and ideology as analytical tools, shedding light on how movement-generated rights emerge through processes of reflexivity and in response to dynamic social-political contexts. © 2018 Elsevier Ltd</t>
+          <t>While neoliberalism has promoted free trade, market rule, and productivist agriculture in the food production system, farmers and their unions in developed countries partially managed to shun the forces of neoliberalism. What are the underpinning strength and factors of such resilience? Discussions have concentrated at national policy and organizational level and tacit resistance at community and farm levels remain unexplored, inter alia from their historical embeddedness perspective. This study explores the way Japanese farmers frame their contemporary political situation with neoliberalism of the late 2000s with a grounded approach of face-to-face interview at a community level. The farmers resist it mobilizing Scott's anthropological notion of "Weapons of the Weak"through story-telling instead of hoes in ancient time (Scott JC, Weapons of the weak: everyday forms of peasant resistance, 1985). In concrete, the farmers resisted a neoliberal policy of Hinmoku Odanteki Keiei Antei Taisaku, or the Multi- Product Management Stabilization Plan (MPP), in the early 2000s, which promoted larger scale farming to pursue the efficiency of scale merits. The policy was first introduced in 2005 as a concept and dominated the agricultural policy scenes from 2007 to 2009, and then its influence disappeared toward 2010. The rise and fall of the concept and policy provide us with rare opportunity to examine the historical embeddedness of the farmers and their resistance to such neoliberal globalization. We conducted interviews with the leaders of cooperative farms and stakeholders in Daisen City, Akita Prefecture, Japan; the study found that farmers' framing of neoliberalism was ambivalent causing partial adoption and resistance. The leaders of the cooperative farms could form the cooperative farms but thought further development difficult because members intended to keep their farming independent. Close frame and discourse analysis revealed that farmers in Japan could express their frustration on neoliberal discourse and policy through multiple tactics of "Weapons of the Weak"by complaining to the leaders, miscalculating the figures, or claiming family-based food sovereignty that "we produce what goes into our family mouths."Such tactics procrastinated the process and eventually stopped the policy. The incident demonstrates how farmers in the network can slow the progress of neoliberal discourse and policy implementation. From the analysis, the notion of "Weapons of the Weak"can be applied as a part of the combination with farmers' historical embeddedness, symbolism of foods, framing, and electoral resistance.  © 2020 The Author(s).</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -5116,15 +5212,15 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Feeding Prometheus: An Interdisciplinary Approach for Solving the Global Food Crisis</t>
+          <t>Alternative discourses around the governance of food security: A case study from Ethiopia</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>The current global food system is inadequate to meet the needs of the current world population without compromising future well-being. For example, current intensified production systems lead to undernutrition in some regions coupled with epidemics of obesity in others while compromising their underlying ecological foundations, such as creating areas of ocean hypoxia. Such common observations challenge the research community to ask new types of basic questions and apply novel analytical frameworks for analyzing them. Elaboration of an integrated applied research agenda is imperative to addressing these global food system challenges. We propose that core competencies of a new analytical framework lie at the intersection of four domains: (1) the ecology of agroecosystems; (2) equity in global and local food systems; (3) cultural dimensions of food and agriculture; and (4) human health. This intersection constitutes a new analytical framework for transitions toward global food system sustainability. © Copyright © 2018 Vandermeer, Aga, Allgeier, Badgley, Baucom, Blesh, Shapiro, Jones, Hoey, Jain, Perfecto and Wilson.</t>
+          <t>Global discourses on the governance of food security span competing approaches. For example, a neoliberal approach advocates commercialized, industrial agriculture, while food sovereignty and resilience are part of an alternative discourse to food security that prioritizes locally-based agroecological food production. Understanding how global discourses play out locally and how they impact the environment and biodiversity is important to identify appropriate pathways towards sustainability. In addition to their effects on food security, different approaches could reinforce or impede the success of biodiversity conservation because of the strong interdependence of food security and ecosystems. We applied the Q-methodology to examine alternative approaches to food security and biodiversity conservation pursued by 50 stakeholders from local to national levels in southwestern Ethiopia. We identified four distinct approaches, focusing on (1) smallholder commercialization, (2) agroecology and resilience, (3) local economy and equity, and (4) market liberalization. All approaches prioritized smallholders, but perspectives on how to achieve food security varied. Agricultural intensification, commercialization, and profit were widely considered important, while support for agroecology and resilience was largely restricted to non-government organizations. With the exception of supporters of the agroecology and resilience approach, biodiversity conservation was considered as a secondary goal. We conclude it is important to acknowledge plurality of food security approaches because local conditions are characterized by a multiplicity of stakeholder interests, and because food security is a complex problem that requires a multidimensional approach. However, major contradictions among existing approaches need to be reconciled, and the agroecology and resilience approach should be strengthened to ensure the sustainable achievement of food security and biodiversity conservation. © 2019 Elsevier B.V.</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -5148,15 +5244,15 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Black Farmers in the USA and Michigan: Longevity, Empowerment, and Food Sovereignty</t>
+          <t>Interview with João Pedro Stédile, national leader of the MST–Brazil</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Blacks have been farming in the USA for about four centuries and in Michigan since the 1830s. Yet, for blacks, owning and retaining farmland has been a continuous challenge. This historical analysis uses environmental justice and food sovereignty frameworks to examine the farming experiences of blacks in the USA generally, and more specifically in Michigan. It analyzes land loss, the precipitous decline in the number of black farmers, and the strategies that blacks have used to counteract these phenomena. The paper shows that the ability of blacks to own and operate farms has been negatively impacted by lack of access to credit, segregation, relegation to marginal and hazard-prone land, natural disasters, organized opposition to black land ownership, and systemic discrimination. The paper examines the use of cooperatives and other community-based organizations to help blacks respond to discrimination and environmental inequalities. The paper assesses how the farming experiences of blacks in Michigan compare to the experiences of black farmers elsewhere. It also explores the connections between Michigan’s black farmers, southern black farmer cooperatives, and Detroit’s black consumers. © 2018, The Author(s).</t>
+          <t>The pandemic has underlined the need to continue fighting for paradigmatic change, including toward food sovereignty for our people and agroecology to produce while preserving nature. © 2020, © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -5180,15 +5276,15 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>The Conflicted State and Agrarian Transformation in Pink Tide Venezuela</t>
+          <t>NGO perspectives on the social and ethical dimensions of plant genome-editing</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Can radical political-economic transformation be achieved by electoral regimes that have not thoroughly reconstructed the state? Contemporary Venezuela offers an optimal venue for examining this question. The Chavista movement did not replace the previous state: instead, its leaders attempted to reform existing state entities and establish new ones in pursuit of its transformation agenda. It has also used its oil wealth to support cooperatively-oriented economic activity, without necessarily fundamentally altering the property structure. Thus, the social change-oriented political economy exists alongside the traditional one. Focusing on agrarian transformation, we examine ethnographically how these factors have impacted the state's capacity to attain its goal of national food sovereignty. We find that the state's ability to accomplish this objective has been compromised by lack of agency-level capacity, inter-agency conflict and the persistence of the previously-extant agrarian property structure. These dynamics have influenced the state to shift from its initial objective of food sovereignty to a policy of nationalist food security. © 2015 John Wiley &amp; Sons Ltd</t>
+          <t>Plant genome editing has the potential to become another chapter in the intractable debate that has dogged agricultural biotechnology. In 2016, 107 Nobel Laureates accused Greenpeace of emotional and dogmatic campaigning against agricultural biotechnology and called for governments to defy such campaigning. The Laureates invoke the authority of science to argue that Greenpeace is putting lives at risk by opposing agricultural biotechnology and Golden Rice and is notable in framing Greenpeace as unethical and its views as marginal. This paper examines environmental, food and farming NGOs’ social and ethical concerns about genome editing, situating these concerns in comparison to alternative ethical assessments provided by the Nuffield Council on Bioethics, a key actor in this policy debate. In doing so, we show that participant NGOs and the Nuffield Council on Bioethics share considerable concerns about the social and ethical implications of genome editing. These concerns include choices over problem/solution framing and broader terminology, implications of regulatory and research choices on consumer choice and relations of power. However, GM-engaged NGOs and the Nuffield Council on Bioethics diverge on one important area: the NGOs seek to challenge the existing order and broaden the scope of debate to include deeply political questions regarding agricultural and technological choices. This distinction between the ethical positions means that NGOs provide valuable ethical insight and a useful lens to open up debate and discussion on the role of emerging technologies, such as genome editing, and the future of agriculture and food sovereignty. © 2019, Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E149" t="n">
@@ -5212,15 +5308,15 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Traditional seed and exchange systems cement social relations and provide a safety net: A case study from KwaZulu-Natal, South Africa</t>
+          <t>The spatial planning to implement sustainable agricultural land</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Millions of small-scale farmers on the African continent save and exchange the seed of their traditional crops, yet the social and cultural values of these systems remain under-researched. Through ethnographic research conducted in the KwaZulu-Natal Province of South Africa, this study sets out to improve understanding about the mechanisms and significance of traditional seed exchange networks. Findings suggest that traditional crops are central; their seed is highly valued; and systems of exchange play complex and nuanced roles. Critical for food sovereignty, these systems act as a back-up in the case of harvest failure, and enhance social cohesion through strengthening community and familial ties. © 2017 Taylor &amp; Francis.</t>
+          <t>Indonesia is an agricultural producing country; the agricultural sector becomes its main economic base. Empirically, most of Indonesians work in this sector as their livelihood. Article No. 33 Chapter (3) of Undang-undang Dasar 1945 (The 1945 Constitution of The Republic of Indonesia) states a role of the state in managing and regulating land. It is clearly declared that land, water and natural resources contained therein are owned by the state and used as much as possible for the prosperity of the people of Indonesia. Land conversion is usually related to the process of regional development, even it can be said that the land conversion is a consequence of the development. In fact, most of the land conversion shows an imbalance dominated by business owners who are alleged to be modern capitalists having Building Construction Permits (IMB) issued by the government. Based on Regulation of Government No. 1 of 2011 concerning Determination and Land Conversion of Sustainable Agricultural Land, it is a field of agricultural land determined to be consistently protected and developed to produce staple food for the autonomy, resilience and sovereignty of foods for the nation. © 2020 SERSC.</t>
         </is>
       </c>
       <c r="E150" t="n">
@@ -5244,15 +5340,15 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>A food regime’s perspective on palestine: Neoliberalism and the question of land and food sovereignty within the context of occupation</t>
+          <t>Enforceability of decisions of the Agricultural Paying Agency in matters of direct payments</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>The question of land and its strategic, socio-political and agricultural relevance within the Israeli-Palestinian conflict must be understood against the background of the dominant position of Israel as occupational power, heavily affecting the access to, and the control over natural resources. The subjects discussed within this article are intrinsically linked via the usage of the food regime approach as analytical tool, and the article’s specific focus on land. An attempt is made to grasp the neoliberal restructuring of Palestine and its developments in the agricultural sector, paying particular attention to land grabbing. Neoliberalism aided the institutionalising and normalising of accumulation by dispossession in the occupied Palestinian territories (oPt), these being identified as a key feature of the corporate food regime, and leading to the marginalisation of rural communities and to depeasantisation. The crises of the food regime spurred food sovereignty movements all around the globe. While analysing the political demands and approaches of the concept of food sovereignty centered around natural resources, this article also explores why the concept offers various ideas for an alternative development in Palestine. This paper tries to show how specific dynamics observed by the food regime analytics can be helpful in contextualising developments within the oPt – ranging from neoliberal restructuring to the emergence of food sovereignty. © 2018 Mattersburger Kreis fur Entwicklungspolitik. All rights reserved.</t>
+          <t>Since its inception, the Common Agricultural Policy has been the largest among all common European policies. The main objective of the Common agricultural policy is food sovereignty in the European Union, stabilization of farmers' incomes and, at present, support for non-production functions of agriculture and environmental protection. Given the rising input prices and the time mismatch between supply and demand for agricultural products, the first pillar of the CAP has become a key tool for sustaining the desired competitiveness of agricultural products in the EU Member States. Direct payments have become an important tool for Slovak farmers, and therefore their effective implementation is essential for their continued existence or development. The aim of the paper was to point out the weak enforceability of direct payments to eligible users of agricultural land if there is a conflicting legal entitlement to provide a direct payment in accordance with §28 and §29 of Act no. 280/2017 Coll. and the resulting problems for eligible applicants. © 2020 by the author(s).</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -5276,15 +5372,15 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>The political economy of rentier capitalism and the limits to agrarian transformation in Venezuela</t>
+          <t>Towards a National Food Sovereignty Plan: Application of a new Decision Support System for food planning and governance</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>This paper explores the contradictions and limits to agrarian transformation under 21st-century socialism in Venezuela. Given the historical destruction wrought by the oil-based accumulation process upon Venezuela's agricultural sector, the symbolic and social importance of an “agrarian revolution” could be seen as a yardstick with which to measure the progress of the Bolivarian Revolution in “sowing the oil”. Eschewing a policy focus on the role of “food sovereignty” and “food security”, the paper analyses how the dynamics of rentier-capital accumulation have played out in the agricultural sector. The paper argues that the macroeconomic framework of the Bolivarian Revolution has diminished the possibility of expanded domestic food production and instead reduced agrarian transformation to contradictory processes of ground rent appropriation. © 2017 John Wiley &amp; Sons Ltd</t>
+          <t>This paper develops a Decision Support System (DSS), for achieving Food Sovereignty Plans at different territorial levels. The DSS calculates the land requirement for producing the food needs of a local community, the land suitability for the involved crops, and the percentage of the food self-sufficiency achievable. The paper reports two case studies at different scales (Italy and Umbria region) for highlighting the strengths and the weaknesses of the DSS. Finally, the paper outlines the use of the developed DSS for enhancing participatory processes to achieve a National Food Sovereignty Plan. © 2019 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -5308,22 +5404,24 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>The agricultural production and food industry development trends in the context of food security of Russia</t>
+          <t>Homegarden commercialization: extent, household characteristics, and effect on food security and food sovereignty in Rural Indonesia</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Food security, in its function as an integral component of the state’s economic security, is one of the central issues of the state economic policy in most post-Soviet countries. Over the last decade, the food security policy implementation vectors have changed. While at the beginning of the market reforms, the key task of the former Soviet Union countries’ governments was to fill the food market, regardless of the import component, currently, food sovereignty is moving to the forefront, including the availability and quality of food. The present paper attempts to systematize and analyze factors and contradictions that affect the country’s food security. The scientific importance of the work is determined by the comprehensive system approach to the factor analysis of the agricultural sector operation from the perspective of the following aspects: the ongoing foreign policy of the state (the membership in the World Trade Organization and product embargo) and the state financial support mechanism for the agriculture. © 2017. ASERS Publishing. All rights reserved.</t>
+          <t>Homegardens have long been recognized for contributing to household food security, nutritional status, and ecological sustainability in especially poor, rural areas in low-income countries. However, as markets and policies drive the commercialization of food and farming systems, and of rural livelihoods in general, it becomes increasingly difficult for small-holder farmers to maintain homegarden plots. Rather than autonomous spaces to grow food for self-consumption, farmers are transforming the land around their dwellings into an income-generating space by planting commercial crops for sale in urban and processing markets. The objective of this study was to examine homegarden commercialization in the Upper Citarum Watershed of West Java, Indonesia, and its effects on food security and food sovereignty. We employed a mixed-method approach to survey 81 village households involved in agricultural production. For quantitative analysis, we calculated a “homegarden commercialization index,” and developed indicator frameworks to examine relationships between commercialization, household food security, and food-related decision-making. Accompanied by insights from qualitative interviews, our results show that homegardens are highly commercialized, which contributes to the spread of monocultural production in the region. We argue that homegardens should be included and supported in food, agricultural, health, environmental, and rural development policy, in Indonesia and generally. © 2020, The Author(s).</t>
         </is>
       </c>
       <c r="E153" t="n">
         <v>1</v>
       </c>
-      <c r="F153" t="n">
-        <v>1</v>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5340,22 +5438,24 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Troubling Tradition, Community, and Self-Reliance: Reframing Expectations for Village Seed Banks</t>
+          <t>Exploring the ‘grey areas’ of state-society interaction in food sovereignty construction: the battle for Venezuela’s seed law</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Heralded by both food sovereignty activists and mainstream development practitioners, village seed banks are a rural development phenomenon rapidly gaining attention for their potential to support resilient agricultural systems. This paper presents a case study for examining the power of prevailing narratives of decentralized development to shape and ultimately constrain the operations of village seed banks in Telangana, India. This case demonstrates how visions of tradition, community, and self-reliance can serve to discount the materiality of seeds, the social complexity of village institutions, and even the voices of farmers. The goal of this research is not to criticize village seed banks, as they hold great potential, nor to vilify the narratives in question, but rather to encourage critical reflection on how the assumptions embedded in these narratives shape mechanisms for agricultural development. I argue for a shift away from framing tradition, community, and self-reliance as development solutions and propose an interrogative approach that turns these narratives into questions for engaging more effectively with rural livelihoods. © 2017 Elsevier Ltd</t>
+          <t>In late December 2015, amidst plummeting oil prices, highly politicized food shortages, and an all-around tense political climate in Venezuela, an unexpected event took place in the country’s National Assembly just days before a major shift in its political leadership. A new seed law was passed, with provisions including bans on genetically modified seeds and the patenting of life forms, recognition of both formal and informal seed systems, and protections for the seeds of the country’s peasant, Indigenous, and Afro-descendant communities. The processes behind the Law’s passage were long, messy, dynamic and contentious, with unanticipated twists and turns, betrayals and alliances. This article shares an ‘intimate perspective’ into these processes, as described by those directly involved in them, and as seen through the combined analytical lenses of a historical, relational and interactive approach to food sovereignty construction. This includes an exploration of the shifting of roles across state-society lines; the interaction of threats and opportunities as catalysts for collective action; and incremental shifts in power as social movements engage strategically in different types of spaces, including inside, outside, through and between formal structures of the state. Such an approach complicates simplified narratives around state co-optation of movements on the one hand or idealized depictions of state-society synergy on the other, revealing the many shades of grey involved. The aim is to contribute new insights into the complexities of state-society relations in the construction of food sovereignty, and into bottom-up policy-making processes more generally. © 2018, © 2018 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E154" t="n">
         <v>1</v>
       </c>
-      <c r="F154" t="n">
-        <v>1</v>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5372,22 +5472,24 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Building sustainable social and solidarity economies: Place-based and network-based strategies of alternative development organizations in India</t>
+          <t>Participatory plant breeding and social change in the Midwestern United States: perspectives from the Seed to Kitchen Collaborative</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>This article critically examines and analyzes place-based as well as network-based strategies of alternative development organizations that claim to be building sustainable social and solidarity economies (SSE) in the political context of neoliberal globalization. While the Indian state and market forces are actively promoting the neoliberal agri-food system, alternative development organizations are working with farmers to build the SSE based on the principles of democracy, inclusiveness, reciprocity, cooperativism, and socioecological sustainability. Using a case study approach, this article analyzes how SSE initiatives are aiming to reclaim control over the local agri-food sector. Specifically, this article examines how community development organizations mobilize farmers based on the principles of agro-ecology and the politics of seed and food sovereignties. This article uses the Center for Sustainable Agriculture, an alternative community development organization in south India, as a case study. © 2017 Community Development Society.</t>
+          <t>There is a strong need to connect agricultural research to social movements and community-based food system reform efforts. Participatory research methods are a powerful tool, increasingly used to give voice to communities overlooked by academia or marginalized in the broader food system. Plant breeding, as a field of research and practice, is uniquely well-suited to participatory project designs, since the basic process of observing and selecting plants for desirable traits is accessible to participants without formal plant breeding training. The challenge for plant breeders engaged in participatory research is to consider not only how their work incorporates farmer input in developing new varieties, but also how it interacts with broader questions of food sovereignty, food justice, diversity and democratization in the food system. This article examines these issues in the context of the Seed to Kitchen Collaborative, a participatory variety evaluation and breeding project at the University of Wisconsin-Madison. © 2019, Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E155" t="n">
         <v>1</v>
       </c>
-      <c r="F155" t="n">
-        <v>1</v>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5404,15 +5506,15 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Framing the food poverty question: Policy choices and livelihood consequences in Indonesia</t>
+          <t>Politics of law of the protection of plant variety (Pvt) and its implications for food security in indonesia: A maqashid al-shari'ah perspective</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Since 2008, amidst fears of vulnerabilities related to climate change, price volatility and global food shortages, an increasingly conflicted policy field has emerged in the global south. Competing policy narratives provide for rival policy orientations with respect to food policy, land rights, the environment and justice. This paper considers the implications of different choices associated with these rival concepts in one case – that of Indonesian Kalimantan. The paper shows how predominant framings of ‘food sovereignty’, ‘food self-sufficiency’ and ‘food security’ support scalar strategies that empower particular actors and agendas. While narratives focused on national food sovereignty support large-scale food estates in ways that fit a particular politics of food, they overlook the specific livelihood challenges facing rural populations and the problems of food poverty in marginal landscapes. Localist narratives of ‘food sovereignty’ focus on enhancing smallholder access and control over productive resources and diversification in ways that are better suited to the geography of production, but they are yet to address the political anxieties presented by food questions at the national level. If policy choices are to deal with the underlying issues, then the alternative values, guiding assumptions and scalar strategies encompassed by rival narratives need to be appraised and reconciled with the specific livelihood challenges of rural people and the need to secure an inclusive and equitable society in a changing global environment. © 2017</t>
+          <t>The birth of the Law on Plant Variety Protection (PVP) is a consequence of Indonesia in its participation as a signatory country for the GATT/WTO agreement, which one of the series of agreements contains Trade-Related Aspects of Intellectual Property Rights (TRIPs). This agreement implies that after ratification, Indonesia must harmonize legislation in the field of intellectual property rights with the approval of TRIPs, including in the field of Plant Variety Protection. Philosophically there are several provisions in the PVP Law that need to be observed. One of them is the focus of this law that prioritizes economic interests and breeder rights rather than farmer rights. By using qualitative research and philosophical approach, this study concludes: First, in the perspective of politics of law, the protection of plant varieties in Indonesia has not been based on an ideal basis of Indonesian politics of law. Ideally, the stipulation of law in Indonesia must prioritize an ideological and normative basis that originates from Pancasila and the UUD 1945 as central values and are essential to Indonesian politics of law. Second, Plant Variety Protection in Indonesia is still oriented to food security, not to the limit of food sovereignty. The orientation of the Law on PVP should lead to efforts to liberate this country from the element of dependence on other countries by leading to food sovereignty. Third, in the perspective of Maqashid Sharia, the protection of Plant Varieties in Indonesia has not yet described efforts to create benefit for the Indonesian nation as a whole. The nature of Maqashid sharia is a benefit that rests on the interests of society in general. © IJSTR 2020.</t>
         </is>
       </c>
       <c r="E156" t="n">
@@ -5436,15 +5538,15 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>The intersection of food security and biodiversity conservation: a review</t>
+          <t>How do grassroot NGOs in rural Myanmar express their visions for the food system? Food security and food sovereignty as entangled narratives within NGO struggles and strategies</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Food security and biodiversity conservation are key challenges of the twenty-first century. While traditionally these two challenges were addressed separately, recently, papers have begun to specifically address the nexus of food security and biodiversity conservation. We conducted a structured literature review of 91 papers addressing this nexus. To ascertain how a given paper approached the topic, we assessed to what extent it covered 68 potentially relevant issues. The resulting dataset was analyzed using cluster analysis. Two main branches of literature, containing a total of six clusters of papers, were identified. The “biophysical-technical” branch (clusters: “sustainable intensification” and “production focus”) was dominated by the natural sciences, focused strongly on the production aspect of food security, and sought general solutions. In contrast, the “social-political” branch (clusters: “social-ecological development”; “empowerment for food security”; “agroecology and food sovereignty”; and “social-ecological systems”) often drew on the social sciences and emphasized social relations and governance, alongside broader considerations of sustainability and human well-being. While the biophysical-technical branch was often global in focus, much of the social-political branch focused on specific localities. Two clusters of papers, one from each branch, stood out as being particularly broad in scope—namely the clusters on “sustainable intensification” and “agroecology and food sovereignty.” Despite major differences in their conceptual basis, we argue that exchange between these two research clusters could be particularly helpful in generating insights on the food–biodiversity nexus that are both generally applicable and sufficiently nuanced to capture key system-specific variables. © 2015, Springer-Verlag Berlin Heidelberg.</t>
+          <t>Recent research has promoted the idea that political struggles over food systems can be understood through the concepts of food security (the right to access food) and food sovereignty (the right to exercise control over food systems). These concepts emphasise different political priorities in the social relations of food: for the former, the promotion of decent work and the strengthening of the social safety net to enhance people's abilities to put food on their plates; for the latter, the defence of land, water and resource rights, to underpin capabilities for food own-provisioning. The question we pose in this paper is how these priorities are articulated by grassroots non-government organisations working at the frontline of global food poverty? Interviews with 22 representatives of food-related non-government organisations in Myanmar were used to elicit narratives about how they understood their challenges. The paper finds that narratives did not cohere exclusively to either the food security or food sovereignty concept, but blended ideas associated with the political priorities of both in complex and contradictory ways. These insights lend important firsthand evidence to the argument that supports a multi-dimensional framing of the politics of food that is inclusive of the diverse struggles highlighted by food security and food sovereignty concepts. © 2019 Victoria University of Wellington and John Wiley &amp; Sons Australia, Ltd</t>
         </is>
       </c>
       <c r="E157" t="n">
@@ -5468,15 +5570,15 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Agroecology in the Brazilian government agenda: Developments between 2011 and 2014; [La agroecología en la agenda del gobierno Brasileño: Desarrollos entre 2011 y 2014]</t>
+          <t>National general truck drivers' strike and food security in a Brazilian metropolis</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Since 2003, in Brazil, the agroecological perspective has been present in punctual public policies of the federal government. In 2012, with a convergent action of the agroecological movement and the organic production, the National Policy for Agroecology and Organic Production was created. This article presents a reconstruction of the process, while highlighting involved actors, as well as their demands and interests, ideas, and main forums. Despite its limitations and conflicts, the Pnapo is a benchmark and a political achievement, having insured the agroecological agenda in the public policies inter-related to rural development, food sovereignty, and the human right to adequate food. © 2017, Pontificia Universidad Javeriana. All rights reserved.</t>
+          <t>Objective: We analysed the impact of the national general truck drivers' strike on the availability, variety and price of foods sold by a food supply centre.Design: Descriptive study using secondary data to examine the percentage change in the mean price of fruits, vegetables and eggs before, during and after the strike. The strike in Brazil lasted 10 d from 21 to 30 May 2018. The drivers were on strike in order to make diesel oil tax-free and to obtain better working conditions.Setting: The food supply centre, named CEASA-Minas Grande BH, was located in the metropolitan area of a Brazilian city.Participants: We examined twenty types of foods.Results: After 10 d, there was a ~30 % reduction in the availability of all types of foods and prices increased. Foods with the highest price increases included cabbage (233·3 %), potatoes (220·0 %), papaya (160·0 %) and oranges (78·6 %). At the end of the strike, we observed reductions in the price of eggs, fruits, vegetables, roots and tubers; however, some foods remained more expensive than before the strike, including chayote (203·2 % higher), cucumber (66·7 % higher) and potatoes (60·0 % higher).Conclusions: The general truck drivers' strike was correlated with a reduction in the availability of food and, consequently, increases in price and possibly restrictions on access. The strike demonstrated the dependence of metropolises on road transportation and the conventional market. We speculate that initiatives aiming to shorten the food supply chain and promote food sovereignty and resilience of the supply circuits could be important. © The Authors 2019.</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -5500,15 +5602,15 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Food sovereignty and agro-ecology in Karnataka: interplay of discourses, identities, and practices</t>
+          <t>Flux, unrelenting–the struggle for local seed sovereignty in Nicaragua</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Karnataka Rajya Raitha Sangha (KRRS), a farmers’ movement, and a member of La Via Campesina, has been encouraging zero-budget natural farming in Karnataka, India, within the framework of food sovereignty and agro-ecology. Using the experiences of KRRS, this article addresses the question of the extent of pluralism within the discourse of food sovereignty. Focusing on the interplay of local and global practices, discourses and identities, the article throws light upon contradictions and negotiations between “necessary abstractions” and “particularisms”, spaces and places of resistance and implications it may have on struggles at both local and global levels. © 2017 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Most farmers are not activists. They make, however, their own sense of the world and act–sometimes quite stubbornly–according to that sense given, grasping what they perceive as opportunities, and protecting what they feel as essential for their livelihood. Political projects for Nicaraguan society, international policy-making, corporate strategies and imperial ambitions engage with and affect the varieties grown locally. The article analyses the creativity and political potential, as well as the contradictions and inconsistencies of the quotidian practice of seed saving under extreme constraint in light of the major struggles about Nicaraguan seed legislation. © 2020, © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E159" t="n">
@@ -5532,15 +5634,15 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Livelihoods crises in Vidarbha, India: Food sovereignty through traditional farming systems as a possible solution</t>
+          <t>State food security and people’s food sovereignty: competing visions of agriculture in China</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>The Vidarbha region in Maharashtra, India, home to 3.4 million smallholder farmers, is a major cotton-producing region in one of the wealthiest Indian states. However, between 1995 and 2013, more than 60,000 farmers took their own lives. Many of these suicides have been linked to extreme debt created by the expensive mono-cropping of Bt cotton. Some farming households have responded to these pressures by abandoning Bt cotton growing and turning to sustainable agriculture using traditional mixedcropping methods. Yet the question remains: have the changes produced better livelihoods in Vidarbha? Using a food sovereignty framework, we assess the impact of these changes through an analysis of a 200-household survey across six districts in Vidarbha. We also explore the meaning of food sovereignty for those who practise it, seeking to better understand some of the complexities and experiences associated with the term. © 2017 South Asian Studies Association of Australia.</t>
+          <t>This article examines reactions to global agribusiness concentration in the People’s Republic of China (PRC). In many countries, there is a trend of agribusiness concentration among relatively few multinational corporations (MNCs), which is often challenged by various forms of resistance from local food movements. The article identifies distinct overlap in discourses within the PRC. Arguments made by Chinese state/corporate actors and those by actors from alternative food movements focus on contesting global agricultural capital. These commonalities reveal a discursive battleground in China that creates unique constraints (and opportunities) for food activists, given state food security priorities. © 2018, © 2018 Canadian Association for the Study of International Development (CASID).</t>
         </is>
       </c>
       <c r="E160" t="n">
@@ -5564,15 +5666,15 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>The Evolution of Food Security Governance and Food Sovereignty Movement in China: An Analysis from the World Society Theory</t>
+          <t>Mobilising for food sovereignty: The pitfalls of international human rights strategies and an exploration of alternatives</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Originating in a 1983 Mexican Government Program, the term ‘food sovereignty’ was coined in 1996 by La Via Campesina—a global peasant network—to address concerns within the civil society for food security. Rather than to accept the neoliberal framework of mainstream food security definition and governance, the food sovereignty movement seeks to view food security as the right of peoples to define their own food and agriculture systems with limited corporation intervention. As a result, food production should be geared toward the domestic and local markets and not toward international trade that only benefits corporations. This food sovereignty movement was inducted into China in 2013 just as China’s agricultural systems were shifting toward a more corporate-centric structure that increasingly exploits the small-scale farmers. A question was hence raised: How have the global civil society networks influenced the Chinese civil society and promoted China’s local food sovereignty movement? Through the world society theory, the author has identified social forums, such as international conferences and social media channels, as an expedient means for interactions. However, as the Chinese government continues to develop a corporate-centric food security governance system and tighten its civil society space, the impacts of China’s food sovereignty movement remain unclear. © 2017, Springer Science+Business Media B.V.</t>
+          <t>This article considers the role played by the language of human rights in a global campaign for food sovereignty. Led initially by the international peasants’ movement, Vía Campesina, the campaign opposes the globalisation of agricultural markets and neoliberal interventions in food production. Alongside other strategies, the campaign makes creative use of human rights and also seeks their institutionalisation in a UN Declaration on the rights of peasants. An examination of how the campaign employs human rights reveals a more complicated process than that suggested by the theoretical polarisation of ‘top down’ and ‘bottom up’ accounts of rights development in the sociology of human rights. It demonstrates both wariness of state power and attempts to harness the power of the state against international forces. It also shows that a desire for legal reform co-exists with the struggle for more radical social and political transformations. © 2017 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E161" t="n">
@@ -5596,15 +5698,15 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Agroecology in Uruguay</t>
+          <t>Extrafamilial farm succession: an adaptive strategy contributing to the renewal of peasantries in Austria</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>From its origins, agroecology in Uruguay has been considered as a critique of the dominant industrial agriculture model and linked to the development of alternative thinking from multiple actors. It aims to strengthen the ecological processes in agricultural systems while discussing the phenomena of concentration, alienation, and access to land, along with the problems of family agriculture and food sovereignty. Against the deepening of the industrialized model of agriculture, different actors drive the development of a National Agroecology Plan. An agroecological transition process is proposed by building sustainable development options, which arises from the agrarian and extends to the whole society. © 2017 Taylor &amp; Francis.</t>
+          <t>This article examines extrafamilial farm transmission, a process that brings together elderly farmers without successors and young people who aspire to farm but face various economic, social and cultural barriers to enter into the sector. First-hand accounts of the process from Austrian smallholders are systematically analysed to produce a stage-by-stage model. The multigenerational non-familial agrarian partnership this represents offers an alternative mechanism for maintaining small-scale food production and improving food security and food sovereignty. It is recommended as an adaptive strategy for the survival and re-generation of peasantry in the twenty-first century. © 2018, © 2018 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E162" t="n">
@@ -5628,15 +5730,15 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Neo-developmentalism and a “vía campesina” for rural development: Unreconciled projects in Ecuador's Citizen's Revolution</t>
+          <t>Do we need to categorize it? Reflections on constituencies and quotas as tools for negotiating difference in the global food sovereignty convergence space</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>From the outside, it appears that the government of President Rafael Correa in Ecuador has put in place a legal and policy framework for a vía campesina model of rural development, inspired by food sovereignty and buen vivir. Recent studies have, however, concluded that a considerable disjuncture exists between this framework and the actual agricultural policies and programmes implemented by the government. In this paper, I provide a broad overview of the agricultural and rural development policies under the Correa government and analyse some of the causes of the gap between the policy framework and policy implementation. I argue that Ecuador under Correa speaks to the difficulties of reconciling a vía campesina approach to rural development with a neo-developmental economic model. I focus on several issues in particular in order to explain the disjuncture: how the growth of “vía campesina” proposals and political discourse in Ecuador since the 1980s coincided with significant processes of agrarian change; the transformation of rural social movement federations from a sociopolitical force into a political/electoral force and the subsequent decline of these movements; and the deepening integration of small-scale producers into domestic agribusiness commodity chains and the growth of national agribusiness firms during the Correa government. © 2017 John Wiley &amp; Sons Ltd</t>
+          <t>Convergence–as an objective and as a process–designates the coming together of different social actors across strategic, political, ideological, sectoral and geographic divides. In this paper, we analyze the global food sovereignty movement (GFSM) as a convergence space, with a focus on constituencies and quotas as tools to maintain diversity while facilitating convergence. We show how the use of constituencies and quotas has supported two objectives of the GFSM: alliances building and effective direct representation in global policy-making spaces. We conclude by pointing to some convergence challenges the GFSM faces as it expands beyond its agrarian origins. © 2018, © 2018 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E163" t="n">
@@ -5660,15 +5762,15 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>The Developmental State and Food Sovereignty in Tanzania</t>
+          <t>Land of plenty, land of misery: Synergetic resource grabbing in Mozambique</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Tanzania has been experiencing different periods of food shortages mainly because of insufficient food production. While the country has an undisputable potential for food production, the state and its development partners, such as the World Bank, believe that the unsustainable peasant food production is the main cause of the food crisis. As a panacea to the food crisis, a call for de-peasantization in favour of commercial large-scale farming, is advocated. Inspired by the work of Sam Moyo, this article argues that achieving food self-sufficiency should begin with improving peasant agriculture instead of dispossessing peasants of their land. The principles of food sovereignty must be adopted and the orientation of the state must be developmental. The state must play an activist role in investing heavily in agricultural-related projects. © 2017 SAGE Publications.</t>
+          <t>Global climate change policy enforcement has become the new driving force of resource grabbing in the context of the "scramble of resources" in Africa. Nevertheless, the environmental crisis should not be seen as an isolated phenomenon amid contemporary capitalism. On the contrary, a very distinct feature of the current wave of land grabs is the convergence of multiple crises, including food, energy/fuel, environmental, and financial. The Southern Mozambique District, Massingir, is an area with high potential regarding water sources and biodiversity. It recently became a host of a biofuel project, and also a huge block of land is being transformed into a conservation/tourism area; answering to many issues within capitalism's crisis, this area is an evidence of how synergetic resource grabbing can arise as a response to the convergence of multiple crises. Therefore, by analyzing the emerging politics of natural resources in Massingir District and the dynamics regarding the land-use change, changes in property relations, it is possible to understand how rural livelihoods are shaped. Risks related to food security and sovereignty, loss of control and access to resources, consistent narrowing down of the set of livelihood strategies, and inter-community conflicts over scarce resources are the main implications of such emerging climate-smart land politics. © 2019 by the authors.</t>
         </is>
       </c>
       <c r="E164" t="n">
@@ -5692,15 +5794,15 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Is Oil Palm Expansion a Challenge to Agroecology? Smallholders Practising Industrial Farming in Mexico</t>
+          <t>Agroecologies of displacement: a study of land access, dislocation, and migration in relation to sustainable food production in the Beach Flats Community Garden</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Agroecology has become a powerful alternative paradigm for rural development. In contrast to conventional approaches, this paradigm shifts the emphasis from technology and markets to local knowledge, social justice and food sovereignty, to overcome rural poverty and environmental degradation. However, the spread of this approach faces several obstacles. This paper deals with one of these obstacles: the ‘preference’ of smallholders for industrial farming. We specifically analyse the widespread uptake up of oil palm by smallholders in Chiapas. Contrary to agro-ecological assumptions, oil palm proved favourable to smallholders in Chiapas because of historical and contemporary state–peasant relations and the advantageous economic circumstances within the oil palm sector. Based on this research, we identify four challenges for agroecology: (i) the existence of contradictory interests within the peasantry as a result of social differentiation; (ii) the role of the state in making conventional development models relatively favourable to smallholders; (iii) the prevalence of modernization ideologies in many rural areas; and (iv) the need for this paradigm to acknowledge smallholders' agency also when engaged in industrial farming. These challenges need to be tackled for agroecology to offer viable alternatives in a context of agro-industrialization. © 2016 John Wiley &amp; Sons Ltd</t>
+          <t>In this article, the Beach Flats Community Garden is used as a case study to theorize an “agroecologies of displacement.” We argue that farmers are increasingly less singularly place-based through involuntary displacement and that displacement and dispossession can shape agricultural practices in farming communities. We follow Cohen (2010), Kerssen and Brent (2017), and others in calling for the necessity to bring a historical and focused analysis of displacement, dispossession, and the dynamics of land under capitalist systems to our understanding of the articulations of food movements, in particular transformative agroecologies. © 2018, © 2018 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E165" t="n">
@@ -5724,15 +5826,15 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>The Class Dynamics of Food Sovereignty in Mexico and Ecuador</t>
+          <t>Maritime Food Development Strategy as National Economic Pillar using SWOT Analysis Interpretative Structural Modelling (ISM)</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>This paper examines the class dynamics of food sovereignty in Mexico and Ecuador. It argues that the nature of contemporary demands for food sovereignty is heavily influenced by the outcomes of peasant movements’ historical and ongoing internal class dynamics. Processes of class differentiation within peasant organizations in both countries have led to the interests of certain classes predominating over or at the expense of others. Despite La Vía Campesina's projection of ‘unity in diversity’, incorporating sometimes conflicting class interests into the movement is particularly challenging. As such, class analysis must be brought back into debates around food sovereignty in order to gauge (and potentially further) the movement's transformative potential. © 2016 John Wiley &amp; Sons Ltd</t>
+          <t>The rapid growth of population result in demand for food exceeds its supply capacity. The gap between the needs and availability of food is inseparable from the existing policies. The ability of a nation in fulfilling the needs of food affects the state sovereignty. The aim of research is to formulate strategies in promoting food sovereignty in maritime sector. Maritime potential can be viewed from to what extend a nation realizes and exploits the sea. This research used McKinsey 7S method, PEST analysis (Political, Economic, Socio-cultural, Technology), SWOT analysis and Interpretative Structural Modeling (ISM). This research is expected to encourage the government in national maritime food development. Based on the results of SWOT matrix analysis, the SO strategy consists of five strategies. The ST strategy consists of five strategies. The WO strategy consists of five steps while the WT strategy consists of two steps. In the hierarchical structure model, it can be seen that WT-2 Strategy is at the first level. WO-5 strategy is at the level of strategy 2. Level of strategy 3 consists of six sub-strategies. Level of strategy 4 has three sub-strategies. Level of strategy 5 consists of six sub-strategies. © Medwell Journals, 2019</t>
         </is>
       </c>
       <c r="E166" t="n">
@@ -5756,15 +5858,15 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Investor ownership or social investment? Changing farmland ownership in Saskatchewan, Canada</t>
+          <t>Heritage and patrimony of the peasantry: An analytical framework to address rural development; [Herencia y patrimonios de campesinado: Un marco analítico para abordar el desarrollo rural]</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>There is growing recognition that land grabbing is a global phenomenon. In Canada, investors are particularly interested in Saskatchewan farmland, the province where 40 % of country’s agricultural land is situated. This article examines how the changing political, economic, and legal context under neoliberalism has shaped patterns of farmland ownership in Saskatchewan, between 2002 and 2014. Our research indicates that over this time, the amount of farmland owned by investors increased 16-fold. Also, the concentration of farmland ownership is on the rise, with the share of farmland owned by the largest four private owners increasing six-fold. Our methodology addresses some of the criticisms raised in the land grabbing literature. By using land titles data, we identified farmland investors and determined very precisely their landholdings thus allowing us to provide a fine-grained analysis of the actual patterns of farmland ownership. Although the article analyzes changes to farmland ownership in a specific historical, cultural and legislative context, it serves as the basis for a broader discussion of the values and priorities that land ownership policies reflect. Namely, we contrast an ‘open for business’ approach that prioritizes financial investment to one based on a land sovereignty approach that prioritizes social investment. The latter has greater potential if the aim is ecological sustainability and food sovereignty. © 2016, Springer Science+Business Media Dordrecht.</t>
+          <t>The term “rural development” is exceptionally multifaceted, which makes it difficult to define. This and other features make it a ‘wicked problem’, which means the consequences of rural developmental problems can create other complications. To date, the important discussion of rural development has dealt with productivity and economic concerns. This discussion has many crucial aspects such as the environment, infrastructure, and respect for fundamental rights. This paper describes the ‘Heritage and Patrimony of the Peasantry’ as an alternative analytical framework for addressing rural development. This analytical framework takes important topics from other rural development perspectives (primarily focused on food sovereignty principles). The heritage and patrimony of the peasantry framework moves away from the market point of view, which converts everything into an asset that can be marketed, and utilizes other sources of heritage. The peasantry has seven kinds of ‘ heritages’ or ‘patrimonies’: natural, cultural, economic, physical, social, institutional, and human. These heritages or patrimonies are the bases of construction for a decent standard of living which will accomplish full rights for all rural inhabit-ants, i.e. rural development. © 2019, Universidad Nacional de Colombia. All rights reserved.</t>
         </is>
       </c>
       <c r="E167" t="n">
@@ -5788,15 +5890,15 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Codesigning a resilient food system</t>
+          <t>Integration model of food security system and food sovereignty system in Indonesia</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Global changes, especially the progression of climate change, create a plethora of adaptation needs for social-ecological systems. With increasing uncertainty, more resilient food systems that are able to adapt and shape their operations in response to emerging challenges are required. Most of the research on this subject has been focused on developing countries; however, developed countries also face increasing environmental, economic, and social pressures. Because food systems are complex and involve multiple actors, using codesign might be the most productive way to develop desirable system characteristics. For this study, we engaged food system actors in a scenario-planning exercise to identify means of building more resilient food systems. In particular, the actors focused on determinants of adaptive capacity in developed countries, with Finland as a case study. The brainstorming session followed by a two-round Delphi study raised three main characteristics for effective food system resilience, namely, energy and nutrient sovereignty, transparency and dialogue in the food chain, and continuous innovativeness and evidence-based learning. In addition, policy interventions were found instrumental for supporting such food system resilience. The main actor-specific determinants of adaptive capacity identified included the farmers’ utilization of agri-technology and expertise; energy and logistic efficiency of the input and processing industry; and for retail, communication to build consumer trust and environmental awareness, and effective use of information and communication technology. Of the food system actors, farmers and the processing industry were perceived to be the closest to reaching the limits of their adaptive capacities. The use of adaptive capacity as a proxy seemed to concretize food system resilience effectively. Our study suggests that the resilience approach generates new perspectives that can guide actors in developing food systems that are adaptive in uncertainty. © 2016 by the author(s).</t>
+          <t>This research is important to integrate Food Security system with Food Sovereignty system. Starting from the current condition that the Food Security has not been integrated with Food Sovereignty system yet. It is known that Food Security system is developed by free market economy system, while Food Sovereignty system is determined based on national interest of a country in choosing food system considered suitable to be applied in its country. For the current condition in Indonesia, the food system still refers to the Food Security system. The Government does not have capacity to intervene the market directly and consequently, the number of food imports becomes high and the welfare of farmers slumps. Through this research, it is necessary to arrange and adapt the application of Integrated Model construction of Food Security System Integration and Food Sovereignty to Achieve Sustainable Food Self-Sufficiency in Indonesia. This research was conducted by using juridical-empirical approach which is oriented to holistic study and in its process, legal discipline gets the assistance of related discipline, such as economics, politics, technique, environment, human rights, social, and culture. The analysis of the research object was conducted through legal analysis. in addition to library research, data collection techniques used is field surveys and the analytical technique used is Cost-Benefit-Analysis (CBA).The result of this research is the arrangement of Integration Model Construction of Food Security System and Food Sovereignty to Achieve Sustainable Food Self-Sufficiency in Indonesia. © 2019, Institute of Advanced Scientific Research, Inc.. All rights reserved.</t>
         </is>
       </c>
       <c r="E168" t="n">
@@ -5820,22 +5922,24 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Peasant activism and the rise of food sovereignty: Decolonising and democratising norm diffusion?</t>
+          <t>Building Healthy Community Relationships Through Food Security and Food Sovereignty</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>‘Food sovereignty’ emerged from grassroots peasant mobilisations, and has been spread globally by a democratically organised social movement, la Vía Campesina. This process has seen food sovereignty influence global political discourse, transform national constitutions and be incorporated into a proposed United Nations declaration on the rights of peasants and other people working in rural areas. By examining the role of grassroots actors in the global South in the construction of this emerging global norm, I militate against tendencies of West-centrism and elitism in existing literature on the contemporary diffusion of norms. By also discussing the potential marginalisation of grassroots peasant voices in recent United Nations discussions, I suggest that these elitist and West-centric tendencies may also exist in the norm diffusion process itself. © 2015, © The Author(s) 2015.</t>
+          <t>Background: Food insecurity disproportionately affects Indigenous Peoples and is linked to poor health outcomes. Indigenous Peoples' food systems once sustained their thriving societies; however, colonial policies of displacement and imposed assimilation severed connections to Indigenous food systems and lands, disrupting identity, culture, and well-being. Objective: In this article we share a grass-roots designed program that addresses food security and heeds Haudenosaunee teachings. The Story of Creation, the Great Law, and Ohénton Karihwatéhkwen (the words that come before all else) were the basis of the framework. The program acknowledges and uses community strengths and skills to enhance social connections and links with land and creation. Methods: The program brought together interested and knowledgeable community members and stakeholders to discuss and better understand food security in the community. This group formed as an advisory group called Ieiénthos Akotióhkwa - 'Planting Group' who shaped the food security activities. Results: The program delivered workshops to build skills and share knowledge about food production and preparation. It targeted diverse participant interests and needs within an environment meant to nurture social connections. The program planted food-bearing trees and plants and created a seed library to create edible landscapes. We invited a broad scope of community knowledge- and skill-holders to share their talents with the community, to reinforce positive connections with each other, and to carry on cultural practices. Conclusions: Challenges included program sustainability linked to short-term funding and personnel turnover. Strengths involved using a culturally based framework that enhanced program coherence, and facilitated collaboration with local initiatives focused on well-being, practicing culture, and respecting the environment. Haudenosaunee teachings hold values and principles for a society that provides food for all. These teachings are a framework for a culturally rich program to support food security skills and resources, but also Indigenous cultural identity and practices. © 2019 American Society for Nutrition.</t>
         </is>
       </c>
       <c r="E169" t="n">
         <v>1</v>
       </c>
-      <c r="F169" t="n">
-        <v>1</v>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -5852,22 +5956,24 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>The Prism of Expanding Peasants' Rights: A Critical Investigation of Diverse Frames Applied to la Vía Campesina's Human Rights Engagements</t>
+          <t>Reimagining the relationship between food sovereignty and intellectual property for plants: Lessons from Ecuador and Nepal</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Since its foundation in 1993, La Vía Campesina has surged to the forefront of the global alter-globalization movement of movements, mobilizing human rights discourse to promote small-scale sustainable agriculture as a key component of social justice, equity, dignity, and autonomy everywhere. This literature review argues that food sovereignty - La Vía Campesina's best known, rights-based innovation - inflects a range of other interrelated but distinct frames that variously foreground peasants' rights, "peasantness," land, cultural recognition, and collective emancipation, prefiguring an array of prospects for the expansion of human rights to peasants and other marginalized populations confronting the failures of capitalist globalization. © 2018 Koninklijke Brill NV, Leiden, The Netherlands.</t>
+          <t>The concept of food sovereignty is regularly conceived as one side of a binary. Thus, scholars frequently juxtapose food sovereignty—as embodied in small-scale, customary, or peasant agriculture—against large-scale, industrial, and global modes of food production. The logic of this dichotomy suggests that the realization of food sovereignty is incompatible with the recognition of intellectual property for plants and seeds. In contrast, we argue that food sovereignty and intellectual property are not necessarily mutually exclusive concepts. Instead, food sovereignty activists and lawmakers alike are reimagining intellectual property to move beyond a focus on exclusive ownership, thus deploying it in novel ways. Our argument draws on extensive fieldwork, based on which we relate the experiences of two case study countries, namely Ecuador and Nepal. We describe how these countries recently embedded rights related to food sovereignty in reformed constitutional frameworks. We also evaluate how these novel constitutional food sovereignty rights shaped the making of other national laws in Ecuador and Nepal, including frameworks whose purpose is to protect plant varieties as intellectual property. Throughout the article, we demonstrate that countries can both promote food sovereignty and protect plant varieties as intellectual property. One way that governments can achieve this goal is to ensure that all relevant laws and policies—including those which relate to intellectual property for plant varieties, seed certification, and commercialization, and access and use of native genetic resources—are tailored to the realities of local food and seed systems. © 2019 The Authors. The Journal of World Intellectual Property © 2019 John Wiley &amp; Sons Ltd</t>
         </is>
       </c>
       <c r="E170" t="n">
         <v>1</v>
       </c>
-      <c r="F170" t="n">
-        <v>1</v>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -5884,15 +5990,15 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Issues of import substitution in the agro-industrial sector</t>
+          <t>The territorial policy of rural development in brazil: Questions and reflections about the reconnection between production and consumption of food; [A política territorial do desenvolvimento rural no Brasil: Perguntas e reflexões sobre a reconexão entre produção e consumo de alimentos]; [La política territorial del desarrollo rural en Brasil: Preguntas y reflexiones sobre la reconexión entre producción y consumo de alimentos]</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>The development of the modern agro-industrial sector at all levels of economy management is considered in the context of import substitution due to the sanctions announced by the US and the West and the food import ban announced by Russia as a counter measure. The government has approved the "roadmap" to facilitate import substitution in agriculture. The purpose of the article is to assess the potential of the AIS (agro-industrial sector) in Russia, trends in achieving threshold levels of food sovereignty, determine methodological and practical conditions and possibility to implement the roadmap of import substitution, volumes, timing and growth rate in achieving the goals.</t>
+          <t>Short marketing circuits and territorial rural development policies emphasize the importance of the reconnection between food production and consumption, with repercussions on the food security and sovereignty of local populations. For this, we analyzed official documents of the Program for the Sustainable Development of Rural Territories, the Citizenship Territories Program, the Territorial Development Plans, as well as field research on projects carried out in three rural territories and citizenship in the South of Brazil. From this analysis, it is possible to think of the strengthening of short circuits as the mechanism to promote rural territorial development. © 2019, Pontificia Universidad Javeriana. All rights reserved.</t>
         </is>
       </c>
       <c r="E171" t="n">
@@ -5916,22 +6022,24 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Community context of food justice: Reflections on a free local produce program in a New Orleans food desert</t>
+          <t>Indigenous knowledge of banjarese tribe farmers in paddy cultivation at tidal swamplands in South Kalimantan, Indonesia</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Food justice discourse has emerged partly in response to the critique of alternative food networks during the last decade, but its justice conceptualization tends to be too narrowly focused on food-related injustices rather than broader social injustices that shape food access and food sovereignty, a gap we address. Our analysis of a semi-experimental free local food program we administered in a New Orleans food desert demonstrates that several community context factors shape the residents' access to a local food market in this neighborhood: fragmented social ties, digital and generational divides, perpetual infrastructural failure, and the location of the market within the neighborhood. We argue that food justice discourse needs to incorporate social and cultural community contexts in its operationalization of food access and sovereignty, especially regarding how the latter concept is defined and executed in practice. © 2017 Laura McKinney et al.</t>
+          <t>Traditionally, tidal swampland has been utilized by the Banjarese tribe for farming. They have a unique indigenous knowledge in the paddy agriculture system. This indigenous knowledge is obtained hereditarily through the life experience in the interactions with the surrounding environment. By owning the indigenous knowledge, it can make the paddy agriculture in the tidal swampland sustainable. This research aimed at identifying and describing the indigenous knowledge of Banjarese tribe farmers in the tidal swampland which is commonly practiced until today. The method used in this research was a qualitative method with an ethnographic approach. In the research data collection, observation technique, documentation, and in-depth interview were used. The subjects of this study were the Banjarese tribe farmers who are supported by the key informant. The data analysis technique was conducted with triangulation technique. The research results showed that the Banjarese tribe farmers have the indigenous knowledge on season determination, land selection, land management, seed selection, planting, and harvesting. The implication of this study can give the information to the planning and development of agriculture in tidal swampland by the relevant agencies, realize the sustainable cultivation concept through the land conservation with the tapulikampar system, anticipate the crop failure, and realize the food sovereignty. @ EM International.</t>
         </is>
       </c>
       <c r="E172" t="n">
         <v>1</v>
       </c>
-      <c r="F172" t="n">
-        <v>1</v>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -5948,15 +6056,15 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Reintegrating economy, society, and environment for cooperative futures: Polanyi, Marx, and food sovereignty</t>
+          <t>Food democracy as ‘Radical’ food sovereignty: Agrarian democracy and counter-hegemonic resistance to the neo-imperial food regime</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>This paper attempts to ‘put in their place' (Sum and Jessop 2013) some key issues that frame the question of ‘the more-than-economic dimensions of co-operation'. In particular, it asks why capitalism deconstructs socio-natural reality into the ‘common-sense' and discrete institutional spheres of ‘economy', ‘society' and ‘environment', an institutional constellation in which the ‘economy' is usually afforded pre-eminence. Building on this, the paper further asks: why does the organization of society around the commodity form, and specifically around the generalization of the commodity form to labour-power that is the defining feature of capitalism, have the tendential effect of fragmenting, atomizing, and marginalizing social collectivities and cooperative behaviour? This question is answered through examination of the work of Polanyi and Marx, arguing that it is the latter who is best able to explain the nature and dynamics of capitalism, and its relationship to cooperative activity. The paper elaborates the Marxian approach and suggests strong linkages with the ‘radical' fraction of the food sovereignty movement. The latter, like Marx, appears to invoke unconstrained cooperation as ‘actual' autonomy; the paper asks what the political and ecological prerequisites for the realization of this social imaginary might be. © 2016 Elsevier Ltd</t>
+          <t>This article argues that a thoroughgoing and meaningful food democracy should entail something closely akin to ‘radical’ food sovereignty, a political programme which confronts the key social relational bases of capitalism. The latter comprise, in essence, ‘primitive accumulation,' the alienability or commodification of land and other fundamental use values, and market dependence. A thoroughgoing food democracy of this kind thus challenges the structural separation of the ‘economic’ and ‘political’ spheres within capitalism and the modern state (the state-capital nexus), a separation which enables purely political rights and obligations (‘political’ freedom or formal democracy) whilst simultaneously leaving unconstrained the economic powers of capital and their operation through market dependence (‘economic’ unfreedom or the lack of substantive democracy). We argue that much ‘food democracy’ discourse remains confined to this level of ‘political’ freedom and that, if food sovereignty is to be realized, this movement needs to address ‘economic’ unfreedom, in other words, to subvert capitalist social-property relations. We argue further that the political economy of food constitutes but a subset of these wider social relations, such that substantive food democracy is seen here to entail, like ‘radical’ food sovereignty, an abrogation of the three pillars upholding capitalism (primitive accumulation, absolute property rights, market dependence) as an intrinsic part of a wider and more integrated movement towards livelihood sovereignty. We argue here that the abrogation of these conditions upholding the state-capital nexus constitutes an essential part of the transformation of capitalist social-property relations towards common ‘ownership’?or, better, stewardship?of the means of livelihood, of which substantive food democracy is a key component. © 2019 by the author; licensee Cogitatio (Lisbon, Portugal).</t>
         </is>
       </c>
       <c r="E173" t="n">
@@ -5980,15 +6088,15 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Value chain governance and governmentality of horticultural exporters by developing economies: A perspective of Kenya's fresh fruits and vegetable export sector</t>
+          <t>Could social farming be a strategy to support food sovereignty in Europe?</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>The domain of governance has largely been extolled by Nations, States or governmental and intergovernmental actors especially in upholding Nations' sovereignty and values. While this still holds, governance complexity has been reinforced by establishment of global value chains such as in food and agriculture commodities increasingly being influenced and controlled by non-state actors in different parts of the world by both corporate and retail actors through private governance mechanisms. These mechanisms often fall short of universal standards and the resultant effect is ramified through proliferation of standards that result to state of governance that is constantly being redefined as 'codes of colours'. This paper thus seeks for an alternate dimension based on Foucault's governmentality theory. The quest for this overarching theory is based on its mediatory role that regulates the excesses of private interests in regulations while not prioritizing any state's sovereignty but views governance inclusively to both the State and non-state actors; this view promotes the broader understating of global value chains in the global economy of the 21st century. The paper's methodology is based on literature review pertinent to governance theory, value chain governance, governmentality as its key variables in light of the agrifood sector. It applies the value chain discourse and governmentatity in light of the Kenya's Horticultural export and strategic positioning to the EU market. This paper's novelty in light of the discourse and building on the body of knowledge and for the plausible ways and means to re-articulate value chain governance in the global economy while creating a viable alternative between the States, and Non-State actors for the benefit of both the upstream agents and downstream customers.</t>
+          <t>Food sovereignty (FS) aims to obtain value-added products in proximity agriculture (PA) in order to achieve food security in a country. Social farming (SF) can help to develop this PA as well as favoring integration of people at risk of social exclusion (RSE). The methodology includes a review of the literature, a survey of 161 SF projects in Catalonia, and ten selected in-depth interviews. “Social Return on Investment” (SROI) methodology is also applied to assess the efficiency of the projects analyzed. The results show the economic, social, and environmental viability of the majority of the SF projects which, also favored by FS and PA, allows the development of innovative experiences and sustainable forms of governance. SF has been carried out in different ways in European countries, although with the common aims of benefitting people at RSE, and using the natural environment and PA through projects basically promoted by Third Sector entities. Management of these projects is in the hands of foundations and non-profit companies making top-down decisions, and in cooperatives and associations, where decision-making is bottom-up. It can be concluded that the promotion of SF can favor PA, and therefore, FS in Europe. © 2019 by the authors. Licensee MDPI, Basel, Switzerland.</t>
         </is>
       </c>
       <c r="E174" t="n">
@@ -6012,15 +6120,15 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>‘Rescaling’ alternative food systems: from food security to food sovereignty</t>
+          <t>My land is my food: Exploring social function of large land deals using food security–land deals relation in five Eastern European countries</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>In this paper, we critically interrogate the benefits of an interdisciplinary and theoretically diverse dialogue between ‘local food’ and ‘alternative food networks’ (AFNs) and outline how this dialogue might be enriched by a closer engagement with discourses of food sovereignty and the politics of scale. In arguing for a shift towards a greater emphasis on food sovereignty, we contend that contemporary discourses of food security are inadequate for the ongoing task of ensuring a just and sustainable economy of food. Further, rather than treating the local and the global as ontologically given categories around which to contest the politics of food, it is our contention that recognising the socio-spatial aspects of the politics of scale has the potential to reinvigorate discourses of food security, food sovereignty and AFNs. Understanding scale as both fixed to a degree as well as contingent and dynamic has implications for an understanding of the role of food systems, for how the rescaled state privileges certain food systems and the possibilities for resistance through ‘jumping scale’ and food utopias. All of these aspects are significant if we are to fully comprehend and contest the challenges of envisioning and enacting real utopias of food sovereignty. © 2015, Springer Science+Business Media Dordrecht.</t>
+          <t>Food security provides a major topic for this study and the recurring point is food security–agricultural land relation. The analysis is grounded on the assumption that control over agricultural land means control over food. Effective control over land is one of the riskiest issues of large land deals. Permanent supply and sustainable access to quality food is influenced by structural socio-economic and political arrangements targeting agricultural land which often prevent individuals and entire communities from acquiring basic competencies and rights for their autonomy. The objective of the study is two folded: to investigate five Eastern European countries characteristics which are valued as determinants of food security–large land deals relation and to highlight the social utility of agricultural land property. Thus, the substantive theme of this study grows out of several observed streams of large land deals. In the first part, historical and economic influential factors connected to large land deals in Eastern Europe are approached, within the context of transition from centrally planned state economy to free market economy. The second part takes up the challenge to analyze the correlation between country characteristics that can impact on food security–land transaction relationship. Then, the paper goes on to introduce and explain, following Léon Duguit's theory of social utility, aspects about the social function of agricultural land ownership. Based on non-parametric tests, which included a set of 14 socio-economic variables, the results show, for example, a strong positive correlation between the size of closed land deals and both the size of country land area and of land under cereal production. The paper concludes with several proposals targeting fair land arrangements and practices that have the potential to transform themselves in building blocks for future policies dedicated to sustainable land management and food security. © 2019 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E175" t="n">
@@ -6044,15 +6152,15 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Sovereignty, Risk and Biotechnology: Zambia's 2002 GM Controversy in Retrospect</t>
+          <t>Beyond the “special period”: land reform, supermarkets and the prospects for peasant-driven food sovereignty in post-socialist Cuba (2008–2017)</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>The southern African food crisis of 2002 led to one of the most significant controversies over the use of genetically modified (GM) crops in the developing world to date. Zambia's staunch opposition to GM food aid during the crisis is still frequently used as a reference point in debates over GM seed technology in agricultural development, and the morality of advanced biotechnology. This article re-examines the controversy and its contemporary relevance using oral history interviews with key scientists, policy makers and development practitioners engaged in debates and decision-making processes in Zambia in 2002, alongside a review of discourses in the Zambian press. The author argues that, rather than different perceptions of health and environmental risks derived from GM crops, it was questions of sovereign regulatory control of technology in a context of diminished state capacity - and the decline in the Zambian state's capacity for agricultural science research in particular - that played a central role in shaping anti-GM attitudes. In addition, trust in the arguments of GM advocates was diminished by communication efforts which treated Zambian scientists and policy elites as a lay rather than an expert audience. © 2015 International Institute of Social Studies.</t>
+          <t>When Cuba’s trade-based food security strategy was threatened by the collapse of the socialist trading block in 1989–1991, the popular response of small and irregular farmers proved vital in providing a minimum food basket during the ensuing crisis. In 2008, a large-scale land reform sought to expand this development towards food sovereignty. We evaluate the reform impacts, finding that after an initial surge in 2009–2010, food production and land use have rebounded and stagnated at pre-reform levels. Peasant-led agricultural development is forestalled by inaccessibility of appropriate technologies, perceived land tenure insecurity, missing/deficient markets and competition from import-based supermarket chains. © 2019, © 2019 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E176" t="n">
@@ -6076,22 +6184,24 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Accountability and the empowerment of rural people’s organizations in global rural transformation</t>
+          <t>Banana Brokers: Communicative labor, translocal translation, and transnational law</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>How to ensure that what has been termed a ‘rural transformation agenda’ is formulated with the participation of organizations directly representing those sectors of the population most strongly and directly affected? Under what conditions might peoples’ movements adopt accountability to support their struggles? This article approaches questions like these by examining the innovative setting of the reformed Committee on World Food Security, in which civil society engages on the same footing as governments. © 2016 Society for International Development.</t>
+          <t>In contrast to hierarchical models of international law, contemporary transnational law is constituted by networks of states, international institutions, multinational corporations, and transnational activists struggling for power by producing competing norms. This essay examines how power is constructed and contested in transnational law through competing social practices of translation. By ethnographically analyzing the conflict over the "Super Banana"-a genetically modified crop funded by the Bill and Melinda Gates Foundation-I show how the circulation of transnational assemblages engender networks of translation that compete for interpretive authority. I argue that translocal translation can be distinguished from hegemonic practices of transnational translation based on translators' material and symbolic resources, epistemologies, and practices of commensuration. In doing so, this essay illuminates the often unrecognized differences in communicative labor that constitute contemporary forms of global legality. © 2018 by Duke University Press.</t>
         </is>
       </c>
       <c r="E177" t="n">
         <v>1</v>
       </c>
-      <c r="F177" t="n">
-        <v>1</v>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6108,15 +6218,15 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Food or flowers? Contested transformations of community food security and water use priorities under new legal and market regimes in Ecuador's highlands</t>
+          <t>Can the state take agroecology to scale? Public policy experiences in agroecological territorialization from Latin America</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>During the past three decades, the Pisque watershed in Ecuador's Northern Andes has become the country's principal export-roses producing area. Recently, a new boom of local smallholders have established small rose greenhouses and joined the flower-export business. This has intensified water scarcity and material/discursive conflicts over water use priorities: water to defend local-national food sovereignty or production for export. This paper examines how including peasant flower farms in the capitalist dream - driven by a 'mimetic desire' and copying large-scale capitalist flower-farm practices and technologies - generates new intra-community conflicts over collective water rights, extending traditional class-based water conflicts. New allocation principles in Ecuador's progressive 2008 Constitution and 2014 Water Law prioritising food production over flowers' industrial water use are unlikely to benefit smallholder communities. Instead, decision-making power for peasant communities and their water users' associations on water use priority would enable water user prioritization according to smallholders' own preferences. © 2016 Elsevier Ltd.</t>
+          <t>In this article we use a food sovereignty frame to analyze the role of the State in favoring agroecological scaling, particularly in Cuba and in the Latin American countries that elected leftist governments in the first years of the 21st century and currently face an upsurge of right-wing political forces. As with social movement participation in international governance structures, at the national level social movements face risks when they allow themselves to become absorbed in collaborations with the State in order to build public policy for taking agroecology to scale. By participating in the institutionalization of agroecology, movements become part of the established rules of the game, having to move within limits defined by a system that exists to preserve the interests of the dominant class. On the other hand, by boycotting the arena of governance, agroecological movements allow resurgent political and economic elites to grab land, territories and resources needed for agroecological food systems to ever become a global substitute for industrial agriculture. At the heart of the matter is the political character of agroecology: shall we continue betting on reform, in times of (counter) revolution?. © 2019, © 2019 Taylor &amp; Francis Group, LLC.</t>
         </is>
       </c>
       <c r="E178" t="n">
@@ -6140,15 +6250,15 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Farmer seed networks make a limited contribution to agriculture? Four common misconceptions</t>
+          <t>Enhancing smallholder resilience through place-based knowledge and resource generation</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>The importance of seed provisioning in food security and nutrition, agricultural development and rural livelihoods, and agrobiodiversity and germplasm conservation is well accepted by policy makers, practitioners and researchers. The role of farmer seed networks is less well understood and yet is central to debates on current issues ranging from seed sovereignty and rights for farmers to GMOs and the conservation of crop germplasm. In this paper we identify four common misconceptions regarding the nature and importance of farmer seed networks today. (1) Farmer seed networks are inefficient for seed dissemination. (2) Farmer seed networks are closed, conservative systems. (3) Farmer seed networks provide ready, egalitarian access to seed. (4) Farmer seed networks are destined to weaken and disappear. We challenge these misconceptions by drawing upon recent research findings and the authors' collective field experience in studying farmer seed systems in Africa, Europe, Latin America and Oceania. Priorities for future research are suggested that would advance our understanding of seed networks and better inform agricultural and food policy. © 2015 The Authors. Published by Elsevier Ltd.</t>
+          <t>Rice systems are of particular significance to building climate resilience in the Philippines. This research brief summarizes a case study that comparatively measures differences in climate resilience between organic and conventional rice systems in four neighboring villages in Negros Occidental Province, as well as explores features of smallholder rice systems that are significant to building resilience. Data were collected through surveys, interviews, focus groups, and participant observation. A participatory approach was applied to account for socioecological context and to identify targeted interventions for enhancing climate resilience based on local conditions and farmer experiences. The results indicate that (a) of the participating rice systems, organic systems exhibit greater resilience than their conventional counterparts; (b) the current institutional arrangement prevents smallholders from transitioning to organic; and (c) a polycentric food sovereignty development approach helps Philippine smallholders overcome these institutional barriers, as well as builds smallholder capacities for resilience by supporting place-based knowledge and resource generation. More effort is needed to explore, analyze, and strengthen such polycentric food sovereignty interventions for climate change. © 2019 by the Author.</t>
         </is>
       </c>
       <c r="E179" t="n">
@@ -6172,22 +6282,24 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>European transitions towards a corporate-environmental food regime: Agroecological incorporation or contestation?</t>
+          <t>Perceptions of agrodiversity and seed-saving practices in the northern Andes of Ecuador</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>The 'food regime' concept helps to analyse potential transitions beyond the agro-industrial regime which has been globally dominant since the 1970s. As its multiple crises generate alternative production methods and products, some have been incorporated into a nascent 'corporate-environmental food regime'. This nascent regime is illustrated here by two agendas prominent in Europe - 'bioeconomy' (Life Sciences) and 'sustainable intensification' (neoproductivism). As a significant difference, the prevalent 'bioeconomy' agenda marginalises agroecological practices, while 'sustainable intensification' selectively incorporates such practices within a broader toolkit including biotech. Regardless of that difference, both agendas reinforce a neoliberal productivist narrative: namely, more resource-efficient methods are necessary for increasing production to fulfill the greater market demand for food, feed, fuel, etc. In this way, the capital-accumulation driver is reified as 'market demand' arising exogenously from the food production system - which thereby accommodates societal needs. By contrast, the agroecology narrative diagnoses the problem as profit-driven agro-industrial monoculture systems making farmers dependent on external inputs, undermining their knowledge, and distancing consumers from agri-producers. Through such a narrative, new alliances have elaborated a different future linking farmers' knowledge-exchange, agroecology, food sovereignty, citizens' initiatives, public knowledge about food production, etc. Civil society organisations have facilitated such linkages among researchers, scientists and social movements. In those ways, contending narratives justify different trajectories for an agro-food transition. Each links different innovation paradigms of technique, quality and knowledge. These differences often remain implicit amidst broad terms such as bioeconomy, sustainable intensification, agroecology, etc. Making the divergences explicit can help contest transitions towards a corporate-environmental food regime, while also counterposing agroecological alternatives. © 2015 Elsevier Ltd.</t>
+          <t>Background: As concerns about agrodiversity loss and its impact on food security increase, interest in seed-saving practices and motivations has risen, especially in regions characterized by ancestral farming. Agroecology practitioners in the northern Andes of Ecuador (n = 65) participated in this study to describe (1) the dynamics of intergenerational agrodiversity, (2) perceptions of relevance of the crops they grow, (3) criteria for characterizing the differences between conventional and non-conventional seeds, and (4) their seed-saving practices. Methods: This exploratory study incorporated a community-based participatory research approach using mixed methods. We conducted (1) a timeline mapping for exploring the dynamics of intergenerational agrodiversity and (2) structured interviews to explore the perception of relevance of crops grown to identify criteria for characterizing conventional and non-conventional seeds and for identifying seed-saving practices. We computed ranks and frequencies from free listing data derived from the interviews to detect the most salient patterns for crop diversity and seed-saving practices. A principal component analysis was performed to illustrate crops distribution within the study area. Results and discussion: Based on the timeline-mapping tool, we found that participants perceive an intergenerational loss of agrodiversity. Data derived from free listing determined that salient crops differ in each location of the study area, mostly due to geographic (altitude, climate), market factors, and crop management limitations. Responses from open-ended interview questions revealed that farmers discriminate conventional from non-conventional seeds using yield, adaptation to local conditions, pest tolerance, taste, and crop management as criteria. Analysis of free listing data determined that the most salient reported practices related to seed saving were soil fertility management, seed selection, safe seed storage, tilling and rowing, and weeding. Conclusions: This study contributes to raising awareness of intergenerational agrodiversity loss and replacement with modern crops. We found the relevance of crops and practices is subject to cultural and environmental context, and few agricultural practices are exclusively used for seed saving. Further, farmers clearly discriminate conventional from non-conventional seeds based on advantages and disadvantages, cultural motivation, and produce destination. The community-based participatory approach resulted in positive engagement from participants and promoted commitment from farmers to preserve agrodiversity and support practices at the community level. © 2019 The Author(s).</t>
         </is>
       </c>
       <c r="E180" t="n">
         <v>1</v>
       </c>
-      <c r="F180" t="n">
-        <v>1</v>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6204,15 +6316,15 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>From world hunger to food sovereignty: Food ethics and human development</t>
+          <t>Globalisation and food sovereignty: Impact of foreign direct investments and government expenditure in Ghana in 2001–2010</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>The role of Amartya Sen's early work on famine notwithstanding, food security is generally seen as but one capability among many for scholars writing in development ethics. The early literature on the ethics of hunger is summarized to show how Sen's Poverty and Famines was written in response to debates of past decades, and a brief discussion of food security as a capability follows. However, Sen's characterization of smallholder food security also supports the development of agency in both a political and an economic sense. Economic agency is discussed and tied to longstanding literatures on the moral significance of farming within political economy. Finally, while the newly emergent literature on food sovereignty includes many themes, it is shown to be re-Articulating arguments that stress smallholder's economic agency as a development goal. This pattern of argument thus provides a way to reconcile at least some of the claims being advanced under the banner of food sovereignty with the human development approach, while also restoring food ethics to a more central place in the overall discourse of development ethics. © 2015 Taylor &amp; Francis.</t>
+          <t>The article looks at the globalisation effects on food availability in Ghana. The aim of the article is to analyse which of the selected macroeconomic indicators have a statistically significant impact on the increase of food availability in the country. Impacts of foreign direct investments on agriculture and government expenditures in agriculture have been tested. Correlation analyses and multiple regression analyses have been used to analyse the test results. Findings suggest that change in both foreign direct investments in agriculture and government expenditures in agriculture cause significant change in food availability in Ghana. At the same time, the impact of government expenditures on the amount of available food is in the case of Ghana more than two‑times higher than the impact of agricultural foreign direct investments, while the increase in government expenditures in agriculture does not cause a decrease in foreign direct investments in agriculture. © 2019 Mendel University of Agriculture and Forestry Brno. All Rights Reserved.</t>
         </is>
       </c>
       <c r="E181" t="n">
@@ -6236,15 +6348,15 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>The Conflicted Nature of Food Security Policy: Balancing Rice, Sugar and Palm Oil in Indonesia</t>
+          <t>Dealing with rejection: An application of the exit-voice framework to genome-edited food</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Given the multiple problems presented by food policy, food security presents a complex dilemma for policy-makers. This paper examines the contradictions presented by competing food security, food self-sufficiency and food sovereignty framings, the challenge of policy-making across multiple levels amidst competing agendas of agricultural commodity production and production for self-provisioning populations, and the need to balance economic development with sustainable food production. From an analysis of rice, palm oil and sugar cases in Indonesia, we conclude that the conflicted nature of food policy needs to be understood in terms of the way specific material and ideational, actor-specific and structural factors working across scale shape outcomes in a highly uneven fashion. We find that this produces a policy field highly resistant to single analytical approaches, opening up the wide range of internally conflicting, related policy questions encompassed by food security-related policy. © 2016 Discipline of Anthropology and Sociology, The University of Western Australia.</t>
+          <t>Genome editing has been hailed as both a revolutionary technology and potential solution to many agriculture-related and sustainability problems. However, owing to the past challenges and controversy generated by widespread rejection of genetic engineering, especially once applied to agriculture and food production, such innovations have also prompted their fair share of concern. Generally speaking, much of the discussion centers on the inadequacy or uncertainty of current regulatory regimes, partly owing to the vastly different approaches in the European Union and United States. Insofar as this focus on regulatory regimes is stimulated by the desire to bridge the divide between proponents and critics of genome editing, it risks losing sight of an essential aim of regulatory action: effectively responding to and fostering trust in consumers and the public. In this article, we thus assign priority to understanding the contours of individual dissatisfaction and its related responses. Toward this end, we apply and extend Hirschman's exit-voice framework to bring together, synthesize, and give much-needed substance to the diverse expressions of dissatisfaction and discontent with novel genome-editing technologies. Through the resulting synthetic framework, we then identify and evaluate which governance approaches can prevent actions seen to be problematic and, moreover, open up the space for a more active public. In this context, we devote specific attention to (i) use of labeling as a means to enable "exit" of consumers from markets and (ii) public deliberation as a possible expression of "voice." Indeed, both options are proposed and utilized in the context of genome editing, e.g., as a way for skeptical consumers to express their viewpoints, seek change in prevailing food systems, and navigate the conflicts and tensions from applying unique sets of values to assess the balance of risks and benefits. So far missing, though, is an evaluation of how well such efforts offer effective means for public expression, which is why we also link this framework to the wider issue of consumer sovereignty. Having done so, we conclude with a brief commentary on the potential and limitations of both options in the existing institutional framework of the EU. © 2019 Bartkowski and Baum.</t>
         </is>
       </c>
       <c r="E182" t="n">
@@ -6268,15 +6380,15 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>“We Plant Only Cotton to Maximize Our Earnings”: The Paradox of Food Sovereignty in Rural Telengana, India</t>
+          <t>History and challenges of Brazilian social movements for the achievement of the right to adequate food</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>This article critically examines the role of food sovereignty interventions in the mitigation of the impacts of neoliberal economic policies on poor farmers in the Telengana region of India. Findings based on eighteen months of ethnographic research in the Telengana region reveal that small and poor farmers face socioeconomic and cultural constraints to the adoption of food sovereignty practices and ideals. Food sovereignty prescriptions based on localized, sustainable, and subsistence agriculture paradoxically constrained farmers’ chances of maintaining viable rural livelihoods in a harsh economic climate. Based on these findings, I argue that contrary to assertions by advocates that food sovereignty is a precondition to genuine food security, farmers must first have food and livelihood security to exercise true food sovereignty that allows them more control over their livelihoods. © 2015, © Copyright 2015 by Association of American Geographers.</t>
+          <t>The historical struggles that Brazil faced to overcome malnutrition coincided with the empowerment of civil society and social movements which played a crucial role in the affirmation of health and food as social rights. After two decades under military dictatorship, Brazil went through a redemocratization process in the 1980s when activism emerged to demand spaces to participate in policy-making regarding the social agenda, including food and nutrition security (FNS). From 1988 onward institutional structures were established: the National Council of FNS (CONSEA) convenes government and civil society sectors to develop and monitor the implementation of policies, systems and actions. Social participation has been at the heart of structural changes achieved since then. Nevertheless, the country faces multiple challenges regarding FNS such as the double burden of disease, increasing use of pesticides and genetically modified seeds, weak regulation of ultra-processed products, and marketing practices that affect the environment, population health, and food sovereignty. This article aims at examining the development of the participatory political system and the role played by Brazilian social movements in the country’s policies on FNS, in addition to outlining challenges faced by those policies. © 2018, © 2018 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E183" t="n">
@@ -6300,15 +6412,15 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>‘Quiet Food Sovereignty’ as Food Sovereignty without a Movement? Insights from Post-socialist Russia</t>
+          <t>Agroecology and food sovereignty</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Abstract: What does food sovereignty look like in settings where rural social movements are weak or non-existent, such as in countries with post-socialist, semi-authoritarian regimes? Focusing on Russia, we present a divergent form of food sovereignty. Building on the concept of ‘quiet sustainability’, we present a dispersed, muted, but clearly bottom-up variant we term ‘quiet food sovereignty’. In the latter, the role of the very productive smallholdings is downplayed by the state and partly by the smallholders themselves. Those smallholdings are not seen as an alternative to industrial agriculture, but subsidiary to it (although superior in terms of sociality and healthy, environmentally friendly produce). As such, ‘quiet food sovereignty’ deviates from the overt struggle frequently associated with food sovereignty. We discuss the prospects of ‘quiet food sovereignty’ to develop into a full food sovereignty movement, and stress the importance of studying implicit everyday forms of food sovereignty. © 2015 Taylor &amp; Francis.</t>
+          <t>We propose that agroecology provides a framework for understanding ‘levels’ for the transition to sustainable food systems. If we agree that agroecology includes social and political dimensions of governing territorial food systems, then it must be linked to movements for food sovereignty. However, the concentration of power in food and farming systems locks in industrial logic, posing immense barriers to agroecological and social transition. This creates a tension between efforts at convergence of food system innovations from below, versus co-optation of grass-roots language and practices by private and public actors who are committed not to changing the logic of industrial agriculture, but instead to reducing its harm. We suggest agroecological and food sovereignty movements consciously embrace this tension as a dance of creativity and appropriation. If this dance can be made generative rather than deadly, it can open pathways for transition to new ways of seeing, experiencing, and getting food. © 2019 The Authors. IDS Bulletin and Institute of Development Studies.</t>
         </is>
       </c>
       <c r="E184" t="n">
@@ -6332,22 +6444,24 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Competing Sovereignties, Contested Processes: Insights from the Venezuelan Food Sovereignty Experiment</t>
+          <t>Sowing the seeds of resilience: a case study of community-based Indigenous seed conservation from Andhra Pradesh, India</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Abstract: This article explores how ‘competing sovereignties’ are shaping the political construction of food sovereignty—broadly defined as ‘the right of peoples to healthy and culturally appropriate food produced through ecologically sound and sustainable methods, and their right to define their own food and agriculture systems'. This study was motivated by a lack of clarity on the ‘sovereignty’ of food sovereignty, as noted by numerous scholars—sovereignty for whom, and how? As there is a growing consensus that there are in fact ‘multiple sovereignties’ of food sovereignty that cut across jurisdictions and scales, there is the question of how these sovereignties are competing with each other in the attempted construction of food sovereignty. This question is becoming ever more relevant as food sovereignty is increasingly adopted into state policy at various levels, calling for state and societal actors to redefine their terms of engagement. This article explores questions of ‘competing sovereignties’ by developing an analytical framework, using the lenses of scale, geography, and institutions, and applying it to Venezuela, where for the past 15 years a food sovereignty experiment has been underway in the context of a dynamic shift in state–society relations. © 2015 Taylor &amp; Francis.</t>
+          <t>Despite increasing evidence of threats to Indigenous food systems, many Indigenous communities are innovating to enhance their resilience while conserving and promoting their traditional food systems, offering important lessons for rural development policy. This community-based case study explores one such Indigenous initiative: Sanjeevini, in Andhra Pradesh, India. Sanjeevini has been effective in designing and implementing creative strategies for seed sovereignty and biocultural conservation. Interviews with key persons associated with Sanjeevini (n = 8) and participatory field-research in the Araku Valley region, including interviews with small scale farmers (n = 30), revealed community development strategies emphasising a link between biological and cultural heritage in Indigenous food systems. These include hosting cultural seed festivals, establishing and maintaining community-based seed banks, and facilitating inter-community seed exchanges. Importantly, these strategies take place against a backdrop of community-organising that counteracts the dominant neo-liberal development agenda while resisting deforestation that threatens Indigenous livelihoods. Sanjeevini’s success demonstrates that through the adaptive assertion of self-determination, rural social change is possible. This paper highlights alternative, community-driven articulations of seed sovereignty while underscoring the significance of this community’s own vision in guiding rural innovation and offering promising working models for cultivating rural resilience. © 2019, © 2019 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E185" t="n">
         <v>1</v>
       </c>
-      <c r="F185" t="n">
-        <v>1</v>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6364,22 +6478,24 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Deconstructing homegardens: food security and sovereignty in northern Nicaragua</t>
+          <t>New materialist feminist ecological practices: La via campesina and activist environmental work</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Development scholars and practitioners are promoting food security, food sovereignty, and the localization of food systems to prepare for the projected negative impacts of climate change. The implementation of biodiverse homegardens is often seen as a way not only to localize food production but also as a strategy in alignment with a food sovereignty agenda. While much scholarship has characterized and critiqued food security and sovereignty conceptualizations, relatively little research has examined people’s lived experiences in order to test how such theoretical visions play out on the ground in farming communities. Based on a case study of four coffee cooperatives in northern Nicaragua, we examine a non-governmental organization (NGO)-supported project promoting food security and sovereignty through development of homegardens. We ask: To what extent are homegardens an effective strategy to reach food sovereignty? And, why may farmers be resistant to changing their food production and consumption strategies to embrace biodiverse homegardens when they improve food security? We discuss characteristics of agroecological homegardens, the distinctions between food security, food sovereignty and dominant discourses of development, the history of food sovereignty in Nicaragua, and farmer perspectives on homegarden implementation. Despite historic critiques, NGOs are poised to facilitate the transformation of food and agricultural development by employing counter development strategies, a necessary step if homegardens are to be successful in the long term. To conclude, we propose some strategies NGOs and communities might pursue to move forward with homegardens as a food sovereignty strategy. This research suggests that a food sovereignty approach still rooted in mainstream development models faces significant obstacles to moving beyond food security and into a farmer-led food sovereignty agenda. © 2015, Springer Science+Business Media Dordrecht.</t>
+          <t>Within the context of new theoretical developments in environmentalist materialism, as inflected by gender issues, this paper attempts to analyze the important work of La Via Campesina (women's section) both in grassroots activism and in creating a feminist agenda for the transformation of human-non-human connections. Methodologically, this paper proceeds by historically situating La Via Campesina and the progressive incorporation of women's issues as part of the movement. In parallel, La Via Campesina's insurgent practices of contestation to the exploitation of huge multinational agrobusinesses, to genetically modified crops, and to land-grabbing practices and land usurpation from indigenous populations are illustrated. In conclusion and within the frame of new materialisms, my discussion addresses issues of response-ability, sustainability, and co-habitation to reflect upon the major changes brought about by these new modes of thinking and inhabiting the planet. © 2019 by the authors.</t>
         </is>
       </c>
       <c r="E186" t="n">
         <v>1</v>
       </c>
-      <c r="F186" t="n">
-        <v>1</v>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6396,22 +6512,24 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Monitoring of food security in the Russian Federation: Methodology and assessment</t>
+          <t>We don't want to be officially certified! reasons and implications of the participatory Guarantee systems</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>The paper presents the results of food security research in the Russia Federation. Providing food security and country's independence becomes the core of keeping the national sovereignty under conditions of globalization and integration processes development. It determined the research relevance. The purpose of the research is the development of a new methodological approach to monitoring of food security as one of most important components of an efficient protection system of the latter. Integrative reproduction approach to monitoring of country's food security meeting stability criteria, economic and social ecological efficiency, competitive ability and safety is suggested. The composition of indicators arranged in four groups is developed within the framework of such approach in order to carry out all-round monitoring of Russian Federation's food security: agroindustrial complex production capacity and its efficient use; food accessibility; food affordability; food quality and level. The assessment of Russian Federation's agriculture facilities, agricultural products output dynamics, agricultural raw materials and provisions export and import, level of staple foods consumption by the population and Russians' diet is given based on indicative analysis. The main threats to Russia's food security are revealed (productive powers deindustrialization; low level of investment to the agricultural sector; labour force reduction; increase in dependence on imported foodstuff; population's low income level and living standards, etc.) Recommendations regarding Russian Federation's food security level increase are given (carrying out augmented technologic modernization, establishing a brand new enterprise network, development of associations and cooperatives, increase in government control combined with agricultural producers' business activity, development of market forms of cooperation and integration).</t>
+          <t>Official organic regulation in Europe is based on the third-party certification system to guarantee organic products. Many critics and dissatisfactions have motivated the emergence of other guarantee systems, based on an intense implication of producers and, in some cases, consumers and other local actors, involved in localised agri-food systems. They are called Participatory Guarantee Systems (PGS), and are not recognised as valid guarantee systems by the official organic regulation. In the present paper, we analyse the main differences between the PGS and the third party certification system, deepening on their differentiated social and political implications. We conclude that the procedures behind PGS generate numerous positive impacts in the territories related to local producers (and consumers) empowerment and localised agri-food systems drive, while their implications make them not considered as a substitute to third party certification system, unless certain conditions of social consolidated groups and agroecological and food sovereignty perspective of food system take place. © 2018 by the authors.</t>
         </is>
       </c>
       <c r="E187" t="n">
         <v>1</v>
       </c>
-      <c r="F187" t="n">
-        <v>1</v>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6428,27 +6546,2625 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
+          <t>Utopia, food sovereignty, and ethical fashion: The narrative power of anti-GMO campaigns</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>The idea of utopia has become pervasive in the age of everyday humanitarianism. Digital media communicate utopian ideas that allow people to “do good” for vulnerable others and the environment. At the same time, campaigns mobilize citizens by invoking apocalyptic images, such as genetically modified (GM) “monster” foods. This article looks at the construction of utopian and apocalyptic narratives in social movement campaigns and how they contribute to the construction of identities in the campaigns against GM food and Bt cotton, especially in India. Based on an analysis of campaign material, we show that “organic food” and “ethical cotton” products would be less successful without the concurrent use of apocalyptic narratives. Narratives that are more radical enabled the anti-GM food movement to mobilize large resistance. By contrast, a more inclusive narrative approach in the cotton/textile sector risks supporting interests that are detrimental to social justice and environmental protection. © 2018 Caucus for a New Political Science.</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>1</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>1</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Social change for sustainable localised food sovereignty: Convergence between prosumers and ethical entrepreneurs*</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Some resourceful community-driven initiatives for local food production and retail have recently appeared in Luxembourg, where low organic agricultural rates are paradoxically paired with high consumer demands. This niche of social innovators combines agro-ecology with circular economy practices. Four cases of alternative food networks are presented here – studied with qualitative interviews and participant observation. One was established in the 1980s and has about 200 employees, partly linked to social assistance. The more recent and smaller initiatives are characterised by cooperative governance, a community-supported agricultural outlook, hands-on workshops and time banks, all enabled by social media. These initiatives are more radical in their agro-ecological or permaculture practices, focusing on regenerative land use without relying on imports and fostering the integration of consumers with varying degrees of prosumer involvement. This politicised step goes further than mere (and possibly industrialised) organic production. It represents a cultural shift in the food system by attracting media and policy interest, diverting attention away from individuals and focusing instead on the collective efforts that are necessary to build a more resilient food system. Copyright © FrancoAngeli</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>1</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Does indigenous and campesino traditional agriculture have anything to contribute to food sovereignty in Latin America? Evidence from Chile, Peru, Ecuador, Colombia, Guatemala and Mexico</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>The current challenge for world agriculture is to provide food for a growing population, within a context of environmental degradation and economic inequality. The challenge is how to produce accessible, healthy, diverse, nutritious, safe and abundant food in a way that is sustainable, allowing farmers to exert food sovereignty while at the same time addressing ecosystem conservation. The aim of this study is to explore the potential contribution of traditional agriculture to food sovereignty and also to understand the challenges that indigenous communities are facing today. Our case studies are from six Latin-American countries: Chile, Peru, Ecuador, Colombia, Guatemala and Mexico, where we carried out semi-structured, guided visits and field observations. Our results shed light on how traditional agricultural knowledge, techniques and practices can contribute to these issues, but also to the need of protecting and recovering the cultural and ecological heritage. There is a need to resolve public management issues, related to development investment, technological packages, cultural loss and gender. If these are not addressed, the potential contribution of ancient agricultural knowledge will fail to contribute to strengthen food sovereignty and maintain the local markets, which are also places for seed exchange, knowledge sharing and social networking. © 2018, © 2018 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>1</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>1</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Food Sovereignty and Gender Justice</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Food sovereignty asserts the right of peoples to define and organize their own agricultural and food systems so as to meet local needs and so as to secure access to land, water and seed. A commitment to gender equity has been embedded in the food sovereignty concept from its earliest articulations. Some might wonder why gender justice should figure so prominently in a food movement. In this paper I review and augment the arguments for making gender equity a central component of food sovereignty. The most common argument is: if women constitute the majority of the world’s food producers, then agricultural policy is a women’s issue. And insofar as patriarchal social relations continue to dominate the globe, then changing agricultural policies will require explicit attention to gender injustice. I suggest that this is a good argument, but that an ecological feminist perspective can provide additional theoretical reasons for maintaining the centrality of gender justice in food sovereignty discourse. Moreover, ecological feminism can provide a robust theoretical framework that coheres a concept and movement with a wide set of concerns. My critique positions food sovereignty’s call to social justice as embedded in a truly radical re-thinking of dominant conceptual frameworks, and re-envisioning of political and ethical relations. © 2018, Springer Nature B.V.</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>1</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>1</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Agroecology in Europe: Research, education, collective action networks, and alternative food systems</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Agroecology is considered with different focus and weight in different parts of the world as a social and political movement, as science, and as practice. Despite its multitude of definitions, agroecology has begun in Europe to develop in different regional, national and continental networks of researchers, practitioners, advocates and movements. However, there is a lack of a comprehensive overview about these different developments and networks. Therefore, this paper attempts to document and provide a mapping of the development of European agroecology in its diverse forms. Through a literature review, interviews, active conference participation, and an extensive internet search we have collected information about the current state and development of agroecology in Europe. Agroecological research and higher education exist more in western and northern Europe, but farm schools and farmer-to-farmer training are also present in other regions. Today a large variety of topics are studied at research institutions. There is an increasing number of bottom-up agroecological initiatives and national or continental networks and movements. Important movements are around food sovereignty, access to land and seeds. Except for France, there are very few concrete policies for agroecology in Europe. Agroecology is increasingly linked to different fields of agri-food systems. This includes Community Supported Agriculture systems, but also agroecological territories, and some examples of labelling products. To amplify agroecology in Europe in the coming years, policy development will be crucial and proponents of agroecology must join forces and work hand-in-hand with the many stakeholders engaged in initiatives to develop more sustainable agriculture and food systems. © 2018 by the authors.</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>1</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>1</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Drafting a Law, Dissolving a Proposal: Food Sovereignty and the State in Ecuador</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Upon being sworn in as the 56th Ecuadorian President on 15 January 2007, Rafael Correa immediately convened, through a referendum, a National Constituent Assembly to draw up a new constitution. One of the concerns of the assembly was to translate into law a food-sovereignty proposal put forward by social movements. In the process of becoming law, the food-sovereignty proposal was much changed. How is it possible that the final version, the law, so far fell short of the food-sovereignty movement’s original proposal? Addressing this question implies a reflection on the role of the state. We argue that (a) instead of strengthening the role of peasants, their participation was reduced to a bureaucratic structure (a ‘council’) that lacked the capacity to define or implement policies, and (b) the issue of the social function of land and land-reform was removed. I therefore conclude that the social movements’ proposal for food sovereignty was stripped of its essentials. © 2018 SAGE Publications.</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>1</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Human ecology and food systems: Insights from the Philippines</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Feeding the world sustainably requires balancing social, economic, and environmental concerns. The food systems concept guides the study of social and environmental processes that influence food and nutrition security. Human ecology conceptually offers insights into the social components of a system and its interaction with environmental change. This paper demonstrates how human ecology helps identify the dominant discourses that influence dominant social drivers in food systems. This is done through documenting the historical legacies of agricultural commodity production systems in the Philippines since Spanish colonization, and the human and ecological implications of this history. The analysis shows the presence of a maladaptive system influenced by market-oriented food security as a dominant discourse. Alternative discourses focused on sovereignty and participation exist in the Philippines, however these are often marginalised from dominant policy and research programs. The paper discusses how weak feedback processes provide possible intervention points in policy or farmer-led activities to explore alternative pathways to food and nutrition security. The paper concludes with highlighting how human ecology offers useful framework for advancing food systems analysis into social, political, and policy dimensions of food activities. Such analysis can help develop new research and policies that require managing the competing discourses of how to achieve sustainable food and nutrition security. © 2018, Society for Human Ecology. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>1</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Food security and food sovereignty in West Africa</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>The paper analyzes the evolution of food security in West Africa during the last 25 years. The Millennium Development Goal One aims at halving the proportion of people who suffer from hunger by 2015. Although Sub-Saharan Africa remains far from reaching the hunger target, West Africa presents a better situation, with eight countries that will meet the target. The paper focuses on international food trade, analyzing the recent growth of food imports in West Africa and the impact of this growth on food security. The last part of the paper is focused on the case of Benin: the country achieved an important reduction in undernourishment since 1990. The analysis aims to highlight the role of short food supply chains in rural development and therefore in food security strategies. The department of Atacora, in northern Benin, is used as a case study to show the recent evolution of local food networks in a region traditionally characterized by an export-oriented agriculture. In conclusion the paper highlights the link between food security, international trade, and local food networks, showing the potential of the ‘food sovereignty’ paradigm in understanding the geographies of food in West Africa. © 2016 The African Specialty Group of the American Association of Geographers.</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>1</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Food sovereignty and consumer sovereignty: Two antagonistic goals?</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>The concept of food sovereignty is becoming an element of everyday parlance in development politics and food justice advocacy. Yet to successfully achieve food sovereignty, the demands within this movement have to be compatible with the way people are pursuing consumer sovereignty and vice versa. The aim of this article is to examine the different sets of demands that the two ideals of sovereignty bring about, analyze in how far these different demands can stand in constructive relations with each other, and explain why consumers have to adjust their food choices to seasonal production variability to promote food sovereignty and so secure future autonomy. © 2017 Taylor &amp; Francis.</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>1</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1</v>
+      </c>
+      <c r="G196" t="n">
+        <v>1</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Where we dance (ecologically) together: reading Ananya Dance Theatre’s Roktim: Nurture Incarnadine</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>In September 2015, Ananya Dance Theatre premiered Roktim: Nature Incarnadine, an evening-length dance about women of color, seeds, food systems, and soil. Roktim weaves dancers’ biographies with myth, history, and science to form an epic narrative intersecting environment and social difference—an environmental justice biomythography. This work is an unconventional example of an environmental dance in both aesthetic and content. Through a year of ethnographic fieldwork and participation with the company, I explore aspects of Roktim and how my own body becomes implicated in the work. Using literature from eco-dramaturgy, eco-criticism, dance studies, and environmental justice, I consider how the performance and a reading of it contributes a corporeal perspective to critical sustainability. © 2018, AESS.</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>1</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>1</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Contested fields: an analysis of anti-GMO politics on Hawai’i Island</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>This paper details the evolution of activism against genetically modified organisms on the Big Island of Hawai’i. It offers an explanation for the ability of rural residents on the Big Island to pass anti-GMO legislation while other states and communities have tried and failed. I argue that the Big Island’s recent anti-GMO legislative success is due to the articulation of interests and actions between settlers to Hawai’i and Native Hawaiian community members seeking to protect Native Hawaiian rights. Tracing the history of the anti-GMO movement on Big Island highlights the unique circumstances that facilitated the passage of this bill, and is also significant for making sense of the potential future trajectories of anti-GMO-related food sovereignty movements elsewhere. © 2017, Springer Science+Business Media B.V.</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>1</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1</v>
+      </c>
+      <c r="G198" t="n">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>‘Getting to the root causes of migration’ in West Africa–whose history, framing and agency counts?</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Today’s ‘irregular migration’ from Sub-Saharan Africa has its roots in decades of policies which have impoverished rural economies and dispossessed small-scale producers to make room for export-oriented monocultures. Under pressure from opportunistic xenophobic political configurations the EU is reacting by seeking to block the unwanted flow of African migrants in their home countries through measures denounced by European civil society organizations. Its long-term recipe for ‘addressing the root causes of migration’ involves using EU cooperation funds to leverage resources from private investors ‘looking for new investment opportunities in emerging markets’, thereby promoting the same model of agricultural production and global value chains that has sparked today’s migration waves. An absent voice in the debate is that of the rural organizations in the territories from which the migrants originate. This paper seeks to reframe the issues from the viewpoint of these social constituencies, to recuperate their popular history of the evolutions that have transformed a portion of rural mobility into Europe-bound irregular migration, to map relevant contemporary rural transformations and the complexities of relations they engender, and to highlight initiatives underway today to build options of dignified and remunerative rural livelihoods for young people. Setting the West Africa-Europe nexus in the context of global processes of migration governance, this paper explores the opportunities for counter-hegemonic strategizing that EU internal policy contradictions open up and suggests how convergences might be promoted among actors and spaces that are currently inadequately connected with a view to defending both the right to migrate and the right to choose to stay at home. © 2018, © 2018 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>1</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>1</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Participatory Guarantee Systems (PGS) in Mexico: a theoretic ideal or everyday practice?</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Third-party certification (TPC), the most common organic certification system, has faced growing criticism in recent years. This has led to the development of alternative certification systems, most of which can be classed as Participatory Guarantee Systems (PGS). PGS have been promoted as a more suitable, cheaper and less bureaucratic alternative to TPC for local markets and are associated with additional benefits such as empowering smallholder farmers, facilitating farmer-to-farmer learning and enhancing food security and sovereignty. PGS have spread rapidly in the past few years, but studies suggest that they are facing numerous challenges that, if not addressed, may jeopardise these benefits. Using the example of three Mexican PGS initiatives, this paper explores the main challenges faced by PGS, specifically those predominantly found in producer-run PGS initiatives. Based on producer and consumer surveys, semi-structured and informal interviews, and participant and non-participant observation, the key challenges that emerged were continuous implementation of the certification process, time constraints, personal conflicts and conflict avoidance. The paper further argues that the requirements for PGS recognition under the Mexican Law for Organic Products may also threaten the continued existence of PGS and suggests that mechanisms for managing conflicts, incentivising PGS participation and mitigating opportunity costs are key if PGS are to continue to develop. © 2017, The Author(s).</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>1</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G200" t="n">
+        <v>1</v>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Politics in participatory guarantee systems for organic food production</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>In response to the neoliberal regulation of the organic agri-food sector through third-party certification (TPC), participatory guarantee systems (PGS) are advocated for their potential to promote food sovereignty, inclusivity, and grassroots empowerment. However, we show that in the Philippines, farming groups adopting PGS encounter politics that manifests as tensions and contradictions in the imagination and practice of this seemingly more transformative organic guarantee system. Based on qualitative research, we observed how some members continue to aspire for TPC resulting in cases of double certification (i.e. members having both PGS and TPC). Such contradiction encounters varying levels of contestation, which we attribute to the local particularities of the two PGS systems and the broader structural conditions that continue to privilege TPC. Rather than frame PGS as co-opted by the dominant neoliberalised organic agri-food sector, we emphasise possibilities for farmers’ autonomy in negotiating these tensions. © 2018 Elsevier Ltd</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>1</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G201" t="n">
+        <v>1</v>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>African Green Revolution, food sovereignty and constrained livelihood choice in Mozambique</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>This article examines the complicated food security agendas of the African Green Revolution and the food sovereignty models in Mozambique. Drawing on fieldwork conducted by the author in Mozambique in 2014 and 2015, the paper analyses how smallholder farmers engage with these two agrarian models. Whereas the literature frequently presents the African Green Revolution and the food sovereignty in oppositional frames, this paper finds that farmers in Mozambique utilize some of the tools that these models offer in complementary rather than competing ways. One such area is the use of commercial hybrid seeds and herbicides by some farmers associated with food sovereignty, an approach that runs counter to food sovereignty’s principles of agroecology. In Mozambique, farmers’ “lived experience” of food sovereignty is more a strategic response to their limited livelihood options, using whatever tools are available to them, rather than a resistance to power. © 2018, © 2018 Canadian Association of African Studies.</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>1</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1</v>
+      </c>
+      <c r="G202" t="n">
+        <v>1</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>An initiative for the study and use of genetic diversity of domesticated plants and their wild relatives</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Domestication has been influenced by formal plant breeding since the onset of intensive agriculture and the Green Revolution. Despite providing food security for some regions, intensive agriculture has had substantial detrimental consequences for the environment and does not fulfill smallholder’s needs under most developing countries conditions. Therefore, it is necessary to look for alternative plant production techniques, effective for each environmental, socio-cultural, and economic conditions. This is particularly relevant for countries that are megadiverse and major centers of plant domestication and diversification. In this white paper, a Mexico-centered initiative is proposed, with two main objectives: (1) to study, understand, conserve, and sustainably use the genetic diversity of domesticated plants and their wild relatives, as well as the ongoing evolutionary processes that generate and maintain it; and (2) to strengthen food and forestry production in a socially fair and environmentally friendly way. To fulfill these objectives, the initiative focuses on the source of variability available for domestication (genetic diversity and functional genomics), the context in which domestication acts (breeding and production) and one of its main challenges (environmental change). Research on these components can be framed to target and connect both the theoretical understanding of the evolutionary processes, the practical aspects of conservation, and food and forestry production. The target, main challenges, problems to be faced and key research questions are presented for each component, followed by a roadmap for the consolidation of this proposal as a national initiative. © 2018 Mastretta-Yanes, Acevedo Gasman, Burgeff, Cano Ramírez, Piñero and Sarukhán.</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>1</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1</v>
+      </c>
+      <c r="G203" t="n">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Communication as Resistance in Food Politics</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>The global food system is a site of domination and resistance for those opposed to the conventional model of industrial agriculture. This article applies a political economy of communication lens to the relations of power that operate in the field of food politics where tensions involving food security, peak oil, and anthropogenic climate change present major challenges. At the heart of this trilemma social movements of small-scale farmers contest the dominant narratives that biotechnology, development, and free trade will feed the world. This article describes how farmers’ movements in Brazil, Chile, and Cuba apply resistive epistemologies in to complement for agroecological production methods. The purpose is to develop political consciousness among rural food producers and workers who are subjugated under neo-liberalism. The article also presents the challenges that members of the international farmers’ movement, La Vìa Campesina, face in advancing their political influence through participation in invited spaces such as the UN Food and Agriculture Organisation’s World Committee for Food Security. © The Author 2018</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>1</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1</v>
+      </c>
+      <c r="G204" t="n">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>What role for trade in food sovereignty? Insights from a small island archipelago</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>The food sovereignty movement has been gathering momentum in advocating the rights of individuals and nations to control their own food systems. Alongside this is a mounting critical engagement regarding its privileging of local food production as the means through which to achieve this goal. Adopting a place-based approach, we explore the foodways of diverse communities across a small island archipelago–the Turks and Caicos Islands in the West Indies. Based on interviews and focus groups, we unpack narratives relating to islanders’ changing food practices and aspirations. These are understood as two competing but inter-related themes of disruption and reification of current practices shaped by wider food regimes in interaction with ecological challenges. Given that conditions of historic dependency implicate the islands in a myriad of dependent trade relationships, we argue that small island economies offer, and require, unique cases for understanding how sovereign conditions for trade might be developed in line with a food sovereignty framework. We underline the importance of an inter-disciplinary focus for bringing forth a nuanced understanding of what might be required to shape more sustainable, sovereign and secure food futures. Doing so is necessarily rooted in an appreciation of islanders’ accounts of social, economic, political and ecological change over time. © 2017 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>1</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1</v>
+      </c>
+      <c r="G205" t="n">
+        <v>1</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Complex systems, agroecological matrices, and management of forest resources: An example of an application in Los Tuxtlas, Veracruz, Mexico</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Today humanity faces several complex problems, two of which are global warming and the loss of biological diversity. An agroecological matrix approach, conceives the territory as patches of natural and cultivated vegetation, interconnected to maintain watershed integrity. Many ethnic groups maintain a high biological heterogeneity as in the case of the agrological matrix. This study analyzed features and trends in a specific agroecological matrix, integrating local and scientific knowledge with environmental and social information, as a complex system. For the last 15 years we studied agroecological spaces used by the Ntaj'uy (Zoque-Popoluca) people in Los Tuxtlas, Veracruz, Mexico. Participatory methods were used to understand social interactions and land management decisions. Ecology field methods allowed us to assess soil loss, litter production, water quality, and vegetation structure. Soil erosion, vegetation fragmentation and social marginalization are the most important problems in the region; the tropical sub-evergreen forest has decreased by about 60%, the deciduous forest is down by 80%, and cultivated pastures have increased over 400%. Coffee and milpa agroecosystems could be improved, through product diversification, along with interconnectivity among vegetation patches, to prevent environmental degradation, and improve conditions to reach food sovereignty and income diversification, in a context of Ntaj'uy self-determination in their territories. © 2018 by the authors.</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>1</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1</v>
+      </c>
+      <c r="G206" t="n">
+        <v>1</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Beyond access and benefit-sharing: Lessons from the law and governance of agricultural biodiversity</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>The concept of fair and equitable benefit-sharing emerged in the early 90s as a corollary to the principle of national sovereignty over natural and genetic resources. In the context of agricultural biodiversity use, it can be conceptualized in three ways: as a defensive tool to balance the injustices enshrined in the intellectual property rights system; as a development tool to reap part of the benefits of the emerging biodiversity market; and as an incentive, to reward and enable farmers' continued contribution to conservation. This article seeks to assess the potential of the concept in operationalizing fairness and equity in agricultural biodiversity governance, in an increasingly complex legal and policy landscape of conflicting rights and policies. It briefly explains its emergence in the context of the evolving principles of governance of agricultural biodiversity; and analyses the structure and application of the Multilateral System of Access and Benefit-sharing established by the International Treaty on Plant Genetic Resources for Food and Agriculture in the framework of intellectual property- and human rights-related processes. Identifying linkages, challenges and key lessons, which are useful for a wide range of processes within and beyond the international environmental law realm, it concludes that the concept falls short of its promises. It thus calls for imagining new dialogues and concepts to redefine the boundaries between what must remain in the public domain, what may be managed as a commons and what may be privatized. © 2018 The Authors. The Journal of World Intellectual Property © 2018 John Wiley &amp; Sons Ltd</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>1</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G207" t="n">
+        <v>1</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>The insecurity of food security in Russia’s Far North</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>The food security model envisions food supply from industrial agriculture, food production from smallholders, and food imports. The food sovereignty model emphasizes locally-sourced food from sustainable agriculture and implies self-sufficiency while being silent on the role of imports. This article argues that neither model fits Russia’s Far North well. Residents of the Far North are generally food secure based on consumption, but their food security is insecure because of questions surrounding the reliability of food supply. The article suggests four additional factors to the food security model to sensitize it to the Russian Far North. © 2018, © 2018 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>1</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1</v>
+      </c>
+      <c r="G208" t="n">
+        <v>1</v>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Greenhouse Agriculture in the Icelandic Food System</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Greenhouses are a frequent feature on the Icelandic rural landscape and an integral part of Iceland's food system. Iceland's reserves of geothermal energy present an opportunity to extend an otherwise short growing season. This promotes sustainability, increases food security, and benefits consumers. This article examines the relative strengths of Iceland's greenhouse sector - using a combination of statistics, observations, and interviews to understand the resource demands of greenhouse agriculture, how well greenhouses can allay some food insecurity and provide local foods. It ends with an examination of how the reduction of subsidies used to keep greenhouse agriculture going, has had an effect and forces the question of whether losing much of Iceland's agricultural sector and locally sourced food is worth the social and political costs. © 2019 Gina M. Butrico, David H. Kaplan, published by Sciendo 2019.</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>1</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1</v>
+      </c>
+      <c r="G209" t="n">
+        <v>1</v>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>From Food Production to Commodity Production in Argentina’s Agricultural Sector</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>An analysis of the semiotic and productive transformation of food crops under Argentina’s agribusiness model through a study of the diffusion of the term “commodity” in the discourse produced/reproduced by the rural sections of the hegemonic media, combined with statistical data that allow a dialogue between discourse and measurable quantities, concludes that defining the Argentine countryside as a place for commodity production is linked with increasing crop production for export that leads to the erosion of food sovereignty and food security. Un análisis de las transformaciones semióticas y productivas de los frutos de la tierra bajo el modelo argentino de los agronegocios que examina la extensión del término commodity en los discursos producidos/reproducidos por las secciones rurales de los medios gráficos de comunicación hegemónicos, entrecruzado con datos estadísticos para poner en diálogo el nivel del discurso con el de las cantidades medibles, concluye que la consigna que define al campo argentino como un lugar de producción de commodities se imbrica con una tendencia a la intensificación de los cultivos orientados exclusivamente a la exportación y la erosión de la soberanía y seguridad alimentaria. © 2018 Latin American Perspectives.</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>1</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1</v>
+      </c>
+      <c r="G210" t="n">
+        <v>1</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Food security problems and imperatives of the North Caucasus macro-region subjects</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>This article concerns the analysis of food security in the North Caucasian macro-region. Any State is faced the challenge to provide safe food of domestic production to its population. This task is particularly relevant due to the emergence of a series of challenges and threats for country food sovereignty and its solution is impossible without active state support. The subjects of the North Caucasus Federal District have been selected as objects for this research. To identify the problems in country food security, the authors analyzed the global rating «The Global Food Security Index" of the world's states. The authors also studied the internal and the external, economic and political objective and subjective factors and the potential for food security of macro-region. The authors analyzed the dynamics of development of the main types of agricultural production, the self-reliance level and production of basic foods, norms and actual food consumption. The authors show that with current sanctions and Russian anti-sanctions, there is a possibility of significant increase in agricultural production. The article draws conclusions on the significant differentiation of population per capita incomes by regions of the country and consumption of staple food. This study made it possible to identify the main problems and their impact on current Agro-Food market of the Russian Federation. The study recommends measures to strengthen food security by operational regional monitoring and by defining the evaluation indicators system of the level of food security comparable to systems at the international level. © 2018 International Strategic Management Association. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>1</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1</v>
+      </c>
+      <c r="G211" t="n">
+        <v>1</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>The rise of new rights for peasants. From reliance on NGO intermediaries to direct representation</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>The UN Declaration on the Rights of Peasants and other people working in rural areas, adopted by the UN General Assembly in December 2018, recognises new human rights to peasants and other people working in rural areas. The recognition of these rights (such as the right to land, seeds or biodiversity) in international law responds to a normative gap identified by the affected themselves and contributes to the project of ‘decolonising’ human rights. This international law-making process constitutes an important innovation in that it was requested by and developed with the active involvement of La Via Campesina activists—and other transnational movements representing other categories of rural food producers—who have positioned themselves as ‘law makers’. In this paper, I argue that a commitment to ‘human rights from below’ must account for and support the direct engagement, in international law-making, of transnational social movements representing the affected and speaking on their own behalf. © 2019 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>1</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G212" t="n">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Government policies for food sovereignty: Disjunction between ideality and reality</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>The conceptualizes food security and food sovereignty as fluid and changing discourses that define the problem of hunger. The discursive geohistories of food security and food sovereignty in order to identify oppositions and relationalities between them. I argue that the interpretations of, and relations between, food security and food sovereignty vary by geography and scale, as well as by the conceptual and theoretical differences within the discourses themselves. When and where these discourses develop and emerge is central to understanding their oppositions and convergences. How scale is constructed within particular discourses is also important to understanding how they co-exist relationally or in opposition. Food security and food sovereignty discourses are tied to distinctive political and economic histories, ecologies, and identities at the national and local levels. They are differentially deployed depending upon geographic context and the political economy of development and underdevelopment. Both discourses are dynamic and changing in relation to the wider political and cultural economies of food system dynamics across scale. Uniform definitions of each term should be resisted. The point is to understand the geographies of their relational overlap and their continual difference. © 2018 HALREV. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>1</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1</v>
+      </c>
+      <c r="G213" t="n">
+        <v>1</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Analysing agricultural investment from the realities of small-scale food providers: grounding the debates</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Over the past decade, agricultural investment has been presented as a catchall solution to a converging set of global crises, often with poor rural communities as the proclaimed beneficiaries. Yet the promises of such investment, such as poverty alleviation and improved food access, are routinely at odds with realities on the ground. This article offers frameworks for analysis of agricultural investment that are grounded in the realities of small-scale food providers, drawing from two studies. The first study employs a right to food framework to identify the main channels through which food for consumption is procured by small-scale food providers and the factors impacting these channels. It draws on empirical data from within the Southern Agricultural Growth Corridor of Tanzania (SAGCOT), an investment model promised to lift rural communities out of poverty, which reflects a regional trend. Based on the shortcomings of the large-scale investments examined, the second study employs a food sovereignty framework to explore alternative forms of investment envisioned and/or already being put into practice by small-scale food providers in the SAGCOT area and elsewhere in Tanzania. While two different frameworks formed the basis of two different studies, both the studies and their frameworks are interrelated. The final section of this article makes the case for why both the right to food and food sovereignty are essential lenses for understanding agricultural investment vis-à-vis small-scale food providers and the ways in which they can serve as complementary tools for effective analysis. © 2018, © 2018 Southseries Inc., www.thirdworldquarterly.com.</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>1</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1</v>
+      </c>
+      <c r="G214" t="n">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Farmers’ rights, local food systems, and sustainable household dietary diversification: A case of Uttarakhand Himalaya in north-western India</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>The farmers and rural communities, world over, have contributed greatly in management of agrobiodiversity including plant genetic resources for food and agriculture (PGRFA). It is well accepted now that the efforts of farming communities in creation, conservation, exchange, and enhancement of PGR should be recognized and strengthened. Farmers’ access and rights over seeds are considered an essential component of food sovereignty. In the present article, we discuss the aspects of farmers’ rights, the community level seed systems, food sovereignty and the potential of farmer household production and dietary diversification in combating malnutrition and community health promotion with regard to farming communities of Uttarakhand hills in north-western India. Salient findings of two case studies, on farmers’ varieties documentation and registration, and the potential of local food systems in addressing community health and nutrition were used to particularly showcase the nutritional contribution of native foods in the context of sustainable food-based approaches to community health and nutrition. Further, the need of a proactive alliance was suggested between local communities and their key allies collaboratively creating a research and advocacy agenda in support of agrobiodiversity and the revival of local food systems and landscapes within the broader framework of food sovereignty. © 2018 Taylor &amp; Francis.</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>1</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G215" t="n">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Food security or food sovereignty?: Questioning the paradigm of Indonesian military involvement in agriculture</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Indonesian military (TNI) involvement in the agricultural sector had begun since the 1960s when they had a significant role in a global modernization of agriculture project led by the US government and world donor agencies, namely the Green Revolution. In 2015, TNI signed a MoU with the Ministry of Agriculture in a "Special Efforts Program for Accelerating Food Production" which again delivers an important role to the military in the agricultural sector by implementing a Green Revolution oriented farming. This paper, in contrasts to some of the previous writings, does not examine the right or wrong of this involvement. This study provides a paradigmatic response to a question, why TNI insists on implementing a program that after 50 years has not proven successful in reaching the target of food self-sufficiency? Based on literature studies and analysis of empirical data, this study suggests that there is a paradigmatic misperception among the policy makers, both civil and military, about food security concept. The authors also offer a new implementation framework based on the concept of food sovereignty that can be performed by policy makers in Indonesia and other developing countries. © 2018 CEJISS.</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>1</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1</v>
+      </c>
+      <c r="G216" t="n">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Brazil's landless movement and rights ‘from below’</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Recent literature has recognised the value of food sovereignty and human rights frameworks in agrarian struggles. Relatively little attention has gone toward how agrarian movements develop and apply their own rights discourses to further demands for social justice. This study considers Brazil's landless movement (MST) between 1984 and 1995, revealing three distinct rights discourses that recruited and mobilised protest by linking local issues to the movement's broader political project. The findings illustrate the value of rights, frames and ideology as analytical tools, shedding light on how movement-generated rights emerge through processes of reflexivity and in response to dynamic social-political contexts. © 2018 Elsevier Ltd</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>1</v>
+      </c>
+      <c r="F217" t="n">
+        <v>1</v>
+      </c>
+      <c r="G217" t="n">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Feeding Prometheus: An Interdisciplinary Approach for Solving the Global Food Crisis</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>The current global food system is inadequate to meet the needs of the current world population without compromising future well-being. For example, current intensified production systems lead to undernutrition in some regions coupled with epidemics of obesity in others while compromising their underlying ecological foundations, such as creating areas of ocean hypoxia. Such common observations challenge the research community to ask new types of basic questions and apply novel analytical frameworks for analyzing them. Elaboration of an integrated applied research agenda is imperative to addressing these global food system challenges. We propose that core competencies of a new analytical framework lie at the intersection of four domains: (1) the ecology of agroecosystems; (2) equity in global and local food systems; (3) cultural dimensions of food and agriculture; and (4) human health. This intersection constitutes a new analytical framework for transitions toward global food system sustainability. © Copyright © 2018 Vandermeer, Aga, Allgeier, Badgley, Baucom, Blesh, Shapiro, Jones, Hoey, Jain, Perfecto and Wilson.</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>1</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1</v>
+      </c>
+      <c r="G218" t="n">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Black Farmers in the USA and Michigan: Longevity, Empowerment, and Food Sovereignty</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Blacks have been farming in the USA for about four centuries and in Michigan since the 1830s. Yet, for blacks, owning and retaining farmland has been a continuous challenge. This historical analysis uses environmental justice and food sovereignty frameworks to examine the farming experiences of blacks in the USA generally, and more specifically in Michigan. It analyzes land loss, the precipitous decline in the number of black farmers, and the strategies that blacks have used to counteract these phenomena. The paper shows that the ability of blacks to own and operate farms has been negatively impacted by lack of access to credit, segregation, relegation to marginal and hazard-prone land, natural disasters, organized opposition to black land ownership, and systemic discrimination. The paper examines the use of cooperatives and other community-based organizations to help blacks respond to discrimination and environmental inequalities. The paper assesses how the farming experiences of blacks in Michigan compare to the experiences of black farmers elsewhere. It also explores the connections between Michigan’s black farmers, southern black farmer cooperatives, and Detroit’s black consumers. © 2018, The Author(s).</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>1</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1</v>
+      </c>
+      <c r="G219" t="n">
+        <v>1</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>The Protection of Indigenous Peoples’ Seed Rights during Ethnobotanical Research</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Recognion of the importance of biodiversity for global food security and the community food sustainability movement has helped increase awareness of seed rights. Internaonal treaes created to ensure the world’s access to seed biodiversity address access to seed banks for breeding purposes. Ethnobotanists are oen required to deposit research plant specimens with government seed banks or herbariums. If Indigenous Peoples’ plants are then used developing patented variees, are their rights recognized? These rights depend upon recognion of Indigenous Peoples as plant breeders, prior informed consent (PIC) protocols, access and benefit sharing (ABS) agreements via material transfer agreements, and benefits returned to Indigenous and local communies per the Nagoya Protocol. To ensure such rights to genec material and associated intellectual property rights, documentaon of these agreements and links to the people and communies from which they originated needs to occur at first collecon and throughout subsequent research, conservaon, and breeding programs. Copyright © 2018 by the author(s);</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>1</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G220" t="n">
+        <v>1</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>The Conflicted State and Agrarian Transformation in Pink Tide Venezuela</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Can radical political-economic transformation be achieved by electoral regimes that have not thoroughly reconstructed the state? Contemporary Venezuela offers an optimal venue for examining this question. The Chavista movement did not replace the previous state: instead, its leaders attempted to reform existing state entities and establish new ones in pursuit of its transformation agenda. It has also used its oil wealth to support cooperatively-oriented economic activity, without necessarily fundamentally altering the property structure. Thus, the social change-oriented political economy exists alongside the traditional one. Focusing on agrarian transformation, we examine ethnographically how these factors have impacted the state's capacity to attain its goal of national food sovereignty. We find that the state's ability to accomplish this objective has been compromised by lack of agency-level capacity, inter-agency conflict and the persistence of the previously-extant agrarian property structure. These dynamics have influenced the state to shift from its initial objective of food sovereignty to a policy of nationalist food security. © 2015 John Wiley &amp; Sons Ltd</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>1</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1</v>
+      </c>
+      <c r="G221" t="n">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Traditional seed and exchange systems cement social relations and provide a safety net: A case study from KwaZulu-Natal, South Africa</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Millions of small-scale farmers on the African continent save and exchange the seed of their traditional crops, yet the social and cultural values of these systems remain under-researched. Through ethnographic research conducted in the KwaZulu-Natal Province of South Africa, this study sets out to improve understanding about the mechanisms and significance of traditional seed exchange networks. Findings suggest that traditional crops are central; their seed is highly valued; and systems of exchange play complex and nuanced roles. Critical for food sovereignty, these systems act as a back-up in the case of harvest failure, and enhance social cohesion through strengthening community and familial ties. © 2017 Taylor &amp; Francis.</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>1</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1</v>
+      </c>
+      <c r="G222" t="n">
+        <v>1</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>A food regime’s perspective on palestine: Neoliberalism and the question of land and food sovereignty within the context of occupation</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>The question of land and its strategic, socio-political and agricultural relevance within the Israeli-Palestinian conflict must be understood against the background of the dominant position of Israel as occupational power, heavily affecting the access to, and the control over natural resources. The subjects discussed within this article are intrinsically linked via the usage of the food regime approach as analytical tool, and the article’s specific focus on land. An attempt is made to grasp the neoliberal restructuring of Palestine and its developments in the agricultural sector, paying particular attention to land grabbing. Neoliberalism aided the institutionalising and normalising of accumulation by dispossession in the occupied Palestinian territories (oPt), these being identified as a key feature of the corporate food regime, and leading to the marginalisation of rural communities and to depeasantisation. The crises of the food regime spurred food sovereignty movements all around the globe. While analysing the political demands and approaches of the concept of food sovereignty centered around natural resources, this article also explores why the concept offers various ideas for an alternative development in Palestine. This paper tries to show how specific dynamics observed by the food regime analytics can be helpful in contextualising developments within the oPt – ranging from neoliberal restructuring to the emergence of food sovereignty. © 2018 Mattersburger Kreis fur Entwicklungspolitik. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>1</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1</v>
+      </c>
+      <c r="G223" t="n">
+        <v>1</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>The political economy of rentier capitalism and the limits to agrarian transformation in Venezuela</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>This paper explores the contradictions and limits to agrarian transformation under 21st-century socialism in Venezuela. Given the historical destruction wrought by the oil-based accumulation process upon Venezuela's agricultural sector, the symbolic and social importance of an “agrarian revolution” could be seen as a yardstick with which to measure the progress of the Bolivarian Revolution in “sowing the oil”. Eschewing a policy focus on the role of “food sovereignty” and “food security”, the paper analyses how the dynamics of rentier-capital accumulation have played out in the agricultural sector. The paper argues that the macroeconomic framework of the Bolivarian Revolution has diminished the possibility of expanded domestic food production and instead reduced agrarian transformation to contradictory processes of ground rent appropriation. © 2017 John Wiley &amp; Sons Ltd</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>1</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1</v>
+      </c>
+      <c r="G224" t="n">
+        <v>1</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>The agricultural production and food industry development trends in the context of food security of Russia</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Food security, in its function as an integral component of the state’s economic security, is one of the central issues of the state economic policy in most post-Soviet countries. Over the last decade, the food security policy implementation vectors have changed. While at the beginning of the market reforms, the key task of the former Soviet Union countries’ governments was to fill the food market, regardless of the import component, currently, food sovereignty is moving to the forefront, including the availability and quality of food. The present paper attempts to systematize and analyze factors and contradictions that affect the country’s food security. The scientific importance of the work is determined by the comprehensive system approach to the factor analysis of the agricultural sector operation from the perspective of the following aspects: the ongoing foreign policy of the state (the membership in the World Trade Organization and product embargo) and the state financial support mechanism for the agriculture. © 2017. ASERS Publishing. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>1</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1</v>
+      </c>
+      <c r="G225" t="n">
+        <v>1</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Troubling Tradition, Community, and Self-Reliance: Reframing Expectations for Village Seed Banks</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Heralded by both food sovereignty activists and mainstream development practitioners, village seed banks are a rural development phenomenon rapidly gaining attention for their potential to support resilient agricultural systems. This paper presents a case study for examining the power of prevailing narratives of decentralized development to shape and ultimately constrain the operations of village seed banks in Telangana, India. This case demonstrates how visions of tradition, community, and self-reliance can serve to discount the materiality of seeds, the social complexity of village institutions, and even the voices of farmers. The goal of this research is not to criticize village seed banks, as they hold great potential, nor to vilify the narratives in question, but rather to encourage critical reflection on how the assumptions embedded in these narratives shape mechanisms for agricultural development. I argue for a shift away from framing tradition, community, and self-reliance as development solutions and propose an interrogative approach that turns these narratives into questions for engaging more effectively with rural livelihoods. © 2017 Elsevier Ltd</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>1</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1</v>
+      </c>
+      <c r="G226" t="n">
+        <v>1</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Building sustainable social and solidarity economies: Place-based and network-based strategies of alternative development organizations in India</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>This article critically examines and analyzes place-based as well as network-based strategies of alternative development organizations that claim to be building sustainable social and solidarity economies (SSE) in the political context of neoliberal globalization. While the Indian state and market forces are actively promoting the neoliberal agri-food system, alternative development organizations are working with farmers to build the SSE based on the principles of democracy, inclusiveness, reciprocity, cooperativism, and socioecological sustainability. Using a case study approach, this article analyzes how SSE initiatives are aiming to reclaim control over the local agri-food sector. Specifically, this article examines how community development organizations mobilize farmers based on the principles of agro-ecology and the politics of seed and food sovereignties. This article uses the Center for Sustainable Agriculture, an alternative community development organization in south India, as a case study. © 2017 Community Development Society.</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>1</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1</v>
+      </c>
+      <c r="G227" t="n">
+        <v>1</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Framing the food poverty question: Policy choices and livelihood consequences in Indonesia</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Since 2008, amidst fears of vulnerabilities related to climate change, price volatility and global food shortages, an increasingly conflicted policy field has emerged in the global south. Competing policy narratives provide for rival policy orientations with respect to food policy, land rights, the environment and justice. This paper considers the implications of different choices associated with these rival concepts in one case – that of Indonesian Kalimantan. The paper shows how predominant framings of ‘food sovereignty’, ‘food self-sufficiency’ and ‘food security’ support scalar strategies that empower particular actors and agendas. While narratives focused on national food sovereignty support large-scale food estates in ways that fit a particular politics of food, they overlook the specific livelihood challenges facing rural populations and the problems of food poverty in marginal landscapes. Localist narratives of ‘food sovereignty’ focus on enhancing smallholder access and control over productive resources and diversification in ways that are better suited to the geography of production, but they are yet to address the political anxieties presented by food questions at the national level. If policy choices are to deal with the underlying issues, then the alternative values, guiding assumptions and scalar strategies encompassed by rival narratives need to be appraised and reconciled with the specific livelihood challenges of rural people and the need to secure an inclusive and equitable society in a changing global environment. © 2017</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>1</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>The intersection of food security and biodiversity conservation: a review</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Food security and biodiversity conservation are key challenges of the twenty-first century. While traditionally these two challenges were addressed separately, recently, papers have begun to specifically address the nexus of food security and biodiversity conservation. We conducted a structured literature review of 91 papers addressing this nexus. To ascertain how a given paper approached the topic, we assessed to what extent it covered 68 potentially relevant issues. The resulting dataset was analyzed using cluster analysis. Two main branches of literature, containing a total of six clusters of papers, were identified. The “biophysical-technical” branch (clusters: “sustainable intensification” and “production focus”) was dominated by the natural sciences, focused strongly on the production aspect of food security, and sought general solutions. In contrast, the “social-political” branch (clusters: “social-ecological development”; “empowerment for food security”; “agroecology and food sovereignty”; and “social-ecological systems”) often drew on the social sciences and emphasized social relations and governance, alongside broader considerations of sustainability and human well-being. While the biophysical-technical branch was often global in focus, much of the social-political branch focused on specific localities. Two clusters of papers, one from each branch, stood out as being particularly broad in scope—namely the clusters on “sustainable intensification” and “agroecology and food sovereignty.” Despite major differences in their conceptual basis, we argue that exchange between these two research clusters could be particularly helpful in generating insights on the food–biodiversity nexus that are both generally applicable and sufficiently nuanced to capture key system-specific variables. © 2015, Springer-Verlag Berlin Heidelberg.</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
+        <v>1</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1</v>
+      </c>
+      <c r="G229" t="n">
+        <v>1</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Agroecology in the Brazilian government agenda: Developments between 2011 and 2014; [La agroecología en la agenda del gobierno Brasileño: Desarrollos entre 2011 y 2014]</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Since 2003, in Brazil, the agroecological perspective has been present in punctual public policies of the federal government. In 2012, with a convergent action of the agroecological movement and the organic production, the National Policy for Agroecology and Organic Production was created. This article presents a reconstruction of the process, while highlighting involved actors, as well as their demands and interests, ideas, and main forums. Despite its limitations and conflicts, the Pnapo is a benchmark and a political achievement, having insured the agroecological agenda in the public policies inter-related to rural development, food sovereignty, and the human right to adequate food. © 2017, Pontificia Universidad Javeriana. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
+        <v>1</v>
+      </c>
+      <c r="F230" t="n">
+        <v>1</v>
+      </c>
+      <c r="G230" t="n">
+        <v>1</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Food sovereignty and agro-ecology in Karnataka: interplay of discourses, identities, and practices</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Karnataka Rajya Raitha Sangha (KRRS), a farmers’ movement, and a member of La Via Campesina, has been encouraging zero-budget natural farming in Karnataka, India, within the framework of food sovereignty and agro-ecology. Using the experiences of KRRS, this article addresses the question of the extent of pluralism within the discourse of food sovereignty. Focusing on the interplay of local and global practices, discourses and identities, the article throws light upon contradictions and negotiations between “necessary abstractions” and “particularisms”, spaces and places of resistance and implications it may have on struggles at both local and global levels. © 2017 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>1</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1</v>
+      </c>
+      <c r="G231" t="n">
+        <v>1</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Livelihoods crises in Vidarbha, India: Food sovereignty through traditional farming systems as a possible solution</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>The Vidarbha region in Maharashtra, India, home to 3.4 million smallholder farmers, is a major cotton-producing region in one of the wealthiest Indian states. However, between 1995 and 2013, more than 60,000 farmers took their own lives. Many of these suicides have been linked to extreme debt created by the expensive mono-cropping of Bt cotton. Some farming households have responded to these pressures by abandoning Bt cotton growing and turning to sustainable agriculture using traditional mixedcropping methods. Yet the question remains: have the changes produced better livelihoods in Vidarbha? Using a food sovereignty framework, we assess the impact of these changes through an analysis of a 200-household survey across six districts in Vidarbha. We also explore the meaning of food sovereignty for those who practise it, seeking to better understand some of the complexities and experiences associated with the term. © 2017 South Asian Studies Association of Australia.</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>1</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1</v>
+      </c>
+      <c r="G232" t="n">
+        <v>1</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>The Evolution of Food Security Governance and Food Sovereignty Movement in China: An Analysis from the World Society Theory</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Originating in a 1983 Mexican Government Program, the term ‘food sovereignty’ was coined in 1996 by La Via Campesina—a global peasant network—to address concerns within the civil society for food security. Rather than to accept the neoliberal framework of mainstream food security definition and governance, the food sovereignty movement seeks to view food security as the right of peoples to define their own food and agriculture systems with limited corporation intervention. As a result, food production should be geared toward the domestic and local markets and not toward international trade that only benefits corporations. This food sovereignty movement was inducted into China in 2013 just as China’s agricultural systems were shifting toward a more corporate-centric structure that increasingly exploits the small-scale farmers. A question was hence raised: How have the global civil society networks influenced the Chinese civil society and promoted China’s local food sovereignty movement? Through the world society theory, the author has identified social forums, such as international conferences and social media channels, as an expedient means for interactions. However, as the Chinese government continues to develop a corporate-centric food security governance system and tighten its civil society space, the impacts of China’s food sovereignty movement remain unclear. © 2017, Springer Science+Business Media B.V.</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>1</v>
+      </c>
+      <c r="F233" t="n">
+        <v>1</v>
+      </c>
+      <c r="G233" t="n">
+        <v>1</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Agroecology in Uruguay</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>From its origins, agroecology in Uruguay has been considered as a critique of the dominant industrial agriculture model and linked to the development of alternative thinking from multiple actors. It aims to strengthen the ecological processes in agricultural systems while discussing the phenomena of concentration, alienation, and access to land, along with the problems of family agriculture and food sovereignty. Against the deepening of the industrialized model of agriculture, different actors drive the development of a National Agroecology Plan. An agroecological transition process is proposed by building sustainable development options, which arises from the agrarian and extends to the whole society. © 2017 Taylor &amp; Francis.</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
+        <v>1</v>
+      </c>
+      <c r="F234" t="n">
+        <v>1</v>
+      </c>
+      <c r="G234" t="n">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Neo-developmentalism and a “vía campesina” for rural development: Unreconciled projects in Ecuador's Citizen's Revolution</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>From the outside, it appears that the government of President Rafael Correa in Ecuador has put in place a legal and policy framework for a vía campesina model of rural development, inspired by food sovereignty and buen vivir. Recent studies have, however, concluded that a considerable disjuncture exists between this framework and the actual agricultural policies and programmes implemented by the government. In this paper, I provide a broad overview of the agricultural and rural development policies under the Correa government and analyse some of the causes of the gap between the policy framework and policy implementation. I argue that Ecuador under Correa speaks to the difficulties of reconciling a vía campesina approach to rural development with a neo-developmental economic model. I focus on several issues in particular in order to explain the disjuncture: how the growth of “vía campesina” proposals and political discourse in Ecuador since the 1980s coincided with significant processes of agrarian change; the transformation of rural social movement federations from a sociopolitical force into a political/electoral force and the subsequent decline of these movements; and the deepening integration of small-scale producers into domestic agribusiness commodity chains and the growth of national agribusiness firms during the Correa government. © 2017 John Wiley &amp; Sons Ltd</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>1</v>
+      </c>
+      <c r="F235" t="n">
+        <v>1</v>
+      </c>
+      <c r="G235" t="n">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>The Developmental State and Food Sovereignty in Tanzania</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Tanzania has been experiencing different periods of food shortages mainly because of insufficient food production. While the country has an undisputable potential for food production, the state and its development partners, such as the World Bank, believe that the unsustainable peasant food production is the main cause of the food crisis. As a panacea to the food crisis, a call for de-peasantization in favour of commercial large-scale farming, is advocated. Inspired by the work of Sam Moyo, this article argues that achieving food self-sufficiency should begin with improving peasant agriculture instead of dispossessing peasants of their land. The principles of food sovereignty must be adopted and the orientation of the state must be developmental. The state must play an activist role in investing heavily in agricultural-related projects. © 2017 SAGE Publications.</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>1</v>
+      </c>
+      <c r="F236" t="n">
+        <v>1</v>
+      </c>
+      <c r="G236" t="n">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Is Oil Palm Expansion a Challenge to Agroecology? Smallholders Practising Industrial Farming in Mexico</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Agroecology has become a powerful alternative paradigm for rural development. In contrast to conventional approaches, this paradigm shifts the emphasis from technology and markets to local knowledge, social justice and food sovereignty, to overcome rural poverty and environmental degradation. However, the spread of this approach faces several obstacles. This paper deals with one of these obstacles: the ‘preference’ of smallholders for industrial farming. We specifically analyse the widespread uptake up of oil palm by smallholders in Chiapas. Contrary to agro-ecological assumptions, oil palm proved favourable to smallholders in Chiapas because of historical and contemporary state–peasant relations and the advantageous economic circumstances within the oil palm sector. Based on this research, we identify four challenges for agroecology: (i) the existence of contradictory interests within the peasantry as a result of social differentiation; (ii) the role of the state in making conventional development models relatively favourable to smallholders; (iii) the prevalence of modernization ideologies in many rural areas; and (iv) the need for this paradigm to acknowledge smallholders' agency also when engaged in industrial farming. These challenges need to be tackled for agroecology to offer viable alternatives in a context of agro-industrialization. © 2016 John Wiley &amp; Sons Ltd</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>1</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1</v>
+      </c>
+      <c r="G237" t="n">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>The Class Dynamics of Food Sovereignty in Mexico and Ecuador</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>This paper examines the class dynamics of food sovereignty in Mexico and Ecuador. It argues that the nature of contemporary demands for food sovereignty is heavily influenced by the outcomes of peasant movements’ historical and ongoing internal class dynamics. Processes of class differentiation within peasant organizations in both countries have led to the interests of certain classes predominating over or at the expense of others. Despite La Vía Campesina's projection of ‘unity in diversity’, incorporating sometimes conflicting class interests into the movement is particularly challenging. As such, class analysis must be brought back into debates around food sovereignty in order to gauge (and potentially further) the movement's transformative potential. © 2016 John Wiley &amp; Sons Ltd</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>1</v>
+      </c>
+      <c r="F238" t="n">
+        <v>1</v>
+      </c>
+      <c r="G238" t="n">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Investor ownership or social investment? Changing farmland ownership in Saskatchewan, Canada</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>There is growing recognition that land grabbing is a global phenomenon. In Canada, investors are particularly interested in Saskatchewan farmland, the province where 40 % of country’s agricultural land is situated. This article examines how the changing political, economic, and legal context under neoliberalism has shaped patterns of farmland ownership in Saskatchewan, between 2002 and 2014. Our research indicates that over this time, the amount of farmland owned by investors increased 16-fold. Also, the concentration of farmland ownership is on the rise, with the share of farmland owned by the largest four private owners increasing six-fold. Our methodology addresses some of the criticisms raised in the land grabbing literature. By using land titles data, we identified farmland investors and determined very precisely their landholdings thus allowing us to provide a fine-grained analysis of the actual patterns of farmland ownership. Although the article analyzes changes to farmland ownership in a specific historical, cultural and legislative context, it serves as the basis for a broader discussion of the values and priorities that land ownership policies reflect. Namely, we contrast an ‘open for business’ approach that prioritizes financial investment to one based on a land sovereignty approach that prioritizes social investment. The latter has greater potential if the aim is ecological sustainability and food sovereignty. © 2016, Springer Science+Business Media Dordrecht.</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>1</v>
+      </c>
+      <c r="F239" t="n">
+        <v>1</v>
+      </c>
+      <c r="G239" t="n">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Codesigning a resilient food system</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Global changes, especially the progression of climate change, create a plethora of adaptation needs for social-ecological systems. With increasing uncertainty, more resilient food systems that are able to adapt and shape their operations in response to emerging challenges are required. Most of the research on this subject has been focused on developing countries; however, developed countries also face increasing environmental, economic, and social pressures. Because food systems are complex and involve multiple actors, using codesign might be the most productive way to develop desirable system characteristics. For this study, we engaged food system actors in a scenario-planning exercise to identify means of building more resilient food systems. In particular, the actors focused on determinants of adaptive capacity in developed countries, with Finland as a case study. The brainstorming session followed by a two-round Delphi study raised three main characteristics for effective food system resilience, namely, energy and nutrient sovereignty, transparency and dialogue in the food chain, and continuous innovativeness and evidence-based learning. In addition, policy interventions were found instrumental for supporting such food system resilience. The main actor-specific determinants of adaptive capacity identified included the farmers’ utilization of agri-technology and expertise; energy and logistic efficiency of the input and processing industry; and for retail, communication to build consumer trust and environmental awareness, and effective use of information and communication technology. Of the food system actors, farmers and the processing industry were perceived to be the closest to reaching the limits of their adaptive capacities. The use of adaptive capacity as a proxy seemed to concretize food system resilience effectively. Our study suggests that the resilience approach generates new perspectives that can guide actors in developing food systems that are adaptive in uncertainty. © 2016 by the author(s).</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>1</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1</v>
+      </c>
+      <c r="G240" t="n">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Peasant activism and the rise of food sovereignty: Decolonising and democratising norm diffusion?</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>‘Food sovereignty’ emerged from grassroots peasant mobilisations, and has been spread globally by a democratically organised social movement, la Vía Campesina. This process has seen food sovereignty influence global political discourse, transform national constitutions and be incorporated into a proposed United Nations declaration on the rights of peasants and other people working in rural areas. By examining the role of grassroots actors in the global South in the construction of this emerging global norm, I militate against tendencies of West-centrism and elitism in existing literature on the contemporary diffusion of norms. By also discussing the potential marginalisation of grassroots peasant voices in recent United Nations discussions, I suggest that these elitist and West-centric tendencies may also exist in the norm diffusion process itself. © 2015, © The Author(s) 2015.</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>1</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1</v>
+      </c>
+      <c r="G241" t="n">
+        <v>1</v>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>The Prism of Expanding Peasants' Rights: A Critical Investigation of Diverse Frames Applied to la Vía Campesina's Human Rights Engagements</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Since its foundation in 1993, La Vía Campesina has surged to the forefront of the global alter-globalization movement of movements, mobilizing human rights discourse to promote small-scale sustainable agriculture as a key component of social justice, equity, dignity, and autonomy everywhere. This literature review argues that food sovereignty - La Vía Campesina's best known, rights-based innovation - inflects a range of other interrelated but distinct frames that variously foreground peasants' rights, "peasantness," land, cultural recognition, and collective emancipation, prefiguring an array of prospects for the expansion of human rights to peasants and other marginalized populations confronting the failures of capitalist globalization. © 2018 Koninklijke Brill NV, Leiden, The Netherlands.</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>1</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1</v>
+      </c>
+      <c r="G242" t="n">
+        <v>1</v>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Issues of import substitution in the agro-industrial sector</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>The development of the modern agro-industrial sector at all levels of economy management is considered in the context of import substitution due to the sanctions announced by the US and the West and the food import ban announced by Russia as a counter measure. The government has approved the "roadmap" to facilitate import substitution in agriculture. The purpose of the article is to assess the potential of the AIS (agro-industrial sector) in Russia, trends in achieving threshold levels of food sovereignty, determine methodological and practical conditions and possibility to implement the roadmap of import substitution, volumes, timing and growth rate in achieving the goals.</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>1</v>
+      </c>
+      <c r="F243" t="n">
+        <v>1</v>
+      </c>
+      <c r="G243" t="n">
+        <v>1</v>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Community context of food justice: Reflections on a free local produce program in a New Orleans food desert</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Food justice discourse has emerged partly in response to the critique of alternative food networks during the last decade, but its justice conceptualization tends to be too narrowly focused on food-related injustices rather than broader social injustices that shape food access and food sovereignty, a gap we address. Our analysis of a semi-experimental free local food program we administered in a New Orleans food desert demonstrates that several community context factors shape the residents' access to a local food market in this neighborhood: fragmented social ties, digital and generational divides, perpetual infrastructural failure, and the location of the market within the neighborhood. We argue that food justice discourse needs to incorporate social and cultural community contexts in its operationalization of food access and sovereignty, especially regarding how the latter concept is defined and executed in practice. © 2017 Laura McKinney et al.</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
+        <v>1</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1</v>
+      </c>
+      <c r="G244" t="n">
+        <v>1</v>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Seed laws, certification and standardization: outlawing informal seed systems in the Global South</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>A series of relatively new seed laws are becoming novel mechanisms of accumulation by dispossession in agriculture. Many researchers have argued that intellectual property rights (IPR) laws that apply to living materials dispossess people of seeds by privatizing germplasm. What these authors have not addressed is the role that non-IPR-related seed laws play in the seed enclosure. I argue that we should pay more attention to the implications of seed laws and regulations that do not deal directly with IPR issues, because they are also being used to outlaw practices that are necessary for the functioning of informal seed systems. As a result, they are setting the stage for the further erosion of seed sovereignty and are becoming an additional threat to an already waning agro-biodiversity, with direct consequences for farmers’ livelihoods. These seed laws establish certification requirements and quality standards for the marketing and/or exchange of seeds. I use the example of contemporary Colombian seed politics to illustrate how and why certification requirements and quality standards are currently being introduced throughout the Global South. I draw on insights from the standards literature in order to explain the power, limitations and consequences of these laws. © 2016 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
+        <v>1</v>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G245" t="n">
+        <v>1</v>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Food professionals’ opinions of the Food Studies curriculum in Australia</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Purpose: The purpose of this paper is to investigate the food system professionals’ opinions of a new senior secondary school food literacy curriculum named Victorian Certificate of Education Food Studies in Victoria, Australia. Design/methodology/approach: A purposive sample of 34 food system professionals from different sub-sectors within the Australian food system was interviewed individually in late 2015 and early 2016. Interviews were analysed using the template analysis technique. Findings: Most participants appreciated the extensive coverage of food literacy aspects in this new curriculum. However, many suggested amendments to the curriculum including pay less emphasis on food history-related topics and pay more focus on primary food production, nutrition awareness and promotion, and food security, food sovereignty, social justice, and food politics. Practical implications: A well-structured, comprehensive secondary school food literacy curriculum could play a crucial role in providing food literacy education for adolescents. This will help them to establish healthy food patterns and become responsible food citizens. The findings of this study can be used to modify the new curriculum to make it a more comprehensive, logical, and feasible curriculum. Moreover, these findings could be used to inform the design of new secondary school food literacy curricula in Australia and other countries. Originality/value: The exploration of perspectives of professionals from a broad range of food- and nutrition-related areas about school food literacy education makes this study unique. This study highlights the importance of food professionals’ opinions in secondary school food-related curricula development. © 2017, © Emerald Publishing Limited.</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>1</v>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G246" t="n">
+        <v>1</v>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Reintegrating economy, society, and environment for cooperative futures: Polanyi, Marx, and food sovereignty</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>This paper attempts to ‘put in their place' (Sum and Jessop 2013) some key issues that frame the question of ‘the more-than-economic dimensions of co-operation'. In particular, it asks why capitalism deconstructs socio-natural reality into the ‘common-sense' and discrete institutional spheres of ‘economy', ‘society' and ‘environment', an institutional constellation in which the ‘economy' is usually afforded pre-eminence. Building on this, the paper further asks: why does the organization of society around the commodity form, and specifically around the generalization of the commodity form to labour-power that is the defining feature of capitalism, have the tendential effect of fragmenting, atomizing, and marginalizing social collectivities and cooperative behaviour? This question is answered through examination of the work of Polanyi and Marx, arguing that it is the latter who is best able to explain the nature and dynamics of capitalism, and its relationship to cooperative activity. The paper elaborates the Marxian approach and suggests strong linkages with the ‘radical' fraction of the food sovereignty movement. The latter, like Marx, appears to invoke unconstrained cooperation as ‘actual' autonomy; the paper asks what the political and ecological prerequisites for the realization of this social imaginary might be. © 2016 Elsevier Ltd</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>1</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1</v>
+      </c>
+      <c r="G247" t="n">
+        <v>1</v>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Value chain governance and governmentality of horticultural exporters by developing economies: A perspective of Kenya's fresh fruits and vegetable export sector</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>The domain of governance has largely been extolled by Nations, States or governmental and intergovernmental actors especially in upholding Nations' sovereignty and values. While this still holds, governance complexity has been reinforced by establishment of global value chains such as in food and agriculture commodities increasingly being influenced and controlled by non-state actors in different parts of the world by both corporate and retail actors through private governance mechanisms. These mechanisms often fall short of universal standards and the resultant effect is ramified through proliferation of standards that result to state of governance that is constantly being redefined as 'codes of colours'. This paper thus seeks for an alternate dimension based on Foucault's governmentality theory. The quest for this overarching theory is based on its mediatory role that regulates the excesses of private interests in regulations while not prioritizing any state's sovereignty but views governance inclusively to both the State and non-state actors; this view promotes the broader understating of global value chains in the global economy of the 21st century. The paper's methodology is based on literature review pertinent to governance theory, value chain governance, governmentality as its key variables in light of the agrifood sector. It applies the value chain discourse and governmentatity in light of the Kenya's Horticultural export and strategic positioning to the EU market. This paper's novelty in light of the discourse and building on the body of knowledge and for the plausible ways and means to re-articulate value chain governance in the global economy while creating a viable alternative between the States, and Non-State actors for the benefit of both the upstream agents and downstream customers.</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
+        <v>1</v>
+      </c>
+      <c r="F248" t="n">
+        <v>1</v>
+      </c>
+      <c r="G248" t="n">
+        <v>1</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>‘Rescaling’ alternative food systems: from food security to food sovereignty</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>In this paper, we critically interrogate the benefits of an interdisciplinary and theoretically diverse dialogue between ‘local food’ and ‘alternative food networks’ (AFNs) and outline how this dialogue might be enriched by a closer engagement with discourses of food sovereignty and the politics of scale. In arguing for a shift towards a greater emphasis on food sovereignty, we contend that contemporary discourses of food security are inadequate for the ongoing task of ensuring a just and sustainable economy of food. Further, rather than treating the local and the global as ontologically given categories around which to contest the politics of food, it is our contention that recognising the socio-spatial aspects of the politics of scale has the potential to reinvigorate discourses of food security, food sovereignty and AFNs. Understanding scale as both fixed to a degree as well as contingent and dynamic has implications for an understanding of the role of food systems, for how the rescaled state privileges certain food systems and the possibilities for resistance through ‘jumping scale’ and food utopias. All of these aspects are significant if we are to fully comprehend and contest the challenges of envisioning and enacting real utopias of food sovereignty. © 2015, Springer Science+Business Media Dordrecht.</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>1</v>
+      </c>
+      <c r="F249" t="n">
+        <v>1</v>
+      </c>
+      <c r="G249" t="n">
+        <v>1</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Sovereignty, Risk and Biotechnology: Zambia's 2002 GM Controversy in Retrospect</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>The southern African food crisis of 2002 led to one of the most significant controversies over the use of genetically modified (GM) crops in the developing world to date. Zambia's staunch opposition to GM food aid during the crisis is still frequently used as a reference point in debates over GM seed technology in agricultural development, and the morality of advanced biotechnology. This article re-examines the controversy and its contemporary relevance using oral history interviews with key scientists, policy makers and development practitioners engaged in debates and decision-making processes in Zambia in 2002, alongside a review of discourses in the Zambian press. The author argues that, rather than different perceptions of health and environmental risks derived from GM crops, it was questions of sovereign regulatory control of technology in a context of diminished state capacity - and the decline in the Zambian state's capacity for agricultural science research in particular - that played a central role in shaping anti-GM attitudes. In addition, trust in the arguments of GM advocates was diminished by communication efforts which treated Zambian scientists and policy elites as a lay rather than an expert audience. © 2015 International Institute of Social Studies.</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>1</v>
+      </c>
+      <c r="F250" t="n">
+        <v>1</v>
+      </c>
+      <c r="G250" t="n">
+        <v>1</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Accountability and the empowerment of rural people’s organizations in global rural transformation</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>How to ensure that what has been termed a ‘rural transformation agenda’ is formulated with the participation of organizations directly representing those sectors of the population most strongly and directly affected? Under what conditions might peoples’ movements adopt accountability to support their struggles? This article approaches questions like these by examining the innovative setting of the reformed Committee on World Food Security, in which civil society engages on the same footing as governments. © 2016 Society for International Development.</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
+        <v>1</v>
+      </c>
+      <c r="F251" t="n">
+        <v>1</v>
+      </c>
+      <c r="G251" t="n">
+        <v>1</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Food or flowers? Contested transformations of community food security and water use priorities under new legal and market regimes in Ecuador's highlands</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>During the past three decades, the Pisque watershed in Ecuador's Northern Andes has become the country's principal export-roses producing area. Recently, a new boom of local smallholders have established small rose greenhouses and joined the flower-export business. This has intensified water scarcity and material/discursive conflicts over water use priorities: water to defend local-national food sovereignty or production for export. This paper examines how including peasant flower farms in the capitalist dream - driven by a 'mimetic desire' and copying large-scale capitalist flower-farm practices and technologies - generates new intra-community conflicts over collective water rights, extending traditional class-based water conflicts. New allocation principles in Ecuador's progressive 2008 Constitution and 2014 Water Law prioritising food production over flowers' industrial water use are unlikely to benefit smallholder communities. Instead, decision-making power for peasant communities and their water users' associations on water use priority would enable water user prioritization according to smallholders' own preferences. © 2016 Elsevier Ltd.</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
+        <v>1</v>
+      </c>
+      <c r="F252" t="n">
+        <v>1</v>
+      </c>
+      <c r="G252" t="n">
+        <v>1</v>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Agrobiodiversity Under Different Property Regimes</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Having an adequate and extensively recognized resource governance system is essential for the conservation and sustainable use of crop genetic resources in a highly populated planet. Despite the widely accepted importance of agrobiodiversity for future plant breeding and thus food security, there is still pervasive disagreement at the individual level on who should own genetic resources. The aim of the article is to provide conceptual clarification on the following concepts and their relation to agrobiodiversity stewardship: open access, commons, private property, state property and common heritage of humankind. After presenting each property regime, we will examine whether and how these incentivize the conservation, improvement and sharing of crop genetic resources, and conclude by defending a mixed property regime. © 2016, Springer Science+Business Media Dordrecht.</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
+        <v>1</v>
+      </c>
+      <c r="F253" t="n">
+        <v>1</v>
+      </c>
+      <c r="G253" t="n">
+        <v>1</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Critical food systems education (CFSE): educating for food sovereignty</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Food systems education can help individuals and communities transition to more sustainable food systems. Despite the growing scholarship on food systems education, there is a paucity of critical perspectives on its pedagogical methods, learning outcomes, and overarching objectives. This article addresses this gap by integrating insights from critical pedagogy, food justice, food sovereignty, and agroecology, developing a new synthetic area of study and research entitled critical food systems education (CFSE). CFSE is composed of a tripartite perspective, consisting of praxis, policy, and pedagogy. This framework is guided by the following overarching question: How can food systems education prepare individuals and teachers to transform the food system, and help communities attain food sovereignty? Following a review of the food systems education literature, we highlight the constraints of the depoliticized approach by drawing attention to its race and class-based assumptions. We then construct a definition of CFSE, and articulate the theoretical and practical cornerstones of this perspective, which are drawn from critical pedagogy, food justice, food sovereignty, and agroecology. A case study of a seed sovereignty project at a vocational high school associated with Brazil’s Landless Workers Movement is used to exemplify how CFSE can contribute to educating for food sovereignty. © 2016 Taylor &amp; Francis.</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>1</v>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G254" t="n">
+        <v>1</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Farmer seed networks make a limited contribution to agriculture? Four common misconceptions</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>The importance of seed provisioning in food security and nutrition, agricultural development and rural livelihoods, and agrobiodiversity and germplasm conservation is well accepted by policy makers, practitioners and researchers. The role of farmer seed networks is less well understood and yet is central to debates on current issues ranging from seed sovereignty and rights for farmers to GMOs and the conservation of crop germplasm. In this paper we identify four common misconceptions regarding the nature and importance of farmer seed networks today. (1) Farmer seed networks are inefficient for seed dissemination. (2) Farmer seed networks are closed, conservative systems. (3) Farmer seed networks provide ready, egalitarian access to seed. (4) Farmer seed networks are destined to weaken and disappear. We challenge these misconceptions by drawing upon recent research findings and the authors' collective field experience in studying farmer seed systems in Africa, Europe, Latin America and Oceania. Priorities for future research are suggested that would advance our understanding of seed networks and better inform agricultural and food policy. © 2015 The Authors. Published by Elsevier Ltd.</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
+        <v>1</v>
+      </c>
+      <c r="F255" t="n">
+        <v>1</v>
+      </c>
+      <c r="G255" t="n">
+        <v>1</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Food sovereignty as decolonization: some contributions from Indigenous movements to food system and development politics</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>The popularity of ‘food sovereignty’ to cover a range of positions, interventions, and struggles within the food system is testament, above all, to the term’s adaptability. Food sovereignty is centrally, though not exclusively, about groups of people making their own decisions about the food system—it is a way of talking about a theoretically-informed food systems practice. Since people are different, we should expect decisions about food sovereignty to be different in different contexts, albeit consonant with a core set of principles (including women’s rights, a shared opposition to genetically modified crops, and a demand for agriculture to be removed from current international trade agreements). In this paper we look at the analytical points of friction in applying ideas of food sovereignty within the context of Indigenous struggles in North America. This, we argue, helps to clarify one of the central themes in food sovereignty: that it is a continuation of anti-colonial struggles, even in post-colonial contexts. Such an examination has dividends both for scholars of food sovereignty and for those of Indigenous politics: by helping to problematize notions of food sovereignty and postcoloniality, but also by posing pointed questions around gender for Indigenous struggles. © 2014, Springer Science+Business Media Dordrecht.</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>1</v>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G256" t="n">
+        <v>1</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>European transitions towards a corporate-environmental food regime: Agroecological incorporation or contestation?</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>The 'food regime' concept helps to analyse potential transitions beyond the agro-industrial regime which has been globally dominant since the 1970s. As its multiple crises generate alternative production methods and products, some have been incorporated into a nascent 'corporate-environmental food regime'. This nascent regime is illustrated here by two agendas prominent in Europe - 'bioeconomy' (Life Sciences) and 'sustainable intensification' (neoproductivism). As a significant difference, the prevalent 'bioeconomy' agenda marginalises agroecological practices, while 'sustainable intensification' selectively incorporates such practices within a broader toolkit including biotech. Regardless of that difference, both agendas reinforce a neoliberal productivist narrative: namely, more resource-efficient methods are necessary for increasing production to fulfill the greater market demand for food, feed, fuel, etc. In this way, the capital-accumulation driver is reified as 'market demand' arising exogenously from the food production system - which thereby accommodates societal needs. By contrast, the agroecology narrative diagnoses the problem as profit-driven agro-industrial monoculture systems making farmers dependent on external inputs, undermining their knowledge, and distancing consumers from agri-producers. Through such a narrative, new alliances have elaborated a different future linking farmers' knowledge-exchange, agroecology, food sovereignty, citizens' initiatives, public knowledge about food production, etc. Civil society organisations have facilitated such linkages among researchers, scientists and social movements. In those ways, contending narratives justify different trajectories for an agro-food transition. Each links different innovation paradigms of technique, quality and knowledge. These differences often remain implicit amidst broad terms such as bioeconomy, sustainable intensification, agroecology, etc. Making the divergences explicit can help contest transitions towards a corporate-environmental food regime, while also counterposing agroecological alternatives. © 2015 Elsevier Ltd.</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>1</v>
+      </c>
+      <c r="F257" t="n">
+        <v>1</v>
+      </c>
+      <c r="G257" t="n">
+        <v>1</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Return to Freedom: Anti-GMO Aloha ‘Āina Activism on Molokai as an Expression of Place-based Food Sovereignty</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Abstract: This paper explores the concept of food sovereignty on the island of Molokai, where the Hawaiian value of aloha ‘āina, or love for the land, guides local efforts to preserve and promote local food production. This organizing concept also has political undertones—food sovereignty requires access to land and resources, both of which Native Hawaiians have historically been dispossessed of since colonial contact. In the paper, I examine current anti-genetically modified organism (GMO) activism as one example of the uniquely Hawaiian food sovereignty efforts taking place on Molokai. I present two key arguments. First, I show how the anti-GMO platform, which has garnered support from both native Hawaiians and more recent settlers, reflects a strategic alliance that gives greater momentum to Hawai‘i's food sovereignty movement, which in turn is viewed by a growing number of Native Hawaiians as a pathway toward Indigenous sustainable self-determination. I also draw from the Molokai case to illustrate a perceived tension between community-based work and political engagement that exists within both the food sovereignty paradigm and the contemporary Indigenous sovereignty framework. I argue that aloha ‘āina as a cultural and political praxis suggests ‘ways out’ of this apparent paradox, by showing how Hawaiians have historically engaged simultaneously in both community-based practices and political activism as a means to care for their land and people. While food sovereignty on Molokai calls for the privileging of place-based knowledge, there are lessons to be learnt for social movements elsewhere that are also struggling internally to deconstruct and define what is meant by food sovereignty, and how best to achieve it. © 2014 Taylor &amp; Francis.</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>1</v>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G258" t="n">
+        <v>1</v>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>From world hunger to food sovereignty: Food ethics and human development</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>The role of Amartya Sen's early work on famine notwithstanding, food security is generally seen as but one capability among many for scholars writing in development ethics. The early literature on the ethics of hunger is summarized to show how Sen's Poverty and Famines was written in response to debates of past decades, and a brief discussion of food security as a capability follows. However, Sen's characterization of smallholder food security also supports the development of agency in both a political and an economic sense. Economic agency is discussed and tied to longstanding literatures on the moral significance of farming within political economy. Finally, while the newly emergent literature on food sovereignty includes many themes, it is shown to be re-Articulating arguments that stress smallholder's economic agency as a development goal. This pattern of argument thus provides a way to reconcile at least some of the claims being advanced under the banner of food sovereignty with the human development approach, while also restoring food ethics to a more central place in the overall discourse of development ethics. © 2015 Taylor &amp; Francis.</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
+        <v>1</v>
+      </c>
+      <c r="F259" t="n">
+        <v>1</v>
+      </c>
+      <c r="G259" t="n">
+        <v>1</v>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>The Conflicted Nature of Food Security Policy: Balancing Rice, Sugar and Palm Oil in Indonesia</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Given the multiple problems presented by food policy, food security presents a complex dilemma for policy-makers. This paper examines the contradictions presented by competing food security, food self-sufficiency and food sovereignty framings, the challenge of policy-making across multiple levels amidst competing agendas of agricultural commodity production and production for self-provisioning populations, and the need to balance economic development with sustainable food production. From an analysis of rice, palm oil and sugar cases in Indonesia, we conclude that the conflicted nature of food policy needs to be understood in terms of the way specific material and ideational, actor-specific and structural factors working across scale shape outcomes in a highly uneven fashion. We find that this produces a policy field highly resistant to single analytical approaches, opening up the wide range of internally conflicting, related policy questions encompassed by food security-related policy. © 2016 Discipline of Anthropology and Sociology, The University of Western Australia.</t>
+        </is>
+      </c>
+      <c r="E260" t="n">
+        <v>1</v>
+      </c>
+      <c r="F260" t="n">
+        <v>1</v>
+      </c>
+      <c r="G260" t="n">
+        <v>1</v>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>“We Plant Only Cotton to Maximize Our Earnings”: The Paradox of Food Sovereignty in Rural Telengana, India</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>This article critically examines the role of food sovereignty interventions in the mitigation of the impacts of neoliberal economic policies on poor farmers in the Telengana region of India. Findings based on eighteen months of ethnographic research in the Telengana region reveal that small and poor farmers face socioeconomic and cultural constraints to the adoption of food sovereignty practices and ideals. Food sovereignty prescriptions based on localized, sustainable, and subsistence agriculture paradoxically constrained farmers’ chances of maintaining viable rural livelihoods in a harsh economic climate. Based on these findings, I argue that contrary to assertions by advocates that food sovereignty is a precondition to genuine food security, farmers must first have food and livelihood security to exercise true food sovereignty that allows them more control over their livelihoods. © 2015, © Copyright 2015 by Association of American Geographers.</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>1</v>
+      </c>
+      <c r="F261" t="n">
+        <v>1</v>
+      </c>
+      <c r="G261" t="n">
+        <v>1</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>‘Quiet Food Sovereignty’ as Food Sovereignty without a Movement? Insights from Post-socialist Russia</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Abstract: What does food sovereignty look like in settings where rural social movements are weak or non-existent, such as in countries with post-socialist, semi-authoritarian regimes? Focusing on Russia, we present a divergent form of food sovereignty. Building on the concept of ‘quiet sustainability’, we present a dispersed, muted, but clearly bottom-up variant we term ‘quiet food sovereignty’. In the latter, the role of the very productive smallholdings is downplayed by the state and partly by the smallholders themselves. Those smallholdings are not seen as an alternative to industrial agriculture, but subsidiary to it (although superior in terms of sociality and healthy, environmentally friendly produce). As such, ‘quiet food sovereignty’ deviates from the overt struggle frequently associated with food sovereignty. We discuss the prospects of ‘quiet food sovereignty’ to develop into a full food sovereignty movement, and stress the importance of studying implicit everyday forms of food sovereignty. © 2015 Taylor &amp; Francis.</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
+        <v>1</v>
+      </c>
+      <c r="F262" t="n">
+        <v>1</v>
+      </c>
+      <c r="G262" t="n">
+        <v>1</v>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Competing Sovereignties, Contested Processes: Insights from the Venezuelan Food Sovereignty Experiment</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Abstract: This article explores how ‘competing sovereignties’ are shaping the political construction of food sovereignty—broadly defined as ‘the right of peoples to healthy and culturally appropriate food produced through ecologically sound and sustainable methods, and their right to define their own food and agriculture systems'. This study was motivated by a lack of clarity on the ‘sovereignty’ of food sovereignty, as noted by numerous scholars—sovereignty for whom, and how? As there is a growing consensus that there are in fact ‘multiple sovereignties’ of food sovereignty that cut across jurisdictions and scales, there is the question of how these sovereignties are competing with each other in the attempted construction of food sovereignty. This question is becoming ever more relevant as food sovereignty is increasingly adopted into state policy at various levels, calling for state and societal actors to redefine their terms of engagement. This article explores questions of ‘competing sovereignties’ by developing an analytical framework, using the lenses of scale, geography, and institutions, and applying it to Venezuela, where for the past 15 years a food sovereignty experiment has been underway in the context of a dynamic shift in state–society relations. © 2015 Taylor &amp; Francis.</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
+        <v>1</v>
+      </c>
+      <c r="F263" t="n">
+        <v>1</v>
+      </c>
+      <c r="G263" t="n">
+        <v>1</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Deconstructing homegardens: food security and sovereignty in northern Nicaragua</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Development scholars and practitioners are promoting food security, food sovereignty, and the localization of food systems to prepare for the projected negative impacts of climate change. The implementation of biodiverse homegardens is often seen as a way not only to localize food production but also as a strategy in alignment with a food sovereignty agenda. While much scholarship has characterized and critiqued food security and sovereignty conceptualizations, relatively little research has examined people’s lived experiences in order to test how such theoretical visions play out on the ground in farming communities. Based on a case study of four coffee cooperatives in northern Nicaragua, we examine a non-governmental organization (NGO)-supported project promoting food security and sovereignty through development of homegardens. We ask: To what extent are homegardens an effective strategy to reach food sovereignty? And, why may farmers be resistant to changing their food production and consumption strategies to embrace biodiverse homegardens when they improve food security? We discuss characteristics of agroecological homegardens, the distinctions between food security, food sovereignty and dominant discourses of development, the history of food sovereignty in Nicaragua, and farmer perspectives on homegarden implementation. Despite historic critiques, NGOs are poised to facilitate the transformation of food and agricultural development by employing counter development strategies, a necessary step if homegardens are to be successful in the long term. To conclude, we propose some strategies NGOs and communities might pursue to move forward with homegardens as a food sovereignty strategy. This research suggests that a food sovereignty approach still rooted in mainstream development models faces significant obstacles to moving beyond food security and into a farmer-led food sovereignty agenda. © 2015, Springer Science+Business Media Dordrecht.</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>1</v>
+      </c>
+      <c r="F264" t="n">
+        <v>1</v>
+      </c>
+      <c r="G264" t="n">
+        <v>1</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Monitoring of food security in the Russian Federation: Methodology and assessment</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>The paper presents the results of food security research in the Russia Federation. Providing food security and country's independence becomes the core of keeping the national sovereignty under conditions of globalization and integration processes development. It determined the research relevance. The purpose of the research is the development of a new methodological approach to monitoring of food security as one of most important components of an efficient protection system of the latter. Integrative reproduction approach to monitoring of country's food security meeting stability criteria, economic and social ecological efficiency, competitive ability and safety is suggested. The composition of indicators arranged in four groups is developed within the framework of such approach in order to carry out all-round monitoring of Russian Federation's food security: agroindustrial complex production capacity and its efficient use; food accessibility; food affordability; food quality and level. The assessment of Russian Federation's agriculture facilities, agricultural products output dynamics, agricultural raw materials and provisions export and import, level of staple foods consumption by the population and Russians' diet is given based on indicative analysis. The main threats to Russia's food security are revealed (productive powers deindustrialization; low level of investment to the agricultural sector; labour force reduction; increase in dependence on imported foodstuff; population's low income level and living standards, etc.) Recommendations regarding Russian Federation's food security level increase are given (carrying out augmented technologic modernization, establishing a brand new enterprise network, development of associations and cooperatives, increase in government control combined with agricultural producers' business activity, development of market forms of cooperation and integration).</t>
+        </is>
+      </c>
+      <c r="E265" t="n">
+        <v>1</v>
+      </c>
+      <c r="F265" t="n">
+        <v>1</v>
+      </c>
+      <c r="G265" t="n">
+        <v>1</v>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Breeding Apples for Oranges: Africa's Misplaced Priority Over Plant Breeders' Rights</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>In 2000, African countries expressed reservation over the adoption of UPOV Act of 1991 as a model of plant breeders' rights (PBRs) for TRIPS-compliance. For the continent, an acceptable system of PBRs protection would include the protection of the rights of communities and associated indigenous knowledge, innovations, technologies and farming practices. One and half decades after, Africa has virtually reversed itself and embraced the UPOV-PBRs system notwithstanding the latter's narrow focus on breeders and marginal reference to farmers. This Article critically explores the concerted sites of pressures, especially free trade and economic partnership agreements, and related policies through which Africa appears to have capitulated and upturned its policy position on PBRs. The continent's present priority over the implementation of PBRs through various regional and national legal initiatives currently at the instance of African Intellectual Property Organization (OAPI), the African Regional Intellectual Property Organization (ARIPO), the Southern African Economic Community (SADC) and specific country initiatives are explored. The article highlights the basis for the incongruity of Africa's newfound interest in the UPOV-PBRs system-a regime not designed for the farmer-centered tenor of African agriculture. It calls attention to the continued relevance of Africa's 2000 Model Law, especially as it applies to PBRs and recommends reality assessment as an important step toward the formulation of IPRs system suited for stakeholders in African agriculture for the continent's food security and food sovereignty. © 2015 John Wiley &amp; Sons Ltd.</t>
+        </is>
+      </c>
+      <c r="E266" t="n">
+        <v>1</v>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G266" t="n">
+        <v>1</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
           <t>Concern over palm oil expansion</t>
         </is>
       </c>
-      <c r="C188" t="n">
+      <c r="C267" t="n">
         <v>2015</v>
       </c>
-      <c r="D188" t="inlineStr">
+      <c r="D267" t="inlineStr">
         <is>
           <t>A coalition of organizations and representatives of civil society from across Asia, Africa, and Latin America expressed their concerns about the impact of Europe's biofuels policies, particularly on escalating demand for palm oil, implying an unsustainable global land footprint. Around 90% of the world's palm oil is grown in Indonesia and Malaysia. The growth of palm oil plantations in Latin America and Africa indicated that it has led to land grabbing and conflict, along with loss of clean water supplies, food sovereignty and cultural integrity. The coalition urge all member states of the European Parliament to vote for biofuels policy reforms that will ensure the protection of people and environment from the affected regions from the impacts of palm oil expansion.</t>
         </is>
       </c>
-      <c r="E188" t="n">
-        <v>1</v>
-      </c>
-      <c r="F188" t="n">
-        <v>1</v>
-      </c>
-      <c r="G188" t="n">
-        <v>1</v>
-      </c>
-      <c r="H188" t="inlineStr">
+      <c r="E267" t="n">
+        <v>1</v>
+      </c>
+      <c r="F267" t="n">
+        <v>1</v>
+      </c>
+      <c r="G267" t="n">
+        <v>1</v>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Seed exchange networks and food system resilience in the United States</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Seed exchange is a multidimensional issue with social, political, economic, and agricultural implications. There is a growing concern about the increase of the food system’s vulnerability as a result of loss of agricultural biodiversity. Farmers’ ability to replant, exchange, and distribute saved seed is a way to minimize their dependence on commercial suppliers and thereby maintain control over farming practices. Seed saving is also crucial for conservation because the process of choosing, replanting, and exchanging seeds relies on and increases diversity on the farm and in communities. Seed exchange networks, formal and informal ways that farmers engage alongside institutional plant breeding systems, help to conserve agricultural, social, and cultural diversity and identity as well as enhance resilience against environmental and economic shocks. However, how to build resilient seed systems and move from the innovative but relatively isolated project activities of professionals and farmers to a situation where such approaches are scaled up and networked alongside formal and informal, national and international plant breeding mechanism are a concern. This paper examines grassroots seed exchange through seed libraries, the marketing of new varieties through seed companies, and hybrid civil society-business models to understand their financial and technical abilities as well as challenges they face. Seed exchange networks fulfill an important role in conservation of agricultural biodiversity and building community resilience through their work on breeding, exchange, and propagation of regionally adapted open-pollinated seeds as well as advocacy on seed sovereignty and education on seed saving. © 2015, AESS.</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>1</v>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G268" t="n">
+        <v>1</v>
+      </c>
+      <c r="H268" t="inlineStr">
         <is>
           <t>_</t>
         </is>

--- a/literature_research/FS_scopus/FS_MAIN_filter.xlsx
+++ b/literature_research/FS_scopus/FS_MAIN_filter.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H268"/>
+  <dimension ref="A1:H247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -706,7 +706,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>How trust is lost: the Food Systems Summit 2021 and the delegitimation of UN food governance</t>
+          <t>Food Security, Food Sovereignty, and Urban Agriculture in Cuba</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -714,14 +714,16 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Social movements see participation formats of international organizations (IOs) with suspicion. They increasingly retreat from cooperation to contest IOs from the outside, because they fear co-optation without real policy impact. However, the Food and Agricultural Organization (FAO) was an exception to this trend because its opening up was seen as long-term dialogue facilitating discussions about the nature of food production, and because it created credible institutional mechanisms that were trusted by activists to give influence to farmers and peasant movements. Therefore, the food sovereignty movement participated within the FAO framework in a remarkably institutionalized way throughout the 2010s. But in 2019, when the United Nations (UN) announced to hold a food systems summit (United Nations Food Systems Summit (UNFSS)), this changed dramatically. The food sovereignty movement, many non-governmental organizations (NGOs), and eventually scientists, decided to boycott the summit, instead organizing an alternative Peoples’ Summit, and withdrawing from long-held institutional roles in the FAO. How can this be explained? This article traces the process from the announcement of the UNFSS to its implementation, stressing how institutional trust was damaged by several decisions in the process that undermined the good faith of activists. As we show in detail, the circumvention of established institutional mechanisms, and the feeling of betrayal on the side of the movement, was decisive for losing institutional trust. Importantly, a mixture of substantive and institutional changes in the context of UNFSS not only undermined the movement’s trust into the integrity and ability of the summit organizers, but thereby also provoked movement efforts to delegitimize UN food governance at large. © The Author(s) 2023.</t>
+          <t>In the last thirty years, Cuba and its capital Havana have become homes to one of the most vibrant urban agricultural movements in the world. This article argues that urban agriculture (UA) became the epitome of a broader movement of “agricultural revolution” that followed the collapse of the previous, capital intensive, monocultural agro-export model. It contends that this transformation revolved around three pillars – land redistribution, agricultural diversification, and agroecology – that account for a transition from food security to food sovereignty. It also presents the results of interviews conducted in Havana with urban farmers to assess the impact that UA has on their family’s diet and food security. The research demonstrates that UA guarantees a heightened feeling of independence to urban farmers and has a tremendous impact on their food security and diversity, most notably through autoconsumption. It also shows that community needs, use value, and the decommodification of food and land are the driving principles of UA in Cuba, which is in line with the food sovereignty model. © 2024 Latin American Perspectives.</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
-      <c r="F9" t="n">
-        <v>1</v>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -738,7 +740,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Food Security, Food Sovereignty, and Urban Agriculture in Cuba</t>
+          <t>Biocultural Elements and Multifunctionality of Cassava Flour Production in Agrarian Reform Settlements in the Extreme South of Bahia, Brazil</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -746,16 +748,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>In the last thirty years, Cuba and its capital Havana have become homes to one of the most vibrant urban agricultural movements in the world. This article argues that urban agriculture (UA) became the epitome of a broader movement of “agricultural revolution” that followed the collapse of the previous, capital intensive, monocultural agro-export model. It contends that this transformation revolved around three pillars – land redistribution, agricultural diversification, and agroecology – that account for a transition from food security to food sovereignty. It also presents the results of interviews conducted in Havana with urban farmers to assess the impact that UA has on their family’s diet and food security. The research demonstrates that UA guarantees a heightened feeling of independence to urban farmers and has a tremendous impact on their food security and diversity, most notably through autoconsumption. It also shows that community needs, use value, and the decommodification of food and land are the driving principles of UA in Cuba, which is in line with the food sovereignty model. © 2024 Latin American Perspectives.</t>
+          <t>Artisanal manufacture of cassava flour in Brazil has a cultural and biological framework developed over generations of traditional rural workers. We conducted a broad study of flour production in the Extreme South of Bahia in 2019 across 30 rural settlements in 11 municipalities, where we evaluated 107 flour producers. Our results present the socioeconomic profiles of local farmers, cassava varieties, types of flour, particularities of production, and characteristics of commercialization. We highlight the multiple functions of artisanal production of cassava flour, especially as related to social and economic maintenance of households, the promotion of food security, and sovereignty within and around the communities, and the conservation of agrobiodiversity in the rural landscape. © The Author(s), under exclusive licence to Springer Science+Business Media, LLC, part of Springer Nature 2024.</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F10" t="n">
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -772,15 +772,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Biocultural Elements and Multifunctionality of Cassava Flour Production in Agrarian Reform Settlements in the Extreme South of Bahia, Brazil</t>
+          <t>Examining the Criminal Aspects of the Indonesian Plant Varieties Regime and Farmer Protection for Food Sovereignty</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Artisanal manufacture of cassava flour in Brazil has a cultural and biological framework developed over generations of traditional rural workers. We conducted a broad study of flour production in the Extreme South of Bahia in 2019 across 30 rural settlements in 11 municipalities, where we evaluated 107 flour producers. Our results present the socioeconomic profiles of local farmers, cassava varieties, types of flour, particularities of production, and characteristics of commercialization. We highlight the multiple functions of artisanal production of cassava flour, especially as related to social and economic maintenance of households, the promotion of food security, and sovereignty within and around the communities, and the conservation of agrobiodiversity in the rural landscape. © The Author(s), under exclusive licence to Springer Science+Business Media, LLC, part of Springer Nature 2024.</t>
+          <t>This research investigates the Plant Varieties Regime's role in safeguarding farmers’ rights in plant development and cultivation in Indonesia. Specifically, it scrutinizes criminal provisions concerning farmers accused of producing seeds without the right holder's consent, as evident in multiple court decisions. These verdicts have ignited legal debates that conflict with the principles of food sovereignty. Given that nearly 90% of corn plants are cultivated through traditional farmer knowledge, the increasing dependence on the seed industry disrupts agricultural practices passed down through generations. The Plant Variety Protection Act (PVP Act) inadvertently encourages seed industry monopolization. This paper advocates a coherent approach in compliance with Article 27(2) of the 1945 Constitution to address these legal issues and establish a just legal framework. The primary legal discourse centers on equitable protection, necessitating a re-evaluation of the PVP Law, which is perceived as restricting plant development opportunities and discriminating against farmers. Farmers, as stewards of seed development and livelihood, should not face criminal charges encroaching upon their rights. Employing a normative methodology involving statutory, conceptual, and case analyses, this study examines the criminal aspects and legal protection of farmers' rights in corn seed cultivation. Ultimately, the paper recommends revising the PVP Law, emphasizing the importance of coherent legal thinking when shaping criminal policies. On a practical level, it calls for collaborative efforts among stakeholders to bolster agricultural sovereignty, particularly in the corn sector, by prioritizing farmers’ rights. In summary, this research aims to provide recommendations for enhancing farmers' protection against the criminal provisions outlined in the PVP Act, which holds a pivotal role in shielding farmers engaged in corn seed cultivation. © 2023 by Author(s).</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -804,22 +804,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Examining the Criminal Aspects of the Indonesian Plant Varieties Regime and Farmer Protection for Food Sovereignty</t>
+          <t>Fields of contestation and contamination: Maize seeds, agroecology and the (de)coloniality of agriculture in Malawi and South Africa</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>This research investigates the Plant Varieties Regime's role in safeguarding farmers’ rights in plant development and cultivation in Indonesia. Specifically, it scrutinizes criminal provisions concerning farmers accused of producing seeds without the right holder's consent, as evident in multiple court decisions. These verdicts have ignited legal debates that conflict with the principles of food sovereignty. Given that nearly 90% of corn plants are cultivated through traditional farmer knowledge, the increasing dependence on the seed industry disrupts agricultural practices passed down through generations. The Plant Variety Protection Act (PVP Act) inadvertently encourages seed industry monopolization. This paper advocates a coherent approach in compliance with Article 27(2) of the 1945 Constitution to address these legal issues and establish a just legal framework. The primary legal discourse centers on equitable protection, necessitating a re-evaluation of the PVP Law, which is perceived as restricting plant development opportunities and discriminating against farmers. Farmers, as stewards of seed development and livelihood, should not face criminal charges encroaching upon their rights. Employing a normative methodology involving statutory, conceptual, and case analyses, this study examines the criminal aspects and legal protection of farmers' rights in corn seed cultivation. Ultimately, the paper recommends revising the PVP Law, emphasizing the importance of coherent legal thinking when shaping criminal policies. On a practical level, it calls for collaborative efforts among stakeholders to bolster agricultural sovereignty, particularly in the corn sector, by prioritizing farmers’ rights. In summary, this research aims to provide recommendations for enhancing farmers' protection against the criminal provisions outlined in the PVP Act, which holds a pivotal role in shielding farmers engaged in corn seed cultivation. © 2023 by Author(s).</t>
+          <t>Farmer-managed seed systems and the conservation of agrobiodiversity are increasingly recognized as important components of food and seed sovereignty. In contrast, hybrid, genetically modified (GM), and, increasingly, gene-edited crops continue to be promoted by Green Revolution proponents as a “climate smart” package that includes fertilizers, pesticides, purchased seeds, and links to global markets. Influencing seed laws and policies to support the uptake of modern crop varieties has been a key entry point in many countries, facilitated by networks of foreign donors, philanthropists, governments, and multinational companies. Using the case of South Africa, where GM crops have been grown for several decades, we provide insights on implications for Malawi, which passed a Seed Act in 2022, implicitly supporting GM crops. Both countries have histories of colonial agriculture with strong policy support for modern, hybrid varieties of maize, and the replacement (and displacement) of local, open-pollinated maize varieties. In South Africa, several studies have revealed the contamination of smallholder fields and seed systems. Through a political ecology lens, we explore how maize and its cotechnologies were commodified in South Africa and Malawi, and what South African experiences of GM crop adoption in smallholder farming systems can tell us about the challenges to be faced by smallholder Malawian farmers. We reveal how colonial histories and ongoing colonialities of power, knowledge, being, and nature continue to shape the character and form of agriculture in both countries, running counter to the needs of agroecological smallholder farmers and their ways of knowing and being. We conclude by envisioning what reimagined, transformed and decolonial approaches for food and agriculture might look like on the African continent, and how they might contribute toward the attainment of food and seed sovereignty and an agroecological future. Copyright: © 2024 The Author(s).</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
-      <c r="F12" t="n">
-        <v>1</v>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -836,7 +838,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Fields of contestation and contamination: Maize seeds, agroecology and the (de)coloniality of agriculture in Malawi and South Africa</t>
+          <t>The seeds are coming home: a rising movement for Indigenous seed rematriation in the United States</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -844,7 +846,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Farmer-managed seed systems and the conservation of agrobiodiversity are increasingly recognized as important components of food and seed sovereignty. In contrast, hybrid, genetically modified (GM), and, increasingly, gene-edited crops continue to be promoted by Green Revolution proponents as a “climate smart” package that includes fertilizers, pesticides, purchased seeds, and links to global markets. Influencing seed laws and policies to support the uptake of modern crop varieties has been a key entry point in many countries, facilitated by networks of foreign donors, philanthropists, governments, and multinational companies. Using the case of South Africa, where GM crops have been grown for several decades, we provide insights on implications for Malawi, which passed a Seed Act in 2022, implicitly supporting GM crops. Both countries have histories of colonial agriculture with strong policy support for modern, hybrid varieties of maize, and the replacement (and displacement) of local, open-pollinated maize varieties. In South Africa, several studies have revealed the contamination of smallholder fields and seed systems. Through a political ecology lens, we explore how maize and its cotechnologies were commodified in South Africa and Malawi, and what South African experiences of GM crop adoption in smallholder farming systems can tell us about the challenges to be faced by smallholder Malawian farmers. We reveal how colonial histories and ongoing colonialities of power, knowledge, being, and nature continue to shape the character and form of agriculture in both countries, running counter to the needs of agroecological smallholder farmers and their ways of knowing and being. We conclude by envisioning what reimagined, transformed and decolonial approaches for food and agriculture might look like on the African continent, and how they might contribute toward the attainment of food and seed sovereignty and an agroecological future. Copyright: © 2024 The Author(s).</t>
+          <t>Seed rematriation is a rising movement within greater efforts to improve seed and food sovereignty for Native American communities in the United States. As a feminized reframing of repatriation, rematriation seeks to heal Indigenous relationships with food, seeds, and landscapes. Since first contact, Native agricultural practices have been systematically targeted by colonization, resulting in the diminished biodiversity of cultural gardening systems. Of this vast wealth, many varieties exist today solely under the stewardship of non-Native institutions. Seed rematriation is therefore the process and movement by which Native nations reclaim their cultural seed heritages. Once seeds are returned to the hands and soils of their home communities, Indigenous Nations can reestablish healthy, diverse, and sustainable seed and foodways for generations to come. This article explores the history of the term rematriation within Indigenous sovereignty scholarship as well as its evolving interpretations and applications. Considering how the seed rematriation movement has been shaped by several seed keepers in the Midwest reveals the cultural understandings and significances that underpin this work across many aspects of Indigenous lifeways. The resulting discussion from ethnographic material demonstrates why seed reclamation and seed sovereignty movements in the Midwest uphold Native nationhood through both resurgence and refusal. The Indigenous processes of recognizing and reclaiming seeds work beyond recovering agricultural knowledge to also mend severed kin relationships, rejuvenate cultural knowledge, and reestablish authority over Indigenous food systems. © The Author(s), under exclusive licence to Springer Nature B.V. 2024. Springer Nature or its licensor (e.g. a society or other partner) holds exclusive rights to this article under a publishing agreement with the author(s) or other rightsholder(s); author self-archiving of the accepted manuscript version of this article is solely governed by the terms of such publishing agreement and applicable law.</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -870,7 +872,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>The seeds are coming home: a rising movement for Indigenous seed rematriation in the United States</t>
+          <t>Building the intrinsic infrastructure of agroecology: collectivising to deal with the problem of the state</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -878,16 +880,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Seed rematriation is a rising movement within greater efforts to improve seed and food sovereignty for Native American communities in the United States. As a feminized reframing of repatriation, rematriation seeks to heal Indigenous relationships with food, seeds, and landscapes. Since first contact, Native agricultural practices have been systematically targeted by colonization, resulting in the diminished biodiversity of cultural gardening systems. Of this vast wealth, many varieties exist today solely under the stewardship of non-Native institutions. Seed rematriation is therefore the process and movement by which Native nations reclaim their cultural seed heritages. Once seeds are returned to the hands and soils of their home communities, Indigenous Nations can reestablish healthy, diverse, and sustainable seed and foodways for generations to come. This article explores the history of the term rematriation within Indigenous sovereignty scholarship as well as its evolving interpretations and applications. Considering how the seed rematriation movement has been shaped by several seed keepers in the Midwest reveals the cultural understandings and significances that underpin this work across many aspects of Indigenous lifeways. The resulting discussion from ethnographic material demonstrates why seed reclamation and seed sovereignty movements in the Midwest uphold Native nationhood through both resurgence and refusal. The Indigenous processes of recognizing and reclaiming seeds work beyond recovering agricultural knowledge to also mend severed kin relationships, rejuvenate cultural knowledge, and reestablish authority over Indigenous food systems. © The Author(s), under exclusive licence to Springer Nature B.V. 2024. Springer Nature or its licensor (e.g. a society or other partner) holds exclusive rights to this article under a publishing agreement with the author(s) or other rightsholder(s); author self-archiving of the accepted manuscript version of this article is solely governed by the terms of such publishing agreement and applicable law.</t>
+          <t>Corporate actors in capitalist food systems continue to consolidate ownership of the means of production in ever fewer hands, posing a critical barrier to food sovereignty and to an agroecological transition. Further, corporate influence on the state is often direct and blatant, but there are also more insidious governance barriers– hegemonic structures of power and ‘common sense’ theories of value that exclude smallholders and local communities from participation in decision-making processes. This is especially pertinent in land use planning and in building processing facilities, usually referred to as ‘value chain infrastructure’, or what I call the ‘intrinsic infrastructure of agroecology’. Using a case study approach, I evaluate the successes and failures of two campaigns for agrarian reform in the Australian state of Victoria, concluding that civil society must act collectively to gain the thick legitimacy needed to work with the state to enact enabling policies for an agroecological transition. © The Author(s) 2024.</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F14" t="n">
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -904,7 +904,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Building the intrinsic infrastructure of agroecology: collectivising to deal with the problem of the state</t>
+          <t>‘Insiders eating home-grown food’, home gardens of Chinese smallholders, and hidden resistance in the food regime transition</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -912,7 +912,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Corporate actors in capitalist food systems continue to consolidate ownership of the means of production in ever fewer hands, posing a critical barrier to food sovereignty and to an agroecological transition. Further, corporate influence on the state is often direct and blatant, but there are also more insidious governance barriers– hegemonic structures of power and ‘common sense’ theories of value that exclude smallholders and local communities from participation in decision-making processes. This is especially pertinent in land use planning and in building processing facilities, usually referred to as ‘value chain infrastructure’, or what I call the ‘intrinsic infrastructure of agroecology’. Using a case study approach, I evaluate the successes and failures of two campaigns for agrarian reform in the Australian state of Victoria, concluding that civil society must act collectively to gain the thick legitimacy needed to work with the state to enact enabling policies for an agroecological transition. © The Author(s) 2024.</t>
+          <t>Scholarly interest in the counter-movement during the third food regime transition has mainly been focused on open resistance. However, that view omits the grand picture consisting of 230 million Chinese smallholders and their everyday practices. This paper analyzes home gardening by Chinese smallholders based on a 10-year follow-up investigation. It reveals that their goal is to achieve ‘insiders eating home-grown food’, constituting a hidden and unconfrontational resistance to commercialization and globalization. Moreover, such resistance has formed a powerful force with strategic importance in China, having the potential to enlighten the counter-movement and thereby reshape the food regime. © 2023 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -970,15 +970,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>“Listen to us”: small-scale farmers’ understandings of social-ecological changes and their drivers in Important Agricultural Heritage Systems</t>
+          <t>Tradeoffs for the achievement of food sovereignty in the Reserva Estatal Geohidrologica Anillo de Cenotes, Yucatan</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Current social-ecological changes affect territories and people’s livelihoods worldwide. Many of these changes have detrimental effects on small-scale agricultural systems, with concomitant negative consequences on global and local food security and sovereignty. The objectives of this study were to explore (i) local knowledge on social-ecological changes and (ii) the perceived drivers of those changes occurring in a mountainscape and an islandscape in two Important Agricultural Heritage Systems of southern South America, both located within a Global Biodiversity Hotspot. This was done by conducting in-depth semi-structured interviews with local campesinos, whose livelihoods are based on the use and management of agrosilvopastoral systems. We found that local communities experience a wide range of globally and locally induced social-ecological changes acting in their territories. Campesinos mentioned 79 different observations of social-ecological changes and identified drivers for 77% of them. Changes in the atmospheric system, specifically regarding changes in precipitation, drought, and temperatures, were commonly observed by campesinos in both sites. Participants also observed complex interrelations between these changes and the drivers influencing them, climatic drivers being the most important. Even though general changes in climatic patterns were identified as drivers of changes by campesinos, other situated changes derived from the site’s biophysical, social, and economic conditions were also important. Our results highlight the importance of considering local knowledge to understand social-ecological changes and to support the development and implementation of public policies that promote contextualized adaptation measures to global changes that affect local livelihoods. © 2023, The Author(s).</t>
+          <t>One of the main challenges facing human society is to achieve food sovereignty while conserving natural resources. This study took place in the territory REGAC to understand the dynamics related to Food Sovereignty around Yucatan in Natural Protected Areas (NPAs). The objective was to measure the state of food sovereignty in the REGAC region and in each municipality inside the territory through the radar chart methodology, which is assessed with the following dimensions: 1) access to resources, 2) social capital, 3) transformation and commercialization, and 4) food consumption. Results indicate that access to resources dimension is an unstable state, while social capital and food consumption are in a critical state; however, the most concerning dimension is transformation and commercialization, which is approaching collapse. Finally, the overall state of Food Sovereignty in the REGAC is critical. These findings are consistent with the absence of a management plan, which, if implemented, could incorporate necessary components to enhance food sovereignty, as suggested in the discussion. © The Author(s), under exclusive licence to Springer Nature B.V. 2024.</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1002,15 +1002,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Social enterprise, food justice, and food sovereignty: Strange bedfellows or systemic supports?</t>
+          <t>“Listen to us”: small-scale farmers’ understandings of social-ecological changes and their drivers in Important Agricultural Heritage Systems</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>There is a debate in the literature about whether one can address food system problems with mar-ket-based approaches while seeking food justice or food sovereignty. However, as part of a team of researchers and community leaders, we have found that this debate is less relevant in practice. The concepts are interrelated within real-world food systems. As such, we were motivated to ask, how do social enterprises (SEs) interact with food jus- tice and food sovereignty movements and their visions in order to realize more democratic and equitable local food systems in communities? To answer this question, we conducted a systematic review at the intersection of SE, food sovereignty, and food justice literature. Analyzing nine articles, which included 17 food-related SEs, we found evidence of potential interactions between food SEs, food justice, and food sovereignty that are compat-ible (e.g., create employment) and incompatible (e.g., limited ability to address issues like community employability and green gentrification). The literature includes at least three important character-istics that inform how food-related SEs may interact with food justice and sovereignty, includ-ing employee and ownership demographics, the enterprise business model, and aspects of the food system targeted by the enterprise via market activi-ties. If we consider a systems perspective, we can envision the ways in which the aspects are embed-ded and interdependent in a neoliberal society. SEs, as market-based agents for social change, exist in the same system as justice and sovereignty. © 2024 by the Authors. Published by the Lyson Center for Civic Agriculture and Food Systems.</t>
+          <t>Current social-ecological changes affect territories and people’s livelihoods worldwide. Many of these changes have detrimental effects on small-scale agricultural systems, with concomitant negative consequences on global and local food security and sovereignty. The objectives of this study were to explore (i) local knowledge on social-ecological changes and (ii) the perceived drivers of those changes occurring in a mountainscape and an islandscape in two Important Agricultural Heritage Systems of southern South America, both located within a Global Biodiversity Hotspot. This was done by conducting in-depth semi-structured interviews with local campesinos, whose livelihoods are based on the use and management of agrosilvopastoral systems. We found that local communities experience a wide range of globally and locally induced social-ecological changes acting in their territories. Campesinos mentioned 79 different observations of social-ecological changes and identified drivers for 77% of them. Changes in the atmospheric system, specifically regarding changes in precipitation, drought, and temperatures, were commonly observed by campesinos in both sites. Participants also observed complex interrelations between these changes and the drivers influencing them, climatic drivers being the most important. Even though general changes in climatic patterns were identified as drivers of changes by campesinos, other situated changes derived from the site’s biophysical, social, and economic conditions were also important. Our results highlight the importance of considering local knowledge to understand social-ecological changes and to support the development and implementation of public policies that promote contextualized adaptation measures to global changes that affect local livelihoods. © 2023, The Author(s).</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Evaluation of family agriculture production systems through thresholds for the construction of sustainable proposals, Penipe Canton</t>
+          <t>Social enterprise, food justice, and food sovereignty: Strange bedfellows or systemic supports?</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1042,16 +1042,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Peasant family farming is one of the main suppliers and is responsible for guaranteeing food sovereignty. A particular interest is given to the functioning of the productive system, which seeks to determine, through the analysis of critical points and thresholds, to define sustainable alternatives, translating the general principles of sustainability into definitions and operational practices. The objective of this study was to valuate family farming production systems through productive thresholds with the purpose of proposing sustainable alternatives for the improvement of the agricultural system in the Penipe canton. The methodology of this study included the establishment and generation of attributes, diagnostic criteria, and critical points to make a comparison with the productive thresholds, applied to nine farms representative of the three productive typologies. In this study, the three production systems of the Penipe canton were evaluated. We proposed alternatives for each of them, such as the implementation of new agroecological management strategies, the generation of organic fertilizers, the production of bio inputs, the strengthening of interdisciplinary approaches through the adoption of technological innovations and research, the increased participation of different owners throughout the production process, and the promotion of associativity, which provides the design of new alternative production systems. In conclusion, specialized family farming poses alternatives for improvement in terms of the provision of quality seeds, technical management, greater management, and government support. Diversified family agriculture will be ontained by government management and execution, training, adoption of innovations, dependence on external resources, crop risk, yields, access to credit. In the productive aspect, deficiencies were found in root development, pending involvement, irrigation water, organic matter, soil cover, and subsistence family agriculture, followed by land tenure and occupation, social connection, government management and execution, training, adoption of innovations, dependence on external resources, crop risk, yields, access to credit, as well as productive aspect deficiencies in root development, affectation of the slope, irrigation water, drainage, organic matter, soil cover, management, and plant development. © The Author(s).</t>
+          <t>There is a debate in the literature about whether one can address food system problems with mar-ket-based approaches while seeking food justice or food sovereignty. However, as part of a team of researchers and community leaders, we have found that this debate is less relevant in practice. The concepts are interrelated within real-world food systems. As such, we were motivated to ask, how do social enterprises (SEs) interact with food jus- tice and food sovereignty movements and their visions in order to realize more democratic and equitable local food systems in communities? To answer this question, we conducted a systematic review at the intersection of SE, food sovereignty, and food justice literature. Analyzing nine articles, which included 17 food-related SEs, we found evidence of potential interactions between food SEs, food justice, and food sovereignty that are compat-ible (e.g., create employment) and incompatible (e.g., limited ability to address issues like community employability and green gentrification). The literature includes at least three important character-istics that inform how food-related SEs may interact with food justice and sovereignty, includ-ing employee and ownership demographics, the enterprise business model, and aspects of the food system targeted by the enterprise via market activi-ties. If we consider a systems perspective, we can envision the ways in which the aspects are embed-ded and interdependent in a neoliberal society. SEs, as market-based agents for social change, exist in the same system as justice and sovereignty. © 2024 by the Authors. Published by the Lyson Center for Civic Agriculture and Food Systems.</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F19" t="n">
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1068,7 +1066,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Land competition and welfare effects from Mexico's proposal to ban genetically engineered corn</t>
+          <t>Evaluation of family agriculture production systems through thresholds for the construction of sustainable proposals, Penipe Canton</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1076,7 +1074,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Since joining the North American Free Trade Agreement, Mexico has increased its meat production and exports and become more dependent on imported feedstuffs such as genetically engineered (GE) corn. Mexico recently banned the use of GE corn in corn-based foods and called for a gradual substitution away from the use of GE corn for other uses (e.g., feed). This paper considers how a complete ban on GE corn might affect Mexican households using a computable general equilibrium (CGE) model to simulate the impact over the medium run (5 years). Results indicate that Mexico decreases corn imports by 76.9% and increases corn production by 65.6%—an increase that would require 3.3 million hectares more land for corn. The policy leads to a 24.8% increase in Mexico's corn price and up to a 6% increase in the prices of other agricultural products. But Mexico might have difficulty shifting land to corn; as such, we consider an alternative scenario that restricts land movements. We find that impacts are further exacerbated in this scenario—for example, corn prices triple. Our final contribution is to pair these results with a compensating variation calculation based on the almost ideal demand system. We find that Mexican households would need to spend, on average, between 6.7 and 13.9% more on food, depending on the scenario, to compensate for the resulting price escalations. Ultimately, our results show that a move toward greater food sovereignty in Mexico is ultimately borne by consumers via higher food prices. Published 2024. This article is a U.S. Government work and is in the public domain in the USA.</t>
+          <t>Peasant family farming is one of the main suppliers and is responsible for guaranteeing food sovereignty. A particular interest is given to the functioning of the productive system, which seeks to determine, through the analysis of critical points and thresholds, to define sustainable alternatives, translating the general principles of sustainability into definitions and operational practices. The objective of this study was to valuate family farming production systems through productive thresholds with the purpose of proposing sustainable alternatives for the improvement of the agricultural system in the Penipe canton. The methodology of this study included the establishment and generation of attributes, diagnostic criteria, and critical points to make a comparison with the productive thresholds, applied to nine farms representative of the three productive typologies. In this study, the three production systems of the Penipe canton were evaluated. We proposed alternatives for each of them, such as the implementation of new agroecological management strategies, the generation of organic fertilizers, the production of bio inputs, the strengthening of interdisciplinary approaches through the adoption of technological innovations and research, the increased participation of different owners throughout the production process, and the promotion of associativity, which provides the design of new alternative production systems. In conclusion, specialized family farming poses alternatives for improvement in terms of the provision of quality seeds, technical management, greater management, and government support. Diversified family agriculture will be ontained by government management and execution, training, adoption of innovations, dependence on external resources, crop risk, yields, access to credit. In the productive aspect, deficiencies were found in root development, pending involvement, irrigation water, organic matter, soil cover, and subsistence family agriculture, followed by land tenure and occupation, social connection, government management and execution, training, adoption of innovations, dependence on external resources, crop risk, yields, access to credit, as well as productive aspect deficiencies in root development, affectation of the slope, irrigation water, drainage, organic matter, soil cover, management, and plant development. © The Author(s).</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1102,7 +1100,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>The Losing Battle Against Neoliberal Trade Agreements in Latin America: Social Resistance Against the MTA Between Ecuador, Peru, and the European Union</t>
+          <t>Land competition and welfare effects from Mexico's proposal to ban genetically engineered corn</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1110,14 +1108,16 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>This article studies the influence of the antineoliberal social movements in Peru and Ecuador in the face of the Multiparty Trade Agreement (MTA) between both countries and the European Union (EU). To identify and analyze this influence, a transdisciplinary theoretical framework was created, integrating debates and concepts from social movement theory and critical international political economy. In Peru, the movement used European allies to establish their demands on the EU’s agenda, which resulted in increased pressure on the government to enforce labor rights and environmental standards. In Ecuador, the movement was able to establish food sovereignty and the rejection of free trade in the national constitution. As a result, the negotiations with the EU were delayed and Ecuador achieved certain exceptions in its adhesion protocol. Nevertheless, both movements were unable to maintain their influence, due to political and socioeconomic dynamics on the domestic and global levels. © The Author(s), 2023.</t>
+          <t>Since joining the North American Free Trade Agreement, Mexico has increased its meat production and exports and become more dependent on imported feedstuffs such as genetically engineered (GE) corn. Mexico recently banned the use of GE corn in corn-based foods and called for a gradual substitution away from the use of GE corn for other uses (e.g., feed). This paper considers how a complete ban on GE corn might affect Mexican households using a computable general equilibrium (CGE) model to simulate the impact over the medium run (5 years). Results indicate that Mexico decreases corn imports by 76.9% and increases corn production by 65.6%—an increase that would require 3.3 million hectares more land for corn. The policy leads to a 24.8% increase in Mexico's corn price and up to a 6% increase in the prices of other agricultural products. But Mexico might have difficulty shifting land to corn; as such, we consider an alternative scenario that restricts land movements. We find that impacts are further exacerbated in this scenario—for example, corn prices triple. Our final contribution is to pair these results with a compensating variation calculation based on the almost ideal demand system. We find that Mexican households would need to spend, on average, between 6.7 and 13.9% more on food, depending on the scenario, to compensate for the resulting price escalations. Ultimately, our results show that a move toward greater food sovereignty in Mexico is ultimately borne by consumers via higher food prices. Published 2024. This article is a U.S. Government work and is in the public domain in the USA.</t>
         </is>
       </c>
       <c r="E21" t="n">
         <v>1</v>
       </c>
-      <c r="F21" t="n">
-        <v>1</v>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1276,8 +1276,10 @@
       <c r="E26" t="n">
         <v>1</v>
       </c>
-      <c r="F26" t="n">
-        <v>1</v>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1294,7 +1296,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Learning from the past to deal with the future: Using different knowledges to ensure food security in the Tsá Tué biosphere reserve (Northwest Territories, Canada)</t>
+          <t>Food security in times of war: Double discourse and violent conflicts. The case of Russia, 2014–2022</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1302,7 +1304,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>The community of Délı̨nę, located in the UNESCO Tsá Tué Biosphere Reserve, is experiencing the impacts of climate change on the lands surrounding Great Bear Lake, in Northwest Territories, Canada. These impacts are limiting the community's ability to access the land to support their food system, which depends on harvesting traditional foods. This article details a participatory action research approach, driven by the community, that used on-the-land activities, workshops, community meetings and interviews to develop a community food security action plan to deal with the uncertainties of a changing climate on the food system. Data was analyzed using the Community Capitals Framework (CCF) to describe the complex nature of the community's food system in terms of available or depleting capitals, as well as how the impacts of climate change affect these capitals, and the needs identified by the community to aid in adaptation. For Délı̨nę, the theme of self-sufficiency emerged out of concerns that climate change is negatively impacting supplies from the south and that building and maintaining both social and cultural capital are key to achieving food security in an uncertain future. Learning from the past and sharing Traditional Knowledge1was a key element of food security planning. However, other types of knowledge, such as research and monitoring of the health of the land, and building capacity of the community through training, were important aspects of adaptation planning in the community. This knowledge, in its many forms, may assist the community in determining its own direction for achieving food security, and offers a glimpse into food sovereignty in Northern regions. Copyright © 2023 Spring, Neyelle, Bezha, Simmons and Blay-Palmer.</t>
+          <t>The food security doctrine was adopted by the Russian Federation in 2010. Developed under the leadership of President Dmitry Medvedev, it established food security as a central component of national security. The concept emerged as an issue of global public debate in response to the 2006–2008 hunger crisis in the Global South. In Russia though, the initial interpretation of the concept, which emphasised the accessibility of food resources, was transformed into a slogan advocating domestic agri-food production. The article examines the Russian case from 2014 to 2022. It analyses how the narrative on food security constructs common goods such as ‘domestic territory’ or ‘food sovereignty’ and its subsequent implications for the prioritisation of certain values (e.g. production, sovereignty), social groups (e.g. producers over consumers), and roles in economic life (e.g. trade). Finally, this article will incorporate an updated analysis of official discourses on food security produced by the government following the invasion of Ukraine in 2022. © The Author(s) 2023.</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1326,7 +1328,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Resilience processes and positioning of agroecological farmers in an urban horticultural fair in northwest Patagonia</t>
+          <t>Learning from the past to deal with the future: Using different knowledges to ensure food security in the Tsá Tué biosphere reserve (Northwest Territories, Canada)</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1334,7 +1336,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Background: Horticultural fairs are spaces that promote regional agrobiodiversity, transmitting and recreating multiple knowledge and emotions between horticulturists and customers. The adaptive processes by which fairs are sustained over time in the face of socio-economic, climatic, and sanitary changes are still little known. Considering the principles of socio-environmental resilience, the aims of this research were: 1) to analyze the positionings of horticulturists that favor the process of resilience in the Free Fair of Family Farmers from Nahuel Huapi, San Carlos de Bariloche (Patagonia, Argentina) and 2) to reflect on the vulnerabilities and challenges faced by this fair for its sustainability over time. Methods: A qualitative study was carried out that included interviews, participant observation, and virtual ethnography. Results: One hundred and eighty-six ethnospecies, mostly of exotic origin (99%) are part of the agrobiodiversity of the fair. The main principles that foster the resilience of the fair are: high agrobiodiversity and functional redundancy that reflect and promote local food customs; learning and connectivity for innovation and information exchange; and cooperation and adaptive systemic thinking based on experiences, attachment to the land, and reciprocity. The affective dimension crosses each of these principles, strengthening the cultural fabric of horticulturists and customers. However, the economic and cultural viability of the fair is uncertain, mainly due to the drastic socio-environmental changes that the region is experiencing. Conclusions: To reduce the vulnerabilities of the fair, it will be necessary to strengthen the principles mentioned above and to increase the participation of the broader levels of governance (technical and governmental sectors). © 2023, Ilia State University, Institute of Botany, Department of Ethnobotany. All rights reserved.</t>
+          <t>The community of Délı̨nę, located in the UNESCO Tsá Tué Biosphere Reserve, is experiencing the impacts of climate change on the lands surrounding Great Bear Lake, in Northwest Territories, Canada. These impacts are limiting the community's ability to access the land to support their food system, which depends on harvesting traditional foods. This article details a participatory action research approach, driven by the community, that used on-the-land activities, workshops, community meetings and interviews to develop a community food security action plan to deal with the uncertainties of a changing climate on the food system. Data was analyzed using the Community Capitals Framework (CCF) to describe the complex nature of the community's food system in terms of available or depleting capitals, as well as how the impacts of climate change affect these capitals, and the needs identified by the community to aid in adaptation. For Délı̨nę, the theme of self-sufficiency emerged out of concerns that climate change is negatively impacting supplies from the south and that building and maintaining both social and cultural capital are key to achieving food security in an uncertain future. Learning from the past and sharing Traditional Knowledge1was a key element of food security planning. However, other types of knowledge, such as research and monitoring of the health of the land, and building capacity of the community through training, were important aspects of adaptation planning in the community. This knowledge, in its many forms, may assist the community in determining its own direction for achieving food security, and offers a glimpse into food sovereignty in Northern regions. Copyright © 2023 Spring, Neyelle, Bezha, Simmons and Blay-Palmer.</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1358,7 +1360,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Biodiversity of Soil Mesofauna Associated with the Design of Home Gardens in Mapuche Agroecosystems—Case Study in the Araucanía Region</t>
+          <t>Resilience processes and positioning of agroecological farmers in an urban horticultural fair in northwest Patagonia</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1366,7 +1368,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Home gardens play a transcendental role in food sovereignty, for which the management of habitats above ground and underground are complementary strategies. This study aims to compare the biodiversity of soil mesofauna groups between agroecosystems with a conventional and an agroecological design. Through the combination of quantitative (plant inventories) and qualitative (mobile interviewing and talking maps) techniques, the units of this study was described. Soil samples were mounted in a Berlesse–Tullgren system, and the abundance, richness, diversity, and equality of soil organisms were determined. The relationships between functional groups were compared taxonomically and biocenotically. The results indicated higher equality in the conventional home garden, while the communities studied present a medium taxocenotic similarity, without great biocenotic differences. The diversity and richness of taxa, as well as the abundance in each group identified, were higher in the agroecological garden, which had more medicinal and aromatic plants. © 2023 by the authors.</t>
+          <t>Background: Horticultural fairs are spaces that promote regional agrobiodiversity, transmitting and recreating multiple knowledge and emotions between horticulturists and customers. The adaptive processes by which fairs are sustained over time in the face of socio-economic, climatic, and sanitary changes are still little known. Considering the principles of socio-environmental resilience, the aims of this research were: 1) to analyze the positionings of horticulturists that favor the process of resilience in the Free Fair of Family Farmers from Nahuel Huapi, San Carlos de Bariloche (Patagonia, Argentina) and 2) to reflect on the vulnerabilities and challenges faced by this fair for its sustainability over time. Methods: A qualitative study was carried out that included interviews, participant observation, and virtual ethnography. Results: One hundred and eighty-six ethnospecies, mostly of exotic origin (99%) are part of the agrobiodiversity of the fair. The main principles that foster the resilience of the fair are: high agrobiodiversity and functional redundancy that reflect and promote local food customs; learning and connectivity for innovation and information exchange; and cooperation and adaptive systemic thinking based on experiences, attachment to the land, and reciprocity. The affective dimension crosses each of these principles, strengthening the cultural fabric of horticulturists and customers. However, the economic and cultural viability of the fair is uncertain, mainly due to the drastic socio-environmental changes that the region is experiencing. Conclusions: To reduce the vulnerabilities of the fair, it will be necessary to strengthen the principles mentioned above and to increase the participation of the broader levels of governance (technical and governmental sectors). © 2023, Ilia State University, Institute of Botany, Department of Ethnobotany. All rights reserved.</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1390,7 +1392,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Signs of agricultural sustainability: A global assessment of sustainability governance initiatives and their indicators in crop farming</t>
+          <t>Biodiversity of Soil Mesofauna Associated with the Design of Home Gardens in Mapuche Agroecosystems—Case Study in the Araucanía Region</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1398,16 +1400,14 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CONTEXT: To address sustainability challenges in agriculture, private and multi-stakeholder initiatives increasingly use sustainability indicators to monitor the sustainability impact of farms. These indicators can be part of standards for certification or assessment tools to measure farm performance. While these initiatives play an important role in navigating the sustainability transition, insight in how these governance initiatives operationalize sustainability in crop farming is lacking. OBJECTIVE: This paper examines how private and multi-stakeholder governance initiatives, which increasingly regulate the sustainability of a sizeable portion of agriculture globally, operationalize the concept of sustainability. It provides understanding into which sustainability themes are commonly included in sustainability initiatives, and those that are not, which can give insight into the direction these initiatives are steering crop production worldwide. METHODS: We developed an overview of governance initiatives using databases and existing research on sustainable agriculture initiatives. Documentation about these initiatives was gathered and used to systematically review descriptive and institutional characteristics of the 29 sustainability assessment and standard initiatives. Moreover, we analyzed the kinds of indicators (i.e., performance, practice, and target) and the themes that are prioritized in the environmental, social, and economic dimensions of sustainability. RESULTS AND CONCLUSIONS: The analysis shows that the 29 initiatives are very diverse in their characteristics. While some specifically focus on one crop or country, others operate across production chains and at a global scale. Within specific sectors or countries, certain standards are quite influential, for instance, the Better Cotton Initiative covers 22% of global cotton production, while in Ireland, 70% of horticulture farmers are Origin Green certified. Globally, 2% of the crop land is certified under one of the 14 standards that reported land use. Our analysis of sustainability themes show an imbalance across environmental, social, an economic sustainability, with environmental sustainability being prioritized. In particular, social themes such as quality of life, food sovereignty and fair trading practices were less often included (38, 24 and 21% respectively). SIGNIFICANCE: Sustainability standard and assessment initiatives govern a substantial and growing portion of global cropland. They play a central role in determining what is considered sustainable and thereby influence which farming practices are applied worldwide. The impact of these initiatives is likely to continue to grow as sustainability assessments and standards become more widely adopted. In examining a large sample of standard and assessment initiatives, this study presents a comprehensive overview of the current state of sustainability indicators for crop farming globally. © 2023</t>
+          <t>Home gardens play a transcendental role in food sovereignty, for which the management of habitats above ground and underground are complementary strategies. This study aims to compare the biodiversity of soil mesofauna groups between agroecosystems with a conventional and an agroecological design. Through the combination of quantitative (plant inventories) and qualitative (mobile interviewing and talking maps) techniques, the units of this study was described. Soil samples were mounted in a Berlesse–Tullgren system, and the abundance, richness, diversity, and equality of soil organisms were determined. The relationships between functional groups were compared taxonomically and biocenotically. The results indicated higher equality in the conventional home garden, while the communities studied present a medium taxocenotic similarity, without great biocenotic differences. The diversity and richness of taxa, as well as the abundance in each group identified, were higher in the agroecological garden, which had more medicinal and aromatic plants. © 2023 by the authors.</t>
         </is>
       </c>
       <c r="E30" t="n">
         <v>1</v>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F30" t="n">
+        <v>1</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Lake Superior Manoomin cultural and ecosystem characterization study</t>
+          <t>Signs of agricultural sustainability: A global assessment of sustainability governance initiatives and their indicators in crop farming</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Manoomin, wild rice, is integral to the culture, livelihood, and identity of the Anishinaabeg, the indigenous peoples of Canada and the United States that include the Odawa, Ojibwe, Potawatomi, and Algonquin peoples. In addition to the vital role Manoomin has in the lives of the Anishinaabeg, Manoomin is recognized as being ecologically important, feeding migrating and resident wildlife species, providing a nursery for fish and nesting and breeding habitats for many waterfowl and muskrat, and stabilizing shorelines. This study was initiated by a team of Lake Superior basin Anishinaabe communities and federal and state agencies to document and characterize (1) the importance of Manoomin habitat to Anishinaabe cultural perspectives and identity, community connections, spiritual practices, food sovereignty, and food security; and (2) the ecological importance of Manoomin habitat as an indicator of a high-quality, high-functioning, and biodiverse ecosystem. The team applied a set of cultural and ecological metrics to characterize seven case study sites around Lake Superior and used a habitat equivalency analysis to determine the amount of restoration needed to counterbalance the lost Manoomin habitat functionality. Results from this study highlight the difficulty in restoring the cultural and ecological functionality of degraded Manoomin habitat and the importance of preserving and protecting existing Manoomin habitat. © 2023 by the author(s).</t>
+          <t>CONTEXT: To address sustainability challenges in agriculture, private and multi-stakeholder initiatives increasingly use sustainability indicators to monitor the sustainability impact of farms. These indicators can be part of standards for certification or assessment tools to measure farm performance. While these initiatives play an important role in navigating the sustainability transition, insight in how these governance initiatives operationalize sustainability in crop farming is lacking. OBJECTIVE: This paper examines how private and multi-stakeholder governance initiatives, which increasingly regulate the sustainability of a sizeable portion of agriculture globally, operationalize the concept of sustainability. It provides understanding into which sustainability themes are commonly included in sustainability initiatives, and those that are not, which can give insight into the direction these initiatives are steering crop production worldwide. METHODS: We developed an overview of governance initiatives using databases and existing research on sustainable agriculture initiatives. Documentation about these initiatives was gathered and used to systematically review descriptive and institutional characteristics of the 29 sustainability assessment and standard initiatives. Moreover, we analyzed the kinds of indicators (i.e., performance, practice, and target) and the themes that are prioritized in the environmental, social, and economic dimensions of sustainability. RESULTS AND CONCLUSIONS: The analysis shows that the 29 initiatives are very diverse in their characteristics. While some specifically focus on one crop or country, others operate across production chains and at a global scale. Within specific sectors or countries, certain standards are quite influential, for instance, the Better Cotton Initiative covers 22% of global cotton production, while in Ireland, 70% of horticulture farmers are Origin Green certified. Globally, 2% of the crop land is certified under one of the 14 standards that reported land use. Our analysis of sustainability themes show an imbalance across environmental, social, an economic sustainability, with environmental sustainability being prioritized. In particular, social themes such as quality of life, food sovereignty and fair trading practices were less often included (38, 24 and 21% respectively). SIGNIFICANCE: Sustainability standard and assessment initiatives govern a substantial and growing portion of global cropland. They play a central role in determining what is considered sustainable and thereby influence which farming practices are applied worldwide. The impact of these initiatives is likely to continue to grow as sustainability assessments and standards become more widely adopted. In examining a large sample of standard and assessment initiatives, this study presents a comprehensive overview of the current state of sustainability indicators for crop farming globally. © 2023</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Unraveling On-Farm Wheat Loss in Fars Province, Iran: A Qualitative Analysis and Exploration of Potential Solutions with Emphasis on Agricultural Cooperatives</t>
+          <t>Lake Superior Manoomin cultural and ecosystem characterization study</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1466,14 +1466,16 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Given wheat’s global significance as a primary food crop, and its importance in providing essential nutrition to millions of people worldwide, reducing on-farm losses is crucial to promoting food security, sustainable agriculture, and economic stability. Wheat plays a critical role in food security in Iran, as it is a staple food consumed daily by a large proportion of the population, and is also a vital component of the country’s food self-sufficiency policy. The present study aims to identify the causes and extent of on-farm wheat loss in Fars province, a major wheat-producing area in Iran. Nine experts were interviewed, using open-ended questions, in October 2018. The study revealed that a considerable amount of wheat is lost due to seed overuse, pest infestation, and improper harvesting. The paper discusses the underlying factors associated with these over-arching causes, and highlights their adverse environmental, economic, and societal impacts. The paper also explores potential approaches to take in addressing the issue, and suggests empowering agricultural cooperatives through changes in the government’s engagement with wheat production. This study provides valuable insights for policymakers and stakeholders which are useful for developing effective strategies to reduce on-farm loss, particularly in countries where intensified farming is promoted. These strategies may include limiting the government’s central control and, instead, empowering agricultural cooperatives, as well as adopting supportive approaches, such as improving farmers’ access to proper machinery, and enhancing their sovereignty and freedom. © 2023 by the authors.</t>
+          <t>Manoomin, wild rice, is integral to the culture, livelihood, and identity of the Anishinaabeg, the indigenous peoples of Canada and the United States that include the Odawa, Ojibwe, Potawatomi, and Algonquin peoples. In addition to the vital role Manoomin has in the lives of the Anishinaabeg, Manoomin is recognized as being ecologically important, feeding migrating and resident wildlife species, providing a nursery for fish and nesting and breeding habitats for many waterfowl and muskrat, and stabilizing shorelines. This study was initiated by a team of Lake Superior basin Anishinaabe communities and federal and state agencies to document and characterize (1) the importance of Manoomin habitat to Anishinaabe cultural perspectives and identity, community connections, spiritual practices, food sovereignty, and food security; and (2) the ecological importance of Manoomin habitat as an indicator of a high-quality, high-functioning, and biodiverse ecosystem. The team applied a set of cultural and ecological metrics to characterize seven case study sites around Lake Superior and used a habitat equivalency analysis to determine the amount of restoration needed to counterbalance the lost Manoomin habitat functionality. Results from this study highlight the difficulty in restoring the cultural and ecological functionality of degraded Manoomin habitat and the importance of preserving and protecting existing Manoomin habitat. © 2023 by the author(s).</t>
         </is>
       </c>
       <c r="E32" t="n">
         <v>1</v>
       </c>
-      <c r="F32" t="n">
-        <v>1</v>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1490,7 +1492,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>The Choctaw Nation’s Growing Hope Program</t>
+          <t>Unraveling On-Farm Wheat Loss in Fars Province, Iran: A Qualitative Analysis and Exploration of Potential Solutions with Emphasis on Agricultural Cooperatives</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1498,16 +1500,14 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>The Choctaw Nation of Oklahoma’s Historic Preservation Department (HPD) and the Center for Indigenous Health Equity (CIIHE) are partnering to implement and evaluate food sovereignty interventions to better understand the potential impact of such programs on individual and community health. The HPD’s Growing Hope Program is a food sovereignty initiative that aims to restore traditional Choctaw gardens, which were once a physical, social, and cultural center of Choctaw life. The program combines heirloom seeds and the stories of their origins, gardening education and technical assistance, cooking classes, and a Choctaw youth internship program to support intergenerational knowledge and the restoration of culture and food security. Since its inception the program has provided Choctaw families with ancestral Choctaw cultivar seeds and provided the technical assistance to support the growing of sustainable, healthy, traditional Choctaw foods. © 2023 Society for Public Health Education.</t>
+          <t>Given wheat’s global significance as a primary food crop, and its importance in providing essential nutrition to millions of people worldwide, reducing on-farm losses is crucial to promoting food security, sustainable agriculture, and economic stability. Wheat plays a critical role in food security in Iran, as it is a staple food consumed daily by a large proportion of the population, and is also a vital component of the country’s food self-sufficiency policy. The present study aims to identify the causes and extent of on-farm wheat loss in Fars province, a major wheat-producing area in Iran. Nine experts were interviewed, using open-ended questions, in October 2018. The study revealed that a considerable amount of wheat is lost due to seed overuse, pest infestation, and improper harvesting. The paper discusses the underlying factors associated with these over-arching causes, and highlights their adverse environmental, economic, and societal impacts. The paper also explores potential approaches to take in addressing the issue, and suggests empowering agricultural cooperatives through changes in the government’s engagement with wheat production. This study provides valuable insights for policymakers and stakeholders which are useful for developing effective strategies to reduce on-farm loss, particularly in countries where intensified farming is promoted. These strategies may include limiting the government’s central control and, instead, empowering agricultural cooperatives, as well as adopting supportive approaches, such as improving farmers’ access to proper machinery, and enhancing their sovereignty and freedom. © 2023 by the authors.</t>
         </is>
       </c>
       <c r="E33" t="n">
         <v>1</v>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F33" t="n">
+        <v>1</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>The role of land as the central piece to sustainable food systems: Lessons learned from Portugal national food-related policies</t>
+          <t>The Choctaw Nation’s Growing Hope Program</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1532,14 +1532,16 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>This paper discusses to what extent land is considered in food-related policies from a systemic perspective. Based on existing literature and international agendas priorities, we argue that access to and preservation of land for food along the food chain play a major role in sustainable food systems. To further explore this argument, we address the following question: Where does land stand in sectorial and national food-related policies? The multiple dimensions and implications of food systems and the international agenda's priorities namely the “Right to adequate Food”, “Food Sovereignty” and the “Right to Land”, were used as our conceptual framework. To work out how land is being considered in food sectorial policies, both quantitative and qualitative methods were applied to examine ten Portuguese national food-related policies. Results are showing a lack of consideration for land access and land preservation, needed all along the food chain to build a national sustainable food system. On the other hand, there is a gap between current grassroots priorities international agendas and food-related national policies. Such a situation strongly suggests that building a sustainable food system needs a clear food territorial perspective, still neglected, and shifting from sectorial policies towards a more integrated food system approach, that will include land as a central piece. © 2023</t>
+          <t>The Choctaw Nation of Oklahoma’s Historic Preservation Department (HPD) and the Center for Indigenous Health Equity (CIIHE) are partnering to implement and evaluate food sovereignty interventions to better understand the potential impact of such programs on individual and community health. The HPD’s Growing Hope Program is a food sovereignty initiative that aims to restore traditional Choctaw gardens, which were once a physical, social, and cultural center of Choctaw life. The program combines heirloom seeds and the stories of their origins, gardening education and technical assistance, cooking classes, and a Choctaw youth internship program to support intergenerational knowledge and the restoration of culture and food security. Since its inception the program has provided Choctaw families with ancestral Choctaw cultivar seeds and provided the technical assistance to support the growing of sustainable, healthy, traditional Choctaw foods. © 2023 Society for Public Health Education.</t>
         </is>
       </c>
       <c r="E34" t="n">
         <v>1</v>
       </c>
-      <c r="F34" t="n">
-        <v>1</v>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1656,7 +1658,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CLIMATE CHANGE AND FOOD SECURITY: FROM THE ONE HEALTH APPROACH TO THE HOLISTIC MODELS OF THE GLOBAL SOUTH; [Cambiamento climatico e sicurezza alimentare: dall’approccio One Health ai modelli olistici del Global South]</t>
+          <t>Food-Centric Perceptions of Nature in Hong Kong: Urban Anthropology in Conversation with Tim Ingold; [香港以糧為本「自然」識覺： 與Tim Ingold對話都市人類學]</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1664,14 +1666,16 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>The article analyzes the impact of climate change on food security and the right to food, exploring different regulatory models deemed to address the challenges produced by climate change in food systems, within the framework of recommendations from international institutions. The essay identifies certain integrated regulatory approaches applicable to agrifood regulation on which a widespread consensus in the scientific community and among international institutions may be appreciated. Among these are the One Health approach, the ecosystem approach, the models inspired by agroecology, and the so-called human rights-based approach (HRB). The paper discusses their effectiveness in promoting food security and climate resilience, attempting to verify the presence of regulatory provisions inspired by such approaches in existing food legislation. In such respect, the article examines the recent European “From farm to fork” strategy and certain approaches in the context of the Global South. © 2023, BioLaw Journal. All Rights Reserved.</t>
+          <t>Nature has multiple meanings in different languages. In the context of this research, even among people who share relatively similar linguistic, ethnic, and historical backgrounds, there are discrepancies regarding the interpretation of this concept. Despite diverse arguments about humannature relations and the improbability of finding a universally accepted definition, this term underlies one of today’s most mentioned topics, sustainable development. People’s understanding of nature significantly influences their opinions, decisions, and actions. Therefore, this paper aims to re-examine the implications and connotations of nature in daily conversations, specifically in the context of food and agricultural activism. This paper sits within the nexus of several seemingly divergent but related theoretical frameworks, including environmental anthropology, urban anthropology, space, place, landscape, agriculture, food politics, food culture, etc. Since ecosystems and landscapes are relocated from the backdrop of an ethnography to the foreground, the rural versus urban dualistic framework is also subject to challenge. One recent development aptly aligns with this paradigm. Farming activities have entered daily life in cities and have become a globally recognised sustainable development element. In Hong Kong, the concepts of edible landscape and horticultural healing are increasingly known to people and becoming popular. Applying Tim Ingold’s phenomenological analysis to my field data, this paper explores how an urban setting shapes Hong Kong residents’ experiences of nature and how such perceptions result in changes in individual behaviours and reflections on agri-food systems and the planning of urban space. In particular, this research speaks to Ingold’s critique of sustainability. He indicates that this terminology is pervaded with nostalgia for pure and romanticised nature. In this sense, nature has a primordial configuration free of human intervention; to achieve sustainable development is to restore the planet to its original state. At first glance, the agricultural activism in Hong Kong and its ‘agriculturalism’, as this paper conceptualises it, seem to fall into Ingold’s depiction. However, this study finds that this ‘agriculturalism’ is not really about holding onto a primitive nature and opposing modern and urban ways of life. Instead, farming practitioners seek to establish a new form of living within a city rather than escaping it. They seek to carve out living space in an expensive city for the non-elite and the grass-roots. They initiated an experiment characterised by sustaining everyday necessities with one’s own hands, growing food, cooking, and making or recycling furniture. They attempt to reconsider their relationship with the more-than-human world by creating a setting where they can stay close to the land. In this way, they believe they can gain knowledge, skill, and sensory and bodily experiences so as not to depend on the consumption system, which, they believe, detaches consumers from producers and raw materials. In the process, the relationship between humans and nature is further reshaped to adjust to local circumstances. According to Hong Kong farming practitioners, this form of life benefits human beings’ physical and mental health and the continuation of the ecological cycle. Despite their having no geographical boundary or community membership, their farms or living spaces become a heterotopia. People in this area talk a lot about environmental ethics, which shows generational differences. However, at the global scale, these ethics resonate with the globally circulating agenda of sustainable development. In present-day Hong Kong, where the post-1997 sovereignty and subjectivity struggles constantly monopolise stories about the place, the localisation of the food system may easily be simplified as making a distinction between ‘us’ and ‘others’ and as a resistance to dependence on imports. However, this paper argues that, while the cross-border relationship is one of the concerns, the intimacy and entanglement of human society and our living environment—a state of ‘non-duality of body and earth’—is the fundamental idea. This case of Hong Kong agriculturalism demonstrates an alternative representation of sustainability different from Ingold’s critique. This vision for future urban life is not based on regarding nature as a moral and aesthetic rhetoric but on making it a pragmatic strategy for survival and putting it into practice. © 2023, Taiwan Journal of Anthropology. All Rights Reserved.</t>
         </is>
       </c>
       <c r="E38" t="n">
         <v>1</v>
       </c>
-      <c r="F38" t="n">
-        <v>1</v>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1688,7 +1692,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Food-Centric Perceptions of Nature in Hong Kong: Urban Anthropology in Conversation with Tim Ingold; [香港以糧為本「自然」識覺： 與Tim Ingold對話都市人類學]</t>
+          <t>Localization of the corporate food regime and the food sovereignty movement: taiwan’s food sovereignty movement under “third regionalism”</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1696,16 +1700,14 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Nature has multiple meanings in different languages. In the context of this research, even among people who share relatively similar linguistic, ethnic, and historical backgrounds, there are discrepancies regarding the interpretation of this concept. Despite diverse arguments about humannature relations and the improbability of finding a universally accepted definition, this term underlies one of today’s most mentioned topics, sustainable development. People’s understanding of nature significantly influences their opinions, decisions, and actions. Therefore, this paper aims to re-examine the implications and connotations of nature in daily conversations, specifically in the context of food and agricultural activism. This paper sits within the nexus of several seemingly divergent but related theoretical frameworks, including environmental anthropology, urban anthropology, space, place, landscape, agriculture, food politics, food culture, etc. Since ecosystems and landscapes are relocated from the backdrop of an ethnography to the foreground, the rural versus urban dualistic framework is also subject to challenge. One recent development aptly aligns with this paradigm. Farming activities have entered daily life in cities and have become a globally recognised sustainable development element. In Hong Kong, the concepts of edible landscape and horticultural healing are increasingly known to people and becoming popular. Applying Tim Ingold’s phenomenological analysis to my field data, this paper explores how an urban setting shapes Hong Kong residents’ experiences of nature and how such perceptions result in changes in individual behaviours and reflections on agri-food systems and the planning of urban space. In particular, this research speaks to Ingold’s critique of sustainability. He indicates that this terminology is pervaded with nostalgia for pure and romanticised nature. In this sense, nature has a primordial configuration free of human intervention; to achieve sustainable development is to restore the planet to its original state. At first glance, the agricultural activism in Hong Kong and its ‘agriculturalism’, as this paper conceptualises it, seem to fall into Ingold’s depiction. However, this study finds that this ‘agriculturalism’ is not really about holding onto a primitive nature and opposing modern and urban ways of life. Instead, farming practitioners seek to establish a new form of living within a city rather than escaping it. They seek to carve out living space in an expensive city for the non-elite and the grass-roots. They initiated an experiment characterised by sustaining everyday necessities with one’s own hands, growing food, cooking, and making or recycling furniture. They attempt to reconsider their relationship with the more-than-human world by creating a setting where they can stay close to the land. In this way, they believe they can gain knowledge, skill, and sensory and bodily experiences so as not to depend on the consumption system, which, they believe, detaches consumers from producers and raw materials. In the process, the relationship between humans and nature is further reshaped to adjust to local circumstances. According to Hong Kong farming practitioners, this form of life benefits human beings’ physical and mental health and the continuation of the ecological cycle. Despite their having no geographical boundary or community membership, their farms or living spaces become a heterotopia. People in this area talk a lot about environmental ethics, which shows generational differences. However, at the global scale, these ethics resonate with the globally circulating agenda of sustainable development. In present-day Hong Kong, where the post-1997 sovereignty and subjectivity struggles constantly monopolise stories about the place, the localisation of the food system may easily be simplified as making a distinction between ‘us’ and ‘others’ and as a resistance to dependence on imports. However, this paper argues that, while the cross-border relationship is one of the concerns, the intimacy and entanglement of human society and our living environment—a state of ‘non-duality of body and earth’—is the fundamental idea. This case of Hong Kong agriculturalism demonstrates an alternative representation of sustainability different from Ingold’s critique. This vision for future urban life is not based on regarding nature as a moral and aesthetic rhetoric but on making it a pragmatic strategy for survival and putting it into practice. © 2023, Taiwan Journal of Anthropology. All Rights Reserved.</t>
+          <t>Third regionalism explains the liberalization of trade centered around the Asia-Pacific region in the 21st century. Under regionalism, domestic agricultural markets that formerly enjoyed national food-security policies have loosened. This caused traditional domestic farmers’ organizations to become more regionally interconnected, forming a food sovereignty movement under the auspices of La Via Campesina. Localized food-production chains are promoted to mitigate the impact of regionalism on the Asia-Pacific agricultural sector. The Taiwan Rural Front (TRF) joined La Via Campesina and the food sovereignty movement in the 2010s. During the process of adopting regionalism, Taiwanese agricultural trade and technologies were protected by public agencies and state-owned enterprises. This context differs from that of Southeast Asia, where the food sovereignty movement has thrived. Therefore, the following question is raised: Why was it possible for the food sovereignty movement to originate in Taiwan? This paper describes the developmental characteristics of Taiwan’s food-security governance mechanism as a state-guided corporate food regime amid third regionalism. Further, the TRF does not advocate for localized food-production chains. Due to the formation of a state-guided corporate food regime, the food sovereignty movement has become connected with farmland protection movements that set the Taiwanese sovereignty movement apart. © 2022 Association for the Study of Food and Society.</t>
         </is>
       </c>
       <c r="E39" t="n">
         <v>1</v>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F39" t="n">
+        <v>1</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1722,7 +1724,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Localization of the corporate food regime and the food sovereignty movement: taiwan’s food sovereignty movement under “third regionalism”</t>
+          <t>“First we eat and then we sell”: participatory guarantee systems for alternative sustainability certification of Bolivian agri-food products</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1730,14 +1732,16 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Third regionalism explains the liberalization of trade centered around the Asia-Pacific region in the 21st century. Under regionalism, domestic agricultural markets that formerly enjoyed national food-security policies have loosened. This caused traditional domestic farmers’ organizations to become more regionally interconnected, forming a food sovereignty movement under the auspices of La Via Campesina. Localized food-production chains are promoted to mitigate the impact of regionalism on the Asia-Pacific agricultural sector. The Taiwan Rural Front (TRF) joined La Via Campesina and the food sovereignty movement in the 2010s. During the process of adopting regionalism, Taiwanese agricultural trade and technologies were protected by public agencies and state-owned enterprises. This context differs from that of Southeast Asia, where the food sovereignty movement has thrived. Therefore, the following question is raised: Why was it possible for the food sovereignty movement to originate in Taiwan? This paper describes the developmental characteristics of Taiwan’s food-security governance mechanism as a state-guided corporate food regime amid third regionalism. Further, the TRF does not advocate for localized food-production chains. Due to the formation of a state-guided corporate food regime, the food sovereignty movement has become connected with farmland protection movements that set the Taiwanese sovereignty movement apart. © 2022 Association for the Study of Food and Society.</t>
+          <t>Expectations and interest are high in participatory guarantee systems (PGS) as a context-specific alternative to third-party sustainability certification. Self-defined criteria, transparency, trust, and accessibility have made PGS an attractive alternative to exogenous certification in local markets in over 70 countries. There is also increasing interest in the possibilities for participatory certification in international trade for family farm-based products such as cocoa or coffee. Bolivia’s PGS was established in 2012. By 2017, the country ranked second (after India) in number of PGS farmers. Since 2019, however, its numbers are declining. Visiting six PGS initiatives, we interviewed 38 persons from production, processing, distribution, support networks, and policymaking on the current situation of PGS in Bolivia; its challenges; its prospects in local, national, and international trade; and the role of Bolivia’s governmental PGS support. While PGS certification in Bolivia faces challenges–including high fees, weak consumer demand, and insufficient links to broader value chains–it displays strong potential to make locally managed sustainability certification more accessible. We recommend that decision-makers ensure accessibility and help promote PGS with consumers. Importing countries could support PGS, in particular by incentivizing access of PGS-certified products to their national markets by recognizing them as organic via peer-to-peer certification. © 2022 The Author(s). Published with license by Taylor &amp; Francis Group, LLC.</t>
         </is>
       </c>
       <c r="E40" t="n">
         <v>1</v>
       </c>
-      <c r="F40" t="n">
-        <v>1</v>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1754,7 +1758,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>‘Our struggle is for humanity’: a conversation with Morgan Ody, general coordinator of La Via Campesina International, on land, politics, peasant life and a vision for hope in our changing world</t>
+          <t>The making of peasant subalternity in Portugal: histories of marginalisation and resistance to agrarian modernisation</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1762,7 +1766,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>A new generation of activists and peasant leaders have taken up the banner of food sovereignty amid an even more challenging and violent situation for rural people around the world. In this interview Morgan Ody, the new General Coordinator of La Via Campesina International, discusses her vision for rural movements. Originally from a small dairy farm, Ody is a second-generation militant in Confédéracion Paysanne. Ody speaks about land reform, climate politics, the perils and potential of state policies, rising populism, and the power of the peasantry: in short, about where the movement has been and where we are headed. © 2023 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>This paper examines how marginalised, small-scale family farmers have been facing the difficulties of agrarian modernisation in Portugal. Central to the history of contemporary peasants in this country is their continuous subordination to the power of agrarian capital and landed elites. But subaltern peasants have mobilised, particularly through CNA, a Vía Campesina member organisation, to build an oppositional project, not without tensions. The article argues that a Gramscian notion of subalternity offers a powerful lens to analyse the links between agrarian change, conflict and resistance for its focus on uneven power relations and by emphasising the centrality of social struggle. © 2021 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1786,7 +1790,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>“First we eat and then we sell”: participatory guarantee systems for alternative sustainability certification of Bolivian agri-food products</t>
+          <t>Between eating enough and the desire to eat: the state of the art on sovereignty and food and nutritional security in Brazil; [Entre comer à vontade e a vontade de comer: o estado da arte sobre soberania e segurança alimentar e nutricional no Brasil]</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1794,16 +1798,14 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Expectations and interest are high in participatory guarantee systems (PGS) as a context-specific alternative to third-party sustainability certification. Self-defined criteria, transparency, trust, and accessibility have made PGS an attractive alternative to exogenous certification in local markets in over 70 countries. There is also increasing interest in the possibilities for participatory certification in international trade for family farm-based products such as cocoa or coffee. Bolivia’s PGS was established in 2012. By 2017, the country ranked second (after India) in number of PGS farmers. Since 2019, however, its numbers are declining. Visiting six PGS initiatives, we interviewed 38 persons from production, processing, distribution, support networks, and policymaking on the current situation of PGS in Bolivia; its challenges; its prospects in local, national, and international trade; and the role of Bolivia’s governmental PGS support. While PGS certification in Bolivia faces challenges–including high fees, weak consumer demand, and insufficient links to broader value chains–it displays strong potential to make locally managed sustainability certification more accessible. We recommend that decision-makers ensure accessibility and help promote PGS with consumers. Importing countries could support PGS, in particular by incentivizing access of PGS-certified products to their national markets by recognizing them as organic via peer-to-peer certification. © 2022 The Author(s). Published with license by Taylor &amp; Francis Group, LLC.</t>
+          <t>The article aims to identify the main debates on Food and Nutritional Sovereignty and Security considering a broad approach and legal publications in order to comprehend the theme in a multidisciplinary way and to locate possible research gaps. It proceeds a bibliographical and systematical review (state of the art) that was carried out in the 5-year time frame (2016-2020), and restricted to journals available at SciElo and theses and dissertations from Master's and Doctoral programs at Capes. With qualitative data analysis approach and the deductive method, a critical analysis of the data was done. The results were divided into three categories: environment; human rights and political-economical. It concludes that the use of pesticides, the counter-hegemonic discourse and the analysis of public policies, especially those directed to family farmers, are approaches with the highest incidence. The scarcity of research on food systems and seeds stood out, mainly regarding the regulatory framework, and water security, closely associated with food production can be mentioned as research gaps. © 2023 Universidade Federal do Parana. All rights reserved.</t>
         </is>
       </c>
       <c r="E42" t="n">
         <v>1</v>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F42" t="n">
+        <v>1</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1820,7 +1822,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>The making of peasant subalternity in Portugal: histories of marginalisation and resistance to agrarian modernisation</t>
+          <t>The transformative potential of Seed Commons: Applying the social-ecological transformation framework to agri-food systems</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1828,14 +1830,16 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>This paper examines how marginalised, small-scale family farmers have been facing the difficulties of agrarian modernisation in Portugal. Central to the history of contemporary peasants in this country is their continuous subordination to the power of agrarian capital and landed elites. But subaltern peasants have mobilised, particularly through CNA, a Vía Campesina member organisation, to build an oppositional project, not without tensions. The article argues that a Gramscian notion of subalternity offers a powerful lens to analyse the links between agrarian change, conflict and resistance for its focus on uneven power relations and by emphasising the centrality of social struggle. © 2021 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>In this paper, we argue that small initiatives can contribute to larger transformations if they challenge and unmake incumbent unsustainable paradigms, and we demonstrate how the application of the social-ecological transformation framework helps to operationalize the analysis of paradigm shifts across different levels of transformation. Empirically, we assess the contribution of Seed Commons initiatives to agri-food systems transformations, taking the case of the organic breeding association Kultursaat e.V. At the macro level, the analysis reveals that the paradigms of ‘materialistic culture and growth’, ‘control and autonomy of humans over nature’ and ‘expert knowledge and specialization’ are deeply embedded in the dominant agri-food system. Kultursaat challenges them by promoting alternative narratives such as agroecology, food sovereignty, farmers' rights and resilience. At the micro and meso level, we apply a set of evaluation principles that reveal the transformative character and partial transformative impact of Seed Commons. Applying the framework to agri-food systems can bring an enhanced theoretical understanding of dynamics of change into the agri-food transformation discourse, link small-scale initiatives to wider processes of transformation, and provide a systematic research approach to enhance comparability across case studies. The framework is well suited to bring together even evolving transformation literatures. © 2022 The Authors</t>
         </is>
       </c>
       <c r="E43" t="n">
         <v>1</v>
       </c>
-      <c r="F43" t="n">
-        <v>1</v>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1852,7 +1856,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Between eating enough and the desire to eat: the state of the art on sovereignty and food and nutritional security in Brazil; [Entre comer à vontade e a vontade de comer: o estado da arte sobre soberania e segurança alimentar e nutricional no Brasil]</t>
+          <t>The contribution of green public food procurement to sustainability: evidence from two case studies in Spain</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1860,14 +1864,16 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>The article aims to identify the main debates on Food and Nutritional Sovereignty and Security considering a broad approach and legal publications in order to comprehend the theme in a multidisciplinary way and to locate possible research gaps. It proceeds a bibliographical and systematical review (state of the art) that was carried out in the 5-year time frame (2016-2020), and restricted to journals available at SciElo and theses and dissertations from Master's and Doctoral programs at Capes. With qualitative data analysis approach and the deductive method, a critical analysis of the data was done. The results were divided into three categories: environment; human rights and political-economical. It concludes that the use of pesticides, the counter-hegemonic discourse and the analysis of public policies, especially those directed to family farmers, are approaches with the highest incidence. The scarcity of research on food systems and seeds stood out, mainly regarding the regulatory framework, and water security, closely associated with food production can be mentioned as research gaps. © 2023 Universidade Federal do Parana. All rights reserved.</t>
+          <t>Green Public Food Procurement (GPFP) has revealed itself to be an ally for achieving ecological transition objectives, however there is little work attempting to assess its contribution. This work proposes a set of sustainability and health indicators that comprise a tool able to evaluate the performance of GPFP. A Delphi analysis and a participatory process is used to determine Key Performance Indicators that have been tested through two case studies in Spain. The results obtained show that the presence of short marketing circuits and food sovereignty and institutions rooted in the territory contribute to improved economic sustainability and good performance in terms of health. However, for environmental issues the performance is somewhat lacking, as instruments such as renewable energies and the circular economy are not implemented on a local scale. Elements linked to territorial cohesion and social capital are key for the principles of social and labor justice, as well as governance, to prevail. The Mediterranean diet integral to the case studies presented results in adequate health indicators. These types of indicators would be a useful tool for introducing sustainable food certification as a driving force for changing the food model. © 2023 The Author(s). Published with license by Taylor &amp; Francis Group, LLC.</t>
         </is>
       </c>
       <c r="E44" t="n">
         <v>1</v>
       </c>
-      <c r="F44" t="n">
-        <v>1</v>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -1884,7 +1890,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>The transformative potential of Seed Commons: Applying the social-ecological transformation framework to agri-food systems</t>
+          <t>The United Nations Declaration on the rights of peasants and other people working in rural areas: possibilities for the formation of a rural Latin-American historic bloc</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1892,7 +1898,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>In this paper, we argue that small initiatives can contribute to larger transformations if they challenge and unmake incumbent unsustainable paradigms, and we demonstrate how the application of the social-ecological transformation framework helps to operationalize the analysis of paradigm shifts across different levels of transformation. Empirically, we assess the contribution of Seed Commons initiatives to agri-food systems transformations, taking the case of the organic breeding association Kultursaat e.V. At the macro level, the analysis reveals that the paradigms of ‘materialistic culture and growth’, ‘control and autonomy of humans over nature’ and ‘expert knowledge and specialization’ are deeply embedded in the dominant agri-food system. Kultursaat challenges them by promoting alternative narratives such as agroecology, food sovereignty, farmers' rights and resilience. At the micro and meso level, we apply a set of evaluation principles that reveal the transformative character and partial transformative impact of Seed Commons. Applying the framework to agri-food systems can bring an enhanced theoretical understanding of dynamics of change into the agri-food transformation discourse, link small-scale initiatives to wider processes of transformation, and provide a systematic research approach to enhance comparability across case studies. The framework is well suited to bring together even evolving transformation literatures. © 2022 The Authors</t>
+          <t>Worsening conditions due to the COVID-19 crisis hit rural and agricultural communities in Latin America hard. Paradoxically, this happened when the specific rights of those communities were recognised in a newly adopted international instrument, the UN Declaration on the Rights of Peasants or UNDROP. UNDROP departs from most universal human rights instruments negotiated in the UN by speaking for a group defined by social class and not gender, age, ethnicity, or other categories. In this sense, UNDROP appears to be inspired by a return to class, like instruments negotiated within different international organisations, more precisely the International Labor Organization. The reconsideration of class as a social category is not an endpoint for transnational peasant and agricultural workers’ legal activism; it may create broader spaces for legal mobilisation. Such legal mobilisation may come in the form of class solidarity on issues such as gender in rural spaces, access to seeds and land, or the broader concept of food sovereignty. Nevertheless, historic bloc formation is contentious, and these same issues may be contingent, as exemplified in the Lhaka Honhat Association Case. © 2023 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1918,7 +1924,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>The contribution of green public food procurement to sustainability: evidence from two case studies in Spain</t>
+          <t>Breeding sovereignty: the production of race, nature, and capital in Venezuela</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1926,7 +1932,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Green Public Food Procurement (GPFP) has revealed itself to be an ally for achieving ecological transition objectives, however there is little work attempting to assess its contribution. This work proposes a set of sustainability and health indicators that comprise a tool able to evaluate the performance of GPFP. A Delphi analysis and a participatory process is used to determine Key Performance Indicators that have been tested through two case studies in Spain. The results obtained show that the presence of short marketing circuits and food sovereignty and institutions rooted in the territory contribute to improved economic sustainability and good performance in terms of health. However, for environmental issues the performance is somewhat lacking, as instruments such as renewable energies and the circular economy are not implemented on a local scale. Elements linked to territorial cohesion and social capital are key for the principles of social and labor justice, as well as governance, to prevail. The Mediterranean diet integral to the case studies presented results in adequate health indicators. These types of indicators would be a useful tool for introducing sustainable food certification as a driving force for changing the food model. © 2023 The Author(s). Published with license by Taylor &amp; Francis Group, LLC.</t>
+          <t>This article explores the efforts of the Venezuelan government to improve food security and rural livelihoods with an experimental cattle-breeding project. It investigates the activities of a state enterprise in the western plains and how the selective-breeding practices of veterinary experts intersect with the logic of capital and biopolitics. Contributing to debates on the interaction between society and environment, the analysis suggests that ‘endogenous development’, or the reduction of poverty through internal markets, draws on systems of knowledge that treat the biology of animals as a field of intervention for the resolution of social contradictions. To reduce reliance on petroleum rent and food imports, Venezuelan experts have sought to create a new breed of cattle suited to the nation's diverse ecologies. But the knowledge systems which guide this project are embedded with a host of cultural and economic assumptions that subvert the successful application of this biotechnology. Ultimately, this article seeks to increase knowledge of the techno-politics of resource states at the start of the twenty-first century and the ways in which cultures of expertise impact food sovereignty. © Royal Anthropological Institute 2023.</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1952,7 +1958,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>The United Nations Declaration on the rights of peasants and other people working in rural areas: possibilities for the formation of a rural Latin-American historic bloc</t>
+          <t>Reimagining the Food System: Kropotkin, Food Sovereignty and OrganicLea</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1960,16 +1966,14 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Worsening conditions due to the COVID-19 crisis hit rural and agricultural communities in Latin America hard. Paradoxically, this happened when the specific rights of those communities were recognised in a newly adopted international instrument, the UN Declaration on the Rights of Peasants or UNDROP. UNDROP departs from most universal human rights instruments negotiated in the UN by speaking for a group defined by social class and not gender, age, ethnicity, or other categories. In this sense, UNDROP appears to be inspired by a return to class, like instruments negotiated within different international organisations, more precisely the International Labor Organization. The reconsideration of class as a social category is not an endpoint for transnational peasant and agricultural workers’ legal activism; it may create broader spaces for legal mobilisation. Such legal mobilisation may come in the form of class solidarity on issues such as gender in rural spaces, access to seeds and land, or the broader concept of food sovereignty. Nevertheless, historic bloc formation is contentious, and these same issues may be contingent, as exemplified in the Lhaka Honhat Association Case. © 2023 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>This paper explores the similarities between Kropotkin’s vision of a just food system and the food sovereignty movement, with the concrete example of the work of OrganicLea. It will begin with an analysis of the deepening problems of our food system through food insecurity and its negative impact upon the environment. The second part will introduce the idea of food sovereignty and show how it intersects with Kropotkin’s work, with it being argued that a just food system is one that recognises central aspects of both; alongside local and collective ownership, the well-being of all, regenerative agriculture and a commitment to wider social and environmental justice. I will then show how such principles are being put into practice through the work and direct action of OrganicLea. This will reveal how Kropotkin’s thought is still relevant today and how it can be used to address contemporary concerns such as food insecurity and climate change. The paper will also consider the limitations of Kropotkin, including his time-restricted ideas, and the need for new perspectives such as those found in OrganicLea and the food sovereignty movement. © 2023, Lawrence and Wishart. All rights reserved.</t>
         </is>
       </c>
       <c r="E47" t="n">
         <v>1</v>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F47" t="n">
+        <v>1</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -1986,7 +1990,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Community Perspectives on Inuit Country Food Insecurity in Gjoa Haven, Nunavut</t>
+          <t>Agro-extractivism</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1994,14 +1998,16 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>This paper explores how policies and programs can better support country food security and food sovereignty in Gjoa Haven, Nunavut. Through a series of six focus groups with a total of 74 participants, we explore the challenges that Elders, youth, hunters, food preparers, and program providers face in the access, availability, quality, and use of country food. Despite the diverse representation among focus groups, participants revealed similar challenges across demographics and highlighted how tailored policies and programs can provide complementary solutions that serve more than one purpose. We argue that policies and programs targeting financial and economic challenges; resources and infrastructure; and skills and knowledge will improve country food security and will promote food sovereignty. Ultimately, policies and programs must be community informed and tailored to their current context and community dynamics. However, the recommendations we provide could be adapted to other Arctic communities experiencing similar challenges. © The Arctic Institute of North America.</t>
+          <t>The term agro-extractivism has become synonymous with large-scale, corporate-controlled, monoculture plantation agriculture. The aim of this concept note is to clarify the extractivist dynamics in the current context of the capitalist development process. The paper surveys the development of agro-extractivism as a conceptual framework and as a feature of the contemporary political economy of agrarian change in Latin America. It briefly reflects on the potential contributions of land-based struggles to post-extractivist alternatives based on food sovereignty politics. The paper concludes by assessing the broader implications of agro-extractivism for our understanding of the agrarian question in the twenty-first century. © 2023 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E48" t="n">
         <v>1</v>
       </c>
-      <c r="F48" t="n">
-        <v>1</v>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2018,7 +2024,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Breeding sovereignty: the production of race, nature, and capital in Venezuela</t>
+          <t>Flavour, culture and food security: The spicy entanglements of chile pepper conservation in 21st century Mexico</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2026,7 +2032,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>This article explores the efforts of the Venezuelan government to improve food security and rural livelihoods with an experimental cattle-breeding project. It investigates the activities of a state enterprise in the western plains and how the selective-breeding practices of veterinary experts intersect with the logic of capital and biopolitics. Contributing to debates on the interaction between society and environment, the analysis suggests that ‘endogenous development’, or the reduction of poverty through internal markets, draws on systems of knowledge that treat the biology of animals as a field of intervention for the resolution of social contradictions. To reduce reliance on petroleum rent and food imports, Venezuelan experts have sought to create a new breed of cattle suited to the nation's diverse ecologies. But the knowledge systems which guide this project are embedded with a host of cultural and economic assumptions that subvert the successful application of this biotechnology. Ultimately, this article seeks to increase knowledge of the techno-politics of resource states at the start of the twenty-first century and the ways in which cultures of expertise impact food sovereignty. © Royal Anthropological Institute 2023.</t>
+          <t>Political interests and power structures shape state-led crop conservation and food policy. As a crop that relates to culture and belonging, the chile crop is ideal for exploring how food security policy and crop conservation schemes integrate aspects beyond staple crops, calories and/or electoral incentives. What do these schemes mean for the food and ingredients we love? Reflecting from this perspective can be useful to grasp, re-frame and create more effective and inclusive food policies—ones that embody and valorise flavour, identities and territories beyond statements on paper. Summary: In line with the Food and Agriculture Organisation's (FAO) international action plan for crop genetic resources, the Mexican state inaugurated the National System of Genetic Resources for Food and Agriculture (SINAREFI) in 2002. In this paper, I explore SINAREFI's interest in landraces and in situ conservation through the case of chile pepper, set under the Ministry of Agriculture's interests of promoting industrial agriculture and paternalistic food security welfare programmes. Through the analyses of existing literature on food security in Mexico state programmes, archival work and interviews, this article analyses how discourses on food security shape research trajectories, some of which are inevitably constrained by current market-based agricultural systems. By exploring the state's chile research and conservation programme, this work demonstrates the complexity of international food security discourse and its application domestically. Particularly, this analysis highlights the limitations of state crop research and conservation efforts imposed by contradictory agricultural policies. In the case of chile, its link to Mexican culture and diet uncovers an important, but often overlooked, aspect of food security: flavour. In the case of chile, a non-staple but culturally symbolic crop, welfare programmes remained paternalistic and focused on caloric intake despite the transformation of national discourse on food security towards the integration of landraces and local cultures through the inauguration of SINAREFI. This case study reflects on the limits of current framings and strategies regarding food security and the need to direct policies towards local food sovereignty to achieve the necessary stability for food security to endure. © 2023 The Authors. Plants, People, Planet published by John Wiley &amp; Sons Ltd on behalf of New Phytologist Foundation.</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -2052,7 +2058,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Reimagining the Food System: Kropotkin, Food Sovereignty and OrganicLea</t>
+          <t>Colonization by kale: marginalization, sovereignty, and experiential learning in critical food systems education</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2060,14 +2066,16 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>This paper explores the similarities between Kropotkin’s vision of a just food system and the food sovereignty movement, with the concrete example of the work of OrganicLea. It will begin with an analysis of the deepening problems of our food system through food insecurity and its negative impact upon the environment. The second part will introduce the idea of food sovereignty and show how it intersects with Kropotkin’s work, with it being argued that a just food system is one that recognises central aspects of both; alongside local and collective ownership, the well-being of all, regenerative agriculture and a commitment to wider social and environmental justice. I will then show how such principles are being put into practice through the work and direct action of OrganicLea. This will reveal how Kropotkin’s thought is still relevant today and how it can be used to address contemporary concerns such as food insecurity and climate change. The paper will also consider the limitations of Kropotkin, including his time-restricted ideas, and the need for new perspectives such as those found in OrganicLea and the food sovereignty movement. © 2023, Lawrence and Wishart. All rights reserved.</t>
+          <t>In increasingly cross-cultural global settings, the performance and promotion of healthy food, “good” food (comida saludable) have become conflated with a narrowing range of iconic vegetable and “superfood” trends that often reflect the health and dietary preferences of an affluent and/or aspirational consumer culture. These colonizing cultivars, and the haute cuisine trends they embody, often displace indigenous food knowledge, techniques, and products already compromised by the penetration of processed foods. Through experiential pedagogical examples from Guatemala and Vermont, this paper explores the ways in which participatory, indigenous food and seed sovereignty curricula can help decolonize these newest kinds of hegemonic impositions and reaffirm traditional food systems. © 2022 Association for the Study of Food and Society (ASFS).</t>
         </is>
       </c>
       <c r="E50" t="n">
         <v>1</v>
       </c>
-      <c r="F50" t="n">
-        <v>1</v>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2084,7 +2092,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Agro-extractivism</t>
+          <t>The Rise of Asia-Pacific Agribusiness in the Global South—The Corporate Food Regime Under the Third Regionalism</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -2092,16 +2100,14 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>The term agro-extractivism has become synonymous with large-scale, corporate-controlled, monoculture plantation agriculture. The aim of this concept note is to clarify the extractivist dynamics in the current context of the capitalist development process. The paper surveys the development of agro-extractivism as a conceptual framework and as a feature of the contemporary political economy of agrarian change in Latin America. It briefly reflects on the potential contributions of land-based struggles to post-extractivist alternatives based on food sovereignty politics. The paper concludes by assessing the broader implications of agro-extractivism for our understanding of the agrarian question in the twenty-first century. © 2023 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Food regime theory asserts that the Global North has controlled food production chains since the 1800s, establishing a corporate food regime in the late 1980s. Through liberalization, Northern food corporations became powerful, leading the contemporary food regime and even replacing states. However, Global South corporations in the Asia-Pacific have grown to become important players in corporate food regimes. Through a literature review, content analysis, and interviews, this study leverages Third Regionalism as the theoretical approach to supplement the food regime theory, and explains how Third Regionalism featured free trade agreements established by Asia-Pacific countries, and how it supported the rapid rise of Southern food corporations. Regionalism helped Asia-Pacific Southern corporations become important figures in the contemporary corporate food regime, reinforcing the Global South’s food security and the livelihood sovereignty aspect of food sovereignty. The stances of Global South food sovereignty groups toward genetically modified crops are shifting and worthy of continued consideration. © The Author(s) 2023.</t>
         </is>
       </c>
       <c r="E51" t="n">
         <v>1</v>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F51" t="n">
+        <v>1</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2118,7 +2124,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Flavour, culture and food security: The spicy entanglements of chile pepper conservation in 21st century Mexico</t>
+          <t>Ethnolinguistic and genetic diversity of fonio (Digitaria exilis) in Senegal</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -2126,14 +2132,16 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Political interests and power structures shape state-led crop conservation and food policy. As a crop that relates to culture and belonging, the chile crop is ideal for exploring how food security policy and crop conservation schemes integrate aspects beyond staple crops, calories and/or electoral incentives. What do these schemes mean for the food and ingredients we love? Reflecting from this perspective can be useful to grasp, re-frame and create more effective and inclusive food policies—ones that embody and valorise flavour, identities and territories beyond statements on paper. Summary: In line with the Food and Agriculture Organisation's (FAO) international action plan for crop genetic resources, the Mexican state inaugurated the National System of Genetic Resources for Food and Agriculture (SINAREFI) in 2002. In this paper, I explore SINAREFI's interest in landraces and in situ conservation through the case of chile pepper, set under the Ministry of Agriculture's interests of promoting industrial agriculture and paternalistic food security welfare programmes. Through the analyses of existing literature on food security in Mexico state programmes, archival work and interviews, this article analyses how discourses on food security shape research trajectories, some of which are inevitably constrained by current market-based agricultural systems. By exploring the state's chile research and conservation programme, this work demonstrates the complexity of international food security discourse and its application domestically. Particularly, this analysis highlights the limitations of state crop research and conservation efforts imposed by contradictory agricultural policies. In the case of chile, its link to Mexican culture and diet uncovers an important, but often overlooked, aspect of food security: flavour. In the case of chile, a non-staple but culturally symbolic crop, welfare programmes remained paternalistic and focused on caloric intake despite the transformation of national discourse on food security towards the integration of landraces and local cultures through the inauguration of SINAREFI. This case study reflects on the limits of current framings and strategies regarding food security and the need to direct policies towards local food sovereignty to achieve the necessary stability for food security to endure. © 2023 The Authors. Plants, People, Planet published by John Wiley &amp; Sons Ltd on behalf of New Phytologist Foundation.</t>
+          <t>Societal Impact Statement: Fonio (Digitaria exilis—Kippist—Stapf) is a neglected cereal crop that plays a crucial role in the food and nutritional security of sub-Saharan populations. Currently threatened with extinction in many countries, fonio, like other minor species, could help give insights into the history of African agriculture and provide clues to past social interactions. Highlighting and preserving genetic diversity that can be used to develop improved varieties improves food security. By recognizing the role of indigenous people and local communities (IPLCs) in agrobiodiversity creation and management, this study provides support for strengthening the rights of rural communities and promoting their food and seed sovereignty as outlined in the United Nations UNDROP Declaration. Summary: Fonio (Digitaria exilis) is a neglected cereal crop that plays a crucial role in the food and nutritional security of sub-Saharan populations. It is an excellent candidate to diversify agricultural and food systems beyond Africa because of its adaptability and hardiness. However, fonio is threatened with extinction and the factors that organize its genetic diversity remain unknown, despite the fact that this knowledge is necessary to define conservation strategies and uses to achieve sustainable agriculture. Here, we combined social anthropology and population genetics analysis of 158 fonio landraces, thereby generating insight into the genetic diversity, population structure and evolutionary history of fonio cultivation in Senegal. We noted a spatial structure of genetic diversity at two embedded levels, with the first corresponding to the genetic differentiation between ethnic groups and the second to the demographic history of the Mande and Atlantic Congo linguistic families. Selection and seed exchange practices have contributed to shaping fonio genetic diversity at the ethnic level, while the migration of Fulani people over the last 500 years has fragmented the Mandinka kingdom, hence leaving a fonio diversity imprint. Our study highlighted that social factors are pivotal in structuring diversity and should be taken into greater consideration in research and conservation projects to dovetail local and regional scales. It also showed that neglected species such as fonio—which are seldom used in breeding and dissemination programmes—are key markers of the history of African agriculture. © 2023 The Authors. Plants, People, Planet published by John Wiley &amp; Sons Ltd on behalf of New Phytologist Foundation.</t>
         </is>
       </c>
       <c r="E52" t="n">
         <v>1</v>
       </c>
-      <c r="F52" t="n">
-        <v>1</v>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2150,7 +2158,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Colonization by kale: marginalization, sovereignty, and experiential learning in critical food systems education</t>
+          <t>Rethinking scientists’ ongoing participation in “feeding the world”</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -2158,16 +2166,14 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>In increasingly cross-cultural global settings, the performance and promotion of healthy food, “good” food (comida saludable) have become conflated with a narrowing range of iconic vegetable and “superfood” trends that often reflect the health and dietary preferences of an affluent and/or aspirational consumer culture. These colonizing cultivars, and the haute cuisine trends they embody, often displace indigenous food knowledge, techniques, and products already compromised by the penetration of processed foods. Through experiential pedagogical examples from Guatemala and Vermont, this paper explores the ways in which participatory, indigenous food and seed sovereignty curricula can help decolonize these newest kinds of hegemonic impositions and reaffirm traditional food systems. © 2022 Association for the Study of Food and Society (ASFS).</t>
+          <t>Agricultural science necessarily involves a commitment to some form of humanitarian and environmental ethics. For the past century, agricultural science has been based on a productivist ethic of maximizing agricultural production in pursuit or support of food security. Recognition of the ethical and political disposition of contemporary agricultural science can help scientists reorient their work to better address the urgent problems of the upcoming century: environmental degradation, climate change, and social inequality. A commitment to solving these problems is well within the scope of modern agricultural science. Supporting and furthering multidimensional food systems should replace productivism as an explicit goal of agricultural development and scientific innovation. Copyright © 2023 Haring, Pesci Schmulevich, Manser and Cooper.</t>
         </is>
       </c>
       <c r="E53" t="n">
         <v>1</v>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F53" t="n">
+        <v>1</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2184,7 +2190,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>The Rise of Asia-Pacific Agribusiness in the Global South—The Corporate Food Regime Under the Third Regionalism</t>
+          <t>Food anarchy and the State monopoly on hunger</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -2192,7 +2198,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Food regime theory asserts that the Global North has controlled food production chains since the 1800s, establishing a corporate food regime in the late 1980s. Through liberalization, Northern food corporations became powerful, leading the contemporary food regime and even replacing states. However, Global South corporations in the Asia-Pacific have grown to become important players in corporate food regimes. Through a literature review, content analysis, and interviews, this study leverages Third Regionalism as the theoretical approach to supplement the food regime theory, and explains how Third Regionalism featured free trade agreements established by Asia-Pacific countries, and how it supported the rapid rise of Southern food corporations. Regionalism helped Asia-Pacific Southern corporations become important figures in the contemporary corporate food regime, reinforcing the Global South’s food security and the livelihood sovereignty aspect of food sovereignty. The stances of Global South food sovereignty groups toward genetically modified crops are shifting and worthy of continued consideration. © The Author(s) 2023.</t>
+          <t>This article applies an anarchist lens to the food sovereignty movement. It analyzes food regimes as capitalist agriculture regimes which rely on the State’s monopoly on hunger, wherein the State relies on the dispossession of people from their land and food systems, the protection of property, and the primacy of capital. The interdependence of this State-capital-property trinity is violently enforced, and manufactures compliance through counterinsurgent strategies of social war. The State monopoly on hunger justifies a new offshoot of the larger food sovereignty movement, a prefigurative praxis which dismantles all food regimes to build new counter-worlds: food anarchy. © 2022 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2216,24 +2222,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ethnolinguistic and genetic diversity of fonio (Digitaria exilis) in Senegal</t>
+          <t>Perspectives on strengthening local food systems in Small Island Developing States</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Societal Impact Statement: Fonio (Digitaria exilis—Kippist—Stapf) is a neglected cereal crop that plays a crucial role in the food and nutritional security of sub-Saharan populations. Currently threatened with extinction in many countries, fonio, like other minor species, could help give insights into the history of African agriculture and provide clues to past social interactions. Highlighting and preserving genetic diversity that can be used to develop improved varieties improves food security. By recognizing the role of indigenous people and local communities (IPLCs) in agrobiodiversity creation and management, this study provides support for strengthening the rights of rural communities and promoting their food and seed sovereignty as outlined in the United Nations UNDROP Declaration. Summary: Fonio (Digitaria exilis) is a neglected cereal crop that plays a crucial role in the food and nutritional security of sub-Saharan populations. It is an excellent candidate to diversify agricultural and food systems beyond Africa because of its adaptability and hardiness. However, fonio is threatened with extinction and the factors that organize its genetic diversity remain unknown, despite the fact that this knowledge is necessary to define conservation strategies and uses to achieve sustainable agriculture. Here, we combined social anthropology and population genetics analysis of 158 fonio landraces, thereby generating insight into the genetic diversity, population structure and evolutionary history of fonio cultivation in Senegal. We noted a spatial structure of genetic diversity at two embedded levels, with the first corresponding to the genetic differentiation between ethnic groups and the second to the demographic history of the Mande and Atlantic Congo linguistic families. Selection and seed exchange practices have contributed to shaping fonio genetic diversity at the ethnic level, while the migration of Fulani people over the last 500 years has fragmented the Mandinka kingdom, hence leaving a fonio diversity imprint. Our study highlighted that social factors are pivotal in structuring diversity and should be taken into greater consideration in research and conservation projects to dovetail local and regional scales. It also showed that neglected species such as fonio—which are seldom used in breeding and dissemination programmes—are key markers of the history of African agriculture. © 2023 The Authors. Plants, People, Planet published by John Wiley &amp; Sons Ltd on behalf of New Phytologist Foundation.</t>
+          <t>Small Island Developing States (SIDS) share high burdens of nutrition-related conditions, including non-communicable diseases, associated with an increasing reliance on imported, processed foods. Improving health through increasing the production and consumption of local, nutritious foods is a policy objective of many SIDS governments. This study aimed to understand contemporary challenges and opportunities to strengthening local food systems in two case study settings, Fiji and St. Vincent and the Grenadines. Fifty-two in-depth, semi-structured interviews were conducted with key stakeholders involved in local food production. Interviews were analysed by both country teams using thematic analysis. Local food production networks in both settings included formal governance bodies as well as more informal connections through civil society and communities. Their main function was the sharing of resources and knowledge, but levels of trust and cooperation between the stakeholders varied in a market open to intense competition from imports. Local food production was hindered by few and slow investments by local governments, dated technology, and lack of knowledge. Stakeholders believed this marginalisation was occurring against a background of rising preferences for imported foods in the population, and increasing disinterest in employment in the sector. Despite the challenges, strong narratives of resilience and opportunity were highlighted such as national pride in local produce for commercialisation and local diets. Efforts to support local food production in SIDS should focus on strengthening governance structures to prioritise local produce over corporate and import markets, assist collaboration and co-learning, and support alternative agro-food practices. © 2022, The Author(s).</t>
         </is>
       </c>
       <c r="E55" t="n">
         <v>1</v>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F55" t="n">
+        <v>1</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2250,15 +2254,15 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Rethinking scientists’ ongoing participation in “feeding the world”</t>
+          <t>“Food Village”: An Innovative Alternative Food Network Based on Human Scale Development Economic Model</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Agricultural science necessarily involves a commitment to some form of humanitarian and environmental ethics. For the past century, agricultural science has been based on a productivist ethic of maximizing agricultural production in pursuit or support of food security. Recognition of the ethical and political disposition of contemporary agricultural science can help scientists reorient their work to better address the urgent problems of the upcoming century: environmental degradation, climate change, and social inequality. A commitment to solving these problems is well within the scope of modern agricultural science. Supporting and furthering multidimensional food systems should replace productivism as an explicit goal of agricultural development and scientific innovation. Copyright © 2023 Haring, Pesci Schmulevich, Manser and Cooper.</t>
+          <t>Although the different alternative food networks (AFNs) have experienced increases worldwide for the last thirty years, they are still unable to provide an alternative capable of spreading on a large scale. They in fact remain niche experiments due to some limitations on their structure and governance. Thus, this study proposes and applies a design method to build a new sustainable food supply chain model capable of realizing a “jumping scale”. Based on the theoretical and value framework of the Civil Economy (CE), the Economy for the Common Good (ECG), and the Development on a Human Scale (H-SD), the proposed design model aims to satisfy the needs of all stakeholders in the supply chain. Max-Neef’s Needs Matrix and Design Thinking (DT) tools were used to develop the design model. Applying the design method to the food chain has allowed us to develop the concept of the “Food Village”, an innovative food supply network far from the current economic mechanisms and based on the community and eco-sustainability. © 2022 by the authors. Licensee MDPI, Basel, Switzerland.</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -2282,15 +2286,15 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Parity as radical pragmatism: Centering farm justice and agrarian expertise in agricultural policy</t>
+          <t>Trends in climate, socioeconomic indices and food security in Nigeria: Current realities and challenges ahead</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Rather than treating symptoms of a destructive agri-food system, agricultural policy, research, and advocacy need both to address the root causes of dysfunction and to learn from longstanding interventions to counter it. Specifically, this paper focuses on agricultural parity policies – farmer-led, government-enacted programs to secure a price floor and manage supply to prevent the economic and ecological devastation of unfettered corporate agro-capitalism. Though these programs remain off the radar in dominant policy, scholarship, and civil society activism, but in the past few years, vast swaths of humanity have mobilized in India to call for agri-food systems transformation through farmgate pricing and market protections. This paper asks what constitutes true farm justice and how it could be updated and expanded as an avenue for radically reimagining agriculture and thus food systems at large. Parity refers to both a pricing ratio to ensure livelihood, but also a broader farm justice movement built on principles of fair farmgate prices and cooperatively coordinated supply management. The programs and principles are now mostly considered “radical,” deemed inefficient, irrelevant, obsolete, and grievous government overeach—but from the vantage, we argue, of a system that profits from commodity crop overproduction and agroindustry consolidation. However, by examining parity through a producer-centric lens cognizant of farmers‘ ability, desire, and need to care for the land, ideas of price protection and supply coordination become foundational, so that farmers can make a dignified livelihood stewarding land and water while producing nourishing food. This paradox—that an agricultural governance principle can seem both radical and common sense, far-fetched and pragmatic—deserves attention and analysis. As overall numbers of farmers decline in Global North contexts, their voices dwindle from these conversations, leaving space for worldviews favoring de-agrarianization altogether. In Global South contexts maintaining robust farming populations, such policies for deliberate de-agrarianization bely an aggression toward rural and peasant ways of life and land tenure. Alongside the history of parity programs, principles, and movements in U.S., the paper will examine a vast version of a parity program in India – the Minimum Support Price (MSP) system, which Indian farmers defended and now struggle to expand into a legal right. From East India to the plains of the United States and beyond, parity principles and programs have the potential to offer a pragmatic direction for countering global agro-industrial corporate capture, along with its de-agrarianization, and environmental destruction. The paper explores what and why of parity programs and movements, even as it addresses the complexity of how international parity agreements would unfold. It ends with the need for global supply coordination grounded in food sovereignty and solidarity, and thus the methodological urgency of centering farm justice and agrarian expertise. Copyright © 2023 Graddy-Lovelace, Krikorian, Jewett, Vivekanandan, Stahl, Singh, Wilson, Naylor, Naylor and Pennick.</t>
+          <t>Food security in Nigeria is presently in dire strait owing to several factors, such as skyrocketing energy prices, climate change, and terrorism. This study is aimed at revealing the role of the aforementioned factors in shaping food affordability and availability in the country. The study used descriptive statistics and coefficients of variation and determination to ascertain the change in the trend in these factors and their correlates to food security over time. From the results of our research team, we inferred that temperature increases, political instability, rising food prices and erratic energy supply have had distressing consequences in the areas of affordability, availability and stability of food supplies. We conclude that a rapidly growing population such as Nigeria's would need crucial interventions in increasing food production, mitigating the impacts of climate change, and buffering energy supplies. Ultimately, Nigeria needs to overhaul the important components of her food systems and the respective linkages between these components in order to ensure food security for the entire population. Copyright © 2022 Oderinde, Akano, Adesina and Omotayo.</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -2314,15 +2318,15 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Food anarchy and the State monopoly on hunger</t>
+          <t>Characterization of the Territory and Estimation of a Synthetic Index of Social Welfare</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>This article applies an anarchist lens to the food sovereignty movement. It analyzes food regimes as capitalist agriculture regimes which rely on the State’s monopoly on hunger, wherein the State relies on the dispossession of people from their land and food systems, the protection of property, and the primacy of capital. The interdependence of this State-capital-property trinity is violently enforced, and manufactures compliance through counterinsurgent strategies of social war. The State monopoly on hunger justifies a new offshoot of the larger food sovereignty movement, a prefigurative praxis which dismantles all food regimes to build new counter-worlds: food anarchy. © 2022 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>The rural approach to territorial development has challenged globalization; the countries have opened their agricultural borders through trade agreements that benefit the rural sector. Europe has become an agricultural power, leading the design of foreign trade policies for products of agricultural origin, expanding its areas of influence to underdeveloped countries, proposing changes in the world economy. This approach proposes to build and strengthen cultural identity in rural territories and improving the quality of life. This research proposes the development of a synthetic well-being index for fifteen rural municipalities in the province of Malaga, in the south of the Autonomous Community of Andalusia. The results show that the results of the studied territories are homogeneous, with small differences in the capital of the Antequera Region. © 2022 María‐Salomé Ochoa‐Rico et al.</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -2346,7 +2350,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Perspectives on strengthening local food systems in Small Island Developing States</t>
+          <t>Revisiting global food production and consumption patterns by developing resilient food systems for local communities</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -2354,7 +2358,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Small Island Developing States (SIDS) share high burdens of nutrition-related conditions, including non-communicable diseases, associated with an increasing reliance on imported, processed foods. Improving health through increasing the production and consumption of local, nutritious foods is a policy objective of many SIDS governments. This study aimed to understand contemporary challenges and opportunities to strengthening local food systems in two case study settings, Fiji and St. Vincent and the Grenadines. Fifty-two in-depth, semi-structured interviews were conducted with key stakeholders involved in local food production. Interviews were analysed by both country teams using thematic analysis. Local food production networks in both settings included formal governance bodies as well as more informal connections through civil society and communities. Their main function was the sharing of resources and knowledge, but levels of trust and cooperation between the stakeholders varied in a market open to intense competition from imports. Local food production was hindered by few and slow investments by local governments, dated technology, and lack of knowledge. Stakeholders believed this marginalisation was occurring against a background of rising preferences for imported foods in the population, and increasing disinterest in employment in the sector. Despite the challenges, strong narratives of resilience and opportunity were highlighted such as national pride in local produce for commercialisation and local diets. Efforts to support local food production in SIDS should focus on strengthening governance structures to prioritise local produce over corporate and import markets, assist collaboration and co-learning, and support alternative agro-food practices. © 2022, The Author(s).</t>
+          <t>The achievement of resilient food systems requires an integrated approach between optimal localization of productions and changes in food consumption and between local evaluations of the food system and global visions. In this regard, we developed a Food Self-Sufficiency Index. The index evaluates food self-sufficiency achievable in a study area where its community chooses between alternative suggested diets, and the food productions are relocalized using crop suitability maps. The index can be used at different geographical scales, from a single rural settlement to regional and country-level, up to worldwide. It revisits the food components of the ecological footprint and biocapacity to build a tool for supporting local institutions' decisions in food planning at different levels. In this paper, we discuss how the FSSI could help in increasing the resilience of food production and consumption systems. The paper outlines these essential points for the improvement of the food resilience of an area that aims to improve its self-sufficiency (i) Improving technical solutions, (ii) Improving the communities' involvement, (iii) Improving agro-biodiversity, and (iv) Using complex system approaches in food planning. The Food Self-Sufficiency Index is a powerful supporting decision tool to achieve all the previous goals. © 2022 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2378,7 +2382,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>“Food Village”: An Innovative Alternative Food Network Based on Human Scale Development Economic Model</t>
+          <t>Toward Food Sovereignty: Transformative Agroecology and Participatory Action Research With Coffee Smallholder Cooperatives in Mexico and Nicaragua</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -2386,14 +2390,16 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Although the different alternative food networks (AFNs) have experienced increases worldwide for the last thirty years, they are still unable to provide an alternative capable of spreading on a large scale. They in fact remain niche experiments due to some limitations on their structure and governance. Thus, this study proposes and applies a design method to build a new sustainable food supply chain model capable of realizing a “jumping scale”. Based on the theoretical and value framework of the Civil Economy (CE), the Economy for the Common Good (ECG), and the Development on a Human Scale (H-SD), the proposed design model aims to satisfy the needs of all stakeholders in the supply chain. Max-Neef’s Needs Matrix and Design Thinking (DT) tools were used to develop the design model. Applying the design method to the food chain has allowed us to develop the concept of the “Food Village”, an innovative food supply network far from the current economic mechanisms and based on the community and eco-sustainability. © 2022 by the authors. Licensee MDPI, Basel, Switzerland.</t>
+          <t>The challenges that coffee smallholder livelihoods face suggest the need to move beyond incremental changes in production. Transformative agroecology offers a potential approach to guide systemic change to achieve food sovereignty among coffee smallholders and cooperatives. This work aims to understand the extent to which diversification practices among coffee smallholders can contribute to a transformative agroecology, and to what extent, participatory action research (PAR) projects may support related transformative processes. The PAR projects described in this paper took place over 3 years with participants associated with two smallholder cooperatives in Mexico, and Nicaragua. After establishing long-term partnerships among cooperatives and universities, we used a PAR approach to guide a mixed methods study that included 338 household surveys, 96 interviews, 44 focus group discussions, and participant observation during farmer-to-farmers exchanges. We found that, although coffee-producing households in both study sites report several diversification activities, more than 50% still face some period of food scarcity each year. In our reflections with farmers and staff from the participating cooperatives, that are also included as co-authors in this study, we conclude that coffee smallholders and cooperatives in both locations are in the early stages of developing a transformative agroecology, as a path toward food sovereignty. Several leverage points to achieve this include land access, native seed conservation, cultural attachment to certain diversification practices, and traditional diets. Some of the more significant challenges to advancing a more transformative agroecology are the prioritization of coffee as a crop (i.e., coffee specialization), and dependency on coffee income. Our PAR project also aimed to contribute to achieving change in the prevailing system through 1) capacity building with community facilitators/promoters, 2) co-creation of questions and knowledge relevant to the strategic planning by coffee cooperatives, 3) sharing farmer-to-farmer pedagogies across territories, and 4) the co-production of popular education material. We conclude that diversification remains an important agroecological strategy for smallholder commodity producers, as a way of achieving food sovereignty. Most of all, we find that achieving diversification is not a linear process, as there are many trade-offs, feedback loops, obstacles and opportunities that should be considered through long-term and collective approaches. Copyright © 2022 Guzmán Luna, Bacon, Méndez, Flores Gómez, Anderzén, Mier y Terán Giménez Cacho, Hernández Jonapá, Rivas, Duarte Canales and Benavides González.</t>
         </is>
       </c>
       <c r="E60" t="n">
         <v>1</v>
       </c>
-      <c r="F60" t="n">
-        <v>1</v>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2410,7 +2416,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Trends in climate, socioeconomic indices and food security in Nigeria: Current realities and challenges ahead</t>
+          <t>A Food Sovereignty Approach to Localization in International Solidarity</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -2418,14 +2424,16 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Food security in Nigeria is presently in dire strait owing to several factors, such as skyrocketing energy prices, climate change, and terrorism. This study is aimed at revealing the role of the aforementioned factors in shaping food affordability and availability in the country. The study used descriptive statistics and coefficients of variation and determination to ascertain the change in the trend in these factors and their correlates to food security over time. From the results of our research team, we inferred that temperature increases, political instability, rising food prices and erratic energy supply have had distressing consequences in the areas of affordability, availability and stability of food supplies. We conclude that a rapidly growing population such as Nigeria's would need crucial interventions in increasing food production, mitigating the impacts of climate change, and buffering energy supplies. Ultimately, Nigeria needs to overhaul the important components of her food systems and the respective linkages between these components in order to ensure food security for the entire population. Copyright © 2022 Oderinde, Akano, Adesina and Omotayo.</t>
+          <t>Renewed calls for localization and the “decolonization of aid” are raising questions about whose knowledge and control are privileged. This article argues that in order to support local decision-making on food systems and agricultural aid, international solidarity work should look towards food sovereignty and agroecology approaches. Food sovereignty and agroecology, informed by feminist approaches, can provide important lessons for localization as they prioritize local knowledge and decision-making, and are based on social justice principles. They also provide alternatives to the problematic concept of “development”, particularly the agro-industrial development model which contributes to environmental and health crises, corporate concentration, colonialism and inequality. An example of the trajectory of the NGO SeedChange is provided to help illustrate how food sovereignty can: (1) provide an alternative to problematic development concepts, and (2) encourage localization and greater priority to global South perspectives. While acknowledging that there exist contradictions and challenges to shared decision-making, learning from partners in the global South working for seed and food sovereignty has been crucial to shaping the organization’s programs and policy advocacy. © 2022 by the authors.</t>
         </is>
       </c>
       <c r="E61" t="n">
         <v>1</v>
       </c>
-      <c r="F61" t="n">
-        <v>1</v>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2442,7 +2450,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Characterization of the Territory and Estimation of a Synthetic Index of Social Welfare</t>
+          <t>Cultivating Agroecological Networks during the Pandemic in Argentina: A Sociomaterial Analysis</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -2450,14 +2458,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>The rural approach to territorial development has challenged globalization; the countries have opened their agricultural borders through trade agreements that benefit the rural sector. Europe has become an agricultural power, leading the design of foreign trade policies for products of agricultural origin, expanding its areas of influence to underdeveloped countries, proposing changes in the world economy. This approach proposes to build and strengthen cultural identity in rural territories and improving the quality of life. This research proposes the development of a synthetic well-being index for fifteen rural municipalities in the province of Malaga, in the south of the Autonomous Community of Andalusia. The results show that the results of the studied territories are homogeneous, with small differences in the capital of the Antequera Region. © 2022 María‐Salomé Ochoa‐Rico et al.</t>
+          <t>The COVID-19 pandemic has motivated a turn towards more agroecological food production and food sovereignty. This article aims to analyze how the agroecological actor network has emerged in and around the capital of Buenos Aires and the province of Santa Fe, in Argentina, during the pandemic. The research questions are: How has the agroecological actor network emerged during the pandemic in Argentina? In what ways are agroecological networks enacted through coupling and decoupling practices? The study is based on interviews with practitioners, and observations of online events. In our results, we show how the production of compost, exchange of seeds and experiences, governmental programs, and food fairs are coupled and assembled in the agroecological network. The agroecological network is decoupling from the conventional agroindustrial model with pesticides and chemical input, supermarkets, and the global food system. The conclusion is that the pandemic has worked as a crisis where the agroecological network has been expanded. © 2022 by the authors.</t>
         </is>
       </c>
       <c r="E62" t="n">
         <v>1</v>
       </c>
-      <c r="F62" t="n">
-        <v>1</v>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2474,7 +2484,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Revisiting global food production and consumption patterns by developing resilient food systems for local communities</t>
+          <t>Why do some Participatory Guarantee Systems emerge, become effective, and are sustained over time, while others fail? An application of the Ostrom social-ecological system framework</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -2482,7 +2492,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>The achievement of resilient food systems requires an integrated approach between optimal localization of productions and changes in food consumption and between local evaluations of the food system and global visions. In this regard, we developed a Food Self-Sufficiency Index. The index evaluates food self-sufficiency achievable in a study area where its community chooses between alternative suggested diets, and the food productions are relocalized using crop suitability maps. The index can be used at different geographical scales, from a single rural settlement to regional and country-level, up to worldwide. It revisits the food components of the ecological footprint and biocapacity to build a tool for supporting local institutions' decisions in food planning at different levels. In this paper, we discuss how the FSSI could help in increasing the resilience of food production and consumption systems. The paper outlines these essential points for the improvement of the food resilience of an area that aims to improve its self-sufficiency (i) Improving technical solutions, (ii) Improving the communities' involvement, (iii) Improving agro-biodiversity, and (iv) Using complex system approaches in food planning. The Food Self-Sufficiency Index is a powerful supporting decision tool to achieve all the previous goals. © 2022 Elsevier Ltd</t>
+          <t>Participatory Guarantee Systems (PGS) can play an important role in territorial re-embedding of agri-food systems into their Social-Ecological Systems (SES), thereby stimulating multifunctionality of agriculture and the diversification of the production system. This represents an opportunity to promote endogenous rural development, employment and the viability of rural communities, as well as to support family agriculture, food sovereignty, and food security. However, the underlying biophysical, social, and economic conditions of the SES that affect the likelihood of building these institutions through collective action have hardly been studied. In order to explore this, we used the conceptual framework of SES designed by Elinor Ostrom to identify the conditions under which PGS, and the collective action that created them, emerge, become effective, and are sustained over time. This information may help land managers, policy makers, and planners to design policies that facilitate the building of effective and sustainable PGS over time. © 2022 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -2506,7 +2516,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Toward Food Sovereignty: Transformative Agroecology and Participatory Action Research With Coffee Smallholder Cooperatives in Mexico and Nicaragua</t>
+          <t>NATURE AND FOOD COMMODIFICATION. FOOD SOVEREIGNTY: RETHINKING THE RELATION BETWEEN HUMAN AND NATURE1; [Priroda i komodifikacija hrane. Prehrambeni suverenitet: promišljanje odnosa između čoveka i prirode]</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -2514,16 +2524,14 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>The challenges that coffee smallholder livelihoods face suggest the need to move beyond incremental changes in production. Transformative agroecology offers a potential approach to guide systemic change to achieve food sovereignty among coffee smallholders and cooperatives. This work aims to understand the extent to which diversification practices among coffee smallholders can contribute to a transformative agroecology, and to what extent, participatory action research (PAR) projects may support related transformative processes. The PAR projects described in this paper took place over 3 years with participants associated with two smallholder cooperatives in Mexico, and Nicaragua. After establishing long-term partnerships among cooperatives and universities, we used a PAR approach to guide a mixed methods study that included 338 household surveys, 96 interviews, 44 focus group discussions, and participant observation during farmer-to-farmers exchanges. We found that, although coffee-producing households in both study sites report several diversification activities, more than 50% still face some period of food scarcity each year. In our reflections with farmers and staff from the participating cooperatives, that are also included as co-authors in this study, we conclude that coffee smallholders and cooperatives in both locations are in the early stages of developing a transformative agroecology, as a path toward food sovereignty. Several leverage points to achieve this include land access, native seed conservation, cultural attachment to certain diversification practices, and traditional diets. Some of the more significant challenges to advancing a more transformative agroecology are the prioritization of coffee as a crop (i.e., coffee specialization), and dependency on coffee income. Our PAR project also aimed to contribute to achieving change in the prevailing system through 1) capacity building with community facilitators/promoters, 2) co-creation of questions and knowledge relevant to the strategic planning by coffee cooperatives, 3) sharing farmer-to-farmer pedagogies across territories, and 4) the co-production of popular education material. We conclude that diversification remains an important agroecological strategy for smallholder commodity producers, as a way of achieving food sovereignty. Most of all, we find that achieving diversification is not a linear process, as there are many trade-offs, feedback loops, obstacles and opportunities that should be considered through long-term and collective approaches. Copyright © 2022 Guzmán Luna, Bacon, Méndez, Flores Gómez, Anderzén, Mier y Terán Giménez Cacho, Hernández Jonapá, Rivas, Duarte Canales and Benavides González.</t>
+          <t>The article aims to explore the link between commodification of nature and commodification of food. The latter is in fact one of the most negative and controversial aspects of nature commodification. The examination of food commodification represents fertile ground for investigating the relationship between humans and nature. In this context, food sovereignty provides a useful paradigm that not only serves as an alternative to the current food regime, but also allows for the experiencing a different kind of relationship between humans and nature. Food sovereignty represents a unique social movement in which community, political, and cultural rights are intertwined with the issue of food. Through its multidisciplinary approach and its strongly ethical component, food sovereignty constitutes an opportunity in order to contrast the progressive commodification of nature and of the environment. © 2022, University of Belgrade - Institute for Philosophy and Social Theory. All rights reserved.</t>
         </is>
       </c>
       <c r="E64" t="n">
         <v>1</v>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F64" t="n">
+        <v>1</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2540,7 +2548,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>A Food Sovereignty Approach to Localization in International Solidarity</t>
+          <t>The genetically modified organism shall not be refused? Talking back to the technosciences</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -2548,16 +2556,14 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Renewed calls for localization and the “decolonization of aid” are raising questions about whose knowledge and control are privileged. This article argues that in order to support local decision-making on food systems and agricultural aid, international solidarity work should look towards food sovereignty and agroecology approaches. Food sovereignty and agroecology, informed by feminist approaches, can provide important lessons for localization as they prioritize local knowledge and decision-making, and are based on social justice principles. They also provide alternatives to the problematic concept of “development”, particularly the agro-industrial development model which contributes to environmental and health crises, corporate concentration, colonialism and inequality. An example of the trajectory of the NGO SeedChange is provided to help illustrate how food sovereignty can: (1) provide an alternative to problematic development concepts, and (2) encourage localization and greater priority to global South perspectives. While acknowledging that there exist contradictions and challenges to shared decision-making, learning from partners in the global South working for seed and food sovereignty has been crucial to shaping the organization’s programs and policy advocacy. © 2022 by the authors.</t>
+          <t>Starting from Marcel Mauss’ observation that “one has no right to refuse a gift”, this paper explores the politics of refusal in the context of field trials with genetically modified organisms in Flanders (Belgium). Based on a decade of activist research, and focusing on the genetically modified organism field trials of the Flemish Institute for Biotechnology, we show that the business model of this strategic research center – with its triple mission of carrying biotechnology research, technology transfer, and the promotion of biotechnology through communication and lobby activities – fosters a climate in which innovations in the technosciences have to “be accepted”. The future is laid out without including the possibility of refusal. Consternation is great when this is exactly what happens. Irrational fears and lack of understanding or lack of familiarity are invoked to explain refusal. Language of precision, innovation, safety, and control are deployed to re-assure the public. Refusal is not considered a legitimate option. Yet, if farmers and grassroots initiatives would accept the gift of genetically modified organisms, it would mean the acceptance of their dispossession and the impossibility of diverse food sovereignties. Starting from theoretical work on “the gift” and “the politics of refusal”, we argue that recognizing innovation as the intrinsically plural and divergent process it is, entails including options to refuse particular pathways as a first step to open up others. As we will argue, saying no to genetically modified organisms is part of saying yes to peasant autonomy, agrobiodiversity, and peoples’ food sovereignties. © The Author(s) 2021.</t>
         </is>
       </c>
       <c r="E65" t="n">
         <v>1</v>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F65" t="n">
+        <v>1</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2574,7 +2580,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Cultivating Agroecological Networks during the Pandemic in Argentina: A Sociomaterial Analysis</t>
+          <t>Food sovereignty in sub-Saharan Africa: Reality, relevance, and practicality</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -2582,7 +2588,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>The COVID-19 pandemic has motivated a turn towards more agroecological food production and food sovereignty. This article aims to analyze how the agroecological actor network has emerged in and around the capital of Buenos Aires and the province of Santa Fe, in Argentina, during the pandemic. The research questions are: How has the agroecological actor network emerged during the pandemic in Argentina? In what ways are agroecological networks enacted through coupling and decoupling practices? The study is based on interviews with practitioners, and observations of online events. In our results, we show how the production of compost, exchange of seeds and experiences, governmental programs, and food fairs are coupled and assembled in the agroecological network. The agroecological network is decoupling from the conventional agroindustrial model with pesticides and chemical input, supermarkets, and the global food system. The conclusion is that the pandemic has worked as a crisis where the agroecological network has been expanded. © 2022 by the authors.</t>
+          <t>The recent discourse on food sovereignty places much emphasis on democracy in determining localized food systems, and whether the food is culturally appropriate while leaning heavily on sustainable agricultural practices such as organic agriculture, ecological intensification, agroecology, nature-based solutions, and regenerative agriculture. Sustainable agricultural practices are intended to ensure that the land is managed without the use of synthetic fertilizers and pesticides, while going further by focusing on improvements on soil and land health. However, what are the practicalities of food activism and relying entirely on nature while yields are still very low in much of sub-Saharan Africa (SSA)? We attempt to answer this question in four main sections: (a) we start by defining the concept of food sovereignty and the associated practices, (b) we highlight some of the main socio-ecological conditions that are common in SSA, and (c) we present evidence of some of the limitations of food sovereignty due to the diversity in ecological, political, cultural, and socio-economic contexts that characterize SSA; finally, (d) we focus on food preferences, marketing and certification aspects. We conclude that agroecology alone cannot solve the multiple objectives of increasing crop productivity and replenishing soil nutrients especially on small farms and relying on natural rainfall. There is an urgent need to combine superior crop varieties and judicious use of external inputs in tandem with the manipulation of the agroecological processes to increase the efficiency of input use and achieve higher food productivity, resilience to climate change, and preservation of the natural resource base in specific locations. Copyright © 2022 Mudombi-Rusinamhodzi and Rusinamhodzi.</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -2608,7 +2614,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Why do some Participatory Guarantee Systems emerge, become effective, and are sustained over time, while others fail? An application of the Ostrom social-ecological system framework</t>
+          <t>High-yield dairy cattle breeds improve farmer incomes, curtail greenhouse gas emissions and reduce dairy import dependency in Tanzania</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -2616,14 +2622,16 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Participatory Guarantee Systems (PGS) can play an important role in territorial re-embedding of agri-food systems into their Social-Ecological Systems (SES), thereby stimulating multifunctionality of agriculture and the diversification of the production system. This represents an opportunity to promote endogenous rural development, employment and the viability of rural communities, as well as to support family agriculture, food sovereignty, and food security. However, the underlying biophysical, social, and economic conditions of the SES that affect the likelihood of building these institutions through collective action have hardly been studied. In order to explore this, we used the conceptual framework of SES designed by Elinor Ostrom to identify the conditions under which PGS, and the collective action that created them, emerge, become effective, and are sustained over time. This information may help land managers, policy makers, and planners to design policies that facilitate the building of effective and sustainable PGS over time. © 2022 Elsevier Ltd</t>
+          <t>Tanzania’s dairy sector is poorly developed, creating reliance on imports for processed, value-added dairy products and threatening food security, particularly when supply chains are disrupted due to market volatility or armed conflicts. The Tanzanian Dairy Development Roadmap is a domestic development initiative that aims to achieve dairy self-sufficiency by 2030. Here, we model different outcomes of the roadmap, finding that adoption of high-yield cattle breeds is essential for reducing dairy import dependency. Avoided land use change resulting from fewer, higher yielding dairy cattle would lead to lower greenhouse gas emissions. Dairy producers’ average incomes could increase despite capital expenditure and land allocation required for the adoption of high-yield breeds. Our findings demonstrate the importance of bottom-up development policies for sustainable food system transformations, which also support food sovereignty, increase incomes for smallholder farmers and contribute towards Tanzania’s commitments to reduce greenhouse gas emissions. © 2022, The Author(s), under exclusive licence to Springer Nature Limited.</t>
         </is>
       </c>
       <c r="E67" t="n">
         <v>1</v>
       </c>
-      <c r="F67" t="n">
-        <v>1</v>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2640,7 +2648,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NATURE AND FOOD COMMODIFICATION. FOOD SOVEREIGNTY: RETHINKING THE RELATION BETWEEN HUMAN AND NATURE1; [Priroda i komodifikacija hrane. Prehrambeni suverenitet: promišljanje odnosa između čoveka i prirode]</t>
+          <t>Autonomy and repeasantization: Conceptual, analytical, and methodological problems</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -2648,7 +2656,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>The article aims to explore the link between commodification of nature and commodification of food. The latter is in fact one of the most negative and controversial aspects of nature commodification. The examination of food commodification represents fertile ground for investigating the relationship between humans and nature. In this context, food sovereignty provides a useful paradigm that not only serves as an alternative to the current food regime, but also allows for the experiencing a different kind of relationship between humans and nature. Food sovereignty represents a unique social movement in which community, political, and cultural rights are intertwined with the issue of food. Through its multidisciplinary approach and its strongly ethical component, food sovereignty constitutes an opportunity in order to contrast the progressive commodification of nature and of the environment. © 2022, University of Belgrade - Institute for Philosophy and Social Theory. All rights reserved.</t>
+          <t>“Autonomy,” as a desirable state, is a notion often used by food sovereignty-oriented farmer movements and scholars studying repeasantization. The term is predominantly used rather casually, relying on presumed meanings, but van der Ploeg's book The New Peasantries seeks to elaborate a particular meaning of autonomy as a characteristic feature of the peasantry. The desire of farmers/peasants for autonomy is formulated in tandem with agroecological agriculture, farmers' agency, locally “nested” markets, co-production with nature, non-commoditized production, and multiple kinds of peasant resistance. This article identifies the distinctive nature of this take on autonomy and analyses its analytical, normative, and political aspects. It develops several critiques regarding the analytical shortcomings of the notion of peasant autonomy: the methodological problem of a peasant bias; the analytical limitations and incompatibility of intrinsic and “relative” autonomy; and the neglect of accumulation from below and subtle class contradictions. Rather than centring autonomy or relative autonomy, the authors argue for shifting the focus to the nature of different types of dependency relationships, ranging from very exploitative to those vital for human flourishing. © 2021 The Authors. Journal of Agrarian Change published by John Wiley &amp; Sons Ltd.</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -2672,7 +2680,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>The genetically modified organism shall not be refused? Talking back to the technosciences</t>
+          <t>South and/or north: an indigenous seed movement in South Korea and the multiple bases of food sovereignty</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -2680,14 +2688,16 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Starting from Marcel Mauss’ observation that “one has no right to refuse a gift”, this paper explores the politics of refusal in the context of field trials with genetically modified organisms in Flanders (Belgium). Based on a decade of activist research, and focusing on the genetically modified organism field trials of the Flemish Institute for Biotechnology, we show that the business model of this strategic research center – with its triple mission of carrying biotechnology research, technology transfer, and the promotion of biotechnology through communication and lobby activities – fosters a climate in which innovations in the technosciences have to “be accepted”. The future is laid out without including the possibility of refusal. Consternation is great when this is exactly what happens. Irrational fears and lack of understanding or lack of familiarity are invoked to explain refusal. Language of precision, innovation, safety, and control are deployed to re-assure the public. Refusal is not considered a legitimate option. Yet, if farmers and grassroots initiatives would accept the gift of genetically modified organisms, it would mean the acceptance of their dispossession and the impossibility of diverse food sovereignties. Starting from theoretical work on “the gift” and “the politics of refusal”, we argue that recognizing innovation as the intrinsically plural and divergent process it is, entails including options to refuse particular pathways as a first step to open up others. As we will argue, saying no to genetically modified organisms is part of saying yes to peasant autonomy, agrobiodiversity, and peoples’ food sovereignties. © The Author(s) 2021.</t>
+          <t>South Korean cultivators share features with counterparts in both the global south and north. This combination of traits has produced a diversity of sources that underpin a food sovereignty movement. A case study of t’ojong, or native, seed activism illustrates how local systems of meaning and particular constellations of interests make food sovereignty appealing to a broad coalition of farmers, consumers, part-time cultivators, agricultural scientists, and activists for farmers and for women. The country’s experience demonstrates that responses to market encroachment on food production provide only part of the force driving food sovereignty movements. © 2021, The Author(s), under exclusive licence to Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E69" t="n">
         <v>1</v>
       </c>
-      <c r="F69" t="n">
-        <v>1</v>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2704,7 +2714,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Food sovereignty in sub-Saharan Africa: Reality, relevance, and practicality</t>
+          <t>Policies and practices of central and sub-national governments for seed commons formation in Japan: will the seeds of the varieties collected and developed be shared?</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -2712,7 +2722,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>The recent discourse on food sovereignty places much emphasis on democracy in determining localized food systems, and whether the food is culturally appropriate while leaning heavily on sustainable agricultural practices such as organic agriculture, ecological intensification, agroecology, nature-based solutions, and regenerative agriculture. Sustainable agricultural practices are intended to ensure that the land is managed without the use of synthetic fertilizers and pesticides, while going further by focusing on improvements on soil and land health. However, what are the practicalities of food activism and relying entirely on nature while yields are still very low in much of sub-Saharan Africa (SSA)? We attempt to answer this question in four main sections: (a) we start by defining the concept of food sovereignty and the associated practices, (b) we highlight some of the main socio-ecological conditions that are common in SSA, and (c) we present evidence of some of the limitations of food sovereignty due to the diversity in ecological, political, cultural, and socio-economic contexts that characterize SSA; finally, (d) we focus on food preferences, marketing and certification aspects. We conclude that agroecology alone cannot solve the multiple objectives of increasing crop productivity and replenishing soil nutrients especially on small farms and relying on natural rainfall. There is an urgent need to combine superior crop varieties and judicious use of external inputs in tandem with the manipulation of the agroecological processes to increase the efficiency of input use and achieve higher food productivity, resilience to climate change, and preservation of the natural resource base in specific locations. Copyright © 2022 Mudombi-Rusinamhodzi and Rusinamhodzi.</t>
+          <t>Proponents of agroecology and food sovereignty are trying to form seed commons as a framework against the formal seed systems established by governments. However, we argue that the formation of seed commons should not be considered as a dichotomy that distinguishes between the government and stakeholders, including farmers, but rather as a dichotomy that divides the scope of activities into those regulated by law and those that can be determined by farmers at their own discretion. Japan, like many other countries, is a signatory to the International Treaty on Plant Genetic Resources for Food and Agriculture and the International Union for the Protection of New Varieties of Plants, both of which contain important elements for the conservation of agricultural biodiversity and agroecology at the national and local level. Based on the proposed dichotomy, this study aims to explore the possibility of creating seed commons for seed sharing in Japan. We clarify the policies and actual conditions surrounding the access and use of seeds and explore the possibility of creating seed commons. © 2021 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -2738,7 +2748,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>High-yield dairy cattle breeds improve farmer incomes, curtail greenhouse gas emissions and reduce dairy import dependency in Tanzania</t>
+          <t>EARTH JURISPRUDENCE IN AFRICA</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -2746,7 +2756,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Tanzania’s dairy sector is poorly developed, creating reliance on imports for processed, value-added dairy products and threatening food security, particularly when supply chains are disrupted due to market volatility or armed conflicts. The Tanzanian Dairy Development Roadmap is a domestic development initiative that aims to achieve dairy self-sufficiency by 2030. Here, we model different outcomes of the roadmap, finding that adoption of high-yield cattle breeds is essential for reducing dairy import dependency. Avoided land use change resulting from fewer, higher yielding dairy cattle would lead to lower greenhouse gas emissions. Dairy producers’ average incomes could increase despite capital expenditure and land allocation required for the adoption of high-yield breeds. Our findings demonstrate the importance of bottom-up development policies for sustainable food system transformations, which also support food sovereignty, increase incomes for smallholder farmers and contribute towards Tanzania’s commitments to reduce greenhouse gas emissions. © 2022, The Author(s), under exclusive licence to Springer Nature Limited.</t>
+          <t>If we are to find our way into the future, Earth-centred approaches to governance are the only way forward for Africa and for the world. In the midst of the multiple ecological and social crises of our time, a strong, pan-African Earth Jurisprudence Collective is advocating for decolonised, African, Earth-centred pathways into a flourishing, life-sustaining future for all species. The African Earth Jurisprudence Collective is accompanying traditional and indigenous communities in East, West and Southern Africa as they revive their ancestral knowledge and practices, restore sacred natural sites and associated rituals, re-establish indigenous seed diversity and food sovereignty, and strengthen their customary governance systems, which are aligned with the laws of the Earth. These civil-society-led initiatives are founded on Africa's rich indigenous legal traditions and cultural heritage and inspired by Earth Jurisprudence. © 2022 Universitat Rovira i Virgili. All right reserved.</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -2772,7 +2782,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Autonomy and repeasantization: Conceptual, analytical, and methodological problems</t>
+          <t>Does ‘food sovereignty’ engender paradigm shift or co-optation? Insights from Nepal</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -2780,7 +2790,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>“Autonomy,” as a desirable state, is a notion often used by food sovereignty-oriented farmer movements and scholars studying repeasantization. The term is predominantly used rather casually, relying on presumed meanings, but van der Ploeg's book The New Peasantries seeks to elaborate a particular meaning of autonomy as a characteristic feature of the peasantry. The desire of farmers/peasants for autonomy is formulated in tandem with agroecological agriculture, farmers' agency, locally “nested” markets, co-production with nature, non-commoditized production, and multiple kinds of peasant resistance. This article identifies the distinctive nature of this take on autonomy and analyses its analytical, normative, and political aspects. It develops several critiques regarding the analytical shortcomings of the notion of peasant autonomy: the methodological problem of a peasant bias; the analytical limitations and incompatibility of intrinsic and “relative” autonomy; and the neglect of accumulation from below and subtle class contradictions. Rather than centring autonomy or relative autonomy, the authors argue for shifting the focus to the nature of different types of dependency relationships, ranging from very exploitative to those vital for human flourishing. © 2021 The Authors. Journal of Agrarian Change published by John Wiley &amp; Sons Ltd.</t>
+          <t>Food sovereignty proponents find the terms ‘security’ and ‘right’ associated with ‘food’ as not covering the entire gamut of food and agricultural issues, especially in addressing small farmers’ and peasants’ concerns and ensuring sustainable agriculture development. Hence, they have conceptualized an alternative food paradigm and called it ‘food sovereignty’. However, food sovereignty has been interpreted and operationalized in various forms. Perhaps the choice of the term sovereignty has rendered the idea of food sovereignty ideal for co-optation because sovereignty is a historically and politically contested concept with multiple meanings attached to it. Some scholars argue that there are multiple sovereignties in food sovereignty that can be reconciled. This article analyses the case of Nepal that has adopted the idea of food sovereignty, and finds that the argument of multiple sovereignties exercised through relational and interactive measures can only be aspirational and normative at best. © 2022 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -2804,15 +2814,15 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>South and/or north: an indigenous seed movement in South Korea and the multiple bases of food sovereignty</t>
+          <t>Let’s Reclaim Our Food Sovereignty and Reject the Industrial Food System!</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>South Korean cultivators share features with counterparts in both the global south and north. This combination of traits has produced a diversity of sources that underpin a food sovereignty movement. A case study of t’ojong, or native, seed activism illustrates how local systems of meaning and particular constellations of interests make food sovereignty appealing to a broad coalition of farmers, consumers, part-time cultivators, agricultural scientists, and activists for farmers and for women. The country’s experience demonstrates that responses to market encroachment on food production provide only part of the force driving food sovereignty movements. © 2021, The Author(s), under exclusive licence to Springer Nature B.V.</t>
+          <t>African food systems are a rich and varied tapestry of production systems, crops, seed, territorial markets, cultures, biodiversity and ecologies. As the UN Food Systems Summit worked to retrench the many pathologies that have systematically eroded African food systems, African civil society organizations mobilized to push back. In the African regional people’s countermobilization, participatory dialogues opened space for continent-wide articulations of a future built on peoples’ choices and control of natural resources, territorially-embedded solutions, the human rights of all, family farming, and peasant agroecology. © 2021, Society for International Development.</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -2838,7 +2848,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Policies and practices of central and sub-national governments for seed commons formation in Japan: will the seeds of the varieties collected and developed be shared?</t>
+          <t>Seeds of change? Social practices of urban community seed sharing initiatives for just transitions to sustainability</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -2846,14 +2856,16 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Proponents of agroecology and food sovereignty are trying to form seed commons as a framework against the formal seed systems established by governments. However, we argue that the formation of seed commons should not be considered as a dichotomy that distinguishes between the government and stakeholders, including farmers, but rather as a dichotomy that divides the scope of activities into those regulated by law and those that can be determined by farmers at their own discretion. Japan, like many other countries, is a signatory to the International Treaty on Plant Genetic Resources for Food and Agriculture and the International Union for the Protection of New Varieties of Plants, both of which contain important elements for the conservation of agricultural biodiversity and agroecology at the national and local level. Based on the proposed dichotomy, this study aims to explore the possibility of creating seed commons for seed sharing in Japan. We clarify the policies and actual conditions surrounding the access and use of seeds and explore the possibility of creating seed commons. © 2021 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>The sharing of seeds is a practice with ancient roots. However, the structures of global agri-food trade in late modernity have drastically reconfigured practices of exchange and reshaped matters of legal ownership, resulting in constrained access to seeds for many. Scholars and activists are increasingly concerned about the negative impacts these changes are having from a justice and sustainability perspective. To date, seed sharing research has predominantly occurred as one element of wider seed sovereignty debates, and particularly in relation to farmers in low- and middle-income countries. Seed sharing beyond these contexts has received limited attention. To broaden understanding of seed sharing and its diverse practices, this paper provides a foundational landscape level analysis of urban community seed sharing initiatives from 100 urban locations globally. It outlines the rules, tools, skills and understandings that shape seed sharing practices and teases out commonalities with, and differences between, these urban activities and those that currently dominate the landscape of seed sharing research. In conclusion, further research is proposed to build on these foundations and establish the contributions, actual and potential, that urban seed sharing provides for just transitions to more sustainable urban food systems. © 2022 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E74" t="n">
         <v>1</v>
       </c>
-      <c r="F74" t="n">
-        <v>1</v>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -2870,7 +2882,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>EARTH JURISPRUDENCE IN AFRICA</t>
+          <t>“Without Food there is No Resistance”: The impact of the Zapatista conflict on agrobiodiversity and seed sovereignty in Chiapas, Mexico</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -2878,7 +2890,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>If we are to find our way into the future, Earth-centred approaches to governance are the only way forward for Africa and for the world. In the midst of the multiple ecological and social crises of our time, a strong, pan-African Earth Jurisprudence Collective is advocating for decolonised, African, Earth-centred pathways into a flourishing, life-sustaining future for all species. The African Earth Jurisprudence Collective is accompanying traditional and indigenous communities in East, West and Southern Africa as they revive their ancestral knowledge and practices, restore sacred natural sites and associated rituals, re-establish indigenous seed diversity and food sovereignty, and strengthen their customary governance systems, which are aligned with the laws of the Earth. These civil-society-led initiatives are founded on Africa's rich indigenous legal traditions and cultural heritage and inspired by Earth Jurisprudence. © 2022 Universitat Rovira i Virgili. All right reserved.</t>
+          <t>Violent conflicts are frequently associated with detrimental or neutral effects on economic, social, and environmental development; by extension, one might expect similar effects on agrobiodiversity. However, as this study suggests, the impacts of conflicts are not necessarily all negative or neutral. Indeed, conflicts may also create favorable political conditions for the implementation of community-driven agrobiodiversity management. Drawing on ethnographic research in the indigenous central region of Chiapas, Mexico, where the insurgent Zapatista movement (EZLN) has a strong influence, we examine the impact of the agrarian conflict between this indigenous movement and the Mexican government on the development of agrobiodiversity conservation initiatives. Two research questions guide this paper: (1) What has been the impact of the conflict on communities’ subsistence agriculture and seed sovereignty? and (2) To what extent has the local seed sovereignty movement—an outgrowth of the Zapatista conflict—influenced agrobiodiversity conservation? Our findings suggest that the conflict has led to the implementation of grassroots agroecology and food and seed sovereignty projects that could ultimately strengthen agrobiodiversity in the communities under the influence of the Zapatista movement. We suggest that these projects highlight two elements essential for long-term agrobiodiversity conservation: first, the strategic relationship between agrobiodiversity conservation and these communities’ food security and seed sovereignty, particularly in the context of conflict; and second, the central role that peasant communities play in the preservation, reproduction, and evolution of agrobiodiversity. We conclude that the overall long-term impact of the Zapatista conflict on local agrobiodiversity has in fact been positive. © 2020 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -2904,7 +2916,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Does ‘food sovereignty’ engender paradigm shift or co-optation? Insights from Nepal</t>
+          <t>POLITICAL ETHNOGRAPHY OF SEED SAVING PRACTICES AND AGROECOLOGICAL FARMING: EXPLORING THE AGENCY OF WOMEN FARMERS</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -2912,14 +2924,16 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Food sovereignty proponents find the terms ‘security’ and ‘right’ associated with ‘food’ as not covering the entire gamut of food and agricultural issues, especially in addressing small farmers’ and peasants’ concerns and ensuring sustainable agriculture development. Hence, they have conceptualized an alternative food paradigm and called it ‘food sovereignty’. However, food sovereignty has been interpreted and operationalized in various forms. Perhaps the choice of the term sovereignty has rendered the idea of food sovereignty ideal for co-optation because sovereignty is a historically and politically contested concept with multiple meanings attached to it. Some scholars argue that there are multiple sovereignties in food sovereignty that can be reconciled. This article analyses the case of Nepal that has adopted the idea of food sovereignty, and finds that the argument of multiple sovereignties exercised through relational and interactive measures can only be aspirational and normative at best. © 2022 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>This article aims to capture the political ethnography of seed-saving practices in indigenous agriculture based on the field research carried out between 2017 and 2019 in some regions of India. The study depicts the indispensable value of native seed for marginal women farmers engaged in subsistence and agroecological farming. The role of saving and curating seed provides women a voice, the much-needed role, in otherwise highly patriarchal rural societal settings. Ownership and control of seeds give them agency and autonomy in farming. However, a new agricultural regime, marked by trade liberalisation and intellectual property infringements, restricted seed saving by farmers. These transformations have not only eroded women’s agency but have unprecedentedly altered the matrix of agriculture. Yet, marginal farmers are resilient in bypassing the adversities created by the politics and political economy of the contemporary global-agribusiness regime. This paper captures some of the initiatives that enable the reclamation of seed sovereignty and enhance food security, leading to the empowerment of farmers in the studied region. © 2022 National Institute of Rural Development. All rights reserved.</t>
         </is>
       </c>
       <c r="E76" t="n">
         <v>1</v>
       </c>
-      <c r="F76" t="n">
-        <v>1</v>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -2936,15 +2950,15 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Let’s Reclaim Our Food Sovereignty and Reject the Industrial Food System!</t>
+          <t>AFHVS 2021 Presidential Address: critical praxis and the social imaginary for food systems transformation</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>African food systems are a rich and varied tapestry of production systems, crops, seed, territorial markets, cultures, biodiversity and ecologies. As the UN Food Systems Summit worked to retrench the many pathologies that have systematically eroded African food systems, African civil society organizations mobilized to push back. In the African regional people’s countermobilization, participatory dialogues opened space for continent-wide articulations of a future built on peoples’ choices and control of natural resources, territorially-embedded solutions, the human rights of all, family farming, and peasant agroecology. © 2021, Society for International Development.</t>
+          <t>In this 2021 AFHVS Presidential Address, Kim Niewolny provides a brief foray into the onto-epistemic framing of critical praxis for sustainable food systems transformation. Niewolny proposes we engage in the creative entanglement of critical praxis and the social imaginary to “unthink” the orthodoxies that govern our ideas of the possible. She offers several possibilities as pathways toward a food system that embodies health equity, ecological justice, land sovereignty, and human rights, including: (1) agroecological research and movement building; (2) food, farm, and health policy; (3) food and farm system worker protections as public health and human rights concerns; (4) intersectional food justice scholarship and curriculum; (5) narrative-led, community-based, and action-oriented methodologies as multi-dimensional inquiry; (6) and multi-sector and multi-racial coalitions as dynamic networks that challenge linear, neoliberal, and technical-rational practices. Niewolny concludes with a call for radical hope as a principle for critical food systems praxis. © 2021, The Author(s), under exclusive licence to Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -2968,7 +2982,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Seeds of change? Social practices of urban community seed sharing initiatives for just transitions to sustainability</t>
+          <t>Farm-level pathways to food security: beyond missing markets and irrational peasants</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -2976,16 +2990,14 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>The sharing of seeds is a practice with ancient roots. However, the structures of global agri-food trade in late modernity have drastically reconfigured practices of exchange and reshaped matters of legal ownership, resulting in constrained access to seeds for many. Scholars and activists are increasingly concerned about the negative impacts these changes are having from a justice and sustainability perspective. To date, seed sharing research has predominantly occurred as one element of wider seed sovereignty debates, and particularly in relation to farmers in low- and middle-income countries. Seed sharing beyond these contexts has received limited attention. To broaden understanding of seed sharing and its diverse practices, this paper provides a foundational landscape level analysis of urban community seed sharing initiatives from 100 urban locations globally. It outlines the rules, tools, skills and understandings that shape seed sharing practices and teases out commonalities with, and differences between, these urban activities and those that currently dominate the landscape of seed sharing research. In conclusion, further research is proposed to build on these foundations and establish the contributions, actual and potential, that urban seed sharing provides for just transitions to more sustainable urban food systems. © 2022 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Development projects in Sub-Saharan Africa propose to alleviate hunger in rural areas by introducing new agricultural practices and technologies, yet there is limited empirical evidence of how an agricultural intervention can lead farming households to transition to food security. Research on food security pathways considers agricultural interventions that increase farmers’ income to be particularly effective for reducing food insecurity. Consistent with this stance, Malawian agricultural policy aims to address hunger by encouraging smallholder farmers to intensify and commercialize maize production. This paper explores if smallholders’ market and livelihood orientations do indeed lead them to favor an income pathway to food security. Qualitative analysis of 60 smallholder farmer interviews in Malawi found that, upon achieving improvements in production yields and diversity, rather than commercialize, many farmers re-organized their production and consumption to reduce market dependency. Farmers deployed this strategy to increase their food security, explaining that the choice to self-provision food and farming inputs was both an expression of farming identity and a lived understanding of their marginal position in commodity markets. The author finds that, in failing to consider how production relations affect food access, scholarship inadequately theorizes farm-level food security transitions and reproduces discursive framings of hunger. Food sovereignty narratives more accurately captured what mattered for Malawian smallholders’ food security, suggesting that engagement with this concept could improve scientific understandings of food security transitions. © 2021, The Author(s), under exclusive licence to Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E78" t="n">
         <v>1</v>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F78" t="n">
+        <v>1</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3002,7 +3014,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>“Without Food there is No Resistance”: The impact of the Zapatista conflict on agrobiodiversity and seed sovereignty in Chiapas, Mexico</t>
+          <t>Certification Regimes in the Global Agro-Food System and the Transformation of the Nature-Society Relationship Ecological Modernization or Modernization of Ecology?</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -3010,7 +3022,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Violent conflicts are frequently associated with detrimental or neutral effects on economic, social, and environmental development; by extension, one might expect similar effects on agrobiodiversity. However, as this study suggests, the impacts of conflicts are not necessarily all negative or neutral. Indeed, conflicts may also create favorable political conditions for the implementation of community-driven agrobiodiversity management. Drawing on ethnographic research in the indigenous central region of Chiapas, Mexico, where the insurgent Zapatista movement (EZLN) has a strong influence, we examine the impact of the agrarian conflict between this indigenous movement and the Mexican government on the development of agrobiodiversity conservation initiatives. Two research questions guide this paper: (1) What has been the impact of the conflict on communities’ subsistence agriculture and seed sovereignty? and (2) To what extent has the local seed sovereignty movement—an outgrowth of the Zapatista conflict—influenced agrobiodiversity conservation? Our findings suggest that the conflict has led to the implementation of grassroots agroecology and food and seed sovereignty projects that could ultimately strengthen agrobiodiversity in the communities under the influence of the Zapatista movement. We suggest that these projects highlight two elements essential for long-term agrobiodiversity conservation: first, the strategic relationship between agrobiodiversity conservation and these communities’ food security and seed sovereignty, particularly in the context of conflict; and second, the central role that peasant communities play in the preservation, reproduction, and evolution of agrobiodiversity. We conclude that the overall long-term impact of the Zapatista conflict on local agrobiodiversity has in fact been positive. © 2020 Elsevier Ltd</t>
+          <t>Recent years have witnessed a proliferation of environmental certification regimes in the global agro-food system—a trend characterized as an example of the ecological modernization approach—which emerged largely because of the rise of consumer sovereignty and the neoliberal push for environmental and social “quality” in food production and processing. Based on a robust analysis of global aquaculture, the article argues that the environmental certification regimes privilege some actors, species, and cultures while marginalizing others. While the fundamental tenet of the ecological modernization approach is to shape capitalism by ecological principles, I argue instead that through environmental certification, ecology or nature itself is largely shaped, transformed and restructured to fit into and thereby serve neoliberal global governance and accumulation in a normalized manner. The example of certification regimes is therefore more like a “modernization of ecology” rather than ecological modernization. © 2022</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -3036,7 +3048,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>POLITICAL ETHNOGRAPHY OF SEED SAVING PRACTICES AND AGROECOLOGICAL FARMING: EXPLORING THE AGENCY OF WOMEN FARMERS</t>
+          <t>VILLAGE PROJECTS OBSERVED IN ERITREA: POST-CONFLICT PATHWAYS TOWARDS DEMOCRATIC RURAL DEVELOPMENT</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -3044,16 +3056,14 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>This article aims to capture the political ethnography of seed-saving practices in indigenous agriculture based on the field research carried out between 2017 and 2019 in some regions of India. The study depicts the indispensable value of native seed for marginal women farmers engaged in subsistence and agroecological farming. The role of saving and curating seed provides women a voice, the much-needed role, in otherwise highly patriarchal rural societal settings. Ownership and control of seeds give them agency and autonomy in farming. However, a new agricultural regime, marked by trade liberalisation and intellectual property infringements, restricted seed saving by farmers. These transformations have not only eroded women’s agency but have unprecedentedly altered the matrix of agriculture. Yet, marginal farmers are resilient in bypassing the adversities created by the politics and political economy of the contemporary global-agribusiness regime. This paper captures some of the initiatives that enable the reclamation of seed sovereignty and enhance food security, leading to the empowerment of farmers in the studied region. © 2022 National Institute of Rural Development. All rights reserved.</t>
+          <t>Eritrea's rural development trajectory has fallen short of fully meeting the basic needs of its peasants and pastoralists, let alone national food security objectives. This article builds on earlier research on rural development projects in a select number of villages. These projects were primarily characterised by a state-centric technocratic logic that did, to some degree, embed “hard” infrastructure in the villages, but which paid less attention to building village-level capacity or organisational autonomy. Looking beyond these impasses, the present article suggests an inward-oriented national development model centred on the home market, rural co-operatives, and food sovereignty. As yet - at the time of writing - another major war afflicts Eritrea and Ethiopia, the presence of the political will for such a transition is by no means guaranteed. © 2022 University of Hradec Kralove, Philosophical Faculty. All rights reserved.</t>
         </is>
       </c>
       <c r="E80" t="n">
         <v>1</v>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F80" t="n">
+        <v>1</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3070,15 +3080,15 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Re-imagining the UN Committee on World Food Security</t>
+          <t>Toward food sovereignty and self-sufficiency in Latin America and the Caribbean: opportunities for agricultural complementarity; [Hacia una soberanía y autosuficiencia alimentaria en América Latina y el Caribe: oportunidades de complementariedad agrícola]</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>This article argues that the United Nations Committee on World Food Security can and must serve as a space for catalyzing and strengthening public interest-oriented food systems governance grounded in the human rights framework. This would necessarily entail confronting the fragmentation of governance and erasure of accountability promoted by corporate designed multi-stakeholderism, and democratizing multilateralism through genuine participation of rights holders, public scrutiny and participatory science. Pivotal to this endeavor is arresting the growing corporate influence in governance mechanisms and reorienting them towards reinvigorating relationships among people, communities and governments. © 2021, Society for International Development.</t>
+          <t>Food self-sufficiency is a relevant political issue in many countries, developed and developing, particularly to satisfy the internal nutritional needs of the population and face situations in which the prices of basic products are unstable or when a country faces an external shock. Improving resilience involves strengthening local rural communities to meet demand with domestic production. The member countries of Latin America and the Caribbean (LCN) produce enough food to sustain their population and to be one of the world’s largest food exporters. From the theoretical discussion and using data from FAO, the research shows that there is a potential to improve food sovereignty and to define food and agricultural policies through agricultural complementarity among the LCN countries. Diverting part of the current trade with third parties to intraregional trade, for products in which the region has a comparative advantage, would mean that LCN countries could save up to 2.7 billion dollars per year, that is, 6.8% of total imports of food in 2018, avoiding the outflow of foreign currency and promoting greater economic integration between countries. © 2023,Revista de Economia e Sociologia Rural. All rights reserved</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -3102,15 +3112,15 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>AFHVS 2021 Presidential Address: critical praxis and the social imaginary for food systems transformation</t>
+          <t>Food sovereignty and the integral state: Institutionalizing ecological farming</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>In this 2021 AFHVS Presidential Address, Kim Niewolny provides a brief foray into the onto-epistemic framing of critical praxis for sustainable food systems transformation. Niewolny proposes we engage in the creative entanglement of critical praxis and the social imaginary to “unthink” the orthodoxies that govern our ideas of the possible. She offers several possibilities as pathways toward a food system that embodies health equity, ecological justice, land sovereignty, and human rights, including: (1) agroecological research and movement building; (2) food, farm, and health policy; (3) food and farm system worker protections as public health and human rights concerns; (4) intersectional food justice scholarship and curriculum; (5) narrative-led, community-based, and action-oriented methodologies as multi-dimensional inquiry; (6) and multi-sector and multi-racial coalitions as dynamic networks that challenge linear, neoliberal, and technical-rational practices. Niewolny concludes with a call for radical hope as a principle for critical food systems praxis. © 2021, The Author(s), under exclusive licence to Springer Nature B.V.</t>
+          <t>This article takes up the question of how food sovereignty, and accompanying agricultural models that will help combat climate change, may be institutionalized through policy processes. I draw on the theories of Antonio Gramsci and his successors to discuss how the interwoven nature of the state and civil society, conceptualized as the ‘integral state’, can help inform an analytical approach to food policy change. Based on research that analyzes the work of Canada's two member organizations of La Vía Campesina, Union Paysanne and the National Farmers Union (NFU), I highlight the differences and parallels between food sovereignty struggles taking place in Quebec and those underway elsewhere in the country. I argue that although agricultural policy has the potential to be an important tool in transitioning toward a climate-friendly food system, proponents of food sovereignty would benefit from disengaging from traditional food policy advocacy efforts as these will only lead to incremental reforms. Instead, I suggest that a ‘prefigurative institutionalization’ has the potential to be transformative within and beyond the food system. The concept offers both a political strategy as well as an analytical framework for assessing movements’ efforts related to policy formation and governance. © 2021 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -3134,7 +3144,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Farm-level pathways to food security: beyond missing markets and irrational peasants</t>
+          <t>Peasants' Rights as New Human Rights: Promises and Concerns for Agrobiodiversity Conservation</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -3142,7 +3152,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Development projects in Sub-Saharan Africa propose to alleviate hunger in rural areas by introducing new agricultural practices and technologies, yet there is limited empirical evidence of how an agricultural intervention can lead farming households to transition to food security. Research on food security pathways considers agricultural interventions that increase farmers’ income to be particularly effective for reducing food insecurity. Consistent with this stance, Malawian agricultural policy aims to address hunger by encouraging smallholder farmers to intensify and commercialize maize production. This paper explores if smallholders’ market and livelihood orientations do indeed lead them to favor an income pathway to food security. Qualitative analysis of 60 smallholder farmer interviews in Malawi found that, upon achieving improvements in production yields and diversity, rather than commercialize, many farmers re-organized their production and consumption to reduce market dependency. Farmers deployed this strategy to increase their food security, explaining that the choice to self-provision food and farming inputs was both an expression of farming identity and a lived understanding of their marginal position in commodity markets. The author finds that, in failing to consider how production relations affect food access, scholarship inadequately theorizes farm-level food security transitions and reproduces discursive framings of hunger. Food sovereignty narratives more accurately captured what mattered for Malawian smallholders’ food security, suggesting that engagement with this concept could improve scientific understandings of food security transitions. © 2021, The Author(s), under exclusive licence to Springer Nature B.V.</t>
+          <t>Agrobiodiversity conservation is vital for food security, maintaining ecological balance, and preserving socio-cultural norms. There is substantial evidence to support that agrobiodiversity hotspots coincide with localized, small-scale peasant food systems. Preserving such food systems is necessary for protecting agrobiodiversity. The current legal framework over agrobiodiversity is fragmented and inadequate. A major portion of this framework is situated within intellectual property law and farmers' rights law, neither of which are designed to foster sustainable management of agrobiodiversity. In this context, the 2018 Peasants' Rights Declaration has the potential to fill the gaps in the existing framework. The paper critically analyses the Declaration by exploring some of its legal innovations in improving agrobiodiversity conservation. While some of these innovations are commendable, they are unlikely to be adopted by states owing to their radical nature. Their adoption would require a massive overhaul of the existing agricultural model and power structures embedded within it.  Copyright © 2022 The Author(s).</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -3166,7 +3176,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>China and the UN Food System Summit: Silenced Disputes and Ambivalence on Food Safety, Sovereignty, Justice, and Resilience</t>
+          <t>THE PROSPECTS OF FOOD SOVEREIGNTY IN THE FORMER YUGOSLAV REPUBLICS</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -3174,7 +3184,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>China is a major agricultural power. It dramatically reduced hunger and increased its role in many forums for international governance. However, the Chinese government and society neither played a prominent role in the UNFSS nor in its critique. This article exposes how tensions and ambivalence about agroecology and food sovereignty in China create silences in these discussions, and addressing them within China can also resolve the global tensions that marked the UNFSS as a whole. © 2021, Society for International Development.</t>
+          <t>The neoliberal approach taken to the transition from socialism to capitalism in the six former Yugoslav republics has revealed its weaknesses in all spheres of economic activities, including food produc-tion. These countries have lost sovereignty with respect to regulating important national policy areas like food trade and production. Liberalisation of the food trade has adversely affected national economies by destroy-ing many small-scale farmers and food producers. Corporate supermarkets have been taking over an ever bigger slice of the retail pie. Social movements are call-ing for direct democratic control over resources and food production to be regained. The article examines the prospects of these countries to overcome the increas-ing food insecurity by introducing food sovereignty. © 2021, Ljubljana University, Faculty of Social Sciences. All rights reserved.</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -3198,7 +3208,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Certification Regimes in the Global Agro-Food System and the Transformation of the Nature-Society Relationship Ecological Modernization or Modernization of Ecology?</t>
+          <t>Food sovereignty and property in Cuba and the United States</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -3206,16 +3216,14 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Recent years have witnessed a proliferation of environmental certification regimes in the global agro-food system—a trend characterized as an example of the ecological modernization approach—which emerged largely because of the rise of consumer sovereignty and the neoliberal push for environmental and social “quality” in food production and processing. Based on a robust analysis of global aquaculture, the article argues that the environmental certification regimes privilege some actors, species, and cultures while marginalizing others. While the fundamental tenet of the ecological modernization approach is to shape capitalism by ecological principles, I argue instead that through environmental certification, ecology or nature itself is largely shaped, transformed and restructured to fit into and thereby serve neoliberal global governance and accumulation in a normalized manner. The example of certification regimes is therefore more like a “modernization of ecology” rather than ecological modernization. © 2022</t>
+          <t>Food sovereignty promotes agroecological farming methods and the reduction of food insecurity through changing political relations between people, land and food policy. Market orientations to land and private property in liberal democracies restrict access to food, and thus for food sovereigntists, reframing the social relationship to land through property is key to making food more available. This paper examines the case of usufruct land rights in Cuba as a framework for reworking land rights. We identify key limitations that impair producer autonomy, suggesting how different orientations toward property present unique problems and potential solutions towards the goal of food sovereignty. © 2021 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E85" t="n">
         <v>1</v>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F85" t="n">
+        <v>1</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3232,15 +3240,15 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>VILLAGE PROJECTS OBSERVED IN ERITREA: POST-CONFLICT PATHWAYS TOWARDS DEMOCRATIC RURAL DEVELOPMENT</t>
+          <t>Food sovereignty and farmland protection in the Municipal County of Antigonish, Nova Scotia</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Eritrea's rural development trajectory has fallen short of fully meeting the basic needs of its peasants and pastoralists, let alone national food security objectives. This article builds on earlier research on rural development projects in a select number of villages. These projects were primarily characterised by a state-centric technocratic logic that did, to some degree, embed “hard” infrastructure in the villages, but which paid less attention to building village-level capacity or organisational autonomy. Looking beyond these impasses, the present article suggests an inward-oriented national development model centred on the home market, rural co-operatives, and food sovereignty. As yet - at the time of writing - another major war afflicts Eritrea and Ethiopia, the presence of the political will for such a transition is by no means guaranteed. © 2022 University of Hradec Kralove, Philosophical Faculty. All rights reserved.</t>
+          <t>This case study of the Municipal County of Antigonish (MCA) in the Canadian province of Nova Scotia assessed the extent to which agricultural land use planning accommodates those societal interests seeking to embed food sovereignty at the municipal level. Data were collected through content analysis of legislative documents, key informant interviews, and a review of the grey literature. Results suggest that the relatively weak municipal planning system in place prioritizes private interests over the public interest in farmland protection. The resultant gaps in the legislative setup in the MCA further reveal that food sovereignty actors and/or ideas have little influence over municipal governance of farmland protection. Broader historical and contemporary trends in Nova Scotia and Canada at large suggest that farmland will continue to lose ground to forces intrinsic to the dominant policy paradigm of market liberalism. Concluding thoughts call for “bringing back the (Canadian) state” itself as central to constituting a new agricultural policy paradigm. © 2021 by the Authors.</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -3264,22 +3272,24 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Toward food sovereignty and self-sufficiency in Latin America and the Caribbean: opportunities for agricultural complementarity; [Hacia una soberanía y autosuficiencia alimentaria en América Latina y el Caribe: oportunidades de complementariedad agrícola]</t>
+          <t>Norm conflicts as governance challenges for Seed Commons: Comparing cases from Germany and the Philippines</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Food self-sufficiency is a relevant political issue in many countries, developed and developing, particularly to satisfy the internal nutritional needs of the population and face situations in which the prices of basic products are unstable or when a country faces an external shock. Improving resilience involves strengthening local rural communities to meet demand with domestic production. The member countries of Latin America and the Caribbean (LCN) produce enough food to sustain their population and to be one of the world’s largest food exporters. From the theoretical discussion and using data from FAO, the research shows that there is a potential to improve food sovereignty and to define food and agricultural policies through agricultural complementarity among the LCN countries. Diverting part of the current trade with third parties to intraregional trade, for products in which the region has a comparative advantage, would mean that LCN countries could save up to 2.7 billion dollars per year, that is, 6.8% of total imports of food in 2018, avoiding the outflow of foreign currency and promoting greater economic integration between countries. © 2023,Revista de Economia e Sociologia Rural. All rights reserved</t>
+          <t>A Seed Commons approach can help to highlight the common struggle of diverse seed initiatives in the Global North and South in light of the dominant pathway of enclosure and commodification of seeds that threatens food sovereignty and cultivated plant-genetic diversity. In this paper, the Seed Commons framework is applied to show how the conflicting norms and rules of the international regime complex surrounding seeds shape the scope of action for Seed Commons in Germany and the Philippines. The analysis shows that the patent and variety protection regimes have strongly influenced the design of national seed marketing and threaten to outlaw practices of Seed Commons. Despite limited practical impact for Seed Commons initiatives (so far), the norms of the Nagoya Protocol and the Seed Treaty have contributed to exceptions in national seed marketing law that provide essential scope of action for Seed Commons initiatives in Europe and the Philippines. © 2021 The Author</t>
         </is>
       </c>
       <c r="E87" t="n">
         <v>1</v>
       </c>
-      <c r="F87" t="n">
-        <v>1</v>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3296,22 +3306,24 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>GLOBAL FOOD SECURITY AND SOVEREIGNTY IMPACTED BY SARS-CoV-2 PANDEMIC</t>
+          <t>Food sovereignty and food security: Livelihood strategies pursued by farmers during the maize monoculture boom in Northern Thailand</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>The current health crisis due to the severe acute respiratory syndrome -coronavirus-2 (SARS-CoV-2) is challenging several of the assumptions of a globalized world. There are severe consequences over food security and sovereignty, especially among the poorest and most vulnerable populations. Particularly, since any infectious disease outbreak is directly correlated to an increase in hunger and malnutrition. This assay is set to analyze the impacts of the sanitary crisis on food security and sovereignty in the international context, and highlight how governments are acting to reduce consequences, through the use of an exploratory and analytical methodology. Although the United States (U.S.) has successfully overcome this health crisis, the food crisis has overtaken, as a result of the growing unemployment. In Latin America, the pandemic is exacerbating food access and economic situation. The sanitary crisis has aggravated food shortages in Africa already going on, especially in rural areas. Asia suffered the most significant impact in food security. The new food security policy in the European Union aims to hold food security. Food insecurity and malnutrition are not just about agriculture production; they are also about food access limitations. In consequence, this health crisis cannot be allowed to become also a food crisis. © 2022. All Rights Reserved.</t>
+          <t>Northern Thailand is the center of a number of controversies surrounding changing cropping patterns, in particular related to deforestation driven by the expansion of maize monocropping by peasant farmers. Growing demand for maize by the global livestock industry has driven the conversion of land from forest and/or shifting cultivation to chemical-intensive maize, with associated environmental (i.e., forest encroachment and annual burning of fields) and social (i.e., farmer indebtedness) problems. Over the years, some of the same farmers have been exposed to ‘alternative development’ programs and projects, initially motivated by pressure to substitute for illegal crops and more recently by concerns over deforestation and particulate matter air pollution from the burning of crop residues. This scenario is made more heterogeneous by a variety of land tenure situations and greater or lesser degrees of community control over land and forest. Faced with varied situations, peasant families can pursue different livelihood strategies, particularly in reference to the degree to which their production is market oriented. Based on surveys and interviews with farmers in Nan and Chiang Mai provinces, over a range of the aforementioned circumstances, we contrast families who pursue what we define as food security (cash cropping to earn money to buy food), food sovereignty (primarily production for self-provisioning) or mixed (a combination of both) strategies. In terms of indicators such as indebtedness, we find greater benefits from the food sovereignty and mixed strategies, though we also find that these are limited by security of land tenure issues, as well as by the degree to which community management of resources is or is not present. © 2021 by the authors. Licensee MDPI, Basel, Switzerland.</t>
         </is>
       </c>
       <c r="E88" t="n">
         <v>1</v>
       </c>
-      <c r="F88" t="n">
-        <v>1</v>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3328,15 +3340,15 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Relevance of the Obstacles to the Achievement of Food Sovereignty in Ecuador, Analysis through the Neutrosophic Soft Set</t>
+          <t>New rurality and agritourism in Empordà, Catalonia</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>One of the elements addressed in the Sustainable Development Goals until 2030, is the achievement of food sovereignty. This important issue takes relevance in the debates at the level of states, among which is Ecuador, which recognizes it as a right to its citizens from its Magna Carta. Despite being a widely addressed topic and to which substantial resources are destined, obstacles persist in its implementation. Therefore, it is proposed as the objective of this investigation: the analysis of the relevance of obstacles to the achievement of food sovereignty in Ecuador through Neutrosophic Soft Sets. To meet the proposed objective, empirical methods such as the interview and a neutrosophic soft set model were used. As a result, it was obtained that from the four initial statements, only three were true and that their relevance in the subject addressed was given by the following hierarchy: first of all the need to guarantee vulnerable groups the right to healthy eating, second, the fact that the allocations of resources to peasant producers are scarce in order to increase food production in the area and finally, the insufficient legal framework to guarantee the right to food sovereignty of Ecuadorians, in correspondence with the international pronouncements and The Constitution. © 2022, Neutrosophic Sets and Systems. All Rights Reserved.</t>
+          <t>Agritourism in the Empordà region has become increasingly popular in recent years. It provides a variety of services, ranging from food catering, the tasting of local products, garden, orchard, and vineyard visits, and lodging. It creates opportunities for a relationship between visitors, places, ideas, and experiences, between the territory, landscape, and terroir, between local products and food sovereignty. It encourages re-peasantisation, the promotion of local know-how, and environmental conservation. This paper examines how this form of agritourism draws a part of its inspiration from a social imaginary of a peasant past that existed prior to the 1960s' advent of mass tourism. Using the tools of the new rurality approach, this paper analyses the landscape and evolution of agritourism in the region. It presents some of the producers' main principles and activities in the light of a regional context that comprises, among other constraints, environmental deterioration, socio-economic inequalities, and a considerable pressure for access to basic resources. Copyright © 2021 Inderscience Enterprises Ltd.</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -3360,7 +3372,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Food sovereignty and the integral state: Institutionalizing ecological farming</t>
+          <t>Market dependency as prohibitive of agroecology and food sovereignty—a case study of the agrarian transition in the Scottish highlands</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -3368,7 +3380,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>This article takes up the question of how food sovereignty, and accompanying agricultural models that will help combat climate change, may be institutionalized through policy processes. I draw on the theories of Antonio Gramsci and his successors to discuss how the interwoven nature of the state and civil society, conceptualized as the ‘integral state’, can help inform an analytical approach to food policy change. Based on research that analyzes the work of Canada's two member organizations of La Vía Campesina, Union Paysanne and the National Farmers Union (NFU), I highlight the differences and parallels between food sovereignty struggles taking place in Quebec and those underway elsewhere in the country. I argue that although agricultural policy has the potential to be an important tool in transitioning toward a climate-friendly food system, proponents of food sovereignty would benefit from disengaging from traditional food policy advocacy efforts as these will only lead to incremental reforms. Instead, I suggest that a ‘prefigurative institutionalization’ has the potential to be transformative within and beyond the food system. The concept offers both a political strategy as well as an analytical framework for assessing movements’ efforts related to policy formation and governance. © 2021 Elsevier Ltd</t>
+          <t>While there have been calls amongst the more ‘political’ or ‘radical’ agroecology and food sovereignty advocates for a break from capitalist food systems, conceptualisations of capitalism, and thus counter-capitalism, vary widely. The movements have largely presented small-scale producers and peasants as alternatives to industrial food systems, and have focused on reducing input dependency as a path towards autonomy of producers and the realisation of agroecological food systems. An alternative to this approach is presented here through applying Ellen M. Wood’s conceptualisation of capitalism as characterised by ‘market dependency’ to the case of the agrarian transition in the Scottish Highlands. This article demonstrates the specific ways in which market dependency, including for agricultural outputs, not just inputs, leads to a divergence from agroecological food systems. It argues that identifying ‘market dependency’ as a defining characteristic of capitalism could strengthen and refine the focus of agroecology and food sovereignty movements. © 2021 by the author. Licensee MDPI, Basel, Switzerland.</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -3392,15 +3404,15 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Peasants' Rights as New Human Rights: Promises and Concerns for Agrobiodiversity Conservation</t>
+          <t>Wild food plants traditionally gathered in central Armenia: archaic ingredients or future sustainable foods?</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Agrobiodiversity conservation is vital for food security, maintaining ecological balance, and preserving socio-cultural norms. There is substantial evidence to support that agrobiodiversity hotspots coincide with localized, small-scale peasant food systems. Preserving such food systems is necessary for protecting agrobiodiversity. The current legal framework over agrobiodiversity is fragmented and inadequate. A major portion of this framework is situated within intellectual property law and farmers' rights law, neither of which are designed to foster sustainable management of agrobiodiversity. In this context, the 2018 Peasants' Rights Declaration has the potential to fill the gaps in the existing framework. The paper critically analyses the Declaration by exploring some of its legal innovations in improving agrobiodiversity conservation. While some of these innovations are commendable, they are unlikely to be adopted by states owing to their radical nature. Their adoption would require a massive overhaul of the existing agricultural model and power structures embedded within it.  Copyright © 2022 The Author(s).</t>
+          <t>Current debate highlights that sustainable food systems can be fostered by the cautious and germane use of natural resources. Gathering, cooking, and consuming wild food plants that are widely available in a given environment are traditional practices that in many parts of the world have historically been crucial for effecting the food security and food sovereignty of local communities. In the current study, we analyzed the traditional foraging patterns of Armenians, Pontic Greeks, Molokans, and Yazidis living in a mountainous area of central Armenia; via 64 semi-structured interviews, 66 wild food folk taxa were recorded and identified. While Armenians and Greeks gather a remarkable number of wild food plants (36 and 31, respectively) and share approximately half of them, Molokans and, more remarkable, Yazidis gather less wild food plants (24 and 17, respectively) and share only a few plants with Armenians. This may be due not only to the fact that the latter ethno-religious groups have followed endogamic marriage patterns for centuries, which may have limited the exchange of plant knowledge and practices with their Armenian neighbors, but also to the difficult adaptation to a new environment that Yazidis experienced after moving from Eastern Anatolia and the Nineveh Plains to the study area around a century ago. The traditional practice of gathering wild plants for food is, however, still vividly alive among locals in central Armenia and at least a part of this bio-cultural heritage could represent one of the future pillars of local sustainable food systems and platforms. © 2020, Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -3424,7 +3436,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>THE PROSPECTS OF FOOD SOVEREIGNTY IN THE FORMER YUGOSLAV REPUBLICS</t>
+          <t>Achieving Food System Resilience Requires Challenging Dominant Land Property Regimes</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -3432,7 +3444,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>The neoliberal approach taken to the transition from socialism to capitalism in the six former Yugoslav republics has revealed its weaknesses in all spheres of economic activities, including food produc-tion. These countries have lost sovereignty with respect to regulating important national policy areas like food trade and production. Liberalisation of the food trade has adversely affected national economies by destroy-ing many small-scale farmers and food producers. Corporate supermarkets have been taking over an ever bigger slice of the retail pie. Social movements are call-ing for direct democratic control over resources and food production to be regained. The article examines the prospects of these countries to overcome the increas-ing food insecurity by introducing food sovereignty. © 2021, Ljubljana University, Faculty of Social Sciences. All rights reserved.</t>
+          <t>Although evidence continues to indicate an urgent need to transition food systems away from industrialized monocultures and toward agroecological production, there is little sign of significant policy commitment toward food system transformation in global North geographies. The authors, a consortium of researchers studying the land-food nexus in global North geographies, argue that a key lock-in explaining the lack of reform arises from how most food system interventions work through dominant logics of property to achieve their goals of agroecological production. Doing so fails to recognize how land tenure systems, codified by law and performed by society, construct agricultural land use outcomes. In this perspective, the authors argue that achieving food system “resilience” requires urgent attention to the underlying property norms that drive land access regimes, especially where norms of property appear hegemonic. This paper first reviews research from political ecology, critical property law, and human geography to show how entrenched property relations in the global North frustrate the advancement of alternative models like food sovereignty and agroecology, and work to mediate acceptable forms of “sustainable agriculture.” Drawing on emerging cases of land tenure reform from the authors' collective experience working in Scotland, France, Australia, Canada, and Japan, we next observe how contesting dominant logics of property creates space to forge deep and equitable food system transformation. Equally, these cases demonstrate how powerful actors in the food system attempt to leverage legal and cultural norms of property to legitimize their control over the resources that drive agricultural production. Our formulation suggests that visions for food system “resilience” must embrace the reform of property relations as much as it does diversified farming practices. This work calls for a joint cultural and legal reimagination of our relation to land in places where property functions as an epistemic and apex entitlement. © Copyright © 2021 Calo, McKee, Perrin, Gasselin, McGreevy, Sippel, Desmarais, Shields, Baysse-Lainé, Magnan, Beingessner and Kobayashi.</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -3456,15 +3468,15 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Food sovereignty and property in Cuba and the United States</t>
+          <t>Impact evaluation based on benefit indicators (IEBBI): methodological proposal for agroecological farmers’ markets; [Evaluación del impacto basada en indicadores de beneficios (IEBBI): propuesta metodológica para mercados de productores agroecológicos]</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Food sovereignty promotes agroecological farming methods and the reduction of food insecurity through changing political relations between people, land and food policy. Market orientations to land and private property in liberal democracies restrict access to food, and thus for food sovereigntists, reframing the social relationship to land through property is key to making food more available. This paper examines the case of usufruct land rights in Cuba as a framework for reworking land rights. We identify key limitations that impair producer autonomy, suggesting how different orientations toward property present unique problems and potential solutions towards the goal of food sovereignty. © 2021 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Farmers’ markets represent a growing strategy for the generation of food sovereignty and sustainability; however, little is known about their impacts in economic, social and environmental terms. The objective of this research was to develop a framework that would allow determining that impact. The resulting methodological framework includes 20 indicators divided into seven groups: proximity, profitability, perceived benefits, areas of opportunity, economic impact, social impact, and environmental impact. This methodology was applied in one agroecological farmers’ market in Mexico City. Among the results, the main benefits are linked to socioeconomic interaction, while environmental impact indicators are the least considered. This methodology can guide the design, implementation, comparison, and monitoring of this type of initiative in the medium and long term. © 2021 Universidade de Brasilia. All rights reserved.</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -3488,7 +3500,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Subversive Future Seeks Like-Minded Model: On the Mismatch between Visions of Food Sovereignty Futures and Quantified Scenarios of Global Food Futures</t>
+          <t>Rethinking conventionalisation: A view from organic agriculture in the Global South</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -3496,14 +3508,16 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Will we, by 2050, be able to feed a rapidly growing population with healthy and sustainably grown food in a world threatened by systemic environmental crises? There are too many uncertainties for us to predict the long-Term evolution of the global agri-food system, but we can explore a wide range of futures to inform policymaking and public debate on the future of food. This is typically done by creating scenarios (story lines that vividly describe what different futures could look like) and quantifying them with computer simulation models to get numerical estimates of how different aspects of the global agri-food system might evolve under different hypotheses. Among the many scenarios produced over the last twenty years, one would expect to see the future advocated by the food sovereignty movement, which claims to represent roughly two hundred million self-described peasants (small farmers) worldwide. This movement defends a vision of the future based on relocalized, sustainable, and just agri-food systems, self-governed through direct and participatory democratic processes. Yet, food sovereignty is conspicuously absent from quantified scenarios of global food futures. As part of the roundtable, Ethics and the Future of the Global Food System, this essay identifies seven obstacles that undermine the creation of food sovereignty scenarios by examining two attempts at crafting such scenarios.  Copyright © The Author(s), 2021. Published by Cambridge University Press on behalf of the Carnegie Council for Ethics in International Affairs.</t>
+          <t>The so-called conventionalisation of organic farming debate revolves around tensions between organic agriculture as an alternative to the dominant agri-food system and the rise of organic agribusiness. A contested issue is the conceptualisation and assessment of the impact of capitalist expansion in the organic sector on the transformative power of alternative agriculture. This article engages with critiques on Guthman's analysis of conventionalisation and the concept of bifurcation. It brings a new perspective to the debate by introducing a case from the Global South, which reveals four different trajectories of organic agriculture development and certification in the Philippines. The expansion of organic farming differs considerably from the general representation in the conventionalisation debate. What becomes central in the debate is not agribusiness dominance but what kind of small farmers are considered the subject and object of organic agriculture development. Rather than rejecting Guthman's political economy approach for creating binary oppositions, the article expands on its analytical potential to understand the empirical heterogeneity of organic forms of production and the conditions for politics that aim to create alternative economic spaces. © 2021 The Authors</t>
         </is>
       </c>
       <c r="E94" t="n">
         <v>1</v>
       </c>
-      <c r="F94" t="n">
-        <v>1</v>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3520,7 +3534,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Food sovereignty and farmland protection in the Municipal County of Antigonish, Nova Scotia</t>
+          <t>The power to convene: making sense of the power of food movement organizations in governance processes in the Global North</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -3528,7 +3542,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>This case study of the Municipal County of Antigonish (MCA) in the Canadian province of Nova Scotia assessed the extent to which agricultural land use planning accommodates those societal interests seeking to embed food sovereignty at the municipal level. Data were collected through content analysis of legislative documents, key informant interviews, and a review of the grey literature. Results suggest that the relatively weak municipal planning system in place prioritizes private interests over the public interest in farmland protection. The resultant gaps in the legislative setup in the MCA further reveal that food sovereignty actors and/or ideas have little influence over municipal governance of farmland protection. Broader historical and contemporary trends in Nova Scotia and Canada at large suggest that farmland will continue to lose ground to forces intrinsic to the dominant policy paradigm of market liberalism. Concluding thoughts call for “bringing back the (Canadian) state” itself as central to constituting a new agricultural policy paradigm. © 2021 by the Authors.</t>
+          <t>Dominant food systems, based on industrial methods and corporate control, are in a state of flux. To enable the transition towards more sustainable and just food systems, food movements are claiming new roles in governance. These movements, and the initiatives they spearhead, are associated with a range of labels (e.g., food sovereignty, food justice, and community food security) and use a variety of strategies to enact change. In this paper, we use the concept of relational fields to conduct a post-hoc analysis of nine cases, examining how social movement organizations and other actors actively create new deliberative governance spaces. We argue that successes are related to the “power to convene,” a process-oriented approach that increases movements’ capacity to mobilize; leverage different types of power; and integrate, coordinate, and build a systems-oriented vision. The power to convene and create deliberative spaces is demonstrated in a variety of contexts and often results in outcomes that further movement aims, including policy change and repositioning food movement actors vis-à-vis others in the field. Our findings suggest that success is not only measured as policy outcomes, but as an advantageous repositioning of social movement actors that enables them to be part of governance processes beyond simple policy advocacy. © 2020, Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -3552,7 +3566,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Norm conflicts as governance challenges for Seed Commons: Comparing cases from Germany and the Philippines</t>
+          <t>Convivial Agriculture: Evolving Food and Farming Activism in South China</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -3560,7 +3574,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>A Seed Commons approach can help to highlight the common struggle of diverse seed initiatives in the Global North and South in light of the dominant pathway of enclosure and commodification of seeds that threatens food sovereignty and cultivated plant-genetic diversity. In this paper, the Seed Commons framework is applied to show how the conflicting norms and rules of the international regime complex surrounding seeds shape the scope of action for Seed Commons in Germany and the Philippines. The analysis shows that the patent and variety protection regimes have strongly influenced the design of national seed marketing and threaten to outlaw practices of Seed Commons. Despite limited practical impact for Seed Commons initiatives (so far), the norms of the Nagoya Protocol and the Seed Treaty have contributed to exceptions in national seed marketing law that provide essential scope of action for Seed Commons initiatives in Europe and the Philippines. © 2021 The Author</t>
+          <t>The Chinese community-supported agriculture (CSA) movement is notable for advocating a revival of peasant farming and food sovereignty. For the emerging food politics in China, the main focus is the promotion of “ethical” food in the context of food scares. Currently this promotion often relies overwhelmingly on an emphasis of ethics of trust through certification of food by intermediaries. Yet, there is controversy among CSA activists, who question whether a certifying practice can improve the relationship between consumer and producer. This paper will present an emerging alternative approach within Chinese CSA circles that focuses on strengthening participatory culture within the consumer-producer nexus. To do so, I will shed new light on the experience of food and farming activism in South China since the late 1990s. The main focus is an empirical study of Chengxianghui (CXH), an organisation that operates various consumer-led action groups in Guangzhou. In order to conceptualise the approach by the activists, this paper outlines a normative framework referred to as “convivial agriculture” that is based on the Guangdongbased practice of the Participatory Guarantee System (PGS). The framework aims to recognise and negotiate responsibilities among different actors caring for the “agricultural commons.” © 2021. China Perspectives. All Rights Reserved.</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -3586,7 +3600,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Food sovereignty and food security: Livelihood strategies pursued by farmers during the maize monoculture boom in Northern Thailand</t>
+          <t>Caliata: An Indigenous Community in Ecuador Offers Lessons on Food Sovereignty and Sustainable Diets</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -3594,7 +3608,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Northern Thailand is the center of a number of controversies surrounding changing cropping patterns, in particular related to deforestation driven by the expansion of maize monocropping by peasant farmers. Growing demand for maize by the global livestock industry has driven the conversion of land from forest and/or shifting cultivation to chemical-intensive maize, with associated environmental (i.e., forest encroachment and annual burning of fields) and social (i.e., farmer indebtedness) problems. Over the years, some of the same farmers have been exposed to ‘alternative development’ programs and projects, initially motivated by pressure to substitute for illegal crops and more recently by concerns over deforestation and particulate matter air pollution from the burning of crop residues. This scenario is made more heterogeneous by a variety of land tenure situations and greater or lesser degrees of community control over land and forest. Faced with varied situations, peasant families can pursue different livelihood strategies, particularly in reference to the degree to which their production is market oriented. Based on surveys and interviews with farmers in Nan and Chiang Mai provinces, over a range of the aforementioned circumstances, we contrast families who pursue what we define as food security (cash cropping to earn money to buy food), food sovereignty (primarily production for self-provisioning) or mixed (a combination of both) strategies. In terms of indicators such as indebtedness, we find greater benefits from the food sovereignty and mixed strategies, though we also find that these are limited by security of land tenure issues, as well as by the degree to which community management of resources is or is not present. © 2021 by the authors. Licensee MDPI, Basel, Switzerland.</t>
+          <t>Background: To achieve a healthy sustainable food system globally, it is imperative to understand how local food systems can provide healthy and sustainable conditions. Objective: To explore, through the indigenous community of Caliata in the Ecuadorian highlands, the factors that support or hinder sustainable Andean food systems. Methods: We designed a participatory mixed-methods study in Caliata (Chimborazo, Ecuador) and an inclusive and transdisciplinary research process with constant member checking. The study combined culturally validated qualitative methods (n = 49), agroecology-based site analysis, and household surveys (n = 57), including a modified 48-h recall. We used the NOVA food classification system to categorize the diet according to levels of processing and analyzed categorical and numeric data to understand the interplay of parcel size, agrodiversity, and diet diversity. Results: First, the agroecological space is defined by the stewardship of Pachamama (Mother Nature), a central role in Andean cosmovision, leading to trophic interactions and cycles characterized by a diversity of heterarchical social organizations and agroecologically useful species. Second, consistency was found in dietary patterns; all respondents consume their produce, fruits being the most popular snack (in a 24-h period, 70% reported an average of 2.2 servings), and two-thirds of households' consumption represent unprocessed or minimally processed foods. Third, gendered agriculture and population aging represent demographic challenges, while chronic health problems remain relatively infrequent compared with the general population. Fourth, food sovereignty is an ecocentric concept based on production, exchanges of seeds and produce, consumption of produce, and knowledge of how agroecological space is treated. This system represents a nutrient loop tied to a system of knowledge about how to care for soil, land, and the ecological community. Conclusions: Caliata provides important perspectives on linkages between diet, biodiversity, use of agroecological space, and rural-urban dynamics. This small indigenous community offers lessons for achieving both healthy ecosystems and food security. © 2021 The Author(s) 2021. Published by Oxford University Press on behalf of the American Society for Nutrition.</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -3620,7 +3634,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>New rurality and agritourism in Empordà, Catalonia</t>
+          <t>Can public universities play a role in fostering seed sovereignty?</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -3628,14 +3642,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Agritourism in the Empordà region has become increasingly popular in recent years. It provides a variety of services, ranging from food catering, the tasting of local products, garden, orchard, and vineyard visits, and lodging. It creates opportunities for a relationship between visitors, places, ideas, and experiences, between the territory, landscape, and terroir, between local products and food sovereignty. It encourages re-peasantisation, the promotion of local know-how, and environmental conservation. This paper examines how this form of agritourism draws a part of its inspiration from a social imaginary of a peasant past that existed prior to the 1960s' advent of mass tourism. Using the tools of the new rurality approach, this paper analyses the landscape and evolution of agritourism in the region. It presents some of the producers' main principles and activities in the light of a regional context that comprises, among other constraints, environmental deterioration, socio-economic inequalities, and a considerable pressure for access to basic resources. Copyright © 2021 Inderscience Enterprises Ltd.</t>
+          <t>Across Canada and the United States, public universities were founded with a mission to contribute to broad societal well-being. Yet, the capacity of public research institutions to develop and disseminate flexible and accessible tools for resilient agriculture has been challenged in recent decades. The role of universities in advancing extractive, rather than regenerative, economies has been amplified by the privatization of public agricultural research and extension of knowledge to farmers, particularly in plant breeding and plant genetics. In this article, we examine the history of public research for seed systems in North America through a “seed regimes” framework, arguing that a narrow focus on commercialization of public research has exacerbated inequalities inherent in the founding structure of public agricultural research, including the displacement of Indigenous land and seed relations. We then discuss how community organizations are challenging the enclosure of seed through seed sovereignty organizing and freelance plant breeding, in some cases through the development of community–university partnerships based on the principles of the cocreation of knowledge. We conclude by offering a reimagined public seed research agenda that focuses on strengthening links between public research and grassroots seed movements, as an opportunity to build more resilient seed and food systems. Copyright: © 2021 The Author(s).</t>
         </is>
       </c>
       <c r="E98" t="n">
         <v>1</v>
       </c>
-      <c r="F98" t="n">
-        <v>1</v>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3652,7 +3668,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Market dependency as prohibitive of agroecology and food sovereignty—a case study of the agrarian transition in the Scottish highlands</t>
+          <t>Food Sovereignty for Whom? Food Poverty, Innovative Public Work Projects and the Authoritarian State</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -3660,7 +3676,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>While there have been calls amongst the more ‘political’ or ‘radical’ agroecology and food sovereignty advocates for a break from capitalist food systems, conceptualisations of capitalism, and thus counter-capitalism, vary widely. The movements have largely presented small-scale producers and peasants as alternatives to industrial food systems, and have focused on reducing input dependency as a path towards autonomy of producers and the realisation of agroecological food systems. An alternative to this approach is presented here through applying Ellen M. Wood’s conceptualisation of capitalism as characterised by ‘market dependency’ to the case of the agrarian transition in the Scottish Highlands. This article demonstrates the specific ways in which market dependency, including for agricultural outputs, not just inputs, leads to a divergence from agroecological food systems. It argues that identifying ‘market dependency’ as a defining characteristic of capitalism could strengthen and refine the focus of agroecology and food sovereignty movements. © 2021 by the author. Licensee MDPI, Basel, Switzerland.</t>
+          <t>In Hungary, public work-based municipal projects played a major role in handling welfare challenges, such that the rise of a precarious rural underclass posited following the postsocialist disembedding of marginalised rural societies from the economy. Given the conditions of an authoritative populist state, this paper explores, using examples of case studies located in disadvantaged rural municipalities, innovative agrarian public work projects, as expressions of the relative freedom of action of local welfare states. Following the critical thinking inspired by Polányi's theory (1944), it sheds light on these efforts, from countermovements to the neo-liberal disembedding of the economy from society including theories on food sovereignty movements. Thus, it reflects upon the degree to which these agricultural activities could be seen as part of a broader countermovement to the social disintegration of nural areas that emerged in the context of the transition to capitalism. © 2021 StudienVerlag. All rights reserved.</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -3684,7 +3700,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Wild food plants traditionally gathered in central Armenia: archaic ingredients or future sustainable foods?</t>
+          <t>The unwanted heritage of prefabricated wartime air raid shelters—underground space regeneration feasibility for urban agriculture to enhance neighbourhood community engagement</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -3692,7 +3708,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Current debate highlights that sustainable food systems can be fostered by the cautious and germane use of natural resources. Gathering, cooking, and consuming wild food plants that are widely available in a given environment are traditional practices that in many parts of the world have historically been crucial for effecting the food security and food sovereignty of local communities. In the current study, we analyzed the traditional foraging patterns of Armenians, Pontic Greeks, Molokans, and Yazidis living in a mountainous area of central Armenia; via 64 semi-structured interviews, 66 wild food folk taxa were recorded and identified. While Armenians and Greeks gather a remarkable number of wild food plants (36 and 31, respectively) and share approximately half of them, Molokans and, more remarkable, Yazidis gather less wild food plants (24 and 17, respectively) and share only a few plants with Armenians. This may be due not only to the fact that the latter ethno-religious groups have followed endogamic marriage patterns for centuries, which may have limited the exchange of plant knowledge and practices with their Armenian neighbors, but also to the difficult adaptation to a new environment that Yazidis experienced after moving from Eastern Anatolia and the Nineveh Plains to the study area around a century ago. The traditional practice of gathering wild plants for food is, however, still vividly alive among locals in central Armenia and at least a part of this bio-cultural heritage could represent one of the future pillars of local sustainable food systems and platforms. © 2020, Springer Nature B.V.</t>
+          <t>The article deals with the problematic heritage associated with the system of Nazi German underground air raid shelters currently located within the Polish state, in the Baltic port city of Szczecin. The unwanted heritage has been inventoried, archival materials collected, and comparative analyses made of ways in which the underground space can be revitalised. An attempt was made to develop a typology of existing shelters and their locations. In order to overcome the negative associations with the warlike military space, positive system solutions were sought for the productive use of existing concrete structures located underground in central, easily accessible areas of the city districts. A process of upcycling the space was used to make ecologically efficient use of the material resources contained in the shelters. In order to activate the local community, a modular, hydroponic plant-growing system, adapted to the prefabricated spaces of the historical air raid shelters, was proposed. In this way, the central location of the underground structures within the boundaries of residential neighbourhoods was exploited. Such action strengthens the food sovereignty of the inhabitants, initiates bottom-up activity within the boundaries of the neighbourhood unit, and builds social ties in the spirit of a regenerative economy and positive sustainability. © 2021 by the authors. Licensee MDPI, Basel, Switzerland.</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -3716,7 +3732,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Achieving Food System Resilience Requires Challenging Dominant Land Property Regimes</t>
+          <t>The methodological strategies of agroecological research and the values with which they are linked</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -3724,7 +3740,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Although evidence continues to indicate an urgent need to transition food systems away from industrialized monocultures and toward agroecological production, there is little sign of significant policy commitment toward food system transformation in global North geographies. The authors, a consortium of researchers studying the land-food nexus in global North geographies, argue that a key lock-in explaining the lack of reform arises from how most food system interventions work through dominant logics of property to achieve their goals of agroecological production. Doing so fails to recognize how land tenure systems, codified by law and performed by society, construct agricultural land use outcomes. In this perspective, the authors argue that achieving food system “resilience” requires urgent attention to the underlying property norms that drive land access regimes, especially where norms of property appear hegemonic. This paper first reviews research from political ecology, critical property law, and human geography to show how entrenched property relations in the global North frustrate the advancement of alternative models like food sovereignty and agroecology, and work to mediate acceptable forms of “sustainable agriculture.” Drawing on emerging cases of land tenure reform from the authors' collective experience working in Scotland, France, Australia, Canada, and Japan, we next observe how contesting dominant logics of property creates space to forge deep and equitable food system transformation. Equally, these cases demonstrate how powerful actors in the food system attempt to leverage legal and cultural norms of property to legitimize their control over the resources that drive agricultural production. Our formulation suggests that visions for food system “resilience” must embrace the reform of property relations as much as it does diversified farming practices. This work calls for a joint cultural and legal reimagination of our relation to land in places where property functions as an epistemic and apex entitlement. © Copyright © 2021 Calo, McKee, Perrin, Gasselin, McGreevy, Sippel, Desmarais, Shields, Baysse-Lainé, Magnan, Beingessner and Kobayashi.</t>
+          <t>The characteristic features of some of the methodological strategies adopted in scientific research in agroecology are discussed. They reflect that agroecology, as an approach to scientific research, is inextricably entangled with the other strands of agroecology (farming practice, social movement, political project); and that adopting agroecological strategies, and upholding the values of environmental sustainability, food sovereignty, social justice and democratic participation, mutually reinforce each other. After outlining the kinds of questions that agroecological research addresses so that it can produce knowledge that informs agroecological farming practices and the long term aspiration of agroecological movements to create an alternative agricultural/food system, and then making summary remarks about methodological strategies in general, three characteristic features of some agroecological strategies are introduced and discussed. The paper concludes with comments on the value of agroecological research. © 2021 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -3748,7 +3764,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Reconfiguring Food Systems Governance: The UNFSS and the Battle Over Authority and Legitimacy</t>
+          <t>Placing the state in the contemporary food regime: uneven regulatory development in the Dominican Republic</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -3756,7 +3772,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>The UN Food Systems Summit was an ambitious and hotly contested event that brought competing approaches to global food governance into relief. In this article, we unpack the rival visions that circulate around how food systems should be governed, focusing on two issues that we feel are at the heart of these divergences: authority and legitimacy. We illustrate how both corporate-philanthropic and food sovereignty networks are struggling to establish epistemic authority of food systems as well as produce legitimacy through very different approaches to participation and accountability. © 2021, Society for International Development.</t>
+          <t>This paper interrogates the role of the state in the contemporary food regime and argues that it is best understood as the outcome of uneven regulatory development. This concept centers the ways that legacy institutions and practices of previous food regimes persist and combine with neoliberal regulation. It is developed through an in-depth case study of agro-food regulation in the Dominican Republic, focusing on domestic rice production. The analysis speaks to the possibilities and limits of progressive food sovereignty politics in contexts where states simultaneously undermine socially transformative demands and mitigate some pernicious effects of hyper-marketization to secure state legitimacy. © 2019 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -3780,15 +3796,15 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Impact evaluation based on benefit indicators (IEBBI): methodological proposal for agroecological farmers’ markets; [Evaluación del impacto basada en indicadores de beneficios (IEBBI): propuesta metodológica para mercados de productores agroecológicos]</t>
+          <t>Beyond sustainability in food systems: Perspectives from agroecology and social innovation</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Farmers’ markets represent a growing strategy for the generation of food sovereignty and sustainability; however, little is known about their impacts in economic, social and environmental terms. The objective of this research was to develop a framework that would allow determining that impact. The resulting methodological framework includes 20 indicators divided into seven groups: proximity, profitability, perceived benefits, areas of opportunity, economic impact, social impact, and environmental impact. This methodology was applied in one agroecological farmers’ market in Mexico City. Among the results, the main benefits are linked to socioeconomic interaction, while environmental impact indicators are the least considered. This methodology can guide the design, implementation, comparison, and monitoring of this type of initiative in the medium and long term. © 2021 Universidade de Brasilia. All rights reserved.</t>
+          <t>Food security faces many multifaceted challenges, with effects ranging far beyond the sectors of agriculture and food science and involving all the multiscale components of sustainability. This paper puts forward our point of view about more sustainable and responsible approaches to food production research underlying the importance of knowledge and social innovation in agroecological practices. Increased demand for food worldwide and the diversification of food choices would suggest the adoption of highly productive, but low-resilient and unsustainable food production models. However, new perspectives are possible. These include the revitalization and valorization of family-based traditional agriculture and the promotion of diversified farming systems as a social and economic basis to foster social-ecological conversion. Additionally, they encompass the forecasting of the Participatory Guarantee Systems (PGS) and the drafting of a new agenda for food sovereignty. Thanks to a desk analysis, the study describes and discusses these perspectives, their trajectories and action research implications. The results suggest the need to adopt a more inclusive and systemic approach to the described problems, as the solutions require the promotion of responsibility within decision makers, professionals and consumers. This appears essential for reading, analyzing and understanding the complex ecological-functional, social and economic relations that characterize farming systems, as well as mobilizing local communities. © 2020 by the authors.</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -3812,7 +3828,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Rethinking conventionalisation: A view from organic agriculture in the Global South</t>
+          <t>Does the Arab region have an agrarian question?</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -3820,16 +3836,14 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>The so-called conventionalisation of organic farming debate revolves around tensions between organic agriculture as an alternative to the dominant agri-food system and the rise of organic agribusiness. A contested issue is the conceptualisation and assessment of the impact of capitalist expansion in the organic sector on the transformative power of alternative agriculture. This article engages with critiques on Guthman's analysis of conventionalisation and the concept of bifurcation. It brings a new perspective to the debate by introducing a case from the Global South, which reveals four different trajectories of organic agriculture development and certification in the Philippines. The expansion of organic farming differs considerably from the general representation in the conventionalisation debate. What becomes central in the debate is not agribusiness dominance but what kind of small farmers are considered the subject and object of organic agriculture development. Rather than rejecting Guthman's political economy approach for creating binary oppositions, the article expands on its analytical potential to understand the empirical heterogeneity of organic forms of production and the conditions for politics that aim to create alternative economic spaces. © 2021 The Authors</t>
+          <t>Discussion on food sovereignty and agro-ecology, and Anglophone rural sociology have blind spots when it comes to the Middle East/North African (Arab) region. This article explores them; outlines some initial concepts, discusses avenues for research, and notes some socio-political features of the region which make it distinct from others. It focuses on the necessity to include war and the national question to understand the regional agrarian question and advances and retreats in regional knowledge production. It proceeds by (1) establishing the relative absence of the region from the leading peasant studies journals; (2) synthesizing the region’s political economy and waves of knowledge production; (3) highlighting local traditions which speak to the questions of food sovereignty and agro-ecology; and (4) listing a series of theoretical, historical, and analytical avenues which remain to be addressed. © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E104" t="n">
         <v>1</v>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F104" t="n">
+        <v>1</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -3846,15 +3860,15 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Potential for food self-sufficiency improvements through indoor and vertical farming in the gulf cooperation council: Challenges and opportunities from the case of Kuwait</t>
+          <t>Competing food sovereignties: GMO-free activism, democracy and state preemptive laws in Southern Oregon</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>The countries of the Gulf Cooperation Council (GCC) are considered food secure due to their ability to import sufficient food to meet their populations’ demand, despite considerable environmental limitations to conventional agriculture. However, over-reliance on externally produced food leaves these countries vulnerable to food shortages during crises that disrupt international production and shipping. Advanced Controlled Environment Agriculture technology has the potential to improve food self-sufficiency by multiplying vegetable crop yields while optimizing efficiency of agricultural inputs and minimizing land requirements. This paper demonstrates how approximately 15 km2 of indoor farms or less than 0.1 km2 of vertical farms could reduce or eliminate the need to import six important vegetable crops in the State of Kuwait. If properly contextualized and supported by clear legislation and well-managed regulatory bodies, indoor agriculture initiatives may provide a pathway for GCC countries to reduce their dependence on imported foods and increase resilience to food supply disruption during disasters or conflict. This case study contextualizes the need for improved food self-sufficiency in light of vulnerabilities from regional and global threats, illuminates unique challenges faced by GCC countries considering adoption of the proposed technologies, and summarizes opportunities inherent in the current legal and policy framework. © 2021 by the authors. Licensee MDPI, Basel, Switzerland.</t>
+          <t>Indicators of food sovereignty and food democracy center on people having the right and ability to define their food polices and strategies with respect to food culture, food security, sustainability and use of natural resources. Yet food sovereignty, like democracy, exists on multiple and competing scales, and policymakers and citizens often have different agendas and priorities. In passing a ban on the use of genetically-modified (GMO) seeds in agriculture, Jackson County, Oregon has obtained some measure of food sovereignty. Between 2016 and 2017 ethnographic research was undertaken in rural Southern Oregon where local community and State of Oregon priorities regarding the use of GMO crops are in conflict. This article presents ethnographic research findings about the expression and negotiation of multiple food sovereignties by civil society in rural southern Oregon and the State of Oregon via democratic processes. In particular, these findings illustrate the effects of socio-political power dynamics on local and state acts of food sovereignty, democracy and agrifood policy by analyzing what the different expressions of food sovereignty reveal for its implementation at the local level. © 2020, Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -3878,15 +3892,15 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>The power to convene: making sense of the power of food movement organizations in governance processes in the Global North</t>
+          <t>Food sovereignty and neo-extractivism: limits and possibilities of an alternative development model</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Dominant food systems, based on industrial methods and corporate control, are in a state of flux. To enable the transition towards more sustainable and just food systems, food movements are claiming new roles in governance. These movements, and the initiatives they spearhead, are associated with a range of labels (e.g., food sovereignty, food justice, and community food security) and use a variety of strategies to enact change. In this paper, we use the concept of relational fields to conduct a post-hoc analysis of nine cases, examining how social movement organizations and other actors actively create new deliberative governance spaces. We argue that successes are related to the “power to convene,” a process-oriented approach that increases movements’ capacity to mobilize; leverage different types of power; and integrate, coordinate, and build a systems-oriented vision. The power to convene and create deliberative spaces is demonstrated in a variety of contexts and often results in outcomes that further movement aims, including policy change and repositioning food movement actors vis-à-vis others in the field. Our findings suggest that success is not only measured as policy outcomes, but as an advantageous repositioning of social movement actors that enables them to be part of governance processes beyond simple policy advocacy. © 2020, Springer Nature B.V.</t>
+          <t>Food sovereignty and neo-extractivism are two highly contentious concepts that have emerged in the development studies literature and as development alternatives pursued predominantly by governments in Latin America. This paper engages with both Critical Development Studies (CDS) and Critical Globalization Studies (CGS) to analyze the dynamics of this post-neoliberal model in Bolivia, providing insights into the convergences and contradictions of neo-extractivism and food sovereignty. Rather than challenging or transforming the neoliberal model of development, it is argued that the post-neoliberal model has been used strategically by states to gain and maintain legitimacy while facilitating and even exacerbating exploitative forms of extractivism for the accumulation of wealth and power. This has been possible, in part, due to the contradictory class positions that have materialized as the rural poor are increasingly dependent upon, and adversely incorporated into, new ‘modes of extraction’. © 2019 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -3910,7 +3924,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Convivial Agriculture: Evolving Food and Farming Activism in South China</t>
+          <t>The Revolutionary Potential of Food Sovereignty: Applying Lenin’s Insights on Dialectics, the State, and Political Action</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -3918,16 +3932,14 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>The Chinese community-supported agriculture (CSA) movement is notable for advocating a revival of peasant farming and food sovereignty. For the emerging food politics in China, the main focus is the promotion of “ethical” food in the context of food scares. Currently this promotion often relies overwhelmingly on an emphasis of ethics of trust through certification of food by intermediaries. Yet, there is controversy among CSA activists, who question whether a certifying practice can improve the relationship between consumer and producer. This paper will present an emerging alternative approach within Chinese CSA circles that focuses on strengthening participatory culture within the consumer-producer nexus. To do so, I will shed new light on the experience of food and farming activism in South China since the late 1990s. The main focus is an empirical study of Chengxianghui (CXH), an organisation that operates various consumer-led action groups in Guangzhou. In order to conceptualise the approach by the activists, this paper outlines a normative framework referred to as “convivial agriculture” that is based on the Guangdongbased practice of the Participatory Guarantee System (PGS). The framework aims to recognise and negotiate responsibilities among different actors caring for the “agricultural commons.” © 2021. China Perspectives. All Rights Reserved.</t>
+          <t>This essay elaborates a conception of sovereignty that highlights its revolutionary potential. Its argument addresses the nature of different movement strategies in the ongoing struggle for food sovereignty and how movements ought to confront the state while simultaneously using it to create a transformative, potentially anticapitalist form of governance. This claim is built from critiques of the state and sovereignty in studies of radical democracy. The essay then presents how Lenin connects sovereignty to proletarian governance. A revolutionary conception of sovereignty, developed by placing discussions of Lenin’s work in dialogue with practices of food sovereignty, is found in collective political action that suspends state power and challenges private property to create alternative economic and noneconomic forms of organization. This dialectical rendering of sovereignty entails constructing a new order by simultaneously conflicting with and acting through the existing one. © 2021 Association for Economic and Social Analysis.</t>
         </is>
       </c>
       <c r="E107" t="n">
         <v>1</v>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F107" t="n">
+        <v>1</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -3944,15 +3956,15 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Caliata: An Indigenous Community in Ecuador Offers Lessons on Food Sovereignty and Sustainable Diets</t>
+          <t>The Right to Seeds and Legal Mobilization for the Protection of Peasant Seed Systems in Mali</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Background: To achieve a healthy sustainable food system globally, it is imperative to understand how local food systems can provide healthy and sustainable conditions. Objective: To explore, through the indigenous community of Caliata in the Ecuadorian highlands, the factors that support or hinder sustainable Andean food systems. Methods: We designed a participatory mixed-methods study in Caliata (Chimborazo, Ecuador) and an inclusive and transdisciplinary research process with constant member checking. The study combined culturally validated qualitative methods (n = 49), agroecology-based site analysis, and household surveys (n = 57), including a modified 48-h recall. We used the NOVA food classification system to categorize the diet according to levels of processing and analyzed categorical and numeric data to understand the interplay of parcel size, agrodiversity, and diet diversity. Results: First, the agroecological space is defined by the stewardship of Pachamama (Mother Nature), a central role in Andean cosmovision, leading to trophic interactions and cycles characterized by a diversity of heterarchical social organizations and agroecologically useful species. Second, consistency was found in dietary patterns; all respondents consume their produce, fruits being the most popular snack (in a 24-h period, 70% reported an average of 2.2 servings), and two-thirds of households' consumption represent unprocessed or minimally processed foods. Third, gendered agriculture and population aging represent demographic challenges, while chronic health problems remain relatively infrequent compared with the general population. Fourth, food sovereignty is an ecocentric concept based on production, exchanges of seeds and produce, consumption of produce, and knowledge of how agroecological space is treated. This system represents a nutrient loop tied to a system of knowledge about how to care for soil, land, and the ecological community. Conclusions: Caliata provides important perspectives on linkages between diet, biodiversity, use of agroecological space, and rural-urban dynamics. This small indigenous community offers lessons for achieving both healthy ecosystems and food security. © 2021 The Author(s) 2021. Published by Oxford University Press on behalf of the American Society for Nutrition.</t>
+          <t>This article discusses the right to seeds and legal mobilization for the protection of peasant seed systems in Mali. It centres on the ongoing 'Seed, Norms and Peasants' process ('Semences, Normes et Paysans', SNP), the goal of which is to achieve the recognition of peasant seed systems in the law. Through the lens of human rights practice, the article explores how peasant organizations and allied NGOs have: A) converged around a shared political agenda despite initial disagreement on the role of certified seeds; b) framed the right to seeds as a collective right, grounded in customary regimes for the governance of land and natural resources; and c) engaged in dialogue with the state to push for legal reform. It further discusses processes of legal transfers and seed aid that have ushered the development of a commercial seed sector in Mali and locates peasant seed systems within the political economy of seeds in the country. © 2021 The Author(s). Published by Oxford University Press. All rights reserved.</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -3978,24 +3990,22 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Can public universities play a role in fostering seed sovereignty?</t>
+          <t>Who is resilient in Africa's Green Revolution? Sustainable intensification and Climate Smart Agriculture in Rwanda</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Across Canada and the United States, public universities were founded with a mission to contribute to broad societal well-being. Yet, the capacity of public research institutions to develop and disseminate flexible and accessible tools for resilient agriculture has been challenged in recent decades. The role of universities in advancing extractive, rather than regenerative, economies has been amplified by the privatization of public agricultural research and extension of knowledge to farmers, particularly in plant breeding and plant genetics. In this article, we examine the history of public research for seed systems in North America through a “seed regimes” framework, arguing that a narrow focus on commercialization of public research has exacerbated inequalities inherent in the founding structure of public agricultural research, including the displacement of Indigenous land and seed relations. We then discuss how community organizations are challenging the enclosure of seed through seed sovereignty organizing and freelance plant breeding, in some cases through the development of community–university partnerships based on the principles of the cocreation of knowledge. We conclude by offering a reimagined public seed research agenda that focuses on strengthening links between public research and grassroots seed movements, as an opportunity to build more resilient seed and food systems. Copyright: © 2021 The Author(s).</t>
+          <t>Under the banner of a “New Green Revolution for Africa,” agricultural intensification programs aim to make smallholder agriculture more productive as well as "climate smart". As with Green Revolutions in Asia and Mexico, agricultural innovations (hybrid seeds, agronomic engineering, market linkages,and increased use of fertilizer and pesticides) are promoted as essential catalysts of agriculture-led economic growth. Intensification programs are now frequently linked to Climate Smart Agriculture (CSA), which attempts to build resilience and reduce greenhouse gas emissions while increasing crop yields. This article considers who and what is resilient in Africa's Green Revolution. We report on a multi-season study of smallholder food producers' experiences with Rwanda's Crop Intensification Program (CIP) and related policies that aim to commercialize subsistence agriculture while implementing CSA. We suggest that there are fundamental limits to the climate resilience afforded by CSA and development efforts rooted in Green Revolution thinking. Our findings illustrate that such efforts foreground technology and management adjustments in ways that have reduced smallholder resilience by inhibiting sovereignty over land use, decreasing livelihood flexibility, and constricting resource access. We put forth that rural development policies could better promote climate-resilient livelihoods through: 1) adaptive governance that enables smallholder land use decision-making; 2) support for smallholder food producers’ existing agro-ecological strategies of intensification; 3) participatory approaches to visualize and correct for inequalities in local processes of social-ecological resilence Such considerations are paramount for meeting the United Nations Sustainable Development Goals and building climate-resilient food systems. © 2020 The Authors</t>
         </is>
       </c>
       <c r="E109" t="n">
         <v>1</v>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F109" t="n">
+        <v>1</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4012,7 +4022,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Food Sovereignty for Whom? Food Poverty, Innovative Public Work Projects and the Authoritarian State</t>
+          <t>Pampean agroecologies. Instituting eco-logics of local food production; [Agroecologías pampeanas. Eco-lógicas instituyentes de producción local de alimentos]</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -4020,7 +4030,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>In Hungary, public work-based municipal projects played a major role in handling welfare challenges, such that the rise of a precarious rural underclass posited following the postsocialist disembedding of marginalised rural societies from the economy. Given the conditions of an authoritative populist state, this paper explores, using examples of case studies located in disadvantaged rural municipalities, innovative agrarian public work projects, as expressions of the relative freedom of action of local welfare states. Following the critical thinking inspired by Polányi's theory (1944), it sheds light on these efforts, from countermovements to the neo-liberal disembedding of the economy from society including theories on food sovereignty movements. Thus, it reflects upon the degree to which these agricultural activities could be seen as part of a broader countermovement to the social disintegration of nural areas that emerged in the context of the transition to capitalism. © 2021 StudienVerlag. All rights reserved.</t>
+          <t>In this paper we explore the anthropological question about “how” agroecology is produced, which will enable us to move from the inquiry into agroecology, in the singular and as a normative framework, towards agroecological practices, in the plural and anchored in the daily activities of people. We will put in the foreground the experiences of our interlocutors to characterize the ways of create and reproduce rural life and work in four establishments in the Pampas region of the province of Córdoba, Argentina, trying to mark the variability between them, as well as to extract some premises that constitute the logic that organizes and structures its production practices. It was identified that they operate an agro-eco-logic that puts the relations between species and entities in the primary activity at the center and allows to show a co-production of food. That network of relationships is a condition of possibility so that they can resist and exist, to create ways of living and working on the margins of agribusiness hegemony. Finally, we will reflect on the relationships that are established between agroecology and agribusiness. © 2021</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -4044,7 +4054,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>The unwanted heritage of prefabricated wartime air raid shelters—underground space regeneration feasibility for urban agriculture to enhance neighbourhood community engagement</t>
+          <t>COVID-19 impacts on agriculture and food systems in Nepal: Implications for SDGs</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -4052,14 +4062,16 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>The article deals with the problematic heritage associated with the system of Nazi German underground air raid shelters currently located within the Polish state, in the Baltic port city of Szczecin. The unwanted heritage has been inventoried, archival materials collected, and comparative analyses made of ways in which the underground space can be revitalised. An attempt was made to develop a typology of existing shelters and their locations. In order to overcome the negative associations with the warlike military space, positive system solutions were sought for the productive use of existing concrete structures located underground in central, easily accessible areas of the city districts. A process of upcycling the space was used to make ecologically efficient use of the material resources contained in the shelters. In order to activate the local community, a modular, hydroponic plant-growing system, adapted to the prefabricated spaces of the historical air raid shelters, was proposed. In this way, the central location of the underground structures within the boundaries of residential neighbourhoods was exploited. Such action strengthens the food sovereignty of the inhabitants, initiates bottom-up activity within the boundaries of the neighbourhood unit, and builds social ties in the spirit of a regenerative economy and positive sustainability. © 2021 by the authors. Licensee MDPI, Basel, Switzerland.</t>
+          <t>The objective of this study was to understand the impacts of COVID-19 crisis in agriculture and food systems in Nepal and assess the effectiveness of measures to deal with this crisis. The study draws policy implications, especially for farming systems resilience and the achievement of SDGs 1 and 2. The findings are based on (i) three panel discussions over six months with policy makers and experts working at grassroots to understand and manage the crisis, (ii) key informants' interviews, and (iii) an extensive literature review. Results revealed that the lockdown and transport restrictions have had severe consequences, raising questions on the achievement of SDGs 1 and 2, especially in the already vulnerable regions dependent on food-aid. This crisis has also exposed the strengths and limitations of both subsistence and commercial farming systems in terms of resiliency, offering important lessons for policy makers. Traditional subsistence farming appears to be somewhat resilient, with a potential to contribute to key pillars of food security, especially access and stability, though with limited contributions to food availability because of low productivity. On the other hand, commercial farming - limited to the periphery of market centres, cities, and emerging towns and in the accessible areas - was more impacted due to the lack of resilient supply networks to reach even the local market. Lower resiliency of commercial farming was also evident because of its growing dependence on inputs (mainly seeds and fertilizer) on distant markets located in foreign countries. The observation of crisis over eight months unleashed by the pandemic clearly revealed that wage labourers, indigenous people, and women from marginalized groups and regions already vulnerable in food security and malnutrition suffered more due to COVID-19 as they lost both external support and the coping mechanisms. The findings have implications for policies to improve both subsistence and commercial farming systems – in particular the former by improving the productivity through quality inputs and by diversifying, promoting and protecting the indigenous food system, while the latter through sustainable intensification by building reliant supply network linking farming with markets and guarantying the supply of inputs. © 2020</t>
         </is>
       </c>
       <c r="E111" t="n">
         <v>1</v>
       </c>
-      <c r="F111" t="n">
-        <v>1</v>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4076,7 +4088,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>The methodological strategies of agroecological research and the values with which they are linked</t>
+          <t>Opportunities and barriers in diversified farming and the use of agroecological principles in the Global North–The experiences of Danish biodynamic farmers</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -4084,7 +4096,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>The characteristic features of some of the methodological strategies adopted in scientific research in agroecology are discussed. They reflect that agroecology, as an approach to scientific research, is inextricably entangled with the other strands of agroecology (farming practice, social movement, political project); and that adopting agroecological strategies, and upholding the values of environmental sustainability, food sovereignty, social justice and democratic participation, mutually reinforce each other. After outlining the kinds of questions that agroecological research addresses so that it can produce knowledge that informs agroecological farming practices and the long term aspiration of agroecological movements to create an alternative agricultural/food system, and then making summary remarks about methodological strategies in general, three characteristic features of some agroecological strategies are introduced and discussed. The paper concludes with comments on the value of agroecological research. © 2021 Elsevier Ltd</t>
+          <t>Diversification through agroecological principles may maintain and stabilize yields in an increasingly more unpredictable climate, including market price fluctuations, as well as preserve and enhance the threatened natural resource base and the environment. Based on a participatory interview process this article identifies the barriers encountered by a group of Danish biodynamic farmers striving for self-sufficient farm systems with no or very little dependency on imported materials by developing biologically, economically and socially diverse farms. Through an iterative interview process the study found that barriers outside farm management are hindering the transition toward diverse farming and that a further exploration of the need for and implications of food sovereignty in the Global North might generate the discussions needed to support implementation of more agroecological farming system practises. © 2020 The Author(s). Published with license by Taylor &amp; Francis Group, LLC.</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -4108,22 +4120,24 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Placing the state in the contemporary food regime: uneven regulatory development in the Dominican Republic</t>
+          <t>No land for food: prevalence of food insecurity in ethnic communities enclosed by sugarcane monocrop in Colombia</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>This paper interrogates the role of the state in the contemporary food regime and argues that it is best understood as the outcome of uneven regulatory development. This concept centers the ways that legacy institutions and practices of previous food regimes persist and combine with neoliberal regulation. It is developed through an in-depth case study of agro-food regulation in the Dominican Republic, focusing on domestic rice production. The analysis speaks to the possibilities and limits of progressive food sovereignty politics in contexts where states simultaneously undermine socially transformative demands and mitigate some pernicious effects of hyper-marketization to secure state legitimacy. © 2019 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Objectives: To evaluate how the food systems in areas close to sugarcane monocrops influence the prevalence of food insecurity (FI) among three ethnic communities in the upper Cauca River basin of Colombia. Methods: We developed a mixed methodology study at three rural zones located in the departments of Cauca and Valle del Cauca, Colombia, using a household survey to establish the level of FI, and semi-structured interviews with key community actors. Results: These three ethnic communities have a high prevalence of FI (' 70%) that was found to be associated with economic income, social security, gender, the presence of minors in the home, refrigerator in operation and ownership of the land. Loss of food sovereignty was associated with the sale and rental of land. Conclusions: The sugarcane monocrop has contributed to environmental crises, spatial confinement and sociocultural disruption in ethnic territories; by renting, selling or leasing their land to the industrial production of sugarcane, traditional practices of food production and self-consumption have been profoundly transformed. Ethnic cultures are endangered, while food security and sovereignty of indigenous and black communities have been negatively affected. © 2020, Swiss School of Public Health (SSPH+).</t>
         </is>
       </c>
       <c r="E113" t="n">
         <v>1</v>
       </c>
-      <c r="F113" t="n">
-        <v>1</v>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4140,15 +4154,15 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Beyond sustainability in food systems: Perspectives from agroecology and social innovation</t>
+          <t>Rural revitalization, scholars, and the dynamics of the collective future in China</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Food security faces many multifaceted challenges, with effects ranging far beyond the sectors of agriculture and food science and involving all the multiscale components of sustainability. This paper puts forward our point of view about more sustainable and responsible approaches to food production research underlying the importance of knowledge and social innovation in agroecological practices. Increased demand for food worldwide and the diversification of food choices would suggest the adoption of highly productive, but low-resilient and unsustainable food production models. However, new perspectives are possible. These include the revitalization and valorization of family-based traditional agriculture and the promotion of diversified farming systems as a social and economic basis to foster social-ecological conversion. Additionally, they encompass the forecasting of the Participatory Guarantee Systems (PGS) and the drafting of a new agenda for food sovereignty. Thanks to a desk analysis, the study describes and discusses these perspectives, their trajectories and action research implications. The results suggest the need to adopt a more inclusive and systemic approach to the described problems, as the solutions require the promotion of responsibility within decision makers, professionals and consumers. This appears essential for reading, analyzing and understanding the complex ecological-functional, social and economic relations that characterize farming systems, as well as mobilizing local communities. © 2020 by the authors.</t>
+          <t>Rural development in the Chinese state's strategy has been a changing political-economic problematic. The state has practiced a strategic essentialism with regard to ‘peasantry.' It has actively taken ‘peasantry' as a temporary unifying master-category while at the same time working with the differences within the category for the long-term goal of transformation. The post-Mao contradiction, emphasizing the protection of the ‘peasantry’ while encouraging differentiation, offers contemporary struggles both opportunity and frustration. This essay examines how the rural has been conceptualized in reform-era policies and discusses two cases of scholar activism, the rural reconstruction movement and the food sovereignty network in China. © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -4172,22 +4186,24 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Does the Arab region have an agrarian question?</t>
+          <t>The many meanings of organic farming: framing food security and food sovereignty in Indonesia</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Discussion on food sovereignty and agro-ecology, and Anglophone rural sociology have blind spots when it comes to the Middle East/North African (Arab) region. This article explores them; outlines some initial concepts, discusses avenues for research, and notes some socio-political features of the region which make it distinct from others. It focuses on the necessity to include war and the national question to understand the regional agrarian question and advances and retreats in regional knowledge production. It proceeds by (1) establishing the relative absence of the region from the leading peasant studies journals; (2) synthesizing the region’s political economy and waves of knowledge production; (3) highlighting local traditions which speak to the questions of food sovereignty and agro-ecology; and (4) listing a series of theoretical, historical, and analytical avenues which remain to be addressed. © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>This paper contributes to the discourse on food policy, particularly in relation to organic farming in Indonesia. Organic farming was first adopted by non-state actors in Indonesia, by faith-based organisations and then by small farmer associations, while the state support for organic agriculture followed at a later date. The three groups, represented in this study by three case studies, adopt different positions with regard to the definition of organic agriculture and its relevance to food self-sufficiency, food security and food sovereignty. For Bina Sarana Bhakti Foundation (BSB), organic farming is both a spiritual worldview and a practical philosophy. For the Indonesian Peasant Union (SPI), organic agriculture foremost is a political tool to resist global capitalist agriculture. Despite their very different outlooks, both these two civil society organisations see organic agriculture as a post-materialist enterprise directed towards explicitly social-political goals. By contrast, the government’s engagement in organic agriculture, although laced with evocative phrases such as “back to nature”, is driven primarily by visions of developing a new niche market for Indonesian exports. The Indonesian State adopts a one-dimensional productivist definition that excludes different meanings and traditions of organic farming. The reduction of the meaning of ‘organic’ to ‘organically certified products’ excludes farmers who consider that they are practicing organic agriculture. We conclude that there is a strong case to be made that the State should relax its regulatory grip on the organic sector, to create room for sorely needed innovation and cooperation among the different actors involved. © 2019, The Author(s).</t>
         </is>
       </c>
       <c r="E115" t="n">
         <v>1</v>
       </c>
-      <c r="F115" t="n">
-        <v>1</v>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4204,7 +4220,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Mainstreaming agricultural biodiversity in traditional production landscapes for sustainable development: The Indian scenario</t>
+          <t>Transition to agroecology for improved food security and better living conditions: case study from a family farm in Pinar del Río, Cuba</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -4212,7 +4228,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Mainstreaming biodiversity in production landscapes ensures conservation and sustainable use of agricultural biodiversity, the key objectives of the Convention on Biological Diversity (CBD) and the projects supported by the United Nations Environment Program (UNEP) Global Environment Facility (GEF). Mainstreaming integrates biodiversity in existing or new programs and policies, both cross‐sectoral and sector‐specific. The conventional model of agricultural production with limited diversity in production systems and use of high chemical input has taught us a valuable lesson as it is adversely impacting the environment, the essential ecosystem services, the soil health and the long term sustainability of our food systems. Using a qualitative participant observation approach, our study investigated four distinct traditional Indian production landscapes to gage (i) the farming communities’ response to institutional policies, programs and agricultural biodiversity‐related activities in traditional Indian production landscapes and (ii) opportunities and challenges for sustainable development in smallholder traditional Indian farming systems. Results indicate that the top‐down decision‐making regime is the least effective towards achieving sustainable development in traditional Indian farming landscapes and that farmers’ experiential knowledge on participatory biodiversity management, maintenance and use for sustainable development are of critical importance to India’s agriculture and economy. Reclaiming agriculture’s spiritual roots through organic farming and locally grown food emerged as key, including the need for designing and implementing a more sovereign food system. Revisiting traditional smallholder farming under the COVID‐19 pandemic and lessons learned for repurposing India’s agricultural policy are also highlighted. © 2020 by the authors. Licensee MDPI, Basel, Switzerland.</t>
+          <t>The process of transition to agroecology of family farms is a topic of great importance in Cuba and the need to support family farming is gaining worldwide attention, while agroecology has been recognized as the most promising approach for the sustainable development of smallholder farmers. This work analyzes the process of agroecological conversion implemented by a family farm in western Cuba, highlighting the causes that enabled the process of transition and examining its effects on the family’s food security and livelihoods. The study shows how all the four aspects of food security–availability, access, stability, and utilization–have improved after the transition to agroecology, while positive impacts are also registered in soil quality, environmental sustainability, and resilience. From the point of view of economic sustainability, the transition has had high costs at the beginning but, after three years, agroecological production is resulting in increased income and better living conditions. The work also suggests actions to be implemented in order to advance in the process of transition to agroecology and hence achieve full food sovereignty. © 2020 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -4236,15 +4252,15 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Competing food sovereignties: GMO-free activism, democracy and state preemptive laws in Southern Oregon</t>
+          <t>Agroholdings, Technology, And The PoliTicAl economy of russiAn AgriculTure</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Indicators of food sovereignty and food democracy center on people having the right and ability to define their food polices and strategies with respect to food culture, food security, sustainability and use of natural resources. Yet food sovereignty, like democracy, exists on multiple and competing scales, and policymakers and citizens often have different agendas and priorities. In passing a ban on the use of genetically-modified (GMO) seeds in agriculture, Jackson County, Oregon has obtained some measure of food sovereignty. Between 2016 and 2017 ethnographic research was undertaken in rural Southern Oregon where local community and State of Oregon priorities regarding the use of GMO crops are in conflict. This article presents ethnographic research findings about the expression and negotiation of multiple food sovereignties by civil society in rural southern Oregon and the State of Oregon via democratic processes. In particular, these findings illustrate the effects of socio-political power dynamics on local and state acts of food sovereignty, democracy and agrifood policy by analyzing what the different expressions of food sovereignty reveal for its implementation at the local level. © 2020, Springer Nature B.V.</t>
+          <t>Research for this article was conducted with the support of the Swiss National Science Foundation, the Swedish Collegium for Advanced Studies, and the University of Notre Dame. This article details the rise of Russian agricultural corporations, known as the agroholdings. These companies have accumulated control of Russia’s most fertile land over the last 20 years and have become the main producers of agricultural commodities and processed food. They are also the driving force of a profound technological transformation of agriculture and food production during this time. A core claim of this article is that the technopolitics of twenty-first-century Russian agriculture made the meteoric rise of agroholdings possible. Technology was central to both the economic and political roles of these large, vertically integrated agricultural conglomerates. Agroholdings grew rapidly because they adopted cutting-edge agricultural technologies that maximized yields and economic efficiency. Agroholdings’ control of technologies earned them, in turn, the political support they needed to thrive in the state capitalist system of the Putin era. They were privileged allies of President Vladimir Putin’s government, which sought to enlist them for the political goals of strengthening domestic farming and food production and reducing Russia’s dependence on food imports. More broadly, the article suggests that a technopolitical lens recasts and improves our understanding of the political economy of post-Soviet Russia. Technopolitics reveals the role of both the state and corporate actors, of power and capital, in the construction of a new economic order and draws attention to how these processes shape post-Soviet byt. © Laboratorium: Russian Review of Social Research</t>
         </is>
       </c>
       <c r="E117" t="n">
@@ -4268,7 +4284,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Food sovereignty and neo-extractivism: limits and possibilities of an alternative development model</t>
+          <t>Achieving Food Security Through Localisation, Not Aid: “De-development” and Food Sovereignty in the Palestinian Territories</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -4276,7 +4292,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Food sovereignty and neo-extractivism are two highly contentious concepts that have emerged in the development studies literature and as development alternatives pursued predominantly by governments in Latin America. This paper engages with both Critical Development Studies (CDS) and Critical Globalization Studies (CGS) to analyze the dynamics of this post-neoliberal model in Bolivia, providing insights into the convergences and contradictions of neo-extractivism and food sovereignty. Rather than challenging or transforming the neoliberal model of development, it is argued that the post-neoliberal model has been used strategically by states to gain and maintain legitimacy while facilitating and even exacerbating exploitative forms of extractivism for the accumulation of wealth and power. This has been possible, in part, due to the contradictory class positions that have materialized as the rural poor are increasingly dependent upon, and adversely incorporated into, new ‘modes of extraction’. © 2019 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Food aid is a common response to the food insecurity brought by conflict and inadequate development. Yet the very well-intentioned actions that are meant to stave off immediate humanitarian crises may, in the long-term, serve as tools that promote dependence, decrease the likelihood of sustainable development, and make peace less possible. In this article, I examine food insecurity and food aid in the conflict-affected Palestinian territories. I will describe ways in which Palestinian efforts to localise food production and increase food security are actively hindered, as well as how the system of humanitarian food assistance meant to fill these gaps may in fact perpetuate them. Finally, I discuss policy recommendations for stakeholders in the conflict that can encourage Palestinian food sovereignty in a manner that increases prospects for long-term peace and development, while providing immediate benefits for Palestinian quality of life and well-being. © The Author(s) 2020.</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -4300,15 +4316,15 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>The Revolutionary Potential of Food Sovereignty: Applying Lenin’s Insights on Dialectics, the State, and Political Action</t>
+          <t>Policy pitfalls and the attempt to institutionalize agroecology in El Salvador 2008-2018</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>This essay elaborates a conception of sovereignty that highlights its revolutionary potential. Its argument addresses the nature of different movement strategies in the ongoing struggle for food sovereignty and how movements ought to confront the state while simultaneously using it to create a transformative, potentially anticapitalist form of governance. This claim is built from critiques of the state and sovereignty in studies of radical democracy. The essay then presents how Lenin connects sovereignty to proletarian governance. A revolutionary conception of sovereignty, developed by placing discussions of Lenin’s work in dialogue with practices of food sovereignty, is found in collective political action that suspends state power and challenges private property to create alternative economic and noneconomic forms of organization. This dialectical rendering of sovereignty entails constructing a new order by simultaneously conflicting with and acting through the existing one. © 2021 Association for Economic and Social Analysis.</t>
+          <t>This paper analyzes the experience of the Salvadoran cooperative movement in pursuing a political project for the institutionalization of agroecology in the years 2008–2018, under two consecutive FMLN governments in 2009 and 2014. Following El Salvador’s “turn to the left”, Salvadoran agrarian reform cooperatives and civil society allies began to allocate organizational resources toward writing public policy measures to incorporate agroecology under the FMLN government’s agricultural social program, the Family Agriculture Plan (PAF). While the cooperative sector took part in active negotiations with the FMLN party for the institutionalization of favorable policies, the former guerrilla party formulized strategies for gaining a multiclass electorate in order to remain in power. With the intention to better understand the attitude and distinct Salvadoran actors, we utilize an anthropology of public policy framework to indicate how expectations of political party legitimacy failed to shape the institutionalization of agroecology in El Salvador. We suggest that the pursuit of agroecological policies is a balancing act of making use of the State to strengthen on the ground efforts without forging organizational disarticulation following changes in government administrations. © 2020, © 2020 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E119" t="n">
@@ -4332,15 +4348,15 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>The Right to Seeds and Legal Mobilization for the Protection of Peasant Seed Systems in Mali</t>
+          <t>Losing practices, relationships and agency: ecological deskilling as a consequence of the uptake of modern seed varieties among South African Smallholders</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>This article discusses the right to seeds and legal mobilization for the protection of peasant seed systems in Mali. It centres on the ongoing 'Seed, Norms and Peasants' process ('Semences, Normes et Paysans', SNP), the goal of which is to achieve the recognition of peasant seed systems in the law. Through the lens of human rights practice, the article explores how peasant organizations and allied NGOs have: A) converged around a shared political agenda despite initial disagreement on the role of certified seeds; b) framed the right to seeds as a collective right, grounded in customary regimes for the governance of land and natural resources; and c) engaged in dialogue with the state to push for legal reform. It further discusses processes of legal transfers and seed aid that have ushered the development of a commercial seed sector in Mali and locates peasant seed systems within the political economy of seeds in the country. © 2021 The Author(s). Published by Oxford University Press. All rights reserved.</t>
+          <t>Technological changes embedded in the processes of agrarian modernization have profoundly reshaped agricultural environments, practices, discourses and institutions worldwide. This article explores how social–ecological relations shift in agricultural practices following the introduction of modern seed varieties, including hybrid and genetically modified (GM) seeds and their co-technologies. Drawing on interviews and ethnographic work in smallholder maize farms in South Africa, we introduce the concept of ecological deskilling in agriculture and describe three dimensions related to it: loss of ecologically based practices, loss of relational knowledge, and loss of socio-ecological agency. Our findings suggest that the introduction of modern seed varieties may contribute to the process of ecological deskilling due to the disruption of the co-evolution of knowledge between smallholder farmers and agroecological environments. We argue that this form of deskilling can undermine food sovereignty and farmers’ agency. It can also narrow future possibilities and pathways for sustainable agricultural development. © 2021 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -4366,7 +4382,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Who is resilient in Africa's Green Revolution? Sustainable intensification and Climate Smart Agriculture in Rwanda</t>
+          <t>Farmer-plant-breeders and the law on Java, Indonesia</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -4374,14 +4390,16 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Under the banner of a “New Green Revolution for Africa,” agricultural intensification programs aim to make smallholder agriculture more productive as well as "climate smart". As with Green Revolutions in Asia and Mexico, agricultural innovations (hybrid seeds, agronomic engineering, market linkages,and increased use of fertilizer and pesticides) are promoted as essential catalysts of agriculture-led economic growth. Intensification programs are now frequently linked to Climate Smart Agriculture (CSA), which attempts to build resilience and reduce greenhouse gas emissions while increasing crop yields. This article considers who and what is resilient in Africa's Green Revolution. We report on a multi-season study of smallholder food producers' experiences with Rwanda's Crop Intensification Program (CIP) and related policies that aim to commercialize subsistence agriculture while implementing CSA. We suggest that there are fundamental limits to the climate resilience afforded by CSA and development efforts rooted in Green Revolution thinking. Our findings illustrate that such efforts foreground technology and management adjustments in ways that have reduced smallholder resilience by inhibiting sovereignty over land use, decreasing livelihood flexibility, and constricting resource access. We put forth that rural development policies could better promote climate-resilient livelihoods through: 1) adaptive governance that enables smallholder land use decision-making; 2) support for smallholder food producers’ existing agro-ecological strategies of intensification; 3) participatory approaches to visualize and correct for inequalities in local processes of social-ecological resilence Such considerations are paramount for meeting the United Nations Sustainable Development Goals and building climate-resilient food systems. © 2020 The Authors</t>
+          <t>In the last two decades, some Javanese rice farmers have learned to be plant breeders with the help of Farmer Field Schools for Participatory Plant Breeding. However, they have experienced problems with seed and intellectual property laws primarily focused on the strengthening of the seed industry and compliance with development plans. A number of farmers have been prosecuted for experimenting with seeds, prompting a partly successful challenge to relevant provisions in Indonesia’s Constitutional Court. Subsequent legislative changes have restored some farmers’ rights, but also brought new reporting requirements and limitations. Using James Scott’s concept of “transformative state simplifications,” this article shows that legal challenges to regulations are just one strategy of self-help. The political reform process and possibility for constitutional challenges have opened up space for debates about how farmers can benefit from laws that seek to regulate their cultivars. The United Nations Declaration on the Rights of Peasants and other developments are likely to intensify discussions about what precisely various laws mean by their encouragement of “small farmer varieties,” “food sovereignty,” and a “sustainable agricultural cultivation system.”. © 2020 BCAS, Inc.</t>
         </is>
       </c>
       <c r="E121" t="n">
         <v>1</v>
       </c>
-      <c r="F121" t="n">
-        <v>1</v>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4398,7 +4416,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Pampean agroecologies. Instituting eco-logics of local food production; [Agroecologías pampeanas. Eco-lógicas instituyentes de producción local de alimentos]</t>
+          <t>Land grabs, farmworkers, and rural livelihoods in West Africa: some silences in the food sovereignty discourse</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -4406,7 +4424,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>In this paper we explore the anthropological question about “how” agroecology is produced, which will enable us to move from the inquiry into agroecology, in the singular and as a normative framework, towards agroecological practices, in the plural and anchored in the daily activities of people. We will put in the foreground the experiences of our interlocutors to characterize the ways of create and reproduce rural life and work in four establishments in the Pampas region of the province of Córdoba, Argentina, trying to mark the variability between them, as well as to extract some premises that constitute the logic that organizes and structures its production practices. It was identified that they operate an agro-eco-logic that puts the relations between species and entities in the primary activity at the center and allows to show a co-production of food. That network of relationships is a condition of possibility so that they can resist and exist, to create ways of living and working on the margins of agribusiness hegemony. Finally, we will reflect on the relationships that are established between agroecology and agribusiness. © 2021</t>
+          <t>The global land rush has spurred small, modest, and big anti-land grab mobilizations, notably the food sovereignty movement. The movement has been instrumental in representing the interests of small-scale family farmers whose livelihoods are threatened by capitalist control over land in the countryside. However, this dominant narrative tends to overlook or de-emphasize some important diversity within the peasantry. In West Africa, anti-land grab discourses emphasize family farming as a major collective action frame, focusing less on issues related to agricultural wage labour–farmworkers’ access to land, food, and decent working conditions. If food sovereignty is to fully realize its potential power as a counter-narrative to neoliberalism, and as a possible democratic alternative for working people with differentiated and at times competing socio-economic interests, then demands that adequately reflect the agrarian struggles of the rural working people have to be put onto the agenda and engaged better than it is now. © 2020 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E122" t="n">
@@ -4430,24 +4448,22 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>COVID-19 impacts on agriculture and food systems in Nepal: Implications for SDGs</t>
+          <t>Agro-ecological transition of agricultural production systems at imbabura province of Ecuador; [Transição agroecológica de sistemas de produção agrícola na província de imbabura Equador]; [Transición agroecológica de los sistemas de producción agrícola de la provincia de imbabura Ecuador]</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>The objective of this study was to understand the impacts of COVID-19 crisis in agriculture and food systems in Nepal and assess the effectiveness of measures to deal with this crisis. The study draws policy implications, especially for farming systems resilience and the achievement of SDGs 1 and 2. The findings are based on (i) three panel discussions over six months with policy makers and experts working at grassroots to understand and manage the crisis, (ii) key informants' interviews, and (iii) an extensive literature review. Results revealed that the lockdown and transport restrictions have had severe consequences, raising questions on the achievement of SDGs 1 and 2, especially in the already vulnerable regions dependent on food-aid. This crisis has also exposed the strengths and limitations of both subsistence and commercial farming systems in terms of resiliency, offering important lessons for policy makers. Traditional subsistence farming appears to be somewhat resilient, with a potential to contribute to key pillars of food security, especially access and stability, though with limited contributions to food availability because of low productivity. On the other hand, commercial farming - limited to the periphery of market centres, cities, and emerging towns and in the accessible areas - was more impacted due to the lack of resilient supply networks to reach even the local market. Lower resiliency of commercial farming was also evident because of its growing dependence on inputs (mainly seeds and fertilizer) on distant markets located in foreign countries. The observation of crisis over eight months unleashed by the pandemic clearly revealed that wage labourers, indigenous people, and women from marginalized groups and regions already vulnerable in food security and malnutrition suffered more due to COVID-19 as they lost both external support and the coping mechanisms. The findings have implications for policies to improve both subsistence and commercial farming systems – in particular the former by improving the productivity through quality inputs and by diversifying, promoting and protecting the indigenous food system, while the latter through sustainable intensification by building reliant supply network linking farming with markets and guarantying the supply of inputs. © 2020</t>
+          <t>Transitional processes from conventional agricultural systems to agro ecological production systems has been promoted at Imbabura province in Ecuador, but development difficulties have been observed, due to farmer’s decisions for embracing transition, depends not only on the technology and local resources available, but also on several aspects of the surrounding social, economic and institutional system. A research was conducted, in order to characterize the transitional agro ecological degree of production systems at Imbabura province, regarding the social cooperation activity, the natural resources management and the public policies dynamics, A stratified random sample of 50 producers was taken, to whom a questionnaire was applied. Data was analyzed by descriptive statistics. Cramer test was used to determine the relationships of each item to municipalities. Results showed that, in social dynamics, there is a high degree of trust, participation and reciprocity but it is necessary to strengthen exchange networks, also, it was observed a high degree of agro ecological and conservationist practices. Agro ecological transition is limited by public policy dynamics because there are no incentive programs and also there are few institutional incentives to support agro ecological work, even though it is established by the current Food sovereignty law. Participation and used of self-harvest seeds were related to municipality. Otavalo is the municipality that displays greater dynamism and progress in the process of agro-ecological transition. © 2020, Universidad del Zulia. All rights reserved.</t>
         </is>
       </c>
       <c r="E123" t="n">
         <v>1</v>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F123" t="n">
+        <v>1</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4464,15 +4480,15 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Opportunities and barriers in diversified farming and the use of agroecological principles in the Global North–The experiences of Danish biodynamic farmers</t>
+          <t>Practices of Food Sovereignty in Italy and England: Short Food Supply Chains and the Promise of De-Commodification</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Diversification through agroecological principles may maintain and stabilize yields in an increasingly more unpredictable climate, including market price fluctuations, as well as preserve and enhance the threatened natural resource base and the environment. Based on a participatory interview process this article identifies the barriers encountered by a group of Danish biodynamic farmers striving for self-sufficient farm systems with no or very little dependency on imported materials by developing biologically, economically and socially diverse farms. Through an iterative interview process the study found that barriers outside farm management are hindering the transition toward diverse farming and that a further exploration of the need for and implications of food sovereignty in the Global North might generate the discussions needed to support implementation of more agroecological farming system practises. © 2020 The Author(s). Published with license by Taylor &amp; Francis Group, LLC.</t>
+          <t>Alternative food networks are organisations of consumers and food producers that oversee and promote the functioning of short food supply chains, with the aim of fostering a direct and local exchange between producers and consumers. New short-chain economic infrastructures provide food producers – especially small-scale farmers – with a whole new set of commercial opportunities, directed towards the construction of an alternative food economy. But how does value circulate within these innovative economic platforms? And what values are debated, negotiated and exchanged through these circuits? Employing the analytical lenses of de-commodification and embeddedness, this article discusses the modalities and outcomes of the processes of value-creation and value-appropriation that spring out of the direct exchange occurring between consumers and food producers in the alternative food economy. Based on empirical data collected through extensive qualitative field research in Italy and England, the article exposes the dynamics and limits of the on-going processes of de-commodification, proposing an analysis centred on the concept of ‘partial’ de-commodification. This conceptual tool is used to assess the differences that emerged between the Italian and English fields, and to provide conclusive remarks about the potential of place- and culture-specific configurations of practices to advance a transformation of the food system. © 2019 The Authors. Sociologia Ruralis © 2019 European Society for Rural Sociology.</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -4496,24 +4512,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>No land for food: prevalence of food insecurity in ethnic communities enclosed by sugarcane monocrop in Colombia</t>
+          <t>The importance of vision in food system transformation</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Objectives: To evaluate how the food systems in areas close to sugarcane monocrops influence the prevalence of food insecurity (FI) among three ethnic communities in the upper Cauca River basin of Colombia. Methods: We developed a mixed methodology study at three rural zones located in the departments of Cauca and Valle del Cauca, Colombia, using a household survey to establish the level of FI, and semi-structured interviews with key community actors. Results: These three ethnic communities have a high prevalence of FI (' 70%) that was found to be associated with economic income, social security, gender, the presence of minors in the home, refrigerator in operation and ownership of the land. Loss of food sovereignty was associated with the sale and rental of land. Conclusions: The sugarcane monocrop has contributed to environmental crises, spatial confinement and sociocultural disruption in ethnic territories; by renting, selling or leasing their land to the industrial production of sugarcane, traditional practices of food production and self-consumption have been profoundly transformed. Ethnic cultures are endangered, while food security and sovereignty of indigenous and black communities have been negatively affected. © 2020, Swiss School of Public Health (SSPH+).</t>
+          <t>Despite growing calls for food system transformation, the need to develop a vision to guide that transformation is sometimes overlooked. Vision is essential to inspire, mobilize, and keep a collective of people on track toward their goals. Individual visions can be exhilarating, but the visions that create change are taken up by large groups or movements of movements. A vision is a beginning for transformation, but it requires policy that enables it to be enacted, ideally through democratic processes. The vision, buttressed by policy and democratic governance, is what determines where people are able to buy food, how much they pay, whether farmers earn decent incomes, and whether the food is healthy. Without vision, policies are likely to be incoherent or to work at cross-purposes, as has happened in the farm bill and the European Union’s Common Agricultural Policy. A range of visions generated at different scales, from autonomous community to state to region, can serve as examples for people committed to food system transformation. © 2019 by the Author.</t>
         </is>
       </c>
       <c r="E125" t="n">
         <v>1</v>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F125" t="n">
+        <v>1</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4530,15 +4544,15 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Rural revitalization, scholars, and the dynamics of the collective future in China</t>
+          <t>‘Keeping seeds in our hands’: the rise of seed activism</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Rural development in the Chinese state's strategy has been a changing political-economic problematic. The state has practiced a strategic essentialism with regard to ‘peasantry.' It has actively taken ‘peasantry' as a temporary unifying master-category while at the same time working with the differences within the category for the long-term goal of transformation. The post-Mao contradiction, emphasizing the protection of the ‘peasantry’ while encouraging differentiation, offers contemporary struggles both opportunity and frustration. This essay examines how the rural has been conceptualized in reform-era policies and discusses two cases of scholar activism, the rural reconstruction movement and the food sovereignty network in China. © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Semantic innovations like seed commons, peasant seeds and seed sovereignty are a powerful expression of what may be termed as seed activism. In this opening paper of the JPS Special Forum on Seed Activism, we explore the surge of mobilizations the world over in response to processes of seed enclosures and loss of agrobiodiversity. A historical overview of the evolution of seed activism over the past three decades traces a paradigm shift from farmers’ rights to seed sovereignty. Some of the main threats to peasant seed systems–from seed and intellectual property laws to biopiracy, corporate concentration and new genome editing technologies–are analyzed along with strategies by peasants and other activists to counter these developments. We take stock of what has been achieved so far and of the challenges ahead, and suggest some avenues for future research. © 2020, © 2020 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -4562,7 +4576,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>The many meanings of organic farming: framing food security and food sovereignty in Indonesia</t>
+          <t>Diverse seeds – shared practices: Conceptualizing seed commons</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -4570,16 +4584,14 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>This paper contributes to the discourse on food policy, particularly in relation to organic farming in Indonesia. Organic farming was first adopted by non-state actors in Indonesia, by faith-based organisations and then by small farmer associations, while the state support for organic agriculture followed at a later date. The three groups, represented in this study by three case studies, adopt different positions with regard to the definition of organic agriculture and its relevance to food self-sufficiency, food security and food sovereignty. For Bina Sarana Bhakti Foundation (BSB), organic farming is both a spiritual worldview and a practical philosophy. For the Indonesian Peasant Union (SPI), organic agriculture foremost is a political tool to resist global capitalist agriculture. Despite their very different outlooks, both these two civil society organisations see organic agriculture as a post-materialist enterprise directed towards explicitly social-political goals. By contrast, the government’s engagement in organic agriculture, although laced with evocative phrases such as “back to nature”, is driven primarily by visions of developing a new niche market for Indonesian exports. The Indonesian State adopts a one-dimensional productivist definition that excludes different meanings and traditions of organic farming. The reduction of the meaning of ‘organic’ to ‘organically certified products’ excludes farmers who consider that they are practicing organic agriculture. We conclude that there is a strong case to be made that the State should relax its regulatory grip on the organic sector, to create room for sorely needed innovation and cooperation among the different actors involved. © 2019, The Author(s).</t>
+          <t>Commons approaches in the seed sector are multi-faceted: They span from traditional seed systems, i.e. seed sharing networks, to recent anti-enclosure movements that resist intellectual property rights on varieties, like organic breeding initiatives. This paper derives a conceptualization of ‘Seed Commons’ at the local and regional level, based on a comprehensive transdisciplinary research process that integrates diverse types of knowledge, both from practitioners (German and Philippine seed initiatives, companies and NGOs), and the scientific community. As a result, we identify four core criteria that characterize diverse Seed Commons arrangements at local and regional scales: (1) collective responsibility, (2) protection from private enclosure, (3) collective, polycentric management, and (4) sharing of formal and practical knowledge. Discussing these Seed Commons criteria in the context of different Commons approaches, we find that Seed Commons transcend the distinction between traditional (natural resource) Commons and New Commons approaches, by integrating biophysical, informational and cultural elements in their collective governance. Reaching beyond resource characteristics, the Seed Commons criteria reflect practices of Commoning, which aim to fulfill social functions such as farmer empowerment and food sovereignty. © 2020 The Author(s).</t>
         </is>
       </c>
       <c r="E127" t="n">
         <v>1</v>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F127" t="n">
+        <v>1</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4596,7 +4608,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transition to agroecology for improved food security and better living conditions: case study from a family farm in Pinar del Río, Cuba</t>
+          <t>From protecting peasant livelihoods to essentializing peasant agriculture: problematic trends in food sovereignty discourse</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -4604,14 +4616,16 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>The process of transition to agroecology of family farms is a topic of great importance in Cuba and the need to support family farming is gaining worldwide attention, while agroecology has been recognized as the most promising approach for the sustainable development of smallholder farmers. This work analyzes the process of agroecological conversion implemented by a family farm in western Cuba, highlighting the causes that enabled the process of transition and examining its effects on the family’s food security and livelihoods. The study shows how all the four aspects of food security–availability, access, stability, and utilization–have improved after the transition to agroecology, while positive impacts are also registered in soil quality, environmental sustainability, and resilience. From the point of view of economic sustainability, the transition has had high costs at the beginning but, after three years, agroecological production is resulting in increased income and better living conditions. The work also suggests actions to be implemented in order to advance in the process of transition to agroecology and hence achieve full food sovereignty. © 2020 Taylor &amp; Francis.</t>
+          <t>In response to neoliberal food and agriculture policy, peasant movements fought for increased state support of the small-farm sector. Vía Campesina now proposes agroecology and localized trade as environmental solutions to the current climate crisis by advocating for the ‘peasant way.’ This discourse is problematic because peasant farmers are not inherently supportive of local, sustainable food. Drawing on ethnographic field research with indigenous peasant communities in the rural highlands of Ecuador, this article illustrates how existing peasants practice chemical-intensive, monocrop, and export-oriented production. In using peasant as an ideal type rather than an historical ethno-class, post-development scholars essentialize peasant agriculture. © 2019, © 2019 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E128" t="n">
         <v>1</v>
       </c>
-      <c r="F128" t="n">
-        <v>1</v>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4628,22 +4642,24 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Agroholdings, Technology, And The PoliTicAl economy of russiAn AgriculTure</t>
+          <t>Genetically modified crops and seed/food sovereignty in Argentina: scales and states in the contemporary food regime</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Research for this article was conducted with the support of the Swiss National Science Foundation, the Swedish Collegium for Advanced Studies, and the University of Notre Dame. This article details the rise of Russian agricultural corporations, known as the agroholdings. These companies have accumulated control of Russia’s most fertile land over the last 20 years and have become the main producers of agricultural commodities and processed food. They are also the driving force of a profound technological transformation of agriculture and food production during this time. A core claim of this article is that the technopolitics of twenty-first-century Russian agriculture made the meteoric rise of agroholdings possible. Technology was central to both the economic and political roles of these large, vertically integrated agricultural conglomerates. Agroholdings grew rapidly because they adopted cutting-edge agricultural technologies that maximized yields and economic efficiency. Agroholdings’ control of technologies earned them, in turn, the political support they needed to thrive in the state capitalist system of the Putin era. They were privileged allies of President Vladimir Putin’s government, which sought to enlist them for the political goals of strengthening domestic farming and food production and reducing Russia’s dependence on food imports. More broadly, the article suggests that a technopolitical lens recasts and improves our understanding of the political economy of post-Soviet Russia. Technopolitics reveals the role of both the state and corporate actors, of power and capital, in the construction of a new economic order and draws attention to how these processes shape post-Soviet byt. © Laboratorium: Russian Review of Social Research</t>
+          <t>With more than half of its arable land planted with genetically modified soybeans, Argentina presents a strategic research site to investigate contestations of intellectual property rights on seeds and the enclosure of seeds as common resources. In this contribution, we tackle Argentina as a case study to address three issues. First, we discuss the sweeping expansion of genetically modified crops to illustrate its associated role in (a) the conflicts, negotiations and accommodations of seed control and (b) the obstacles to food/seed sovereignty. Second, we inspect the spatial and class dynamics of these processes with the goal of making a contribution to the literature on food regimes. By looking at the regional dynamics within a nation, we seek to question the ‘methodological nationalism’ of the food regime perspective that, by and large, understands countries as units. Third, and linking the two previous points, we inspect the role of the state in struggles and negotiations over seed and food sovereignty at both the national and subnational scales. We argue that a multi-scalar approach on food/seed sovereignty struggles can provide further visibility to subordinated actors. © 2020, © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E129" t="n">
         <v>1</v>
       </c>
-      <c r="F129" t="n">
-        <v>1</v>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4660,7 +4676,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Achieving Food Security Through Localisation, Not Aid: “De-development” and Food Sovereignty in the Palestinian Territories</t>
+          <t>Local Food as Social Change: Food Sovereignty as a Radical New Ontology</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -4668,7 +4684,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Food aid is a common response to the food insecurity brought by conflict and inadequate development. Yet the very well-intentioned actions that are meant to stave off immediate humanitarian crises may, in the long-term, serve as tools that promote dependence, decrease the likelihood of sustainable development, and make peace less possible. In this article, I examine food insecurity and food aid in the conflict-affected Palestinian territories. I will describe ways in which Palestinian efforts to localise food production and increase food security are actively hindered, as well as how the system of humanitarian food assistance meant to fill these gaps may in fact perpetuate them. Finally, I discuss policy recommendations for stakeholders in the conflict that can encourage Palestinian food sovereignty in a manner that increases prospects for long-term peace and development, while providing immediate benefits for Palestinian quality of life and well-being. © The Author(s) 2020.</t>
+          <t>Local food projects are steadily becoming a part of contemporary food systems and take on many forms. They are typically analyzed using an ethical, or sociopolitical, lens. Food focused initiatives can be understood as strategies to achieve ethical change in food systems and, as such, ethics play a guiding role. But local food is also a social movement and, thus social and political theories provide unique insights during analysis. This paper begins with the position that ontology should play a more prominent part in the analysis of local food movements, as this lens could provide unique insights into basic commitments guiding such initiatives. The paper presents the argument that ontological analyses are imperative for fully understanding local food movements. It then provides an overview of the justice frameworks and ontological orientations that guide two dominant types of initiatives: Those committed to increasing food security and those committed to food sovereignty. The paper ends with the argument that food sovereignty projects are revolutionary, not only because they challenge us to change industrial food practices, but also because they are built on a radical new political ontology, and co-constitutive food-focused orientation, that forms the foundation for alternative social and political structures. © 2020 University of Sassari.</t>
         </is>
       </c>
       <c r="E130" t="n">
@@ -4692,7 +4708,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Policy pitfalls and the attempt to institutionalize agroecology in El Salvador 2008-2018</t>
+          <t>“Going local”: farmers’ perspectives on local food systems in rural Canada</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -4700,7 +4716,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>This paper analyzes the experience of the Salvadoran cooperative movement in pursuing a political project for the institutionalization of agroecology in the years 2008–2018, under two consecutive FMLN governments in 2009 and 2014. Following El Salvador’s “turn to the left”, Salvadoran agrarian reform cooperatives and civil society allies began to allocate organizational resources toward writing public policy measures to incorporate agroecology under the FMLN government’s agricultural social program, the Family Agriculture Plan (PAF). While the cooperative sector took part in active negotiations with the FMLN party for the institutionalization of favorable policies, the former guerrilla party formulized strategies for gaining a multiclass electorate in order to remain in power. With the intention to better understand the attitude and distinct Salvadoran actors, we utilize an anthropology of public policy framework to indicate how expectations of political party legitimacy failed to shape the institutionalization of agroecology in El Salvador. We suggest that the pursuit of agroecological policies is a balancing act of making use of the State to strengthen on the ground efforts without forging organizational disarticulation following changes in government administrations. © 2020, © 2020 Taylor &amp; Francis.</t>
+          <t>Amid the highly industrialized, export-focused food system of the Canadian prairies, some farmers and consumers are turning to localized agriculture as an alternative—they are “going local”. Despite farmers’ obvious importance to the food system, surprisingly little research has examined their motivations and reasons for localization. To date, most local food scholarship in North America has focused on either consumers’ motivations to buy local or the systemic aspects of local food, such as regulations, infrastructure, and marketing arrangements. Existing research suggests that local food systems are supported by consumers’ rejection of the industrial paradigm and desire to (re)connect with their food and its source. But what drives farmers to localize, particularly when export-focused production is firmly entrenched as the status quo? Based on interviews and focus groups with 60 farmers, processors, policy experts, and retailers in the Canadian prairie province of Saskatchewan, this paper examines local food systems from the producer perspective in a rural context of high industrialization and geographical dispersion. We examine what motivates farmers to produce for local markets, and what forces they must resist to do so. The findings indicate that farmers’ main motivations for localization are political and social in nature, and stem from a critique of the dominant neoliberal agri-food system. We map farmers’ agential responses to this dominant system on a spectrum that ranges from acceptance of a neoliberal “feed the world” ideology to promotion of food sovereignty. Drawing on farmers’ perspectives, our findings question the straightforward equation of local food with environmental sustainability and also challenge neoliberal economic assumptions of “scaling up”. © 2019, Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E131" t="n">
@@ -4724,24 +4740,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Losing practices, relationships and agency: ecological deskilling as a consequence of the uptake of modern seed varieties among South African Smallholders</t>
+          <t>From hoes to story-telling as "weapons of the weak": Farmers' resistance to neoliberal 2007 multi-product management stabilization plan in Japan</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Technological changes embedded in the processes of agrarian modernization have profoundly reshaped agricultural environments, practices, discourses and institutions worldwide. This article explores how social–ecological relations shift in agricultural practices following the introduction of modern seed varieties, including hybrid and genetically modified (GM) seeds and their co-technologies. Drawing on interviews and ethnographic work in smallholder maize farms in South Africa, we introduce the concept of ecological deskilling in agriculture and describe three dimensions related to it: loss of ecologically based practices, loss of relational knowledge, and loss of socio-ecological agency. Our findings suggest that the introduction of modern seed varieties may contribute to the process of ecological deskilling due to the disruption of the co-evolution of knowledge between smallholder farmers and agroecological environments. We argue that this form of deskilling can undermine food sovereignty and farmers’ agency. It can also narrow future possibilities and pathways for sustainable agricultural development. © 2021 Taylor &amp; Francis.</t>
+          <t>While neoliberalism has promoted free trade, market rule, and productivist agriculture in the food production system, farmers and their unions in developed countries partially managed to shun the forces of neoliberalism. What are the underpinning strength and factors of such resilience? Discussions have concentrated at national policy and organizational level and tacit resistance at community and farm levels remain unexplored, inter alia from their historical embeddedness perspective. This study explores the way Japanese farmers frame their contemporary political situation with neoliberalism of the late 2000s with a grounded approach of face-to-face interview at a community level. The farmers resist it mobilizing Scott's anthropological notion of "Weapons of the Weak"through story-telling instead of hoes in ancient time (Scott JC, Weapons of the weak: everyday forms of peasant resistance, 1985). In concrete, the farmers resisted a neoliberal policy of Hinmoku Odanteki Keiei Antei Taisaku, or the Multi- Product Management Stabilization Plan (MPP), in the early 2000s, which promoted larger scale farming to pursue the efficiency of scale merits. The policy was first introduced in 2005 as a concept and dominated the agricultural policy scenes from 2007 to 2009, and then its influence disappeared toward 2010. The rise and fall of the concept and policy provide us with rare opportunity to examine the historical embeddedness of the farmers and their resistance to such neoliberal globalization. We conducted interviews with the leaders of cooperative farms and stakeholders in Daisen City, Akita Prefecture, Japan; the study found that farmers' framing of neoliberalism was ambivalent causing partial adoption and resistance. The leaders of the cooperative farms could form the cooperative farms but thought further development difficult because members intended to keep their farming independent. Close frame and discourse analysis revealed that farmers in Japan could express their frustration on neoliberal discourse and policy through multiple tactics of "Weapons of the Weak"by complaining to the leaders, miscalculating the figures, or claiming family-based food sovereignty that "we produce what goes into our family mouths."Such tactics procrastinated the process and eventually stopped the policy. The incident demonstrates how farmers in the network can slow the progress of neoliberal discourse and policy implementation. From the analysis, the notion of "Weapons of the Weak"can be applied as a part of the combination with farmers' historical embeddedness, symbolism of foods, framing, and electoral resistance.  © 2020 The Author(s).</t>
         </is>
       </c>
       <c r="E132" t="n">
         <v>1</v>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F132" t="n">
+        <v>1</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -4758,7 +4772,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Farmer-plant-breeders and the law on Java, Indonesia</t>
+          <t>Alternative discourses around the governance of food security: A case study from Ethiopia</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -4766,16 +4780,14 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>In the last two decades, some Javanese rice farmers have learned to be plant breeders with the help of Farmer Field Schools for Participatory Plant Breeding. However, they have experienced problems with seed and intellectual property laws primarily focused on the strengthening of the seed industry and compliance with development plans. A number of farmers have been prosecuted for experimenting with seeds, prompting a partly successful challenge to relevant provisions in Indonesia’s Constitutional Court. Subsequent legislative changes have restored some farmers’ rights, but also brought new reporting requirements and limitations. Using James Scott’s concept of “transformative state simplifications,” this article shows that legal challenges to regulations are just one strategy of self-help. The political reform process and possibility for constitutional challenges have opened up space for debates about how farmers can benefit from laws that seek to regulate their cultivars. The United Nations Declaration on the Rights of Peasants and other developments are likely to intensify discussions about what precisely various laws mean by their encouragement of “small farmer varieties,” “food sovereignty,” and a “sustainable agricultural cultivation system.”. © 2020 BCAS, Inc.</t>
+          <t>Global discourses on the governance of food security span competing approaches. For example, a neoliberal approach advocates commercialized, industrial agriculture, while food sovereignty and resilience are part of an alternative discourse to food security that prioritizes locally-based agroecological food production. Understanding how global discourses play out locally and how they impact the environment and biodiversity is important to identify appropriate pathways towards sustainability. In addition to their effects on food security, different approaches could reinforce or impede the success of biodiversity conservation because of the strong interdependence of food security and ecosystems. We applied the Q-methodology to examine alternative approaches to food security and biodiversity conservation pursued by 50 stakeholders from local to national levels in southwestern Ethiopia. We identified four distinct approaches, focusing on (1) smallholder commercialization, (2) agroecology and resilience, (3) local economy and equity, and (4) market liberalization. All approaches prioritized smallholders, but perspectives on how to achieve food security varied. Agricultural intensification, commercialization, and profit were widely considered important, while support for agroecology and resilience was largely restricted to non-government organizations. With the exception of supporters of the agroecology and resilience approach, biodiversity conservation was considered as a secondary goal. We conclude it is important to acknowledge plurality of food security approaches because local conditions are characterized by a multiplicity of stakeholder interests, and because food security is a complex problem that requires a multidimensional approach. However, major contradictions among existing approaches need to be reconciled, and the agroecology and resilience approach should be strengthened to ensure the sustainable achievement of food security and biodiversity conservation. © 2019 Elsevier B.V.</t>
         </is>
       </c>
       <c r="E133" t="n">
         <v>1</v>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F133" t="n">
+        <v>1</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -4792,15 +4804,15 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Land grabs, farmworkers, and rural livelihoods in West Africa: some silences in the food sovereignty discourse</t>
+          <t>Interview with João Pedro Stédile, national leader of the MST–Brazil</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>The global land rush has spurred small, modest, and big anti-land grab mobilizations, notably the food sovereignty movement. The movement has been instrumental in representing the interests of small-scale family farmers whose livelihoods are threatened by capitalist control over land in the countryside. However, this dominant narrative tends to overlook or de-emphasize some important diversity within the peasantry. In West Africa, anti-land grab discourses emphasize family farming as a major collective action frame, focusing less on issues related to agricultural wage labour–farmworkers’ access to land, food, and decent working conditions. If food sovereignty is to fully realize its potential power as a counter-narrative to neoliberalism, and as a possible democratic alternative for working people with differentiated and at times competing socio-economic interests, then demands that adequately reflect the agrarian struggles of the rural working people have to be put onto the agenda and engaged better than it is now. © 2020 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>The pandemic has underlined the need to continue fighting for paradigmatic change, including toward food sovereignty for our people and agroecology to produce while preserving nature. © 2020, © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -4824,15 +4836,15 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Agro-ecological transition of agricultural production systems at imbabura province of Ecuador; [Transição agroecológica de sistemas de produção agrícola na província de imbabura Equador]; [Transición agroecológica de los sistemas de producción agrícola de la provincia de imbabura Ecuador]</t>
+          <t>NGO perspectives on the social and ethical dimensions of plant genome-editing</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Transitional processes from conventional agricultural systems to agro ecological production systems has been promoted at Imbabura province in Ecuador, but development difficulties have been observed, due to farmer’s decisions for embracing transition, depends not only on the technology and local resources available, but also on several aspects of the surrounding social, economic and institutional system. A research was conducted, in order to characterize the transitional agro ecological degree of production systems at Imbabura province, regarding the social cooperation activity, the natural resources management and the public policies dynamics, A stratified random sample of 50 producers was taken, to whom a questionnaire was applied. Data was analyzed by descriptive statistics. Cramer test was used to determine the relationships of each item to municipalities. Results showed that, in social dynamics, there is a high degree of trust, participation and reciprocity but it is necessary to strengthen exchange networks, also, it was observed a high degree of agro ecological and conservationist practices. Agro ecological transition is limited by public policy dynamics because there are no incentive programs and also there are few institutional incentives to support agro ecological work, even though it is established by the current Food sovereignty law. Participation and used of self-harvest seeds were related to municipality. Otavalo is the municipality that displays greater dynamism and progress in the process of agro-ecological transition. © 2020, Universidad del Zulia. All rights reserved.</t>
+          <t>Plant genome editing has the potential to become another chapter in the intractable debate that has dogged agricultural biotechnology. In 2016, 107 Nobel Laureates accused Greenpeace of emotional and dogmatic campaigning against agricultural biotechnology and called for governments to defy such campaigning. The Laureates invoke the authority of science to argue that Greenpeace is putting lives at risk by opposing agricultural biotechnology and Golden Rice and is notable in framing Greenpeace as unethical and its views as marginal. This paper examines environmental, food and farming NGOs’ social and ethical concerns about genome editing, situating these concerns in comparison to alternative ethical assessments provided by the Nuffield Council on Bioethics, a key actor in this policy debate. In doing so, we show that participant NGOs and the Nuffield Council on Bioethics share considerable concerns about the social and ethical implications of genome editing. These concerns include choices over problem/solution framing and broader terminology, implications of regulatory and research choices on consumer choice and relations of power. However, GM-engaged NGOs and the Nuffield Council on Bioethics diverge on one important area: the NGOs seek to challenge the existing order and broaden the scope of debate to include deeply political questions regarding agricultural and technological choices. This distinction between the ethical positions means that NGOs provide valuable ethical insight and a useful lens to open up debate and discussion on the role of emerging technologies, such as genome editing, and the future of agriculture and food sovereignty. © 2019, Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -4856,7 +4868,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Practices of Food Sovereignty in Italy and England: Short Food Supply Chains and the Promise of De-Commodification</t>
+          <t>The spatial planning to implement sustainable agricultural land</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -4864,7 +4876,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Alternative food networks are organisations of consumers and food producers that oversee and promote the functioning of short food supply chains, with the aim of fostering a direct and local exchange between producers and consumers. New short-chain economic infrastructures provide food producers – especially small-scale farmers – with a whole new set of commercial opportunities, directed towards the construction of an alternative food economy. But how does value circulate within these innovative economic platforms? And what values are debated, negotiated and exchanged through these circuits? Employing the analytical lenses of de-commodification and embeddedness, this article discusses the modalities and outcomes of the processes of value-creation and value-appropriation that spring out of the direct exchange occurring between consumers and food producers in the alternative food economy. Based on empirical data collected through extensive qualitative field research in Italy and England, the article exposes the dynamics and limits of the on-going processes of de-commodification, proposing an analysis centred on the concept of ‘partial’ de-commodification. This conceptual tool is used to assess the differences that emerged between the Italian and English fields, and to provide conclusive remarks about the potential of place- and culture-specific configurations of practices to advance a transformation of the food system. © 2019 The Authors. Sociologia Ruralis © 2019 European Society for Rural Sociology.</t>
+          <t>Indonesia is an agricultural producing country; the agricultural sector becomes its main economic base. Empirically, most of Indonesians work in this sector as their livelihood. Article No. 33 Chapter (3) of Undang-undang Dasar 1945 (The 1945 Constitution of The Republic of Indonesia) states a role of the state in managing and regulating land. It is clearly declared that land, water and natural resources contained therein are owned by the state and used as much as possible for the prosperity of the people of Indonesia. Land conversion is usually related to the process of regional development, even it can be said that the land conversion is a consequence of the development. In fact, most of the land conversion shows an imbalance dominated by business owners who are alleged to be modern capitalists having Building Construction Permits (IMB) issued by the government. Based on Regulation of Government No. 1 of 2011 concerning Determination and Land Conversion of Sustainable Agricultural Land, it is a field of agricultural land determined to be consistently protected and developed to produce staple food for the autonomy, resilience and sovereignty of foods for the nation. © 2020 SERSC.</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -4888,15 +4900,15 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>The importance of vision in food system transformation</t>
+          <t>Enforceability of decisions of the Agricultural Paying Agency in matters of direct payments</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Despite growing calls for food system transformation, the need to develop a vision to guide that transformation is sometimes overlooked. Vision is essential to inspire, mobilize, and keep a collective of people on track toward their goals. Individual visions can be exhilarating, but the visions that create change are taken up by large groups or movements of movements. A vision is a beginning for transformation, but it requires policy that enables it to be enacted, ideally through democratic processes. The vision, buttressed by policy and democratic governance, is what determines where people are able to buy food, how much they pay, whether farmers earn decent incomes, and whether the food is healthy. Without vision, policies are likely to be incoherent or to work at cross-purposes, as has happened in the farm bill and the European Union’s Common Agricultural Policy. A range of visions generated at different scales, from autonomous community to state to region, can serve as examples for people committed to food system transformation. © 2019 by the Author.</t>
+          <t>Since its inception, the Common Agricultural Policy has been the largest among all common European policies. The main objective of the Common agricultural policy is food sovereignty in the European Union, stabilization of farmers' incomes and, at present, support for non-production functions of agriculture and environmental protection. Given the rising input prices and the time mismatch between supply and demand for agricultural products, the first pillar of the CAP has become a key tool for sustaining the desired competitiveness of agricultural products in the EU Member States. Direct payments have become an important tool for Slovak farmers, and therefore their effective implementation is essential for their continued existence or development. The aim of the paper was to point out the weak enforceability of direct payments to eligible users of agricultural land if there is a conflicting legal entitlement to provide a direct payment in accordance with §28 and §29 of Act no. 280/2017 Coll. and the resulting problems for eligible applicants. © 2020 by the author(s).</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -4920,15 +4932,15 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>‘Keeping seeds in our hands’: the rise of seed activism</t>
+          <t>Towards a National Food Sovereignty Plan: Application of a new Decision Support System for food planning and governance</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Semantic innovations like seed commons, peasant seeds and seed sovereignty are a powerful expression of what may be termed as seed activism. In this opening paper of the JPS Special Forum on Seed Activism, we explore the surge of mobilizations the world over in response to processes of seed enclosures and loss of agrobiodiversity. A historical overview of the evolution of seed activism over the past three decades traces a paradigm shift from farmers’ rights to seed sovereignty. Some of the main threats to peasant seed systems–from seed and intellectual property laws to biopiracy, corporate concentration and new genome editing technologies–are analyzed along with strategies by peasants and other activists to counter these developments. We take stock of what has been achieved so far and of the challenges ahead, and suggest some avenues for future research. © 2020, © 2020 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>This paper develops a Decision Support System (DSS), for achieving Food Sovereignty Plans at different territorial levels. The DSS calculates the land requirement for producing the food needs of a local community, the land suitability for the involved crops, and the percentage of the food self-sufficiency achievable. The paper reports two case studies at different scales (Italy and Umbria region) for highlighting the strengths and the weaknesses of the DSS. Finally, the paper outlines the use of the developed DSS for enhancing participatory processes to achieve a National Food Sovereignty Plan. © 2019 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -4952,7 +4964,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Diverse seeds – shared practices: Conceptualizing seed commons</t>
+          <t>Homegarden commercialization: extent, household characteristics, and effect on food security and food sovereignty in Rural Indonesia</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -4960,14 +4972,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Commons approaches in the seed sector are multi-faceted: They span from traditional seed systems, i.e. seed sharing networks, to recent anti-enclosure movements that resist intellectual property rights on varieties, like organic breeding initiatives. This paper derives a conceptualization of ‘Seed Commons’ at the local and regional level, based on a comprehensive transdisciplinary research process that integrates diverse types of knowledge, both from practitioners (German and Philippine seed initiatives, companies and NGOs), and the scientific community. As a result, we identify four core criteria that characterize diverse Seed Commons arrangements at local and regional scales: (1) collective responsibility, (2) protection from private enclosure, (3) collective, polycentric management, and (4) sharing of formal and practical knowledge. Discussing these Seed Commons criteria in the context of different Commons approaches, we find that Seed Commons transcend the distinction between traditional (natural resource) Commons and New Commons approaches, by integrating biophysical, informational and cultural elements in their collective governance. Reaching beyond resource characteristics, the Seed Commons criteria reflect practices of Commoning, which aim to fulfill social functions such as farmer empowerment and food sovereignty. © 2020 The Author(s).</t>
+          <t>Homegardens have long been recognized for contributing to household food security, nutritional status, and ecological sustainability in especially poor, rural areas in low-income countries. However, as markets and policies drive the commercialization of food and farming systems, and of rural livelihoods in general, it becomes increasingly difficult for small-holder farmers to maintain homegarden plots. Rather than autonomous spaces to grow food for self-consumption, farmers are transforming the land around their dwellings into an income-generating space by planting commercial crops for sale in urban and processing markets. The objective of this study was to examine homegarden commercialization in the Upper Citarum Watershed of West Java, Indonesia, and its effects on food security and food sovereignty. We employed a mixed-method approach to survey 81 village households involved in agricultural production. For quantitative analysis, we calculated a “homegarden commercialization index,” and developed indicator frameworks to examine relationships between commercialization, household food security, and food-related decision-making. Accompanied by insights from qualitative interviews, our results show that homegardens are highly commercialized, which contributes to the spread of monocultural production in the region. We argue that homegardens should be included and supported in food, agricultural, health, environmental, and rural development policy, in Indonesia and generally. © 2020, The Author(s).</t>
         </is>
       </c>
       <c r="E139" t="n">
         <v>1</v>
       </c>
-      <c r="F139" t="n">
-        <v>1</v>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -4984,7 +4998,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Human Development and Food Sovereignty: A Step Closer to Achieving Food Security in South Africa’s Rural Households</t>
+          <t>Exploring the ‘grey areas’ of state-society interaction in food sovereignty construction: the battle for Venezuela’s seed law</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -4992,14 +5006,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Food security strategies are determined by the prevailing realities within households and communities. Therefore, it is not surprising that in South Africa agricultural transformation is an important food security strategy. This article examines the role of human development and food sovereignty in fostering conditions that enable rural households to enhance their food security capabilities. Using an in-depth analysis of literature, national, regional and international instruments, this article takes its departure from the fact that subsistence agriculture is an effective strategy for improving household food needs when implemented within the broader human rights framework of human development. The results reveal that agriculture has the potential to increase household food security if appropriate agricultural technologies and productive resources such as land are made accessible to households. Further, for agriculture to attain optimal efficiency as a food security strategy, policies on agrarian transformation should be implemented within broader social development programmes. © The Author(s) 2019.</t>
+          <t>In late December 2015, amidst plummeting oil prices, highly politicized food shortages, and an all-around tense political climate in Venezuela, an unexpected event took place in the country’s National Assembly just days before a major shift in its political leadership. A new seed law was passed, with provisions including bans on genetically modified seeds and the patenting of life forms, recognition of both formal and informal seed systems, and protections for the seeds of the country’s peasant, Indigenous, and Afro-descendant communities. The processes behind the Law’s passage were long, messy, dynamic and contentious, with unanticipated twists and turns, betrayals and alliances. This article shares an ‘intimate perspective’ into these processes, as described by those directly involved in them, and as seen through the combined analytical lenses of a historical, relational and interactive approach to food sovereignty construction. This includes an exploration of the shifting of roles across state-society lines; the interaction of threats and opportunities as catalysts for collective action; and incremental shifts in power as social movements engage strategically in different types of spaces, including inside, outside, through and between formal structures of the state. Such an approach complicates simplified narratives around state co-optation of movements on the one hand or idealized depictions of state-society synergy on the other, revealing the many shades of grey involved. The aim is to contribute new insights into the complexities of state-society relations in the construction of food sovereignty, and into bottom-up policy-making processes more generally. © 2018, © 2018 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E140" t="n">
         <v>1</v>
       </c>
-      <c r="F140" t="n">
-        <v>1</v>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5016,15 +5032,15 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>From protecting peasant livelihoods to essentializing peasant agriculture: problematic trends in food sovereignty discourse</t>
+          <t>Participatory plant breeding and social change in the Midwestern United States: perspectives from the Seed to Kitchen Collaborative</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>In response to neoliberal food and agriculture policy, peasant movements fought for increased state support of the small-farm sector. Vía Campesina now proposes agroecology and localized trade as environmental solutions to the current climate crisis by advocating for the ‘peasant way.’ This discourse is problematic because peasant farmers are not inherently supportive of local, sustainable food. Drawing on ethnographic field research with indigenous peasant communities in the rural highlands of Ecuador, this article illustrates how existing peasants practice chemical-intensive, monocrop, and export-oriented production. In using peasant as an ideal type rather than an historical ethno-class, post-development scholars essentialize peasant agriculture. © 2019, © 2019 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>There is a strong need to connect agricultural research to social movements and community-based food system reform efforts. Participatory research methods are a powerful tool, increasingly used to give voice to communities overlooked by academia or marginalized in the broader food system. Plant breeding, as a field of research and practice, is uniquely well-suited to participatory project designs, since the basic process of observing and selecting plants for desirable traits is accessible to participants without formal plant breeding training. The challenge for plant breeders engaged in participatory research is to consider not only how their work incorporates farmer input in developing new varieties, but also how it interacts with broader questions of food sovereignty, food justice, diversity and democratization in the food system. This article examines these issues in the context of the Seed to Kitchen Collaborative, a participatory variety evaluation and breeding project at the University of Wisconsin-Madison. © 2019, Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E141" t="n">
@@ -5050,7 +5066,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Genetically modified crops and seed/food sovereignty in Argentina: scales and states in the contemporary food regime</t>
+          <t>Politics of law of the protection of plant variety (Pvt) and its implications for food security in indonesia: A maqashid al-shari'ah perspective</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -5058,16 +5074,14 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>With more than half of its arable land planted with genetically modified soybeans, Argentina presents a strategic research site to investigate contestations of intellectual property rights on seeds and the enclosure of seeds as common resources. In this contribution, we tackle Argentina as a case study to address three issues. First, we discuss the sweeping expansion of genetically modified crops to illustrate its associated role in (a) the conflicts, negotiations and accommodations of seed control and (b) the obstacles to food/seed sovereignty. Second, we inspect the spatial and class dynamics of these processes with the goal of making a contribution to the literature on food regimes. By looking at the regional dynamics within a nation, we seek to question the ‘methodological nationalism’ of the food regime perspective that, by and large, understands countries as units. Third, and linking the two previous points, we inspect the role of the state in struggles and negotiations over seed and food sovereignty at both the national and subnational scales. We argue that a multi-scalar approach on food/seed sovereignty struggles can provide further visibility to subordinated actors. © 2020, © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>The birth of the Law on Plant Variety Protection (PVP) is a consequence of Indonesia in its participation as a signatory country for the GATT/WTO agreement, which one of the series of agreements contains Trade-Related Aspects of Intellectual Property Rights (TRIPs). This agreement implies that after ratification, Indonesia must harmonize legislation in the field of intellectual property rights with the approval of TRIPs, including in the field of Plant Variety Protection. Philosophically there are several provisions in the PVP Law that need to be observed. One of them is the focus of this law that prioritizes economic interests and breeder rights rather than farmer rights. By using qualitative research and philosophical approach, this study concludes: First, in the perspective of politics of law, the protection of plant varieties in Indonesia has not been based on an ideal basis of Indonesian politics of law. Ideally, the stipulation of law in Indonesia must prioritize an ideological and normative basis that originates from Pancasila and the UUD 1945 as central values and are essential to Indonesian politics of law. Second, Plant Variety Protection in Indonesia is still oriented to food security, not to the limit of food sovereignty. The orientation of the Law on PVP should lead to efforts to liberate this country from the element of dependence on other countries by leading to food sovereignty. Third, in the perspective of Maqashid Sharia, the protection of Plant Varieties in Indonesia has not yet described efforts to create benefit for the Indonesian nation as a whole. The nature of Maqashid sharia is a benefit that rests on the interests of society in general. © IJSTR 2020.</t>
         </is>
       </c>
       <c r="E142" t="n">
         <v>1</v>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F142" t="n">
+        <v>1</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5084,15 +5098,15 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Local Food as Social Change: Food Sovereignty as a Radical New Ontology</t>
+          <t>How do grassroot NGOs in rural Myanmar express their visions for the food system? Food security and food sovereignty as entangled narratives within NGO struggles and strategies</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Local food projects are steadily becoming a part of contemporary food systems and take on many forms. They are typically analyzed using an ethical, or sociopolitical, lens. Food focused initiatives can be understood as strategies to achieve ethical change in food systems and, as such, ethics play a guiding role. But local food is also a social movement and, thus social and political theories provide unique insights during analysis. This paper begins with the position that ontology should play a more prominent part in the analysis of local food movements, as this lens could provide unique insights into basic commitments guiding such initiatives. The paper presents the argument that ontological analyses are imperative for fully understanding local food movements. It then provides an overview of the justice frameworks and ontological orientations that guide two dominant types of initiatives: Those committed to increasing food security and those committed to food sovereignty. The paper ends with the argument that food sovereignty projects are revolutionary, not only because they challenge us to change industrial food practices, but also because they are built on a radical new political ontology, and co-constitutive food-focused orientation, that forms the foundation for alternative social and political structures. © 2020 University of Sassari.</t>
+          <t>Recent research has promoted the idea that political struggles over food systems can be understood through the concepts of food security (the right to access food) and food sovereignty (the right to exercise control over food systems). These concepts emphasise different political priorities in the social relations of food: for the former, the promotion of decent work and the strengthening of the social safety net to enhance people's abilities to put food on their plates; for the latter, the defence of land, water and resource rights, to underpin capabilities for food own-provisioning. The question we pose in this paper is how these priorities are articulated by grassroots non-government organisations working at the frontline of global food poverty? Interviews with 22 representatives of food-related non-government organisations in Myanmar were used to elicit narratives about how they understood their challenges. The paper finds that narratives did not cohere exclusively to either the food security or food sovereignty concept, but blended ideas associated with the political priorities of both in complex and contradictory ways. These insights lend important firsthand evidence to the argument that supports a multi-dimensional framing of the politics of food that is inclusive of the diverse struggles highlighted by food security and food sovereignty concepts. © 2019 Victoria University of Wellington and John Wiley &amp; Sons Australia, Ltd</t>
         </is>
       </c>
       <c r="E143" t="n">
@@ -5116,15 +5130,15 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>PREFIGURATIVE POLITICS IN PRACTICE: CONCRETE UTOPIAS IN ITALY'S FOOD SOVEREIGNTY ACTIVISM</t>
+          <t>National general truck drivers' strike and food security in a Brazilian metropolis</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>What and how we eat have once again become prominent in debates on the fight for global justice. Proponents of alterglobalism consider experiments with food sovereignty a prefigurative practice that anticipates broader ecocultural change. Critics, however, remain skeptical about its capacity to enhance social change. In social movement research, the practical implications of these prefigurative politics have rarely been investigated empirically. Based on an ethnographic analysis, this article illustrates the multifaceted dynamics of a continuously evolving experiment with Participatory Guarantee Systems (PGS) in a neorural microeconomic network, a cornerstone of food sovereignty activism. An ethnographic perspective can grasp the shifting terrain of the political mobilization, frictions and unintended consequences of these types of politics. The article demonstrates the importance of understanding the complexities of prefiguration as not a simple linear, coherent process. Also, the case study allows a critique of re-emerging neorural populism.  © 2020 Mobilization: An International Quarterly.</t>
+          <t>Objective: We analysed the impact of the national general truck drivers' strike on the availability, variety and price of foods sold by a food supply centre.Design: Descriptive study using secondary data to examine the percentage change in the mean price of fruits, vegetables and eggs before, during and after the strike. The strike in Brazil lasted 10 d from 21 to 30 May 2018. The drivers were on strike in order to make diesel oil tax-free and to obtain better working conditions.Setting: The food supply centre, named CEASA-Minas Grande BH, was located in the metropolitan area of a Brazilian city.Participants: We examined twenty types of foods.Results: After 10 d, there was a ~30 % reduction in the availability of all types of foods and prices increased. Foods with the highest price increases included cabbage (233·3 %), potatoes (220·0 %), papaya (160·0 %) and oranges (78·6 %). At the end of the strike, we observed reductions in the price of eggs, fruits, vegetables, roots and tubers; however, some foods remained more expensive than before the strike, including chayote (203·2 % higher), cucumber (66·7 % higher) and potatoes (60·0 % higher).Conclusions: The general truck drivers' strike was correlated with a reduction in the availability of food and, consequently, increases in price and possibly restrictions on access. The strike demonstrated the dependence of metropolises on road transportation and the conventional market. We speculate that initiatives aiming to shorten the food supply chain and promote food sovereignty and resilience of the supply circuits could be important. © The Authors 2019.</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -5148,7 +5162,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>“Going local”: farmers’ perspectives on local food systems in rural Canada</t>
+          <t>Flux, unrelenting–the struggle for local seed sovereignty in Nicaragua</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -5156,14 +5170,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Amid the highly industrialized, export-focused food system of the Canadian prairies, some farmers and consumers are turning to localized agriculture as an alternative—they are “going local”. Despite farmers’ obvious importance to the food system, surprisingly little research has examined their motivations and reasons for localization. To date, most local food scholarship in North America has focused on either consumers’ motivations to buy local or the systemic aspects of local food, such as regulations, infrastructure, and marketing arrangements. Existing research suggests that local food systems are supported by consumers’ rejection of the industrial paradigm and desire to (re)connect with their food and its source. But what drives farmers to localize, particularly when export-focused production is firmly entrenched as the status quo? Based on interviews and focus groups with 60 farmers, processors, policy experts, and retailers in the Canadian prairie province of Saskatchewan, this paper examines local food systems from the producer perspective in a rural context of high industrialization and geographical dispersion. We examine what motivates farmers to produce for local markets, and what forces they must resist to do so. The findings indicate that farmers’ main motivations for localization are political and social in nature, and stem from a critique of the dominant neoliberal agri-food system. We map farmers’ agential responses to this dominant system on a spectrum that ranges from acceptance of a neoliberal “feed the world” ideology to promotion of food sovereignty. Drawing on farmers’ perspectives, our findings question the straightforward equation of local food with environmental sustainability and also challenge neoliberal economic assumptions of “scaling up”. © 2019, Springer Nature B.V.</t>
+          <t>Most farmers are not activists. They make, however, their own sense of the world and act–sometimes quite stubbornly–according to that sense given, grasping what they perceive as opportunities, and protecting what they feel as essential for their livelihood. Political projects for Nicaraguan society, international policy-making, corporate strategies and imperial ambitions engage with and affect the varieties grown locally. The article analyses the creativity and political potential, as well as the contradictions and inconsistencies of the quotidian practice of seed saving under extreme constraint in light of the major struggles about Nicaraguan seed legislation. © 2020, © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E145" t="n">
         <v>1</v>
       </c>
-      <c r="F145" t="n">
-        <v>1</v>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5180,15 +5196,15 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>From hoes to story-telling as "weapons of the weak": Farmers' resistance to neoliberal 2007 multi-product management stabilization plan in Japan</t>
+          <t>Extrafamilial farm succession: an adaptive strategy contributing to the renewal of peasantries in Austria</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>While neoliberalism has promoted free trade, market rule, and productivist agriculture in the food production system, farmers and their unions in developed countries partially managed to shun the forces of neoliberalism. What are the underpinning strength and factors of such resilience? Discussions have concentrated at national policy and organizational level and tacit resistance at community and farm levels remain unexplored, inter alia from their historical embeddedness perspective. This study explores the way Japanese farmers frame their contemporary political situation with neoliberalism of the late 2000s with a grounded approach of face-to-face interview at a community level. The farmers resist it mobilizing Scott's anthropological notion of "Weapons of the Weak"through story-telling instead of hoes in ancient time (Scott JC, Weapons of the weak: everyday forms of peasant resistance, 1985). In concrete, the farmers resisted a neoliberal policy of Hinmoku Odanteki Keiei Antei Taisaku, or the Multi- Product Management Stabilization Plan (MPP), in the early 2000s, which promoted larger scale farming to pursue the efficiency of scale merits. The policy was first introduced in 2005 as a concept and dominated the agricultural policy scenes from 2007 to 2009, and then its influence disappeared toward 2010. The rise and fall of the concept and policy provide us with rare opportunity to examine the historical embeddedness of the farmers and their resistance to such neoliberal globalization. We conducted interviews with the leaders of cooperative farms and stakeholders in Daisen City, Akita Prefecture, Japan; the study found that farmers' framing of neoliberalism was ambivalent causing partial adoption and resistance. The leaders of the cooperative farms could form the cooperative farms but thought further development difficult because members intended to keep their farming independent. Close frame and discourse analysis revealed that farmers in Japan could express their frustration on neoliberal discourse and policy through multiple tactics of "Weapons of the Weak"by complaining to the leaders, miscalculating the figures, or claiming family-based food sovereignty that "we produce what goes into our family mouths."Such tactics procrastinated the process and eventually stopped the policy. The incident demonstrates how farmers in the network can slow the progress of neoliberal discourse and policy implementation. From the analysis, the notion of "Weapons of the Weak"can be applied as a part of the combination with farmers' historical embeddedness, symbolism of foods, framing, and electoral resistance.  © 2020 The Author(s).</t>
+          <t>This article examines extrafamilial farm transmission, a process that brings together elderly farmers without successors and young people who aspire to farm but face various economic, social and cultural barriers to enter into the sector. First-hand accounts of the process from Austrian smallholders are systematically analysed to produce a stage-by-stage model. The multigenerational non-familial agrarian partnership this represents offers an alternative mechanism for maintaining small-scale food production and improving food security and food sovereignty. It is recommended as an adaptive strategy for the survival and re-generation of peasantry in the twenty-first century. © 2018, © 2018 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -5212,15 +5228,15 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Alternative discourses around the governance of food security: A case study from Ethiopia</t>
+          <t>Do we need to categorize it? Reflections on constituencies and quotas as tools for negotiating difference in the global food sovereignty convergence space</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Global discourses on the governance of food security span competing approaches. For example, a neoliberal approach advocates commercialized, industrial agriculture, while food sovereignty and resilience are part of an alternative discourse to food security that prioritizes locally-based agroecological food production. Understanding how global discourses play out locally and how they impact the environment and biodiversity is important to identify appropriate pathways towards sustainability. In addition to their effects on food security, different approaches could reinforce or impede the success of biodiversity conservation because of the strong interdependence of food security and ecosystems. We applied the Q-methodology to examine alternative approaches to food security and biodiversity conservation pursued by 50 stakeholders from local to national levels in southwestern Ethiopia. We identified four distinct approaches, focusing on (1) smallholder commercialization, (2) agroecology and resilience, (3) local economy and equity, and (4) market liberalization. All approaches prioritized smallholders, but perspectives on how to achieve food security varied. Agricultural intensification, commercialization, and profit were widely considered important, while support for agroecology and resilience was largely restricted to non-government organizations. With the exception of supporters of the agroecology and resilience approach, biodiversity conservation was considered as a secondary goal. We conclude it is important to acknowledge plurality of food security approaches because local conditions are characterized by a multiplicity of stakeholder interests, and because food security is a complex problem that requires a multidimensional approach. However, major contradictions among existing approaches need to be reconciled, and the agroecology and resilience approach should be strengthened to ensure the sustainable achievement of food security and biodiversity conservation. © 2019 Elsevier B.V.</t>
+          <t>Convergence–as an objective and as a process–designates the coming together of different social actors across strategic, political, ideological, sectoral and geographic divides. In this paper, we analyze the global food sovereignty movement (GFSM) as a convergence space, with a focus on constituencies and quotas as tools to maintain diversity while facilitating convergence. We show how the use of constituencies and quotas has supported two objectives of the GFSM: alliances building and effective direct representation in global policy-making spaces. We conclude by pointing to some convergence challenges the GFSM faces as it expands beyond its agrarian origins. © 2018, © 2018 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -5244,15 +5260,15 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Interview with João Pedro Stédile, national leader of the MST–Brazil</t>
+          <t>Land of plenty, land of misery: Synergetic resource grabbing in Mozambique</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>The pandemic has underlined the need to continue fighting for paradigmatic change, including toward food sovereignty for our people and agroecology to produce while preserving nature. © 2020, © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Global climate change policy enforcement has become the new driving force of resource grabbing in the context of the "scramble of resources" in Africa. Nevertheless, the environmental crisis should not be seen as an isolated phenomenon amid contemporary capitalism. On the contrary, a very distinct feature of the current wave of land grabs is the convergence of multiple crises, including food, energy/fuel, environmental, and financial. The Southern Mozambique District, Massingir, is an area with high potential regarding water sources and biodiversity. It recently became a host of a biofuel project, and also a huge block of land is being transformed into a conservation/tourism area; answering to many issues within capitalism's crisis, this area is an evidence of how synergetic resource grabbing can arise as a response to the convergence of multiple crises. Therefore, by analyzing the emerging politics of natural resources in Massingir District and the dynamics regarding the land-use change, changes in property relations, it is possible to understand how rural livelihoods are shaped. Risks related to food security and sovereignty, loss of control and access to resources, consistent narrowing down of the set of livelihood strategies, and inter-community conflicts over scarce resources are the main implications of such emerging climate-smart land politics. © 2019 by the authors.</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -5276,7 +5292,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>NGO perspectives on the social and ethical dimensions of plant genome-editing</t>
+          <t>Agroecologies of displacement: a study of land access, dislocation, and migration in relation to sustainable food production in the Beach Flats Community Garden</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -5284,7 +5300,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Plant genome editing has the potential to become another chapter in the intractable debate that has dogged agricultural biotechnology. In 2016, 107 Nobel Laureates accused Greenpeace of emotional and dogmatic campaigning against agricultural biotechnology and called for governments to defy such campaigning. The Laureates invoke the authority of science to argue that Greenpeace is putting lives at risk by opposing agricultural biotechnology and Golden Rice and is notable in framing Greenpeace as unethical and its views as marginal. This paper examines environmental, food and farming NGOs’ social and ethical concerns about genome editing, situating these concerns in comparison to alternative ethical assessments provided by the Nuffield Council on Bioethics, a key actor in this policy debate. In doing so, we show that participant NGOs and the Nuffield Council on Bioethics share considerable concerns about the social and ethical implications of genome editing. These concerns include choices over problem/solution framing and broader terminology, implications of regulatory and research choices on consumer choice and relations of power. However, GM-engaged NGOs and the Nuffield Council on Bioethics diverge on one important area: the NGOs seek to challenge the existing order and broaden the scope of debate to include deeply political questions regarding agricultural and technological choices. This distinction between the ethical positions means that NGOs provide valuable ethical insight and a useful lens to open up debate and discussion on the role of emerging technologies, such as genome editing, and the future of agriculture and food sovereignty. © 2019, Springer Nature B.V.</t>
+          <t>In this article, the Beach Flats Community Garden is used as a case study to theorize an “agroecologies of displacement.” We argue that farmers are increasingly less singularly place-based through involuntary displacement and that displacement and dispossession can shape agricultural practices in farming communities. We follow Cohen (2010), Kerssen and Brent (2017), and others in calling for the necessity to bring a historical and focused analysis of displacement, dispossession, and the dynamics of land under capitalist systems to our understanding of the articulations of food movements, in particular transformative agroecologies. © 2018, © 2018 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E149" t="n">
@@ -5308,15 +5324,15 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>The spatial planning to implement sustainable agricultural land</t>
+          <t>Maritime Food Development Strategy as National Economic Pillar using SWOT Analysis Interpretative Structural Modelling (ISM)</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Indonesia is an agricultural producing country; the agricultural sector becomes its main economic base. Empirically, most of Indonesians work in this sector as their livelihood. Article No. 33 Chapter (3) of Undang-undang Dasar 1945 (The 1945 Constitution of The Republic of Indonesia) states a role of the state in managing and regulating land. It is clearly declared that land, water and natural resources contained therein are owned by the state and used as much as possible for the prosperity of the people of Indonesia. Land conversion is usually related to the process of regional development, even it can be said that the land conversion is a consequence of the development. In fact, most of the land conversion shows an imbalance dominated by business owners who are alleged to be modern capitalists having Building Construction Permits (IMB) issued by the government. Based on Regulation of Government No. 1 of 2011 concerning Determination and Land Conversion of Sustainable Agricultural Land, it is a field of agricultural land determined to be consistently protected and developed to produce staple food for the autonomy, resilience and sovereignty of foods for the nation. © 2020 SERSC.</t>
+          <t>The rapid growth of population result in demand for food exceeds its supply capacity. The gap between the needs and availability of food is inseparable from the existing policies. The ability of a nation in fulfilling the needs of food affects the state sovereignty. The aim of research is to formulate strategies in promoting food sovereignty in maritime sector. Maritime potential can be viewed from to what extend a nation realizes and exploits the sea. This research used McKinsey 7S method, PEST analysis (Political, Economic, Socio-cultural, Technology), SWOT analysis and Interpretative Structural Modeling (ISM). This research is expected to encourage the government in national maritime food development. Based on the results of SWOT matrix analysis, the SO strategy consists of five strategies. The ST strategy consists of five strategies. The WO strategy consists of five steps while the WT strategy consists of two steps. In the hierarchical structure model, it can be seen that WT-2 Strategy is at the first level. WO-5 strategy is at the level of strategy 2. Level of strategy 3 consists of six sub-strategies. Level of strategy 4 has three sub-strategies. Level of strategy 5 consists of six sub-strategies. © Medwell Journals, 2019</t>
         </is>
       </c>
       <c r="E150" t="n">
@@ -5340,15 +5356,15 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Enforceability of decisions of the Agricultural Paying Agency in matters of direct payments</t>
+          <t>Heritage and patrimony of the peasantry: An analytical framework to address rural development; [Herencia y patrimonios de campesinado: Un marco analítico para abordar el desarrollo rural]</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Since its inception, the Common Agricultural Policy has been the largest among all common European policies. The main objective of the Common agricultural policy is food sovereignty in the European Union, stabilization of farmers' incomes and, at present, support for non-production functions of agriculture and environmental protection. Given the rising input prices and the time mismatch between supply and demand for agricultural products, the first pillar of the CAP has become a key tool for sustaining the desired competitiveness of agricultural products in the EU Member States. Direct payments have become an important tool for Slovak farmers, and therefore their effective implementation is essential for their continued existence or development. The aim of the paper was to point out the weak enforceability of direct payments to eligible users of agricultural land if there is a conflicting legal entitlement to provide a direct payment in accordance with §28 and §29 of Act no. 280/2017 Coll. and the resulting problems for eligible applicants. © 2020 by the author(s).</t>
+          <t>The term “rural development” is exceptionally multifaceted, which makes it difficult to define. This and other features make it a ‘wicked problem’, which means the consequences of rural developmental problems can create other complications. To date, the important discussion of rural development has dealt with productivity and economic concerns. This discussion has many crucial aspects such as the environment, infrastructure, and respect for fundamental rights. This paper describes the ‘Heritage and Patrimony of the Peasantry’ as an alternative analytical framework for addressing rural development. This analytical framework takes important topics from other rural development perspectives (primarily focused on food sovereignty principles). The heritage and patrimony of the peasantry framework moves away from the market point of view, which converts everything into an asset that can be marketed, and utilizes other sources of heritage. The peasantry has seven kinds of ‘ heritages’ or ‘patrimonies’: natural, cultural, economic, physical, social, institutional, and human. These heritages or patrimonies are the bases of construction for a decent standard of living which will accomplish full rights for all rural inhabit-ants, i.e. rural development. © 2019, Universidad Nacional de Colombia. All rights reserved.</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -5372,7 +5388,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Towards a National Food Sovereignty Plan: Application of a new Decision Support System for food planning and governance</t>
+          <t>Integration model of food security system and food sovereignty system in Indonesia</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -5380,7 +5396,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>This paper develops a Decision Support System (DSS), for achieving Food Sovereignty Plans at different territorial levels. The DSS calculates the land requirement for producing the food needs of a local community, the land suitability for the involved crops, and the percentage of the food self-sufficiency achievable. The paper reports two case studies at different scales (Italy and Umbria region) for highlighting the strengths and the weaknesses of the DSS. Finally, the paper outlines the use of the developed DSS for enhancing participatory processes to achieve a National Food Sovereignty Plan. © 2019 Elsevier Ltd</t>
+          <t>This research is important to integrate Food Security system with Food Sovereignty system. Starting from the current condition that the Food Security has not been integrated with Food Sovereignty system yet. It is known that Food Security system is developed by free market economy system, while Food Sovereignty system is determined based on national interest of a country in choosing food system considered suitable to be applied in its country. For the current condition in Indonesia, the food system still refers to the Food Security system. The Government does not have capacity to intervene the market directly and consequently, the number of food imports becomes high and the welfare of farmers slumps. Through this research, it is necessary to arrange and adapt the application of Integrated Model construction of Food Security System Integration and Food Sovereignty to Achieve Sustainable Food Self-Sufficiency in Indonesia. This research was conducted by using juridical-empirical approach which is oriented to holistic study and in its process, legal discipline gets the assistance of related discipline, such as economics, politics, technique, environment, human rights, social, and culture. The analysis of the research object was conducted through legal analysis. in addition to library research, data collection techniques used is field surveys and the analytical technique used is Cost-Benefit-Analysis (CBA).The result of this research is the arrangement of Integration Model Construction of Food Security System and Food Sovereignty to Achieve Sustainable Food Self-Sufficiency in Indonesia. © 2019, Institute of Advanced Scientific Research, Inc.. All rights reserved.</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -5404,15 +5420,15 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Homegarden commercialization: extent, household characteristics, and effect on food security and food sovereignty in Rural Indonesia</t>
+          <t>Building Healthy Community Relationships Through Food Security and Food Sovereignty</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Homegardens have long been recognized for contributing to household food security, nutritional status, and ecological sustainability in especially poor, rural areas in low-income countries. However, as markets and policies drive the commercialization of food and farming systems, and of rural livelihoods in general, it becomes increasingly difficult for small-holder farmers to maintain homegarden plots. Rather than autonomous spaces to grow food for self-consumption, farmers are transforming the land around their dwellings into an income-generating space by planting commercial crops for sale in urban and processing markets. The objective of this study was to examine homegarden commercialization in the Upper Citarum Watershed of West Java, Indonesia, and its effects on food security and food sovereignty. We employed a mixed-method approach to survey 81 village households involved in agricultural production. For quantitative analysis, we calculated a “homegarden commercialization index,” and developed indicator frameworks to examine relationships between commercialization, household food security, and food-related decision-making. Accompanied by insights from qualitative interviews, our results show that homegardens are highly commercialized, which contributes to the spread of monocultural production in the region. We argue that homegardens should be included and supported in food, agricultural, health, environmental, and rural development policy, in Indonesia and generally. © 2020, The Author(s).</t>
+          <t>Background: Food insecurity disproportionately affects Indigenous Peoples and is linked to poor health outcomes. Indigenous Peoples' food systems once sustained their thriving societies; however, colonial policies of displacement and imposed assimilation severed connections to Indigenous food systems and lands, disrupting identity, culture, and well-being. Objective: In this article we share a grass-roots designed program that addresses food security and heeds Haudenosaunee teachings. The Story of Creation, the Great Law, and Ohénton Karihwatéhkwen (the words that come before all else) were the basis of the framework. The program acknowledges and uses community strengths and skills to enhance social connections and links with land and creation. Methods: The program brought together interested and knowledgeable community members and stakeholders to discuss and better understand food security in the community. This group formed as an advisory group called Ieiénthos Akotióhkwa - 'Planting Group' who shaped the food security activities. Results: The program delivered workshops to build skills and share knowledge about food production and preparation. It targeted diverse participant interests and needs within an environment meant to nurture social connections. The program planted food-bearing trees and plants and created a seed library to create edible landscapes. We invited a broad scope of community knowledge- and skill-holders to share their talents with the community, to reinforce positive connections with each other, and to carry on cultural practices. Conclusions: Challenges included program sustainability linked to short-term funding and personnel turnover. Strengths involved using a culturally based framework that enhanced program coherence, and facilitated collaboration with local initiatives focused on well-being, practicing culture, and respecting the environment. Haudenosaunee teachings hold values and principles for a society that provides food for all. These teachings are a framework for a culturally rich program to support food security skills and resources, but also Indigenous cultural identity and practices. © 2019 American Society for Nutrition.</t>
         </is>
       </c>
       <c r="E153" t="n">
@@ -5438,15 +5454,15 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Exploring the ‘grey areas’ of state-society interaction in food sovereignty construction: the battle for Venezuela’s seed law</t>
+          <t>Reimagining the relationship between food sovereignty and intellectual property for plants: Lessons from Ecuador and Nepal</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>In late December 2015, amidst plummeting oil prices, highly politicized food shortages, and an all-around tense political climate in Venezuela, an unexpected event took place in the country’s National Assembly just days before a major shift in its political leadership. A new seed law was passed, with provisions including bans on genetically modified seeds and the patenting of life forms, recognition of both formal and informal seed systems, and protections for the seeds of the country’s peasant, Indigenous, and Afro-descendant communities. The processes behind the Law’s passage were long, messy, dynamic and contentious, with unanticipated twists and turns, betrayals and alliances. This article shares an ‘intimate perspective’ into these processes, as described by those directly involved in them, and as seen through the combined analytical lenses of a historical, relational and interactive approach to food sovereignty construction. This includes an exploration of the shifting of roles across state-society lines; the interaction of threats and opportunities as catalysts for collective action; and incremental shifts in power as social movements engage strategically in different types of spaces, including inside, outside, through and between formal structures of the state. Such an approach complicates simplified narratives around state co-optation of movements on the one hand or idealized depictions of state-society synergy on the other, revealing the many shades of grey involved. The aim is to contribute new insights into the complexities of state-society relations in the construction of food sovereignty, and into bottom-up policy-making processes more generally. © 2018, © 2018 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>The concept of food sovereignty is regularly conceived as one side of a binary. Thus, scholars frequently juxtapose food sovereignty—as embodied in small-scale, customary, or peasant agriculture—against large-scale, industrial, and global modes of food production. The logic of this dichotomy suggests that the realization of food sovereignty is incompatible with the recognition of intellectual property for plants and seeds. In contrast, we argue that food sovereignty and intellectual property are not necessarily mutually exclusive concepts. Instead, food sovereignty activists and lawmakers alike are reimagining intellectual property to move beyond a focus on exclusive ownership, thus deploying it in novel ways. Our argument draws on extensive fieldwork, based on which we relate the experiences of two case study countries, namely Ecuador and Nepal. We describe how these countries recently embedded rights related to food sovereignty in reformed constitutional frameworks. We also evaluate how these novel constitutional food sovereignty rights shaped the making of other national laws in Ecuador and Nepal, including frameworks whose purpose is to protect plant varieties as intellectual property. Throughout the article, we demonstrate that countries can both promote food sovereignty and protect plant varieties as intellectual property. One way that governments can achieve this goal is to ensure that all relevant laws and policies—including those which relate to intellectual property for plant varieties, seed certification, and commercialization, and access and use of native genetic resources—are tailored to the realities of local food and seed systems. © 2019 The Authors. The Journal of World Intellectual Property © 2019 John Wiley &amp; Sons Ltd</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -5472,7 +5488,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Participatory plant breeding and social change in the Midwestern United States: perspectives from the Seed to Kitchen Collaborative</t>
+          <t>The territorial policy of rural development in brazil: Questions and reflections about the reconnection between production and consumption of food; [A política territorial do desenvolvimento rural no Brasil: Perguntas e reflexões sobre a reconexão entre produção e consumo de alimentos]; [La política territorial del desarrollo rural en Brasil: Preguntas y reflexiones sobre la reconexión entre producción y consumo de alimentos]</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -5480,16 +5496,14 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>There is a strong need to connect agricultural research to social movements and community-based food system reform efforts. Participatory research methods are a powerful tool, increasingly used to give voice to communities overlooked by academia or marginalized in the broader food system. Plant breeding, as a field of research and practice, is uniquely well-suited to participatory project designs, since the basic process of observing and selecting plants for desirable traits is accessible to participants without formal plant breeding training. The challenge for plant breeders engaged in participatory research is to consider not only how their work incorporates farmer input in developing new varieties, but also how it interacts with broader questions of food sovereignty, food justice, diversity and democratization in the food system. This article examines these issues in the context of the Seed to Kitchen Collaborative, a participatory variety evaluation and breeding project at the University of Wisconsin-Madison. © 2019, Springer Nature B.V.</t>
+          <t>Short marketing circuits and territorial rural development policies emphasize the importance of the reconnection between food production and consumption, with repercussions on the food security and sovereignty of local populations. For this, we analyzed official documents of the Program for the Sustainable Development of Rural Territories, the Citizenship Territories Program, the Territorial Development Plans, as well as field research on projects carried out in three rural territories and citizenship in the South of Brazil. From this analysis, it is possible to think of the strengthening of short circuits as the mechanism to promote rural territorial development. © 2019, Pontificia Universidad Javeriana. All rights reserved.</t>
         </is>
       </c>
       <c r="E155" t="n">
         <v>1</v>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F155" t="n">
+        <v>1</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5506,22 +5520,24 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Politics of law of the protection of plant variety (Pvt) and its implications for food security in indonesia: A maqashid al-shari'ah perspective</t>
+          <t>Indigenous knowledge of banjarese tribe farmers in paddy cultivation at tidal swamplands in South Kalimantan, Indonesia</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>The birth of the Law on Plant Variety Protection (PVP) is a consequence of Indonesia in its participation as a signatory country for the GATT/WTO agreement, which one of the series of agreements contains Trade-Related Aspects of Intellectual Property Rights (TRIPs). This agreement implies that after ratification, Indonesia must harmonize legislation in the field of intellectual property rights with the approval of TRIPs, including in the field of Plant Variety Protection. Philosophically there are several provisions in the PVP Law that need to be observed. One of them is the focus of this law that prioritizes economic interests and breeder rights rather than farmer rights. By using qualitative research and philosophical approach, this study concludes: First, in the perspective of politics of law, the protection of plant varieties in Indonesia has not been based on an ideal basis of Indonesian politics of law. Ideally, the stipulation of law in Indonesia must prioritize an ideological and normative basis that originates from Pancasila and the UUD 1945 as central values and are essential to Indonesian politics of law. Second, Plant Variety Protection in Indonesia is still oriented to food security, not to the limit of food sovereignty. The orientation of the Law on PVP should lead to efforts to liberate this country from the element of dependence on other countries by leading to food sovereignty. Third, in the perspective of Maqashid Sharia, the protection of Plant Varieties in Indonesia has not yet described efforts to create benefit for the Indonesian nation as a whole. The nature of Maqashid sharia is a benefit that rests on the interests of society in general. © IJSTR 2020.</t>
+          <t>Traditionally, tidal swampland has been utilized by the Banjarese tribe for farming. They have a unique indigenous knowledge in the paddy agriculture system. This indigenous knowledge is obtained hereditarily through the life experience in the interactions with the surrounding environment. By owning the indigenous knowledge, it can make the paddy agriculture in the tidal swampland sustainable. This research aimed at identifying and describing the indigenous knowledge of Banjarese tribe farmers in the tidal swampland which is commonly practiced until today. The method used in this research was a qualitative method with an ethnographic approach. In the research data collection, observation technique, documentation, and in-depth interview were used. The subjects of this study were the Banjarese tribe farmers who are supported by the key informant. The data analysis technique was conducted with triangulation technique. The research results showed that the Banjarese tribe farmers have the indigenous knowledge on season determination, land selection, land management, seed selection, planting, and harvesting. The implication of this study can give the information to the planning and development of agriculture in tidal swampland by the relevant agencies, realize the sustainable cultivation concept through the land conservation with the tapulikampar system, anticipate the crop failure, and realize the food sovereignty. @ EM International.</t>
         </is>
       </c>
       <c r="E156" t="n">
         <v>1</v>
       </c>
-      <c r="F156" t="n">
-        <v>1</v>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5538,7 +5554,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>How do grassroot NGOs in rural Myanmar express their visions for the food system? Food security and food sovereignty as entangled narratives within NGO struggles and strategies</t>
+          <t>Food democracy as ‘Radical’ food sovereignty: Agrarian democracy and counter-hegemonic resistance to the neo-imperial food regime</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -5546,7 +5562,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Recent research has promoted the idea that political struggles over food systems can be understood through the concepts of food security (the right to access food) and food sovereignty (the right to exercise control over food systems). These concepts emphasise different political priorities in the social relations of food: for the former, the promotion of decent work and the strengthening of the social safety net to enhance people's abilities to put food on their plates; for the latter, the defence of land, water and resource rights, to underpin capabilities for food own-provisioning. The question we pose in this paper is how these priorities are articulated by grassroots non-government organisations working at the frontline of global food poverty? Interviews with 22 representatives of food-related non-government organisations in Myanmar were used to elicit narratives about how they understood their challenges. The paper finds that narratives did not cohere exclusively to either the food security or food sovereignty concept, but blended ideas associated with the political priorities of both in complex and contradictory ways. These insights lend important firsthand evidence to the argument that supports a multi-dimensional framing of the politics of food that is inclusive of the diverse struggles highlighted by food security and food sovereignty concepts. © 2019 Victoria University of Wellington and John Wiley &amp; Sons Australia, Ltd</t>
+          <t>This article argues that a thoroughgoing and meaningful food democracy should entail something closely akin to ‘radical’ food sovereignty, a political programme which confronts the key social relational bases of capitalism. The latter comprise, in essence, ‘primitive accumulation,' the alienability or commodification of land and other fundamental use values, and market dependence. A thoroughgoing food democracy of this kind thus challenges the structural separation of the ‘economic’ and ‘political’ spheres within capitalism and the modern state (the state-capital nexus), a separation which enables purely political rights and obligations (‘political’ freedom or formal democracy) whilst simultaneously leaving unconstrained the economic powers of capital and their operation through market dependence (‘economic’ unfreedom or the lack of substantive democracy). We argue that much ‘food democracy’ discourse remains confined to this level of ‘political’ freedom and that, if food sovereignty is to be realized, this movement needs to address ‘economic’ unfreedom, in other words, to subvert capitalist social-property relations. We argue further that the political economy of food constitutes but a subset of these wider social relations, such that substantive food democracy is seen here to entail, like ‘radical’ food sovereignty, an abrogation of the three pillars upholding capitalism (primitive accumulation, absolute property rights, market dependence) as an intrinsic part of a wider and more integrated movement towards livelihood sovereignty. We argue here that the abrogation of these conditions upholding the state-capital nexus constitutes an essential part of the transformation of capitalist social-property relations towards common ‘ownership’?or, better, stewardship?of the means of livelihood, of which substantive food democracy is a key component. © 2019 by the author; licensee Cogitatio (Lisbon, Portugal).</t>
         </is>
       </c>
       <c r="E157" t="n">
@@ -5570,7 +5586,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>National general truck drivers' strike and food security in a Brazilian metropolis</t>
+          <t>Could social farming be a strategy to support food sovereignty in Europe?</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -5578,7 +5594,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Objective: We analysed the impact of the national general truck drivers' strike on the availability, variety and price of foods sold by a food supply centre.Design: Descriptive study using secondary data to examine the percentage change in the mean price of fruits, vegetables and eggs before, during and after the strike. The strike in Brazil lasted 10 d from 21 to 30 May 2018. The drivers were on strike in order to make diesel oil tax-free and to obtain better working conditions.Setting: The food supply centre, named CEASA-Minas Grande BH, was located in the metropolitan area of a Brazilian city.Participants: We examined twenty types of foods.Results: After 10 d, there was a ~30 % reduction in the availability of all types of foods and prices increased. Foods with the highest price increases included cabbage (233·3 %), potatoes (220·0 %), papaya (160·0 %) and oranges (78·6 %). At the end of the strike, we observed reductions in the price of eggs, fruits, vegetables, roots and tubers; however, some foods remained more expensive than before the strike, including chayote (203·2 % higher), cucumber (66·7 % higher) and potatoes (60·0 % higher).Conclusions: The general truck drivers' strike was correlated with a reduction in the availability of food and, consequently, increases in price and possibly restrictions on access. The strike demonstrated the dependence of metropolises on road transportation and the conventional market. We speculate that initiatives aiming to shorten the food supply chain and promote food sovereignty and resilience of the supply circuits could be important. © The Authors 2019.</t>
+          <t>Food sovereignty (FS) aims to obtain value-added products in proximity agriculture (PA) in order to achieve food security in a country. Social farming (SF) can help to develop this PA as well as favoring integration of people at risk of social exclusion (RSE). The methodology includes a review of the literature, a survey of 161 SF projects in Catalonia, and ten selected in-depth interviews. “Social Return on Investment” (SROI) methodology is also applied to assess the efficiency of the projects analyzed. The results show the economic, social, and environmental viability of the majority of the SF projects which, also favored by FS and PA, allows the development of innovative experiences and sustainable forms of governance. SF has been carried out in different ways in European countries, although with the common aims of benefitting people at RSE, and using the natural environment and PA through projects basically promoted by Third Sector entities. Management of these projects is in the hands of foundations and non-profit companies making top-down decisions, and in cooperatives and associations, where decision-making is bottom-up. It can be concluded that the promotion of SF can favor PA, and therefore, FS in Europe. © 2019 by the authors. Licensee MDPI, Basel, Switzerland.</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -5602,15 +5618,15 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Flux, unrelenting–the struggle for local seed sovereignty in Nicaragua</t>
+          <t>My land is my food: Exploring social function of large land deals using food security–land deals relation in five Eastern European countries</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Most farmers are not activists. They make, however, their own sense of the world and act–sometimes quite stubbornly–according to that sense given, grasping what they perceive as opportunities, and protecting what they feel as essential for their livelihood. Political projects for Nicaraguan society, international policy-making, corporate strategies and imperial ambitions engage with and affect the varieties grown locally. The article analyses the creativity and political potential, as well as the contradictions and inconsistencies of the quotidian practice of seed saving under extreme constraint in light of the major struggles about Nicaraguan seed legislation. © 2020, © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Food security provides a major topic for this study and the recurring point is food security–agricultural land relation. The analysis is grounded on the assumption that control over agricultural land means control over food. Effective control over land is one of the riskiest issues of large land deals. Permanent supply and sustainable access to quality food is influenced by structural socio-economic and political arrangements targeting agricultural land which often prevent individuals and entire communities from acquiring basic competencies and rights for their autonomy. The objective of the study is two folded: to investigate five Eastern European countries characteristics which are valued as determinants of food security–large land deals relation and to highlight the social utility of agricultural land property. Thus, the substantive theme of this study grows out of several observed streams of large land deals. In the first part, historical and economic influential factors connected to large land deals in Eastern Europe are approached, within the context of transition from centrally planned state economy to free market economy. The second part takes up the challenge to analyze the correlation between country characteristics that can impact on food security–land transaction relationship. Then, the paper goes on to introduce and explain, following Léon Duguit's theory of social utility, aspects about the social function of agricultural land ownership. Based on non-parametric tests, which included a set of 14 socio-economic variables, the results show, for example, a strong positive correlation between the size of closed land deals and both the size of country land area and of land under cereal production. The paper concludes with several proposals targeting fair land arrangements and practices that have the potential to transform themselves in building blocks for future policies dedicated to sustainable land management and food security. © 2019 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E159" t="n">
@@ -5634,7 +5650,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>State food security and people’s food sovereignty: competing visions of agriculture in China</t>
+          <t>Beyond the “special period”: land reform, supermarkets and the prospects for peasant-driven food sovereignty in post-socialist Cuba (2008–2017)</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -5642,7 +5658,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>This article examines reactions to global agribusiness concentration in the People’s Republic of China (PRC). In many countries, there is a trend of agribusiness concentration among relatively few multinational corporations (MNCs), which is often challenged by various forms of resistance from local food movements. The article identifies distinct overlap in discourses within the PRC. Arguments made by Chinese state/corporate actors and those by actors from alternative food movements focus on contesting global agricultural capital. These commonalities reveal a discursive battleground in China that creates unique constraints (and opportunities) for food activists, given state food security priorities. © 2018, © 2018 Canadian Association for the Study of International Development (CASID).</t>
+          <t>When Cuba’s trade-based food security strategy was threatened by the collapse of the socialist trading block in 1989–1991, the popular response of small and irregular farmers proved vital in providing a minimum food basket during the ensuing crisis. In 2008, a large-scale land reform sought to expand this development towards food sovereignty. We evaluate the reform impacts, finding that after an initial surge in 2009–2010, food production and land use have rebounded and stagnated at pre-reform levels. Peasant-led agricultural development is forestalled by inaccessibility of appropriate technologies, perceived land tenure insecurity, missing/deficient markets and competition from import-based supermarket chains. © 2019, © 2019 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E160" t="n">
@@ -5666,7 +5682,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Mobilising for food sovereignty: The pitfalls of international human rights strategies and an exploration of alternatives</t>
+          <t>Banana Brokers: Communicative labor, translocal translation, and transnational law</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -5674,14 +5690,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>This article considers the role played by the language of human rights in a global campaign for food sovereignty. Led initially by the international peasants’ movement, Vía Campesina, the campaign opposes the globalisation of agricultural markets and neoliberal interventions in food production. Alongside other strategies, the campaign makes creative use of human rights and also seeks their institutionalisation in a UN Declaration on the rights of peasants. An examination of how the campaign employs human rights reveals a more complicated process than that suggested by the theoretical polarisation of ‘top down’ and ‘bottom up’ accounts of rights development in the sociology of human rights. It demonstrates both wariness of state power and attempts to harness the power of the state against international forces. It also shows that a desire for legal reform co-exists with the struggle for more radical social and political transformations. © 2017 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>In contrast to hierarchical models of international law, contemporary transnational law is constituted by networks of states, international institutions, multinational corporations, and transnational activists struggling for power by producing competing norms. This essay examines how power is constructed and contested in transnational law through competing social practices of translation. By ethnographically analyzing the conflict over the "Super Banana"-a genetically modified crop funded by the Bill and Melinda Gates Foundation-I show how the circulation of transnational assemblages engender networks of translation that compete for interpretive authority. I argue that translocal translation can be distinguished from hegemonic practices of transnational translation based on translators' material and symbolic resources, epistemologies, and practices of commensuration. In doing so, this essay illuminates the often unrecognized differences in communicative labor that constitute contemporary forms of global legality. © 2018 by Duke University Press.</t>
         </is>
       </c>
       <c r="E161" t="n">
         <v>1</v>
       </c>
-      <c r="F161" t="n">
-        <v>1</v>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -5698,7 +5716,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Extrafamilial farm succession: an adaptive strategy contributing to the renewal of peasantries in Austria</t>
+          <t>Enhancing smallholder resilience through place-based knowledge and resource generation</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -5706,7 +5724,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>This article examines extrafamilial farm transmission, a process that brings together elderly farmers without successors and young people who aspire to farm but face various economic, social and cultural barriers to enter into the sector. First-hand accounts of the process from Austrian smallholders are systematically analysed to produce a stage-by-stage model. The multigenerational non-familial agrarian partnership this represents offers an alternative mechanism for maintaining small-scale food production and improving food security and food sovereignty. It is recommended as an adaptive strategy for the survival and re-generation of peasantry in the twenty-first century. © 2018, © 2018 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Rice systems are of particular significance to building climate resilience in the Philippines. This research brief summarizes a case study that comparatively measures differences in climate resilience between organic and conventional rice systems in four neighboring villages in Negros Occidental Province, as well as explores features of smallholder rice systems that are significant to building resilience. Data were collected through surveys, interviews, focus groups, and participant observation. A participatory approach was applied to account for socioecological context and to identify targeted interventions for enhancing climate resilience based on local conditions and farmer experiences. The results indicate that (a) of the participating rice systems, organic systems exhibit greater resilience than their conventional counterparts; (b) the current institutional arrangement prevents smallholders from transitioning to organic; and (c) a polycentric food sovereignty development approach helps Philippine smallholders overcome these institutional barriers, as well as builds smallholder capacities for resilience by supporting place-based knowledge and resource generation. More effort is needed to explore, analyze, and strengthen such polycentric food sovereignty interventions for climate change. © 2019 by the Author.</t>
         </is>
       </c>
       <c r="E162" t="n">
@@ -5730,7 +5748,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Do we need to categorize it? Reflections on constituencies and quotas as tools for negotiating difference in the global food sovereignty convergence space</t>
+          <t>Perceptions of agrodiversity and seed-saving practices in the northern Andes of Ecuador</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -5738,14 +5756,16 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Convergence–as an objective and as a process–designates the coming together of different social actors across strategic, political, ideological, sectoral and geographic divides. In this paper, we analyze the global food sovereignty movement (GFSM) as a convergence space, with a focus on constituencies and quotas as tools to maintain diversity while facilitating convergence. We show how the use of constituencies and quotas has supported two objectives of the GFSM: alliances building and effective direct representation in global policy-making spaces. We conclude by pointing to some convergence challenges the GFSM faces as it expands beyond its agrarian origins. © 2018, © 2018 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Background: As concerns about agrodiversity loss and its impact on food security increase, interest in seed-saving practices and motivations has risen, especially in regions characterized by ancestral farming. Agroecology practitioners in the northern Andes of Ecuador (n = 65) participated in this study to describe (1) the dynamics of intergenerational agrodiversity, (2) perceptions of relevance of the crops they grow, (3) criteria for characterizing the differences between conventional and non-conventional seeds, and (4) their seed-saving practices. Methods: This exploratory study incorporated a community-based participatory research approach using mixed methods. We conducted (1) a timeline mapping for exploring the dynamics of intergenerational agrodiversity and (2) structured interviews to explore the perception of relevance of crops grown to identify criteria for characterizing conventional and non-conventional seeds and for identifying seed-saving practices. We computed ranks and frequencies from free listing data derived from the interviews to detect the most salient patterns for crop diversity and seed-saving practices. A principal component analysis was performed to illustrate crops distribution within the study area. Results and discussion: Based on the timeline-mapping tool, we found that participants perceive an intergenerational loss of agrodiversity. Data derived from free listing determined that salient crops differ in each location of the study area, mostly due to geographic (altitude, climate), market factors, and crop management limitations. Responses from open-ended interview questions revealed that farmers discriminate conventional from non-conventional seeds using yield, adaptation to local conditions, pest tolerance, taste, and crop management as criteria. Analysis of free listing data determined that the most salient reported practices related to seed saving were soil fertility management, seed selection, safe seed storage, tilling and rowing, and weeding. Conclusions: This study contributes to raising awareness of intergenerational agrodiversity loss and replacement with modern crops. We found the relevance of crops and practices is subject to cultural and environmental context, and few agricultural practices are exclusively used for seed saving. Further, farmers clearly discriminate conventional from non-conventional seeds based on advantages and disadvantages, cultural motivation, and produce destination. The community-based participatory approach resulted in positive engagement from participants and promoted commitment from farmers to preserve agrodiversity and support practices at the community level. © 2019 The Author(s).</t>
         </is>
       </c>
       <c r="E163" t="n">
         <v>1</v>
       </c>
-      <c r="F163" t="n">
-        <v>1</v>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -5762,7 +5782,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Land of plenty, land of misery: Synergetic resource grabbing in Mozambique</t>
+          <t>Globalisation and food sovereignty: Impact of foreign direct investments and government expenditure in Ghana in 2001–2010</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -5770,7 +5790,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Global climate change policy enforcement has become the new driving force of resource grabbing in the context of the "scramble of resources" in Africa. Nevertheless, the environmental crisis should not be seen as an isolated phenomenon amid contemporary capitalism. On the contrary, a very distinct feature of the current wave of land grabs is the convergence of multiple crises, including food, energy/fuel, environmental, and financial. The Southern Mozambique District, Massingir, is an area with high potential regarding water sources and biodiversity. It recently became a host of a biofuel project, and also a huge block of land is being transformed into a conservation/tourism area; answering to many issues within capitalism's crisis, this area is an evidence of how synergetic resource grabbing can arise as a response to the convergence of multiple crises. Therefore, by analyzing the emerging politics of natural resources in Massingir District and the dynamics regarding the land-use change, changes in property relations, it is possible to understand how rural livelihoods are shaped. Risks related to food security and sovereignty, loss of control and access to resources, consistent narrowing down of the set of livelihood strategies, and inter-community conflicts over scarce resources are the main implications of such emerging climate-smart land politics. © 2019 by the authors.</t>
+          <t>The article looks at the globalisation effects on food availability in Ghana. The aim of the article is to analyse which of the selected macroeconomic indicators have a statistically significant impact on the increase of food availability in the country. Impacts of foreign direct investments on agriculture and government expenditures in agriculture have been tested. Correlation analyses and multiple regression analyses have been used to analyse the test results. Findings suggest that change in both foreign direct investments in agriculture and government expenditures in agriculture cause significant change in food availability in Ghana. At the same time, the impact of government expenditures on the amount of available food is in the case of Ghana more than two‑times higher than the impact of agricultural foreign direct investments, while the increase in government expenditures in agriculture does not cause a decrease in foreign direct investments in agriculture. © 2019 Mendel University of Agriculture and Forestry Brno. All Rights Reserved.</t>
         </is>
       </c>
       <c r="E164" t="n">
@@ -5794,7 +5814,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Agroecologies of displacement: a study of land access, dislocation, and migration in relation to sustainable food production in the Beach Flats Community Garden</t>
+          <t>Dealing with rejection: An application of the exit-voice framework to genome-edited food</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -5802,7 +5822,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>In this article, the Beach Flats Community Garden is used as a case study to theorize an “agroecologies of displacement.” We argue that farmers are increasingly less singularly place-based through involuntary displacement and that displacement and dispossession can shape agricultural practices in farming communities. We follow Cohen (2010), Kerssen and Brent (2017), and others in calling for the necessity to bring a historical and focused analysis of displacement, dispossession, and the dynamics of land under capitalist systems to our understanding of the articulations of food movements, in particular transformative agroecologies. © 2018, © 2018 Taylor &amp; Francis.</t>
+          <t>Genome editing has been hailed as both a revolutionary technology and potential solution to many agriculture-related and sustainability problems. However, owing to the past challenges and controversy generated by widespread rejection of genetic engineering, especially once applied to agriculture and food production, such innovations have also prompted their fair share of concern. Generally speaking, much of the discussion centers on the inadequacy or uncertainty of current regulatory regimes, partly owing to the vastly different approaches in the European Union and United States. Insofar as this focus on regulatory regimes is stimulated by the desire to bridge the divide between proponents and critics of genome editing, it risks losing sight of an essential aim of regulatory action: effectively responding to and fostering trust in consumers and the public. In this article, we thus assign priority to understanding the contours of individual dissatisfaction and its related responses. Toward this end, we apply and extend Hirschman's exit-voice framework to bring together, synthesize, and give much-needed substance to the diverse expressions of dissatisfaction and discontent with novel genome-editing technologies. Through the resulting synthetic framework, we then identify and evaluate which governance approaches can prevent actions seen to be problematic and, moreover, open up the space for a more active public. In this context, we devote specific attention to (i) use of labeling as a means to enable "exit" of consumers from markets and (ii) public deliberation as a possible expression of "voice." Indeed, both options are proposed and utilized in the context of genome editing, e.g., as a way for skeptical consumers to express their viewpoints, seek change in prevailing food systems, and navigate the conflicts and tensions from applying unique sets of values to assess the balance of risks and benefits. So far missing, though, is an evaluation of how well such efforts offer effective means for public expression, which is why we also link this framework to the wider issue of consumer sovereignty. Having done so, we conclude with a brief commentary on the potential and limitations of both options in the existing institutional framework of the EU. © 2019 Bartkowski and Baum.</t>
         </is>
       </c>
       <c r="E165" t="n">
@@ -5826,7 +5846,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Maritime Food Development Strategy as National Economic Pillar using SWOT Analysis Interpretative Structural Modelling (ISM)</t>
+          <t>History and challenges of Brazilian social movements for the achievement of the right to adequate food</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -5834,7 +5854,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>The rapid growth of population result in demand for food exceeds its supply capacity. The gap between the needs and availability of food is inseparable from the existing policies. The ability of a nation in fulfilling the needs of food affects the state sovereignty. The aim of research is to formulate strategies in promoting food sovereignty in maritime sector. Maritime potential can be viewed from to what extend a nation realizes and exploits the sea. This research used McKinsey 7S method, PEST analysis (Political, Economic, Socio-cultural, Technology), SWOT analysis and Interpretative Structural Modeling (ISM). This research is expected to encourage the government in national maritime food development. Based on the results of SWOT matrix analysis, the SO strategy consists of five strategies. The ST strategy consists of five strategies. The WO strategy consists of five steps while the WT strategy consists of two steps. In the hierarchical structure model, it can be seen that WT-2 Strategy is at the first level. WO-5 strategy is at the level of strategy 2. Level of strategy 3 consists of six sub-strategies. Level of strategy 4 has three sub-strategies. Level of strategy 5 consists of six sub-strategies. © Medwell Journals, 2019</t>
+          <t>The historical struggles that Brazil faced to overcome malnutrition coincided with the empowerment of civil society and social movements which played a crucial role in the affirmation of health and food as social rights. After two decades under military dictatorship, Brazil went through a redemocratization process in the 1980s when activism emerged to demand spaces to participate in policy-making regarding the social agenda, including food and nutrition security (FNS). From 1988 onward institutional structures were established: the National Council of FNS (CONSEA) convenes government and civil society sectors to develop and monitor the implementation of policies, systems and actions. Social participation has been at the heart of structural changes achieved since then. Nevertheless, the country faces multiple challenges regarding FNS such as the double burden of disease, increasing use of pesticides and genetically modified seeds, weak regulation of ultra-processed products, and marketing practices that affect the environment, population health, and food sovereignty. This article aims at examining the development of the participatory political system and the role played by Brazilian social movements in the country’s policies on FNS, in addition to outlining challenges faced by those policies. © 2018, © 2018 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E166" t="n">
@@ -5858,7 +5878,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Heritage and patrimony of the peasantry: An analytical framework to address rural development; [Herencia y patrimonios de campesinado: Un marco analítico para abordar el desarrollo rural]</t>
+          <t>Agroecology and food sovereignty</t>
         </is>
       </c>
       <c r="C167" t="n">
@@ -5866,7 +5886,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>The term “rural development” is exceptionally multifaceted, which makes it difficult to define. This and other features make it a ‘wicked problem’, which means the consequences of rural developmental problems can create other complications. To date, the important discussion of rural development has dealt with productivity and economic concerns. This discussion has many crucial aspects such as the environment, infrastructure, and respect for fundamental rights. This paper describes the ‘Heritage and Patrimony of the Peasantry’ as an alternative analytical framework for addressing rural development. This analytical framework takes important topics from other rural development perspectives (primarily focused on food sovereignty principles). The heritage and patrimony of the peasantry framework moves away from the market point of view, which converts everything into an asset that can be marketed, and utilizes other sources of heritage. The peasantry has seven kinds of ‘ heritages’ or ‘patrimonies’: natural, cultural, economic, physical, social, institutional, and human. These heritages or patrimonies are the bases of construction for a decent standard of living which will accomplish full rights for all rural inhabit-ants, i.e. rural development. © 2019, Universidad Nacional de Colombia. All rights reserved.</t>
+          <t>We propose that agroecology provides a framework for understanding ‘levels’ for the transition to sustainable food systems. If we agree that agroecology includes social and political dimensions of governing territorial food systems, then it must be linked to movements for food sovereignty. However, the concentration of power in food and farming systems locks in industrial logic, posing immense barriers to agroecological and social transition. This creates a tension between efforts at convergence of food system innovations from below, versus co-optation of grass-roots language and practices by private and public actors who are committed not to changing the logic of industrial agriculture, but instead to reducing its harm. We suggest agroecological and food sovereignty movements consciously embrace this tension as a dance of creativity and appropriation. If this dance can be made generative rather than deadly, it can open pathways for transition to new ways of seeing, experiencing, and getting food. © 2019 The Authors. IDS Bulletin and Institute of Development Studies.</t>
         </is>
       </c>
       <c r="E167" t="n">
@@ -5890,7 +5910,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Integration model of food security system and food sovereignty system in Indonesia</t>
+          <t>Sowing the seeds of resilience: a case study of community-based Indigenous seed conservation from Andhra Pradesh, India</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -5898,14 +5918,16 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>This research is important to integrate Food Security system with Food Sovereignty system. Starting from the current condition that the Food Security has not been integrated with Food Sovereignty system yet. It is known that Food Security system is developed by free market economy system, while Food Sovereignty system is determined based on national interest of a country in choosing food system considered suitable to be applied in its country. For the current condition in Indonesia, the food system still refers to the Food Security system. The Government does not have capacity to intervene the market directly and consequently, the number of food imports becomes high and the welfare of farmers slumps. Through this research, it is necessary to arrange and adapt the application of Integrated Model construction of Food Security System Integration and Food Sovereignty to Achieve Sustainable Food Self-Sufficiency in Indonesia. This research was conducted by using juridical-empirical approach which is oriented to holistic study and in its process, legal discipline gets the assistance of related discipline, such as economics, politics, technique, environment, human rights, social, and culture. The analysis of the research object was conducted through legal analysis. in addition to library research, data collection techniques used is field surveys and the analytical technique used is Cost-Benefit-Analysis (CBA).The result of this research is the arrangement of Integration Model Construction of Food Security System and Food Sovereignty to Achieve Sustainable Food Self-Sufficiency in Indonesia. © 2019, Institute of Advanced Scientific Research, Inc.. All rights reserved.</t>
+          <t>Despite increasing evidence of threats to Indigenous food systems, many Indigenous communities are innovating to enhance their resilience while conserving and promoting their traditional food systems, offering important lessons for rural development policy. This community-based case study explores one such Indigenous initiative: Sanjeevini, in Andhra Pradesh, India. Sanjeevini has been effective in designing and implementing creative strategies for seed sovereignty and biocultural conservation. Interviews with key persons associated with Sanjeevini (n = 8) and participatory field-research in the Araku Valley region, including interviews with small scale farmers (n = 30), revealed community development strategies emphasising a link between biological and cultural heritage in Indigenous food systems. These include hosting cultural seed festivals, establishing and maintaining community-based seed banks, and facilitating inter-community seed exchanges. Importantly, these strategies take place against a backdrop of community-organising that counteracts the dominant neo-liberal development agenda while resisting deforestation that threatens Indigenous livelihoods. Sanjeevini’s success demonstrates that through the adaptive assertion of self-determination, rural social change is possible. This paper highlights alternative, community-driven articulations of seed sovereignty while underscoring the significance of this community’s own vision in guiding rural innovation and offering promising working models for cultivating rural resilience. © 2019, © 2019 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E168" t="n">
         <v>1</v>
       </c>
-      <c r="F168" t="n">
-        <v>1</v>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -5922,7 +5944,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Building Healthy Community Relationships Through Food Security and Food Sovereignty</t>
+          <t>New materialist feminist ecological practices: La via campesina and activist environmental work</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -5930,7 +5952,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Background: Food insecurity disproportionately affects Indigenous Peoples and is linked to poor health outcomes. Indigenous Peoples' food systems once sustained their thriving societies; however, colonial policies of displacement and imposed assimilation severed connections to Indigenous food systems and lands, disrupting identity, culture, and well-being. Objective: In this article we share a grass-roots designed program that addresses food security and heeds Haudenosaunee teachings. The Story of Creation, the Great Law, and Ohénton Karihwatéhkwen (the words that come before all else) were the basis of the framework. The program acknowledges and uses community strengths and skills to enhance social connections and links with land and creation. Methods: The program brought together interested and knowledgeable community members and stakeholders to discuss and better understand food security in the community. This group formed as an advisory group called Ieiénthos Akotióhkwa - 'Planting Group' who shaped the food security activities. Results: The program delivered workshops to build skills and share knowledge about food production and preparation. It targeted diverse participant interests and needs within an environment meant to nurture social connections. The program planted food-bearing trees and plants and created a seed library to create edible landscapes. We invited a broad scope of community knowledge- and skill-holders to share their talents with the community, to reinforce positive connections with each other, and to carry on cultural practices. Conclusions: Challenges included program sustainability linked to short-term funding and personnel turnover. Strengths involved using a culturally based framework that enhanced program coherence, and facilitated collaboration with local initiatives focused on well-being, practicing culture, and respecting the environment. Haudenosaunee teachings hold values and principles for a society that provides food for all. These teachings are a framework for a culturally rich program to support food security skills and resources, but also Indigenous cultural identity and practices. © 2019 American Society for Nutrition.</t>
+          <t>Within the context of new theoretical developments in environmentalist materialism, as inflected by gender issues, this paper attempts to analyze the important work of La Via Campesina (women's section) both in grassroots activism and in creating a feminist agenda for the transformation of human-non-human connections. Methodologically, this paper proceeds by historically situating La Via Campesina and the progressive incorporation of women's issues as part of the movement. In parallel, La Via Campesina's insurgent practices of contestation to the exploitation of huge multinational agrobusinesses, to genetically modified crops, and to land-grabbing practices and land usurpation from indigenous populations are illustrated. In conclusion and within the frame of new materialisms, my discussion addresses issues of response-ability, sustainability, and co-habitation to reflect upon the major changes brought about by these new modes of thinking and inhabiting the planet. © 2019 by the authors.</t>
         </is>
       </c>
       <c r="E169" t="n">
@@ -5956,24 +5978,22 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Reimagining the relationship between food sovereignty and intellectual property for plants: Lessons from Ecuador and Nepal</t>
+          <t>Delinking, food sovereignty, and populist agronomy: notes on an intellectual history of the peasant path in the global South; [Déconnexion, souveraineté alimentaire, et agronomie populiste: notes sur une histoire intellectuelle du parcours paysan dans le Sud]</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>The concept of food sovereignty is regularly conceived as one side of a binary. Thus, scholars frequently juxtapose food sovereignty—as embodied in small-scale, customary, or peasant agriculture—against large-scale, industrial, and global modes of food production. The logic of this dichotomy suggests that the realization of food sovereignty is incompatible with the recognition of intellectual property for plants and seeds. In contrast, we argue that food sovereignty and intellectual property are not necessarily mutually exclusive concepts. Instead, food sovereignty activists and lawmakers alike are reimagining intellectual property to move beyond a focus on exclusive ownership, thus deploying it in novel ways. Our argument draws on extensive fieldwork, based on which we relate the experiences of two case study countries, namely Ecuador and Nepal. We describe how these countries recently embedded rights related to food sovereignty in reformed constitutional frameworks. We also evaluate how these novel constitutional food sovereignty rights shaped the making of other national laws in Ecuador and Nepal, including frameworks whose purpose is to protect plant varieties as intellectual property. Throughout the article, we demonstrate that countries can both promote food sovereignty and protect plant varieties as intellectual property. One way that governments can achieve this goal is to ensure that all relevant laws and policies—including those which relate to intellectual property for plant varieties, seed certification, and commercialization, and access and use of native genetic resources—are tailored to the realities of local food and seed systems. © 2019 The Authors. The Journal of World Intellectual Property © 2019 John Wiley &amp; Sons Ltd</t>
+          <t>The article examines the weakness of discourses around food sovereignty in Southwest Asia and North Africa, and examines some older currents resembling the food sovereignty discourse. The author first historically situates the emergence of food sovereignty. He discusses agro-ecology–the ‘technics’ (or social embeddedness of technology) of food sovereignty–and its national-popular content, before then developing elements of the delinking paradigm. He goes on to discuss Tunisian national-popular and Third Worldist agronomists’ and economists’ efforts to develop technics and frameworks for food sovereignty in the 1970s and 1980s. The article compares the food sovereignty paradigm with auto-centred, self-reliant development proposals, and the proposals of the Tunisian economists and agronomists. © 2018 ROAPE Publications Ltd.</t>
         </is>
       </c>
       <c r="E170" t="n">
         <v>1</v>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F170" t="n">
+        <v>1</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -5990,22 +6010,24 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>The territorial policy of rural development in brazil: Questions and reflections about the reconnection between production and consumption of food; [A política territorial do desenvolvimento rural no Brasil: Perguntas e reflexões sobre a reconexão entre produção e consumo de alimentos]; [La política territorial del desarrollo rural en Brasil: Preguntas y reflexiones sobre la reconexión entre producción y consumo de alimentos]</t>
+          <t>We don't want to be officially certified! reasons and implications of the participatory Guarantee systems</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Short marketing circuits and territorial rural development policies emphasize the importance of the reconnection between food production and consumption, with repercussions on the food security and sovereignty of local populations. For this, we analyzed official documents of the Program for the Sustainable Development of Rural Territories, the Citizenship Territories Program, the Territorial Development Plans, as well as field research on projects carried out in three rural territories and citizenship in the South of Brazil. From this analysis, it is possible to think of the strengthening of short circuits as the mechanism to promote rural territorial development. © 2019, Pontificia Universidad Javeriana. All rights reserved.</t>
+          <t>Official organic regulation in Europe is based on the third-party certification system to guarantee organic products. Many critics and dissatisfactions have motivated the emergence of other guarantee systems, based on an intense implication of producers and, in some cases, consumers and other local actors, involved in localised agri-food systems. They are called Participatory Guarantee Systems (PGS), and are not recognised as valid guarantee systems by the official organic regulation. In the present paper, we analyse the main differences between the PGS and the third party certification system, deepening on their differentiated social and political implications. We conclude that the procedures behind PGS generate numerous positive impacts in the territories related to local producers (and consumers) empowerment and localised agri-food systems drive, while their implications make them not considered as a substitute to third party certification system, unless certain conditions of social consolidated groups and agroecological and food sovereignty perspective of food system take place. © 2018 by the authors.</t>
         </is>
       </c>
       <c r="E171" t="n">
         <v>1</v>
       </c>
-      <c r="F171" t="n">
-        <v>1</v>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6022,15 +6044,15 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Indigenous knowledge of banjarese tribe farmers in paddy cultivation at tidal swamplands in South Kalimantan, Indonesia</t>
+          <t>Utopia, food sovereignty, and ethical fashion: The narrative power of anti-GMO campaigns</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Traditionally, tidal swampland has been utilized by the Banjarese tribe for farming. They have a unique indigenous knowledge in the paddy agriculture system. This indigenous knowledge is obtained hereditarily through the life experience in the interactions with the surrounding environment. By owning the indigenous knowledge, it can make the paddy agriculture in the tidal swampland sustainable. This research aimed at identifying and describing the indigenous knowledge of Banjarese tribe farmers in the tidal swampland which is commonly practiced until today. The method used in this research was a qualitative method with an ethnographic approach. In the research data collection, observation technique, documentation, and in-depth interview were used. The subjects of this study were the Banjarese tribe farmers who are supported by the key informant. The data analysis technique was conducted with triangulation technique. The research results showed that the Banjarese tribe farmers have the indigenous knowledge on season determination, land selection, land management, seed selection, planting, and harvesting. The implication of this study can give the information to the planning and development of agriculture in tidal swampland by the relevant agencies, realize the sustainable cultivation concept through the land conservation with the tapulikampar system, anticipate the crop failure, and realize the food sovereignty. @ EM International.</t>
+          <t>The idea of utopia has become pervasive in the age of everyday humanitarianism. Digital media communicate utopian ideas that allow people to “do good” for vulnerable others and the environment. At the same time, campaigns mobilize citizens by invoking apocalyptic images, such as genetically modified (GM) “monster” foods. This article looks at the construction of utopian and apocalyptic narratives in social movement campaigns and how they contribute to the construction of identities in the campaigns against GM food and Bt cotton, especially in India. Based on an analysis of campaign material, we show that “organic food” and “ethical cotton” products would be less successful without the concurrent use of apocalyptic narratives. Narratives that are more radical enabled the anti-GM food movement to mobilize large resistance. By contrast, a more inclusive narrative approach in the cotton/textile sector risks supporting interests that are detrimental to social justice and environmental protection. © 2018 Caucus for a New Political Science.</t>
         </is>
       </c>
       <c r="E172" t="n">
@@ -6056,15 +6078,15 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Food democracy as ‘Radical’ food sovereignty: Agrarian democracy and counter-hegemonic resistance to the neo-imperial food regime</t>
+          <t>Social change for sustainable localised food sovereignty: Convergence between prosumers and ethical entrepreneurs*</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>This article argues that a thoroughgoing and meaningful food democracy should entail something closely akin to ‘radical’ food sovereignty, a political programme which confronts the key social relational bases of capitalism. The latter comprise, in essence, ‘primitive accumulation,' the alienability or commodification of land and other fundamental use values, and market dependence. A thoroughgoing food democracy of this kind thus challenges the structural separation of the ‘economic’ and ‘political’ spheres within capitalism and the modern state (the state-capital nexus), a separation which enables purely political rights and obligations (‘political’ freedom or formal democracy) whilst simultaneously leaving unconstrained the economic powers of capital and their operation through market dependence (‘economic’ unfreedom or the lack of substantive democracy). We argue that much ‘food democracy’ discourse remains confined to this level of ‘political’ freedom and that, if food sovereignty is to be realized, this movement needs to address ‘economic’ unfreedom, in other words, to subvert capitalist social-property relations. We argue further that the political economy of food constitutes but a subset of these wider social relations, such that substantive food democracy is seen here to entail, like ‘radical’ food sovereignty, an abrogation of the three pillars upholding capitalism (primitive accumulation, absolute property rights, market dependence) as an intrinsic part of a wider and more integrated movement towards livelihood sovereignty. We argue here that the abrogation of these conditions upholding the state-capital nexus constitutes an essential part of the transformation of capitalist social-property relations towards common ‘ownership’?or, better, stewardship?of the means of livelihood, of which substantive food democracy is a key component. © 2019 by the author; licensee Cogitatio (Lisbon, Portugal).</t>
+          <t>Some resourceful community-driven initiatives for local food production and retail have recently appeared in Luxembourg, where low organic agricultural rates are paradoxically paired with high consumer demands. This niche of social innovators combines agro-ecology with circular economy practices. Four cases of alternative food networks are presented here – studied with qualitative interviews and participant observation. One was established in the 1980s and has about 200 employees, partly linked to social assistance. The more recent and smaller initiatives are characterised by cooperative governance, a community-supported agricultural outlook, hands-on workshops and time banks, all enabled by social media. These initiatives are more radical in their agro-ecological or permaculture practices, focusing on regenerative land use without relying on imports and fostering the integration of consumers with varying degrees of prosumer involvement. This politicised step goes further than mere (and possibly industrialised) organic production. It represents a cultural shift in the food system by attracting media and policy interest, diverting attention away from individuals and focusing instead on the collective efforts that are necessary to build a more resilient food system. Copyright © FrancoAngeli</t>
         </is>
       </c>
       <c r="E173" t="n">
@@ -6088,22 +6110,24 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Could social farming be a strategy to support food sovereignty in Europe?</t>
+          <t>Does indigenous and campesino traditional agriculture have anything to contribute to food sovereignty in Latin America? Evidence from Chile, Peru, Ecuador, Colombia, Guatemala and Mexico</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Food sovereignty (FS) aims to obtain value-added products in proximity agriculture (PA) in order to achieve food security in a country. Social farming (SF) can help to develop this PA as well as favoring integration of people at risk of social exclusion (RSE). The methodology includes a review of the literature, a survey of 161 SF projects in Catalonia, and ten selected in-depth interviews. “Social Return on Investment” (SROI) methodology is also applied to assess the efficiency of the projects analyzed. The results show the economic, social, and environmental viability of the majority of the SF projects which, also favored by FS and PA, allows the development of innovative experiences and sustainable forms of governance. SF has been carried out in different ways in European countries, although with the common aims of benefitting people at RSE, and using the natural environment and PA through projects basically promoted by Third Sector entities. Management of these projects is in the hands of foundations and non-profit companies making top-down decisions, and in cooperatives and associations, where decision-making is bottom-up. It can be concluded that the promotion of SF can favor PA, and therefore, FS in Europe. © 2019 by the authors. Licensee MDPI, Basel, Switzerland.</t>
+          <t>The current challenge for world agriculture is to provide food for a growing population, within a context of environmental degradation and economic inequality. The challenge is how to produce accessible, healthy, diverse, nutritious, safe and abundant food in a way that is sustainable, allowing farmers to exert food sovereignty while at the same time addressing ecosystem conservation. The aim of this study is to explore the potential contribution of traditional agriculture to food sovereignty and also to understand the challenges that indigenous communities are facing today. Our case studies are from six Latin-American countries: Chile, Peru, Ecuador, Colombia, Guatemala and Mexico, where we carried out semi-structured, guided visits and field observations. Our results shed light on how traditional agricultural knowledge, techniques and practices can contribute to these issues, but also to the need of protecting and recovering the cultural and ecological heritage. There is a need to resolve public management issues, related to development investment, technological packages, cultural loss and gender. If these are not addressed, the potential contribution of ancient agricultural knowledge will fail to contribute to strengthen food sovereignty and maintain the local markets, which are also places for seed exchange, knowledge sharing and social networking. © 2018, © 2018 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E174" t="n">
         <v>1</v>
       </c>
-      <c r="F174" t="n">
-        <v>1</v>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6120,22 +6144,24 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>My land is my food: Exploring social function of large land deals using food security–land deals relation in five Eastern European countries</t>
+          <t>Food Sovereignty and Gender Justice</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Food security provides a major topic for this study and the recurring point is food security–agricultural land relation. The analysis is grounded on the assumption that control over agricultural land means control over food. Effective control over land is one of the riskiest issues of large land deals. Permanent supply and sustainable access to quality food is influenced by structural socio-economic and political arrangements targeting agricultural land which often prevent individuals and entire communities from acquiring basic competencies and rights for their autonomy. The objective of the study is two folded: to investigate five Eastern European countries characteristics which are valued as determinants of food security–large land deals relation and to highlight the social utility of agricultural land property. Thus, the substantive theme of this study grows out of several observed streams of large land deals. In the first part, historical and economic influential factors connected to large land deals in Eastern Europe are approached, within the context of transition from centrally planned state economy to free market economy. The second part takes up the challenge to analyze the correlation between country characteristics that can impact on food security–land transaction relationship. Then, the paper goes on to introduce and explain, following Léon Duguit's theory of social utility, aspects about the social function of agricultural land ownership. Based on non-parametric tests, which included a set of 14 socio-economic variables, the results show, for example, a strong positive correlation between the size of closed land deals and both the size of country land area and of land under cereal production. The paper concludes with several proposals targeting fair land arrangements and practices that have the potential to transform themselves in building blocks for future policies dedicated to sustainable land management and food security. © 2019 Elsevier Ltd</t>
+          <t>Food sovereignty asserts the right of peoples to define and organize their own agricultural and food systems so as to meet local needs and so as to secure access to land, water and seed. A commitment to gender equity has been embedded in the food sovereignty concept from its earliest articulations. Some might wonder why gender justice should figure so prominently in a food movement. In this paper I review and augment the arguments for making gender equity a central component of food sovereignty. The most common argument is: if women constitute the majority of the world’s food producers, then agricultural policy is a women’s issue. And insofar as patriarchal social relations continue to dominate the globe, then changing agricultural policies will require explicit attention to gender injustice. I suggest that this is a good argument, but that an ecological feminist perspective can provide additional theoretical reasons for maintaining the centrality of gender justice in food sovereignty discourse. Moreover, ecological feminism can provide a robust theoretical framework that coheres a concept and movement with a wide set of concerns. My critique positions food sovereignty’s call to social justice as embedded in a truly radical re-thinking of dominant conceptual frameworks, and re-envisioning of political and ethical relations. © 2018, Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E175" t="n">
         <v>1</v>
       </c>
-      <c r="F175" t="n">
-        <v>1</v>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6152,22 +6178,24 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Beyond the “special period”: land reform, supermarkets and the prospects for peasant-driven food sovereignty in post-socialist Cuba (2008–2017)</t>
+          <t>Agroecology in Europe: Research, education, collective action networks, and alternative food systems</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>When Cuba’s trade-based food security strategy was threatened by the collapse of the socialist trading block in 1989–1991, the popular response of small and irregular farmers proved vital in providing a minimum food basket during the ensuing crisis. In 2008, a large-scale land reform sought to expand this development towards food sovereignty. We evaluate the reform impacts, finding that after an initial surge in 2009–2010, food production and land use have rebounded and stagnated at pre-reform levels. Peasant-led agricultural development is forestalled by inaccessibility of appropriate technologies, perceived land tenure insecurity, missing/deficient markets and competition from import-based supermarket chains. © 2019, © 2019 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Agroecology is considered with different focus and weight in different parts of the world as a social and political movement, as science, and as practice. Despite its multitude of definitions, agroecology has begun in Europe to develop in different regional, national and continental networks of researchers, practitioners, advocates and movements. However, there is a lack of a comprehensive overview about these different developments and networks. Therefore, this paper attempts to document and provide a mapping of the development of European agroecology in its diverse forms. Through a literature review, interviews, active conference participation, and an extensive internet search we have collected information about the current state and development of agroecology in Europe. Agroecological research and higher education exist more in western and northern Europe, but farm schools and farmer-to-farmer training are also present in other regions. Today a large variety of topics are studied at research institutions. There is an increasing number of bottom-up agroecological initiatives and national or continental networks and movements. Important movements are around food sovereignty, access to land and seeds. Except for France, there are very few concrete policies for agroecology in Europe. Agroecology is increasingly linked to different fields of agri-food systems. This includes Community Supported Agriculture systems, but also agroecological territories, and some examples of labelling products. To amplify agroecology in Europe in the coming years, policy development will be crucial and proponents of agroecology must join forces and work hand-in-hand with the many stakeholders engaged in initiatives to develop more sustainable agriculture and food systems. © 2018 by the authors.</t>
         </is>
       </c>
       <c r="E176" t="n">
         <v>1</v>
       </c>
-      <c r="F176" t="n">
-        <v>1</v>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6184,24 +6212,22 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Banana Brokers: Communicative labor, translocal translation, and transnational law</t>
+          <t>Drafting a Law, Dissolving a Proposal: Food Sovereignty and the State in Ecuador</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>In contrast to hierarchical models of international law, contemporary transnational law is constituted by networks of states, international institutions, multinational corporations, and transnational activists struggling for power by producing competing norms. This essay examines how power is constructed and contested in transnational law through competing social practices of translation. By ethnographically analyzing the conflict over the "Super Banana"-a genetically modified crop funded by the Bill and Melinda Gates Foundation-I show how the circulation of transnational assemblages engender networks of translation that compete for interpretive authority. I argue that translocal translation can be distinguished from hegemonic practices of transnational translation based on translators' material and symbolic resources, epistemologies, and practices of commensuration. In doing so, this essay illuminates the often unrecognized differences in communicative labor that constitute contemporary forms of global legality. © 2018 by Duke University Press.</t>
+          <t>Upon being sworn in as the 56th Ecuadorian President on 15 January 2007, Rafael Correa immediately convened, through a referendum, a National Constituent Assembly to draw up a new constitution. One of the concerns of the assembly was to translate into law a food-sovereignty proposal put forward by social movements. In the process of becoming law, the food-sovereignty proposal was much changed. How is it possible that the final version, the law, so far fell short of the food-sovereignty movement’s original proposal? Addressing this question implies a reflection on the role of the state. We argue that (a) instead of strengthening the role of peasants, their participation was reduced to a bureaucratic structure (a ‘council’) that lacked the capacity to define or implement policies, and (b) the issue of the social function of land and land-reform was removed. I therefore conclude that the social movements’ proposal for food sovereignty was stripped of its essentials. © 2018 SAGE Publications.</t>
         </is>
       </c>
       <c r="E177" t="n">
         <v>1</v>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F177" t="n">
+        <v>1</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6218,15 +6244,15 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Can the state take agroecology to scale? Public policy experiences in agroecological territorialization from Latin America</t>
+          <t>Human ecology and food systems: Insights from the Philippines</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>In this article we use a food sovereignty frame to analyze the role of the State in favoring agroecological scaling, particularly in Cuba and in the Latin American countries that elected leftist governments in the first years of the 21st century and currently face an upsurge of right-wing political forces. As with social movement participation in international governance structures, at the national level social movements face risks when they allow themselves to become absorbed in collaborations with the State in order to build public policy for taking agroecology to scale. By participating in the institutionalization of agroecology, movements become part of the established rules of the game, having to move within limits defined by a system that exists to preserve the interests of the dominant class. On the other hand, by boycotting the arena of governance, agroecological movements allow resurgent political and economic elites to grab land, territories and resources needed for agroecological food systems to ever become a global substitute for industrial agriculture. At the heart of the matter is the political character of agroecology: shall we continue betting on reform, in times of (counter) revolution?. © 2019, © 2019 Taylor &amp; Francis Group, LLC.</t>
+          <t>Feeding the world sustainably requires balancing social, economic, and environmental concerns. The food systems concept guides the study of social and environmental processes that influence food and nutrition security. Human ecology conceptually offers insights into the social components of a system and its interaction with environmental change. This paper demonstrates how human ecology helps identify the dominant discourses that influence dominant social drivers in food systems. This is done through documenting the historical legacies of agricultural commodity production systems in the Philippines since Spanish colonization, and the human and ecological implications of this history. The analysis shows the presence of a maladaptive system influenced by market-oriented food security as a dominant discourse. Alternative discourses focused on sovereignty and participation exist in the Philippines, however these are often marginalised from dominant policy and research programs. The paper discusses how weak feedback processes provide possible intervention points in policy or farmer-led activities to explore alternative pathways to food and nutrition security. The paper concludes with highlighting how human ecology offers useful framework for advancing food systems analysis into social, political, and policy dimensions of food activities. Such analysis can help develop new research and policies that require managing the competing discourses of how to achieve sustainable food and nutrition security. © 2018, Society for Human Ecology. All rights reserved.</t>
         </is>
       </c>
       <c r="E178" t="n">
@@ -6250,15 +6276,15 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Enhancing smallholder resilience through place-based knowledge and resource generation</t>
+          <t>Food sovereignty and consumer sovereignty: Two antagonistic goals?</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Rice systems are of particular significance to building climate resilience in the Philippines. This research brief summarizes a case study that comparatively measures differences in climate resilience between organic and conventional rice systems in four neighboring villages in Negros Occidental Province, as well as explores features of smallholder rice systems that are significant to building resilience. Data were collected through surveys, interviews, focus groups, and participant observation. A participatory approach was applied to account for socioecological context and to identify targeted interventions for enhancing climate resilience based on local conditions and farmer experiences. The results indicate that (a) of the participating rice systems, organic systems exhibit greater resilience than their conventional counterparts; (b) the current institutional arrangement prevents smallholders from transitioning to organic; and (c) a polycentric food sovereignty development approach helps Philippine smallholders overcome these institutional barriers, as well as builds smallholder capacities for resilience by supporting place-based knowledge and resource generation. More effort is needed to explore, analyze, and strengthen such polycentric food sovereignty interventions for climate change. © 2019 by the Author.</t>
+          <t>The concept of food sovereignty is becoming an element of everyday parlance in development politics and food justice advocacy. Yet to successfully achieve food sovereignty, the demands within this movement have to be compatible with the way people are pursuing consumer sovereignty and vice versa. The aim of this article is to examine the different sets of demands that the two ideals of sovereignty bring about, analyze in how far these different demands can stand in constructive relations with each other, and explain why consumers have to adjust their food choices to seasonal production variability to promote food sovereignty and so secure future autonomy. © 2017 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E179" t="n">
@@ -6282,15 +6308,15 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Perceptions of agrodiversity and seed-saving practices in the northern Andes of Ecuador</t>
+          <t>Where we dance (ecologically) together: reading Ananya Dance Theatre’s Roktim: Nurture Incarnadine</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Background: As concerns about agrodiversity loss and its impact on food security increase, interest in seed-saving practices and motivations has risen, especially in regions characterized by ancestral farming. Agroecology practitioners in the northern Andes of Ecuador (n = 65) participated in this study to describe (1) the dynamics of intergenerational agrodiversity, (2) perceptions of relevance of the crops they grow, (3) criteria for characterizing the differences between conventional and non-conventional seeds, and (4) their seed-saving practices. Methods: This exploratory study incorporated a community-based participatory research approach using mixed methods. We conducted (1) a timeline mapping for exploring the dynamics of intergenerational agrodiversity and (2) structured interviews to explore the perception of relevance of crops grown to identify criteria for characterizing conventional and non-conventional seeds and for identifying seed-saving practices. We computed ranks and frequencies from free listing data derived from the interviews to detect the most salient patterns for crop diversity and seed-saving practices. A principal component analysis was performed to illustrate crops distribution within the study area. Results and discussion: Based on the timeline-mapping tool, we found that participants perceive an intergenerational loss of agrodiversity. Data derived from free listing determined that salient crops differ in each location of the study area, mostly due to geographic (altitude, climate), market factors, and crop management limitations. Responses from open-ended interview questions revealed that farmers discriminate conventional from non-conventional seeds using yield, adaptation to local conditions, pest tolerance, taste, and crop management as criteria. Analysis of free listing data determined that the most salient reported practices related to seed saving were soil fertility management, seed selection, safe seed storage, tilling and rowing, and weeding. Conclusions: This study contributes to raising awareness of intergenerational agrodiversity loss and replacement with modern crops. We found the relevance of crops and practices is subject to cultural and environmental context, and few agricultural practices are exclusively used for seed saving. Further, farmers clearly discriminate conventional from non-conventional seeds based on advantages and disadvantages, cultural motivation, and produce destination. The community-based participatory approach resulted in positive engagement from participants and promoted commitment from farmers to preserve agrodiversity and support practices at the community level. © 2019 The Author(s).</t>
+          <t>In September 2015, Ananya Dance Theatre premiered Roktim: Nature Incarnadine, an evening-length dance about women of color, seeds, food systems, and soil. Roktim weaves dancers’ biographies with myth, history, and science to form an epic narrative intersecting environment and social difference—an environmental justice biomythography. This work is an unconventional example of an environmental dance in both aesthetic and content. Through a year of ethnographic fieldwork and participation with the company, I explore aspects of Roktim and how my own body becomes implicated in the work. Using literature from eco-dramaturgy, eco-criticism, dance studies, and environmental justice, I consider how the performance and a reading of it contributes a corporeal perspective to critical sustainability. © 2018, AESS.</t>
         </is>
       </c>
       <c r="E180" t="n">
@@ -6316,15 +6342,15 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Globalisation and food sovereignty: Impact of foreign direct investments and government expenditure in Ghana in 2001–2010</t>
+          <t>Contested fields: an analysis of anti-GMO politics on Hawai’i Island</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>The article looks at the globalisation effects on food availability in Ghana. The aim of the article is to analyse which of the selected macroeconomic indicators have a statistically significant impact on the increase of food availability in the country. Impacts of foreign direct investments on agriculture and government expenditures in agriculture have been tested. Correlation analyses and multiple regression analyses have been used to analyse the test results. Findings suggest that change in both foreign direct investments in agriculture and government expenditures in agriculture cause significant change in food availability in Ghana. At the same time, the impact of government expenditures on the amount of available food is in the case of Ghana more than two‑times higher than the impact of agricultural foreign direct investments, while the increase in government expenditures in agriculture does not cause a decrease in foreign direct investments in agriculture. © 2019 Mendel University of Agriculture and Forestry Brno. All Rights Reserved.</t>
+          <t>This paper details the evolution of activism against genetically modified organisms on the Big Island of Hawai’i. It offers an explanation for the ability of rural residents on the Big Island to pass anti-GMO legislation while other states and communities have tried and failed. I argue that the Big Island’s recent anti-GMO legislative success is due to the articulation of interests and actions between settlers to Hawai’i and Native Hawaiian community members seeking to protect Native Hawaiian rights. Tracing the history of the anti-GMO movement on Big Island highlights the unique circumstances that facilitated the passage of this bill, and is also significant for making sense of the potential future trajectories of anti-GMO-related food sovereignty movements elsewhere. © 2017, Springer Science+Business Media B.V.</t>
         </is>
       </c>
       <c r="E181" t="n">
@@ -6348,22 +6374,24 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Dealing with rejection: An application of the exit-voice framework to genome-edited food</t>
+          <t>‘Getting to the root causes of migration’ in West Africa–whose history, framing and agency counts?</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Genome editing has been hailed as both a revolutionary technology and potential solution to many agriculture-related and sustainability problems. However, owing to the past challenges and controversy generated by widespread rejection of genetic engineering, especially once applied to agriculture and food production, such innovations have also prompted their fair share of concern. Generally speaking, much of the discussion centers on the inadequacy or uncertainty of current regulatory regimes, partly owing to the vastly different approaches in the European Union and United States. Insofar as this focus on regulatory regimes is stimulated by the desire to bridge the divide between proponents and critics of genome editing, it risks losing sight of an essential aim of regulatory action: effectively responding to and fostering trust in consumers and the public. In this article, we thus assign priority to understanding the contours of individual dissatisfaction and its related responses. Toward this end, we apply and extend Hirschman's exit-voice framework to bring together, synthesize, and give much-needed substance to the diverse expressions of dissatisfaction and discontent with novel genome-editing technologies. Through the resulting synthetic framework, we then identify and evaluate which governance approaches can prevent actions seen to be problematic and, moreover, open up the space for a more active public. In this context, we devote specific attention to (i) use of labeling as a means to enable "exit" of consumers from markets and (ii) public deliberation as a possible expression of "voice." Indeed, both options are proposed and utilized in the context of genome editing, e.g., as a way for skeptical consumers to express their viewpoints, seek change in prevailing food systems, and navigate the conflicts and tensions from applying unique sets of values to assess the balance of risks and benefits. So far missing, though, is an evaluation of how well such efforts offer effective means for public expression, which is why we also link this framework to the wider issue of consumer sovereignty. Having done so, we conclude with a brief commentary on the potential and limitations of both options in the existing institutional framework of the EU. © 2019 Bartkowski and Baum.</t>
+          <t>Today’s ‘irregular migration’ from Sub-Saharan Africa has its roots in decades of policies which have impoverished rural economies and dispossessed small-scale producers to make room for export-oriented monocultures. Under pressure from opportunistic xenophobic political configurations the EU is reacting by seeking to block the unwanted flow of African migrants in their home countries through measures denounced by European civil society organizations. Its long-term recipe for ‘addressing the root causes of migration’ involves using EU cooperation funds to leverage resources from private investors ‘looking for new investment opportunities in emerging markets’, thereby promoting the same model of agricultural production and global value chains that has sparked today’s migration waves. An absent voice in the debate is that of the rural organizations in the territories from which the migrants originate. This paper seeks to reframe the issues from the viewpoint of these social constituencies, to recuperate their popular history of the evolutions that have transformed a portion of rural mobility into Europe-bound irregular migration, to map relevant contemporary rural transformations and the complexities of relations they engender, and to highlight initiatives underway today to build options of dignified and remunerative rural livelihoods for young people. Setting the West Africa-Europe nexus in the context of global processes of migration governance, this paper explores the opportunities for counter-hegemonic strategizing that EU internal policy contradictions open up and suggests how convergences might be promoted among actors and spaces that are currently inadequately connected with a view to defending both the right to migrate and the right to choose to stay at home. © 2018, © 2018 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E182" t="n">
         <v>1</v>
       </c>
-      <c r="F182" t="n">
-        <v>1</v>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6380,22 +6408,24 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>History and challenges of Brazilian social movements for the achievement of the right to adequate food</t>
+          <t>Participatory Guarantee Systems (PGS) in Mexico: a theoretic ideal or everyday practice?</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>The historical struggles that Brazil faced to overcome malnutrition coincided with the empowerment of civil society and social movements which played a crucial role in the affirmation of health and food as social rights. After two decades under military dictatorship, Brazil went through a redemocratization process in the 1980s when activism emerged to demand spaces to participate in policy-making regarding the social agenda, including food and nutrition security (FNS). From 1988 onward institutional structures were established: the National Council of FNS (CONSEA) convenes government and civil society sectors to develop and monitor the implementation of policies, systems and actions. Social participation has been at the heart of structural changes achieved since then. Nevertheless, the country faces multiple challenges regarding FNS such as the double burden of disease, increasing use of pesticides and genetically modified seeds, weak regulation of ultra-processed products, and marketing practices that affect the environment, population health, and food sovereignty. This article aims at examining the development of the participatory political system and the role played by Brazilian social movements in the country’s policies on FNS, in addition to outlining challenges faced by those policies. © 2018, © 2018 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Third-party certification (TPC), the most common organic certification system, has faced growing criticism in recent years. This has led to the development of alternative certification systems, most of which can be classed as Participatory Guarantee Systems (PGS). PGS have been promoted as a more suitable, cheaper and less bureaucratic alternative to TPC for local markets and are associated with additional benefits such as empowering smallholder farmers, facilitating farmer-to-farmer learning and enhancing food security and sovereignty. PGS have spread rapidly in the past few years, but studies suggest that they are facing numerous challenges that, if not addressed, may jeopardise these benefits. Using the example of three Mexican PGS initiatives, this paper explores the main challenges faced by PGS, specifically those predominantly found in producer-run PGS initiatives. Based on producer and consumer surveys, semi-structured and informal interviews, and participant and non-participant observation, the key challenges that emerged were continuous implementation of the certification process, time constraints, personal conflicts and conflict avoidance. The paper further argues that the requirements for PGS recognition under the Mexican Law for Organic Products may also threaten the continued existence of PGS and suggests that mechanisms for managing conflicts, incentivising PGS participation and mitigating opportunity costs are key if PGS are to continue to develop. © 2017, The Author(s).</t>
         </is>
       </c>
       <c r="E183" t="n">
         <v>1</v>
       </c>
-      <c r="F183" t="n">
-        <v>1</v>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6412,7 +6442,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Agroecology and food sovereignty</t>
+          <t>Politics in participatory guarantee systems for organic food production</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -6420,14 +6450,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>We propose that agroecology provides a framework for understanding ‘levels’ for the transition to sustainable food systems. If we agree that agroecology includes social and political dimensions of governing territorial food systems, then it must be linked to movements for food sovereignty. However, the concentration of power in food and farming systems locks in industrial logic, posing immense barriers to agroecological and social transition. This creates a tension between efforts at convergence of food system innovations from below, versus co-optation of grass-roots language and practices by private and public actors who are committed not to changing the logic of industrial agriculture, but instead to reducing its harm. We suggest agroecological and food sovereignty movements consciously embrace this tension as a dance of creativity and appropriation. If this dance can be made generative rather than deadly, it can open pathways for transition to new ways of seeing, experiencing, and getting food. © 2019 The Authors. IDS Bulletin and Institute of Development Studies.</t>
+          <t>In response to the neoliberal regulation of the organic agri-food sector through third-party certification (TPC), participatory guarantee systems (PGS) are advocated for their potential to promote food sovereignty, inclusivity, and grassroots empowerment. However, we show that in the Philippines, farming groups adopting PGS encounter politics that manifests as tensions and contradictions in the imagination and practice of this seemingly more transformative organic guarantee system. Based on qualitative research, we observed how some members continue to aspire for TPC resulting in cases of double certification (i.e. members having both PGS and TPC). Such contradiction encounters varying levels of contestation, which we attribute to the local particularities of the two PGS systems and the broader structural conditions that continue to privilege TPC. Rather than frame PGS as co-opted by the dominant neoliberalised organic agri-food sector, we emphasise possibilities for farmers’ autonomy in negotiating these tensions. © 2018 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E184" t="n">
         <v>1</v>
       </c>
-      <c r="F184" t="n">
-        <v>1</v>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6444,24 +6476,22 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Sowing the seeds of resilience: a case study of community-based Indigenous seed conservation from Andhra Pradesh, India</t>
+          <t>African Green Revolution, food sovereignty and constrained livelihood choice in Mozambique</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Despite increasing evidence of threats to Indigenous food systems, many Indigenous communities are innovating to enhance their resilience while conserving and promoting their traditional food systems, offering important lessons for rural development policy. This community-based case study explores one such Indigenous initiative: Sanjeevini, in Andhra Pradesh, India. Sanjeevini has been effective in designing and implementing creative strategies for seed sovereignty and biocultural conservation. Interviews with key persons associated with Sanjeevini (n = 8) and participatory field-research in the Araku Valley region, including interviews with small scale farmers (n = 30), revealed community development strategies emphasising a link between biological and cultural heritage in Indigenous food systems. These include hosting cultural seed festivals, establishing and maintaining community-based seed banks, and facilitating inter-community seed exchanges. Importantly, these strategies take place against a backdrop of community-organising that counteracts the dominant neo-liberal development agenda while resisting deforestation that threatens Indigenous livelihoods. Sanjeevini’s success demonstrates that through the adaptive assertion of self-determination, rural social change is possible. This paper highlights alternative, community-driven articulations of seed sovereignty while underscoring the significance of this community’s own vision in guiding rural innovation and offering promising working models for cultivating rural resilience. © 2019, © 2019 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>This article examines the complicated food security agendas of the African Green Revolution and the food sovereignty models in Mozambique. Drawing on fieldwork conducted by the author in Mozambique in 2014 and 2015, the paper analyses how smallholder farmers engage with these two agrarian models. Whereas the literature frequently presents the African Green Revolution and the food sovereignty in oppositional frames, this paper finds that farmers in Mozambique utilize some of the tools that these models offer in complementary rather than competing ways. One such area is the use of commercial hybrid seeds and herbicides by some farmers associated with food sovereignty, an approach that runs counter to food sovereignty’s principles of agroecology. In Mozambique, farmers’ “lived experience” of food sovereignty is more a strategic response to their limited livelihood options, using whatever tools are available to them, rather than a resistance to power. © 2018, © 2018 Canadian Association of African Studies.</t>
         </is>
       </c>
       <c r="E185" t="n">
         <v>1</v>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F185" t="n">
+        <v>1</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6478,24 +6508,22 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>New materialist feminist ecological practices: La via campesina and activist environmental work</t>
+          <t>An initiative for the study and use of genetic diversity of domesticated plants and their wild relatives</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Within the context of new theoretical developments in environmentalist materialism, as inflected by gender issues, this paper attempts to analyze the important work of La Via Campesina (women's section) both in grassroots activism and in creating a feminist agenda for the transformation of human-non-human connections. Methodologically, this paper proceeds by historically situating La Via Campesina and the progressive incorporation of women's issues as part of the movement. In parallel, La Via Campesina's insurgent practices of contestation to the exploitation of huge multinational agrobusinesses, to genetically modified crops, and to land-grabbing practices and land usurpation from indigenous populations are illustrated. In conclusion and within the frame of new materialisms, my discussion addresses issues of response-ability, sustainability, and co-habitation to reflect upon the major changes brought about by these new modes of thinking and inhabiting the planet. © 2019 by the authors.</t>
+          <t>Domestication has been influenced by formal plant breeding since the onset of intensive agriculture and the Green Revolution. Despite providing food security for some regions, intensive agriculture has had substantial detrimental consequences for the environment and does not fulfill smallholder’s needs under most developing countries conditions. Therefore, it is necessary to look for alternative plant production techniques, effective for each environmental, socio-cultural, and economic conditions. This is particularly relevant for countries that are megadiverse and major centers of plant domestication and diversification. In this white paper, a Mexico-centered initiative is proposed, with two main objectives: (1) to study, understand, conserve, and sustainably use the genetic diversity of domesticated plants and their wild relatives, as well as the ongoing evolutionary processes that generate and maintain it; and (2) to strengthen food and forestry production in a socially fair and environmentally friendly way. To fulfill these objectives, the initiative focuses on the source of variability available for domestication (genetic diversity and functional genomics), the context in which domestication acts (breeding and production) and one of its main challenges (environmental change). Research on these components can be framed to target and connect both the theoretical understanding of the evolutionary processes, the practical aspects of conservation, and food and forestry production. The target, main challenges, problems to be faced and key research questions are presented for each component, followed by a roadmap for the consolidation of this proposal as a national initiative. © 2018 Mastretta-Yanes, Acevedo Gasman, Burgeff, Cano Ramírez, Piñero and Sarukhán.</t>
         </is>
       </c>
       <c r="E186" t="n">
         <v>1</v>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F186" t="n">
+        <v>1</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6512,7 +6540,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>We don't want to be officially certified! reasons and implications of the participatory Guarantee systems</t>
+          <t>What role for trade in food sovereignty? Insights from a small island archipelago</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -6520,16 +6548,14 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Official organic regulation in Europe is based on the third-party certification system to guarantee organic products. Many critics and dissatisfactions have motivated the emergence of other guarantee systems, based on an intense implication of producers and, in some cases, consumers and other local actors, involved in localised agri-food systems. They are called Participatory Guarantee Systems (PGS), and are not recognised as valid guarantee systems by the official organic regulation. In the present paper, we analyse the main differences between the PGS and the third party certification system, deepening on their differentiated social and political implications. We conclude that the procedures behind PGS generate numerous positive impacts in the territories related to local producers (and consumers) empowerment and localised agri-food systems drive, while their implications make them not considered as a substitute to third party certification system, unless certain conditions of social consolidated groups and agroecological and food sovereignty perspective of food system take place. © 2018 by the authors.</t>
+          <t>The food sovereignty movement has been gathering momentum in advocating the rights of individuals and nations to control their own food systems. Alongside this is a mounting critical engagement regarding its privileging of local food production as the means through which to achieve this goal. Adopting a place-based approach, we explore the foodways of diverse communities across a small island archipelago–the Turks and Caicos Islands in the West Indies. Based on interviews and focus groups, we unpack narratives relating to islanders’ changing food practices and aspirations. These are understood as two competing but inter-related themes of disruption and reification of current practices shaped by wider food regimes in interaction with ecological challenges. Given that conditions of historic dependency implicate the islands in a myriad of dependent trade relationships, we argue that small island economies offer, and require, unique cases for understanding how sovereign conditions for trade might be developed in line with a food sovereignty framework. We underline the importance of an inter-disciplinary focus for bringing forth a nuanced understanding of what might be required to shape more sustainable, sovereign and secure food futures. Doing so is necessarily rooted in an appreciation of islanders’ accounts of social, economic, political and ecological change over time. © 2017 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E187" t="n">
         <v>1</v>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F187" t="n">
+        <v>1</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6546,7 +6572,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Utopia, food sovereignty, and ethical fashion: The narrative power of anti-GMO campaigns</t>
+          <t>Complex systems, agroecological matrices, and management of forest resources: An example of an application in Los Tuxtlas, Veracruz, Mexico</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -6554,16 +6580,14 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>The idea of utopia has become pervasive in the age of everyday humanitarianism. Digital media communicate utopian ideas that allow people to “do good” for vulnerable others and the environment. At the same time, campaigns mobilize citizens by invoking apocalyptic images, such as genetically modified (GM) “monster” foods. This article looks at the construction of utopian and apocalyptic narratives in social movement campaigns and how they contribute to the construction of identities in the campaigns against GM food and Bt cotton, especially in India. Based on an analysis of campaign material, we show that “organic food” and “ethical cotton” products would be less successful without the concurrent use of apocalyptic narratives. Narratives that are more radical enabled the anti-GM food movement to mobilize large resistance. By contrast, a more inclusive narrative approach in the cotton/textile sector risks supporting interests that are detrimental to social justice and environmental protection. © 2018 Caucus for a New Political Science.</t>
+          <t>Today humanity faces several complex problems, two of which are global warming and the loss of biological diversity. An agroecological matrix approach, conceives the territory as patches of natural and cultivated vegetation, interconnected to maintain watershed integrity. Many ethnic groups maintain a high biological heterogeneity as in the case of the agrological matrix. This study analyzed features and trends in a specific agroecological matrix, integrating local and scientific knowledge with environmental and social information, as a complex system. For the last 15 years we studied agroecological spaces used by the Ntaj'uy (Zoque-Popoluca) people in Los Tuxtlas, Veracruz, Mexico. Participatory methods were used to understand social interactions and land management decisions. Ecology field methods allowed us to assess soil loss, litter production, water quality, and vegetation structure. Soil erosion, vegetation fragmentation and social marginalization are the most important problems in the region; the tropical sub-evergreen forest has decreased by about 60%, the deciduous forest is down by 80%, and cultivated pastures have increased over 400%. Coffee and milpa agroecosystems could be improved, through product diversification, along with interconnectivity among vegetation patches, to prevent environmental degradation, and improve conditions to reach food sovereignty and income diversification, in a context of Ntaj'uy self-determination in their territories. © 2018 by the authors.</t>
         </is>
       </c>
       <c r="E188" t="n">
         <v>1</v>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F188" t="n">
+        <v>1</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -6580,7 +6604,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Social change for sustainable localised food sovereignty: Convergence between prosumers and ethical entrepreneurs*</t>
+          <t>Beyond access and benefit-sharing: Lessons from the law and governance of agricultural biodiversity</t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -6588,14 +6612,16 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Some resourceful community-driven initiatives for local food production and retail have recently appeared in Luxembourg, where low organic agricultural rates are paradoxically paired with high consumer demands. This niche of social innovators combines agro-ecology with circular economy practices. Four cases of alternative food networks are presented here – studied with qualitative interviews and participant observation. One was established in the 1980s and has about 200 employees, partly linked to social assistance. The more recent and smaller initiatives are characterised by cooperative governance, a community-supported agricultural outlook, hands-on workshops and time banks, all enabled by social media. These initiatives are more radical in their agro-ecological or permaculture practices, focusing on regenerative land use without relying on imports and fostering the integration of consumers with varying degrees of prosumer involvement. This politicised step goes further than mere (and possibly industrialised) organic production. It represents a cultural shift in the food system by attracting media and policy interest, diverting attention away from individuals and focusing instead on the collective efforts that are necessary to build a more resilient food system. Copyright © FrancoAngeli</t>
+          <t>The concept of fair and equitable benefit-sharing emerged in the early 90s as a corollary to the principle of national sovereignty over natural and genetic resources. In the context of agricultural biodiversity use, it can be conceptualized in three ways: as a defensive tool to balance the injustices enshrined in the intellectual property rights system; as a development tool to reap part of the benefits of the emerging biodiversity market; and as an incentive, to reward and enable farmers' continued contribution to conservation. This article seeks to assess the potential of the concept in operationalizing fairness and equity in agricultural biodiversity governance, in an increasingly complex legal and policy landscape of conflicting rights and policies. It briefly explains its emergence in the context of the evolving principles of governance of agricultural biodiversity; and analyses the structure and application of the Multilateral System of Access and Benefit-sharing established by the International Treaty on Plant Genetic Resources for Food and Agriculture in the framework of intellectual property- and human rights-related processes. Identifying linkages, challenges and key lessons, which are useful for a wide range of processes within and beyond the international environmental law realm, it concludes that the concept falls short of its promises. It thus calls for imagining new dialogues and concepts to redefine the boundaries between what must remain in the public domain, what may be managed as a commons and what may be privatized. © 2018 The Authors. The Journal of World Intellectual Property © 2018 John Wiley &amp; Sons Ltd</t>
         </is>
       </c>
       <c r="E189" t="n">
         <v>1</v>
       </c>
-      <c r="F189" t="n">
-        <v>1</v>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -6612,7 +6638,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Does indigenous and campesino traditional agriculture have anything to contribute to food sovereignty in Latin America? Evidence from Chile, Peru, Ecuador, Colombia, Guatemala and Mexico</t>
+          <t>The insecurity of food security in Russia’s Far North</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -6620,16 +6646,14 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>The current challenge for world agriculture is to provide food for a growing population, within a context of environmental degradation and economic inequality. The challenge is how to produce accessible, healthy, diverse, nutritious, safe and abundant food in a way that is sustainable, allowing farmers to exert food sovereignty while at the same time addressing ecosystem conservation. The aim of this study is to explore the potential contribution of traditional agriculture to food sovereignty and also to understand the challenges that indigenous communities are facing today. Our case studies are from six Latin-American countries: Chile, Peru, Ecuador, Colombia, Guatemala and Mexico, where we carried out semi-structured, guided visits and field observations. Our results shed light on how traditional agricultural knowledge, techniques and practices can contribute to these issues, but also to the need of protecting and recovering the cultural and ecological heritage. There is a need to resolve public management issues, related to development investment, technological packages, cultural loss and gender. If these are not addressed, the potential contribution of ancient agricultural knowledge will fail to contribute to strengthen food sovereignty and maintain the local markets, which are also places for seed exchange, knowledge sharing and social networking. © 2018, © 2018 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>The food security model envisions food supply from industrial agriculture, food production from smallholders, and food imports. The food sovereignty model emphasizes locally-sourced food from sustainable agriculture and implies self-sufficiency while being silent on the role of imports. This article argues that neither model fits Russia’s Far North well. Residents of the Far North are generally food secure based on consumption, but their food security is insecure because of questions surrounding the reliability of food supply. The article suggests four additional factors to the food security model to sensitize it to the Russian Far North. © 2018, © 2018 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E190" t="n">
         <v>1</v>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F190" t="n">
+        <v>1</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -6646,7 +6670,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Food Sovereignty and Gender Justice</t>
+          <t>Greenhouse Agriculture in the Icelandic Food System</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -6654,16 +6678,14 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Food sovereignty asserts the right of peoples to define and organize their own agricultural and food systems so as to meet local needs and so as to secure access to land, water and seed. A commitment to gender equity has been embedded in the food sovereignty concept from its earliest articulations. Some might wonder why gender justice should figure so prominently in a food movement. In this paper I review and augment the arguments for making gender equity a central component of food sovereignty. The most common argument is: if women constitute the majority of the world’s food producers, then agricultural policy is a women’s issue. And insofar as patriarchal social relations continue to dominate the globe, then changing agricultural policies will require explicit attention to gender injustice. I suggest that this is a good argument, but that an ecological feminist perspective can provide additional theoretical reasons for maintaining the centrality of gender justice in food sovereignty discourse. Moreover, ecological feminism can provide a robust theoretical framework that coheres a concept and movement with a wide set of concerns. My critique positions food sovereignty’s call to social justice as embedded in a truly radical re-thinking of dominant conceptual frameworks, and re-envisioning of political and ethical relations. © 2018, Springer Nature B.V.</t>
+          <t>Greenhouses are a frequent feature on the Icelandic rural landscape and an integral part of Iceland's food system. Iceland's reserves of geothermal energy present an opportunity to extend an otherwise short growing season. This promotes sustainability, increases food security, and benefits consumers. This article examines the relative strengths of Iceland's greenhouse sector - using a combination of statistics, observations, and interviews to understand the resource demands of greenhouse agriculture, how well greenhouses can allay some food insecurity and provide local foods. It ends with an examination of how the reduction of subsidies used to keep greenhouse agriculture going, has had an effect and forces the question of whether losing much of Iceland's agricultural sector and locally sourced food is worth the social and political costs. © 2019 Gina M. Butrico, David H. Kaplan, published by Sciendo 2019.</t>
         </is>
       </c>
       <c r="E191" t="n">
         <v>1</v>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F191" t="n">
+        <v>1</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -6680,7 +6702,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Agroecology in Europe: Research, education, collective action networks, and alternative food systems</t>
+          <t>From Food Production to Commodity Production in Argentina’s Agricultural Sector</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -6688,16 +6710,14 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Agroecology is considered with different focus and weight in different parts of the world as a social and political movement, as science, and as practice. Despite its multitude of definitions, agroecology has begun in Europe to develop in different regional, national and continental networks of researchers, practitioners, advocates and movements. However, there is a lack of a comprehensive overview about these different developments and networks. Therefore, this paper attempts to document and provide a mapping of the development of European agroecology in its diverse forms. Through a literature review, interviews, active conference participation, and an extensive internet search we have collected information about the current state and development of agroecology in Europe. Agroecological research and higher education exist more in western and northern Europe, but farm schools and farmer-to-farmer training are also present in other regions. Today a large variety of topics are studied at research institutions. There is an increasing number of bottom-up agroecological initiatives and national or continental networks and movements. Important movements are around food sovereignty, access to land and seeds. Except for France, there are very few concrete policies for agroecology in Europe. Agroecology is increasingly linked to different fields of agri-food systems. This includes Community Supported Agriculture systems, but also agroecological territories, and some examples of labelling products. To amplify agroecology in Europe in the coming years, policy development will be crucial and proponents of agroecology must join forces and work hand-in-hand with the many stakeholders engaged in initiatives to develop more sustainable agriculture and food systems. © 2018 by the authors.</t>
+          <t>An analysis of the semiotic and productive transformation of food crops under Argentina’s agribusiness model through a study of the diffusion of the term “commodity” in the discourse produced/reproduced by the rural sections of the hegemonic media, combined with statistical data that allow a dialogue between discourse and measurable quantities, concludes that defining the Argentine countryside as a place for commodity production is linked with increasing crop production for export that leads to the erosion of food sovereignty and food security. Un análisis de las transformaciones semióticas y productivas de los frutos de la tierra bajo el modelo argentino de los agronegocios que examina la extensión del término commodity en los discursos producidos/reproducidos por las secciones rurales de los medios gráficos de comunicación hegemónicos, entrecruzado con datos estadísticos para poner en diálogo el nivel del discurso con el de las cantidades medibles, concluye que la consigna que define al campo argentino como un lugar de producción de commodities se imbrica con una tendencia a la intensificación de los cultivos orientados exclusivamente a la exportación y la erosión de la soberanía y seguridad alimentaria. © 2018 Latin American Perspectives.</t>
         </is>
       </c>
       <c r="E192" t="n">
         <v>1</v>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F192" t="n">
+        <v>1</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -6714,7 +6734,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Drafting a Law, Dissolving a Proposal: Food Sovereignty and the State in Ecuador</t>
+          <t>The rise of new rights for peasants. From reliance on NGO intermediaries to direct representation</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -6722,14 +6742,16 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Upon being sworn in as the 56th Ecuadorian President on 15 January 2007, Rafael Correa immediately convened, through a referendum, a National Constituent Assembly to draw up a new constitution. One of the concerns of the assembly was to translate into law a food-sovereignty proposal put forward by social movements. In the process of becoming law, the food-sovereignty proposal was much changed. How is it possible that the final version, the law, so far fell short of the food-sovereignty movement’s original proposal? Addressing this question implies a reflection on the role of the state. We argue that (a) instead of strengthening the role of peasants, their participation was reduced to a bureaucratic structure (a ‘council’) that lacked the capacity to define or implement policies, and (b) the issue of the social function of land and land-reform was removed. I therefore conclude that the social movements’ proposal for food sovereignty was stripped of its essentials. © 2018 SAGE Publications.</t>
+          <t>The UN Declaration on the Rights of Peasants and other people working in rural areas, adopted by the UN General Assembly in December 2018, recognises new human rights to peasants and other people working in rural areas. The recognition of these rights (such as the right to land, seeds or biodiversity) in international law responds to a normative gap identified by the affected themselves and contributes to the project of ‘decolonising’ human rights. This international law-making process constitutes an important innovation in that it was requested by and developed with the active involvement of La Via Campesina activists—and other transnational movements representing other categories of rural food producers—who have positioned themselves as ‘law makers’. In this paper, I argue that a commitment to ‘human rights from below’ must account for and support the direct engagement, in international law-making, of transnational social movements representing the affected and speaking on their own behalf. © 2019 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E193" t="n">
         <v>1</v>
       </c>
-      <c r="F193" t="n">
-        <v>1</v>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -6746,7 +6768,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Human ecology and food systems: Insights from the Philippines</t>
+          <t>Government policies for food sovereignty: Disjunction between ideality and reality</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -6754,7 +6776,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Feeding the world sustainably requires balancing social, economic, and environmental concerns. The food systems concept guides the study of social and environmental processes that influence food and nutrition security. Human ecology conceptually offers insights into the social components of a system and its interaction with environmental change. This paper demonstrates how human ecology helps identify the dominant discourses that influence dominant social drivers in food systems. This is done through documenting the historical legacies of agricultural commodity production systems in the Philippines since Spanish colonization, and the human and ecological implications of this history. The analysis shows the presence of a maladaptive system influenced by market-oriented food security as a dominant discourse. Alternative discourses focused on sovereignty and participation exist in the Philippines, however these are often marginalised from dominant policy and research programs. The paper discusses how weak feedback processes provide possible intervention points in policy or farmer-led activities to explore alternative pathways to food and nutrition security. The paper concludes with highlighting how human ecology offers useful framework for advancing food systems analysis into social, political, and policy dimensions of food activities. Such analysis can help develop new research and policies that require managing the competing discourses of how to achieve sustainable food and nutrition security. © 2018, Society for Human Ecology. All rights reserved.</t>
+          <t>The conceptualizes food security and food sovereignty as fluid and changing discourses that define the problem of hunger. The discursive geohistories of food security and food sovereignty in order to identify oppositions and relationalities between them. I argue that the interpretations of, and relations between, food security and food sovereignty vary by geography and scale, as well as by the conceptual and theoretical differences within the discourses themselves. When and where these discourses develop and emerge is central to understanding their oppositions and convergences. How scale is constructed within particular discourses is also important to understanding how they co-exist relationally or in opposition. Food security and food sovereignty discourses are tied to distinctive political and economic histories, ecologies, and identities at the national and local levels. They are differentially deployed depending upon geographic context and the political economy of development and underdevelopment. Both discourses are dynamic and changing in relation to the wider political and cultural economies of food system dynamics across scale. Uniform definitions of each term should be resisted. The point is to understand the geographies of their relational overlap and their continual difference. © 2018 HALREV. All rights reserved.</t>
         </is>
       </c>
       <c r="E194" t="n">
@@ -6778,7 +6800,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Food security and food sovereignty in West Africa</t>
+          <t>Analysing agricultural investment from the realities of small-scale food providers: grounding the debates</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -6786,7 +6808,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>The paper analyzes the evolution of food security in West Africa during the last 25 years. The Millennium Development Goal One aims at halving the proportion of people who suffer from hunger by 2015. Although Sub-Saharan Africa remains far from reaching the hunger target, West Africa presents a better situation, with eight countries that will meet the target. The paper focuses on international food trade, analyzing the recent growth of food imports in West Africa and the impact of this growth on food security. The last part of the paper is focused on the case of Benin: the country achieved an important reduction in undernourishment since 1990. The analysis aims to highlight the role of short food supply chains in rural development and therefore in food security strategies. The department of Atacora, in northern Benin, is used as a case study to show the recent evolution of local food networks in a region traditionally characterized by an export-oriented agriculture. In conclusion the paper highlights the link between food security, international trade, and local food networks, showing the potential of the ‘food sovereignty’ paradigm in understanding the geographies of food in West Africa. © 2016 The African Specialty Group of the American Association of Geographers.</t>
+          <t>Over the past decade, agricultural investment has been presented as a catchall solution to a converging set of global crises, often with poor rural communities as the proclaimed beneficiaries. Yet the promises of such investment, such as poverty alleviation and improved food access, are routinely at odds with realities on the ground. This article offers frameworks for analysis of agricultural investment that are grounded in the realities of small-scale food providers, drawing from two studies. The first study employs a right to food framework to identify the main channels through which food for consumption is procured by small-scale food providers and the factors impacting these channels. It draws on empirical data from within the Southern Agricultural Growth Corridor of Tanzania (SAGCOT), an investment model promised to lift rural communities out of poverty, which reflects a regional trend. Based on the shortcomings of the large-scale investments examined, the second study employs a food sovereignty framework to explore alternative forms of investment envisioned and/or already being put into practice by small-scale food providers in the SAGCOT area and elsewhere in Tanzania. While two different frameworks formed the basis of two different studies, both the studies and their frameworks are interrelated. The final section of this article makes the case for why both the right to food and food sovereignty are essential lenses for understanding agricultural investment vis-à-vis small-scale food providers and the ways in which they can serve as complementary tools for effective analysis. © 2018, © 2018 Southseries Inc., www.thirdworldquarterly.com.</t>
         </is>
       </c>
       <c r="E195" t="n">
@@ -6810,7 +6832,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Food sovereignty and consumer sovereignty: Two antagonistic goals?</t>
+          <t>Farmers’ rights, local food systems, and sustainable household dietary diversification: A case of Uttarakhand Himalaya in north-western India</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -6818,14 +6840,16 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>The concept of food sovereignty is becoming an element of everyday parlance in development politics and food justice advocacy. Yet to successfully achieve food sovereignty, the demands within this movement have to be compatible with the way people are pursuing consumer sovereignty and vice versa. The aim of this article is to examine the different sets of demands that the two ideals of sovereignty bring about, analyze in how far these different demands can stand in constructive relations with each other, and explain why consumers have to adjust their food choices to seasonal production variability to promote food sovereignty and so secure future autonomy. © 2017 Taylor &amp; Francis.</t>
+          <t>The farmers and rural communities, world over, have contributed greatly in management of agrobiodiversity including plant genetic resources for food and agriculture (PGRFA). It is well accepted now that the efforts of farming communities in creation, conservation, exchange, and enhancement of PGR should be recognized and strengthened. Farmers’ access and rights over seeds are considered an essential component of food sovereignty. In the present article, we discuss the aspects of farmers’ rights, the community level seed systems, food sovereignty and the potential of farmer household production and dietary diversification in combating malnutrition and community health promotion with regard to farming communities of Uttarakhand hills in north-western India. Salient findings of two case studies, on farmers’ varieties documentation and registration, and the potential of local food systems in addressing community health and nutrition were used to particularly showcase the nutritional contribution of native foods in the context of sustainable food-based approaches to community health and nutrition. Further, the need of a proactive alliance was suggested between local communities and their key allies collaboratively creating a research and advocacy agenda in support of agrobiodiversity and the revival of local food systems and landscapes within the broader framework of food sovereignty. © 2018 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E196" t="n">
         <v>1</v>
       </c>
-      <c r="F196" t="n">
-        <v>1</v>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -6842,7 +6866,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Where we dance (ecologically) together: reading Ananya Dance Theatre’s Roktim: Nurture Incarnadine</t>
+          <t>Food security or food sovereignty?: Questioning the paradigm of Indonesian military involvement in agriculture</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -6850,16 +6874,14 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>In September 2015, Ananya Dance Theatre premiered Roktim: Nature Incarnadine, an evening-length dance about women of color, seeds, food systems, and soil. Roktim weaves dancers’ biographies with myth, history, and science to form an epic narrative intersecting environment and social difference—an environmental justice biomythography. This work is an unconventional example of an environmental dance in both aesthetic and content. Through a year of ethnographic fieldwork and participation with the company, I explore aspects of Roktim and how my own body becomes implicated in the work. Using literature from eco-dramaturgy, eco-criticism, dance studies, and environmental justice, I consider how the performance and a reading of it contributes a corporeal perspective to critical sustainability. © 2018, AESS.</t>
+          <t>Indonesian military (TNI) involvement in the agricultural sector had begun since the 1960s when they had a significant role in a global modernization of agriculture project led by the US government and world donor agencies, namely the Green Revolution. In 2015, TNI signed a MoU with the Ministry of Agriculture in a "Special Efforts Program for Accelerating Food Production" which again delivers an important role to the military in the agricultural sector by implementing a Green Revolution oriented farming. This paper, in contrasts to some of the previous writings, does not examine the right or wrong of this involvement. This study provides a paradigmatic response to a question, why TNI insists on implementing a program that after 50 years has not proven successful in reaching the target of food self-sufficiency? Based on literature studies and analysis of empirical data, this study suggests that there is a paradigmatic misperception among the policy makers, both civil and military, about food security concept. The authors also offer a new implementation framework based on the concept of food sovereignty that can be performed by policy makers in Indonesia and other developing countries. © 2018 CEJISS.</t>
         </is>
       </c>
       <c r="E197" t="n">
         <v>1</v>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F197" t="n">
+        <v>1</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -6876,7 +6898,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Contested fields: an analysis of anti-GMO politics on Hawai’i Island</t>
+          <t>Brazil's landless movement and rights ‘from below’</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -6884,7 +6906,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>This paper details the evolution of activism against genetically modified organisms on the Big Island of Hawai’i. It offers an explanation for the ability of rural residents on the Big Island to pass anti-GMO legislation while other states and communities have tried and failed. I argue that the Big Island’s recent anti-GMO legislative success is due to the articulation of interests and actions between settlers to Hawai’i and Native Hawaiian community members seeking to protect Native Hawaiian rights. Tracing the history of the anti-GMO movement on Big Island highlights the unique circumstances that facilitated the passage of this bill, and is also significant for making sense of the potential future trajectories of anti-GMO-related food sovereignty movements elsewhere. © 2017, Springer Science+Business Media B.V.</t>
+          <t>Recent literature has recognised the value of food sovereignty and human rights frameworks in agrarian struggles. Relatively little attention has gone toward how agrarian movements develop and apply their own rights discourses to further demands for social justice. This study considers Brazil's landless movement (MST) between 1984 and 1995, revealing three distinct rights discourses that recruited and mobilised protest by linking local issues to the movement's broader political project. The findings illustrate the value of rights, frames and ideology as analytical tools, shedding light on how movement-generated rights emerge through processes of reflexivity and in response to dynamic social-political contexts. © 2018 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E198" t="n">
@@ -6908,7 +6930,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>‘Getting to the root causes of migration’ in West Africa–whose history, framing and agency counts?</t>
+          <t>Feeding Prometheus: An Interdisciplinary Approach for Solving the Global Food Crisis</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -6916,16 +6938,14 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Today’s ‘irregular migration’ from Sub-Saharan Africa has its roots in decades of policies which have impoverished rural economies and dispossessed small-scale producers to make room for export-oriented monocultures. Under pressure from opportunistic xenophobic political configurations the EU is reacting by seeking to block the unwanted flow of African migrants in their home countries through measures denounced by European civil society organizations. Its long-term recipe for ‘addressing the root causes of migration’ involves using EU cooperation funds to leverage resources from private investors ‘looking for new investment opportunities in emerging markets’, thereby promoting the same model of agricultural production and global value chains that has sparked today’s migration waves. An absent voice in the debate is that of the rural organizations in the territories from which the migrants originate. This paper seeks to reframe the issues from the viewpoint of these social constituencies, to recuperate their popular history of the evolutions that have transformed a portion of rural mobility into Europe-bound irregular migration, to map relevant contemporary rural transformations and the complexities of relations they engender, and to highlight initiatives underway today to build options of dignified and remunerative rural livelihoods for young people. Setting the West Africa-Europe nexus in the context of global processes of migration governance, this paper explores the opportunities for counter-hegemonic strategizing that EU internal policy contradictions open up and suggests how convergences might be promoted among actors and spaces that are currently inadequately connected with a view to defending both the right to migrate and the right to choose to stay at home. © 2018, © 2018 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>The current global food system is inadequate to meet the needs of the current world population without compromising future well-being. For example, current intensified production systems lead to undernutrition in some regions coupled with epidemics of obesity in others while compromising their underlying ecological foundations, such as creating areas of ocean hypoxia. Such common observations challenge the research community to ask new types of basic questions and apply novel analytical frameworks for analyzing them. Elaboration of an integrated applied research agenda is imperative to addressing these global food system challenges. We propose that core competencies of a new analytical framework lie at the intersection of four domains: (1) the ecology of agroecosystems; (2) equity in global and local food systems; (3) cultural dimensions of food and agriculture; and (4) human health. This intersection constitutes a new analytical framework for transitions toward global food system sustainability. © Copyright © 2018 Vandermeer, Aga, Allgeier, Badgley, Baucom, Blesh, Shapiro, Jones, Hoey, Jain, Perfecto and Wilson.</t>
         </is>
       </c>
       <c r="E199" t="n">
         <v>1</v>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F199" t="n">
+        <v>1</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -6942,7 +6962,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Participatory Guarantee Systems (PGS) in Mexico: a theoretic ideal or everyday practice?</t>
+          <t>Black Farmers in the USA and Michigan: Longevity, Empowerment, and Food Sovereignty</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -6950,16 +6970,14 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Third-party certification (TPC), the most common organic certification system, has faced growing criticism in recent years. This has led to the development of alternative certification systems, most of which can be classed as Participatory Guarantee Systems (PGS). PGS have been promoted as a more suitable, cheaper and less bureaucratic alternative to TPC for local markets and are associated with additional benefits such as empowering smallholder farmers, facilitating farmer-to-farmer learning and enhancing food security and sovereignty. PGS have spread rapidly in the past few years, but studies suggest that they are facing numerous challenges that, if not addressed, may jeopardise these benefits. Using the example of three Mexican PGS initiatives, this paper explores the main challenges faced by PGS, specifically those predominantly found in producer-run PGS initiatives. Based on producer and consumer surveys, semi-structured and informal interviews, and participant and non-participant observation, the key challenges that emerged were continuous implementation of the certification process, time constraints, personal conflicts and conflict avoidance. The paper further argues that the requirements for PGS recognition under the Mexican Law for Organic Products may also threaten the continued existence of PGS and suggests that mechanisms for managing conflicts, incentivising PGS participation and mitigating opportunity costs are key if PGS are to continue to develop. © 2017, The Author(s).</t>
+          <t>Blacks have been farming in the USA for about four centuries and in Michigan since the 1830s. Yet, for blacks, owning and retaining farmland has been a continuous challenge. This historical analysis uses environmental justice and food sovereignty frameworks to examine the farming experiences of blacks in the USA generally, and more specifically in Michigan. It analyzes land loss, the precipitous decline in the number of black farmers, and the strategies that blacks have used to counteract these phenomena. The paper shows that the ability of blacks to own and operate farms has been negatively impacted by lack of access to credit, segregation, relegation to marginal and hazard-prone land, natural disasters, organized opposition to black land ownership, and systemic discrimination. The paper examines the use of cooperatives and other community-based organizations to help blacks respond to discrimination and environmental inequalities. The paper assesses how the farming experiences of blacks in Michigan compare to the experiences of black farmers elsewhere. It also explores the connections between Michigan’s black farmers, southern black farmer cooperatives, and Detroit’s black consumers. © 2018, The Author(s).</t>
         </is>
       </c>
       <c r="E200" t="n">
         <v>1</v>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F200" t="n">
+        <v>1</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -6976,15 +6994,15 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Politics in participatory guarantee systems for organic food production</t>
+          <t>The Protection of Indigenous Peoples’ Seed Rights during Ethnobotanical Research</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>In response to the neoliberal regulation of the organic agri-food sector through third-party certification (TPC), participatory guarantee systems (PGS) are advocated for their potential to promote food sovereignty, inclusivity, and grassroots empowerment. However, we show that in the Philippines, farming groups adopting PGS encounter politics that manifests as tensions and contradictions in the imagination and practice of this seemingly more transformative organic guarantee system. Based on qualitative research, we observed how some members continue to aspire for TPC resulting in cases of double certification (i.e. members having both PGS and TPC). Such contradiction encounters varying levels of contestation, which we attribute to the local particularities of the two PGS systems and the broader structural conditions that continue to privilege TPC. Rather than frame PGS as co-opted by the dominant neoliberalised organic agri-food sector, we emphasise possibilities for farmers’ autonomy in negotiating these tensions. © 2018 Elsevier Ltd</t>
+          <t>Recognion of the importance of biodiversity for global food security and the community food sustainability movement has helped increase awareness of seed rights. Internaonal treaes created to ensure the world’s access to seed biodiversity address access to seed banks for breeding purposes. Ethnobotanists are oen required to deposit research plant specimens with government seed banks or herbariums. If Indigenous Peoples’ plants are then used developing patented variees, are their rights recognized? These rights depend upon recognion of Indigenous Peoples as plant breeders, prior informed consent (PIC) protocols, access and benefit sharing (ABS) agreements via material transfer agreements, and benefits returned to Indigenous and local communies per the Nagoya Protocol. To ensure such rights to genec material and associated intellectual property rights, documentaon of these agreements and links to the people and communies from which they originated needs to occur at first collecon and throughout subsequent research, conservaon, and breeding programs. Copyright © 2018 by the author(s);</t>
         </is>
       </c>
       <c r="E201" t="n">
@@ -7010,15 +7028,15 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>African Green Revolution, food sovereignty and constrained livelihood choice in Mozambique</t>
+          <t>The Conflicted State and Agrarian Transformation in Pink Tide Venezuela</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>This article examines the complicated food security agendas of the African Green Revolution and the food sovereignty models in Mozambique. Drawing on fieldwork conducted by the author in Mozambique in 2014 and 2015, the paper analyses how smallholder farmers engage with these two agrarian models. Whereas the literature frequently presents the African Green Revolution and the food sovereignty in oppositional frames, this paper finds that farmers in Mozambique utilize some of the tools that these models offer in complementary rather than competing ways. One such area is the use of commercial hybrid seeds and herbicides by some farmers associated with food sovereignty, an approach that runs counter to food sovereignty’s principles of agroecology. In Mozambique, farmers’ “lived experience” of food sovereignty is more a strategic response to their limited livelihood options, using whatever tools are available to them, rather than a resistance to power. © 2018, © 2018 Canadian Association of African Studies.</t>
+          <t>Can radical political-economic transformation be achieved by electoral regimes that have not thoroughly reconstructed the state? Contemporary Venezuela offers an optimal venue for examining this question. The Chavista movement did not replace the previous state: instead, its leaders attempted to reform existing state entities and establish new ones in pursuit of its transformation agenda. It has also used its oil wealth to support cooperatively-oriented economic activity, without necessarily fundamentally altering the property structure. Thus, the social change-oriented political economy exists alongside the traditional one. Focusing on agrarian transformation, we examine ethnographically how these factors have impacted the state's capacity to attain its goal of national food sovereignty. We find that the state's ability to accomplish this objective has been compromised by lack of agency-level capacity, inter-agency conflict and the persistence of the previously-extant agrarian property structure. These dynamics have influenced the state to shift from its initial objective of food sovereignty to a policy of nationalist food security. © 2015 John Wiley &amp; Sons Ltd</t>
         </is>
       </c>
       <c r="E202" t="n">
@@ -7042,15 +7060,15 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>An initiative for the study and use of genetic diversity of domesticated plants and their wild relatives</t>
+          <t>Traditional seed and exchange systems cement social relations and provide a safety net: A case study from KwaZulu-Natal, South Africa</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Domestication has been influenced by formal plant breeding since the onset of intensive agriculture and the Green Revolution. Despite providing food security for some regions, intensive agriculture has had substantial detrimental consequences for the environment and does not fulfill smallholder’s needs under most developing countries conditions. Therefore, it is necessary to look for alternative plant production techniques, effective for each environmental, socio-cultural, and economic conditions. This is particularly relevant for countries that are megadiverse and major centers of plant domestication and diversification. In this white paper, a Mexico-centered initiative is proposed, with two main objectives: (1) to study, understand, conserve, and sustainably use the genetic diversity of domesticated plants and their wild relatives, as well as the ongoing evolutionary processes that generate and maintain it; and (2) to strengthen food and forestry production in a socially fair and environmentally friendly way. To fulfill these objectives, the initiative focuses on the source of variability available for domestication (genetic diversity and functional genomics), the context in which domestication acts (breeding and production) and one of its main challenges (environmental change). Research on these components can be framed to target and connect both the theoretical understanding of the evolutionary processes, the practical aspects of conservation, and food and forestry production. The target, main challenges, problems to be faced and key research questions are presented for each component, followed by a roadmap for the consolidation of this proposal as a national initiative. © 2018 Mastretta-Yanes, Acevedo Gasman, Burgeff, Cano Ramírez, Piñero and Sarukhán.</t>
+          <t>Millions of small-scale farmers on the African continent save and exchange the seed of their traditional crops, yet the social and cultural values of these systems remain under-researched. Through ethnographic research conducted in the KwaZulu-Natal Province of South Africa, this study sets out to improve understanding about the mechanisms and significance of traditional seed exchange networks. Findings suggest that traditional crops are central; their seed is highly valued; and systems of exchange play complex and nuanced roles. Critical for food sovereignty, these systems act as a back-up in the case of harvest failure, and enhance social cohesion through strengthening community and familial ties. © 2017 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E203" t="n">
@@ -7074,7 +7092,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Communication as Resistance in Food Politics</t>
+          <t>A food regime’s perspective on palestine: Neoliberalism and the question of land and food sovereignty within the context of occupation</t>
         </is>
       </c>
       <c r="C204" t="n">
@@ -7082,7 +7100,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>The global food system is a site of domination and resistance for those opposed to the conventional model of industrial agriculture. This article applies a political economy of communication lens to the relations of power that operate in the field of food politics where tensions involving food security, peak oil, and anthropogenic climate change present major challenges. At the heart of this trilemma social movements of small-scale farmers contest the dominant narratives that biotechnology, development, and free trade will feed the world. This article describes how farmers’ movements in Brazil, Chile, and Cuba apply resistive epistemologies in to complement for agroecological production methods. The purpose is to develop political consciousness among rural food producers and workers who are subjugated under neo-liberalism. The article also presents the challenges that members of the international farmers’ movement, La Vìa Campesina, face in advancing their political influence through participation in invited spaces such as the UN Food and Agriculture Organisation’s World Committee for Food Security. © The Author 2018</t>
+          <t>The question of land and its strategic, socio-political and agricultural relevance within the Israeli-Palestinian conflict must be understood against the background of the dominant position of Israel as occupational power, heavily affecting the access to, and the control over natural resources. The subjects discussed within this article are intrinsically linked via the usage of the food regime approach as analytical tool, and the article’s specific focus on land. An attempt is made to grasp the neoliberal restructuring of Palestine and its developments in the agricultural sector, paying particular attention to land grabbing. Neoliberalism aided the institutionalising and normalising of accumulation by dispossession in the occupied Palestinian territories (oPt), these being identified as a key feature of the corporate food regime, and leading to the marginalisation of rural communities and to depeasantisation. The crises of the food regime spurred food sovereignty movements all around the globe. While analysing the political demands and approaches of the concept of food sovereignty centered around natural resources, this article also explores why the concept offers various ideas for an alternative development in Palestine. This paper tries to show how specific dynamics observed by the food regime analytics can be helpful in contextualising developments within the oPt – ranging from neoliberal restructuring to the emergence of food sovereignty. © 2018 Mattersburger Kreis fur Entwicklungspolitik. All rights reserved.</t>
         </is>
       </c>
       <c r="E204" t="n">
@@ -7106,15 +7124,15 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>What role for trade in food sovereignty? Insights from a small island archipelago</t>
+          <t>The political economy of rentier capitalism and the limits to agrarian transformation in Venezuela</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>The food sovereignty movement has been gathering momentum in advocating the rights of individuals and nations to control their own food systems. Alongside this is a mounting critical engagement regarding its privileging of local food production as the means through which to achieve this goal. Adopting a place-based approach, we explore the foodways of diverse communities across a small island archipelago–the Turks and Caicos Islands in the West Indies. Based on interviews and focus groups, we unpack narratives relating to islanders’ changing food practices and aspirations. These are understood as two competing but inter-related themes of disruption and reification of current practices shaped by wider food regimes in interaction with ecological challenges. Given that conditions of historic dependency implicate the islands in a myriad of dependent trade relationships, we argue that small island economies offer, and require, unique cases for understanding how sovereign conditions for trade might be developed in line with a food sovereignty framework. We underline the importance of an inter-disciplinary focus for bringing forth a nuanced understanding of what might be required to shape more sustainable, sovereign and secure food futures. Doing so is necessarily rooted in an appreciation of islanders’ accounts of social, economic, political and ecological change over time. © 2017 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>This paper explores the contradictions and limits to agrarian transformation under 21st-century socialism in Venezuela. Given the historical destruction wrought by the oil-based accumulation process upon Venezuela's agricultural sector, the symbolic and social importance of an “agrarian revolution” could be seen as a yardstick with which to measure the progress of the Bolivarian Revolution in “sowing the oil”. Eschewing a policy focus on the role of “food sovereignty” and “food security”, the paper analyses how the dynamics of rentier-capital accumulation have played out in the agricultural sector. The paper argues that the macroeconomic framework of the Bolivarian Revolution has diminished the possibility of expanded domestic food production and instead reduced agrarian transformation to contradictory processes of ground rent appropriation. © 2017 John Wiley &amp; Sons Ltd</t>
         </is>
       </c>
       <c r="E205" t="n">
@@ -7138,15 +7156,15 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Complex systems, agroecological matrices, and management of forest resources: An example of an application in Los Tuxtlas, Veracruz, Mexico</t>
+          <t>The agricultural production and food industry development trends in the context of food security of Russia</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Today humanity faces several complex problems, two of which are global warming and the loss of biological diversity. An agroecological matrix approach, conceives the territory as patches of natural and cultivated vegetation, interconnected to maintain watershed integrity. Many ethnic groups maintain a high biological heterogeneity as in the case of the agrological matrix. This study analyzed features and trends in a specific agroecological matrix, integrating local and scientific knowledge with environmental and social information, as a complex system. For the last 15 years we studied agroecological spaces used by the Ntaj'uy (Zoque-Popoluca) people in Los Tuxtlas, Veracruz, Mexico. Participatory methods were used to understand social interactions and land management decisions. Ecology field methods allowed us to assess soil loss, litter production, water quality, and vegetation structure. Soil erosion, vegetation fragmentation and social marginalization are the most important problems in the region; the tropical sub-evergreen forest has decreased by about 60%, the deciduous forest is down by 80%, and cultivated pastures have increased over 400%. Coffee and milpa agroecosystems could be improved, through product diversification, along with interconnectivity among vegetation patches, to prevent environmental degradation, and improve conditions to reach food sovereignty and income diversification, in a context of Ntaj'uy self-determination in their territories. © 2018 by the authors.</t>
+          <t>Food security, in its function as an integral component of the state’s economic security, is one of the central issues of the state economic policy in most post-Soviet countries. Over the last decade, the food security policy implementation vectors have changed. While at the beginning of the market reforms, the key task of the former Soviet Union countries’ governments was to fill the food market, regardless of the import component, currently, food sovereignty is moving to the forefront, including the availability and quality of food. The present paper attempts to systematize and analyze factors and contradictions that affect the country’s food security. The scientific importance of the work is determined by the comprehensive system approach to the factor analysis of the agricultural sector operation from the perspective of the following aspects: the ongoing foreign policy of the state (the membership in the World Trade Organization and product embargo) and the state financial support mechanism for the agriculture. © 2017. ASERS Publishing. All rights reserved.</t>
         </is>
       </c>
       <c r="E206" t="n">
@@ -7170,24 +7188,22 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Beyond access and benefit-sharing: Lessons from the law and governance of agricultural biodiversity</t>
+          <t>Troubling Tradition, Community, and Self-Reliance: Reframing Expectations for Village Seed Banks</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>The concept of fair and equitable benefit-sharing emerged in the early 90s as a corollary to the principle of national sovereignty over natural and genetic resources. In the context of agricultural biodiversity use, it can be conceptualized in three ways: as a defensive tool to balance the injustices enshrined in the intellectual property rights system; as a development tool to reap part of the benefits of the emerging biodiversity market; and as an incentive, to reward and enable farmers' continued contribution to conservation. This article seeks to assess the potential of the concept in operationalizing fairness and equity in agricultural biodiversity governance, in an increasingly complex legal and policy landscape of conflicting rights and policies. It briefly explains its emergence in the context of the evolving principles of governance of agricultural biodiversity; and analyses the structure and application of the Multilateral System of Access and Benefit-sharing established by the International Treaty on Plant Genetic Resources for Food and Agriculture in the framework of intellectual property- and human rights-related processes. Identifying linkages, challenges and key lessons, which are useful for a wide range of processes within and beyond the international environmental law realm, it concludes that the concept falls short of its promises. It thus calls for imagining new dialogues and concepts to redefine the boundaries between what must remain in the public domain, what may be managed as a commons and what may be privatized. © 2018 The Authors. The Journal of World Intellectual Property © 2018 John Wiley &amp; Sons Ltd</t>
+          <t>Heralded by both food sovereignty activists and mainstream development practitioners, village seed banks are a rural development phenomenon rapidly gaining attention for their potential to support resilient agricultural systems. This paper presents a case study for examining the power of prevailing narratives of decentralized development to shape and ultimately constrain the operations of village seed banks in Telangana, India. This case demonstrates how visions of tradition, community, and self-reliance can serve to discount the materiality of seeds, the social complexity of village institutions, and even the voices of farmers. The goal of this research is not to criticize village seed banks, as they hold great potential, nor to vilify the narratives in question, but rather to encourage critical reflection on how the assumptions embedded in these narratives shape mechanisms for agricultural development. I argue for a shift away from framing tradition, community, and self-reliance as development solutions and propose an interrogative approach that turns these narratives into questions for engaging more effectively with rural livelihoods. © 2017 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E207" t="n">
         <v>1</v>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F207" t="n">
+        <v>1</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7204,7 +7220,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>The insecurity of food security in Russia’s Far North</t>
+          <t>Building sustainable social and solidarity economies: Place-based and network-based strategies of alternative development organizations in India</t>
         </is>
       </c>
       <c r="C208" t="n">
@@ -7212,7 +7228,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>The food security model envisions food supply from industrial agriculture, food production from smallholders, and food imports. The food sovereignty model emphasizes locally-sourced food from sustainable agriculture and implies self-sufficiency while being silent on the role of imports. This article argues that neither model fits Russia’s Far North well. Residents of the Far North are generally food secure based on consumption, but their food security is insecure because of questions surrounding the reliability of food supply. The article suggests four additional factors to the food security model to sensitize it to the Russian Far North. © 2018, © 2018 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>This article critically examines and analyzes place-based as well as network-based strategies of alternative development organizations that claim to be building sustainable social and solidarity economies (SSE) in the political context of neoliberal globalization. While the Indian state and market forces are actively promoting the neoliberal agri-food system, alternative development organizations are working with farmers to build the SSE based on the principles of democracy, inclusiveness, reciprocity, cooperativism, and socioecological sustainability. Using a case study approach, this article analyzes how SSE initiatives are aiming to reclaim control over the local agri-food sector. Specifically, this article examines how community development organizations mobilize farmers based on the principles of agro-ecology and the politics of seed and food sovereignties. This article uses the Center for Sustainable Agriculture, an alternative community development organization in south India, as a case study. © 2017 Community Development Society.</t>
         </is>
       </c>
       <c r="E208" t="n">
@@ -7236,15 +7252,15 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Greenhouse Agriculture in the Icelandic Food System</t>
+          <t>Framing the food poverty question: Policy choices and livelihood consequences in Indonesia</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Greenhouses are a frequent feature on the Icelandic rural landscape and an integral part of Iceland's food system. Iceland's reserves of geothermal energy present an opportunity to extend an otherwise short growing season. This promotes sustainability, increases food security, and benefits consumers. This article examines the relative strengths of Iceland's greenhouse sector - using a combination of statistics, observations, and interviews to understand the resource demands of greenhouse agriculture, how well greenhouses can allay some food insecurity and provide local foods. It ends with an examination of how the reduction of subsidies used to keep greenhouse agriculture going, has had an effect and forces the question of whether losing much of Iceland's agricultural sector and locally sourced food is worth the social and political costs. © 2019 Gina M. Butrico, David H. Kaplan, published by Sciendo 2019.</t>
+          <t>Since 2008, amidst fears of vulnerabilities related to climate change, price volatility and global food shortages, an increasingly conflicted policy field has emerged in the global south. Competing policy narratives provide for rival policy orientations with respect to food policy, land rights, the environment and justice. This paper considers the implications of different choices associated with these rival concepts in one case – that of Indonesian Kalimantan. The paper shows how predominant framings of ‘food sovereignty’, ‘food self-sufficiency’ and ‘food security’ support scalar strategies that empower particular actors and agendas. While narratives focused on national food sovereignty support large-scale food estates in ways that fit a particular politics of food, they overlook the specific livelihood challenges facing rural populations and the problems of food poverty in marginal landscapes. Localist narratives of ‘food sovereignty’ focus on enhancing smallholder access and control over productive resources and diversification in ways that are better suited to the geography of production, but they are yet to address the political anxieties presented by food questions at the national level. If policy choices are to deal with the underlying issues, then the alternative values, guiding assumptions and scalar strategies encompassed by rival narratives need to be appraised and reconciled with the specific livelihood challenges of rural people and the need to secure an inclusive and equitable society in a changing global environment. © 2017</t>
         </is>
       </c>
       <c r="E209" t="n">
@@ -7268,15 +7284,15 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>From Food Production to Commodity Production in Argentina’s Agricultural Sector</t>
+          <t>The intersection of food security and biodiversity conservation: a review</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>An analysis of the semiotic and productive transformation of food crops under Argentina’s agribusiness model through a study of the diffusion of the term “commodity” in the discourse produced/reproduced by the rural sections of the hegemonic media, combined with statistical data that allow a dialogue between discourse and measurable quantities, concludes that defining the Argentine countryside as a place for commodity production is linked with increasing crop production for export that leads to the erosion of food sovereignty and food security. Un análisis de las transformaciones semióticas y productivas de los frutos de la tierra bajo el modelo argentino de los agronegocios que examina la extensión del término commodity en los discursos producidos/reproducidos por las secciones rurales de los medios gráficos de comunicación hegemónicos, entrecruzado con datos estadísticos para poner en diálogo el nivel del discurso con el de las cantidades medibles, concluye que la consigna que define al campo argentino como un lugar de producción de commodities se imbrica con una tendencia a la intensificación de los cultivos orientados exclusivamente a la exportación y la erosión de la soberanía y seguridad alimentaria. © 2018 Latin American Perspectives.</t>
+          <t>Food security and biodiversity conservation are key challenges of the twenty-first century. While traditionally these two challenges were addressed separately, recently, papers have begun to specifically address the nexus of food security and biodiversity conservation. We conducted a structured literature review of 91 papers addressing this nexus. To ascertain how a given paper approached the topic, we assessed to what extent it covered 68 potentially relevant issues. The resulting dataset was analyzed using cluster analysis. Two main branches of literature, containing a total of six clusters of papers, were identified. The “biophysical-technical” branch (clusters: “sustainable intensification” and “production focus”) was dominated by the natural sciences, focused strongly on the production aspect of food security, and sought general solutions. In contrast, the “social-political” branch (clusters: “social-ecological development”; “empowerment for food security”; “agroecology and food sovereignty”; and “social-ecological systems”) often drew on the social sciences and emphasized social relations and governance, alongside broader considerations of sustainability and human well-being. While the biophysical-technical branch was often global in focus, much of the social-political branch focused on specific localities. Two clusters of papers, one from each branch, stood out as being particularly broad in scope—namely the clusters on “sustainable intensification” and “agroecology and food sovereignty.” Despite major differences in their conceptual basis, we argue that exchange between these two research clusters could be particularly helpful in generating insights on the food–biodiversity nexus that are both generally applicable and sufficiently nuanced to capture key system-specific variables. © 2015, Springer-Verlag Berlin Heidelberg.</t>
         </is>
       </c>
       <c r="E210" t="n">
@@ -7300,15 +7316,15 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Food security problems and imperatives of the North Caucasus macro-region subjects</t>
+          <t>Agroecology in the Brazilian government agenda: Developments between 2011 and 2014; [La agroecología en la agenda del gobierno Brasileño: Desarrollos entre 2011 y 2014]</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>This article concerns the analysis of food security in the North Caucasian macro-region. Any State is faced the challenge to provide safe food of domestic production to its population. This task is particularly relevant due to the emergence of a series of challenges and threats for country food sovereignty and its solution is impossible without active state support. The subjects of the North Caucasus Federal District have been selected as objects for this research. To identify the problems in country food security, the authors analyzed the global rating «The Global Food Security Index" of the world's states. The authors also studied the internal and the external, economic and political objective and subjective factors and the potential for food security of macro-region. The authors analyzed the dynamics of development of the main types of agricultural production, the self-reliance level and production of basic foods, norms and actual food consumption. The authors show that with current sanctions and Russian anti-sanctions, there is a possibility of significant increase in agricultural production. The article draws conclusions on the significant differentiation of population per capita incomes by regions of the country and consumption of staple food. This study made it possible to identify the main problems and their impact on current Agro-Food market of the Russian Federation. The study recommends measures to strengthen food security by operational regional monitoring and by defining the evaluation indicators system of the level of food security comparable to systems at the international level. © 2018 International Strategic Management Association. All rights reserved.</t>
+          <t>Since 2003, in Brazil, the agroecological perspective has been present in punctual public policies of the federal government. In 2012, with a convergent action of the agroecological movement and the organic production, the National Policy for Agroecology and Organic Production was created. This article presents a reconstruction of the process, while highlighting involved actors, as well as their demands and interests, ideas, and main forums. Despite its limitations and conflicts, the Pnapo is a benchmark and a political achievement, having insured the agroecological agenda in the public policies inter-related to rural development, food sovereignty, and the human right to adequate food. © 2017, Pontificia Universidad Javeriana. All rights reserved.</t>
         </is>
       </c>
       <c r="E211" t="n">
@@ -7332,24 +7348,22 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>The rise of new rights for peasants. From reliance on NGO intermediaries to direct representation</t>
+          <t>Food sovereignty and agro-ecology in Karnataka: interplay of discourses, identities, and practices</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>The UN Declaration on the Rights of Peasants and other people working in rural areas, adopted by the UN General Assembly in December 2018, recognises new human rights to peasants and other people working in rural areas. The recognition of these rights (such as the right to land, seeds or biodiversity) in international law responds to a normative gap identified by the affected themselves and contributes to the project of ‘decolonising’ human rights. This international law-making process constitutes an important innovation in that it was requested by and developed with the active involvement of La Via Campesina activists—and other transnational movements representing other categories of rural food producers—who have positioned themselves as ‘law makers’. In this paper, I argue that a commitment to ‘human rights from below’ must account for and support the direct engagement, in international law-making, of transnational social movements representing the affected and speaking on their own behalf. © 2019 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Karnataka Rajya Raitha Sangha (KRRS), a farmers’ movement, and a member of La Via Campesina, has been encouraging zero-budget natural farming in Karnataka, India, within the framework of food sovereignty and agro-ecology. Using the experiences of KRRS, this article addresses the question of the extent of pluralism within the discourse of food sovereignty. Focusing on the interplay of local and global practices, discourses and identities, the article throws light upon contradictions and negotiations between “necessary abstractions” and “particularisms”, spaces and places of resistance and implications it may have on struggles at both local and global levels. © 2017 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E212" t="n">
         <v>1</v>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F212" t="n">
+        <v>1</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7366,15 +7380,15 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Government policies for food sovereignty: Disjunction between ideality and reality</t>
+          <t>Livelihoods crises in Vidarbha, India: Food sovereignty through traditional farming systems as a possible solution</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>The conceptualizes food security and food sovereignty as fluid and changing discourses that define the problem of hunger. The discursive geohistories of food security and food sovereignty in order to identify oppositions and relationalities between them. I argue that the interpretations of, and relations between, food security and food sovereignty vary by geography and scale, as well as by the conceptual and theoretical differences within the discourses themselves. When and where these discourses develop and emerge is central to understanding their oppositions and convergences. How scale is constructed within particular discourses is also important to understanding how they co-exist relationally or in opposition. Food security and food sovereignty discourses are tied to distinctive political and economic histories, ecologies, and identities at the national and local levels. They are differentially deployed depending upon geographic context and the political economy of development and underdevelopment. Both discourses are dynamic and changing in relation to the wider political and cultural economies of food system dynamics across scale. Uniform definitions of each term should be resisted. The point is to understand the geographies of their relational overlap and their continual difference. © 2018 HALREV. All rights reserved.</t>
+          <t>The Vidarbha region in Maharashtra, India, home to 3.4 million smallholder farmers, is a major cotton-producing region in one of the wealthiest Indian states. However, between 1995 and 2013, more than 60,000 farmers took their own lives. Many of these suicides have been linked to extreme debt created by the expensive mono-cropping of Bt cotton. Some farming households have responded to these pressures by abandoning Bt cotton growing and turning to sustainable agriculture using traditional mixedcropping methods. Yet the question remains: have the changes produced better livelihoods in Vidarbha? Using a food sovereignty framework, we assess the impact of these changes through an analysis of a 200-household survey across six districts in Vidarbha. We also explore the meaning of food sovereignty for those who practise it, seeking to better understand some of the complexities and experiences associated with the term. © 2017 South Asian Studies Association of Australia.</t>
         </is>
       </c>
       <c r="E213" t="n">
@@ -7398,15 +7412,15 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Analysing agricultural investment from the realities of small-scale food providers: grounding the debates</t>
+          <t>Agroecology in Uruguay</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Over the past decade, agricultural investment has been presented as a catchall solution to a converging set of global crises, often with poor rural communities as the proclaimed beneficiaries. Yet the promises of such investment, such as poverty alleviation and improved food access, are routinely at odds with realities on the ground. This article offers frameworks for analysis of agricultural investment that are grounded in the realities of small-scale food providers, drawing from two studies. The first study employs a right to food framework to identify the main channels through which food for consumption is procured by small-scale food providers and the factors impacting these channels. It draws on empirical data from within the Southern Agricultural Growth Corridor of Tanzania (SAGCOT), an investment model promised to lift rural communities out of poverty, which reflects a regional trend. Based on the shortcomings of the large-scale investments examined, the second study employs a food sovereignty framework to explore alternative forms of investment envisioned and/or already being put into practice by small-scale food providers in the SAGCOT area and elsewhere in Tanzania. While two different frameworks formed the basis of two different studies, both the studies and their frameworks are interrelated. The final section of this article makes the case for why both the right to food and food sovereignty are essential lenses for understanding agricultural investment vis-à-vis small-scale food providers and the ways in which they can serve as complementary tools for effective analysis. © 2018, © 2018 Southseries Inc., www.thirdworldquarterly.com.</t>
+          <t>From its origins, agroecology in Uruguay has been considered as a critique of the dominant industrial agriculture model and linked to the development of alternative thinking from multiple actors. It aims to strengthen the ecological processes in agricultural systems while discussing the phenomena of concentration, alienation, and access to land, along with the problems of family agriculture and food sovereignty. Against the deepening of the industrialized model of agriculture, different actors drive the development of a National Agroecology Plan. An agroecological transition process is proposed by building sustainable development options, which arises from the agrarian and extends to the whole society. © 2017 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E214" t="n">
@@ -7430,24 +7444,22 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Farmers’ rights, local food systems, and sustainable household dietary diversification: A case of Uttarakhand Himalaya in north-western India</t>
+          <t>Neo-developmentalism and a “vía campesina” for rural development: Unreconciled projects in Ecuador's Citizen's Revolution</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>The farmers and rural communities, world over, have contributed greatly in management of agrobiodiversity including plant genetic resources for food and agriculture (PGRFA). It is well accepted now that the efforts of farming communities in creation, conservation, exchange, and enhancement of PGR should be recognized and strengthened. Farmers’ access and rights over seeds are considered an essential component of food sovereignty. In the present article, we discuss the aspects of farmers’ rights, the community level seed systems, food sovereignty and the potential of farmer household production and dietary diversification in combating malnutrition and community health promotion with regard to farming communities of Uttarakhand hills in north-western India. Salient findings of two case studies, on farmers’ varieties documentation and registration, and the potential of local food systems in addressing community health and nutrition were used to particularly showcase the nutritional contribution of native foods in the context of sustainable food-based approaches to community health and nutrition. Further, the need of a proactive alliance was suggested between local communities and their key allies collaboratively creating a research and advocacy agenda in support of agrobiodiversity and the revival of local food systems and landscapes within the broader framework of food sovereignty. © 2018 Taylor &amp; Francis.</t>
+          <t>From the outside, it appears that the government of President Rafael Correa in Ecuador has put in place a legal and policy framework for a vía campesina model of rural development, inspired by food sovereignty and buen vivir. Recent studies have, however, concluded that a considerable disjuncture exists between this framework and the actual agricultural policies and programmes implemented by the government. In this paper, I provide a broad overview of the agricultural and rural development policies under the Correa government and analyse some of the causes of the gap between the policy framework and policy implementation. I argue that Ecuador under Correa speaks to the difficulties of reconciling a vía campesina approach to rural development with a neo-developmental economic model. I focus on several issues in particular in order to explain the disjuncture: how the growth of “vía campesina” proposals and political discourse in Ecuador since the 1980s coincided with significant processes of agrarian change; the transformation of rural social movement federations from a sociopolitical force into a political/electoral force and the subsequent decline of these movements; and the deepening integration of small-scale producers into domestic agribusiness commodity chains and the growth of national agribusiness firms during the Correa government. © 2017 John Wiley &amp; Sons Ltd</t>
         </is>
       </c>
       <c r="E215" t="n">
         <v>1</v>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F215" t="n">
+        <v>1</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7464,15 +7476,15 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Food security or food sovereignty?: Questioning the paradigm of Indonesian military involvement in agriculture</t>
+          <t>The Developmental State and Food Sovereignty in Tanzania</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Indonesian military (TNI) involvement in the agricultural sector had begun since the 1960s when they had a significant role in a global modernization of agriculture project led by the US government and world donor agencies, namely the Green Revolution. In 2015, TNI signed a MoU with the Ministry of Agriculture in a "Special Efforts Program for Accelerating Food Production" which again delivers an important role to the military in the agricultural sector by implementing a Green Revolution oriented farming. This paper, in contrasts to some of the previous writings, does not examine the right or wrong of this involvement. This study provides a paradigmatic response to a question, why TNI insists on implementing a program that after 50 years has not proven successful in reaching the target of food self-sufficiency? Based on literature studies and analysis of empirical data, this study suggests that there is a paradigmatic misperception among the policy makers, both civil and military, about food security concept. The authors also offer a new implementation framework based on the concept of food sovereignty that can be performed by policy makers in Indonesia and other developing countries. © 2018 CEJISS.</t>
+          <t>Tanzania has been experiencing different periods of food shortages mainly because of insufficient food production. While the country has an undisputable potential for food production, the state and its development partners, such as the World Bank, believe that the unsustainable peasant food production is the main cause of the food crisis. As a panacea to the food crisis, a call for de-peasantization in favour of commercial large-scale farming, is advocated. Inspired by the work of Sam Moyo, this article argues that achieving food self-sufficiency should begin with improving peasant agriculture instead of dispossessing peasants of their land. The principles of food sovereignty must be adopted and the orientation of the state must be developmental. The state must play an activist role in investing heavily in agricultural-related projects. © 2017 SAGE Publications.</t>
         </is>
       </c>
       <c r="E216" t="n">
@@ -7496,7 +7508,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Brazil's landless movement and rights ‘from below’</t>
+          <t>Is Oil Palm Expansion a Challenge to Agroecology? Smallholders Practising Industrial Farming in Mexico</t>
         </is>
       </c>
       <c r="C217" t="n">
@@ -7504,7 +7516,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Recent literature has recognised the value of food sovereignty and human rights frameworks in agrarian struggles. Relatively little attention has gone toward how agrarian movements develop and apply their own rights discourses to further demands for social justice. This study considers Brazil's landless movement (MST) between 1984 and 1995, revealing three distinct rights discourses that recruited and mobilised protest by linking local issues to the movement's broader political project. The findings illustrate the value of rights, frames and ideology as analytical tools, shedding light on how movement-generated rights emerge through processes of reflexivity and in response to dynamic social-political contexts. © 2018 Elsevier Ltd</t>
+          <t>Agroecology has become a powerful alternative paradigm for rural development. In contrast to conventional approaches, this paradigm shifts the emphasis from technology and markets to local knowledge, social justice and food sovereignty, to overcome rural poverty and environmental degradation. However, the spread of this approach faces several obstacles. This paper deals with one of these obstacles: the ‘preference’ of smallholders for industrial farming. We specifically analyse the widespread uptake up of oil palm by smallholders in Chiapas. Contrary to agro-ecological assumptions, oil palm proved favourable to smallholders in Chiapas because of historical and contemporary state–peasant relations and the advantageous economic circumstances within the oil palm sector. Based on this research, we identify four challenges for agroecology: (i) the existence of contradictory interests within the peasantry as a result of social differentiation; (ii) the role of the state in making conventional development models relatively favourable to smallholders; (iii) the prevalence of modernization ideologies in many rural areas; and (iv) the need for this paradigm to acknowledge smallholders' agency also when engaged in industrial farming. These challenges need to be tackled for agroecology to offer viable alternatives in a context of agro-industrialization. © 2016 John Wiley &amp; Sons Ltd</t>
         </is>
       </c>
       <c r="E217" t="n">
@@ -7528,7 +7540,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Feeding Prometheus: An Interdisciplinary Approach for Solving the Global Food Crisis</t>
+          <t>The Class Dynamics of Food Sovereignty in Mexico and Ecuador</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -7536,7 +7548,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>The current global food system is inadequate to meet the needs of the current world population without compromising future well-being. For example, current intensified production systems lead to undernutrition in some regions coupled with epidemics of obesity in others while compromising their underlying ecological foundations, such as creating areas of ocean hypoxia. Such common observations challenge the research community to ask new types of basic questions and apply novel analytical frameworks for analyzing them. Elaboration of an integrated applied research agenda is imperative to addressing these global food system challenges. We propose that core competencies of a new analytical framework lie at the intersection of four domains: (1) the ecology of agroecosystems; (2) equity in global and local food systems; (3) cultural dimensions of food and agriculture; and (4) human health. This intersection constitutes a new analytical framework for transitions toward global food system sustainability. © Copyright © 2018 Vandermeer, Aga, Allgeier, Badgley, Baucom, Blesh, Shapiro, Jones, Hoey, Jain, Perfecto and Wilson.</t>
+          <t>This paper examines the class dynamics of food sovereignty in Mexico and Ecuador. It argues that the nature of contemporary demands for food sovereignty is heavily influenced by the outcomes of peasant movements’ historical and ongoing internal class dynamics. Processes of class differentiation within peasant organizations in both countries have led to the interests of certain classes predominating over or at the expense of others. Despite La Vía Campesina's projection of ‘unity in diversity’, incorporating sometimes conflicting class interests into the movement is particularly challenging. As such, class analysis must be brought back into debates around food sovereignty in order to gauge (and potentially further) the movement's transformative potential. © 2016 John Wiley &amp; Sons Ltd</t>
         </is>
       </c>
       <c r="E218" t="n">
@@ -7560,15 +7572,15 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Black Farmers in the USA and Michigan: Longevity, Empowerment, and Food Sovereignty</t>
+          <t>Investor ownership or social investment? Changing farmland ownership in Saskatchewan, Canada</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Blacks have been farming in the USA for about four centuries and in Michigan since the 1830s. Yet, for blacks, owning and retaining farmland has been a continuous challenge. This historical analysis uses environmental justice and food sovereignty frameworks to examine the farming experiences of blacks in the USA generally, and more specifically in Michigan. It analyzes land loss, the precipitous decline in the number of black farmers, and the strategies that blacks have used to counteract these phenomena. The paper shows that the ability of blacks to own and operate farms has been negatively impacted by lack of access to credit, segregation, relegation to marginal and hazard-prone land, natural disasters, organized opposition to black land ownership, and systemic discrimination. The paper examines the use of cooperatives and other community-based organizations to help blacks respond to discrimination and environmental inequalities. The paper assesses how the farming experiences of blacks in Michigan compare to the experiences of black farmers elsewhere. It also explores the connections between Michigan’s black farmers, southern black farmer cooperatives, and Detroit’s black consumers. © 2018, The Author(s).</t>
+          <t>There is growing recognition that land grabbing is a global phenomenon. In Canada, investors are particularly interested in Saskatchewan farmland, the province where 40 % of country’s agricultural land is situated. This article examines how the changing political, economic, and legal context under neoliberalism has shaped patterns of farmland ownership in Saskatchewan, between 2002 and 2014. Our research indicates that over this time, the amount of farmland owned by investors increased 16-fold. Also, the concentration of farmland ownership is on the rise, with the share of farmland owned by the largest four private owners increasing six-fold. Our methodology addresses some of the criticisms raised in the land grabbing literature. By using land titles data, we identified farmland investors and determined very precisely their landholdings thus allowing us to provide a fine-grained analysis of the actual patterns of farmland ownership. Although the article analyzes changes to farmland ownership in a specific historical, cultural and legislative context, it serves as the basis for a broader discussion of the values and priorities that land ownership policies reflect. Namely, we contrast an ‘open for business’ approach that prioritizes financial investment to one based on a land sovereignty approach that prioritizes social investment. The latter has greater potential if the aim is ecological sustainability and food sovereignty. © 2016, Springer Science+Business Media Dordrecht.</t>
         </is>
       </c>
       <c r="E219" t="n">
@@ -7592,24 +7604,22 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>The Protection of Indigenous Peoples’ Seed Rights during Ethnobotanical Research</t>
+          <t>Codesigning a resilient food system</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Recognion of the importance of biodiversity for global food security and the community food sustainability movement has helped increase awareness of seed rights. Internaonal treaes created to ensure the world’s access to seed biodiversity address access to seed banks for breeding purposes. Ethnobotanists are oen required to deposit research plant specimens with government seed banks or herbariums. If Indigenous Peoples’ plants are then used developing patented variees, are their rights recognized? These rights depend upon recognion of Indigenous Peoples as plant breeders, prior informed consent (PIC) protocols, access and benefit sharing (ABS) agreements via material transfer agreements, and benefits returned to Indigenous and local communies per the Nagoya Protocol. To ensure such rights to genec material and associated intellectual property rights, documentaon of these agreements and links to the people and communies from which they originated needs to occur at first collecon and throughout subsequent research, conservaon, and breeding programs. Copyright © 2018 by the author(s);</t>
+          <t>Global changes, especially the progression of climate change, create a plethora of adaptation needs for social-ecological systems. With increasing uncertainty, more resilient food systems that are able to adapt and shape their operations in response to emerging challenges are required. Most of the research on this subject has been focused on developing countries; however, developed countries also face increasing environmental, economic, and social pressures. Because food systems are complex and involve multiple actors, using codesign might be the most productive way to develop desirable system characteristics. For this study, we engaged food system actors in a scenario-planning exercise to identify means of building more resilient food systems. In particular, the actors focused on determinants of adaptive capacity in developed countries, with Finland as a case study. The brainstorming session followed by a two-round Delphi study raised three main characteristics for effective food system resilience, namely, energy and nutrient sovereignty, transparency and dialogue in the food chain, and continuous innovativeness and evidence-based learning. In addition, policy interventions were found instrumental for supporting such food system resilience. The main actor-specific determinants of adaptive capacity identified included the farmers’ utilization of agri-technology and expertise; energy and logistic efficiency of the input and processing industry; and for retail, communication to build consumer trust and environmental awareness, and effective use of information and communication technology. Of the food system actors, farmers and the processing industry were perceived to be the closest to reaching the limits of their adaptive capacities. The use of adaptive capacity as a proxy seemed to concretize food system resilience effectively. Our study suggests that the resilience approach generates new perspectives that can guide actors in developing food systems that are adaptive in uncertainty. © 2016 by the author(s).</t>
         </is>
       </c>
       <c r="E220" t="n">
         <v>1</v>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F220" t="n">
+        <v>1</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -7626,15 +7636,15 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>The Conflicted State and Agrarian Transformation in Pink Tide Venezuela</t>
+          <t>Peasant activism and the rise of food sovereignty: Decolonising and democratising norm diffusion?</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Can radical political-economic transformation be achieved by electoral regimes that have not thoroughly reconstructed the state? Contemporary Venezuela offers an optimal venue for examining this question. The Chavista movement did not replace the previous state: instead, its leaders attempted to reform existing state entities and establish new ones in pursuit of its transformation agenda. It has also used its oil wealth to support cooperatively-oriented economic activity, without necessarily fundamentally altering the property structure. Thus, the social change-oriented political economy exists alongside the traditional one. Focusing on agrarian transformation, we examine ethnographically how these factors have impacted the state's capacity to attain its goal of national food sovereignty. We find that the state's ability to accomplish this objective has been compromised by lack of agency-level capacity, inter-agency conflict and the persistence of the previously-extant agrarian property structure. These dynamics have influenced the state to shift from its initial objective of food sovereignty to a policy of nationalist food security. © 2015 John Wiley &amp; Sons Ltd</t>
+          <t>‘Food sovereignty’ emerged from grassroots peasant mobilisations, and has been spread globally by a democratically organised social movement, la Vía Campesina. This process has seen food sovereignty influence global political discourse, transform national constitutions and be incorporated into a proposed United Nations declaration on the rights of peasants and other people working in rural areas. By examining the role of grassroots actors in the global South in the construction of this emerging global norm, I militate against tendencies of West-centrism and elitism in existing literature on the contemporary diffusion of norms. By also discussing the potential marginalisation of grassroots peasant voices in recent United Nations discussions, I suggest that these elitist and West-centric tendencies may also exist in the norm diffusion process itself. © 2015, © The Author(s) 2015.</t>
         </is>
       </c>
       <c r="E221" t="n">
@@ -7658,15 +7668,15 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Traditional seed and exchange systems cement social relations and provide a safety net: A case study from KwaZulu-Natal, South Africa</t>
+          <t>The Prism of Expanding Peasants' Rights: A Critical Investigation of Diverse Frames Applied to la Vía Campesina's Human Rights Engagements</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Millions of small-scale farmers on the African continent save and exchange the seed of their traditional crops, yet the social and cultural values of these systems remain under-researched. Through ethnographic research conducted in the KwaZulu-Natal Province of South Africa, this study sets out to improve understanding about the mechanisms and significance of traditional seed exchange networks. Findings suggest that traditional crops are central; their seed is highly valued; and systems of exchange play complex and nuanced roles. Critical for food sovereignty, these systems act as a back-up in the case of harvest failure, and enhance social cohesion through strengthening community and familial ties. © 2017 Taylor &amp; Francis.</t>
+          <t>Since its foundation in 1993, La Vía Campesina has surged to the forefront of the global alter-globalization movement of movements, mobilizing human rights discourse to promote small-scale sustainable agriculture as a key component of social justice, equity, dignity, and autonomy everywhere. This literature review argues that food sovereignty - La Vía Campesina's best known, rights-based innovation - inflects a range of other interrelated but distinct frames that variously foreground peasants' rights, "peasantness," land, cultural recognition, and collective emancipation, prefiguring an array of prospects for the expansion of human rights to peasants and other marginalized populations confronting the failures of capitalist globalization. © 2018 Koninklijke Brill NV, Leiden, The Netherlands.</t>
         </is>
       </c>
       <c r="E222" t="n">
@@ -7690,15 +7700,15 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>A food regime’s perspective on palestine: Neoliberalism and the question of land and food sovereignty within the context of occupation</t>
+          <t>Issues of import substitution in the agro-industrial sector</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>The question of land and its strategic, socio-political and agricultural relevance within the Israeli-Palestinian conflict must be understood against the background of the dominant position of Israel as occupational power, heavily affecting the access to, and the control over natural resources. The subjects discussed within this article are intrinsically linked via the usage of the food regime approach as analytical tool, and the article’s specific focus on land. An attempt is made to grasp the neoliberal restructuring of Palestine and its developments in the agricultural sector, paying particular attention to land grabbing. Neoliberalism aided the institutionalising and normalising of accumulation by dispossession in the occupied Palestinian territories (oPt), these being identified as a key feature of the corporate food regime, and leading to the marginalisation of rural communities and to depeasantisation. The crises of the food regime spurred food sovereignty movements all around the globe. While analysing the political demands and approaches of the concept of food sovereignty centered around natural resources, this article also explores why the concept offers various ideas for an alternative development in Palestine. This paper tries to show how specific dynamics observed by the food regime analytics can be helpful in contextualising developments within the oPt – ranging from neoliberal restructuring to the emergence of food sovereignty. © 2018 Mattersburger Kreis fur Entwicklungspolitik. All rights reserved.</t>
+          <t>The development of the modern agro-industrial sector at all levels of economy management is considered in the context of import substitution due to the sanctions announced by the US and the West and the food import ban announced by Russia as a counter measure. The government has approved the "roadmap" to facilitate import substitution in agriculture. The purpose of the article is to assess the potential of the AIS (agro-industrial sector) in Russia, trends in achieving threshold levels of food sovereignty, determine methodological and practical conditions and possibility to implement the roadmap of import substitution, volumes, timing and growth rate in achieving the goals.</t>
         </is>
       </c>
       <c r="E223" t="n">
@@ -7722,7 +7732,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>The political economy of rentier capitalism and the limits to agrarian transformation in Venezuela</t>
+          <t>Community context of food justice: Reflections on a free local produce program in a New Orleans food desert</t>
         </is>
       </c>
       <c r="C224" t="n">
@@ -7730,7 +7740,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>This paper explores the contradictions and limits to agrarian transformation under 21st-century socialism in Venezuela. Given the historical destruction wrought by the oil-based accumulation process upon Venezuela's agricultural sector, the symbolic and social importance of an “agrarian revolution” could be seen as a yardstick with which to measure the progress of the Bolivarian Revolution in “sowing the oil”. Eschewing a policy focus on the role of “food sovereignty” and “food security”, the paper analyses how the dynamics of rentier-capital accumulation have played out in the agricultural sector. The paper argues that the macroeconomic framework of the Bolivarian Revolution has diminished the possibility of expanded domestic food production and instead reduced agrarian transformation to contradictory processes of ground rent appropriation. © 2017 John Wiley &amp; Sons Ltd</t>
+          <t>Food justice discourse has emerged partly in response to the critique of alternative food networks during the last decade, but its justice conceptualization tends to be too narrowly focused on food-related injustices rather than broader social injustices that shape food access and food sovereignty, a gap we address. Our analysis of a semi-experimental free local food program we administered in a New Orleans food desert demonstrates that several community context factors shape the residents' access to a local food market in this neighborhood: fragmented social ties, digital and generational divides, perpetual infrastructural failure, and the location of the market within the neighborhood. We argue that food justice discourse needs to incorporate social and cultural community contexts in its operationalization of food access and sovereignty, especially regarding how the latter concept is defined and executed in practice. © 2017 Laura McKinney et al.</t>
         </is>
       </c>
       <c r="E224" t="n">
@@ -7754,22 +7764,24 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>The agricultural production and food industry development trends in the context of food security of Russia</t>
+          <t>Seed laws, certification and standardization: outlawing informal seed systems in the Global South</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Food security, in its function as an integral component of the state’s economic security, is one of the central issues of the state economic policy in most post-Soviet countries. Over the last decade, the food security policy implementation vectors have changed. While at the beginning of the market reforms, the key task of the former Soviet Union countries’ governments was to fill the food market, regardless of the import component, currently, food sovereignty is moving to the forefront, including the availability and quality of food. The present paper attempts to systematize and analyze factors and contradictions that affect the country’s food security. The scientific importance of the work is determined by the comprehensive system approach to the factor analysis of the agricultural sector operation from the perspective of the following aspects: the ongoing foreign policy of the state (the membership in the World Trade Organization and product embargo) and the state financial support mechanism for the agriculture. © 2017. ASERS Publishing. All rights reserved.</t>
+          <t>A series of relatively new seed laws are becoming novel mechanisms of accumulation by dispossession in agriculture. Many researchers have argued that intellectual property rights (IPR) laws that apply to living materials dispossess people of seeds by privatizing germplasm. What these authors have not addressed is the role that non-IPR-related seed laws play in the seed enclosure. I argue that we should pay more attention to the implications of seed laws and regulations that do not deal directly with IPR issues, because they are also being used to outlaw practices that are necessary for the functioning of informal seed systems. As a result, they are setting the stage for the further erosion of seed sovereignty and are becoming an additional threat to an already waning agro-biodiversity, with direct consequences for farmers’ livelihoods. These seed laws establish certification requirements and quality standards for the marketing and/or exchange of seeds. I use the example of contemporary Colombian seed politics to illustrate how and why certification requirements and quality standards are currently being introduced throughout the Global South. I draw on insights from the standards literature in order to explain the power, limitations and consequences of these laws. © 2016 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E225" t="n">
         <v>1</v>
       </c>
-      <c r="F225" t="n">
-        <v>1</v>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -7786,7 +7798,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Troubling Tradition, Community, and Self-Reliance: Reframing Expectations for Village Seed Banks</t>
+          <t>Food professionals’ opinions of the Food Studies curriculum in Australia</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -7794,14 +7806,16 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Heralded by both food sovereignty activists and mainstream development practitioners, village seed banks are a rural development phenomenon rapidly gaining attention for their potential to support resilient agricultural systems. This paper presents a case study for examining the power of prevailing narratives of decentralized development to shape and ultimately constrain the operations of village seed banks in Telangana, India. This case demonstrates how visions of tradition, community, and self-reliance can serve to discount the materiality of seeds, the social complexity of village institutions, and even the voices of farmers. The goal of this research is not to criticize village seed banks, as they hold great potential, nor to vilify the narratives in question, but rather to encourage critical reflection on how the assumptions embedded in these narratives shape mechanisms for agricultural development. I argue for a shift away from framing tradition, community, and self-reliance as development solutions and propose an interrogative approach that turns these narratives into questions for engaging more effectively with rural livelihoods. © 2017 Elsevier Ltd</t>
+          <t>Purpose: The purpose of this paper is to investigate the food system professionals’ opinions of a new senior secondary school food literacy curriculum named Victorian Certificate of Education Food Studies in Victoria, Australia. Design/methodology/approach: A purposive sample of 34 food system professionals from different sub-sectors within the Australian food system was interviewed individually in late 2015 and early 2016. Interviews were analysed using the template analysis technique. Findings: Most participants appreciated the extensive coverage of food literacy aspects in this new curriculum. However, many suggested amendments to the curriculum including pay less emphasis on food history-related topics and pay more focus on primary food production, nutrition awareness and promotion, and food security, food sovereignty, social justice, and food politics. Practical implications: A well-structured, comprehensive secondary school food literacy curriculum could play a crucial role in providing food literacy education for adolescents. This will help them to establish healthy food patterns and become responsible food citizens. The findings of this study can be used to modify the new curriculum to make it a more comprehensive, logical, and feasible curriculum. Moreover, these findings could be used to inform the design of new secondary school food literacy curricula in Australia and other countries. Originality/value: The exploration of perspectives of professionals from a broad range of food- and nutrition-related areas about school food literacy education makes this study unique. This study highlights the importance of food professionals’ opinions in secondary school food-related curricula development. © 2017, © Emerald Publishing Limited.</t>
         </is>
       </c>
       <c r="E226" t="n">
         <v>1</v>
       </c>
-      <c r="F226" t="n">
-        <v>1</v>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -7818,15 +7832,15 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Building sustainable social and solidarity economies: Place-based and network-based strategies of alternative development organizations in India</t>
+          <t>Reintegrating economy, society, and environment for cooperative futures: Polanyi, Marx, and food sovereignty</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>This article critically examines and analyzes place-based as well as network-based strategies of alternative development organizations that claim to be building sustainable social and solidarity economies (SSE) in the political context of neoliberal globalization. While the Indian state and market forces are actively promoting the neoliberal agri-food system, alternative development organizations are working with farmers to build the SSE based on the principles of democracy, inclusiveness, reciprocity, cooperativism, and socioecological sustainability. Using a case study approach, this article analyzes how SSE initiatives are aiming to reclaim control over the local agri-food sector. Specifically, this article examines how community development organizations mobilize farmers based on the principles of agro-ecology and the politics of seed and food sovereignties. This article uses the Center for Sustainable Agriculture, an alternative community development organization in south India, as a case study. © 2017 Community Development Society.</t>
+          <t>This paper attempts to ‘put in their place' (Sum and Jessop 2013) some key issues that frame the question of ‘the more-than-economic dimensions of co-operation'. In particular, it asks why capitalism deconstructs socio-natural reality into the ‘common-sense' and discrete institutional spheres of ‘economy', ‘society' and ‘environment', an institutional constellation in which the ‘economy' is usually afforded pre-eminence. Building on this, the paper further asks: why does the organization of society around the commodity form, and specifically around the generalization of the commodity form to labour-power that is the defining feature of capitalism, have the tendential effect of fragmenting, atomizing, and marginalizing social collectivities and cooperative behaviour? This question is answered through examination of the work of Polanyi and Marx, arguing that it is the latter who is best able to explain the nature and dynamics of capitalism, and its relationship to cooperative activity. The paper elaborates the Marxian approach and suggests strong linkages with the ‘radical' fraction of the food sovereignty movement. The latter, like Marx, appears to invoke unconstrained cooperation as ‘actual' autonomy; the paper asks what the political and ecological prerequisites for the realization of this social imaginary might be. © 2016 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E227" t="n">
@@ -7850,15 +7864,15 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Framing the food poverty question: Policy choices and livelihood consequences in Indonesia</t>
+          <t>Value chain governance and governmentality of horticultural exporters by developing economies: A perspective of Kenya's fresh fruits and vegetable export sector</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Since 2008, amidst fears of vulnerabilities related to climate change, price volatility and global food shortages, an increasingly conflicted policy field has emerged in the global south. Competing policy narratives provide for rival policy orientations with respect to food policy, land rights, the environment and justice. This paper considers the implications of different choices associated with these rival concepts in one case – that of Indonesian Kalimantan. The paper shows how predominant framings of ‘food sovereignty’, ‘food self-sufficiency’ and ‘food security’ support scalar strategies that empower particular actors and agendas. While narratives focused on national food sovereignty support large-scale food estates in ways that fit a particular politics of food, they overlook the specific livelihood challenges facing rural populations and the problems of food poverty in marginal landscapes. Localist narratives of ‘food sovereignty’ focus on enhancing smallholder access and control over productive resources and diversification in ways that are better suited to the geography of production, but they are yet to address the political anxieties presented by food questions at the national level. If policy choices are to deal with the underlying issues, then the alternative values, guiding assumptions and scalar strategies encompassed by rival narratives need to be appraised and reconciled with the specific livelihood challenges of rural people and the need to secure an inclusive and equitable society in a changing global environment. © 2017</t>
+          <t>The domain of governance has largely been extolled by Nations, States or governmental and intergovernmental actors especially in upholding Nations' sovereignty and values. While this still holds, governance complexity has been reinforced by establishment of global value chains such as in food and agriculture commodities increasingly being influenced and controlled by non-state actors in different parts of the world by both corporate and retail actors through private governance mechanisms. These mechanisms often fall short of universal standards and the resultant effect is ramified through proliferation of standards that result to state of governance that is constantly being redefined as 'codes of colours'. This paper thus seeks for an alternate dimension based on Foucault's governmentality theory. The quest for this overarching theory is based on its mediatory role that regulates the excesses of private interests in regulations while not prioritizing any state's sovereignty but views governance inclusively to both the State and non-state actors; this view promotes the broader understating of global value chains in the global economy of the 21st century. The paper's methodology is based on literature review pertinent to governance theory, value chain governance, governmentality as its key variables in light of the agrifood sector. It applies the value chain discourse and governmentatity in light of the Kenya's Horticultural export and strategic positioning to the EU market. This paper's novelty in light of the discourse and building on the body of knowledge and for the plausible ways and means to re-articulate value chain governance in the global economy while creating a viable alternative between the States, and Non-State actors for the benefit of both the upstream agents and downstream customers.</t>
         </is>
       </c>
       <c r="E228" t="n">
@@ -7882,15 +7896,15 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>The intersection of food security and biodiversity conservation: a review</t>
+          <t>‘Rescaling’ alternative food systems: from food security to food sovereignty</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Food security and biodiversity conservation are key challenges of the twenty-first century. While traditionally these two challenges were addressed separately, recently, papers have begun to specifically address the nexus of food security and biodiversity conservation. We conducted a structured literature review of 91 papers addressing this nexus. To ascertain how a given paper approached the topic, we assessed to what extent it covered 68 potentially relevant issues. The resulting dataset was analyzed using cluster analysis. Two main branches of literature, containing a total of six clusters of papers, were identified. The “biophysical-technical” branch (clusters: “sustainable intensification” and “production focus”) was dominated by the natural sciences, focused strongly on the production aspect of food security, and sought general solutions. In contrast, the “social-political” branch (clusters: “social-ecological development”; “empowerment for food security”; “agroecology and food sovereignty”; and “social-ecological systems”) often drew on the social sciences and emphasized social relations and governance, alongside broader considerations of sustainability and human well-being. While the biophysical-technical branch was often global in focus, much of the social-political branch focused on specific localities. Two clusters of papers, one from each branch, stood out as being particularly broad in scope—namely the clusters on “sustainable intensification” and “agroecology and food sovereignty.” Despite major differences in their conceptual basis, we argue that exchange between these two research clusters could be particularly helpful in generating insights on the food–biodiversity nexus that are both generally applicable and sufficiently nuanced to capture key system-specific variables. © 2015, Springer-Verlag Berlin Heidelberg.</t>
+          <t>In this paper, we critically interrogate the benefits of an interdisciplinary and theoretically diverse dialogue between ‘local food’ and ‘alternative food networks’ (AFNs) and outline how this dialogue might be enriched by a closer engagement with discourses of food sovereignty and the politics of scale. In arguing for a shift towards a greater emphasis on food sovereignty, we contend that contemporary discourses of food security are inadequate for the ongoing task of ensuring a just and sustainable economy of food. Further, rather than treating the local and the global as ontologically given categories around which to contest the politics of food, it is our contention that recognising the socio-spatial aspects of the politics of scale has the potential to reinvigorate discourses of food security, food sovereignty and AFNs. Understanding scale as both fixed to a degree as well as contingent and dynamic has implications for an understanding of the role of food systems, for how the rescaled state privileges certain food systems and the possibilities for resistance through ‘jumping scale’ and food utopias. All of these aspects are significant if we are to fully comprehend and contest the challenges of envisioning and enacting real utopias of food sovereignty. © 2015, Springer Science+Business Media Dordrecht.</t>
         </is>
       </c>
       <c r="E229" t="n">
@@ -7914,22 +7928,24 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Agroecology in the Brazilian government agenda: Developments between 2011 and 2014; [La agroecología en la agenda del gobierno Brasileño: Desarrollos entre 2011 y 2014]</t>
+          <t>Sovereignty, Risk and Biotechnology: Zambia's 2002 GM Controversy in Retrospect</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Since 2003, in Brazil, the agroecological perspective has been present in punctual public policies of the federal government. In 2012, with a convergent action of the agroecological movement and the organic production, the National Policy for Agroecology and Organic Production was created. This article presents a reconstruction of the process, while highlighting involved actors, as well as their demands and interests, ideas, and main forums. Despite its limitations and conflicts, the Pnapo is a benchmark and a political achievement, having insured the agroecological agenda in the public policies inter-related to rural development, food sovereignty, and the human right to adequate food. © 2017, Pontificia Universidad Javeriana. All rights reserved.</t>
+          <t>The southern African food crisis of 2002 led to one of the most significant controversies over the use of genetically modified (GM) crops in the developing world to date. Zambia's staunch opposition to GM food aid during the crisis is still frequently used as a reference point in debates over GM seed technology in agricultural development, and the morality of advanced biotechnology. This article re-examines the controversy and its contemporary relevance using oral history interviews with key scientists, policy makers and development practitioners engaged in debates and decision-making processes in Zambia in 2002, alongside a review of discourses in the Zambian press. The author argues that, rather than different perceptions of health and environmental risks derived from GM crops, it was questions of sovereign regulatory control of technology in a context of diminished state capacity - and the decline in the Zambian state's capacity for agricultural science research in particular - that played a central role in shaping anti-GM attitudes. In addition, trust in the arguments of GM advocates was diminished by communication efforts which treated Zambian scientists and policy elites as a lay rather than an expert audience. © 2015 International Institute of Social Studies.</t>
         </is>
       </c>
       <c r="E230" t="n">
         <v>1</v>
       </c>
-      <c r="F230" t="n">
-        <v>1</v>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -7946,15 +7962,15 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Food sovereignty and agro-ecology in Karnataka: interplay of discourses, identities, and practices</t>
+          <t>Food or flowers? Contested transformations of community food security and water use priorities under new legal and market regimes in Ecuador's highlands</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Karnataka Rajya Raitha Sangha (KRRS), a farmers’ movement, and a member of La Via Campesina, has been encouraging zero-budget natural farming in Karnataka, India, within the framework of food sovereignty and agro-ecology. Using the experiences of KRRS, this article addresses the question of the extent of pluralism within the discourse of food sovereignty. Focusing on the interplay of local and global practices, discourses and identities, the article throws light upon contradictions and negotiations between “necessary abstractions” and “particularisms”, spaces and places of resistance and implications it may have on struggles at both local and global levels. © 2017 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>During the past three decades, the Pisque watershed in Ecuador's Northern Andes has become the country's principal export-roses producing area. Recently, a new boom of local smallholders have established small rose greenhouses and joined the flower-export business. This has intensified water scarcity and material/discursive conflicts over water use priorities: water to defend local-national food sovereignty or production for export. This paper examines how including peasant flower farms in the capitalist dream - driven by a 'mimetic desire' and copying large-scale capitalist flower-farm practices and technologies - generates new intra-community conflicts over collective water rights, extending traditional class-based water conflicts. New allocation principles in Ecuador's progressive 2008 Constitution and 2014 Water Law prioritising food production over flowers' industrial water use are unlikely to benefit smallholder communities. Instead, decision-making power for peasant communities and their water users' associations on water use priority would enable water user prioritization according to smallholders' own preferences. © 2016 Elsevier Ltd.</t>
         </is>
       </c>
       <c r="E231" t="n">
@@ -7978,15 +7994,15 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Livelihoods crises in Vidarbha, India: Food sovereignty through traditional farming systems as a possible solution</t>
+          <t>Agrobiodiversity Under Different Property Regimes</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>The Vidarbha region in Maharashtra, India, home to 3.4 million smallholder farmers, is a major cotton-producing region in one of the wealthiest Indian states. However, between 1995 and 2013, more than 60,000 farmers took their own lives. Many of these suicides have been linked to extreme debt created by the expensive mono-cropping of Bt cotton. Some farming households have responded to these pressures by abandoning Bt cotton growing and turning to sustainable agriculture using traditional mixedcropping methods. Yet the question remains: have the changes produced better livelihoods in Vidarbha? Using a food sovereignty framework, we assess the impact of these changes through an analysis of a 200-household survey across six districts in Vidarbha. We also explore the meaning of food sovereignty for those who practise it, seeking to better understand some of the complexities and experiences associated with the term. © 2017 South Asian Studies Association of Australia.</t>
+          <t>Having an adequate and extensively recognized resource governance system is essential for the conservation and sustainable use of crop genetic resources in a highly populated planet. Despite the widely accepted importance of agrobiodiversity for future plant breeding and thus food security, there is still pervasive disagreement at the individual level on who should own genetic resources. The aim of the article is to provide conceptual clarification on the following concepts and their relation to agrobiodiversity stewardship: open access, commons, private property, state property and common heritage of humankind. After presenting each property regime, we will examine whether and how these incentivize the conservation, improvement and sharing of crop genetic resources, and conclude by defending a mixed property regime. © 2016, Springer Science+Business Media Dordrecht.</t>
         </is>
       </c>
       <c r="E232" t="n">
@@ -8010,22 +8026,24 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>The Evolution of Food Security Governance and Food Sovereignty Movement in China: An Analysis from the World Society Theory</t>
+          <t>Critical food systems education (CFSE): educating for food sovereignty</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Originating in a 1983 Mexican Government Program, the term ‘food sovereignty’ was coined in 1996 by La Via Campesina—a global peasant network—to address concerns within the civil society for food security. Rather than to accept the neoliberal framework of mainstream food security definition and governance, the food sovereignty movement seeks to view food security as the right of peoples to define their own food and agriculture systems with limited corporation intervention. As a result, food production should be geared toward the domestic and local markets and not toward international trade that only benefits corporations. This food sovereignty movement was inducted into China in 2013 just as China’s agricultural systems were shifting toward a more corporate-centric structure that increasingly exploits the small-scale farmers. A question was hence raised: How have the global civil society networks influenced the Chinese civil society and promoted China’s local food sovereignty movement? Through the world society theory, the author has identified social forums, such as international conferences and social media channels, as an expedient means for interactions. However, as the Chinese government continues to develop a corporate-centric food security governance system and tighten its civil society space, the impacts of China’s food sovereignty movement remain unclear. © 2017, Springer Science+Business Media B.V.</t>
+          <t>Food systems education can help individuals and communities transition to more sustainable food systems. Despite the growing scholarship on food systems education, there is a paucity of critical perspectives on its pedagogical methods, learning outcomes, and overarching objectives. This article addresses this gap by integrating insights from critical pedagogy, food justice, food sovereignty, and agroecology, developing a new synthetic area of study and research entitled critical food systems education (CFSE). CFSE is composed of a tripartite perspective, consisting of praxis, policy, and pedagogy. This framework is guided by the following overarching question: How can food systems education prepare individuals and teachers to transform the food system, and help communities attain food sovereignty? Following a review of the food systems education literature, we highlight the constraints of the depoliticized approach by drawing attention to its race and class-based assumptions. We then construct a definition of CFSE, and articulate the theoretical and practical cornerstones of this perspective, which are drawn from critical pedagogy, food justice, food sovereignty, and agroecology. A case study of a seed sovereignty project at a vocational high school associated with Brazil’s Landless Workers Movement is used to exemplify how CFSE can contribute to educating for food sovereignty. © 2016 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E233" t="n">
         <v>1</v>
       </c>
-      <c r="F233" t="n">
-        <v>1</v>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8042,15 +8060,15 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Agroecology in Uruguay</t>
+          <t>Farmer seed networks make a limited contribution to agriculture? Four common misconceptions</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>From its origins, agroecology in Uruguay has been considered as a critique of the dominant industrial agriculture model and linked to the development of alternative thinking from multiple actors. It aims to strengthen the ecological processes in agricultural systems while discussing the phenomena of concentration, alienation, and access to land, along with the problems of family agriculture and food sovereignty. Against the deepening of the industrialized model of agriculture, different actors drive the development of a National Agroecology Plan. An agroecological transition process is proposed by building sustainable development options, which arises from the agrarian and extends to the whole society. © 2017 Taylor &amp; Francis.</t>
+          <t>The importance of seed provisioning in food security and nutrition, agricultural development and rural livelihoods, and agrobiodiversity and germplasm conservation is well accepted by policy makers, practitioners and researchers. The role of farmer seed networks is less well understood and yet is central to debates on current issues ranging from seed sovereignty and rights for farmers to GMOs and the conservation of crop germplasm. In this paper we identify four common misconceptions regarding the nature and importance of farmer seed networks today. (1) Farmer seed networks are inefficient for seed dissemination. (2) Farmer seed networks are closed, conservative systems. (3) Farmer seed networks provide ready, egalitarian access to seed. (4) Farmer seed networks are destined to weaken and disappear. We challenge these misconceptions by drawing upon recent research findings and the authors' collective field experience in studying farmer seed systems in Africa, Europe, Latin America and Oceania. Priorities for future research are suggested that would advance our understanding of seed networks and better inform agricultural and food policy. © 2015 The Authors. Published by Elsevier Ltd.</t>
         </is>
       </c>
       <c r="E234" t="n">
@@ -8074,22 +8092,24 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Neo-developmentalism and a “vía campesina” for rural development: Unreconciled projects in Ecuador's Citizen's Revolution</t>
+          <t>Food sovereignty as decolonization: some contributions from Indigenous movements to food system and development politics</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>From the outside, it appears that the government of President Rafael Correa in Ecuador has put in place a legal and policy framework for a vía campesina model of rural development, inspired by food sovereignty and buen vivir. Recent studies have, however, concluded that a considerable disjuncture exists between this framework and the actual agricultural policies and programmes implemented by the government. In this paper, I provide a broad overview of the agricultural and rural development policies under the Correa government and analyse some of the causes of the gap between the policy framework and policy implementation. I argue that Ecuador under Correa speaks to the difficulties of reconciling a vía campesina approach to rural development with a neo-developmental economic model. I focus on several issues in particular in order to explain the disjuncture: how the growth of “vía campesina” proposals and political discourse in Ecuador since the 1980s coincided with significant processes of agrarian change; the transformation of rural social movement federations from a sociopolitical force into a political/electoral force and the subsequent decline of these movements; and the deepening integration of small-scale producers into domestic agribusiness commodity chains and the growth of national agribusiness firms during the Correa government. © 2017 John Wiley &amp; Sons Ltd</t>
+          <t>The popularity of ‘food sovereignty’ to cover a range of positions, interventions, and struggles within the food system is testament, above all, to the term’s adaptability. Food sovereignty is centrally, though not exclusively, about groups of people making their own decisions about the food system—it is a way of talking about a theoretically-informed food systems practice. Since people are different, we should expect decisions about food sovereignty to be different in different contexts, albeit consonant with a core set of principles (including women’s rights, a shared opposition to genetically modified crops, and a demand for agriculture to be removed from current international trade agreements). In this paper we look at the analytical points of friction in applying ideas of food sovereignty within the context of Indigenous struggles in North America. This, we argue, helps to clarify one of the central themes in food sovereignty: that it is a continuation of anti-colonial struggles, even in post-colonial contexts. Such an examination has dividends both for scholars of food sovereignty and for those of Indigenous politics: by helping to problematize notions of food sovereignty and postcoloniality, but also by posing pointed questions around gender for Indigenous struggles. © 2014, Springer Science+Business Media Dordrecht.</t>
         </is>
       </c>
       <c r="E235" t="n">
         <v>1</v>
       </c>
-      <c r="F235" t="n">
-        <v>1</v>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8106,15 +8126,15 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>The Developmental State and Food Sovereignty in Tanzania</t>
+          <t>European transitions towards a corporate-environmental food regime: Agroecological incorporation or contestation?</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Tanzania has been experiencing different periods of food shortages mainly because of insufficient food production. While the country has an undisputable potential for food production, the state and its development partners, such as the World Bank, believe that the unsustainable peasant food production is the main cause of the food crisis. As a panacea to the food crisis, a call for de-peasantization in favour of commercial large-scale farming, is advocated. Inspired by the work of Sam Moyo, this article argues that achieving food self-sufficiency should begin with improving peasant agriculture instead of dispossessing peasants of their land. The principles of food sovereignty must be adopted and the orientation of the state must be developmental. The state must play an activist role in investing heavily in agricultural-related projects. © 2017 SAGE Publications.</t>
+          <t>The 'food regime' concept helps to analyse potential transitions beyond the agro-industrial regime which has been globally dominant since the 1970s. As its multiple crises generate alternative production methods and products, some have been incorporated into a nascent 'corporate-environmental food regime'. This nascent regime is illustrated here by two agendas prominent in Europe - 'bioeconomy' (Life Sciences) and 'sustainable intensification' (neoproductivism). As a significant difference, the prevalent 'bioeconomy' agenda marginalises agroecological practices, while 'sustainable intensification' selectively incorporates such practices within a broader toolkit including biotech. Regardless of that difference, both agendas reinforce a neoliberal productivist narrative: namely, more resource-efficient methods are necessary for increasing production to fulfill the greater market demand for food, feed, fuel, etc. In this way, the capital-accumulation driver is reified as 'market demand' arising exogenously from the food production system - which thereby accommodates societal needs. By contrast, the agroecology narrative diagnoses the problem as profit-driven agro-industrial monoculture systems making farmers dependent on external inputs, undermining their knowledge, and distancing consumers from agri-producers. Through such a narrative, new alliances have elaborated a different future linking farmers' knowledge-exchange, agroecology, food sovereignty, citizens' initiatives, public knowledge about food production, etc. Civil society organisations have facilitated such linkages among researchers, scientists and social movements. In those ways, contending narratives justify different trajectories for an agro-food transition. Each links different innovation paradigms of technique, quality and knowledge. These differences often remain implicit amidst broad terms such as bioeconomy, sustainable intensification, agroecology, etc. Making the divergences explicit can help contest transitions towards a corporate-environmental food regime, while also counterposing agroecological alternatives. © 2015 Elsevier Ltd.</t>
         </is>
       </c>
       <c r="E236" t="n">
@@ -8138,22 +8158,24 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Is Oil Palm Expansion a Challenge to Agroecology? Smallholders Practising Industrial Farming in Mexico</t>
+          <t>Return to Freedom: Anti-GMO Aloha ‘Āina Activism on Molokai as an Expression of Place-based Food Sovereignty</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Agroecology has become a powerful alternative paradigm for rural development. In contrast to conventional approaches, this paradigm shifts the emphasis from technology and markets to local knowledge, social justice and food sovereignty, to overcome rural poverty and environmental degradation. However, the spread of this approach faces several obstacles. This paper deals with one of these obstacles: the ‘preference’ of smallholders for industrial farming. We specifically analyse the widespread uptake up of oil palm by smallholders in Chiapas. Contrary to agro-ecological assumptions, oil palm proved favourable to smallholders in Chiapas because of historical and contemporary state–peasant relations and the advantageous economic circumstances within the oil palm sector. Based on this research, we identify four challenges for agroecology: (i) the existence of contradictory interests within the peasantry as a result of social differentiation; (ii) the role of the state in making conventional development models relatively favourable to smallholders; (iii) the prevalence of modernization ideologies in many rural areas; and (iv) the need for this paradigm to acknowledge smallholders' agency also when engaged in industrial farming. These challenges need to be tackled for agroecology to offer viable alternatives in a context of agro-industrialization. © 2016 John Wiley &amp; Sons Ltd</t>
+          <t>Abstract: This paper explores the concept of food sovereignty on the island of Molokai, where the Hawaiian value of aloha ‘āina, or love for the land, guides local efforts to preserve and promote local food production. This organizing concept also has political undertones—food sovereignty requires access to land and resources, both of which Native Hawaiians have historically been dispossessed of since colonial contact. In the paper, I examine current anti-genetically modified organism (GMO) activism as one example of the uniquely Hawaiian food sovereignty efforts taking place on Molokai. I present two key arguments. First, I show how the anti-GMO platform, which has garnered support from both native Hawaiians and more recent settlers, reflects a strategic alliance that gives greater momentum to Hawai‘i's food sovereignty movement, which in turn is viewed by a growing number of Native Hawaiians as a pathway toward Indigenous sustainable self-determination. I also draw from the Molokai case to illustrate a perceived tension between community-based work and political engagement that exists within both the food sovereignty paradigm and the contemporary Indigenous sovereignty framework. I argue that aloha ‘āina as a cultural and political praxis suggests ‘ways out’ of this apparent paradox, by showing how Hawaiians have historically engaged simultaneously in both community-based practices and political activism as a means to care for their land and people. While food sovereignty on Molokai calls for the privileging of place-based knowledge, there are lessons to be learnt for social movements elsewhere that are also struggling internally to deconstruct and define what is meant by food sovereignty, and how best to achieve it. © 2014 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E237" t="n">
         <v>1</v>
       </c>
-      <c r="F237" t="n">
-        <v>1</v>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8170,15 +8192,15 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>The Class Dynamics of Food Sovereignty in Mexico and Ecuador</t>
+          <t>From world hunger to food sovereignty: Food ethics and human development</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>This paper examines the class dynamics of food sovereignty in Mexico and Ecuador. It argues that the nature of contemporary demands for food sovereignty is heavily influenced by the outcomes of peasant movements’ historical and ongoing internal class dynamics. Processes of class differentiation within peasant organizations in both countries have led to the interests of certain classes predominating over or at the expense of others. Despite La Vía Campesina's projection of ‘unity in diversity’, incorporating sometimes conflicting class interests into the movement is particularly challenging. As such, class analysis must be brought back into debates around food sovereignty in order to gauge (and potentially further) the movement's transformative potential. © 2016 John Wiley &amp; Sons Ltd</t>
+          <t>The role of Amartya Sen's early work on famine notwithstanding, food security is generally seen as but one capability among many for scholars writing in development ethics. The early literature on the ethics of hunger is summarized to show how Sen's Poverty and Famines was written in response to debates of past decades, and a brief discussion of food security as a capability follows. However, Sen's characterization of smallholder food security also supports the development of agency in both a political and an economic sense. Economic agency is discussed and tied to longstanding literatures on the moral significance of farming within political economy. Finally, while the newly emergent literature on food sovereignty includes many themes, it is shown to be re-Articulating arguments that stress smallholder's economic agency as a development goal. This pattern of argument thus provides a way to reconcile at least some of the claims being advanced under the banner of food sovereignty with the human development approach, while also restoring food ethics to a more central place in the overall discourse of development ethics. © 2015 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E238" t="n">
@@ -8202,15 +8224,15 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Investor ownership or social investment? Changing farmland ownership in Saskatchewan, Canada</t>
+          <t>The Conflicted Nature of Food Security Policy: Balancing Rice, Sugar and Palm Oil in Indonesia</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>There is growing recognition that land grabbing is a global phenomenon. In Canada, investors are particularly interested in Saskatchewan farmland, the province where 40 % of country’s agricultural land is situated. This article examines how the changing political, economic, and legal context under neoliberalism has shaped patterns of farmland ownership in Saskatchewan, between 2002 and 2014. Our research indicates that over this time, the amount of farmland owned by investors increased 16-fold. Also, the concentration of farmland ownership is on the rise, with the share of farmland owned by the largest four private owners increasing six-fold. Our methodology addresses some of the criticisms raised in the land grabbing literature. By using land titles data, we identified farmland investors and determined very precisely their landholdings thus allowing us to provide a fine-grained analysis of the actual patterns of farmland ownership. Although the article analyzes changes to farmland ownership in a specific historical, cultural and legislative context, it serves as the basis for a broader discussion of the values and priorities that land ownership policies reflect. Namely, we contrast an ‘open for business’ approach that prioritizes financial investment to one based on a land sovereignty approach that prioritizes social investment. The latter has greater potential if the aim is ecological sustainability and food sovereignty. © 2016, Springer Science+Business Media Dordrecht.</t>
+          <t>Given the multiple problems presented by food policy, food security presents a complex dilemma for policy-makers. This paper examines the contradictions presented by competing food security, food self-sufficiency and food sovereignty framings, the challenge of policy-making across multiple levels amidst competing agendas of agricultural commodity production and production for self-provisioning populations, and the need to balance economic development with sustainable food production. From an analysis of rice, palm oil and sugar cases in Indonesia, we conclude that the conflicted nature of food policy needs to be understood in terms of the way specific material and ideational, actor-specific and structural factors working across scale shape outcomes in a highly uneven fashion. We find that this produces a policy field highly resistant to single analytical approaches, opening up the wide range of internally conflicting, related policy questions encompassed by food security-related policy. © 2016 Discipline of Anthropology and Sociology, The University of Western Australia.</t>
         </is>
       </c>
       <c r="E239" t="n">
@@ -8234,15 +8256,15 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Codesigning a resilient food system</t>
+          <t>“We Plant Only Cotton to Maximize Our Earnings”: The Paradox of Food Sovereignty in Rural Telengana, India</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Global changes, especially the progression of climate change, create a plethora of adaptation needs for social-ecological systems. With increasing uncertainty, more resilient food systems that are able to adapt and shape their operations in response to emerging challenges are required. Most of the research on this subject has been focused on developing countries; however, developed countries also face increasing environmental, economic, and social pressures. Because food systems are complex and involve multiple actors, using codesign might be the most productive way to develop desirable system characteristics. For this study, we engaged food system actors in a scenario-planning exercise to identify means of building more resilient food systems. In particular, the actors focused on determinants of adaptive capacity in developed countries, with Finland as a case study. The brainstorming session followed by a two-round Delphi study raised three main characteristics for effective food system resilience, namely, energy and nutrient sovereignty, transparency and dialogue in the food chain, and continuous innovativeness and evidence-based learning. In addition, policy interventions were found instrumental for supporting such food system resilience. The main actor-specific determinants of adaptive capacity identified included the farmers’ utilization of agri-technology and expertise; energy and logistic efficiency of the input and processing industry; and for retail, communication to build consumer trust and environmental awareness, and effective use of information and communication technology. Of the food system actors, farmers and the processing industry were perceived to be the closest to reaching the limits of their adaptive capacities. The use of adaptive capacity as a proxy seemed to concretize food system resilience effectively. Our study suggests that the resilience approach generates new perspectives that can guide actors in developing food systems that are adaptive in uncertainty. © 2016 by the author(s).</t>
+          <t>This article critically examines the role of food sovereignty interventions in the mitigation of the impacts of neoliberal economic policies on poor farmers in the Telengana region of India. Findings based on eighteen months of ethnographic research in the Telengana region reveal that small and poor farmers face socioeconomic and cultural constraints to the adoption of food sovereignty practices and ideals. Food sovereignty prescriptions based on localized, sustainable, and subsistence agriculture paradoxically constrained farmers’ chances of maintaining viable rural livelihoods in a harsh economic climate. Based on these findings, I argue that contrary to assertions by advocates that food sovereignty is a precondition to genuine food security, farmers must first have food and livelihood security to exercise true food sovereignty that allows them more control over their livelihoods. © 2015, © Copyright 2015 by Association of American Geographers.</t>
         </is>
       </c>
       <c r="E240" t="n">
@@ -8266,15 +8288,15 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Peasant activism and the rise of food sovereignty: Decolonising and democratising norm diffusion?</t>
+          <t>‘Quiet Food Sovereignty’ as Food Sovereignty without a Movement? Insights from Post-socialist Russia</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>‘Food sovereignty’ emerged from grassroots peasant mobilisations, and has been spread globally by a democratically organised social movement, la Vía Campesina. This process has seen food sovereignty influence global political discourse, transform national constitutions and be incorporated into a proposed United Nations declaration on the rights of peasants and other people working in rural areas. By examining the role of grassroots actors in the global South in the construction of this emerging global norm, I militate against tendencies of West-centrism and elitism in existing literature on the contemporary diffusion of norms. By also discussing the potential marginalisation of grassroots peasant voices in recent United Nations discussions, I suggest that these elitist and West-centric tendencies may also exist in the norm diffusion process itself. © 2015, © The Author(s) 2015.</t>
+          <t>Abstract: What does food sovereignty look like in settings where rural social movements are weak or non-existent, such as in countries with post-socialist, semi-authoritarian regimes? Focusing on Russia, we present a divergent form of food sovereignty. Building on the concept of ‘quiet sustainability’, we present a dispersed, muted, but clearly bottom-up variant we term ‘quiet food sovereignty’. In the latter, the role of the very productive smallholdings is downplayed by the state and partly by the smallholders themselves. Those smallholdings are not seen as an alternative to industrial agriculture, but subsidiary to it (although superior in terms of sociality and healthy, environmentally friendly produce). As such, ‘quiet food sovereignty’ deviates from the overt struggle frequently associated with food sovereignty. We discuss the prospects of ‘quiet food sovereignty’ to develop into a full food sovereignty movement, and stress the importance of studying implicit everyday forms of food sovereignty. © 2015 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E241" t="n">
@@ -8298,15 +8320,15 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>The Prism of Expanding Peasants' Rights: A Critical Investigation of Diverse Frames Applied to la Vía Campesina's Human Rights Engagements</t>
+          <t>Competing Sovereignties, Contested Processes: Insights from the Venezuelan Food Sovereignty Experiment</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Since its foundation in 1993, La Vía Campesina has surged to the forefront of the global alter-globalization movement of movements, mobilizing human rights discourse to promote small-scale sustainable agriculture as a key component of social justice, equity, dignity, and autonomy everywhere. This literature review argues that food sovereignty - La Vía Campesina's best known, rights-based innovation - inflects a range of other interrelated but distinct frames that variously foreground peasants' rights, "peasantness," land, cultural recognition, and collective emancipation, prefiguring an array of prospects for the expansion of human rights to peasants and other marginalized populations confronting the failures of capitalist globalization. © 2018 Koninklijke Brill NV, Leiden, The Netherlands.</t>
+          <t>Abstract: This article explores how ‘competing sovereignties’ are shaping the political construction of food sovereignty—broadly defined as ‘the right of peoples to healthy and culturally appropriate food produced through ecologically sound and sustainable methods, and their right to define their own food and agriculture systems'. This study was motivated by a lack of clarity on the ‘sovereignty’ of food sovereignty, as noted by numerous scholars—sovereignty for whom, and how? As there is a growing consensus that there are in fact ‘multiple sovereignties’ of food sovereignty that cut across jurisdictions and scales, there is the question of how these sovereignties are competing with each other in the attempted construction of food sovereignty. This question is becoming ever more relevant as food sovereignty is increasingly adopted into state policy at various levels, calling for state and societal actors to redefine their terms of engagement. This article explores questions of ‘competing sovereignties’ by developing an analytical framework, using the lenses of scale, geography, and institutions, and applying it to Venezuela, where for the past 15 years a food sovereignty experiment has been underway in the context of a dynamic shift in state–society relations. © 2015 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E242" t="n">
@@ -8330,7 +8352,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Issues of import substitution in the agro-industrial sector</t>
+          <t>Deconstructing homegardens: food security and sovereignty in northern Nicaragua</t>
         </is>
       </c>
       <c r="C243" t="n">
@@ -8338,7 +8360,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>The development of the modern agro-industrial sector at all levels of economy management is considered in the context of import substitution due to the sanctions announced by the US and the West and the food import ban announced by Russia as a counter measure. The government has approved the "roadmap" to facilitate import substitution in agriculture. The purpose of the article is to assess the potential of the AIS (agro-industrial sector) in Russia, trends in achieving threshold levels of food sovereignty, determine methodological and practical conditions and possibility to implement the roadmap of import substitution, volumes, timing and growth rate in achieving the goals.</t>
+          <t>Development scholars and practitioners are promoting food security, food sovereignty, and the localization of food systems to prepare for the projected negative impacts of climate change. The implementation of biodiverse homegardens is often seen as a way not only to localize food production but also as a strategy in alignment with a food sovereignty agenda. While much scholarship has characterized and critiqued food security and sovereignty conceptualizations, relatively little research has examined people’s lived experiences in order to test how such theoretical visions play out on the ground in farming communities. Based on a case study of four coffee cooperatives in northern Nicaragua, we examine a non-governmental organization (NGO)-supported project promoting food security and sovereignty through development of homegardens. We ask: To what extent are homegardens an effective strategy to reach food sovereignty? And, why may farmers be resistant to changing their food production and consumption strategies to embrace biodiverse homegardens when they improve food security? We discuss characteristics of agroecological homegardens, the distinctions between food security, food sovereignty and dominant discourses of development, the history of food sovereignty in Nicaragua, and farmer perspectives on homegarden implementation. Despite historic critiques, NGOs are poised to facilitate the transformation of food and agricultural development by employing counter development strategies, a necessary step if homegardens are to be successful in the long term. To conclude, we propose some strategies NGOs and communities might pursue to move forward with homegardens as a food sovereignty strategy. This research suggests that a food sovereignty approach still rooted in mainstream development models faces significant obstacles to moving beyond food security and into a farmer-led food sovereignty agenda. © 2015, Springer Science+Business Media Dordrecht.</t>
         </is>
       </c>
       <c r="E243" t="n">
@@ -8362,15 +8384,15 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Community context of food justice: Reflections on a free local produce program in a New Orleans food desert</t>
+          <t>Monitoring of food security in the Russian Federation: Methodology and assessment</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Food justice discourse has emerged partly in response to the critique of alternative food networks during the last decade, but its justice conceptualization tends to be too narrowly focused on food-related injustices rather than broader social injustices that shape food access and food sovereignty, a gap we address. Our analysis of a semi-experimental free local food program we administered in a New Orleans food desert demonstrates that several community context factors shape the residents' access to a local food market in this neighborhood: fragmented social ties, digital and generational divides, perpetual infrastructural failure, and the location of the market within the neighborhood. We argue that food justice discourse needs to incorporate social and cultural community contexts in its operationalization of food access and sovereignty, especially regarding how the latter concept is defined and executed in practice. © 2017 Laura McKinney et al.</t>
+          <t>The paper presents the results of food security research in the Russia Federation. Providing food security and country's independence becomes the core of keeping the national sovereignty under conditions of globalization and integration processes development. It determined the research relevance. The purpose of the research is the development of a new methodological approach to monitoring of food security as one of most important components of an efficient protection system of the latter. Integrative reproduction approach to monitoring of country's food security meeting stability criteria, economic and social ecological efficiency, competitive ability and safety is suggested. The composition of indicators arranged in four groups is developed within the framework of such approach in order to carry out all-round monitoring of Russian Federation's food security: agroindustrial complex production capacity and its efficient use; food accessibility; food affordability; food quality and level. The assessment of Russian Federation's agriculture facilities, agricultural products output dynamics, agricultural raw materials and provisions export and import, level of staple foods consumption by the population and Russians' diet is given based on indicative analysis. The main threats to Russia's food security are revealed (productive powers deindustrialization; low level of investment to the agricultural sector; labour force reduction; increase in dependence on imported foodstuff; population's low income level and living standards, etc.) Recommendations regarding Russian Federation's food security level increase are given (carrying out augmented technologic modernization, establishing a brand new enterprise network, development of associations and cooperatives, increase in government control combined with agricultural producers' business activity, development of market forms of cooperation and integration).</t>
         </is>
       </c>
       <c r="E244" t="n">
@@ -8394,15 +8416,15 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Seed laws, certification and standardization: outlawing informal seed systems in the Global South</t>
+          <t>Breeding Apples for Oranges: Africa's Misplaced Priority Over Plant Breeders' Rights</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>A series of relatively new seed laws are becoming novel mechanisms of accumulation by dispossession in agriculture. Many researchers have argued that intellectual property rights (IPR) laws that apply to living materials dispossess people of seeds by privatizing germplasm. What these authors have not addressed is the role that non-IPR-related seed laws play in the seed enclosure. I argue that we should pay more attention to the implications of seed laws and regulations that do not deal directly with IPR issues, because they are also being used to outlaw practices that are necessary for the functioning of informal seed systems. As a result, they are setting the stage for the further erosion of seed sovereignty and are becoming an additional threat to an already waning agro-biodiversity, with direct consequences for farmers’ livelihoods. These seed laws establish certification requirements and quality standards for the marketing and/or exchange of seeds. I use the example of contemporary Colombian seed politics to illustrate how and why certification requirements and quality standards are currently being introduced throughout the Global South. I draw on insights from the standards literature in order to explain the power, limitations and consequences of these laws. © 2016 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>In 2000, African countries expressed reservation over the adoption of UPOV Act of 1991 as a model of plant breeders' rights (PBRs) for TRIPS-compliance. For the continent, an acceptable system of PBRs protection would include the protection of the rights of communities and associated indigenous knowledge, innovations, technologies and farming practices. One and half decades after, Africa has virtually reversed itself and embraced the UPOV-PBRs system notwithstanding the latter's narrow focus on breeders and marginal reference to farmers. This Article critically explores the concerted sites of pressures, especially free trade and economic partnership agreements, and related policies through which Africa appears to have capitulated and upturned its policy position on PBRs. The continent's present priority over the implementation of PBRs through various regional and national legal initiatives currently at the instance of African Intellectual Property Organization (OAPI), the African Regional Intellectual Property Organization (ARIPO), the Southern African Economic Community (SADC) and specific country initiatives are explored. The article highlights the basis for the incongruity of Africa's newfound interest in the UPOV-PBRs system-a regime not designed for the farmer-centered tenor of African agriculture. It calls attention to the continued relevance of Africa's 2000 Model Law, especially as it applies to PBRs and recommends reality assessment as an important step toward the formulation of IPRs system suited for stakeholders in African agriculture for the continent's food security and food sovereignty. © 2015 John Wiley &amp; Sons Ltd.</t>
         </is>
       </c>
       <c r="E245" t="n">
@@ -8428,24 +8450,22 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Food professionals’ opinions of the Food Studies curriculum in Australia</t>
+          <t>Concern over palm oil expansion</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Purpose: The purpose of this paper is to investigate the food system professionals’ opinions of a new senior secondary school food literacy curriculum named Victorian Certificate of Education Food Studies in Victoria, Australia. Design/methodology/approach: A purposive sample of 34 food system professionals from different sub-sectors within the Australian food system was interviewed individually in late 2015 and early 2016. Interviews were analysed using the template analysis technique. Findings: Most participants appreciated the extensive coverage of food literacy aspects in this new curriculum. However, many suggested amendments to the curriculum including pay less emphasis on food history-related topics and pay more focus on primary food production, nutrition awareness and promotion, and food security, food sovereignty, social justice, and food politics. Practical implications: A well-structured, comprehensive secondary school food literacy curriculum could play a crucial role in providing food literacy education for adolescents. This will help them to establish healthy food patterns and become responsible food citizens. The findings of this study can be used to modify the new curriculum to make it a more comprehensive, logical, and feasible curriculum. Moreover, these findings could be used to inform the design of new secondary school food literacy curricula in Australia and other countries. Originality/value: The exploration of perspectives of professionals from a broad range of food- and nutrition-related areas about school food literacy education makes this study unique. This study highlights the importance of food professionals’ opinions in secondary school food-related curricula development. © 2017, © Emerald Publishing Limited.</t>
+          <t>A coalition of organizations and representatives of civil society from across Asia, Africa, and Latin America expressed their concerns about the impact of Europe's biofuels policies, particularly on escalating demand for palm oil, implying an unsustainable global land footprint. Around 90% of the world's palm oil is grown in Indonesia and Malaysia. The growth of palm oil plantations in Latin America and Africa indicated that it has led to land grabbing and conflict, along with loss of clean water supplies, food sovereignty and cultural integrity. The coalition urge all member states of the European Parliament to vote for biofuels policy reforms that will ensure the protection of people and environment from the affected regions from the impacts of palm oil expansion.</t>
         </is>
       </c>
       <c r="E246" t="n">
         <v>1</v>
       </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+      <c r="F246" t="n">
+        <v>1</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -8462,709 +8482,29 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Reintegrating economy, society, and environment for cooperative futures: Polanyi, Marx, and food sovereignty</t>
+          <t>Seed exchange networks and food system resilience in the United States</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>This paper attempts to ‘put in their place' (Sum and Jessop 2013) some key issues that frame the question of ‘the more-than-economic dimensions of co-operation'. In particular, it asks why capitalism deconstructs socio-natural reality into the ‘common-sense' and discrete institutional spheres of ‘economy', ‘society' and ‘environment', an institutional constellation in which the ‘economy' is usually afforded pre-eminence. Building on this, the paper further asks: why does the organization of society around the commodity form, and specifically around the generalization of the commodity form to labour-power that is the defining feature of capitalism, have the tendential effect of fragmenting, atomizing, and marginalizing social collectivities and cooperative behaviour? This question is answered through examination of the work of Polanyi and Marx, arguing that it is the latter who is best able to explain the nature and dynamics of capitalism, and its relationship to cooperative activity. The paper elaborates the Marxian approach and suggests strong linkages with the ‘radical' fraction of the food sovereignty movement. The latter, like Marx, appears to invoke unconstrained cooperation as ‘actual' autonomy; the paper asks what the political and ecological prerequisites for the realization of this social imaginary might be. © 2016 Elsevier Ltd</t>
+          <t>Seed exchange is a multidimensional issue with social, political, economic, and agricultural implications. There is a growing concern about the increase of the food system’s vulnerability as a result of loss of agricultural biodiversity. Farmers’ ability to replant, exchange, and distribute saved seed is a way to minimize their dependence on commercial suppliers and thereby maintain control over farming practices. Seed saving is also crucial for conservation because the process of choosing, replanting, and exchanging seeds relies on and increases diversity on the farm and in communities. Seed exchange networks, formal and informal ways that farmers engage alongside institutional plant breeding systems, help to conserve agricultural, social, and cultural diversity and identity as well as enhance resilience against environmental and economic shocks. However, how to build resilient seed systems and move from the innovative but relatively isolated project activities of professionals and farmers to a situation where such approaches are scaled up and networked alongside formal and informal, national and international plant breeding mechanism are a concern. This paper examines grassroots seed exchange through seed libraries, the marketing of new varieties through seed companies, and hybrid civil society-business models to understand their financial and technical abilities as well as challenges they face. Seed exchange networks fulfill an important role in conservation of agricultural biodiversity and building community resilience through their work on breeding, exchange, and propagation of regionally adapted open-pollinated seeds as well as advocacy on seed sovereignty and education on seed saving. © 2015, AESS.</t>
         </is>
       </c>
       <c r="E247" t="n">
         <v>1</v>
       </c>
-      <c r="F247" t="n">
-        <v>1</v>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G247" t="n">
         <v>1</v>
       </c>
       <c r="H247" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>Value chain governance and governmentality of horticultural exporters by developing economies: A perspective of Kenya's fresh fruits and vegetable export sector</t>
-        </is>
-      </c>
-      <c r="C248" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>The domain of governance has largely been extolled by Nations, States or governmental and intergovernmental actors especially in upholding Nations' sovereignty and values. While this still holds, governance complexity has been reinforced by establishment of global value chains such as in food and agriculture commodities increasingly being influenced and controlled by non-state actors in different parts of the world by both corporate and retail actors through private governance mechanisms. These mechanisms often fall short of universal standards and the resultant effect is ramified through proliferation of standards that result to state of governance that is constantly being redefined as 'codes of colours'. This paper thus seeks for an alternate dimension based on Foucault's governmentality theory. The quest for this overarching theory is based on its mediatory role that regulates the excesses of private interests in regulations while not prioritizing any state's sovereignty but views governance inclusively to both the State and non-state actors; this view promotes the broader understating of global value chains in the global economy of the 21st century. The paper's methodology is based on literature review pertinent to governance theory, value chain governance, governmentality as its key variables in light of the agrifood sector. It applies the value chain discourse and governmentatity in light of the Kenya's Horticultural export and strategic positioning to the EU market. This paper's novelty in light of the discourse and building on the body of knowledge and for the plausible ways and means to re-articulate value chain governance in the global economy while creating a viable alternative between the States, and Non-State actors for the benefit of both the upstream agents and downstream customers.</t>
-        </is>
-      </c>
-      <c r="E248" t="n">
-        <v>1</v>
-      </c>
-      <c r="F248" t="n">
-        <v>1</v>
-      </c>
-      <c r="G248" t="n">
-        <v>1</v>
-      </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>‘Rescaling’ alternative food systems: from food security to food sovereignty</t>
-        </is>
-      </c>
-      <c r="C249" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>In this paper, we critically interrogate the benefits of an interdisciplinary and theoretically diverse dialogue between ‘local food’ and ‘alternative food networks’ (AFNs) and outline how this dialogue might be enriched by a closer engagement with discourses of food sovereignty and the politics of scale. In arguing for a shift towards a greater emphasis on food sovereignty, we contend that contemporary discourses of food security are inadequate for the ongoing task of ensuring a just and sustainable economy of food. Further, rather than treating the local and the global as ontologically given categories around which to contest the politics of food, it is our contention that recognising the socio-spatial aspects of the politics of scale has the potential to reinvigorate discourses of food security, food sovereignty and AFNs. Understanding scale as both fixed to a degree as well as contingent and dynamic has implications for an understanding of the role of food systems, for how the rescaled state privileges certain food systems and the possibilities for resistance through ‘jumping scale’ and food utopias. All of these aspects are significant if we are to fully comprehend and contest the challenges of envisioning and enacting real utopias of food sovereignty. © 2015, Springer Science+Business Media Dordrecht.</t>
-        </is>
-      </c>
-      <c r="E249" t="n">
-        <v>1</v>
-      </c>
-      <c r="F249" t="n">
-        <v>1</v>
-      </c>
-      <c r="G249" t="n">
-        <v>1</v>
-      </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>Sovereignty, Risk and Biotechnology: Zambia's 2002 GM Controversy in Retrospect</t>
-        </is>
-      </c>
-      <c r="C250" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>The southern African food crisis of 2002 led to one of the most significant controversies over the use of genetically modified (GM) crops in the developing world to date. Zambia's staunch opposition to GM food aid during the crisis is still frequently used as a reference point in debates over GM seed technology in agricultural development, and the morality of advanced biotechnology. This article re-examines the controversy and its contemporary relevance using oral history interviews with key scientists, policy makers and development practitioners engaged in debates and decision-making processes in Zambia in 2002, alongside a review of discourses in the Zambian press. The author argues that, rather than different perceptions of health and environmental risks derived from GM crops, it was questions of sovereign regulatory control of technology in a context of diminished state capacity - and the decline in the Zambian state's capacity for agricultural science research in particular - that played a central role in shaping anti-GM attitudes. In addition, trust in the arguments of GM advocates was diminished by communication efforts which treated Zambian scientists and policy elites as a lay rather than an expert audience. © 2015 International Institute of Social Studies.</t>
-        </is>
-      </c>
-      <c r="E250" t="n">
-        <v>1</v>
-      </c>
-      <c r="F250" t="n">
-        <v>1</v>
-      </c>
-      <c r="G250" t="n">
-        <v>1</v>
-      </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>Accountability and the empowerment of rural people’s organizations in global rural transformation</t>
-        </is>
-      </c>
-      <c r="C251" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>How to ensure that what has been termed a ‘rural transformation agenda’ is formulated with the participation of organizations directly representing those sectors of the population most strongly and directly affected? Under what conditions might peoples’ movements adopt accountability to support their struggles? This article approaches questions like these by examining the innovative setting of the reformed Committee on World Food Security, in which civil society engages on the same footing as governments. © 2016 Society for International Development.</t>
-        </is>
-      </c>
-      <c r="E251" t="n">
-        <v>1</v>
-      </c>
-      <c r="F251" t="n">
-        <v>1</v>
-      </c>
-      <c r="G251" t="n">
-        <v>1</v>
-      </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>Food or flowers? Contested transformations of community food security and water use priorities under new legal and market regimes in Ecuador's highlands</t>
-        </is>
-      </c>
-      <c r="C252" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>During the past three decades, the Pisque watershed in Ecuador's Northern Andes has become the country's principal export-roses producing area. Recently, a new boom of local smallholders have established small rose greenhouses and joined the flower-export business. This has intensified water scarcity and material/discursive conflicts over water use priorities: water to defend local-national food sovereignty or production for export. This paper examines how including peasant flower farms in the capitalist dream - driven by a 'mimetic desire' and copying large-scale capitalist flower-farm practices and technologies - generates new intra-community conflicts over collective water rights, extending traditional class-based water conflicts. New allocation principles in Ecuador's progressive 2008 Constitution and 2014 Water Law prioritising food production over flowers' industrial water use are unlikely to benefit smallholder communities. Instead, decision-making power for peasant communities and their water users' associations on water use priority would enable water user prioritization according to smallholders' own preferences. © 2016 Elsevier Ltd.</t>
-        </is>
-      </c>
-      <c r="E252" t="n">
-        <v>1</v>
-      </c>
-      <c r="F252" t="n">
-        <v>1</v>
-      </c>
-      <c r="G252" t="n">
-        <v>1</v>
-      </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>Agrobiodiversity Under Different Property Regimes</t>
-        </is>
-      </c>
-      <c r="C253" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>Having an adequate and extensively recognized resource governance system is essential for the conservation and sustainable use of crop genetic resources in a highly populated planet. Despite the widely accepted importance of agrobiodiversity for future plant breeding and thus food security, there is still pervasive disagreement at the individual level on who should own genetic resources. The aim of the article is to provide conceptual clarification on the following concepts and their relation to agrobiodiversity stewardship: open access, commons, private property, state property and common heritage of humankind. After presenting each property regime, we will examine whether and how these incentivize the conservation, improvement and sharing of crop genetic resources, and conclude by defending a mixed property regime. © 2016, Springer Science+Business Media Dordrecht.</t>
-        </is>
-      </c>
-      <c r="E253" t="n">
-        <v>1</v>
-      </c>
-      <c r="F253" t="n">
-        <v>1</v>
-      </c>
-      <c r="G253" t="n">
-        <v>1</v>
-      </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>Critical food systems education (CFSE): educating for food sovereignty</t>
-        </is>
-      </c>
-      <c r="C254" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>Food systems education can help individuals and communities transition to more sustainable food systems. Despite the growing scholarship on food systems education, there is a paucity of critical perspectives on its pedagogical methods, learning outcomes, and overarching objectives. This article addresses this gap by integrating insights from critical pedagogy, food justice, food sovereignty, and agroecology, developing a new synthetic area of study and research entitled critical food systems education (CFSE). CFSE is composed of a tripartite perspective, consisting of praxis, policy, and pedagogy. This framework is guided by the following overarching question: How can food systems education prepare individuals and teachers to transform the food system, and help communities attain food sovereignty? Following a review of the food systems education literature, we highlight the constraints of the depoliticized approach by drawing attention to its race and class-based assumptions. We then construct a definition of CFSE, and articulate the theoretical and practical cornerstones of this perspective, which are drawn from critical pedagogy, food justice, food sovereignty, and agroecology. A case study of a seed sovereignty project at a vocational high school associated with Brazil’s Landless Workers Movement is used to exemplify how CFSE can contribute to educating for food sovereignty. © 2016 Taylor &amp; Francis.</t>
-        </is>
-      </c>
-      <c r="E254" t="n">
-        <v>1</v>
-      </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G254" t="n">
-        <v>1</v>
-      </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>Farmer seed networks make a limited contribution to agriculture? Four common misconceptions</t>
-        </is>
-      </c>
-      <c r="C255" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>The importance of seed provisioning in food security and nutrition, agricultural development and rural livelihoods, and agrobiodiversity and germplasm conservation is well accepted by policy makers, practitioners and researchers. The role of farmer seed networks is less well understood and yet is central to debates on current issues ranging from seed sovereignty and rights for farmers to GMOs and the conservation of crop germplasm. In this paper we identify four common misconceptions regarding the nature and importance of farmer seed networks today. (1) Farmer seed networks are inefficient for seed dissemination. (2) Farmer seed networks are closed, conservative systems. (3) Farmer seed networks provide ready, egalitarian access to seed. (4) Farmer seed networks are destined to weaken and disappear. We challenge these misconceptions by drawing upon recent research findings and the authors' collective field experience in studying farmer seed systems in Africa, Europe, Latin America and Oceania. Priorities for future research are suggested that would advance our understanding of seed networks and better inform agricultural and food policy. © 2015 The Authors. Published by Elsevier Ltd.</t>
-        </is>
-      </c>
-      <c r="E255" t="n">
-        <v>1</v>
-      </c>
-      <c r="F255" t="n">
-        <v>1</v>
-      </c>
-      <c r="G255" t="n">
-        <v>1</v>
-      </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>Food sovereignty as decolonization: some contributions from Indigenous movements to food system and development politics</t>
-        </is>
-      </c>
-      <c r="C256" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>The popularity of ‘food sovereignty’ to cover a range of positions, interventions, and struggles within the food system is testament, above all, to the term’s adaptability. Food sovereignty is centrally, though not exclusively, about groups of people making their own decisions about the food system—it is a way of talking about a theoretically-informed food systems practice. Since people are different, we should expect decisions about food sovereignty to be different in different contexts, albeit consonant with a core set of principles (including women’s rights, a shared opposition to genetically modified crops, and a demand for agriculture to be removed from current international trade agreements). In this paper we look at the analytical points of friction in applying ideas of food sovereignty within the context of Indigenous struggles in North America. This, we argue, helps to clarify one of the central themes in food sovereignty: that it is a continuation of anti-colonial struggles, even in post-colonial contexts. Such an examination has dividends both for scholars of food sovereignty and for those of Indigenous politics: by helping to problematize notions of food sovereignty and postcoloniality, but also by posing pointed questions around gender for Indigenous struggles. © 2014, Springer Science+Business Media Dordrecht.</t>
-        </is>
-      </c>
-      <c r="E256" t="n">
-        <v>1</v>
-      </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G256" t="n">
-        <v>1</v>
-      </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>European transitions towards a corporate-environmental food regime: Agroecological incorporation or contestation?</t>
-        </is>
-      </c>
-      <c r="C257" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>The 'food regime' concept helps to analyse potential transitions beyond the agro-industrial regime which has been globally dominant since the 1970s. As its multiple crises generate alternative production methods and products, some have been incorporated into a nascent 'corporate-environmental food regime'. This nascent regime is illustrated here by two agendas prominent in Europe - 'bioeconomy' (Life Sciences) and 'sustainable intensification' (neoproductivism). As a significant difference, the prevalent 'bioeconomy' agenda marginalises agroecological practices, while 'sustainable intensification' selectively incorporates such practices within a broader toolkit including biotech. Regardless of that difference, both agendas reinforce a neoliberal productivist narrative: namely, more resource-efficient methods are necessary for increasing production to fulfill the greater market demand for food, feed, fuel, etc. In this way, the capital-accumulation driver is reified as 'market demand' arising exogenously from the food production system - which thereby accommodates societal needs. By contrast, the agroecology narrative diagnoses the problem as profit-driven agro-industrial monoculture systems making farmers dependent on external inputs, undermining their knowledge, and distancing consumers from agri-producers. Through such a narrative, new alliances have elaborated a different future linking farmers' knowledge-exchange, agroecology, food sovereignty, citizens' initiatives, public knowledge about food production, etc. Civil society organisations have facilitated such linkages among researchers, scientists and social movements. In those ways, contending narratives justify different trajectories for an agro-food transition. Each links different innovation paradigms of technique, quality and knowledge. These differences often remain implicit amidst broad terms such as bioeconomy, sustainable intensification, agroecology, etc. Making the divergences explicit can help contest transitions towards a corporate-environmental food regime, while also counterposing agroecological alternatives. © 2015 Elsevier Ltd.</t>
-        </is>
-      </c>
-      <c r="E257" t="n">
-        <v>1</v>
-      </c>
-      <c r="F257" t="n">
-        <v>1</v>
-      </c>
-      <c r="G257" t="n">
-        <v>1</v>
-      </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>Return to Freedom: Anti-GMO Aloha ‘Āina Activism on Molokai as an Expression of Place-based Food Sovereignty</t>
-        </is>
-      </c>
-      <c r="C258" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>Abstract: This paper explores the concept of food sovereignty on the island of Molokai, where the Hawaiian value of aloha ‘āina, or love for the land, guides local efforts to preserve and promote local food production. This organizing concept also has political undertones—food sovereignty requires access to land and resources, both of which Native Hawaiians have historically been dispossessed of since colonial contact. In the paper, I examine current anti-genetically modified organism (GMO) activism as one example of the uniquely Hawaiian food sovereignty efforts taking place on Molokai. I present two key arguments. First, I show how the anti-GMO platform, which has garnered support from both native Hawaiians and more recent settlers, reflects a strategic alliance that gives greater momentum to Hawai‘i's food sovereignty movement, which in turn is viewed by a growing number of Native Hawaiians as a pathway toward Indigenous sustainable self-determination. I also draw from the Molokai case to illustrate a perceived tension between community-based work and political engagement that exists within both the food sovereignty paradigm and the contemporary Indigenous sovereignty framework. I argue that aloha ‘āina as a cultural and political praxis suggests ‘ways out’ of this apparent paradox, by showing how Hawaiians have historically engaged simultaneously in both community-based practices and political activism as a means to care for their land and people. While food sovereignty on Molokai calls for the privileging of place-based knowledge, there are lessons to be learnt for social movements elsewhere that are also struggling internally to deconstruct and define what is meant by food sovereignty, and how best to achieve it. © 2014 Taylor &amp; Francis.</t>
-        </is>
-      </c>
-      <c r="E258" t="n">
-        <v>1</v>
-      </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G258" t="n">
-        <v>1</v>
-      </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>From world hunger to food sovereignty: Food ethics and human development</t>
-        </is>
-      </c>
-      <c r="C259" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>The role of Amartya Sen's early work on famine notwithstanding, food security is generally seen as but one capability among many for scholars writing in development ethics. The early literature on the ethics of hunger is summarized to show how Sen's Poverty and Famines was written in response to debates of past decades, and a brief discussion of food security as a capability follows. However, Sen's characterization of smallholder food security also supports the development of agency in both a political and an economic sense. Economic agency is discussed and tied to longstanding literatures on the moral significance of farming within political economy. Finally, while the newly emergent literature on food sovereignty includes many themes, it is shown to be re-Articulating arguments that stress smallholder's economic agency as a development goal. This pattern of argument thus provides a way to reconcile at least some of the claims being advanced under the banner of food sovereignty with the human development approach, while also restoring food ethics to a more central place in the overall discourse of development ethics. © 2015 Taylor &amp; Francis.</t>
-        </is>
-      </c>
-      <c r="E259" t="n">
-        <v>1</v>
-      </c>
-      <c r="F259" t="n">
-        <v>1</v>
-      </c>
-      <c r="G259" t="n">
-        <v>1</v>
-      </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>The Conflicted Nature of Food Security Policy: Balancing Rice, Sugar and Palm Oil in Indonesia</t>
-        </is>
-      </c>
-      <c r="C260" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>Given the multiple problems presented by food policy, food security presents a complex dilemma for policy-makers. This paper examines the contradictions presented by competing food security, food self-sufficiency and food sovereignty framings, the challenge of policy-making across multiple levels amidst competing agendas of agricultural commodity production and production for self-provisioning populations, and the need to balance economic development with sustainable food production. From an analysis of rice, palm oil and sugar cases in Indonesia, we conclude that the conflicted nature of food policy needs to be understood in terms of the way specific material and ideational, actor-specific and structural factors working across scale shape outcomes in a highly uneven fashion. We find that this produces a policy field highly resistant to single analytical approaches, opening up the wide range of internally conflicting, related policy questions encompassed by food security-related policy. © 2016 Discipline of Anthropology and Sociology, The University of Western Australia.</t>
-        </is>
-      </c>
-      <c r="E260" t="n">
-        <v>1</v>
-      </c>
-      <c r="F260" t="n">
-        <v>1</v>
-      </c>
-      <c r="G260" t="n">
-        <v>1</v>
-      </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>“We Plant Only Cotton to Maximize Our Earnings”: The Paradox of Food Sovereignty in Rural Telengana, India</t>
-        </is>
-      </c>
-      <c r="C261" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>This article critically examines the role of food sovereignty interventions in the mitigation of the impacts of neoliberal economic policies on poor farmers in the Telengana region of India. Findings based on eighteen months of ethnographic research in the Telengana region reveal that small and poor farmers face socioeconomic and cultural constraints to the adoption of food sovereignty practices and ideals. Food sovereignty prescriptions based on localized, sustainable, and subsistence agriculture paradoxically constrained farmers’ chances of maintaining viable rural livelihoods in a harsh economic climate. Based on these findings, I argue that contrary to assertions by advocates that food sovereignty is a precondition to genuine food security, farmers must first have food and livelihood security to exercise true food sovereignty that allows them more control over their livelihoods. © 2015, © Copyright 2015 by Association of American Geographers.</t>
-        </is>
-      </c>
-      <c r="E261" t="n">
-        <v>1</v>
-      </c>
-      <c r="F261" t="n">
-        <v>1</v>
-      </c>
-      <c r="G261" t="n">
-        <v>1</v>
-      </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>‘Quiet Food Sovereignty’ as Food Sovereignty without a Movement? Insights from Post-socialist Russia</t>
-        </is>
-      </c>
-      <c r="C262" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>Abstract: What does food sovereignty look like in settings where rural social movements are weak or non-existent, such as in countries with post-socialist, semi-authoritarian regimes? Focusing on Russia, we present a divergent form of food sovereignty. Building on the concept of ‘quiet sustainability’, we present a dispersed, muted, but clearly bottom-up variant we term ‘quiet food sovereignty’. In the latter, the role of the very productive smallholdings is downplayed by the state and partly by the smallholders themselves. Those smallholdings are not seen as an alternative to industrial agriculture, but subsidiary to it (although superior in terms of sociality and healthy, environmentally friendly produce). As such, ‘quiet food sovereignty’ deviates from the overt struggle frequently associated with food sovereignty. We discuss the prospects of ‘quiet food sovereignty’ to develop into a full food sovereignty movement, and stress the importance of studying implicit everyday forms of food sovereignty. © 2015 Taylor &amp; Francis.</t>
-        </is>
-      </c>
-      <c r="E262" t="n">
-        <v>1</v>
-      </c>
-      <c r="F262" t="n">
-        <v>1</v>
-      </c>
-      <c r="G262" t="n">
-        <v>1</v>
-      </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>Competing Sovereignties, Contested Processes: Insights from the Venezuelan Food Sovereignty Experiment</t>
-        </is>
-      </c>
-      <c r="C263" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>Abstract: This article explores how ‘competing sovereignties’ are shaping the political construction of food sovereignty—broadly defined as ‘the right of peoples to healthy and culturally appropriate food produced through ecologically sound and sustainable methods, and their right to define their own food and agriculture systems'. This study was motivated by a lack of clarity on the ‘sovereignty’ of food sovereignty, as noted by numerous scholars—sovereignty for whom, and how? As there is a growing consensus that there are in fact ‘multiple sovereignties’ of food sovereignty that cut across jurisdictions and scales, there is the question of how these sovereignties are competing with each other in the attempted construction of food sovereignty. This question is becoming ever more relevant as food sovereignty is increasingly adopted into state policy at various levels, calling for state and societal actors to redefine their terms of engagement. This article explores questions of ‘competing sovereignties’ by developing an analytical framework, using the lenses of scale, geography, and institutions, and applying it to Venezuela, where for the past 15 years a food sovereignty experiment has been underway in the context of a dynamic shift in state–society relations. © 2015 Taylor &amp; Francis.</t>
-        </is>
-      </c>
-      <c r="E263" t="n">
-        <v>1</v>
-      </c>
-      <c r="F263" t="n">
-        <v>1</v>
-      </c>
-      <c r="G263" t="n">
-        <v>1</v>
-      </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>Deconstructing homegardens: food security and sovereignty in northern Nicaragua</t>
-        </is>
-      </c>
-      <c r="C264" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>Development scholars and practitioners are promoting food security, food sovereignty, and the localization of food systems to prepare for the projected negative impacts of climate change. The implementation of biodiverse homegardens is often seen as a way not only to localize food production but also as a strategy in alignment with a food sovereignty agenda. While much scholarship has characterized and critiqued food security and sovereignty conceptualizations, relatively little research has examined people’s lived experiences in order to test how such theoretical visions play out on the ground in farming communities. Based on a case study of four coffee cooperatives in northern Nicaragua, we examine a non-governmental organization (NGO)-supported project promoting food security and sovereignty through development of homegardens. We ask: To what extent are homegardens an effective strategy to reach food sovereignty? And, why may farmers be resistant to changing their food production and consumption strategies to embrace biodiverse homegardens when they improve food security? We discuss characteristics of agroecological homegardens, the distinctions between food security, food sovereignty and dominant discourses of development, the history of food sovereignty in Nicaragua, and farmer perspectives on homegarden implementation. Despite historic critiques, NGOs are poised to facilitate the transformation of food and agricultural development by employing counter development strategies, a necessary step if homegardens are to be successful in the long term. To conclude, we propose some strategies NGOs and communities might pursue to move forward with homegardens as a food sovereignty strategy. This research suggests that a food sovereignty approach still rooted in mainstream development models faces significant obstacles to moving beyond food security and into a farmer-led food sovereignty agenda. © 2015, Springer Science+Business Media Dordrecht.</t>
-        </is>
-      </c>
-      <c r="E264" t="n">
-        <v>1</v>
-      </c>
-      <c r="F264" t="n">
-        <v>1</v>
-      </c>
-      <c r="G264" t="n">
-        <v>1</v>
-      </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>Monitoring of food security in the Russian Federation: Methodology and assessment</t>
-        </is>
-      </c>
-      <c r="C265" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>The paper presents the results of food security research in the Russia Federation. Providing food security and country's independence becomes the core of keeping the national sovereignty under conditions of globalization and integration processes development. It determined the research relevance. The purpose of the research is the development of a new methodological approach to monitoring of food security as one of most important components of an efficient protection system of the latter. Integrative reproduction approach to monitoring of country's food security meeting stability criteria, economic and social ecological efficiency, competitive ability and safety is suggested. The composition of indicators arranged in four groups is developed within the framework of such approach in order to carry out all-round monitoring of Russian Federation's food security: agroindustrial complex production capacity and its efficient use; food accessibility; food affordability; food quality and level. The assessment of Russian Federation's agriculture facilities, agricultural products output dynamics, agricultural raw materials and provisions export and import, level of staple foods consumption by the population and Russians' diet is given based on indicative analysis. The main threats to Russia's food security are revealed (productive powers deindustrialization; low level of investment to the agricultural sector; labour force reduction; increase in dependence on imported foodstuff; population's low income level and living standards, etc.) Recommendations regarding Russian Federation's food security level increase are given (carrying out augmented technologic modernization, establishing a brand new enterprise network, development of associations and cooperatives, increase in government control combined with agricultural producers' business activity, development of market forms of cooperation and integration).</t>
-        </is>
-      </c>
-      <c r="E265" t="n">
-        <v>1</v>
-      </c>
-      <c r="F265" t="n">
-        <v>1</v>
-      </c>
-      <c r="G265" t="n">
-        <v>1</v>
-      </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>Breeding Apples for Oranges: Africa's Misplaced Priority Over Plant Breeders' Rights</t>
-        </is>
-      </c>
-      <c r="C266" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>In 2000, African countries expressed reservation over the adoption of UPOV Act of 1991 as a model of plant breeders' rights (PBRs) for TRIPS-compliance. For the continent, an acceptable system of PBRs protection would include the protection of the rights of communities and associated indigenous knowledge, innovations, technologies and farming practices. One and half decades after, Africa has virtually reversed itself and embraced the UPOV-PBRs system notwithstanding the latter's narrow focus on breeders and marginal reference to farmers. This Article critically explores the concerted sites of pressures, especially free trade and economic partnership agreements, and related policies through which Africa appears to have capitulated and upturned its policy position on PBRs. The continent's present priority over the implementation of PBRs through various regional and national legal initiatives currently at the instance of African Intellectual Property Organization (OAPI), the African Regional Intellectual Property Organization (ARIPO), the Southern African Economic Community (SADC) and specific country initiatives are explored. The article highlights the basis for the incongruity of Africa's newfound interest in the UPOV-PBRs system-a regime not designed for the farmer-centered tenor of African agriculture. It calls attention to the continued relevance of Africa's 2000 Model Law, especially as it applies to PBRs and recommends reality assessment as an important step toward the formulation of IPRs system suited for stakeholders in African agriculture for the continent's food security and food sovereignty. © 2015 John Wiley &amp; Sons Ltd.</t>
-        </is>
-      </c>
-      <c r="E266" t="n">
-        <v>1</v>
-      </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G266" t="n">
-        <v>1</v>
-      </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>Concern over palm oil expansion</t>
-        </is>
-      </c>
-      <c r="C267" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>A coalition of organizations and representatives of civil society from across Asia, Africa, and Latin America expressed their concerns about the impact of Europe's biofuels policies, particularly on escalating demand for palm oil, implying an unsustainable global land footprint. Around 90% of the world's palm oil is grown in Indonesia and Malaysia. The growth of palm oil plantations in Latin America and Africa indicated that it has led to land grabbing and conflict, along with loss of clean water supplies, food sovereignty and cultural integrity. The coalition urge all member states of the European Parliament to vote for biofuels policy reforms that will ensure the protection of people and environment from the affected regions from the impacts of palm oil expansion.</t>
-        </is>
-      </c>
-      <c r="E267" t="n">
-        <v>1</v>
-      </c>
-      <c r="F267" t="n">
-        <v>1</v>
-      </c>
-      <c r="G267" t="n">
-        <v>1</v>
-      </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>Seed exchange networks and food system resilience in the United States</t>
-        </is>
-      </c>
-      <c r="C268" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>Seed exchange is a multidimensional issue with social, political, economic, and agricultural implications. There is a growing concern about the increase of the food system’s vulnerability as a result of loss of agricultural biodiversity. Farmers’ ability to replant, exchange, and distribute saved seed is a way to minimize their dependence on commercial suppliers and thereby maintain control over farming practices. Seed saving is also crucial for conservation because the process of choosing, replanting, and exchanging seeds relies on and increases diversity on the farm and in communities. Seed exchange networks, formal and informal ways that farmers engage alongside institutional plant breeding systems, help to conserve agricultural, social, and cultural diversity and identity as well as enhance resilience against environmental and economic shocks. However, how to build resilient seed systems and move from the innovative but relatively isolated project activities of professionals and farmers to a situation where such approaches are scaled up and networked alongside formal and informal, national and international plant breeding mechanism are a concern. This paper examines grassroots seed exchange through seed libraries, the marketing of new varieties through seed companies, and hybrid civil society-business models to understand their financial and technical abilities as well as challenges they face. Seed exchange networks fulfill an important role in conservation of agricultural biodiversity and building community resilience through their work on breeding, exchange, and propagation of regionally adapted open-pollinated seeds as well as advocacy on seed sovereignty and education on seed saving. © 2015, AESS.</t>
-        </is>
-      </c>
-      <c r="E268" t="n">
-        <v>1</v>
-      </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G268" t="n">
-        <v>1</v>
-      </c>
-      <c r="H268" t="inlineStr">
         <is>
           <t>_</t>
         </is>
